--- a/consultancy_reports_texts.xlsx
+++ b/consultancy_reports_texts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loowenwen/Desktop/Visual Code Studio/jtc-market-sentiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C83F3C-F35A-D248-9F93-C5958DB80702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CAFA05-C39E-354E-9A92-3CEF61A3282A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,11 @@
     <sheet name="2022_2" sheetId="10" r:id="rId6"/>
     <sheet name="2022_3" sheetId="9" r:id="rId7"/>
     <sheet name="2022_4" sheetId="11" r:id="rId8"/>
-    <sheet name="2021" sheetId="6" r:id="rId9"/>
-    <sheet name="2020" sheetId="7" r:id="rId10"/>
-    <sheet name="working" sheetId="2" r:id="rId11"/>
+    <sheet name="2021_1" sheetId="6" r:id="rId9"/>
+    <sheet name="2021_2" sheetId="12" r:id="rId10"/>
+    <sheet name="2021_3" sheetId="13" r:id="rId11"/>
+    <sheet name="2020_1" sheetId="7" r:id="rId12"/>
+    <sheet name="2020_2" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">master!$A$1:$E$98</definedName>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="291">
   <si>
     <t>File Name</t>
   </si>
@@ -906,228 +908,19 @@
   </si>
   <si>
     <t>2021 Reports/2021 Q4/Savills_Singapore Industrial Briefing_Q42021.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prime logistics rents grew by a further 1.2% in  Q4 2022, bringing annual growth for 2022 for this  segment to 5.1%.  1 Industrial Q4 2022 &amp; Outlook: Tough act to follow Quarterly and Outlook | Singapore | Feb 2023 Source Colliers, JTC; Note: 1 sq m = 10.764 sf. "pp" refers to percentage point. *Rents, capital values and yields refer to prime logistics assets. The overall vacancy rate increased to 10.6% in  Q4 2022 due to the pickup in new completions. Capital values for prime logistic assets grew by  1.2% in Q4 2022, bringing annual growth for  prices to 4.5%. Net absorption was 2.89 mil sf in Q4 2022,  bringing total net absorption for 2022 to 7.89 mil sf. About 5.24 mil sf of industrial space came  onstream in Q4 2022, bringing total net supply  for 2022 to 14.12 mil sf.  Insights &amp; recommendations * Notwithstanding a slight drop in overall occupancy from 89.7% in Q3 2022 to 89.4% this quarter, both the JTC  industrial price and rental indices continued their ninth consecutive quarter of growth.  * The rental index rose by 2.1% q-o-q, maintaining its pace last quarter. This marks a 6.9% annual growth for  2022, making it the fastest y-o-y rental growth since Q3 2013. The price index rose by 1.7% q-o-q, easing from  the 2.0% q-o-q growth last quarter. This marks a 8.5% annual growth for 2022 and would make it the fastest y- o-y price growth since Q2 2013.  * Colliers expects rental growth to moderate to between 1 to 3% for this 2023. On the other hand, industrial  prices could increase at a higher clip of between 3 to 5% due to sustained interest in industrial assets with their  higher yields and limited availability. There should also be more sale and leaseback activities as companies look  to free up some capital.  Demand Supply Rent* Vacancy Capital Values/Yields* Full Year 2023 Historical Average  2018-2022  Q4 2022 2.89 mil sf 11.96 mil sf 7.65 mil sf YOY change/ End 2023 YOY / Q4 2022 QOQ / End Q4 SGD1.64 1.0% SGD1.69 3.0% SGD1.64 5.1% 5.24 mil sf 18.91 mil sf 8.07 mil sf 10.6% 0.3 pp 11.5% 0.9 pp 10.6% 0.8 pp SGD209 psf 1.2% SGD215 psf 2.9% SGD209 psf 4.5% 88.0 89.0 90.0 91.0 -2.0 0.0 2.0 4.0 6.0 8.0 10.0 12.0 14.0 16.0 2018 2019 2020 2021 2022 Q1 2022 Q2 2022 Q3 2022 Q4 2022 Occupancy (%) Change in stock (mil sf) 80.0 81.0 82.0 83.0 84.0 85.0 86.0 87.0 -0.2 0.0 0.2 0.4 0.6 0.8 1.0 1.2 2018 2019 2020 2021 2022 Q1 2022 Q2 2022 Q3 2022 Q4 2022 Occupancy (%) Change in stock (mil sf) Net Supply Net Absorption Occupancy Rate Factory The rental indices for both multiple-user/single-user  factory have increased by 2.6%/1.3% q-o-q respectively,  marking an annual growth of 8.3%/4.1% for 2022. This  also makes multiple-user factories stand out as the  segment with the highest rental growth, as occupiers  seek office grade industrial spaces. However, the rental growth and demand for factories is  likely to slow on the back of a weaker manufacturing  outlook and a higher supply pipeline. Nevertheless,  there will continue to be new biomedical and semi- conductor facilities, on the back of government efforts  to attract multi-nationals to set up their manufacturing  hubs in Singapore.  2 All Industrial Property The slight drop in overall occupancy of 0.3% in Q4  2022 was due to the pickup in new completions. This  led to new supply exceeding new demand, with new  supply coming in at 5.24 mil sf, (the largest quarterly  increase since Q4 2017), while net demand came in at  just 2.89 mil sf. The same narrative applies for full year  2022, where total supply (14.12 mil sf) exceeded total  demand (7.89 mil sf). Warehouse Warehouses registered an annual rental increase of  7.9%, with occupancy tightening to 91.7% from 90.8% in  the previous quarter. Colliers has observed that the  demand for warehouse space has not abated,  supported by end-users, third-party logistics players  and food manufacturers. Specifically for prime logistics  and temperature-controlled warehouses, there is a  shortage of suitable stock to meet demand. As such,  prime logistics rents are set to continue their steady  climb on the back of limited supply and strong pre- leasing rates for this upcoming supply.  Business Parks Business parks rents have started to exhibit some  sustained growth, despite higher supply and vacancy  rates. Newer, higher specification developments in the  city fringe are still observed to have tighter vacancies  and resilient rents. This has led to some occupiers  moving to business parks further away to reduce  operating costs. Over the next few years, rents and  occupancies are likely to be dampened by a significant  supply coming onstream, coupled with weakening  demand, particularly from the tech sector.  Private warehouse demand &amp; supply Private factory demand &amp; supply Business parks demand &amp; supply Source: Colliers, JTC  All industrial demand &amp; supply 88.0 89.0 90.0 91.0 92.0 93.0 -1.0 0.0 1.0 2.0 3.0 4.0 5.0 6.0 2018 2019 2020 2021 2022 Q1 2022 Q2 2022 Q3 2022 Q4 2022 Occupancy (%) Change in stock (mil sf)  85.0  86.0  87.0  88.0  89.0  90.0  91.0  92.0  93.0 -1.0 -0.5 0.0 0.5 1.0 1.5 2.0 2.5 3.0 3.5 2018 2019 2020 2021 2022 Q1 2022 Q2 2022 Q3 2022 Q4 2022 Occupancy (%) Change in stock (mil sf) 3 Upcoming supply Colliers average industrial rents Industrial stock: Q4 2022 Q4 2022  (SGD) % Change  QOQ % Change  YOY High-specs 3.27 0.6% 2.3% Factory* 1.66 0.6% 1.8% Warehouse* 1.55 1.3% 4.4% Prime logistics 1.64 1.2% 5.1% Business Park 3.72 1.1% 1.0% Prime Business Park 6.27 0.3% 1.6% Significant upcoming projects as of Q4 2022 Source: Colliers, JTC *TOP: Temporary Occupation Permit Project Name Developer GFA ('mil sf) Expected TOP* 1 Solaris @ Tai Seng Soilbuild Group 1.13 2023 2 1 Science Park Drive Capitaland/AREIT 1.21 2025 3 Surbana Jurong Surbana 0.38 2023 4 2PS1 Soilbuild REIT 0.76 2023 5 Logos eHub at Pandan Crescent (Phase 2) Logos 0.87 2023 Factory  (Single-user) 50% Factory  (Multiple-user) 23% Warehouse 22% Business Park 5% Total Stock 559.41 mil sf *Average of upper and lower floor rents With an average annual supply of about 1.0m sqm  from 2023 till 2026 coming onstream, (compared to an  average annual supply of 0.8m sqm over the past  three years), supply is likely to outstrip demand and  weigh on rental growth. The warehouse segment  might be an exception to this trend, as there appears  to be a dearth of supply post 2024, and where pre- commitment to existing pipeline supply is high.  Economic indicators such as Singapore's  manufacturing output, NODX and PMI are collectively  pointing towards a manufacturing slowdown and  weaker demand. Against the backdrop of inflationary  pressures and rising interest rates which lead to higher  capital costs, sentiments will inevitably be affected,  leading to more industrialists becoming more cautious  about their leasing plans. On the other hand, as some  companies will want to free up capital, they might turn  to leasing instead of acquiring or owning their own  industrial space.   Consequently, Colliers expects rental growth to  moderate to between 1 to 3% for 2023, though  warehouse rents might continue to outperform on the  back of tight supply. On the other hand, industrial  prices could grow at a faster pace of between 3 to 5%  on the back of growing interest in industrial assets due  to their higher yields and limited availability. 0.40 18.9 18.0 1.4 4.0 0.0 2.0 4.0 6.0 8.0 10.0 12.0 14.0 16.0 18.0 20.0 2023F 2024F 2025F 2026F 2027F Estimated GFA (mil sf) Warehouse Business Park Single-user Factory Multi-user Factory "The consistent growth in rents has attracted  institutional investors looking for higher yields,  propping up demand for industrial assets. This  trend is set to continue in an environment of  higher rates and inflation." Lynus Pook Executive Director &amp; Head Industrial Services | Singapore About Colliers Colliers (NASDAQ, TSX: CIGI) is a leading diversified professional services and investment management company. With operations in 63 countries, our 18,000 enterprising professionals work collaboratively to provide expert real estate and investment advice to clients. For more than 27 years, our experienced leadership with significant inside ownership has delivered compound annual investment returns of approximately 20% for shareholders. With annual revenues of $4.6 billion and $92 billion of assets under management, Colliers maximizes the potential of property and real assets to accelerate the success of our clients, our investors and our people. Learn more at corporate.colliers.com, Twitter @Colliers or LinkedIn Legal Disclaimer This document/email has been prepared by Colliers for advertising and general information only. Colliers makes no guarantees, representations or warranties of any kind, expressed or implied, regarding the information including, but not limited to, warranties of content, accuracy and reliability. Any interested party should undertake their own inquiries as to the accuracy of the information. Colliers excludes unequivocally all inferred or implied terms, conditions and warranties arising out of this document and excludes all liability for loss and damages arising there from. This publication is the copyrighted property of Colliers and /or its licensor(s). (c) 2022. All rights reserved. This communication is not intended to cause or induce breach of an existing listing agreement. Lynus Pook Executive Director and Head of  Industrial Services | Singapore +65 6531 8654 lynus.pook@colliers.com For further information, please contact: Catherine He Director and Head of  Research | Singapore +65 6531 8563 catherine.he@colliers.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAR K E T B E AT Industrial Q4 2022 SINGAPORE $6.03 Business Park (City Fringe) $3.55 Business Park (Outlying Areas) $4.41 Science Park 7.3% Inflation Growth 3.8%* Real GDP Growth 2.0% Unemployment Source: Ministry of Trade &amp; Industry (MTI),  Moody's Analytics  * GDP Growth for the whole of 2022 based on MTI's  advance estimates SINGAPORE ECONOMIC INDICATORS  Q3 2022 12-Mo. Forecast 12-Mo. Forecast A Slower 2023 Singapore's economy grew by 3.8% yoy in 2022, significantly lower than 2021's growth of 7.6%, according to advance estimates from the Ministry of Trade &amp; Industry. Q4 2022 GDP growth slowed to 2.2% yoy, as compared to 4.2% yoy growth in the prior quarter. The slowdown was due to a contraction of the manufacturing sector, weighed down by lower output from the electronics, chemicals and biomedical manufacturing clusters after robust growth in 2021. Nonetheless, wholesale &amp; retail trade and transportation &amp; storage sectors continued to grow by 2.3% yoy in Q4 2022. Given a darkening economic outlook amidst persistent inflation pressures and higher interest rates, Singapore's economy is forecast to grow by 0.5% to 2.5% in 2023. While the United States and Europe, Singapore's key trading partners, heads towards an economic slowdown, the re-opening of China could provide a surprise on the upside for Singapore's economic growth. Performance Continues to Bifurcate Based on C&amp;W's basket of industrial properties, rentals across most industrial asset classes remained stable during the last quarter of this year, except for business park and high-tech space which rose. Both city-fringe and outlying business park rents went up in Q4 2022 with the former experiencing higher growth rate due to relatively tight vacancy rates. Landlords have also increased their rent expectations due to higher property operating costs. Similarly, high-tech rents inched up by 0.4% q-o-q as leasing demand was supported by high-value manufacturing sectors as well as some spillover demand from CBD office market. For the whole of 2022, prime logistics outperformed, enjoying highest rental growth of around 6%, bolstered by digital transformation, e- commerce and inventory stockpiling, while other segments also experienced steady growth. However, a weaker economic outlook and sharp rent increases in prior years would lead to increasing tenant resistance and slower rental growth in 2023. Performance across industrial property types is expected to bifurcate. New economy assets such as prime logistics, high-tech warehouses and city-fringe business parks are expected to outperform, with full year rent growth of 1.5%-3% in 2023 amidst tight supply conditions and resilient long-term demand from e-commerce, life science and technology. Conventional factories and outlying business parks are expected to see slower growth of up to 1.0% next year, given a higher supply pipeline. Nonetheless, those newer and higher spec developments would outperform older stock. INDUSTRIAL SUPPLY PIPELINE Rents (S$PSF/MO)  -  2.5  5.0  7.5  10.0 Multiple-User Factory Single-User Factory Warehouse Business Park Supply (msf) Q4 2022F 2023F 2024F MAR K E T B E AT Industrial Q4 2022 SINGAPORE SEGMENT GROSS EFFECTIVE RENT Q-O-Q   CHANGE (%) 12-MONTH OUTLOOK S$/SF/MO US$/SF/MO EUR/SF/MO Business Park (City Fringe) S$6.11 US$4.53 EUR4.26 0.9% Business Park (Outlying Areas) S$3.54 US$2.63 EUR2.47 0.3% Science Park S$4.41 US$3.27 EUR3.07 0.0% High-Tech S$3.25 US$2.41 EUR2.26 0.4% Factory - Ground Floor S$1.83 US$1.35 EUR1.27 0.0% Factory - Upper Floor S$1.62 US$1.20 EUR1.13 0.0% Warehouse - Ground Floor S$1.59 US$1.18 EUR1.11 0.0% Warehouse - Upper Floor S$1.29 US$0.96 EUR0.90 0.0% Prime Logistics - Ground Floor S$1.63 US$1.21 EUR1.14 0.0% Prime Logistics - Upper Floor S$1.50 US$1.11 EUR1.04 0.0% US$/S$ = 1.348; EUR/S$ = 1.435, as of 29 December 2022 PROPERTY SUBMARKET SELLER / BUYER PRICE (S$ Million) Enterprise Logistics Centre Tuas Far East Organization / Intex 120.6 10, 12 Mandai Estate Sungei Kadut - / - 100.0 12 Tai Seng Link Hougang OKH / Chip Eng Seng 35.0 MARKET STATISTICS PROJECT NAME SUBMARKET TENANT SF EXPECTED COMPLETION YEAR Surbana Jurong Campus Jurong West Surbana Jurong 445,000 2023 Perennial Business City Jurong East - 1,500,000 2023 Kajima Campus Changi Kajima 140,000 2023 Biopolis Phase 6 - Elementum one-north - 378,000 2023 Punggol Digital District (Phase 1) Punggol  - 1,780,000 2024 Development at 3 Science Park Drive Science Park - 310,000 2024 Punggol Digital District (Phase 2) Punggol  - 740,000 2025 Development at 1 Science Park Drive Science Park  - 1,200,000 2025 cushmanwakefield.com KEY SALES TRANSACTIONS Q4 2022 SIGNIFICANT BUSINESS PARK PROJECTS - PLANNED &amp; UNDER CONSTRUCTION WONG XIAN YANG Head of Research Singapore +65 6232 0885 / xianyang.wong@cushwake.com BRENDA ONG Executive Director Head of Logistics &amp; Industrial Services Singapore +65 6232 0878 / brenda.ong@cushwake.com A CUSHMAN &amp; WAKEFIELD RESEARCH PUBLICATION About Cushman &amp; Wakefield Cushman &amp; Wakefield (NYSE: CWK) is a leading global real estate services  firm that delivers exceptional value for real estate occupiers and owners.  Cushman &amp; Wakefield is among the largest real estate services firms with  approximately 50,000 employees in over 400 offices and approximately 60  countries. In 2021, the firm had revenue of $9.4 billion across core services  of property, facilities and project management, leasing, capital markets, and  valuation and other services. To learn more, visit  www.cushmanwakefield.com or follow @CushWake on Twitter. (c)2022 Cushman &amp; Wakefield. All rights reserved. The information   contained within this report is gathered from multiple sources believed   to be reliable. The information may contain errors or omissions and is   presented without any warranty or representations as to its accuracy. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exhibit 1: Industrial Sales Performance Number of Transactions Average Price (S$ psf) Source: URA Realis, Knight Frank Research Note: The average unit price is based on a four-quarter moving average of strata transactions.  *Q4 2022 data is based on transactions downloaded as at 30 December 2022 $1,200 $1,000 $800 $600 $400 $200 $0 600 500 400 300 200 100 0 Q1    Q2   Q3   Q4 2017 Q1    Q2   Q3   Q4 2018 Q1    Q2   Q3   Q4 2019 Q1    Q2   Q3   Q4 2020 Q1    Q2   Q3   Q4 2021    Q1    Q2   Q3   Q4* 2022 Multiple-user Factory Single-user Factory Warehouse Number of Transactions (Bar), Average Price (Line) Singapore Research Industrial and Logistics Q4 2022 " " Despite the slowing pace of growth, global manufacturers continue to set up new facilities, confident in Singapore as a long-term high-value-added location. MANUFACTURING TURNS PESSIMISTIC WITH INCREASED GLOBAL UNCERTAINTY NORISHIKIN KHALIK, DIRECTOR OCCUPIER STRATEGY AND SOLUTIONS MARKET SNAPSHOT 2,037 LEASES     8.9% Q-O-Q |     6.1% Y-O-Y  NUMBER OF INDUSTRIAL TENANCIES S$715.1 MILLION      29.4% Q-O-Q |     36.1% Y-O-Y  TOTAL INDUSTRIAL SALES 46.7 MILLION SF GFA UPCOMING SUPPLY (Q4 2022 TO 2026) Continued on next page Global economic slowdown dims Singapore business outlook In November 2022, the Ministry of Trade and Industry (MTI) announced that Singapore's  Gross Domestic Product (GDP) is expected to come in at "about 3.5%" for the year 2022 and  "0.5% to 2.5%" in 2023. Based on the Economic Survey, the Singapore economy expanded  by 4.2% y-o-y in Q3 2022, a slight moderation from the previous 4.7% y-o-y growth in Q2.  Nevertheless, as recession fears grow, the outlook has clouded business sentiments. After eight quarters of consecutive quarterly GDP growth in the manufacturing sector, with  expansions above the 5% level, the increase in Q3 was markedly less pronounced and  substantially slower at 1.4% while a negative 3.0% was recorded in Q4 2022. The drop in  global demand for semiconductors impacted the electronics segment, and overall declines  in the chemicals and biomedical clusters stymied growth in the second half of the year. As risks stemming from economic headwinds mount, business sentiments in the  manufacturing sector remained negative for the period October 2022 to March 2023  according to the Singstat Q4 2022 Business Expectations Survey. In contrast to the previous  period (July to December 2022), when a net weighted balance of 8% of manufacturing firms  anticipated a less favourable business outlook, this percentage rose to 20% in the latest  survey as the industry remains beset by continued supply chain disruptions and a prolonged  Ukraine-Russia conflict. Accordingly, the contraction in the overall Singapore Purchasing  1 The percentage changes for the total number of tenancies of all industrial space in October and November 2022 are based on a two-month comparison; q-o-q (against  July and August 2022) and y-o-y (against October and November 2021).  Knight Frank Research Reports are available at knightfrank.com.sg/research Manager's Index (PMI) that began in  September 2022 continued at 49.7 in  October, 49.8 in November and 49.7  again in December 2022.  Fewer deals transacted in Q4 Led by a hazier economic outlook and  the dampening of business sentiments,  industrial sales in the final quarter came  up to S$715.1 million, the lowest since Q2  2020 when sales grossed some S$324.8  million due to the onset of the pandemic.  Apart from the major sales of a two-storey  ramp-up warehouse, Enterprise Logistics  Centre, in Tuas for S$120.6 million in  November, and 10 and 12 Mandai Estate  for S$100 million in December, about 97.2%  of the caveats lodged in Q4 2022 were  deals below S$10 million. Industrial space  owners are increasingly adopting a cautious  stance, with expansion plans placed on hold  until there is more clarity in the unfolding  global economic situation. With the flow  of material for production inconsistent,  businesses related to  electronics do not  expect improvement until after mid-2023. While sales activity slowed, leasing  transactions remained relatively stable  in the months of October and November  2022 with businesses in general  manufacturing, construction-related  manufacturing, transport engineering  and precision engineering continuing  to expand cautiously. The median rent  for multiple-user factories increased by  8.7% y-o-y to S$1.94 psf pm with 1,571  tenancies.  Exhibit 2: Industrial Leasing Volume and Median Rentals Number of Tenancies Median Rental (S$ psf pm) Source: JTC J-Space, Knight Frank Research Note: The median rent is based on a four-quarter moving average. *Q4 2022 is based on October and November 2022 data as at end-December. $4.50 $4.00 $3.50 $3.00 $2.50 $2.00 $1.50 $1.00 5,000 4,000 3,000 2,000 1,000 0 Q1      Q2      Q3     Q4 2018 Q1      Q2      Q3     Q4 2019 Q1      Q2      Q3     Q4 2020 Q1      Q2      Q3     Q4 2021 Q1      Q2      Q3     Q4* 2022 Multiple-user Factory Single-user Factory Business Park Warehouse Number of Tenancies (Bar), Median Rentals (Line) Norishikin Khalik Director Occupier Strategy and Solutions +65 6228 7347 norishikin@sg.knightfrank.com Alvin Teng Director Occupier Strategy and Solutions (Industrial) +65 6228 6893 alvin.teng@sg.knightfrank.com For further information, please contact: Recent Publications THE WEALTH REPORT 2022 Q3 2022 INDUSTRIAL REPORT Singapore draws high-value-added manufacturing despite headwinds Since the outbreak of the pandemic, Singapore regularly attracted fixed asset investment  (FAI) into the manufacturing sector as global manufacturers looked for locations with  political stability, an educated workforce and modern infrastructure. And although  manufacturing FAI dropped significantly to S$411 million in Q3 2022 from the S$3.6  billion in Q2 2022, pharmaceutical facilities, semi-conductor production plants and data  centres are being constructed in the industrial supply pipeline. During the quarter, semi-conductor companies Applied Materials announced a S$600  million 700,000 sf plant in Tampines Industrial Crescent to be ready in 2024 that would  double its manufacturing presence in Singapore, while Soitec broke ground on a S$571  million extension to its Wafer Fab Park in Pasir Ris. Singapore will also have five new  vaccine producing facilities, set up by pharmaceutical firms Thermo Fisher Scientific,  Sanofi, BioNTech, Hilleman Laboratories and MSD. Additionally, data centre operators  Digital Realty and Equinix were reported to be looking to expand in Singapore by applying to develop new data centres,  after a moratorium issued in 2019 to  pause the release of land for data  centre use was lifted.   Market outlook The manufacturing and industrial  real-estate outlook turned cautious in  the latter half of 2022 due to rising  interest rates, continued global supply  disruptions and the challenging times  faced for the technology sector. Even  though the electronics sector is going  through a rough patch, investments  continue to flow into Singapore with the  belief that growth will return and be  sustainable in the long-run.  These in  turn create demand for local Singapore  enterprises. As such, industrial prices  and rents will remain stable with a  marginal growth of 1% to 3% for the  whole of 2023.  In the logistics segment,  where supply is tight, rents for quality  warehouse space might increase by a  higher 3% to 5% in the year ahead.   Leonard Tay Head Research +65 6228 6854 leonard.tay@sg.knightfrank.com About Knight Frank Singapore Knight Frank LLP is the leading independent global property consultancy. Headquartered in London, Knight  Frank has more than 16,000 people operating from 384 offices across 51 territories. The Group advises  clients ranging from individual owners and buyers to major developers, investors and corporate tenants.  Knight Frank has a strong presence in Singapore with a head office and two subsidiaries: Knight Frank  Property Asset Management and KF Property Network. For further information about the Company, please  visit www.knightfrank.com.sg. (c) Knight Frank 2022 This report is published for general information only. Although high standards have been used in the  preparation of the information, analysis, views and projections presented in this report, no legal responsibility  can be accepted by Knight Frank Research or Knight Frank for any loss or damage resultant from the contents  of this document. As a general report, this material does not necessarily represent the view of Knight Frank  in relation to particular properties or projects. Reproduction of this report in whole or in part is allowed with  proper reference to Knight Frank Research. SUBSCRIBE for updates and reports delivered to your inbox </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 savills.com.sg/insight-and-opinion/ MARKET IN MINUTES Savills Research Industrial Muted industrial leasing activity in Q4 Savills plc Savills is a leading global real  estate service provider listed on  the London Stock Exchange. The  company established in 1855, has  a rich heritage with unrivalled  growth. It is a company that leads  rather than follows, and now has  over 600 offi   ces and associates  throughout the Americas, Europe,  Asia Pacifi  c, Africa and the Middle  East. This report is for general  informative purposes only. It may  not be published, reproduced or  quoted in part or in whole, nor may  it be used as a basis for any  contract, prospectus, agreement  or other document without prior  consent. Whilst every eff  ort has  been made to ensure its accuracy,  Savills accepts no liability  whatsoever for any direct or  consequential loss arising from its  use. The content is strictly  copyright and reproduction of the  whole or part of it in any form is  prohibited without written  permission from Savills Research. Simon Smith Regional Head of  Research &amp; Consultancy,  Asia Pacifi  c +852 2842 4573 ssmith@savills.com.hk Alan Cheong Executive Director  Singapore +65 6415 3641 alan.cheong@savills.com.sg RESEARCH Slowdown in industrial rental growth amid economic uncertainties. "  Although lower leasing  transactions are expected in  2023, industrial rents are still  expected to rise, supported  by infl  ation and the need  to hedge against potential  supply chain disruption." ALAN CHEONG, SAVILLS RESEARCH *   Leasing volume continued to trend downwards in Q4, albeit  at a moderated rate of 3.5% year-on-year (YoY). *   Savills' average monthly rent for prime multiple-user  factories remained unchanged at S$2.01 per sq ft on a  quarter-on-quarter (QoQ) basis in Q4, while that for  warehouse and logistics properties rose further by 1.3%  QoQ to S$1.53 per sq ft. *   Strata industrial sales activity trended down further by  18.7% QoQ to 409 transactions in Q4 as sales volume fell  across all segments. *   Nevertheless, Savills' basket of industrial properties  showed that prices for 60-year leasehold and freehold  industrial properties rose by 2.4% and 2.3% QoQ to S$474  per sq ft and S$776 per sq ft respectively in Q4. *   Savills' basket of industrial properties showed that 30-year  leasehold property prices increased 2.0% QoQ to S$314 per  sq ft in Q4. *   Savills' prime business park monthly rents declined marginally  by 0.3% QoQ to S$5.91 per sq ft in Q4, after fi  ve consecutive  quarters of growth. Savills' standard business park properties  monthly rents fell by a larger 1.1% QoQ to S$4.00 per sq ft. *   The average monthly rent for Savills' high-spec industrial  basket rose at a slightly muted 0.5% QoQ to S$3.71 per sq ft  in the quarter. *   Given the strong demand for logistics and food factory  space and an environment where heightened infl  ation  persists, rents in 2023 are expected to rise with multiple- user factory rents increasing 3% to 5% and logistics &amp;  warehouses rising by 3% to 6%. Christopher J Marriott CEO, Southeast Asia  +65 6415 3888 cjmarriott@savills.asia SINGAPORE Please contact  us for further  information Savills team MCI (P) No. 062/02/2022 Company Reg No. 198703410D Sally Tan Managing Director,  Commercial, Industrial &amp;  Logistics +65 6836 6888 sally.tan@savills.com.sg Singapore - February 2023 2 savills.com.sg/insight-and-opinion/ MACROECONOMIC OVERVIEW The Singapore economy grew 2.1% YoY in  Q4/2022, down from the 4.0% YoY growth  in Q3/2022. Growth in the fi  nal quarter was  largely attributed to the expansion in the  construction sector and services producing  industries. The manufacturing sector  however, contracted from the output decline  in the biomedical manufacturing, chemicals,  electronics and general manufacturing  clusters. As such, Singapore's economy  expanded 3.6% for the whole of 2022, down  from the 8.9% in 2021, when Singapore  emerged from the economic slump in 2020  due to the pandemic. The manufacturing and  construction sectors, along with the services  producing industries recorded YoY growth  of 2.5%, 6.7% and 4.8% respectively. For the  manufacturing sector, all clusters expanded,  except for the chemicals and biomedical  manufacturing clusters. From September 2022, when overall  factory activity began contracting, the weaker  sentiments in the manufacturing sector  persisted arising from weaker global demand  and a slowdown in the global economy. The  Purchasing Managers' Index (PMI) remained  in the contraction territory for the fourth  consecutive month, with the PMI declining  marginally by 0.1 point to 49.7 in December  2022. The negative sentiments in the  manufacturing sector was also felt with the  continual contraction in Singapore's non-oil  domestic exports (NODX), which fell further  by 20.6% YoY in December 2022. RENTAL MARKET Leasing volume1 continued trending  downward in Q4, albeit at a moderated  pace at 3.5% YoY, bringing the total number  of transactions to 2,948 tenancies. In the  quarter, fewer tenancies were signed across all  property types. Leasing demand for factory  spaces slowed further in Q4, but at a more  muted pace, with leasing transactions for  single- and multiple-user factory segments  falling by 15.5% and 1.2% YoY respectively. For  the warehouse sector, leasing volume recorded  the second consecutive quarter of yearly  decline with a much larger 9.4%. As such, the  total leasing volume for the whole of 2022 fell  4.4% YoY, the fi  rst decline recorded since 2011  when leasing transactions declined 20.0%.  The decrease was largely arose from the  single- and multiple-user factory spaces. In a similar light, the vacancy level  for single-user factory grew for the sixth  consecutive quarter by a larger 0.7 of a  percentage point (ppt) QoQ to 10.9% in Q4.  This was likely to be due to the addition  of 2.73 million sq ft of new supply, as well  as some relocation among industrialists.  1   Based on JTC's rental data (excluding business park  spaces, only comprises single- and multiple-user factory as  well as warehouse spaces). Signifi  cant increases in vacancy rates were  observed in the East (1.3 ppts) and North (2.6  ppts) Planning Regions. For the multiple-user  factory segment, while its islandwide vacancy  rates continued to increase, the rise was a  marginal 0.1 of a ppt QoQ, to 10.9% in Q4.  The large increase of 2.7 ppts in the North  Planning Region was largely off  set by the  declines in vacancy levels in the East (-0.9  of a ppt) and North East (-1.8 ppts) Planning  Regions. On the other hand, the warehouse  vacancy level declined 0.9 of a ppt to 8.3% in  the quarter, a reversal from the marginal 0.1 of  a ppt increment in the previous quarter. This  was partially due to a contraction in supply.  Vacancy rates in all the Planning Regions  were observed, except for the North Planning  Region that recorded a 2.8 ppt increase. The overall industrial rents continued  the upward trend for the ninth consecutive  quarter in Q4, with JTC's rental index for  multiple-user factory spaces increasing 2.6%  QoQ, the largest quarterly increase since  Q3/2013 when the rental index expanded 4.4%.  The rental index for single-user factory spaces  rose in the quarter as well, increasing 1.3%  QoQ, a slightly moderated pace compared to  the 2.0% in the previous quarter. The annual  growth in 2022 of 4.1% and 8.3% in the JTC  rental index of single- and multiple-user  factory spaces respectively were the highest  since 2012 when the rental index rose 12.9%  and 9.6% respectively. For warehouse rents,  the JTC's index continued to rise on a QoQ  basis, surpassing the highest level attained in  the previous quarter to 92.8 in Q4. This was  a 2.2% increase QoQ, the highest quarterly  increase since Q4/2013 when the rental index  grew 3.4%. Savills' average monthly rents  for prime multiple-user factories2 remained  unchanged in Q4 at S$2.01 per sq ft, after  increasing for the past seven consecutive  quarters. On the other hand, the healthy  leasing demand and a shortage of quality  facilities led to Savills' average monthly rents  for warehouse and logistics properties3 to  continue rising, increasing 1.3% QoQ to S$1.53  per sq ft in the quarter.  SALES MARKET Following the decline in Q3, strata industrial  sales activity4 across all segments continued  to fall in Q4. For the quarter in review, there  were 432 transactions. The global economic  uncertainties and slowing manufacturing  sector may have led to investors being  cautious on their purchasing decisions. Strata  warehouse sales fell further to 23 deals in Q4.  2   Based on Savills basket of private multiple-user factory  properties which ranges from 1,000 sq ft to 3,000 sq ft in  size, with an average monthly asking rent of at least S$1.50  per sq ft. 3   Based on Savills basket of private multiple-user warehouse  properties which ranges from 2,000 sq ft to 80,000 sq ft in  size, with an average monthly asking rent of at least S$1.30  per sq ft. 4   Based on JTC's sales caveat data, downloaded on 13  February 2023. GRAPH 1: Factory and Warehouse Leasing Volumes,  2011 to 2022 1,138  1,480  1,513  1,752  1,868  1,768  1,794  2,345  2,417  2,434  2,950  3,054  1,390  1,732  1,981  2,129  2,317  2,285  2,401  2,702  2,883  2,353  3,381  3,028  1,543  1,611  2,070  2,060  2,031  2,130  2,358  2,543  2,679  3,005  3,423  3,209  1,504  1,613  2,071  2,071  1,921  1,962  2,331  2,564  2,486  2,913  3,055  2,948  0 2,000 4,000 6,000 8,000 10,000 12,000 14,000 NO. OF TRANSACTIONS Q1 Q2 Q3 Q4 Source JTC, Savills Research &amp; Consultancy GRAPH 2: Prices of Upper-Storey Strata Factory and  Warehouse Units, Q1/2015 to Q4/2022 776 474 314 250 350 450 550 650 750 850 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 2015 2016 2017 2018 2019 2020 2021 2022 S$ PER SQ FT Freehold 60-year leasehold 30-year leasehold Source JTC, Savills Research &amp; Consultancy GRAPH 3: Business Park Space Vacancy Rates, Q1/2016 to Q4/2022 0 5 10 15 20 25 30 35 40 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 2016 2017 2018 2019 2020 2021 2022 % Islandwide one-north Changi Business Park International Business Park Source JTC, Savills Research &amp; Consultancy Industrial 3 savills.com.sg/insight-and-opinion/ In Q3, 29 transactions were recorded. Similarly,  the sales volume for multiple-user factory declined  18.7% QoQ from 503 in Q3 to 409 in Q4.  Nevertheless, industrial sales prices still trended  up in Q4, picking up the pace of increase from  the previous quarter. Savills' basket of industrial  properties showed that prices for 60-year leasehold  and freehold industrial properties rose by 2.4%  and 2.3% QoQ to S$474 per sq ft and S$776 per  sq ft respectively in Q4. Apart from the longer  remaining tenure and nature of freehold leases,  the rise in prices was driven by the strong price  growth for food factory properties. Similarly,  Savills' basket of industrial properties pointed to  30-year leasehold property prices increasing at a  faster pace of 2.0% QoQ to reach S$314 per sq ft  in Q4. This may be due to stronger interest among  some businesses/investors favouring properties of  lower price quantum when they wished to mitigate  the risks from rising economic uncertainties and  elevated price volatility. Given that values are  inversely proportionate to lease tenures, the 30-year  industrial leaseholds benefi  tted from this. BUSINESS PARK AND HIGH-SPEC  INDUSTRIAL In the last quarter of 2022, business park recorded  the largest increase in vacancy rate across the  industrial property segments. The vacancy level  for this segment of the industrial market rose  2.7 ppts to 17.5%. This was largely contributed  by a 9.3 ppts in vacancy levels in business parks  in the West Region. In particular, vacancy rates  in International Business Park (IBP) surged 12.8  ppts from 24.5% in Q3 to 37.3% in Q4. Apart from  the weaker connectivity to main transport nodes,  the higher vacancy levels were also attributed  to the partial completion of Perennial Business  City in the quarter. Apart from the performance  at IBP, the vacancy levels at one-north and Changi  Business Park (CBP) grew 0.8 of a ppt and 0.5 of a  ppt respectively in the quarter. For CBP, the increase  in vacancy rate came after a 1.3 ppts decline in  vacancy level in Q3. Business parks that are not as  well-connected to major transport nodes and do  not have quality features may be less favoured by  tenants. Hence, landlords will need to reduce their  rents to try to shore up the occupancy. This was  evident when we look at the monthly rent from  Savills' standard business park properties5. They fell  1.1% QoQ after two consecutive quarters of increase  to S$4.00 per sq ft in Q4. However, Savills' prime  business park6 monthly rents declined marginally by  0.3% QoQ after fi  ve consecutive quarters of growth  to S$5.91 per sq ft in the quarter. High-spec industrial rents continued rising due  to increasing occupier demand as businesses who  qualify to located into industrial buildings look  for such buildings with an offi   ce look and feel.  5   Based on business park-zoned spaces in the older clusters which  range from 1,000 sq ft to 5,000 sq ft in size, with an average monthly  asking rent of at least S$3.50 per sq ft. 6   Based on business park-zoned spaces in the newer clusters which  range from 1,000 sq ft to 5,000 sq ft in size, with an average monthly  asking rent of at least S$5.50 per sq ft. the push for a holistic food-related infrastructure.  With strong support from the government, it  should on paper lead to an increase in demand for  higher quality food facilities, both by local and  international players. On growth in the Logistics and Supply Chain  industries, this ties in with the point on Building  Resilience to Supply Chain Disruption. Over the  past three years, global supply chains have been  put through a series of severe tests. Companies  are having to deal with huge demand volatility  triggering short and varied cycles of decision  making. Also, with manufacturing activity  breaking out into regional clusters (instead of  being concentrated in certain countries), supply  chains will be redrawn. With the lessons learnt  from the pandemic and future lessons likely to  be learned from the on-going re-routing of global  supply chains, diff  erent companies are responding  in varied ways - from securing supply at any cost  to building inventory stockpiles and re-aligning  supply markets to avoid future disruptions. Although economic conditions are becoming  ever more challenging by the month, the outlook  for industrial and logistics facilities here should  be driven by a tug of war between companies  which can adapt to the new clime of advanced  manufacturing, food and novel food customer  services and modern supply chain management  versus those which struggle under the changing  circumstances. On top of this, one has to be  mindful of the pandemic induced supply backlog  coming on line in 2023 and this should provide  additional choices for end-users. On balance, we believe that given the strong  demand for logistics and food factory space plus  an environment where heightened infl  ation will  continue to infl  uence monetary measures, rents in  2023 are expected to rise. Please refer to Table 1. PERIOD YoY % CHANGE IN MULTIPLE-USER  FACTORY RENTS YoY % CHANGE IN WAREHOUSE &amp;  LOGISTICS RENTS 2023F 3% to 5% 3% to 6% TABLE 1: Rental Forecast for Multiple-user Factory and Warehouse &amp; Logistics Segments Source Savills Research &amp; Consultancy According to Savills' high-spec industrial basket7,  the average monthly rent for high-spec industrial  properties rose at a slightly muted 0.5% QoQ in Q4,  as compared to the 1.1% in the past two quarters, to  S$3.71 per sq ft. OUTLOOK The key themes surrounding the industrial  and logistics (warehousing) sector for 2023 are  expected to be: 1.   Infl  ation  2.   Building Resilience to Supply Chain Disruption 3.   Cost Control For points 1 and 2, it is ultimately likely to lead to  greater stocking up as end users attempt to hedge  against both rising cost and potential breaks in  the supply of goods. Obviously, this is a positive  on industrial and warehousing space demand. On  the matter of cost control however, it could be a  negative on demand. As economic challenges grow  and the tech sector restructures to move into a new  phase of growth, companies may feel the need to  scale back on overheads like labour and rents. On the demand side, the industries which are  expected to do well this year are: 1.   Advanced Manufacturing 2.   Food and Novel Food Consumer Services  3.   Logistics and Supply Chain  Although the manufacturing and warehousing  sectors are expected to face a tug of war between  infl  ation-supply resilience versus cost control, there  are bright spots including industries such as those  listed above.  Activities involving information communication  technology (ICT), automation, computation, 3D  printing (additive manufacturing), sensing, and  networking, are expected to expand in volume.  Industries in electronics, semiconductors,  robotics, pharmaceuticals, medical products, fast  moving consumer goods (FMCG) and aerospace  engineering are expected to be the drivers  contributing to the economy, driving demand for  high spec industrial spaces. The Singapore Government's 30-by-30 Plan - to  build up our agri-food industry's capability and  capacity - aims to produce 30% of our nutritional  needs locally and sustainably by 2030. At its core is  7   Based on offi   ce-like industrial space which ranges from 2,000 sq  ft to 4,000 sq ft in size, with an average monthly asking rent of at  least S$3 per sq ft. Industrial </t>
-  </si>
-  <si>
-    <t xml:space="preserve">python extraction could not extract out the whole text
-copy paste does not work either, in fact even worse
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prime logistics rents grew by a further 1.3%  in Q3 2022. Rents for this segment should  continue to outperform on the back of  limited supply. 1 Industrial Q3 2022: Rents and prices on  firm footing Quarterly | Singapore | November 2022 Source Colliers, JTC; Note: 1 sq m = 10.764 sf. "pp" refers to percentage point. *Rents, capital values and yields refer to prime logistics assets. The overall vacancy rate increased to 10.3%  in Q3 2022 due to an increase in single-user  factory vacancy. Capital values for prime logistic assets  remained flat, due to the lack of  transactional evidence.  Total net absorption was -0.06 mil sf in Q3  2022, attributed to to supply catching up  with demand after construction delays. About 1.83 mil sf of industrial space came  onstream this quarter, the bulk of which was  multiple-user factories. Full Year 2022 9.06 mil sf 15.77 mil sf 9.25 mil sf 7.82 mil sf Q3 2022 -0.06 mil sf YOY change/  End 2022 QOQ/  End Q1 SGD1.62 SGD1.64 1.3% 4.8% 10.3% 10.0% 0.3pp 0.7pp SGD206 psf SGD206 psf SGD1.45 psf 0% 3.0% Insights &amp; recommendations * In Q3 2022, despite a drop in overall occupancy from 90.0% in Q2 2022 to 89.7%, both the JTC all  Industrial price and rental indices achieved eight positive quarters of growth.  * The rental index rose by 2.1% q-o-q, or 4.9% y-o-y in Q3 2022, accelerating from its 1.5% q-o-q  growth and 3.4% y-o-y growth in the previous quarter. Similarly, the price index rose by 2.0% q- o-q, or 7.2% y-o-y, accelerating from the 1.5% q-o-q and 5.2% y-o-y growth last quarter.  * Colliers expects rents to grow by between 6 to 7% for this year. On the other hand, industrial  prices could grow at a higher clip between 8 to 9% on the back of growing interest in industrial  assets due to their higher yields and limited availability.  * With the higher cost of capital, there will also likely be more sales and leaseback activities as  asset owners look to lighten their balance sheets.  Demand Supply Rent* Vacancy Capital Values/Yields* 1.83 mil sf YOY/ End Q1 2022 Historical Avg 2017-21 SGD1.45 10.5% 8.6% 8.6% 0.2pp Factory The rental indices for both multiple-user and  single-user factories have increased at 2.4% q-o-q  and 2.0% q-o-q, picking up pace from last  quarter's 2.1% and 0.4% q-o-q growth respectively. The strong growth for multiple-user  factory rents could be attributed to the growing  demand for high-specification multi-user  factories, as occupiers look for office grade  industrial spaces near the city fringe.  Demand for factories have also been supported  by continued growth in the biomedical, and high  value manufacturing industries as more firms are  encouraged to set up their manufacturing hubs  in Singapore due to its political neutrality,  efficient infrastructure, and government support.  2 All Industrial Property The drop in overall occupancy of 0.3% this  quarter was driven mainly by a fall in occupancy  of single-user factories. There were also slight  declines in the occupancy rates of the multi-user  factory and warehouse segments, but this can be  attributed to more supply coming onstream and  catching up with demand after construction  delays during Covid.  Warehouse Although warehouse rents increased by 1.9% q- o-q overall, the rate of rental growth has  moderated due to supply catching up with  demand. Rental performance would vary across  different warehouses, depending on their  location and specifications. Specifically, there has  been strong demand for investor grade ramp-up  warehouses, as the delivery of new supply is not  keeping pace with demand. However, leasing  demand for warehouse space may taper in the  coming quarters with a weaker manufacturing  outlook, and as consumer demand shifts to  services from goods post-Covid, leading to lower  requirements for manufacturers to stockpile.  Business Parks Business park rents have started to exhibit some  sustained growth, on the back of tight supply in  the city fringe areas. Most tenants prefer the  newer, higher specification developments in the  city fringe. On the other hand, leasing activity for  space in the rest of island business parks has  been slow. In addition, high vacancy rates and a  higher supply pipeline could continue to  suppress rents. Source: Colliers, JTC  Private factory demand &amp; supply 87.0 88.0 89.0 90.0 91.0 92.0 93.0 -2.0 -1.0 0.0 1.0 2.0 3.0 4.0 5.0 6.0 7.0 8.0 9.0 2017 2018 2019 2020 2021 Q1 2022 Q2 2022 Q3 2022 Occupancy (%) Change in stock (mil sf) Private warehouse demand &amp; supply  86.0  87.0  88.0  89.0  90.0  91.0  92.0 -2.0 0.0 2.0 4.0 6.0 8.0 10.0 12.0 2017 2018 2019 2020 2021 Q1 2022 Q2 2022 Q3 2022 Occupancy (%) Change in stock (mil sf) 83.0 84.0 85.0 86.0 87.0 -0.2 0.0 0.2 0.4 0.6 0.8 1.0 2017 2018 2019 2020 2021 Q1 2022Q2 2022Q3 2022 Occupancy (%) Change in stock (mil sf) Net Supply Net Absorption Occupancy Rate Business park demand &amp; supply 88.0 89.0 90.0 91.0 -5.0 0.0 5.0 10.0 15.0 20.0 25.0 2017 2018 2019 2020 2021 Q1 2022 Q2 2022 Q3 2022 Occupancy (%) Change in stock (mil sf) All industrial demand &amp; supply 3 "In this heightened risk environment,  industrial assets still have the ability to offer  investors higher spreads to borrowing cost,  exposure to defensive sectors, and an  inflation hedge if leases are structured  carefully." Lynus Pook Executive Director and Head Industrial Services, Singapore  Upcoming supply Colliers average industrial rents Industrial Stock: Q3 2022 Q3 2022  (SGD) % Change  QOQ % Change  YOY High-specs 3.25 0.9% 1.9% Factory* 1.65 1.1% 1.4% Warehouse* 1.53 2.3% 3.4% Prime logistics 1.62 1.3% 5.9% Business Park 3.68 - -0.3% Prime Business Park 6.25 0.3% 1.3% Significant upcoming projects as of Q3 2022 Source: Colliers, JTC *TOP = temporary occupation permit Project Name Developer GFA ('mil sf) Expected TOP* 1 Solaris @ Tai Seng Soilbuild Group 1.13 2022 2 Perennial Business City Perennial 1.52 2022 3 Surbana Jurong Surbana 0.45 2022 4 2PS1 Soilbuild REIT 0.76 2023 5 LOGOS eHub at Pandan  Crescent (Phase 2) LOGOS 0.87 2023 Factory  (Single-user) 50% Factory  (Multiple- user) 23% Warehouse 22% Business  Park 5% Total Stock 554.18 mil sf *Average of upper and lower floor rents With an average annual supply of about 1.2 mil  sqm from now till 2025 coming onstream (double  the average annual supply 0.6 mil sqm over the  past three years), supply is likely to outstrip  demand and dampen the pace of rental and  price growth. The warehouse segment might be  an exception to this trend, as there appears to be  a dearth of supply post 2024, and the pre- commitment to existing pipeline supply is high. Going forward, rental increases across all sectors  are set to continue with an increase in service  charges, as asset owners have to pass on higher  operating costs to tenants. This increase in  service charges could range from around 5% in  warehouse and factories to 10% in business  parks.  On a macro level, economic indicators are  collectively pointing to a manufacturing  slowdown and weaker sentiment. This was  largely driven by a slowdown in electronics  shipments, with rising inflation and recession  concerns weighing on consumer demand.  Nevertheless, demand for industrial space,  especially high specification warehouses and city  fringe business parks, will still be underpinned by  growth industries such as the food, logistics,  precision engineering and biomedical sectors,  which in turn will support rental and price  growth, albeit at a more measured pace.  6.9 16.8 14.3 4.2 4.5 0.0 2.0 4.0 6.0 8.0 10.0 12.0 14.0 16.0 18.0 Q4 2022F 2023F 2024F 2025F 2026F Estimated GFA (mil sf) Warehouse Business Park Single-user Factory Multi-user Factory About Colliers Colliers (NASDAQ, TSX: CIGI) is a leading diversified professional services and investment management company. With operations in 63 countries, our 17,000 enterprising professionals work collaboratively to provide expert real estate and investment advice to clients. For more than 27 years, our experienced leadership with significant inside ownership has delivered compound annual investment returns of 20% for shareholders. With annual revenues of $4.5 billion and $81 billion of assets under management, Colliers maximizes the potential of property and real assets to accelerate the success of our clients, our investors and our people. Learn more at corporate.colliers.com, Twitter @Colliers or LinkedIn Legal Disclaimer This document/email has been prepared by Colliers for advertising and general information only. Colliers makes no guarantees, representations or warranties of any kind, expressed or implied, regarding the information including, but not limited to, warranties of content, accuracy and reliability. Any interested party should undertake their own inquiries as to the accuracy of the information. Colliers excludes unequivocally all inferred or implied terms, conditions and warranties arising out of this document and excludes all liability for loss and damages arising there from. This publication is the copyrighted property of Colliers and /or its licensor(s). (c) 2022. All rights reserved. This communication is not intended to cause or induce breach of an existing listing agreement. For further information, please contact: Catherine He Director and Head of Research |  Singapore +65 6531 8563 catherine.he@colliers.com Lynus Pook Executive Director and Head of  Industrial Services | Singapore +65 6531 8654 lynus.pook@colliers.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAR K E T B E AT Industrial Q3 2022 SINGAPORE $6.06 Business Park (City Fringe) $3.53 Business Park (Outlying Areas) $4.41 Science Park 5.9% Inflation Growth 4.4% Real GDP Growth 2.1% Unemployment Source: Ministry of Trade &amp; Industry (MTI),  Moody's Analytics  SINGAPORE ECONOMIC INDICATORS  Q2 2022 12-Mo. Forecast 12-Mo. Forecast Growth Forecast Narrowed Singapore's economy grew by 4.4% y-o-y during Q2 2022, taking the first-half growth to 4.1%. The overall manufacturing sector has recorded 26 consecutive months of expansion as of August with its purchasing managers' index (PMI) being at 50 and above. However, PMI dipped 0.1 point from July to 50.0 in August, indicating relatively weaker manufacturing sentiments. On the back of weakened global economic environment weighed down by more aggressive tightening monetary policy to tackle inflationary pressure and taking into consideration Singapore's economic performance during H1 2022, the Ministry of Trade and Industry has narrowed its economic growth forecast range this year to 3%-4%, from an earlier projection of 3%-5%. Continued Rental Growth Across Most Segments Rental increases were observed for all industrial asset classes during Q3 2022 as vacancy rates remained relatively tight. Notably, vacancy rates vary across different segments. Vacancy rate of prime logistics went down to below 3.0% and city-fringe business park vacancy rate was tightened further to 3.1% while vacancy rate of outlying business parks stayed elevated at almost 25.0%. Nonetheless, rents of business parks in outlying areas inched up marginally during the quarter, increasing by 0.1% q-o-q, as some landlords have raised their asking rents to keep pace with rising inflation, especially for buildings that has recently undergone Asset Enhancement Initiative. City-fringe business park and Science Park rents also increased in tandem with broader market trend, growing by 0.2% and 1.1% q-o-q, respectively. Warehouses and prime logistics rents continued to rise in Q3 2022 given further tightening of vacancy rates. The rates of rental growth in warehouse and prime logistics segments have moderated as more new supply comes onstream amid a temporary slowdown in demand and expansion due to rising macro-economic challenges. Nonetheless, stockpiling demand for food and raw materials would continue to support occupancy levels for prime logistics / warehouse spaces. Despite substantial completed supply, factory space continued to witness rental growth of 0.7% q-o-q in Q3 2022 on the back of healthy manufacturing performance, especially for the precision engineering (+4.9% y-o-y in Q2 2022) and the general manufacturing (+11.0% y-o-y in Q2 2022) clusters. Similarly, high-tech rents also inched up by 0.7% q-o-q as leasing demand was underpinned by high-value manufacturing and tech sectors as well as spillover demand from CBD office market where rents continued to experience robust growth. Healthy Investment Interests Despite Headwinds The industrial investment market saw some activities as investors look for assets with a comfortable yield spread amid a rising interest rate environment. Industrial assets typically offer higher yields as compared to other asset classes due to their shorter leases and lower investors' familiarity coupled with JTC's regulations. Notably, Ascendas REIT was reported to acquire Philips Asean Pacific (APAC) Centre for S$104.8 million and 1 Buroh Lane for S$191.9 million at estimated yields of 7.2% and 7.0%, respectively during Q3 2022. INDUSTRIAL SUPPLY PIPELINE Rents (S$PSF/MO)  -  5.0  10.0  15.0 Multiple-User Factory Single-User Factory Warehouse Business Park Supply (msf) Q3 - Q4 2022F 2023F 2024F MAR K E T B E AT Industrial Q3 2022 SINGAPORE SEGMENT GROSS EFFECTIVE RENT Q-O-Q   CHANGE (%) 12-MONTH OUTLOOK S$/SF/MO US$/SF/MO EUR/SF/MO Business Park (City Fringe) S$6.06 US$4.23 EUR4.31 0.2% Business Park (Outlying Areas) S$3.53 US$2.47 EUR2.51 0.1% Science Park S$4.41 US$3.08 EUR3.14 1.1% High-Tech S$3.24 US$2.26 EUR2.30 0.7% Factory - Ground Floor S$1.83 US$1.28 EUR1.30 0.7% Factory - Upper Floor S$1.62 US$1.13 EUR1.15 0.6% Warehouse - Ground Floor S$1.59 US$1.11 EUR1.13 0.8% Warehouse - Upper Floor S$1.29 US$0.90 EUR0.92 0.8% Prime Logistics - Ground Floor S$1.63 US$1.14 EUR1.16 0.8% Prime Logistics - Upper Floor S$1.50 US$1.05 EUR1.06 0.8% US$/S$ = 1.431; EUR/S$ = 1.406, as of 30 September 2022 PROPERTY SUBMARKET SELLER / BUYER PRICE (S$ Million) 1 Buroh Lane  Jurong PGIM / Ascendas REIT  191.9 Philips Asean Pacific Centre  Toa Payoh Philips Electronics Singapore / Ascendas REIT  104.8 Pandan Logistics Hub Jurong ESR-LOGOS REIT / Toll Group 43.5 MARKET STATISTICS PROJECT NAME SUBMARKET TENANT SF EXPECTED COMPLETION YEAR* Surbana Jurong Campus Jurong West Surbana Jurong 445,000 2022 Perennial Business City Jurong East - 1,500,000 2022 Kajima Campus Changi Kajima 140,000 2023 Biopolis Phase 6 - Elementum one-north - 378,000 2023 Punggol Digital District (Phase 1) Punggol  - 1,780,000 2024 Development at 3 Science Park Drive Science Park - 310,000 2024 Punggol Digital District (Phase 2) Punggol  - 740,000 2025 Development at 1 Science Park Drive Science Park  - 1,200,000 2025 * Note: Project timeline might change due to the impact of Covid-19's restrictions on construction progress cushmanwakefield.com KEY SALES TRANSACTIONS Q3 2022 SIGNIFICANT BUSINESS PARK PROJECTS - PLANNED &amp; UNDER CONSTRUCTION WONG XIAN YANG Head of Research Singapore +65 6232 0885 / xianyang.wong@cushwake.com BRENDA ONG Executive Director Head of Logistics &amp; Industrial Services Singapore +65 6232 0878 / brenda.ong@cushwake.com A CUSHMAN &amp; WAKEFIELD RESEARCH PUBLICATION About Cushman &amp; Wakefield Cushman &amp; Wakefield (NYSE: CWK) is a leading global real estate services  firm that delivers exceptional value for real estate occupiers and owners.  Cushman &amp; Wakefield is among the largest real estate services firms with  approximately 50,000 employees in over 400 offices and approximately 60  countries. In 2021, the firm had revenue of $9.4 billion across core services  of property, facilities and project management, leasing, capital markets, and  valuation and other services. To learn more, visit  www.cushmanwakefield.com or follow @CushWake on Twitter. (c)2022 Cushman &amp; Wakefield. All rights reserved. The information   contained within this report is gathered from multiple sources believed   to be reliable. The information may contain errors or omissions and is   presented without any warranty or representations as to its accuracy. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exhibit 1: Industrial Sales Performance Number of Transactions Average Price (S$ psf) Source: URA Realis, Knight Frank Research Note: The average unit price is based on a four-quarter moving average of strata transactions.  *Q3 2022 data is based on transactions downloaded as at 30 September 2022. $1,200 $1,000 $800 $600 $400 $200 $0 600 500 400 300 200 100 0 Q1    Q2    Q3    Q4 2017 Q1    Q2    Q3    Q4 2018 Q1    Q2    Q3    Q4 2019 Q1    Q2    Q3    Q4 2020 Q1    Q2    Q3    Q4 2021 Q1    Q2    Q3* 2022 Multiple-user Factory Single-user Factory Warehouse Number of Transactions (Bar), Average Price (Line) Singapore Research Industrial and Logistics Q3 2022 " " The increasing adoption of sustainable business models as well as the steady inflow of investment from international manufacturers will continue to create demand in the industrial sector. STABLE INVESTMENT COMMITMENTS STRENGTHEN SINGAPORE'S POSITION AS A BUSINESS HUB DANIEL DING, HEAD, CAPITAL MARKETS (LAND &amp; BUILDING, INTERNATIONAL REAL ESTATE &amp; INDUSTRIAL) MARKET SNAPSHOT 2,237 LEASES     28.0% Q-O-Q |     36.1% Y-O-Y  NUMBER OF INDUSTRIAL TENANCIES S$773.1 MILLION      12.2% Q-O-Q |     5.0% Y-O-Y  TOTAL INDUSTRIAL SALES 47.9 MILLION SF GFA UPCOMING SUPPLY (Q3 2022 TO 2026) Continued on next page Uncertainties slow pace of manufacturing growth Amid ongoing economic challenges disrupting supply chains and affecting business  sentiments worldwide, Singapore narrowed its Gross Domestic Product (GDP) growth range  from "3% to 5%" to "3% to 4%" in 2022 in the recent Ministry of Trade and Industry's (MTI)  Economic Survey of Singapore. The rate of manufacturing growth of 5.7% y-o-y in Q2 was a  contraction from the y-o-y increases of above 7% each quarter throughout 2021. Despite sentiment turning tentative, manufacturing clusters such as transport engineering,  general manufacturing, electronics and precision engineering continued to be the main  contributors to growth and output increases in Q2. In addition, the construction industry  has ramped up activity after COVID-19 delays, growing by 3.3% y-o-y in Q2 from the 2.4%  increase in the previous quarter. This in turn led to knock-on stimulus for manufacturers  supporting the construction sector. After driving much of the economic growth through the pandemic years, prevailing global  geopolitical and economic challenges have tempered business sentiments in the industrial  sector. The Business Expectations report published by Singstat reported that a net weighted  balance of 8% of manufacturing firms anticipate a less favourable business outlook from July  to December 2022 compared to the 2% that expected a favourable business situation for the  period April to September 2022. 1 The percentage changes for the total number of tenancies of all industrial space in July and August 2022 are based on a two-month comparison; q-o-q (against April  and May 2022) and y-o-y (against July and August 2021).  Knight Frank Research Reports are available at knightfrank.com.sg/research Additionally, in the month of September,  the overall Singapore Purchasing Managers'  Index (PMI) posted a contraction of 49.9,  after 26 consecutive months of expansion  with a corresponding contraction of 49.4  in the Electronics Sector. Singapore's appeal as a  strategic and trusted node  for business Nevertheless, despite the moderation in  overall industrial performance, Singapore  remains a compelling destination for  regional headquarters as well as a  location for high-value manufacturing  activities. Many foreign companies diverted  their attention towards the city-state as a  location of security amid global uncertainty,  leveraging on the competitive edge that  the financial hub offers as well as the  transparency and stability of its legal  and regulatory framework.  In Q2 2022, fixed asset investment (FAI)  commitments in Singapore totalled S$6.3  billion, the highest on a quarterly basis  since Q1 2020 when S$10.3 billion was  secured. Manufacturing accounted for  S$3.6 billion, which included S$2.9  billion of investments in the electronics  sector. Examples of notable foreign  businesses setting up base in Singapore  recently include SOCOMEC, a leading  global specialist in power management  solutions, which will be opening its new  Asia Pacific  headquarters at the Meiban  Industrial Building along Ubi Road.  Exhibit 2: Industrial Leasing Volume and Median Rentals Number of Tenancies Median Rental (S$ psf pm) Source: JTC J-Space, Knight Frank Research Note: The median rental is based on a four-quarter moving average. *Q3 2022 is based on July and August 2022 data as at end-September. $4.50 $4.00 $3.50 $3.00 $2.50 $2.00 $1.50 $1.00 5,000 4,000 3,000 2,000 1,000 0 Q1    Q2    Q3    Q4 2017 Q1    Q2    Q3    Q4 2018 Q1    Q2    Q3    Q4 2019 Q1    Q2    Q3    Q4 2020 Q1    Q2    Q3    Q4 2021 Q1    Q2    Q3* 2022 Multiple-user Factory Single-user Factory Business Park Warehouse Number of Tenancies (Bar), Median Rentals (Line) Daniel Ding Head Capital Markets (Land &amp; Building, International Real Estate &amp; Industrial) +65 6228 6833 daniel.ding@sg.knightfrank.com Alvin Teng Director Occupier Strategy and Solutions (Industrial) +65 6228 6893 alvin.teng@sg.knightfrank.com For further information, please contact: Recent Publications THE WEALTH REPORT 2022 Q2 2022 INDUSTRIAL REPORT In August, Pall Corporation broke ground on a US$100-million seven-acre state-of-the-art  manufacturing facility to meet global demand for semiconductors.  Easing demand for factory space Industrial sales totalled S$773.1 million in the third quarter, easing by 12.2% q-o-q and  5.0% y-o-y. Despite this, overall prices continued to trend upwards with an average price of  S$444 psf, an increase of 2.4% compared to the previous quarter, together with increased  FAI (Exhibit 1). Based on transactions, the Geylang and Woodlands Planning Areas were  sought-after locations with 49 (S$72.5 million) and 47 (S$42.5 million) factory units  transacted in the quarter, the majority being multiple-user factories. While the overall  demand for industrial space declined, the improving construction and transport sectors  driving output expansions in certain manufacturing clusters propped up sales activity in Q3.  As such, the median rent for multiple-user factories was healthy at S$1.89 psf pm in July  and August 2022 with 1,659 tenancies, compared to a median of S$1.76 psf pm in the same  period  a year ago (Exhibit 2). More businesses integrating and producing sustainable alternatives or products such as  plant-based protein and bags could  sustain leasing demand for multiple-user  factory space that support these  emerging business types. Market outlook The steady stream of investment  commitments flowing into Singapore  will continue to generate value and  create more jobs as Singapore readjusts  towards  pre-pandemic  normalcy.  Coupled with the nation's standing as a  safe business destination, these could  potentially serve as a shelter against  unforeseen external shocks and the  looming  economic  uncertainty.  Industrial prices and rentals will remain  stable, supported by the steady demand  for space, and is enroute to grow 3% to  5% for the whole of 2022.   Leonard Tay Head Research +65 6228 6854 leonard.tay@sg.knightfrank.com Nor Adila Rahim Senior Analyst Research +65 6228 6856  nor.adila@sg.knightfrank.com About Knight Frank Singapore Knight Frank LLP is the leading independent global property consultancy. Headquartered in London, Knight  Frank has more than 16,000 people operating from 384 offices across 51 territories. The Group advises  clients ranging from individual owners and buyers to major developers, investors and corporate tenants.  Knight Frank has a strong presence in Singapore with a head office and two subsidiaries: Knight Frank  Property Asset Management and KF Property Network. For further information about the Company, please  visit www.knightfrank.com.sg. (c) Knight Frank 2022 This report is published for general information only. Although high standards have been used in the  preparation of the information, analysis, views and projections presented in this report, no legal responsibility  can be accepted by Knight Frank Research or Knight Frank for any loss or damage resultant from the contents  of this document. As a general report, this material does not necessarily represent the view of Knight Frank  in relation to particular properties or projects. Reproduction of this report in whole or in part is allowed with  proper reference to Knight Frank Research. SUBSCRIBE for updates and reports delivered to your inbox </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 savills.com.sg/insight-and-opinion/ MARKET IN MINUTES Savills Research Industrial Faster rental growth across all segments Savills plc Savills is a leading global real  estate service provider listed on  the London Stock Exchange. The  company established in 1855, has  a rich heritage with unrivalled  growth. It is a company that leads  rather than follows, and now has  over 600 offi   ces and associates  throughout the Americas, Europe,  Asia Pacifi  c, Africa and the Middle  East. This report is for general  informative purposes only. It may  not be published, reproduced or  quoted in part or in whole, nor may  it be used as a basis for any  contract, prospectus, agreement  or other document without prior  consent. Whilst every eff  ort has  been made to ensure its accuracy,  Savills accepts no liability  whatsoever for any direct or  consequential loss arising from its  use. The content is strictly  copyright and reproduction of the  whole or part of it in any form is  prohibited without written  permission from Savills Research. Simon Smith Regional Head of  Research &amp; Consultancy,  Asia Pacifi  c +852 2842 4573 ssmith@savills.com.hk Alan Cheong Executive Director  Singapore +65 6415 3641 alan.cheong@savills.com.sg RESEARCH Rents for high-spec factories and warehouses fi  nd support from growth  industries. "  Notwithstanding global  economic problems, local  industrial and warehouse  rents are expected to rise in  2023." ALAN CHEONG, SAVILLS RESEARCH *   Leasing volume continued falling in Q3, albeit at a  moderated rate of 6.3% YoY. *   Savills' average monthly rent for prime multiple-user  factories, and warehouse and logistics properties increased  by 0.4% QoQ to S$2.01 per sq ft and 2.8% QoQ to S$1.51 per  sq ft respectively in Q3. *   Strata industrial sales activity slowed down by 15.7% QoQ  to 452 transactions in Q3 as sales volume fell across all  segments. *   Savills' basket of industrial properties showed that prices  for 60-year leasehold and freehold industrial properties  rose by 1.2% QoQ to S$463 per sq ft and S$758 per sq ft  respectively in Q3. *   Savills' basket of industrial properties showed that 30-year  leasehold property prices increased at a quicker pace of  0.9% QoQ to S$308 per sq ft in Q3. *   Savills' prime business park monthly rents stabilised at  S$5.93 per sq ft in Q3. Savills' standard business park  properties monthly rents increased marginally by 0.2%  QoQ to S$4.04 per sq ft. *   The average monthly rent for Savills' high-spec industrial  basket rose at the same pace at 1.1% QoQ S$3.69 per sq ft  in Q3. *   We expect rents for both multi-user factories and  warehouses to rise 5.0% YoY in 2023. Christopher J Marriott CEO, Southeast Asia  +65 6415 3888 cjmarriott@savills.asia SINGAPORE Please contact  us for further  information Savills team MCI (P) No. 062/02/2022 Company Reg No. 198703410D Sally Tan Managing Director,  Commercial, Industrial &amp;  Logistics +65 6836 6888 sally.tan@savills.com.sg Singapore - November 2022 2 savills.com.sg/insight-and-opinion/ MACROECONOMIC OVERVIEW The Singapore economy expanded by 4.4%  YoY in Q3/2022, slightly slower than the  4.5% YoY growth in Q2/2022. It was led by a  pickup in activity across services industries  and this made up for the slowdown in the  manufacturing sector.  The overall factory activity in Singapore  contracted for the fi  rst time in two years  in September. In the face of weakened  manufacturing sentiment arising from a  slowdown in the global economies and also  persistent price pressures, the Purchasing  Managers' Index (PMI) ended its 26 straight  months of expansion and slipped to 49.9 in  September. Growth in Singapore's non-oil  domestic exports (NODX) also decelerated  in September, posting the slowest rate of 3.1%  YoY since August last year. RENTAL MARKET Leasing volume1 continued to fall in Q3,  albeit at a moderated pace at 6.3% YoY,  bringing the total number of transactions to  3,209 tenancies. The decline was attributed  to fewer tenancies signed across all property  types. Leasing demand for factory spaces  continued to weaken in Q3 with leasing  transactions for single- and multiple-user  factory segments falling by 21.2% and 5.7%  YoY respectively. While leasing demand for  warehouse logistics space remained strong  in prime areas, those for warehouses saw a  marginal decline of 0.6% YoY.  The vacancy level for single-user factory  rose by 0.5 of a percentage point (ppt) QoQ  to 10.2% in Q3. This is likely to be due to  an injection of new supply (580,000 sq ft)  and some relocation among industrialists,  particularly the West and North Planning  Areas. Despite some major completions  including JTC Defu Industrial City, the  vacancy level for multiple-user factory  inched up by just 0.2 of a ppt QoQ to 10.8%  as demand for logistics space was still strong.  Compared to the 9.1% vacancy level recorded  in Q2, that measure stayed relatively stable  at 9.2% as the take-up in Central and North  Planning Regions were healthy.  The overall industrial rents continued  to increase for eight consecutive quarters  in Q3, with JTC's rental index for factory  spaces rising at its fastest pace since 2016.  For warehouse rents, the JTC's index rose  again to its highest level in the last six years.  Savills' average monthly rents also continued  to increase in Q3, with rents for prime  multiple-user factories2 rising by 0.4% QoQ  to S$2.01 per sq ft. With the support from  1   Based on JTC's rental data (excluding business park  spaces, only comprises single- and multiple-user factory as  well as warehouse spaces). 2   Based on Savills basket of private multiple-user factory  properties which ranges from 1,000 sq ft to 3,000 sq ft in  size, with an average monthly asking rent of at least S$1.50  per sq ft. healthy leasing momentum and a shortage  of quality facilities, Savills' average monthly  rents for warehouse and logistics properties3  doubled the pace of increase to 2.8% QoQ and  rose to S$1.51 per sq ft in Q3.  SALES MARKET Following a short-lived uptick in Q2, strata  industrial sales activity4 fell 15.7% QoQ across  all segments to 452 transactions. This could  be partly attributed to the growing recession  fears and rising cost of borrowing which  weighed on investors' sentiments. Strata  warehouse sales fell marginally to 24 deals  in Q3, compared with 34 in Q2. The sales  volume for multiple-user factory declined  from 497 in Q2 to 424 deals in Q3. However,  the sales momentum for West Connect  Building continued to hold up while other  projects saw a muted sales take-up in Q3.  Industrial sales prices continued trending  up in Q3, even though the overall price  increase of properties with longer tenures  halved from the previous quarter. Savills'  basket of industrial properties showed  that prices for 60-year leasehold and  freehold industrial properties rose by 1.2%  QoQ to S$463 per sq ft and S$758 per sq ft  respectively in Q3. Apart from the longer  remaining tenure and nature of freehold  leases, the rise in prices was driven by  the strong price growth for food factory  properties. On the other hand, Savills'  basket of industrial properties showed that  30-year leasehold property prices increased  at a quicker pace of 0.9% QoQ to S$308  per sq ft in Q3. It could be led by stronger  interest among some businesses which prefer  properties of a lower quantum, and therefore  these are of shorter lease tenures, to mitigate  their risks amid rising economic uncertainty  and elevated market volatility. BUSINESS PARK AND HIGH-SPEC  INDUSTRIAL In Q3, business park is the only segment  which saw a slight improvement in occupancy  level. It is likely led by an increase in appetite  for taking up business park space amid the  tightening of offi   ce supply. Although one- north and International Business Park (IBP)  recorded higher vacancy level in Q3, the  islandwide vacancy level for business park  space eased by 0.1 of a ppt QoQ to 14.8% due  to higher take-up in the Changi Business  Park (CBP) and CleanTech Park locations.  Nonetheless, vacancy level in areas such as  Science Park, IBP and CBP remained under  pressure due to locational factors that lead  to weaker connectivity to main transport  nodes. Moreover, business consulting fi  rms,  3   Based on Savills basket of private multiple-user warehouse  properties which ranges from 2,000 sq ft to 80,000 sq ft in  size, with an average monthly asking rent of at least S$1.30  per sq ft. 4   Based on JTC's sales caveat data, downloaded on 2  November 2022. GRAPH 1: Factory and Warehouse Leasing Volumes,  2011 to Q3/2022 1,138  1,480  1,513  1,752  1,868  1,768  1,794  2,345  2,417  2,434  2,950  3,054  1,390  1,732  1,981  2,129  2,317  2,285  2,401  2,702  2,883  2,353  3,381  3,028  1,543  1,611  2,070  2,060  2,031  2,130  2,358  2,543  2,679  3,005  3,423  3,209  1,504  1,613  2,071  2,071  1,921  1,962  2,331  2,564  2,486  2,913  3,055  0 2,000 4,000 6,000 8,000 10,000 12,000 14,000 NO. OF TRANSACTIONS Q1 Q2 Q3 Q4 Source JTC, Savills Research &amp; Consultancy GRAPH 2: Prices of Upper-Storey Strata Factory and  Warehouse Units, Q1/2015 to Q3/2022 758 463 308 250 350 450 550 650 750 850 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 2015 2016 2017 2018 2019 2020 2021 2022 S$ PER SQ FT Freehold 60-year leasehold 30-year leasehold Source JTC, Savills Research &amp; Consultancy GRAPH 3: Business Park Space Vacancy Rates, Q1/2016 to Q3/2022 0 5 10 15 20 25 30 35 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 2016 2017 2018 2019 2020 2021 2022 % Islandwide one-north Changi Business Park International Business Park Source JTC, Savills Research &amp; Consultancy Industrial 3 savills.com.sg/insight-and-opinion/ which formed the main bulk of the tenants in CBP,  are largely downsizing their premises as their  businesses were disrupted by remote working  arrangements. As such, most landlords continued  to keep their rents competitive to fi  ll vacancies,  resulting in a marginal increase of 0.2% QoQ  in Savills' standard business park properties5  monthly rents to S$4.04 per sq ft. Following four  quarters of steady rental growth, Savills' prime  business park6 monthly rents started to stabilise at  S$5.93 per sq ft in Q3.  High-spec industrial rents continued to increase  on the back of growing occupier demand as  businesses look for prime offi   ce-like industrial  spaces. According to Savills' high-spec industrial  basket7, the average monthly rent for high-spec  industrial properties rose at the same pace at 1.1%  QoQ S$3.69 per sq ft in Q3, setting a record high  since the series was constituted in 2012. OUTLOOK As the external environment grows more  challenging, the Singapore economy is projected to  see a slowdown. The tightening of global fi  nancial  5   Based on business park-zoned spaces in the older clusters which  range from 1,000 sq ft to 5,000 sq ft in size, with an average monthly  asking rent of at least S$3.50 per sq ft. 6   Based on business park-zoned spaces in the newer clusters which  range from 1,000 sq ft to 5,000 sq ft in size, with an average monthly  asking rent of at least S$5.50 per sq ft. 7   Based on offi   ce-like industrial space which ranges from 2,000 sq  ft to 4,000 sq ft in size, with an average monthly asking rent of at  least S$3 per sq ft. biomedical sectors. Coupled with the rise in service  charges, rents are expected to continue on an  upward trend as landlords pass on higher business  costs to tenants. Notably, there is a dearth of supply of warehouse  space after 2024 when no signifi  cant new supply  is expected to come on stream. This could put  further upward pressure on warehouse rents. Prior  to that, rents for prime warehouse and logistics  properties are expected to rise by 5.0% YoY for  each year in 2022 and 2023. Although rental growth  for prime multiple-user factory spaces is forecast to  moderate to 5% YoY in 2023, it is likely to see high  growth for new food factories which are expected  to complete next year. PERIOD YoY % CHANGE IN MULTIPLE-USER  FACTORY RENTS YoY % CHANGE IN WAREHOUSE &amp;  LOGISTICS RENTS 2022F 10% to 12% 2% to 5% 2023F 4% to 6% 2% to 5% TABLE 1: Rental Forecast for Multiple-User Factory and Warehouse &amp; Logistics Segments Source Savills Research &amp; Consultancy conditions and protracted pandemic restrictions in  some countries are expected to weigh on the trade- related sectors in the coming quarters. As the latest  economic indicators are collectively projecting  a manufacturing slowdown, more industrialists  might become more cautious in their expansion  plans. The weakening global growth outlook  and heightened headwinds are also expected to  dampen industrial sentiment.  Nevertheless, demand for industrial spaces,  especially modern high specifi  cation warehouses,  as well as high-spec industrial and business parks  with excellent connectivity and amenities will  still be underpinned by growth industries such  as the logistics, food, precision engineering and  Industrial </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steady demand to support industrial prices and rentals in 2022, despite Q3 bumps: Knight Frank  FRI, OCT 07, 2022 - 4:54 PM INDUSTRIAL prices and rentals are expected to stabilise this year, supported by a steady demand for space. This is despite the sector's moderate performance in recent quarters and a rocky global economy, said real estate consultancy Knight Frank in a report on Friday (Oct 7).  Industrial sales, for instance, totalled at S$773.1 million in Q3 of 2022, down 12.2 per cent from the previous quarter, and 5 per cent from 2021. The number of industrial tenancies plunged to 2,237, down 28 per cent from the previous quarter and 36.1 per cent from last year.  Knight Frank also noted an overall slowdown in the rate of manufacturing growth so far this year.  It said: "After driving much of the economic growth throughout the pandemic years, prevailing global geopolitical and economic challenges tempered business sentiment in the industrial sector." Despite observing that sentiment has turned "tentative", the team at Knight Frank predicts that industrial prices and rentals will stabilise and are on track to growing 3 to 5 per cent for the whole of 2022.  It noted that overall prices of industrial properties continued to trend upward this quarter, with an average price of S$444 per square feet (psf), up 2.4 per cent from the previous quarter.  Popular locations for these transactions - the majority of which were for multiple-user factories - include the Geylang Planning Area, with 49 transactions worth S$72.5 million, and Woodlands Planning Area, with 47 transactions worth S$42.5 million.  SEE ALSO Simon says: Here's why I bought a 99-year terrace house Stay updated with BT newsletters SIGN UP RY-ANNE LIM Above: Woodlands Industrial Park E. The Knight Frank team believes that the increasing adoption of sustainable business models and steady inflow of investments from international manufacturers will continue to drive demand for properties in the industrial sector. PHOTO: JTC Your email address SUBSCRIBE  LOG IN      By signing up, you agree to our Privacy Policy and Terms and Conditions. Request Blocked The median rent for multiple-user factories remained healthy at S$1.89 psf per month in July and August 2022, in Knight Frank's view, compared with S$1.76 psf per month in the previous year.  "While the overall demand for industrial space declined, the improving construction and transport sectors driving output expansions in certain manufacturing clusters propped up sales activity in Q3," said Knight Frank.  "More businesses integrating and producing sustainable alternatives or products such as plant-based proteins and bags could sustain leasing demand for multiple-user factory space that support these emerging business types."  Knight Frank added that demand for industrial properties will hold steady - especially as foreign companies continue to pick Singapore, with its security and stability, as a choice location for their regional headquarters or for high-value manufacturing.  For example, several international semiconductor companies - such as American semiconductor firm GlobalFoundries, German microchip maker Infineon and French water manufacturer Soitec - have announced substantial investments to expand their operations in Singapore, under plans to ramp up production capacity amid the global chip shortage.  The most recent company to set up in the Republic was Pall Corporation, a filtration, separation and purification technology business that in August broke ground for a US$100 million manufacturing facility. "The steady stream of investment commitments flowing into Singapore will continue to generate value and create more jobs," said the consultancy.  "Coupled with the nation's standing as a safe business destination, these could potentially serve as a shelter against unforeseen external shocks and the looming economic uncertainty."  READ MORE Multi-faceted industrial market in Apac has diverse growth opportunities Industrial S-Reits report positive rental reversions Singapore industrial space rents, prices continue to rise in Q1; occupancy falls: JTC INDUSTRIAL PROPERTY KNIGHT FRANK SINGAPORE PROPERTY Already a subscriber? Log in Access subscriber - only articles at S$4.95/month Subscribe to The Business Times to get breaking  news and analyses on issues that matter to you. Your feedback is important to us Tell us what you think. Email us at btuserfeedback@sph.com.sg RECOMMENDED SUBSCRIBE  LOG IN      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prime logistics rents grew by a further 1.6%  in Q2 2022. Rents for this segment should  continue to outperform on the back of  strong demand. 1 Industrial Q2 2022: Continued  momentum Quarterly | Singapore | August 2022 Source Colliers, JTC; Note: 1 sq m = 10.764 sf. "pp" refers to percentage point. *Rents, capital values and yields refer to prime logistics assets. Islandwide vacancy tightened to 10.0% in Q2  2022 due to higher demand for multiple- user factories and warehouses. Capital values for prime logistic assets  increased by 1.0% QOQ, on the back of  strong demand and limited supply.  Total net absorption came to 4.30 mil sf in  Q2 2022, attributed to the strong demand  for warehouses and multiple-user factories. About 3.46 mil sf of industrial space came  onstream this quarter, the bulk of which was  multiple-user factories. Full Year 2022 14.61 mil sf 16.85 mil sf 9.25 mil sf 7.82 mil sf Q2 2022 4.30 mil sf YOY change/  End 2022 QOQ/  End Q1 SGD1.60 SGD1.63 1.6% 4.5% 10.0% 10.0% 0.2pp 0.8pp SGD206 psf SGD211 psf SGD1.45 psf 1.0% 5.5% Insights &amp; recommendations * In Q2 2022, the JTC All Industrial Property price and rental indices continued their seventh  consecutive quarter of growth in Q2 2022. The rental index rose by 1.5% QOQ in Q2 2022,  accelerating from its 1.0% growth in the previous quarter. This would make it the fastest  quarterly pace of growth since Q3 2013.  * On the other hand, the price index rose by 1.5% QOQ this quarter, easing from the QOQ growth  of 3.1% last quarter.  * Overall, the tighter occupancy of +0.2pp has been driven by higher demand for multiple-user  factories and warehouses. * With more supply coming onto the market, Colliers recommends landlords be flexible in rental  negotiations. In addition, older industrial assets could be upgraded or redeveloped to meet the  demand for higher specification industrial space.  Demand Supply Rent* Vacancy Capital Values/Yields* 3.46 mil sf YOY/ End Q1 2022 Historical Avg 2017-21 SGD1.45 11.0% 8.6% 8.6% 0.2pp 88.0 89.0 90.0 91.0 -5.0 0.0 5.0 10.0 15.0 20.0 25.0 2017 2018 2019 2020 2021 Q1 2022 Q2 2022 Occupancy (%) Change in stock (mil sf) 83.0 84.0 85.0 86.0 87.0 -0.2 0.0 0.2 0.4 0.6 0.8 1.0 2017 2018 2019 2020 2021 Q1 2022 Q2 2022 Occupancy (%) Change in stock (mil sf) Net Supply Net Absorption Occupancy Rate Factory Rental indices for both multiple-user and single- user factories have increased, with multiple-user  factories registering its highest quarterly and  annual growth (2.1% QOQ/3.7% YOY) since Q3  2013. This could be attributed to the growing  demand for high-specification multiple-user  factories, as occupiers look for office grade  industrial spaces near the city fringe. Demand for  factories has also been supported by continued  growth in the food, electronics and precision  engineering industries. Backed by strong  government support and incentives, more firms  are expected to set up their manufacturing hubs  in Singapore, with sustained growth in the  manufacturing and wholesale trade sectors to  underpin demand for factory space. 2 All Industrial Property Both the JTC all Industrial price and rental indices  continued their seventh consecutive quarter of  growth in Q2 2022; the rental index rose by 1.5%  QOQ, accelerating from its 1.0% growth in the  previous quarter as demand caught up with  supply. On the other hand, the price index rose  by 1.5% QOQ this quarter, easing from the 3.1%  QOQ growth last quarter.  Warehouse On the back of strong leasing activity, occupancy  for private warehouses further tightened to  91.4% from 90.9% in the previous quarter.  Although warehouse rents increased by 2.1%  QOQ overall, rental performance would vary  across different warehouses, depending on their  location and specifications. Specifically for prime  logistics (investor grade ramp-up warehouses),  where vacancy rates remain tight and pre- commitment rates to upcoming supply are high,  rental growth has outperformed, and there will  continue to be healthy rental growth on the back  of strong demand. Business Parks With the increase in business park stock,  occupancy has dropped by 50 pp this quarter.  Business parks rents have started to exhibit  some growth (0.2% QOQ), on the back of higher  demand from knowledge and high-value sectors  such as technology and biomedical firms. Rental  growth is likely to be skewed towards newer,  higher specification developments in the city  fringe as these are preferred by tenants.  Private warehouse demand &amp; supply Private factory demand &amp; supply Business park demand &amp; supply Source: Colliers, JTC  All industrial demand &amp; supply 87.0 88.0 89.0 90.0 91.0 92.0 93.0 -1.0 0.0 1.0 2.0 3.0 4.0 5.0 6.0 7.0 8.0 9.0 2017 2018 2019 2020 2021 Q1 2022 Q2 2022 Occupancy (%) Change in stock (mil sf)  85.0  86.0  87.0  88.0  89.0  90.0  91.0  92.0  93.0  94.0 -2.0 0.0 2.0 4.0 6.0 8.0 10.0 12.0 2017 2018 2019 2020 2021 Q1 2022 Q2 2022 Occupancy (%) Change in stock (mil sf) 3 "Strong demand and favorable prices could  lead to more sale and leaseback activity  for industrial assets. The industrial sector,  especially high specification warehouses,  are also more defensive and resilient,  serving as a good hedge against  macroeconomic uncertainties." Lynus Pook Executive Director and Head of Industrial Services  Singapore  Upcoming supply Colliers industrial rents Industrial Stock: Q2 2022 Q2 2022  (SGD) % Change  QOQ % Change  YOY High-specs 3.22 0.5% 1.3% Factory* 1.63 - 0.5% Warehouse* 1.50 0.7% 1.3% Prime logistics 1.60 1.6% 7.4% Business Park 3.68 - -0.8% Prime Business Park 6.23 0.2% 1.3% Significant upcoming projects as of Q2 2022 Source: Colliers, jTC *TOP = temporary occupation permit Project Name Developer GFA ('mil sf) Expected TOP* 1 Solaris @ Tai Seng Soilbuild Group 1.13 2022 2 Perennial Business City Perennial 1.52 2022 3 Surbana Jurong Surbana 0.45 2022 4 2PS1 Soilbuild REIT 0.76 2022 5 Logos eHub at Pandan  Crescent Logos 0.87 2022 Factory  (Single-user) 50% Factory  (Multiple- user) 23% Warehouse 22% Business Park 5% Total Stock 552.34 mil sf 16.8 11.0 14.8 3.0 2.3 0.0 2.0 4.0 6.0 8.0 10.0 12.0 14.0 16.0 18.0 2022F 2023F 2024F 2025F 2026F Estimated GFA (mil sf) Multi-user Factory Single-user Factory Business Park Warehouse *Average of upper and lower floor rents In 2Q 2022, demand had caught up with supply.  However, with an average annual supply of  about 12.9 mil sf till 2025 coming onstream  (compared to 7.5 mil sf over the past three  years), and with 16.8 mil sf to be completed this  year, the higher supply is likely to temper the  pace of rental and price growth. On one hand,  macroeconomic uncertainties are prompting  industrialists to fortify their supply chains by  diversifying locations and stockpiling; on the  other, it has also led them to be more cautious  about their expansion plans. Other risks which  could dampen business sentiments in the  industrial sector include rising commodity prices,  disruptions to global supply chains, slowing  growth and higher cost of capital due to rising  interest rates in developed economies, as well as  the resurgence of renewed pandemic outbreaks  which may reintroduce restrictions and further  disrupt supply chains and labour supply.  In the long term, demand for industrial space will  still be driven by tailwinds such as Singapore's  increasing focus on higher-value manufacturing  and biomedical sectors. Therefore, Colliers  expects rents to grow by between 2 and 4% this  year. Industrial prices could grow at a higher clip  of between 5 and 7% on the back of growing  interest in industrial assets due to their higher  yields and limited availability.  About Colliers Colliers (NASDAQ, TSX: CIGI) is a leading diversified professional services and investment management company. With operations in 63 countries, our 17,000 enterprising professionals work collaboratively to provide expert real estate and investment advice to clients. For more than 27 years, our experienced leadership with significant inside ownership has delivered compound annual investment returns of 20% for shareholders. With annual revenues of $4.5 billion and $81 billion of assets under management, Colliers maximizes the potential of property and real assets to accelerate the success of our clients, our investors and our people. Learn more at corporate.colliers.com, Twitter @Colliers or LinkedIn Legal Disclaimer This document/email has been prepared by Colliers for advertising and general information only. Colliers makes no guarantees, representations or warranties of any kind, expressed or implied, regarding the information including, but not limited to, warranties of content, accuracy and reliability. Any interested party should undertake their own inquiries as to the accuracy of the information. Colliers excludes unequivocally all inferred or implied terms, conditions and warranties arising out of this document and excludes all liability for loss and damages arising there from. This publication is the copyrighted property of Colliers and /or its licensor(s). (c) 2022. All rights reserved. This communication is not intended to cause or induce breach of an existing listing agreement. For further information, please contact: Catherine He Director and Head of Research |  Singapore +65 6531 8563 catherine.he@colliers.com Lynus Pook Executive Director and Head of  Industrial Services | Singapore +65 6531 8654 lynus.pook@colliers.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAR K E T B E AT Industrial Q2 2022 SINGAPORE $6.04 Business Park (City Fringe) $3.52 Business Park (Outlying Areas) $4.36 Science Park 4.6% Inflation Growth 3.7% Real GDP Growth 2.2% Unemployment Source: Ministry of Trade &amp; Industry (MTI),  Moody's Analytics  SINGAPORE ECONOMIC INDICATORS  Q1 2022 12-Mo. Forecast 12-Mo. Forecast Steady Growth Expected for 2022 Despite Headwinds Official data released by the Ministry of Trade and Industry (MTI) in May 2022 showed that Singapore's economy expanded by 3.7% y-o-y during the first quarter of 2022, which was faster than the advance estimate of 3.4%. Manufacturing sector which grew by 7.1% y-o-y in Q2 2022, extending the 13.2% full-year growth in 2021 was the top contributor to GDP growth during the quarter. GDP growth for 2022 is expected to slow to about 3% to 5% given global economic uncertainties due to the ongoing Ukraine-Russia conflict, rising interest rates and supply chain disruptions. Broad-based Rent Growth Continues But Caution Setting in Industrial market continued to improve across most segments. While rents of business parks in both the city fringe and outlying areas as well as factory remained stable on the back of tight vacancy rates, the other segments witnessed rising rents with prime logistics continuing to outperform. A flight to quality continues to drive the market and high-tech factories continue to see demand with rents inching up slightly in Q2 2022 as occupiers seek newer office-like industrial spaces in close-to-city locations for better corporate image and talent retention. Prime logistics and warehouse rents rose 2.0% and 1.5% q-o-q respectively in Q2 2022, as tight supply continues to support rental growth. A swift re-opening of the economy is diverting consumption from goods to services, as people spend more on travel and leisure activities. With pandemic- fueled demand for goods tapering off coupled with current macro-uncertainties, e-commerce players are adopting a watch-and-wait stance. Consequently, warehouse / prime logistics rental growth may slow in the upcoming quarters amid more cautious market sentiments. However, stockpiling demand for goods and food, continues to persist, to hedge against high freight costs and supply chain disruptions. This would underpin occupancy levels for prime logistics / warehouse space, especially for developments with cold chain facilities. Steady Long-term Fundamentals to Underpin Industrial Capital Values The industrial market is still expected to lock in positive rental growth for 2022 despite looming global recession risks as Singapore economy continues to grow, driving demand for industrial space, and new supply remains tight in some segments. A flight to quality will gravitate demand for newer and better spec facilities, leading to increased incentives for redevelopment and asset enhancement, though this will be balanced against higher development costs due to higher financing and construction costs. The industrial market's fundamentals are underpinned by long-term demand from high-value manufacturing and e-commerce growth. Singapore aims to grow her manufacturing sector by 50% by 2030 and Singapore's e-commerce market is expected to grow at a compound annual growth rate of 16% to reach S$14.2 billion in 2025 according to forecasts by GlobalData. Also, there is limited available institutional-grade industrial stock for sale. As such, we don't anticipate much repricing in the market especially for longer tenure industrial land, even as interest rates go up as owners are likely to stick to their asking prices. INDUSTRIAL SUPPLY PIPELINE Rents (S$PSF/MO)  -  5.0  10.0  15.0 Multiple-User Factory Single-User Factory Warehouse Business Park Supply (msf) Q2 - Q4 2022F 2023F 2024F MAR K E T B E AT Industrial Q2 2022 SINGAPORE SEGMENT GROSS EFFECTIVE RENT Q-O-Q  CHANGE (%) 12-MONTH OUTLOOK S$/SF/MO US$/SF/MO EUR/SF/MO Business Park (City Fringe) S$6.04 US$4.34 EUR4.16 0.0% Business Park (Outlying Areas) S$3.52 US$2.53 EUR2.42 0.0% Science Park S$4.36 US$3.13 EUR3.00 1.6% High-Tech S$3.21 US$2.31 EUR2.21 0.2% Factory - Ground Floor S$1.81 US$1.30 EUR1.25 0.0% Factory - Upper Floor S$1.61 US$1.16 EUR1.11 0.0% Warehouse - Ground Floor S$1.58 US$1.14 EUR1.09 1.5% Warehouse - Upper Floor S$1.28 US$0.92 EUR0.88 1.5% Prime Logistics - Ground Floor S$1.49 US$1.07 EUR1.03 2.0% Prime Logistics - Upper Floor S$1.33 US$0.96 EUR0.91 2.0% US$/S$ = 1.392; EUR/S$ = 1.454, as of 30 June 2022 PROPERTY SUBMARKET SELLER / BUYER PRICE (S$ Million) Food Empire Building Tai Seng Empire Instant Food Pte Ltd / Lian Beng Group 49.3 UE Bizhub Central Ang Mo Kio United Engineers Ltd / Apple 55 19 Changi South Street 1 Changi Mapletree Industrial / Esco Micro Pte Ltd 13 MARKET STATISTICS PROJECT NAME SUBMARKET TENANT SF EXPECTED COMPLETION YEAR* CleanTech Three Jurong West - 665,000 2022 Surbana Jurong Campus Jurong West Surbana Jurong 445,000 2022 Perennial Business City Jurong East - 1,500,000 2022 Kajima Campus Changi Kajima 140,000 2023 Biopolis Phase 6 - Elementum one-north - 378,000 2023 Punggol Digital District (Phase 1) Punggol  - 1,780,000 2024 Development at 3 Science Park Drive Science Park - 310,000 2025 Punggol Digital District (Phase 2) Punggol  - 740,000 2025 Development at 1 Science Park Drive Science Park  - 1,200,000 2025 * Note: Project timeline might change due to the impact of Covid-19's restrictions on construction progress cushmanwakefield.com KEY SALES TRANSACTIONS Q2 2022 SIGNIFICANT BUSINESS PARK PROJECTS - PLANNED &amp; UNDER CONSTRUCTION WONG XIAN YANG Head of Research Singapore +65 6232 0885 / xianyang.wong@cushwake.com BRENDA ONG Executive Director Head of Logistics &amp; Industrial Services Singapore +65 6232 0878 / brenda.ong@cushwake.com A CUSHMAN &amp; WAKEFIELD RESEARCH PUBLICATION About Cushman &amp; Wakefield Cushman &amp; Wakefield (NYSE: CWK) is a leading global real estate services  firm that delivers exceptional value for real estate occupiers and owners.  Cushman &amp; Wakefield is among the largest real estate services firms with  approximately 50,000 employees in over 400 offices and approximately 60  countries. In 2021, the firm had revenue of $9.4 billion across core services  of property, facilities and project management, leasing, capital markets, and  valuation and other services. To learn more, visit  www.cushmanwakefield.com or follow @CushWake on Twitter. (c)2022 Cushman &amp; Wakefield. All rights reserved. The information   contained within this report is gathered from multiple sources believed   to be reliable. The information may contain errors or omissions and is   presented without any warranty or representations as to its accuracy. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I N D U S T R I A L  M A R K E T  O V E R V I E W T R E N D S  A N D  O P P O R T U N I T I E S 1 OVERALL AND MANUFACTURING GDP Source: DOS, MTI, Cushman &amp; Wakefield Research MANUFACTURING GROWTH  Strong economic recovery registered in 2021 and expected stable economic growth in 2022  Growth driven by high-value sectors INDUSTRIAL ECONOMIC INDICATORS  PMI  PMI records 24th month of expansion as of June 2022 Position of Strength -10% -5% 0% 5% 10% 15% 20%2012201320142015201620172018201920202021Q1 2022 Overall GDP Manufacturing GDP 3.7% Overall GDP  Q1 2022 7.1% Manufacturing GDP  Q1 2022Pandemic Outperformers Expansionary Contractionary 2 MANUFACTURING IS CHANGING AND IS IMPORTANT Fourth  Industrial  Revolution Smart  automation  and  exponential  change 2020 onward Third  Industrial  Revolution Electronic  automation  1970s - 2000s Second  Industrial  Revolution Industrializatio n  Beginning of  20th century First  Industrial  Revolution Power  generation Late 18th - 19th century "As needs diversify, the era of supplying a mass volume of a single product is a thing of the past. Now, the key to growth is being able to promptly respond to need." - Shinichi Inoue, President of Makino Asia Source: Various Sources Building a Future-ready Manufacturing Sector GlobalFoundries' highly automated  cleanroom Factory of the future The old days Dyson patented digital motors 3 SUPPLY CHAIN THEMES Trends Shaping Future Supply Chain  Regionalisation of trade bodes well for Singapore and Southeast Asia  Resilience-model and modernisation of supply chains will benefit established logistics hubs with high connectivity and talent FUTURE THEMES Southeast Asia is Well-Positioned Source: Boston Consulting Group Forecast Change in Trade of Goods between ASEAN and Major Markets  from 2019 base to 2023 (US$ Billion) * Focus on supply chain resilience * Diversification / Additional suppliers * Stockpile / manage inventories 1 * Growth in domestic market and regional trade * Growing middle income class across Asia-Pacific 2 * Redesign of supply chain networks * Proximity to customers / key transportation nodes 3 * Modernization of supply chain * Robotics and automation * Digital supply chain 4 * Focus on ESG to achieve cardon reduction by design * Reduce transportation distance and time * Green features for warehouses / distribution centers 5 RISING TRADE IN ASEAN 4 0.0% 5.0% 10.0% 15.0% 20.0% 25.0% 30.0% 0.00 0.10 0.20 0.30 0.40 0.50 0.60 0.70 Jan-18 Mar-18 May-18 Jul-18 Sep-18 Nov-18 Jan-19 Mar-19 May-19 Jul-19 Sep-19 Nov-19 Jan-20 Mar-20 May-20 Jul-20 Sep-20 Nov-20 Jan-21 Mar-21 May-21 Jul-21 Sep-21 Nov-21 Jan-22 Mar-22 May-22 % S$ Billion Online Retail Sales (S$ Billion) Online Retail Sales (%) Out of Total Retail Sales Source: Media reports, DOS, Cushman &amp; Wakefield Research MARKET DRIVERS Prevailing Trends  Industrialist prioritise stability and talent pipeline as manufacturing becomes less footprint intensive and increasing emphasis on software  Singapore is a test-bed and springboard to Southeast Asia E-COMMERCE GROWTH HIGH-VALUE MANUFACTURING BOOM SINGAPORE ONLINE RETAIL SALES BIOMEDICAL AND ELECTRONIC / ELECTRICAL  MANUFACTURING OUTPUT  0 40,000 80,000 120,000 160,000 200,000 2012 2013 2014 2015 2016 2017 2018 2019 2020 2021 S$ million  Pharmaceutical &amp; Biological Products Electronic &amp; Electrical Products Opened its 353,000 sqft West Fulfillment Centre, which boasts an automated storage and retrieval system where over 48,000 products can be sorted, stored and retrieved automatically to fulfil customer orders in 2021 Opened its third Singapore warehouse in 2020 Opened two new warehouses in Singapore at Changi Airfreight Center and Penjuru in 2021 Opened its new automated hub located at Yio Chu Kang in 2021 Opened an S$8 million in-vitro diagnostic manufacturing facility, the largest in South-east Asia, spanning 15,000 sf. To invest S$1.5 billion in Singapore over the next four years Recently broke ground on its vaccine facility in Singapore. To build new $5.4 billion plant  in Singapore, add 1,000 high- value jobs World's No. 1 chipmaker may build a new multibillion- dollar factory in Singapore 5 -2.0% 0.0% 2.0% 4.0% 6.0% 8.0% 10.0% Jan-00 Oct-00 Jul-01 Apr-02 Jan-03 Oct-03 Jul-04 Apr-05 Jan-06 Oct-06 Jul-07 Apr-08 Jan-09 Oct-09 Jul-10 Apr-11 Jan-12 Oct-12 Jul-13 Apr-14 Jan-15 Oct-15 Jul-16 Apr-17 Jan-18 Oct-18 Jul-19 Apr-20 Jan-21 Oct-21 Headline Inflation Core Inflation POTENTIAL HEADWINDS Prepare for a Rising Interest Rate and Inflationary Environment Source: Moody's Analytics, Cushman &amp; Wakefield Research  Core inflation reaches more-than a decade high, driven by higher energy and food costs  Higher interest rates would slow growth and increase recession risks DOWNSIDE RISKS -0.5 0 0.5 1 1.5 2 2.5 3 3.5 4 Jan-10 Apr-10 Jul-10 Oct-10 Jan-11 Apr-11 Jul-11 Oct-11 Jan-12 Apr-12 Jul-12 Oct-12 Jan-13 Apr-13 Jul-13 Oct-13 Jan-14 Apr-14 Jul-14 Oct-14 Jan-15 Apr-15 Jul-15 Oct-15 Jan-16 Apr-16 Jul-16 Oct-16 Jan-17 Apr-17 Jul-17 Oct-17 Jan-18 Apr-18 Jul-18 Oct-18 Jan-19 Apr-19 Jul-19 Oct-19 Jan-20 Apr-20 Jul-20 Oct-20 Jan-21 Apr-21 Jul-21 Oct-21 Jan-22 Apr-22 Jul-22 Oct-22 Jan-23 Apr-23 Jul-23 Oct-23 Jan-24 Apr-24 Jul-24 Oct-24 Federal Funds Effective Rate Singapore Money Market Rate Forecast US AND SINGAPORE INTEREST RATES SINGAPORE INFLATION 6 E-commerce/logistics to Drive Future Demand Active Occupiers  New Leases Done by size (2020-2022YTD) Current Market Demand (potential relocations/expansions/new leases as of Q1 2022) E-commerce/Logistics 34% Consumer Goods 24% Information  Technology 21% General  Manufacturing 15% Others 6% 2.0 million sf Source: Cushman &amp; Wakefield Research MARKET ACTIVITIES  Demand for industrial space remains healthy as industrialists continue to expand or consolidate their premises  Key sectors such as e-commerce/logistics, electronics, engineering and biomedical sectors continue to drive demand 1.6 million sf E-commerce/Logistics 30% Others 23% Electronics 11% Engineering 10% Biomedical 9% General  Manufacturing 7% Energy 6% Information  Technology 3% Consumer  Goods 1% 7 Source: JTC, Cushman &amp; Wakefield Research  Supply of multiple-user and single-user factory will taper off from 2023 onwards  Warehouses are well pre-committed, estimated at over 60%  Most of new business park supply will be in suburban areas with limited new supply for city-fringe business parks FUTURE SUPPLY FUTURE SUPPLY  -  2.0  4.0  6.0  8.0  10.0  12.0  14.0 Multiple-User Factory Single-User Factory Warehouse Business Park Supply (msf) Q2 - Q4 2022F 2023F 2024F Healthy Pre-Commitment Rates for Logistics 8 PROJECTED MARKET PERFORMANCE 2022  Some Segments to Outperform  * Multiple-User Factory Space Source: Cushman &amp; Wakefield Research Sector 2022 Rental  Forecast  (% yoy) H1 2022 Rental  Growth  (% ytd) Q1 2022  Vacancy Rate  (%)   Remarks Prime Logistics + 6.0 + 5.1 3.5 * Vacancy rates are tight with very little available supply in the market for large requirements Business Park (City Fringe) + 3.5 + 0.9 4.1 * Knowledge sectors such as tech and biomedical continue to drive demand while supply remains limited High-tech  Factory + 3.5 + 0.8 12.4 * Knowledge sectors such as tech and biomedical continue to drive demand but a deluge of supply in 2022 would cap rent growth Conventional  Warehouse + 3.0 +1.5 9.7 * Rents remain unchanged due to varying performance across warehouses, dependent on location and specifications Conventional  Factory + 2.0 + 1.4 11.2* * Demand supported by continued outperformance in the biomedical, electronics and related industries as well as ongoing improvements in general manufacturing Business Park (Outlying) + 1.0 - 0.4 23.6 * Rental growth to be skewed towards newer developments with new supply in the West 9 OPPORTUNITIES AND STRATEGIES Investing for the Long Term Limited repricing opportunities * Long term industrial fundamentals remain compelling, and owners are likely to stick to their asking prices. A widening expectation gap between buyers and sellers could limit successful deals * Private freehold and longer tenure industrial land are a rarity and future capital gain can be substantial. Yields to remain low but capital values are expected to increase with rental growth. Sales-and-leaseback opportunities * Sale &amp; leaseback would provide stable income while enjoying capital value upside. Longer land lease have better growth prospects * Structure triple-net lease to mitigate inflation impact on property operation costs Consider redevelopment or asset enhancement opportunities for higher yield * Stablised assets will continue to fetch a premium in the market. Investors looking for higher returns can look for redevelopment plays which can provide higher returns and yield * With sustainability becoming a focal point, more assets may become stranded. Invest in sustainability solutions to future-proof asset and cater to "green-conscious" demand. * Near-to-city ageing industrial estates would be areas to consider About Cushman &amp; Wakefield Cushman &amp; Wakefield (NYSE: CWK) is a leading global real estate services firm that delivers exceptional value for real estate occupiers and owners. Cushman &amp; Wakefield is among the largest real estate services firms with approximately 50,000 employees in over 400 offices and 60 countries. In 2020, the firm had revenue of US$7.8 billion across core services of property, facilities and project management, leasing, capital markets, valuation and other services. To learn more, visit www.cushmanwakefield.com or follow @CushWake on Twitter. (c)2022 Cushman &amp; Wakefield. All rights reserved. The information contained within this report is gathered from multiple sources believed to be reliable. The information may contain errors or omissions and is presented without any warranty or representations as to its accuracy. Dennis Yeo Head of Investor Services and Logistics &amp; Industrial Asia Pacific Tel: +65 9636 6388 dennis.yeo@cushwake.com For more information, contact: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  Overall Outlook     Key observations  New supply continues to surge but demand keeping pace. In 2Q22, 322,000 sqm of new supply of industrial space was  added to the market. Total new supply added to the market in 1H22 was 655,000 sqm, almost on par with the 669,000 sqm  added to the market for the whole of FY21. With borders now reopened and construction activity ramping up, project  completions are also expected to pick up, and a further c.1.6m sqm of new industrial space is expected to come online in  2H22. Around 43% of new supply will be single-user factory space, c.30% will be multiple-user factory space, while the  remaining c.27% will come from warehouses and business parks.  Despite the faster pace of project completions, demand in 2Q22 continued to be robust. Although the multiple-user and  warehouse segments saw the largest increase in new supply of 129,000 sqm and 109,000 sqm respectively, demand was  more than sufficient to offset new stock. Both segments reported positive net absorption in 2Q22, which helped to offset  the slight negative net absorption in the single-user and business parks segments. Overall occupancy rate for industrial  properties inched up 0.2 ppt in 2Q22 to 90.0%.  Rental index at a five-year high. On the back of higher occupancies and continued strong demand, the rental index for  industrial properties has inched up to 93.7 in 2Q22. This is the highest level reported in more than five years, with the rental  index at 93.8 at the end of FY16. The increase in rental index was contributed by all four segments of industrial properties  which also reported an increase q-o-q. Unsurprisingly, the most significant increase in rental index in 2Q22 came from the  multiple-user and warehouse segments as a result of stock take ups. Within the multiple-user factory space, the highest  increases in rental index were seen in the North Region and West Region where the q-o-q index increased 3.6 ppts and 2.3  ppts, respectively.    What are we watching? Delivery of new supply in FY22. As the labour crunch eases and project completion continues to ramp up, we are expecting  the delivery of more stock this year. The 655,000 sqm of new supply completed in 1H22 was already almost on par with the  total new supply in FY21. We understand that many of these were projects that were delayed, and we are expecting more of  such projects to be completed by the end of FY22. Based on estimates from JTC, a further 1.5m sqm of new supply is  projected to be delivered in 2H22, with the bulk coming from the single-user and multiple-user factory space. We are  keeping a close watch on the new supply for multiple-user factories where c.470,000 sqm of stock will be added in 2H22,  potentially putting pressure on occupancies and rents.  Slower rate of new completions expected beyond FY22. Looking further ahead, new supply of industrial space that is  projected to be completed is expected to slow down. Between FY23 and FY25, slightly less than 900,000 sqm of new stock is  expected to be added to the market on an annual basis. Approximately 53% of the new stock in the next three years is  single-user factory space, c.19% are multiple-user factory space, c.16% are business parks, and c.13% are warehouses.  Assuming that demand continues to remain healthy, we believe that the spike in new supply in FY22 may put some pressure  on rents and occupancies, but the excess supply should be gradually absorbed from FY23 onwards.          DBS Group Research. Asian Insights Office    2 September 2022  Industry Outlook  Singapore Industrial REITs      .     Industry Outlook  Singapore Industrial REITs         Page 2    .        Key statistics for industrial sector    Key indicators of industrial sector  Key Indicators  2Q22  1Q22  % Change  (q-o-q)  2Q21  % Change  (y-o-y)  Price Index  Industrial Property  94.4  93.0  1.5%  89.7  5.2%  Multi-User Factory  97.7  96.1  1.7%  92.6  5.5%  Single-User Factory  84.6  83.6  1.2%  80.7  4.8%  Rental Index   Industrial Property  93.7  92.3  1.5%  90.6  3.4%  Multi-User Factory  92.2  90.3  2.1%  88.9  3.7%  Single-User Factory  97.8  97.4  0.4%  95.8  2.1%  Warehouse  89.1  87.3  2.1%  84.3  5.7%  Business Park  112.1  111.9  0.2%  112.2  -0.1%  Vacancy rate   Industrial Property  10.0%  10.2%  -2.0%  9.9%  1.0%  Single-User Factory  9.7%  9.6%  1.0%  9.1%  6.6%  Multi-User Factory  10.6%  11.2%  -5.4%  10.3%  2.9%  Warehouse  9.1%  9.7%  -6.2%  10.3%  -11.7%  Business Park  14.9%  14.4%  3.5%  15.2%  -2.0%  Pipeline under construction   Industrial Property  47.9  48.1  -0.4%  53.1  -9.8%  Single-User Factory  24.4  22.1  10.4%  22.2  9.9%  Multi-User Factory  10.7  12.3  -13.1%  16.8  -36.5%  Warehouse  7.6  8.3  -7.7%  7.9  -3.7%  Business Park  5.1  5.4  -5.2%  6.1  -15.9%  Source: JTC Corporation, DBS Bank      Industry Outlook  Singapore Industrial REITs         Page 3    .        Rental Index: Rentals for industrial properties are at a 5-year high    Source: JTC Corporation, DBS Bank    *  The overall industrial properties rental index has been on the uptrend since late- FY20, likely due to a lack of new  supply as construction delays hit.  *  Industrial properties rental index is currently 93.7, a level not seen since the end of FY16. The rising rental index has  mostly been driven by the multiple-user factory and warehouse segments.  *  The multiple-user and warehouse rental indices are currently 92.2 and 89.1 respectively. The last time both rental  indices were this high was in late-FY16 to early-FY17.  *  Single-user rental index is currently 97.8 and has been fluctuating at these levels over the past three to four years.  *  Business parks rental index peaked at 113.3 at the beginning of FY20 and currently hovers around 112.1, a slight  improvement from the previous quarter.       80 85 90 95 100 105 110 115 Industrial Property Multi-User Single-User Warehouse Business Parks Industry Outlook  Singapore Industrial REITs         Page 4    .        Key Charts - Industrial Sector     Spike in new supply in 2022F due to rollover from the past two years    Source: JTC Corporation, DBS Bank    *  A total of c.2.2m sqm of new industrial space is expected to be added to the market in FY22, the largest supply to be  added in a single year. This is a result of a rollover in project completions from the last two years as the COVID-19  pandemic led to construction delays and disruptions to supply chains.   *  Only 669,000sqm of new supply was completed in the whole of FY21. The remaining 784,000sqm of new stock that  was previously expected to be completed in FY21 has now been pushed to FY22.  *  Of the remaining c.1.6m sqm of new supply expected to hit the market over the next two quarters of FY22, c.43% will  be single-user factory space that has likely been developed by industrialists for their own use.  *  Multiple-user factory space makes up another c.30% of the upcoming supply, and warehouses and business park  spaces will contribute the remaining c.27% of the new stock.  *  Take-up of multiple-user and warehouse spaces has been healthy so far in the first two quarters of FY22 with positive  net absorption despite the delivery of new stock. However, the spike in supply for the rest of FY22 may put some  pressure on occupancy and rental rates going forward.       -  500  1,000  1,500  2,000  2,500 2014 2015 2016 2017 2018 2019 2020 2021 2022F 2023F 2024F 2025F 000' sqm Supply Demand Industry Outlook  Singapore Industrial REITs         Page 5    .        Spike in new supply in 2022 is expected to lead to negative net absorption    Source: JTC Corporation, DBS Bank    *  Net absorption in FY20 and FY21 were positive due to the delays in construction and supply chain disruptions caused  by the COVID-19 pandemic.   *  Although the amount of new industrial supply in FY21 was more than twice the amount seen in FY20, pent-up demand  and expansion needs led to a slightly positive net absorption in FY21.  *  The positive net absorption in FY21 came from the multi-user factory and warehouse segments, partially offset by the  negative net absorption from the single-user factory and business park segments.  *  With c.2.2m sqm of new industrial supply expected to hit the market in FY22, we might see some negative net  absorption. We believe that the negative net absorption will likely be contributed by the single-user and multiple-user  factory segments, which are projected to deliver the bulk of the new supply this year.  *  In the medium term, net absorption could surprise on the upside as some construction delays persist. It may likely  lead to some of the new supply in FY22 being rolled over to the following years and help spread out new stock more  evenly and lessen pressure on vacancy rates.      8.1% 9.1% 9.4% 10.5% 11.1% 10.7% 10.8% 10.1% 9.8% 10.1% 10.3% 10.7% 10.8% 0.0% 2.0% 4.0% 6.0% 8.0% 10.0% 12.0%  (8)  (6)  (4)  (2)  -  2  4 2013 2014 2015 2016 2017 2018 2019 2020 2021 2022F 2023F 2024F 2025F m'sqft Net Suplus/(Net deficit) Vacancy Rate (RHS) Industry Outlook  Singapore Industrial REITs         Page 6    .        Rental reversion trend expected to remain healthy in the coming years    Source: JTC Corporation, Urban Redevelopment Authority, DBS Bank    *  After several years of negative rental reversions (3-year cycle) for the factory and warehouse segments, the trend  reversed in FY21. Positive rental reversions for business parks have been tapering off in the past two years, and was  flat in FY21.  *  Overall rentals in the near term are expected to remain relatively healthy as construction delays continue to limit the  addition of new stock to the market.   *  Over the last two years, the logistics sector has been driven by the advancement of e-commerce and stockpiling  activities. This has led to the outperformance in rentals for the warehouse segment, and we believe its  outperformance will continue through to FY23.      -20% -10% 0% 10% 2016 2017 2018 2019 2020 2021 2022F 2023F 2024F 2025F % reversions (3 year cycle) Business Park Warehouse  Factory Industry Outlook  Singapore Industrial REITs         Page 7    .        Industrial Sub-sector - Multi-User Factory    Multi-user factory supply: Supply spike in 2022F due to construction delays in previous two years    Source: JTC Corporation, Urban Redevelopment Authority, DBS Bank    *  The drop in new completions in FY21 led to a 170bps improvement in occupancy rates, and vacancy rates fell to a low  of 9.8%, a level not seen in the past nine years.   *  Due to further construction delays in FY21, some new supply has been rolled over to FY22. This was likely the main  reason for the robust increase in occupancy rates for the multiple-user factory space, to 90.2%.  *  As more delays caused some new supply to be rolled over to FY22, the spike in supply for multiple-user factory space  could likely lead to vacancy rates inching back up to c.11% in FY23 and FY24.   *  Occupancy rates could surprise on the upside in FY22 if the labour crunch situation persists and new supply is spread  out more evenly over the next few years.      0% 2% 4% 6% 8% 10% 12% 14% 16%  (1.0)  -  1.0  2.0  3.0  4.0  5.0  6.0 2015 2016 2017 2018 2019 2020 2021 2022F 2023F 2024F 2025F m Sqft Multi-User Factory Supply Demand Vacancy (RHS) Industry Outlook  Singapore Industrial REITs         Page 8    .        Multi-user factories: Surprise rebound in occupancy rate despite delivery of more stock     Source: JTC Corporation, Urban Redevelopment Authority, DBS Bank    *  Rentals declined marginally in 2020 mainly due to the COVID-19 pandemic, but we have since seen a rebound in FY21  due to healthy demand and limited new supply.  *  In FY21, occupancy rates improved 170bps to 90.2% and rental rates improved 2.0% to S$1.90psf due to the limited  new supply and construction delays.   *  However, as the delivery of new supply is expected to spike in FY22, we expect occupancy and rental rates to face  some downward pressure.  *  This has been evident in 1Q22 as the occupancy rate trended downward due to the delivery of new supply, while  rents continue to remain healthy and inch up marginally. However, 2Q22 reported a surprise rebound in occupancy  rates as demand was stronger than expected.   *  Again, occupancy and rents could surprise on the upside if construction delays continue to persist, and new supply  continues to be rolled over to the next year.      85% 86% 87% 88% 89% 90% 91%  -  0.50  1.00  1.50  2.00  2.50 2014 2015 2016 2017 2018 2019 2020 2021 2022f 2023f 2024f 2025f 1Q18 2Q18 3Q18 4Q18 1Q19 2Q19 3Q19 4Q19 1Q20 2Q20 3Q20 4Q20 1Q21 2Q21 3Q21 4Q21 1Q22 2Q22 S$ psf pm Rental (LHS) Occupancy (%) (RHS) Industry Outlook  Singapore Industrial REITs         Page 9    .        Warehouses: Logistics sector driving demand for warehouses    Source: JTC Corporation, Urban Redevelopment Authority, DBS Bank    *  Although there was an increase of c.300,000sqm in new warehouse supply in FY21, vacancy rates improved by 10bps  due to strong demand from the logistics industry.   *  Stockpiling and storage activities drove demand for warehouse space throughout FY21, with rental rates reporting  some upside as more backfilling of excess supply from previous years continued.   *  Demand from third-party logistics businesses and those supporting the e-commerce sector are expected to continue  driving demand for modern warehouse space in the medium term.  *  Even with more new supply expected to be added to the market in FY22, we believe occupancy rates will remain stable  with the continued strong demand for modern warehouses.      0% 2% 4% 6% 8% 10% 12% 14%  -  2.0  4.0  6.0  8.0  10.0  12.0 2015 2016 2017 2018 2019 2020 2021 2022F 2023F 2024F 2025F m Sqft Warehouse Supply Demand Vacancy (RHS) Industry Outlook  Singapore Industrial REITs         Page 10    .        Warehouses: Despite some new supply coming online, occupancy and rental rates are expected to remain robust    Source: JTC Corporation, Urban Redevelopment Authority, DBS Bank    *  After six years of consecutive declines in rents, rental rates for warehouses started to pick up from early FY21, as  supply was absorbed, boosted by demand for stockpiling and growth of the logistics sector.  *  Riding on the surge in demand for storage and delays in completion of new supply, occupancy rates continued to inch  up by 10bps to c.90% in FY21.  *  Although some new supply is expected to come online in FY22, we expect overall warehouse occupancy and rental  rates to continue inching up, driven by the continued expansion in the logistics sector.  *  However, we could start to see a divergence in occupancy and rental performance between the modern logistics  warehouses and the older general warehouses, which could face stiff competition.      85% 86% 87% 88% 89% 90% 91% 92% 93%  -  0.50  1.00  1.50  2.00  2.50 2014 2015 2016 2017 2018 2019 2020 2021 2022f 2023f 1Q18 2Q18 3Q18 4Q18 1Q19 2Q19 3Q19 4Q19 1Q20 2Q20 3Q20 4Q20 1Q21 2Q21 3Q21 4Q21 1Q22 2Q22 S$ psf pm Rental (LHS) Occupancy (%) (RHS) Industry Outlook  Singapore Industrial REITs         Page 11    .        Industrial Sub-sector - Business Parks    Majority of business park space has been pre-committed    Source: JTC Corporation, Urban Redevelopment Authority, DBS Bank    *  Even though there has been some addition to the supply of business parks in FY21, demand was also strong, as most  of the new projects were pre-committed; and also due to the lack of new supply over the past two years.   *  As such, occupancy rates improved by 210bps to c.83.7% in FY21 as vacant space was gradually backfilled.   *  Looking ahead, the lack of new supply of business park space in FY22 could lead to it outperforming the other  segments as technology, biomedical, and consumer goods tenants continue to drive demand.  *  Although some new supply is expected by FY23 and FY24, we believe that most has already been pre-committed, and  we believe occupancy and rental rates could continue its uptrend.  *  As business parks in the city fringe precincts of Buona Vista and Alexandra are favoured over the rest of the island, we  believe these areas will outperform business parks in the other areas such as Jurong, Changi, and Tuas.      0% 2% 4% 6% 8% 10% 12% 14% 16% 18%  (0.5)  -  0.5  1.0  1.5  2.0  2.5  3.0  3.5 2015 2016 2017 2018 2019 2020 2021 2022F 2023F 2024F 2025F m Sqft Business Park Supply Demand Vacancy (RHS) Industry Outlook  Singapore Industrial REITs         Page 12    .        Our In-house Experts    Dale LAI  dalelai@dbs.com  +65 668 23715    Derek TAN Weixiang  derektan@dbs.com  +65 668 23716      Please note that DBS Bank Ltd may have research coverage in the companies mentioned in this industry report, that have been produced  prior to or subsequent to its publication. Please refer to the links below for the latest specific equity research reports published on below- mentioned companies and the accompanying disclaimer/disclosure of DBS' interest in the companies mentioned in the respective  reports    GENERAL DISCLOSURE/DISCLAIMER   The information herein is published by DBS Bank Ltd and/or DBS Bank (Hong Kong) Limited (each and/or collectively, the "Company").  This report is intended for "Accredited Investors" and "Institutional Investors" (defined under the Financial Advisers Act and Securities and  Futures Act of Singapore, and their subsidiary legislation), as well as "Professional Investors" (defined under the Securities and Futures  Ordinance of Hong Kong) only. It is based on information obtained from sources believed to be reliable, but the Company does not make  any representation or warranty, express or implied, as to its accuracy, completeness, timeliness or correctness for any particular  purpose. Opinions expressed are subject to change without notice. This research is prepared for general circulation.  Any  recommendation contained herein does not have regard to the specific investment objectives, financial situation and the particular  needs of any specific addressee. The information herein is published for the information of addressees only and is not to be taken in  substitution for the exercise of judgement by addressees, who should obtain separate legal or financial advice. The Company, or any of  its related companies or any individuals connected with the group accepts no liability for any direct, special, indirect, consequential,  incidental damages or any other loss or damages of any kind arising from any use of the information herein (including any error,  omission or misstatement herein, negligent or otherwise) or further communication thereof, even if the Company or any other person  has been advised of the possibility thereof. The information herein is not to be construed as an offer or a solicitation of an offer to buy or  sell any securities, futures, options or other financial instruments or to provide any investment advice or services. The Company and its  associates, their directors, officers and/or employees may have positions or other interests in, and may effect transactions in securities  mentioned herein and may also perform or seek to perform broking, investment banking and other banking or financial services for  these companies.  The information herein is not directed to, or intended for distribution to or use by, any person or entity that is a citizen  or resident of or located in any locality, state, country, or other jurisdiction (including but not limited to citizens or residents of the United  States of America) where such distribution, publication, availability or use would be contrary to law or regulation.  The information is not  an offer to sell or the solicitation of an offer to buy any security in any jurisdiction (including but not limited to the United States of  America) where such an offer or solicitation would be contrary to law or regulation.    This report is distributed in Singapore by DBS Bank Ltd (Company Regn. No. 196800306E) which is Exempt Financial Advisers as defined  in the Financial Advisers Act and regulated by the Monetary Authority of Singapore. DBS Bank Ltd may distribute reports produced by its  respective foreign entities, affiliates or other foreign research houses pursuant to an arrangement under Regulation 32C of the Financial  Advisers Regulations. Singapore recipients should contact DBS Bank Ltd at 65-6878-8888 for matters arising from, or in connection with  the report.    DBS Bank Ltd., 12 Marina Boulevard, Marina Bay Financial Centre Tower 3, Singapore 018982. Tel: 65-6878-8888. Company Registration  No. 196800306E.      DBS Bank Ltd., Hong Kong Branch, a company incorporated in Singapore with limited liability. 18th Floor, The Center, 99 Queen's Road  Central, Central, Hong Kong SAR.    DBS Bank (Hong Kong) Limited, a company incorporated in Hong Kong with limited liability.  13 th Floor One Island East, 18 Westlands  Road, Quarry Bay, Hong Kong Tel: (852) 3668-4181, Fax: (852) 2521-1812  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exhibit 1: Industrial Sales Performance Number of Transactions Average Price (S$ psf) Source: JTC J-Space, Knight Frank Research Note: The average unit price is based on a four-quarter moving average of strata transactions  *Q2 2022 data is based on transactions downloaded as at 30 June 2022. $1,200 $1,000 $800 $600 $400 $200 $0 600 500 400 300 200 100 0 Q1      Q2     Q3      Q4 2017 Q1      Q2      Q3      Q4 2018 Q1      Q2      Q3      Q4 2019 Q1      Q2      Q3      Q4 2020 Q1      Q2      Q3      Q4 2021 Q1      Q2* 2022 Multiple-user Factory Single-user Factory Warehouse Number of Transactions (Bar), Average Price (Line) Singapore Research Industrial Q2 2022 " " Despite increasing global uncertainty, the manufacturing sector remains poised as a stable engine for economic growth for the remainder of 2022, translating to a resilient industrial real estate market. STOCKPILING, ELECTRONIC EXPORTS AND INCREASED TRAVEL TO SUPPORT THE INDUSTRIAL MARKET IN 2022  DA NIEL DING,  H EAD ,  C A P I T A L  M A R K E T S ( L AND  &amp;  B UILD ING,  I N T E R N A T I O N A L  R E A L  E S T A T E  &amp;  I NDUSTRIAL) MA R K ET  S NA P S H OT 2,077  LEASES     34.1% Q-O-Q |     39.6% Y-O-Y  NUMBER OF INDUSTRIAL TENANCIES S$661.5   MILLION      4.9% Q-O-Q |     30.2% Y-O-Y  TOTAL INDUSTRIAL SALES 48.1  MILLION SF GFA UPCOMING SUPPLY (Q2 2022 TO    6) Manufacturing steadies the Singapore economy despite looming uncertainties Pockets of demand for certain industrial clusters Continued on next page Singapore's Gross Domestic Product (GDP) is expected to expand between 3.0% to 5.0% in  2022, with the Ministry of Trade and Industry (MTI) projecting growth to fall within the lower  half of the forecast range. GDP increased by 3.7% y-o-y thus far in the first three months of  2022, supported by the 7.1% y-o-y growth of the manufacturing sector. This was primarily led  by strong output expansions within the electronics and precision engineering clusters in Q1  as global demand for semiconductors and semiconductor equipment remained robust. Nonetheless, business sentiments have moderated. According to Singstat's Business  Expectations report for the manufacturing sector, overall, a net weighted balance of +2% of  manufacturing firms foresee a favourable business outlook for the period April to September  2022, lower than the preceding net weighted balance of +8% recorded in the previous quarter.   As such, despite dampened business sentiments due to prolonged global uncertainties, the  electronics industry continues to grow, boosting performance in the overall manufacturing sector  as the Singapore Purchasing Managers' Index (PMI) posted an expansion of 50.3 in June 2022.  1 The percentage changes for the total number of tenancies of all industrial space in April and May 2022 are based on a two-month comparison; q-o-q (against January  and February 2022) and y-o-y (against April and May 2021).  Overall, the pace of industrial sales  has slowed down. In Q2 2022, total  transactions amounted to S$661.5  million, representing declines of 4.9%  and 30.2% on a q-o-q and y-o-y basis  respectively. Multiple-user factory  spaces, posing as one of the more  affordable industrial assets, continued  to register healthy levels of sales,  bringing the average price to S$439 psf  (Exhibit 1). One of the main contributors  to the demand for industrial space is  the food industry, where occupiers are  actively on the lookout for food factories  and central kitchens in Singapore. With rising global concerns on food  security, as well as access to raw materials  and necessities, stockpiling activity has  increased. The strengthening Singapore  dollar provided support for stockpiling,  mitigating escalation in costs as inflation  becomes significant. The need for space  to support the increase in firms' inventories  expanded demand for warehouse space,  evident from the 212 rental transactions  recorded for such space in just April 2022  alone (Exhibit 2). Historically, this leasing  volume stands as the highest number of  tenancies on a monthly basis since data  became available, bringing the cumulative  median rental for warehouse to S$1.85  psf pm in April and May.  Knight Frank Research Reports are available at knightfrank.com.sg/research Exhibit 2: Industrial Leasing Volume and Median Rentals Number of Tenancies Median Rental (S$ psf pm) Source: JTC J-Space, Knight Frank Research Note: The median rental is based on a four-quarter moving average. *Q2 2022 is based on April and May 2022 data as at end-June $4.50 $4.00 $3.50 $3.00 $2.50 $2.00 $1.50 $1.00 5,000 4,000 3,000 2,000 1,000 0 Q1      Q2      Q3      Q4 2017 Q1      Q2      Q3      Q4 2018 Q1      Q2      Q3      Q4 2019 Q1      Q2      Q3      Q4 2020 Q1      Q2      Q3      Q4 2021 Q1      Q2* 2022 Multiple-user Factory Single-user Factory Business Park Warehouse Number of Tenancies (Bar), Median Rentals (Line) Daniel Ding Head Capital Markets (Land &amp; Building, International Real Estate &amp; Industrial) +65 6228 6833 daniel.ding@sg.knightfrank.com Alvin Teng Director Capital Markets (Industrial) +65 6228 6893 alvin.teng@sg.knightfrank.com For further information, please contact: Market outlook Making Singapore sustainable Recent Publications THE WEALTH REPORT 2022 Q       INDUSTRIAL REPORT In line with Singapore's progression towards its Green Plan 2030, aspiring to achieve net  zero emissions in the long-term, there has been an increase in sustainable initiatives. In  April 2022, the redevelopment of Pokka's regional headquarters commenced. To be  completed by Q1 2024, the new state-of-the-art building will house an innovation and  incubation hub with sustainable features and facilities. More recently in May 2022, Singapore's first eco-friendly manufacturing hub, Green Lab,  spanning some 200,000 sf officially opened. Envisioned to be a one-stop production plant,  the facility will manufacture some of Singapore's first fully compostable plant-based bags  that could potentially replace existing plastic ones. Fraser and Neave (F&amp;N), who owns a  60% stake in Green Lab through its publishing arm, Times Publishing, will be switching the  packaging of its in-house brands and products to the sustainable alternatives produced. Despite existing global and regional  uncertainties, bright spots continue to  highlight the industrial market. The  persisting chip shortage globally will  continue to generate demand for  electronics, and the transport engineer- ing cluster will benefit from the  increased demand for air travel as  travel accelerates in many parts of the  world. Thus, prices and rentals for  industrial space remain on track to  grow 3% to 5% for the whole of 2022. In tandem with these initiatives, JTC  has also introduced solar deployment  models, helping industries to transition  towards sustainable and renewable  energy sources through the installation  of solar photovoltaic (PV) panels. To  facilitate solar energy adoption, solar  deployment will be mandatory for  certain sites that meet the requirements  set by the government agency.   Leonard Tay Head Research +65 6228 6854 leonard.tay@sg.knightfrank.com Nor Adila Rahim Senior Analyst Research +65 6228 6856  nor.adila@sg.knightfrank.com About Knight Frank Singapore Knight Frank LLP is the leading independent global property consultancy. Headquartered in London, Knight  Frank has more than 16,000 people operating from 384 offices across 51 territories. The Group advises  clients ranging from individual owners and buyers to major developers, investors and corporate tenants.  Knight Frank has a strong presence in Singapore with a head office and two subsidiaries: Knight Frank  Property Asset Management and KF Property Network. For further information about the Company, please  visit www.knightfrank.com.sg. (c) Knight Frank 2022 This report is published for general information only. Although high standards have been used in the  preparation of the information, analysis, views and projections presented in this report, no legal responsibility  can be accepted by Knight Frank Research or Knight Frank for any loss or damage resultant from the contents  of this document. As a general report, this material does not necessarily represent the view of Knight Frank  in relation to particular properties or projects. Reproduction of this report in whole or in part is allowed with  proper reference to Knight Frank Research. SUBSCRIBE for updates and reports delivered to your inbox </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 savills.com.sg/insight-and-opinion/ MARKET IN MINUTES Savills Research Industrial Rents increased across the board in Q2 Savills plc Savills is a leading global real  estate service provider listed on  the London Stock Exchange. The  company established in 1855, has  a rich heritage with unrivalled  growth. It is a company that leads  rather than follows, and now has  over 600 offi   ces and associates  throughout the Americas, Europe,  Asia Pacifi  c, Africa and the Middle  East. This report is for general  informative purposes only. It may  not be published, reproduced or  quoted in part or in whole, nor may  it be used as a basis for any  contract, prospectus, agreement  or other document without prior  consent. Whilst every eff  ort has  been made to ensure its accuracy,  Savills accepts no liability  whatsoever for any direct or  consequential loss arising from its  use. The content is strictly  copyright and reproduction of the  whole or part of it in any form is  prohibited without written  permission from Savills Research. Simon Smith Regional Head of  Research &amp; Consultancy,  Asia Pacifi  c +852 2842 4573 ssmith@savills.com.hk Alan Cheong Executive Director  Singapore +65 6415 3641 alan.cheong@savills.com.sg RESEARCH Positive momentum for modern industrial facilities expected to continue. "  The possibility of domestic  pump priming being  activated if the external  economy slows may create  greater demand for prime  multiple-industrial space for  tenants to take in new work  orders." ALAN CHEONG, SAVILLS RESEARCH *   Leasing volume in Q2/2022 fell 10.4% year-on-year (YoY) to  3,028 transactions. *   Savills' average monthly rent for prime multiple-user  factories, and warehouse and logistics properties increased  by 5.2% quarter-on-quarter (QoQ) to S$2.00 per sq ft and  1.4% QoQ to S$1.47 per sq ft in Q2/2022. *   Strata industrial sales activity increased 28.0% QoQ to 512  transactions in Q2/2022. *   Savills' basket of industrial properties showed that prices  for 30-year leasehold industrial properties remained fl  at at  S$305 per sq ft in Q2/2022. *   From Savills' basket of industrial properties, 60-year  leasehold units increased by 2.4% QoQ to S$457 per sq ft  while that of freehold properties rose by 2.8% QoQ to S$749  per sq ft in Q2/2022. *   Savills' prime business park monthly rents continued rising  in Q2, increasing by 0.7% QoQ to S$5.93 per sq ft. Savills'  standard business park properties monthly rents also  increased by 0.7% QoQ to S$4.03 per sq ft. *   The average monthly rent for Savills' high-specs industrial  basket increased by 1.1% QoQ to S$3.61 per sq ft in Q2/2022. *   We are revising out full year increase for prime multiple- user factories from 0% to 2% to 10% to 12%. Even if the  economy were to slow, the prospect of domestic pump  priming activities may embolden Small-to-Medium  Enterprises (SMEs) to take on greater space. For  warehouse &amp; logistics properties, we maintain our forecast  of a 2% to 5% rise. Christopher J Marriott CEO, Southeast Asia  +65 6415 3888 cjmarriott@savills.asia SINGAPORE Please contact  us for further  information Savills team MCI (P) No. 062/02/2022 Company Reg No. 198703410D Sally Tan Head of Industrial +65 6836 6888 sally.tan@savills.com.sg Singapore - August 2022 2 savills.com.sg/insight-and-opinion/ MACROECONOMIC OVERVIEW The Singapore economy expanded by 4.4%  YoY in Q2/2022, faster than the 3.8% YoY  growth in Q1/2022. This was attributed  to a strong growth (5.7% YoY) in the  manufacturing sector and also from the easing  of local and border restrictions since April.  The overall factory activity in Singapore  picked up steam in Q2, with the Purchasing  Managers' Index (PMI) inching up from 50.1  in March to 50.3 in June. Despite headwinds  such as moderation in global growth,  recession risks, COVID-19 disruptions and  the ongoing geopolitical tensions, the higher  electronics PMI reading indicated a strong  performance for the electronics industry.  Singapore's non-oil domestic exports  (NODX) also performed well, posting a  9.0% YoY growth in June. RENTAL MARKET Leasing volume1 in Q2/2022 fell 10.4% YoY to  3,028 transactions, ending seven consecutive  quarters of increase since Q3/2020. This  was mainly due to fewer tenancies signed for  single- and multiple-user factory segments  which fell by 7.1% and 14.0% YoY respectively  in Q2. The warehouse space was the only  segment which recorded higher leasing  numbers, rising by 7.0% YoY in Q2 (+1.8%  YoY in Q1. Rising demand from ecommerce  and third-party logistics (3PL) fi  rms was the  likely cause for this increase.  Correspondingly, the vacancy level for  warehouse space eased to 9.1%, the lowest  since Q4/2015. Although there was a net  supply of nearly 1.2 million sq ft of new  warehouse spaces in Q2, it was off  set by a  net demand of 1.8 million sq ft. It is likely  to be due to healthy demand for modern  logistics spaces, which helped to lift the  take-up rate of new developments such  as Logos Penjuru Logistics Centre. While  vacancy level for multiple-user factory space  fell by 0.6 of a percentage point (ppt) QoQ  to 10.6% in Q2, that for single-user factory  space remained fl  at at 9.7%.  Along with healthy demand for factory  and warehouse spaces, especially those  well located or modern facilities, rents  continued to increase at a faster pace across  all industrial segments in Q2/2022. The  JTC's rental index for multiple-user factory  and warehouse spaces have retraced their  levels since 2016 and 2017 respectively.  Savills' average monthly rent for prime  multiple-user factories2 and warehouse and  logistics properties3 increased by 5.2% QoQ  to S$2.00 per sq ft and 1.4% QoQ to S$1.47  per sq ft in Q2.  1   Based on JTC's rental data (excluding business park  spaces, only comprises single- and multiple-user factory as  well as warehouse spaces). 2   Based on Savills basket of private multiple-user factory  properties which ranges from 1,000 sq ft to 3,000 sq ft in  size, with an average monthly asking rent of at least S$1.50  per sq ft. 3   Based on Savills basket of private multiple-user  warehouse properties which ranges from 2,000 sq ft to  80,000 sq ft in size, with an average monthly asking rent of  at least S$1.30 per sq ft. SALES MARKET Strata industrial sales activity4 increased  28.0% QoQ to 512 transactions in Q2/2022, a  level not seen since Q3/2014. Strata warehouse  sales rose by 73.7% QoQ with 33 deals and  multiple-user factory sales which rose by  25.3% QoQ to 475 deals. The sales activity  in multiple-user factories was mainly led by  resale transactions buildings such as West  Connect Building and Mega@Woodlands. This  was likely backed by local SMEs that acquired  ramp-up facilities with modern specifi  cations  and reasonable remaining tenure for their own  business operations.  As there were signs showing price  resistance for some industrial buildings with  shorter tenure, Savills' basket of industrial  properties showed that prices for 30-year  leasehold industrial properties remained  fl  at at S$305 per sq ft in Q2/2022. On the  other hand, some 60-year leasehold and  freehold industrial properties recorded  larger price increases, supporting the overall  price growth in Q2. From Savills' basket  of industrial properties, 60-year leasehold  prices increased by 2.4% QoQ to S$457 per  sq ft while that of freehold properties rose  by 2.8% QoQ to S$749 per sq ft in Q2/2022. BUSINESS PARK AND HIGH-SPECS  INDUSTRIAL The islandwide vacancy level for business  park space rose by 0.5 of a ppt QoQ to  14.9% in Q2/2022, a reversal of the 1.1 ppt  QoQ decline in the previous quarter. While  vacancy rate in the Central and East Planning  Region remained relatively fl  at from Q1, the  completion of CleanTech Three led to an  increase in vacancy rate in the West Planning  Region to 29.9%, the highest since Q4/2004.  Owing to the scarcity and steady demand  in Mapletree Business City and one-north  regions, Savills' prime business park5  monthly rents continued trending up in  Q2, rising by 0.7% QoQ to S$5.93 per sq ft.  Savills' standard business park properties6  monthly rents also increased by 0.7% QoQ  to S$4.03 per sq ft as some of the landlords  at Science Park started to raise their rental  expectations.  Some of the more accessible high- specs industrial developments in prime  locations also saw an uptick in their rents in  Q2/2022. Some fi  rms do not mind a slight  rental premium for the accessibility and  convenience of the location. As such, the  average monthly rent for Savills' high-specs  industrial basket7 increased by 1.1% QoQ to  S$3.61 per sq ft in Q2/2022.  4   Based on JTC's sales caveat data, downloaded on 15 July  2022. 5   Based on business park-zoned spaces in the newer  clusters which range from 1,000 sq ft to 5,000 sq ft in size,  with an average monthly asking rent of at least S$5.50 per sq  ft. 6   Based on business park-zoned spaces in the older clusters  which range from 1,000 sq ft to 5,000 sq ft in size, with an  average monthly asking rent of at least S$3.50 per sq ft. 7   Based on offi   ce-like industrial space which ranges from  2,000 sq ft to 4,000 sq ft in size, with an average monthly  asking rent of at least S$3 per sq ft. GRAPH 1: Factory and Warehouse Leasing Volumes,  2011 to Q2/2022 1,138  1,480  1,513  1,752  1,868  1,768  1,794  2,345  2,417  2,434  2,950  3,054  1,390  1,732  1,981  2,129  2,317  2,285  2,401  2,702  2,883  2,353  3,381  3,028  1,543  1,611  2,070  2,060  2,031  2,130  2,358  2,543  2,679  3,005  3,423  1,504  1,613  2,071  2,071  1,921  1,962  2,331  2,564  2,486  2,913  3,055  0 2,000 4,000 6,000 8,000 10,000 12,000 14,000 NO. OF TRANSACTIONS Q1 Q2 Q3 Q4 Source JTC, Savills Research &amp; Consultancy GRAPH 2: Prices of Upper-Storey Strata Factory and  Warehouse Units, Q1/2015 to Q2/2022 749 457 305 250 350 450 550 650 750 850 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 2015 2016 2017 2018 2019 2020 2021 2022 S$ PER SQ FT Freehold 60-year leasehold 30-year leasehold Source JTC, Savills Research &amp; Consultancy GRAPH 3: Business Park Space Vacancy Rates, Q1/2016 to Q2/2022 0 5 10 15 20 25 30 35 40 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 2016 2017 2018 2019 2020 2021 2022 % Islandwide Mapletree Business City &amp; Science Park one-north Changi Business Park Source JTC, Savills Research &amp; Consultancy Industrial 3 savills.com.sg/insight-and-opinion/ OUTLOOK Going forward, Singapore's economic outlook is  likely to be subject to further uncertainties and  with that, increased risks of price volatilities.  Besides rising imported infl  ation which translated  to greater domestic cost pressures, there is also the  spectre of China's growth slowdown and political  tensions in the North Asia. Furthermore, the fi  ght  against infl  ation has woken up the US Federal  Reserve Bank to hike interest rates into a slowing  economy. The complementary actions by central  banks in advanced economies to tame infl  ation  is synchronising the global economic cycle on  the downside. Singapore's economy, however, is  still expected to expand this year because of the  low base we came out of in 2021. Although the  economy is expected to continue growing, the  pace of growth will be slower compared with last  year as trade-related sectors may moderate amid  persistent supply constraints and the expected  recession facing developed economies. It is  perhaps in 2023 that we may see greater lacklustre  economic performance once we have set a high  totem mark this year. Despite strengthening headwinds, the  industrial and logistics market remained as one  of the most resilient sub-asset classes across  the spectrum of real estate market. As fl  ight- landlords to pass through higher service charges  to the occupiers. Also, one cannot rule out the  possibility that domestic pump priming works  may be on the off  ering if the external economy  slows, and SMEs may expand their industrial  space to handle higher domestic related demand.  As rents for prime multiple-user factory space  had already risen 9.0% Year-to-Date, we are  revising out full-year increase from 0% to 2% to  10% to 12%. Even if the economy were to slow,  the prospect of domestic pump priming activities  may embolden SMEs to take on greater space. For  warehouse &amp; logistics properties, we maintain our  forecast of a 2% to 5% rise this year.    PERIOD YoY % CHANGE IN MULTIPLE-USER  FACTORY RENTS YoY % CHANGE IN WAREHOUSE &amp;  LOGISTICS RENTS 2022F 10% to 12% 2.0% to 5.0% TABLE 1: Rental Forecast for Multiple-User Factory and Warehouse &amp; Logistics Segments Source Savills Research &amp; Consultancy to-quality continues with new supply remains  tight in the near term, demand and rental growth  for modern warehouse facilities and high- specifi  cation industrial facilities are expected to  sustain. This could further incentivise owners to  embark redevelopment and asset enhancement  initiatives, though some may be cautious amid  higher fi  nancing and construction costs. Rents  are expected to rise but their increase will lag  infl  ation as tenants may not be able pass through  all the cost increases because there is no one-for- one increase in purchasing power. Nevertheless, rental increases are expected  from both the multiple-user factories and  logistic &amp; warehouse segments because supply  chain uncertainties coupled with heightened  infl  ation would motivate tenants to stock up and  Industrial </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prime logistics rents increased further by  1.0% in Q1 2022. The growth in rents is likely  to taper with more supply coming onstream. 1 Industrial Q1 2022: In the right direction Quarterly | Singapore | 13 May 2022 Source Colliers. Note: 1 sq m = 10.764 sf. "pp" refers to percentage point. *Rents, capital values and yields refer to prime logistics assets. Islandwide vacancy increased to 10.2% in Q1  2022 due to a pickup in new supply. Capital values increased by 2.0% QOQ, on  the back of strong demand for prime  logistics assets.  Total net absorption grew by 0.76 mil sf in  Q1 2022, attributed to the strong take-up of  business park space.  About 3.59 mil sf of industrial space came  onstream this quarter, the bulk of which was   single-user factories. Full Year 2022 16.39 mil sf 25.90 mil sf 9.25 mil sf 7.82 mil sf Q1 2022 0.76 mil sf YOY change/  End 2022 QOQ/  End Q1 SGD1.58 SGD1.62 1.0% 3.5% 10.2% 10.0% 0.4pp 0.8pp SGD204 psf SGD211 psf SGD1.45 psf 2.0% 5.5% Insights &amp; recommendations * In Q1 2022, industrial rents continued their sixth consecutive quarter of growth, rising by 1.0%  QOQ, the strongest quarterly growth since Q3 2013. Correspondingly, industrial prices followed  the same upward trajectory, rising by 3.1% QOQ, the strongest quarterly growth since Q1 2014.  * However, overall vacancy rose 0.4 pp due to new completions picking up significantly, leading to  the increase in supply exceeding new demand.  * With the robust supply pipeline, occupiers not in urgent need of space could wait for more  options to come to market.  * Colliers recommends landlords to be more flexible in rental negotiations, while investors or  developers could upgrade or redevelop older assets to meet the demand for higher  specification industrial space.  Demand Supply Rent* Vacancy Capital Values/Yields* 3.59 mil sf YOY/ End Q1 2022 Historical Avg 2017-21 SGD1.45 11.0% 8.6% 8.6% 0.2pp 83.0 84.0 85.0 86.0 87.0 -0.2 0.0 0.2 0.4 0.6 0.8 1.0 2017 2018 2019 2020 2021 Q1 2022 Occupancy (%) Change in stock (mil sf) Net Supply Net Absorption Occupancy Rate Factory Rents for multiple-user and single-user factories  have also increased, although at a slower pace  than warehouses. Backed by strong government  support, Colliers expects more firms to set up  their manufacturing hubs in Singapore, with  sustained growth in the manufacturing and  wholesale trade sectors to underpin demand for  factory space in 2022. However, geopolitical  tensions have resulted in rising energy costs and  supply chain disruptions, causing inflationary  pressures and clouding the outlook of the  manufacturing sector. As such, manufacturers  might also become more cautious in their  expansion plans. 2 All Industrial The JTC All Industrial price and rental indices  continued their sixth consecutive quarter of  growth in Q1 2022, reaching their highest levels  since the beginning of 2017. Trade indicators  have exhibited a similar trend, with expansion  recorded in manufacturing output, NODX and  PMI, albeit with growth moderating. Warehouse Warehouses registered the highest rental  increase of 1.5% QOQ among all the segments.  Colliers has observed that demand for prime  logistics space and high specification warehouses  has been extremely high; third party logistics  players and end users have been actively looking  for additional storage space to meet stronger  consumption post-Covid, especially amidst  supply chain disruptions and a global shortage of  semi-conductor chips. As such, older warehouses  may be taken off the market to be upgraded or  redeveloped to meet the demand for these  assets.  Business Parks Business parks rents have remained flat,  improving from last quarter's 0.5% decline.  Strong net absorption has led to occupancy  increasing by 110 pp this quarter, led by take-up  at city fringe business parks. With the limited  supply of quality offices and higher office rents,  more demand from the tech and services  industries could continue to spillover to city  fringe business parks. Private warehouse demand &amp; supply Private factory demand &amp; supply Business park demand &amp; supply Source: Colliers, JTC  All industrial demand &amp; supply 87.0 88.0 89.0 90.0 91.0 92.0 93.0 -1.0 0.0 1.0 2.0 3.0 4.0 5.0 6.0 7.0 8.0 9.0 2017 2018 2019 2020 2021 Q1 2022 Occupancy (%) Change in stock (mil sf)  86.0  87.0  88.0  89.0  90.0  91.0  92.0 -2.0 0.0 2.0 4.0 6.0 8.0 10.0 12.0 2017 2018 2019 2020 2021 Q1 2022 Occupancy (%) Change in stock (mil sf) 88.0 89.0 90.0 91.0 -5.0 0.0 5.0 10.0 15.0 20.0 25.0 2017 2018 2019 2020 2021 Q1 2022 Occupancy (%) Change in stock (mil sf) 3 "With the re-opening of Singapore's  borders, industrialists may look to diversify  their supply chains and tap on alternative  options for cheaper storage; they will also  not need to stock up on as many goods as  before to tide them through supply chain  disruptions. " Lynus Pook Executive Director, Industrial Services Due to past construction delays, most of the  industrial supply pipeline is coming onstream  this year, with the majority factories. In addition  to 25.90 mil sf more industrial space scheduled  to complete this year, the average annual  pipeline supply from present to 2025 at 12.92 mil  sf, is almost double the 6.46 mil sf over the past  three years. This anticipated surge in supply  could slow price and rental growth, while  providing more options for industrialists at the  same time. With most Singapore residents vaccinated, there  will likely be less storage space required for  medical products. Older warehouses are also  seeing resistance to rental increases from small  and medium enterprises. All these factors might  cause warehouse rental growth to taper in the  coming quarters.  Nevertheless, demand for industrial assets,  especially high specification warehouses and  business parks, should still be underpinned by  growth industries such as the food, media,  logistics, technology and biomedical sectors.  Further, the drive for more robust supply chains,  the switch to a just-in-case strategy, as well as  the increasing  digitalisation of industries and the  economy should continue to support industrial  rent and price growth, albeit at a more  measured pace.  Upcoming supply Colliers industrial rents Industrial Stock: Q1 2022 Q1 2022  (SGD) % Change  QOQ % Change  YOY High-specs 3.20 0.3% 1.0% Factory* 1.63 - 0.3% Warehouse* 1.49 - 0.9% Prime logistics 1.58 1.0% 8.6% Business Park 3.68 - -0.5% Prime Business Park 6.22 0.7% 0.4% Significant upcoming projects as of Q1 2022 Source: Colliers, JTC. *TOP = temporary occupation permit Project Name Developer GFA ('mil sf) Expected TOP* 1 Solaris @ Tai Seng Soilbuild Group 1.13 2022 2 Perennial Business City Perennial 1.10 2022 3 Surbana Jurong Surbana 0.45 2022 4 2PS1 Soilbuild REIT 0.76 2022 5 Logos eHub at Pandan Crescent Logos 0.87 2022 Factory  (Single-user) 50% Factory  (Multiple- user) 23% Warehouse 22% Business  Park 5% Total Stock 548.91 mil sf 25.9 8.8 10.3 2.7 0.5 0.0 5.0 10.0 15.0 20.0 25.0 30.0 2022F 2023F 2024F 2025F 2026F Estimated GFA (mil sf) Multi-user Factory Single-user Factory Business Park Warehouse *Average of upper and lower floor rents About Colliers Colliers (NASDAQ, TSX: CIGI) is a leading diversified professional services and investment management company. With operations in 64 countries, our 17,000 enterprising professionals work collaboratively to provide expert real estate and investment advice to clients. For more than 27 years, our experienced leadership with significant inside ownership has delivered compound annual investment returns of 20% for shareholders. With annual revenues of $4.1 billion and more than $50 billion of assets under management, Colliers maximizes the potential of property and real assets to accelerate the success of our clients, our investors and our people. Learn more at corporate.colliers.com, Twitter @Colliers or LinkedIn Legal Disclaimer This document/email has been prepared by Colliers for advertising and general information only. Colliers makes no guarantees, representations or warranties of any kind, expressed or implied, regarding the information including, but not limited to, warranties of content, accuracy and reliability. Any interested party should undertake their own inquiries as to the accuracy of the information. Colliers excludes unequivocally all inferred or implied terms, conditions and warranties arising out of this document and excludes all liability for loss and damages arising there from. This publication is the copyrighted property of Colliers and /or its licensor(s). (c) 2022. All rights reserved. This communication is not intended to cause or induce breach of an existing listing agreement. Lynus Pook Executive Director | Industrial  Services | Singapore +65 6531 8654 lynus.pook@colliers.com Tan Keng Chiam Executive Director and Head |  Valuation and Advisory Services |  Singapore +65 6531 8570 kengchiam.tan@colliers.com For further information, please contact: Catherine He Head of Research | Singapore +65 6531 8563 catherine.he@colliers.com Dickson Koh Associate Director | Research | Singapore +65 6531 8562 dickson.koh@colliers.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAR K E T B E AT Industrial Q1 2022 SINGAPORE $6.04 Business Park (City Fringe) $3.52 Business Park (Outlying Areas) $4.29 Science Park 3.7% Inflation Growth 6.1% Real GDP Growth 2.4% Unemployment Source: Ministry of Trade &amp; Industry (MTI),  Moody's Analytics  SINGAPORE ECONOMIC INDICATORS  Q4 2021 12-Mo. Forecast 12-Mo. Forecast Singapore Maintains Stable Growth Forecast for 2022 According to the Ministry of Trade and Industry (MTI), Singapore's economy expanded by 7.6% y-o-y in 2021, faster than an advance estimate of 7.2%. GDP growth in 2021 was driven mainly by the manufacturing, information &amp; communications, finance &amp; insurance as well as wholesale trade sectors. Full-year 2021 manufacturing growth reached 13.2%, extending the 7.5% expansion in the preceding year. Singapore maintained its growth forecast for this year at 3% to 5%. However, downside risks have increased as the ongoing global supply bottlenecks alongside rising energy prices due to geopolitical tensions, have exacerbated inflationary pressures, prompting monetary policy tightening in the advanced economies. Positive Outlook for Industrial Market in 2022 Based on C&amp;W's basket of industrial properties, steady rental increases were observed across the board during the first quarter of this year, except for outlying business park space. Prime logistics properties continued to outperform, rising by 3.0% q-o-q in Q1 2022. Similarly, high-tech properties also experienced stable growth during the quarter. Rents of factories rose gradually in the first quarter of 2022 given relatively tight vacancy rates as the bulk of supply is only expected to come onstream in the latter part of the year. City fringe business park continued to experience steady growth amidst tight vacancy. On the other hand, outlying business parks rents edged lower during the quarter as vacancy rates remained elevated. Nonetheless, broad-based growth in rents is expected across different types of industrial properties this year despite rising downside risks. Specifically, rents for business parks in both the city fringe and outlying areas are projected to increase in 2022 with the former experiencing higher growth rate due to their limited supply. Similarly, continued healthy demand is expected for high-tech, prime logistics and warehouse properties amid ongoing expansion from the biomedical, technology, manufacturing and logistics sectors, fueled by the exponential growth in e-commerce and business digitalization. Ample supply of factory space coming onstream this year could add downward pressure on occupancy rates. Nevertheless, overall factory rents are still expected to rise in 2022, albeit at gradual rates as continued expansion in the manufacturing and logistics sectors would underpin healthy demand for factory space. Demand Supply Mis-match Sends Prime Logistics Rents Soaring A very tight supply situation has sent prime logistics rents soaring, rising 3.0% q-o-q in Q1 2022. According to C&amp;W's basket of prime logistics properties, vacancy rates have fallen to below 5%. Third-party logistics players and end-users are actively looking for prime logistics space to meet stronger consumption demand and a ramp up of manufacturing production, especially for semiconductors amidst Singapore's re-opening of economic activities and global shortage of semiconductor chips. With little available supply, tenants are biting the bullet and accepting significant rental increases. Future supply of prime logistics assets remain limited in 2022 with only a few major projects in the pipeline such as 2PS1 (0.7 million sf (msf)), LOGOS Tuas Logistics Hub (AEI) (1.0 msf) and LOGOS Penjuru Logistics Centre (0.5 msf) among others. These projects are also substantially pre-committed. The current demand supply mis-match for prime logistics space could accelerate rental growth this year. INDUSTRIAL SUPPLY PIPELINE Rents (S$PSF/MO)  -  5.0  10.0  15.0 Multiple-User Factory Single-User Factory Warehouse Business Park Supply (msf) 2022F 2023F 2024F MAR K E T B E AT Industrial Q1 2022 SINGAPORE SEGMENT GROSS EFFECTIVE RENT 12-MONTH OUTLOOK S$/SF/MO US$/SF/MO EUR/SF/MO Business Park (City Fringe) S$6.04 US$4.44 EUR4.05 Business Park (Outlying Areas) S$3.52 US$2.59 EUR2.36 Science Park S$4.29 US$3.15 EUR2.88 High-Tech S$3.21 US$2.35 EUR2.15 Factory - Ground Floor S$1.81 US$1.33 EUR1.22 Factory - Upper Floor S$1.61 US$1.18 EUR1.08 Warehouse - Ground Floor S$1.56 US$1.14 EUR1.04 Warehouse - Upper Floor S$1.27 US$0.93 EUR0.85 Prime Logistics - Ground Floor S$1.46 US$1.07 EUR0.98 Prime Logistics - Upper Floor S$1.30 US$0.96 EUR0.87 US$/S$ = 1.361; EUR/S$ = 1.491, as of 28 March 2022 PROPERTY SUBMARKET SELLER / BUYER PRICE (S$ Million) 69 Ubi Crescent Geylang Chip Eng Seng / Merlions Two 28.0 7 Kim Chuan Lane Hougang A38 Capital, OneApex Limited / ACKC Hesed, Mulberry Land 28.0 MARKET STATISTICS PROJECT NAME SUBMARKET TENANT SF EXPECTED COMPLETION YEAR* CleanTech Three Jurong West - 665,000 2022 Surbana Jurong Campus Jurong West Surbana Jurong 445,000 2022 Perennial Business City Jurong East - 1,100,000 2022 Kajima Campus Changi Kajima 140,000 2023 Biopolis Phase 6 - Elementum one-north - 378,000 2023 Development at Science Park Science Park - 310,000 2024 Punggol Digital District Punggol  - 2,440,000 2024 Development at Science Park Science Park  - 1,200,000 2025 * Note: Project timeline might change due to the impact of Covid-19's restrictions on construction progress cushmanwakefield.com KEY SALES TRANSACTIONS Q1 2022 SIGNIFICANT BUSINESS PARK PROJECTS - PLANNED &amp; UNDER CONSTRUCTION WONG XIAN YANG Head of Research Singapore +65 6232 0885 / xianyang.wong@cushwake.com BRENDA ONG Executive Director Head of Logistics &amp; Industrial Services Singapore +65 6232 0878 / brenda.ong@cushwake.com A CUSHMAN &amp; WAKEFIELD RESEARCH PUBLICATION About Cushman &amp; Wakefield Cushman &amp; Wakefield (NYSE: CWK) is a leading global real estate services firm that delivers exceptional value for real estate occupiers and owners. Cushman &amp; Wakefield is among the largest real estate services firms with approximately 50,000 employees in over 400 offices and 60 countries. In 2020, the firm had revenue of US$7.8 billion across core services of property, facilities and project management, leasing, capital markets, valuation and other services. To learn more, visit : www.cushmanwakefield.com or follow @CushWake on Twitter. (c)2022 Cushman &amp; Wakefield. All rights reserved. The information contained within this report is gathered from multiple sources believed to be reliable. The information may contain errors or omissions and is presented without any warranty or representations as to its accuracy. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Page 1    .            Overall Outlook     Key observations  Occupancy rates fell marginally but rental rates and prices continue to rise. After two years of increases, occupancy rates fell  marginally by 0.4ppt q-o-q in 1Q22. Although demand continued to be healthy, the decline in the overall occupancy rate was  attributed to the significant increase in new completions during the quarter. Total available stock increased by 333,000sqm  in 1Q22, more than double the quarterly average in the last two years since the COVID-19 pandemic started. More than 75%  (or c.251,000 sqm) of new stock added to the market was contributed by multiple-user factory space, the highest quarterly  increase since the tracking of data begun in 1999. Consequently, the 1.4ppt increase in vacancy rates of multiple-user  factories was the main contributor for the increase in the overall vacancy rates for industrial properties in 1Q22.  Despite the dip in occupancy, rentals of industrial properties continued to rise, increasing 1.0% q-o-q. This is the strongest  quarterly increase in the rental index in over eight years. In 1Q22, the warehouse segment posted the strongest growth in  rents, rising 1.5% q-o-q. Prices of industrial space also continue to be on the uptrend, rising 2.1% q-o-q. Based on the  number of caveats lodged, transaction volumes of industrial properties were 20% higher as compared to the previous year.  Rollover of project completions from FY21. Even as the labour crunch situation in Singapore eased gradually over the course  of FY21, construction delays continue to persist. An estimated 784,000sqm of new supply was rolled over from FY21, and an  estimated 2.7m sqm of new stock is expected to come online in FY22. In 1Q22, 333,000sqm has been delivered and the  remaining 2.4m sqm will consist mainly of single-user factories (46%) that are developed by industrialists for their own use.  28% of the upcoming supply will be in the form of multiple-user factories, 22% in the form of warehouses, and only 3% in the  form of business parks. With the continued opening of borders and construction activity picking up, we are likely to see a fair  bit of new stock added to the market, which would be significantly higher than the average 0.6m sqm of new supply added  each year over the past three years. The spike in new supply this year could lead to vacancy rates creeping up and  potentially put some pressure on rents going forward.    What are we watching? Delivery of new supply in FY22. At the beginning of FY21, it was feared that the spike in new supply of industrial properties  would put pressure on occupancy and rental rates. However, it did not materialise, as the prolonged COVID-19 outbreak led  to construction delays. Although the labour crunch situation persists, further relaxation in border restrictions seems to have  led to a pickup in construction activities, which will likely improve further as the year progresses. While it may still be too  early to tell if the entire 2.7m sqm of new supply will be completed this year, we believe that the amount of new stock in  FY22 will outpace that of the past two years. The 333,000sqm of new supply added to the market in 1Q22 alone was already  almost half of the total supply of 669,000sqm that was completed in the whole of FY21.  Although the bulk of the new supply projected to come online in FY22 is single-user factories that are typically built for  industrialists' own use, the current economic uncertainties could lead to some slowdown in expansion plans for these  businesses. This could, in turn, lead to single-user factories subletting some of its excess space and could put some  pressure on the other industrial property segments.  Slower rate of new completion expected beyond FY22. Looking further ahead, the new supply of industrial space that is  projected to be completed is expected to be more subdued. Between FY23 and FY25, only slightly more than 500,000sqm of  new stock is expected to be added to the market on an annual basis. As such, the spike in new completions expected in  FY22 may put some pressure on occupancy and rents in the near term, but we believe that any excess supply will gradually  be absorbed in the medium term.     DBS Group Research. Asian Insights Office  20 May 2022  Industry Outlook  Singapore Industrial REITs      .     Industry Outlook  Singapore Industrial REITs         Page 2    .          Key statistics for industrial sector   Key indicators of industrial sector  Key Indicators  1Q22  4Q21  % Change  (q-o-q)  1Q21  % Change  (y-o-y)  Price Index  Industrial Property  93.0  91.1  2.1%  88.1  5.6%  Multi-User Factory  96.1  93.9  2.3%  91  5.6%  Single-User Factory  83.6  82.1  1.8%  79.2  5.6%  Rental Index   Industrial Property  92.3  91.4  1.0%  90.1  2.4%  Multi-User Factory  90.3  89.5  0.9%  88.0  2.6%  Single-User Factory  97.4  97.1  0.3%  95.7  1.8%  Warehouse  87.3  86.0  1.5%  84.1  3.8%  Business Park  111.9  111.9  0.0%  112.2  -0.3%  Vacancy rate   Industrial Property  10.2%  9.8%  4.1%  10.0%  2.0%  Single-User Factory  9.6%  9.4%  2.1%  9.1%  5.5%  Multi-User Factory  11.2%  9.8%  14.3%  11.0%  1.8%  Warehouse  9.7%  9.4%  3.2%  10.2%  -4.9%  Business Park  14.4%  15.5%  -7.1%  14.9%  -3.4%  Pipeline under construction   Industrial Property  48.1  50.8  -5.2%  56.1  -14.2%  Single-User Factory  22.1  21.5  3.0%  22.4  -1.3%  Multi-User Factory  12.3  15.6  -21.3%  17.4  -29.3%  Warehouse  8.3  8.3  0.3%  9.9  -16.3%  Business Park  5.4  5.4  0.0%  6.4  -15.7%  Source: JTC Corporation, DBS Bank                      Industry Outlook  Singapore Industrial REITs         Page 3    .          Key Charts - Industrial Sector     Spike in new supply in 2022F due to rollover from the past two years    Source: JTC Corporation, DBS Bank    *  A total of c.2.7m sqm of new industrial space is expected to be added to the market in FY22, the largest supply to be  added in a single year. This is a result of a rollover in project completions from the last two years as the COVID-19  pandemic led to construction delays and disruptions to supply chains.   *  Only 669,000sqm of new supply was completed in the whole of FY21. The remaining 784,000sqm of new stock that was  previously expected to be completed in FY21 has now been pushed to FY22.  *  Of the remaining c.2.4m sqm of new supply expected to hit the market over the next three quarters of FY22, c.46% will  be single-user factory space that has likely been developed by industrialists for their own use.  *  Multiple-user factory space makes up another c.28% of the upcoming supply, and warehouses and business park spaces will contribute the remaining c.25% of the new stock.  *  Take-up of multiple-user and warehouse spaces has been healthy in FY21, but the spike in supply in FY22 may put some  pressure on occupancy and rental rates.         -  500  1,000  1,500  2,000  2,500  3,000 2014 2015 2016 2017 2018 2019 2020 2021 2022F 2023F 2024F 000' sqm Supply Demand Industry Outlook  Singapore Industrial REITs         Page 4    .          Spike in new supply in 2022 is expected to lead to negative net absorption    Source: JTC Corporation, DBS Bank    *  Net absorption in FY20 and FY21 were positive due to the delay in construction and supply chain disruptions caused by  the COVID-19 pandemic.   *  Although the amount of new industrial supply in FY21 was more than twice the amount seen in FY20, pent-up demand  and expansion needs led to a slightly positive net absorption in FY21.  *  The positive net absorption in FY21 came from the multi-user factory and warehouse segments, and it was partially  offset by the negative net absorption from the single-user factory and business park segments.  *  With c.2.7m sqm of new industrial supply expected to hit the market in FY22, we might see some negative net  absorption. We believe that the negative net absorption will likely be contributed by the single-user and multiple-user  factory segments, which are projected to deliver the bulk of the new supply this year.  *  In the medium term, net absorption could surprise on the upside as some construction delays persist. It may likely lead  to some of the new supply in FY22 being rolled over to the following years and help spread out new stock more evenly  and lessen pressure on vacancy rates.        8.1% 9.1% 9.4% 10.5% 11.1% 10.7% 10.8% 10.1% 10% 10% 11% 11% 0.0% 2.0% 4.0% 6.0% 8.0% 10.0% 12.0%  (8)  (6)  (4)  (2)  -  2  4 2013 2014 2015 2016 2017 2018 2019 2020 2021 2022F 2023F 2024F m'sqft Net Suplus/(Net deficit) Vacancy Rate (RHS) Industry Outlook  Singapore Industrial REITs         Page 5    .          Rental reversion trend expected to remain muted until 2023F    Source: JTC Corporation, Urban Redevelopment Authority, DBS Bank    *  After several years of negative rental reversions (3-year cycle) for the factory and warehouse segments, the trend  reversed in FY21. Positive rental reversions for business parks have been tapering off in the past two years, and it  remained flat in FY21.  *  Overall rentals in the near term are expected to remain relatively healthy as construction delays continue to limit the  addition of new stock to the market.   *  Over the last two years, the logistics sector has been driven by the advancement of e-commerce and stockpiling  activities. This has led to the outperformance in rentals for the warehouse segment, and we believe its outperformance  will continue through to FY23.              -20% -10% 0% 10% 2016 2017 2018 2019 2020 2021 2022F 2023F 2024F 2025F % reversions (3-year cycle) Business Park Warehouse  Factory Industry Outlook  Singapore Industrial REITs         Page 6    .          Industrial Sub-sector - Multi-User Factory    Multi-user factory supply: Supply spike in 2022F due to construction delays in previous two years    Source: JTC Corporation, Urban Redevelopment Authority, DBS Bank   *  The drop in new completions in FY21 led to a 170bps improvement in occupancy rates, and vacancy rates fell to a low of  9.8%, a level not seen in the past nine years.   *  Due to further construction delays in FY21, some new supply has been rolled over to FY22. This was likely the main  reason for the robust increase in occupancy rates for the multiple-user factory space, to 90.2%.  *  As more delays caused some new supply to be rolled over to FY22, oversupply in the multiple-user factory space could  likely lead to vacancy rates inching back up to c.11% in FY22 and FY23.   *  Occupancy rates could surprise on the upside in FY22 if the labour crunch situation persists and new supply is spread  out more evenly over the next few years.          0% 2% 4% 6% 8% 10% 12% 14% 16%  (1.0)  -  1.0  2.0  3.0  4.0  5.0  6.0  7.0  8.0 2015 2016 2017 2018 2019 2020 2021 2022F 2023F 2024F m Sqft Multi-User Factory Supply Demand Vacancy (RHS) Industry Outlook  Singapore Industrial REITs         Page 7    .          Multi-user factories: Occupancy facing some downward pressure from spike in new supply     Source: JTC Corporation, Urban Redevelopment Authority, DBS Bank    *  Rentals declined marginally in 2020 mainly due to the COVID-19 pandemic, but we have since seen a rebound in FY21  due to healthy demand and limited new supply.  *  In FY21, occupancy rates improved 170bps to 90.2% and rental rates improved 2.0% to S$1.90psf due to the limited  new supply and construction delays.   *  However, as the delivery of new supply is expected to spike in FY22, we expect occupancy and rental rates to face some  downward pressure.  *  This has been evident in 1Q22 as the occupancy rate trended downward due to the delivery of new supply, while rents  continue to remain healthy and inch up marginally.  *  Again, occupancy and rents could surprise on the upside if construction delays continue to persist and new supply  continues to be rolled over to the next year.          85% 86% 87% 88% 89% 90% 91%  -  0.50  1.00  1.50  2.00  2.50 2014 2015 2016 2017 2018 2019 2020 2021 2022f 2023f 2024f 2025f 1Q18 2Q18 3Q18 4Q18 1Q19 2Q19 3Q19 4Q19 1Q20 2Q20 3Q20 4Q20 1Q21 2Q21 3Q21 4Q21 1Q22 S$ psf pm Multi-User Factory Rental (LHS) Occupancy (%) (RHS) Industry Outlook  Singapore Industrial REITs         Page 8    .          Warehouses: Logistics sector continues to drive demand for warehouses    Source: JTC Corporation, Urban Redevelopment Authority, DBS Bank    *  Although there was an increase of c.300,000sqm in new warehouse supply in FY21, vacancy rates improved by 10bps  due to strong demand from the logistics industry.  *  Stockpiling and storage activities drove demand for warehouse space throughout FY21, with rental rates reporting some  upside as more backfilling of excess supply from previous years continued.   *  Demand from third-party logistics businesses and those supporting the e-commerce sector are expected to continue  driving demand for modern warehouse space in the medium term.  *  Even with more new supply expected to be added to the market in FY22, we believe occupancy rates will remain stable  with the continued strong demand for modern warehouses.              0% 2% 4% 6% 8% 10% 12% 14%  -  2.0  4.0  6.0  8.0  10.0  12.0 2015 2016 2017 2018 2019 2020 2021 2022F 2023F 2024F m Sqft Warehouse Supply Demand Vacancy (RHS) Industry Outlook  Singapore Industrial REITs         Page 9    .        Warehouses: Despite some new supply coming online, occupancy and rental rates are expected to remain robust    Source: JTC Corporation, Urban Redevelopment Authority, DBS Bank    *  After six years of consecutive declines in rents, rental rates for warehouses started to pick up from early FY21, as supply  was absorbed, boosted by demand for stockpiling and growth of the logistics sector.  *  Riding on the surge in demand for storage and delays in completion of new supply, occupancy rates continued to inch  up by 10bps to c.90% in FY21.  *  Although some new supply is expected to come online in FY22, we expect overall warehouse occupancy and rental  rates to continue inching up, driven by the continued expansion in the logistics sector.  *  However, we could start to see a divergence in occupancy and rental performance between the modern logistics  warehouses and the older general warehouses, which could face stiff competition.                85% 86% 87% 88% 89% 90% 91% 92% 93%  -  0.50  1.00  1.50  2.00  2.50 2014 2015 2016 2017 2018 2019 2020 2021 2022f 2023f 1Q18 2Q18 3Q18 4Q18 1Q19 2Q19 3Q19 4Q19 1Q20 2Q20 3Q20 4Q20 1Q21 2Q21 3Q21 4Q21 1Q22 S$ psf pm Warehouse  Rental (LHS) Occupancy (%) (RHS) Industry Outlook  Singapore Industrial REITs         Page 10    .        Industrial Sub-sector - Business Parks    Majority of business park space has been pre-committed                          Source: JTC Corporation, Urban Redevelopment Authority, DBS Bank    *  Even though there has been some addition to the supply of business parks in FY21, demand was also strong, as most of  the new projects were pre-committed; and also due to the lack of new supply over the past two years.   *  As such, occupancy rates improved by 210bps to c.83.7% in FY21 as vacant space is gradually backfilled.   *  Looking ahead, the lack of new supply of business park space in FY22 could lead to it outperforming the other segments  as technology, biomedical, and consumer goods tenants continue to drive demand.  *  Although some new supply is expected by FY23, we believe that most of it has already been pre-committed, and we  believe occupancy and rental rates could continue its uptrend.  *  As business parks in the city fringe precincts of Buona Vista and Alexandra, which are favoured over the rest of the  island, we believe that these areas will outperform business parks in the other areas such as Jurong, Changi, and Tuas.        70% 75% 80% 85% 90% 95% 100%  (50)  -  50  100  150  200  250  300  350 2006 2008 2010 2012 2014 2016 2018 2020 2022F 2024F Sqm Demand Supply Vacancy Rate (%) Industry Outlook  Singapore Industrial REITs         Page 11    .        Our In-house Experts    Dale LAI  dalelai@dbs.com +65 668 23715    Derek TAN Weixiang  derektan@dbs.com  +65 668 23716              Please note that DBS Bank Ltd may have research coverage in the companies mentioned in this industry report, that have  been produced prior to or subsequent to its publication. Please refer to the links below for the latest specific equity  research reports published on below-mentioned companies and the accompanying disclaimer/disclosure of DBS' interest  in the companies mentioned in the respective reports      GENERAL DISCLOSURE/DISCLAIMER   The information herein is published by DBS Bank Ltd and/or DBS Bank (Hong Kong) Limited (each and/or collectively, the  "Company"). It is based on information obtained from sources believed to be reliable, but the Company does not make any  representation or warranty, express or implied, as to its accuracy, completeness, timeliness or correctness for any  particular purpose. Opinions expressed are subject to change without notice. This research is prepared for general  circulation.  Any recommendation contained herein does not have regard to the specific investment objectives, financial  situation and the particular needs of any specific addressee. The information herein is published for the information of  addressees only and is not to be taken in substitution for the exercise of judgement by addressees, who should obtain  separate legal or financial advice. The Company, or any of its related companies or any individuals connected with the  group accepts no liability for any direct, special, indirect, consequential, incidental damages or any other loss or damages  of any kind arising from any use of the information herein (including any error, omission or misstatement herein, negligent  or otherwise) or further communication thereof, even if the Company or any other person has been advised of the  possibility thereof. The information herein is not to be construed as an offer or a solicitation of an offer to buy or sell any  securities, futures, options or other financial instruments or to provide any investment advice or services. The Company  and its associates, their directors, officers and/or employees may have positions or other interests in, and may effect  transactions in securities mentioned herein and may also perform or seek to perform broking, investment banking and  other banking or financial services for these companies.  The information herein is not directed to, or intended for  distribution to or use by, any person or entity that is a citizen or resident of or located in any locality, state, country, or  other jurisdiction (including but not limited to citizens or residents of the United States of America) where such  distribution, publication, availability or use would be contrary to law or regulation.  The information is not an offer to sell or  the solicitation of an offer to buy any security in any jurisdiction (including but not limited to the United States of America)  where such an offer or solicitation would be contrary to law or regulation.  </t>
-  </si>
-  <si>
-    <t>SINGAPORE Q1 2022 Improving commercial sector lends positive start to 2022 APRIL 2022 REAL ESTATE  TIMES 2 EDMUND TIE RESEARCH -2 -1 0 1 2 3 4 5 6 7 Q1 2000 Q1 2002 Q1 2004 Q1 2006 Q1 2008 Q1 2010 Q1 2012 Q1 2014 Q1 2016 Q1 2018 Q1 2020 yoy% growth 1.7 2.4 0 1 2 3 4 5 6 2000 2002 2004 2006 2008 2010 2012 2014 2016 2018 2020 % 0 2 4 6 8 10 12 14 16 18 2017 2018 2019 2020 2021 Q1 Q2 Q3 Q4 $bn KEY HIGHLIGHTS ECONOMY - Sustained growth amid risks and uncertainty GROSS DOMESTIC PRODUCT (GDP) UNEMPLOYMENT RATE FIXED ASSET INVESTMENTS (FAI) CONSUMER PRICE INDEX (CORE INFLATION) Q4 2021 $1.7bn Q1 2022 3.4% Q4 2021 2.4% Q4 2021 1.7 yoy% growth Q3 2021 $3.7bn Q4 2021 6.1% Q3 2021 2.6% Q3 2021 1.1 yoy% growth  Source: Monetary Authority of Singapore  Source: Economic Development Board Source: Ministry of Manpower  Sector Q4 2021 Q1 2022*  Overal GDP Growth 7.1 5.9 Manufacturing 7.9 14.0 Construction 66.3 2.0 Information &amp; Communications,   Finance &amp; Insurance and   Professional Services 8.0 6.0 Wholesale &amp; Retail Trade and   Transportation &amp; Storage 6.1 4.3 Accommodation &amp; Food Services,   Real Estate, Administrative &amp; Support  Services and Other Services 3.8 3.1 Performance of industry sectors (%)* Source: Based on MTI advance estimates Q1 2022* Unit: % 3 EDMUND TIE RESEARCH * Singapore's economy grew by 3.4% yoy in Q1 2022, a  deceleration from the 6.1% in Q4 2021, due mainly to  a moderation in growth of the manufacturing sector.  The manufacturing slowdown decline reflected the  lower PMI indices in recent months, although global  demand for semiconductor and semiconductor  equipment remained sustained. * The services sector also rose at a slower pace of 1.4% yoy  in Q1 2022, compared to a growth of 5.6% in Q4 2021. * Singapore attracted S$1.7bn in FAI in Q4 2021, a decline  from S$3.7bn in Q3 2021. The biomedical manufacturing  cluster emerged as the leading sector during the quarter  with a contribution of S$760mn of FAI.  * In April 2022, MAS tightened the monetary policy  by raising the exchange rate policy band at a higher  level and raising the rate of appreciation, following its  off-cycle move in January 2022. Amid the geopolitical  situation and supply chain disruptions, the forecast  ranges for core inflation and headline inflation were  both raised to 2.5-3.5% and 4.5-5.5% respectively.  * The labour market continued to recover from the  impact of the COVID-19 pandemic. The unemployment  rate improved to 2.4% in Q4 2021 from 2.6% in Q3  2021. Total employment rose by 40,200 in 2021,  following the sharp contraction by 181,000 in 2020.  In Q4 2021, total employment rose by 54,600,  driven by improvements in the construction sector  (+15,500) and other service industries (+9,400)  bearing the brunt. The manufacturing sector also  recorded its first increase in two years in Q4 2021.  Similarly, the wholesale and retail trade, as well as  the accommodation and food services sectors also  posted employment growth following a few quarters  of contraction. * As the economy moderates towards trend growth in  the year ahead, certain sectors, such as construction,  retail and food services, aviation and hospitality, are  expected to see a recovery. The manufacturing sector  will likely remain as a pillar of growth for the economy. * As at writing, 92% of the population has completed  the full vaccination regime, while 71% have received  a booster shot. This will safeguard the nation against  the Covid variants.  * In February 2022, MTI maintained the country's GDP  growth forecast for 2022 at 4.0% to 6.0%. Significant  safe management measures were relaxed in March,  while a new Vaccinated Travel Framework came into  place in April. The Omicron wave has likely peaked,  and we expect stronger business and consumer  confidence in the months ahead. The easing of  borders should help alleviate the manpower crunch to  some extent. Risks are skewed to the downside, given  the ongoing geopolitical uncertainties, supply chain  disruptions, inflation pressures and upward pressure  on interest rates.   MARKET COMMENTARY MARKET OUTLOOK 4 EDMUND TIE RESEARCH INVESTMENT - Outperformance led by commercial sector 0 5 10 15 20 25 30 35 40 2011 2012 2013 2014 2015 2016 2017 2018 2019 2020 2021 2022 Q1 Q2 Q3 Q4 $bn KEY HIGHLIGHTS INVESTMENT SALES ($ billion) VALUE OF TOP 5 PRIVATE INVESTMENT DEALS ($ billion) Total investment sales in Q1 2022  increased by 35% as compared to    Q4 2021. The combined value of the top 5 private investment deals in Q1 2022 represented 55% of total  investment value in Q1 2022. Development Remaining  tenure, yrs Purchase price Purchaser Seller $ mn $ psf Office 79 Robinson Road 45 1,260.0 2,423 NLA Capitaland Integrated  Commercial Trust (CICT) and  CapitaLand Open End Real  Estate Fund (Coref)  CapitaLand Investment Limited (CLI),  Mitsui &amp; Co and Tokyo Tatemono Cross Street  Exchange 74 810.8 2,652 NLA Undisclosed third party Frasers Logistics and   Commercial Trust (FLCT)  Retail Jem (68.2%  remaining interest) 87 2,079.0 2,329 NLA Lendlease Global Commercial  Reit (LReit) Lendlease Asian Retail Investment  Fund 3 Limited (ARIF3) and  Lendlease Jem Partners Fund Limited  (LLJP)  Tanglin Shopping  Centre  Freehold 868.0 2,769 land area Pacific Eagle Real Estate  Collective sale Jcube 68 340.0 1,619 NLA Tanglin R.E. Holdings  Capitaland Integrated Commercial  Trust (CICT) Source: EDMUND TIE Research Source: EDMUND TIE Research Top 5 private investment deals in Q1 2022  Q1 2022 $5.36bn Q4 2021 $3.61bn Q1 2022 $9.75bn Q4 2021 $7.21bn 5 EDMUND TIE RESEARCH MARKET COMMENTARY MARKET OUTLOOK * Total investment sales for Q1 2022 experienced a  notable 35% increase to nearly S$9.8bn from Q4 2021,  driven by strong investor confidence in deploying  capital to Singapore, which seems to emerge as an  attractive haven for capital markets.  * The retail sector led the investment sales in the  quarter, contributing to S$3.6bn (37%), followed by  the residential sector contributing to S$3.1bn (32%).  * The public investment sales market recorded nearly  S$2bn from the Government Land Sales (GLS)  Programme, comprising an industrial site at Jalan  Papan (Plot 9) and the sale of four residential sites  at Jalan Tembusu, Lentor Hills Road (Parcel A), Dairy  Farm Walk and Bukit Batok West Avenue 8 (Executive  Condominium).  * Despite the fresh property cooling measures, the  collective sale market witnessed a total of four deals  seal in the quarter, while several sites were launched  or relaunched for tender, including Chuan Park  Condominium and High Point.  * The largest deal in the quarter was the proposed  acquisition of a 68.2% remaining interest in Jem, an  integrated office and retail property in Jurong, by  Lendlease Global Commercial Reit for nearly S$2.1bn  from Lendlease Asian Retail Investment Fund 3  Limited (ARIF3) and Lendlease Jem Partners Fund  Limited (LLJP).  * CapitaLand Integrated Commercial Trust (CICT) and  CapitaLand Open End Real Estate Fund (Coref) jointly  acquired a Grade-A office building at 79 Robinson  Road for nearly S$1.3bn from CapitaLand Investment  Limited (CLI), Mitsui &amp; Co and Tokyo Tatemono. The  transaction is expected to be completed in Q2 2022. * The collective sale of Tanglin Shopping Centre, which  has office and retail components, was awarded to  Pacific Eagle Real Estate for S$868mn.  * Frasers Logistics and Commercial Trust (FLCT) divested  Cross Street Exchange, a mixed-use commercial  property, to an undisclosed third party for S$810.8mn.  * RESIDENTIAL: The higher additional buyer's stamp  duty (ABSD) rates are likely to trim developers'  interest in large residential sites, since the risk of not  selling all units is higher, and the associated penalties  are now more punitive.  * COMMERCIAL: The fresh easing of social, workplace,  event and border restrictions will instill investors'  stronger confidence in the commercial market.  In addition, developers' interest is likely to spill  over to non-residential investments like the  commercial sector. With the popularity of mixed-use  developments, commercial-zoned sites are garnering  more attention from investors since the residential  components of such sites are not subjected to ABSD  or Qualifying Certificate (QC) rules. Despite URA's  recent imposition of restrictions on strata subdivision  to the commercial component in properties located  in certain designated areas including CBD and  Orchard Road corridors, any drastic impact on market  sentiments is not expected as the profile of the  investors of commercial developments in recent times  remain mainly institutional with a mid- to long-term  investment horizon.  * RETAIL: While suburban retail assets are expected  to continue to be sought after, the interest in prime  assets, especially strata-titled properties and units,  may be renewed due to its scarcity, which may in turn  spur higher transaction activity.  * OFFICE: While technology demand growth could slow  temporarily in the months ahead, on the back of  supply chain constraints/disruptions and the Chinese  regulatory clampdown, we remain optimistic on the  finance sector, especially the wealth management  industry, as a key driver of office demand. With the  increase of up to 75% of the workforce allowed back  to the office and improving business sentiment on  the back of a strong rebound in Singapore's economic  growth last year, companies may reassess their office  space needs.  * INDUSTRIAL: Amid heightened geopolitical tensions  and supply chain risks, stockpiling requirements are  likely to increase. The investment demand for logistics  facilities and warehouses is expected to remain  strong in tandem with the e-commerce growth trend.  However, investors may adopt a cautious approach  toward rapid expansion amid the expected softening  of global growth for 2022. 6 EDMUND TIE RESEARCH OFFICE - Riding on the back-to-office momentum 0.0 0.4 0.8 1.2 1.6 2021 2022 2023 2024 Under Construction mn sq  KEY HIGHLIGHTS Average monthly gross rents (SGD/sq ft) SUPPLY - SINGAPORE OFFICE SUPPLY (sq ft) OFFICE SUPPLY PIPELINE (2022-2025) (sq ft) As at Q4 2021, nearly 4.9mn sq ft of  new office space will be completed  from 2022 to 2025, an increase  from 3.9mn sq ft as of Q3 2021. Q4 2021 4.9mn sq ft  Q3 2021 3.9mn sq ft OCCUPANCY RATE OF PRIME CBD OFFICE SPACES The occupancy rate of prime CBD  office spaces experienced a slight  quarter-on-quarter increase,  fuelled by a rise in leasing demand  for Shenton Way/Robinson Road/  Tanjong Pagar office spaces. Q1 2022 93.6% Q4 2021 93.0% Source: EDMUND TIE Source: URA, EDMUND TIE Source: URA, EDMUND TIE *Selected major developments in the pipeline Location Subzone Grade Q4 2021  Q1 2022 Qoq change (%) CBD Marina Bay Premium 12.08 12.20 1.0 Raffles Place A 10.11 10.19 0.8 Shenton Way/Robinson Road/Tanjong Pagar Premium 10.88 10.90 0.1 A 8.65 8.70 0.5 B 6.95 6.99 0.6 Non-CBD Marina Centre A 9.63 9.68 0.5 City Hall/Bugis Premium 10.71 10.75 0.4 * 6.95 6.98 0.4 Orchard Road * 8.85 8.86 0.2 Decentralised areas Decentralised areas * 6.00 6.01 0.1 Development  Location Zone NLA '000 sq ft Total Status 2022 Guoco Midtown Beach Road Bugis/City Hall 650 1,223 Under construction Rochester Commons Rochester Park Decentralised Areas 250 Under construction Surbana Jurong Campus Cleantech Loop  Decentralised Areas 200 Under construction Hub Synergy Point redevelopment Anson Road  CBD 123 Under construction 2023 Central Boulevard Towers Central Boulevard  CBD 1,258 1,308 Under construction One Holland Village Holland Road  Decentralised Areas 50 Under construction 2024 Office/Retail development  (The Labrador Substation) Labrador Villa Road/  Pasir Panjang Road Decentralised Areas 641 1,447 PP: Sep-20 Central Boulevard Towers Hoe Chiang Road CBD 495 WP: May-20 Central Boulevard Towers Jalan Afifi Decentralised Areas 311 PP: Oct-20 2025 Shaw Tower redevelopment Beach Road/Middle Road/Nicoll  Highway  Bugis/City Hall 383 720 PP: Jan-20 Punggol Digital District Punggol Way Decentralised Areas 337 Under construction Total   4,698 In the quarter, there are no office development which has obtained TOP.  7 EDMUND TIE RESEARCH MARKET COMMENTARY MARKET OUTLOOK * Based on EDMUND TIE Research statistics, overall  net absorption islandwide fell from 515,000 sq ft  in Q4 2021 to around 265,000 sq ft in Q1 2022. The  leasing demand for prime office spaces in the central  area moderated as corporates held back on their real  estate needs amid the new Omicron wave during the  quarter. Nonetheless, robust demand for premium  spaces in Raffles Place and Grade A office spaces in  Shenton Way/Robinson Road/ Tanjong Pagar brought  about higher occupancies, while other segments saw  some softening. The overall occupancy rate for office  spaces in the CBD rose by 0.7 percentage points to  93.6% in Q1 2022, which was a similar rate of increase  compared to the previous quarter.  * The limited supply of quality spaces continued to  support rental growth across all subzones of the  office sector in Q1 2022, albeit to various extents.  In the CBD, premium rents at Marina Bay and Grade  A rents at Raffles Place experienced the strongest  uptick. Grade B rents at Shenton Way/Robinson Road/ Tanjong Pagar have also risen for the first time by  0.6% since Q1 2020. In non-CBD, rents across different  subzones improved by 0.2%-0.5% qoq, while office  rents in the decentralised rose by a modest 0.1%-0.2%  qoq in Q1 2022. * Some of the major leasing deals in Q1 2022 included  KPMG taking up around 100,000 sq ft in Asia  Square Tower 2 and Sony Music's flagship regional  headquarters at Duo Tower. The upcoming Guoco  Midtown had also secured more tenants in the quarter. * Following URA's recent imposition of restrictions  on strata subdivision to the commercial component  in properties located in certain designated areas,  including CBD and Orchard Road corridors, rents  and prices of strata units are expected to rise due to  scarcity in future supply.  * While the growth in demand for the technology sector  could slow temporarily in the months ahead due to the  supply chain constraints/disruptions and the Chinese  regulatory clampdown, we remain optimistic on the  finance sector, especially the wealth management  industry, as a key driver of office demand. * With up to 75% of workforce allowed back to the  office and improved business sentiment driven by  the strong rebound in Singapore's economic growth  last year, companies are reassessing their office  space needs. To accommodate future growth plans,  adopt the hybrid working models, and address the  employees' evolving requirements, companies might  be looking for expansion in the current buildings or  new spaces.  * Barring the emergence of new Covid-19 variants, we  expect the restrictions in the workplace may ease  further by the end of the year, which may allow all  employees to return to the office. Amid a tight supply  pipeline, office demand will continue to strengthen,  especially for good quality and sustainable spaces. 8 EDMUND TIE RESEARCH INDUSTRIAL - Focus on decarbonisation and   supply chain diversification 0.00 1.00 2.00 3.00 4.00 5.00 6.00 2015 2016 2017 2018 2019 2020 2021 2022 First-storey multiple-user factory Upper-storey multiple-user factory Hi-tech industrial space Business park (Central Region) $ psf 70 80 90 100 2015 2016 2017 2018 2019 2020 2021 Single-user factory Multiple-user factory Business park Warehouse % KEY HIGHLIGHTS RENTAL OF FIRST STOREY   MULTIPLE-USER FACTORY  OCCUPANCY RATE OF   MULTIPLE-USER FACTORY F i r m  p r o s p e c t s  f o r  t h e  manufacturing sector drove the  slight 0.6% qoq increase in rent. The occupancy rate of the island- wide multiple-user factory  increased by 0.4% qoq, buoyed  by semiconductor and biomedical  activities. Occupancy rate for  multiple-user factory increased by  1.7% points between Q4 2020 and  Q4 2021 amid healthy demand in  strong manufacturing output.  Q4 2021 90.2% Q3 2021 89.8% Developer/development  Location  NLA '000 sq ft Private multiple-user factory developments Solaris @ Tai Seng Tai Seng Avenue 929 Mapletree Industrial Trust Kallang Way 710 Private single-user factory developments Malkoha  Sunview Way 1,512 Global Foundries  Singapore Woodlands Industrial  Park D Street 2 849 Private warehouses developments Allied Sunview  Sunview Road 1,081 Logos eHub Pandan Crescent 750 Private business park developments CapitaLand  Science Park Drive 993 Surbana Jurong Campus Cleantech Loop 365 Public industrial developments JTC Defu Industrial City Defu South Street 1 2,875 JTC Punggol Digital District  (Phase 1) Punggol Way 2,067 0 5 10 15 2022 2023 2024 2025 Data centre (DC) Extension, A&amp;A Warehouse Business park Single-user factory Multiple-user factory mn sq ft SUPPLY OF INDUSTRIAL SPACES (sq ft) INDUSTRIAL SUPPLY PIPELINE (2022-2025) (sq ft) Most supply pipeline is in  2022 and 2023.  Q1 2022 $1.88 psf Q4 2021 $1.87 psf Source: EDMUND TIE Research Source: EDMUND TIE Research Source: JTC Source: JTC * New supply of major industrial developments Q4 2021 41.6mn sq ft NLA  Q3 2021 35.3mn sqft NLA 9 EDMUND TIE RESEARCH MARKET COMMENTARY MARKET OUTLOOK * The manufacturing PMI reading fell by 0.2 points from  50.7 in December 2021 (last publication) to 50.1 in  March 2022. The overall manufacturing sector has now  recorded the 21st month of expansion, despite global  growth's expected softening in 2022 amid heightened  geopolitical tensions and supply chain risks. * On a 3-month moving average yoy basis, NODX grew  by 15.3% yoy in February 2022, following a 19.9%  rise in January 2022. Both the electronics and non- electronics sectors contracted.  * Overall industrial net absorption decreased from  2.4mn sq ft in Q3 2021 to 0.2mn sq ft in Q4 2021, amid  continued uncertainties surrounding global trade  markets and looming inflation costs. The drivers were  warehouse segment (0.4mn sq ft) and multiple-user  factory segment (0.3mn sq ft). * Island-wide, occupancy rate for multiple-user factory  increased 0.4% qoq to 90.2% in Q4 2021, whilst that  of business park increased 0.2% qoq to 84.5% in  Q4 2021. The rest of the occupancy rates for other  industrial segments decreased by similar rates of 0.1%  qoq in Q4 2021.  * As of Q4 2021, approximately 59% of the supply  pipeline will be completed in 2022, followed by 18%  in 2023. Single-user factories accounted for the bulk  (42%) of the supply pipeline with approximately  17.6mn sq ft NLA. Multiple-user factory space made  up 31% of the supply pipeline, projected to be about  12.8mn sq ft NLA. * Amid robust manufacturing activity in Q1 2022,  multiple-user factory rents rose by 0.3-0.6% qoq in  the quarter. Buoyant demand for spaces with modern  specifications pushed up rents by 0.6% qoq for hi-tech  spaces in Q1 2022. * Stockpiling requirements are likely to increase amid  heightened geopolitical tensions and supply chain  risks, which will further increase the demand for  logistics and warehouse facilities. It will also drive the  push towards supply chain diversification to mitigate  cost pressures and operating risks.  * To achieve Singapore's new net-zero emission ambition  by or around mid-century, it was announced during  Budget 2022 that the carbon tax will be raised to S$25  per tonne in 2024 and 2025, and S$45 per tonne in  2026 and 2027 to reach S$50 to S$80 per tonne by  2030. More occupiers may be encouraged to change  their business models toward decarbonisation and cost  savings, while we expect to see more redevelopments  of ageing assets into future-proof properties with  higher specifications and sustainability features.  * Amid flight to quality, prime logistics assets, high-tech  factories and city-fringe business parks will continue  to be sought-after, with rents and capital values  expected to rise in tandem.  * Despite the anticipated new supply of data centres  coming onstream in response to the expected lifting  of the data centre moratorium in Q2 2022, we expect  continued rental growth due to tight supply in the  near term amid strong demand. 10 EDMUND TIE RESEARCH Development  Location Developer NLA '000 sq ft Total Status 2021 A&amp;A to existing Shaw Plaza Balestier Road Shaw Properties (1997) Pte Ltd 64 200 Under Construction A&amp;A to Grantral Mall @  Macpherson Macpherson Road Wujie Times Square Pte Ltd 63 Boulevard 88  Cuscaden Road/  Orchard Boulevard Hong Leong Holdings, CDL and  Lea Investments 30 Guoco Midtown Beach Rd Guoco Midtown Pte Ltd/ Midtown Bay Pte Ltd 23 Hotel/retail development Club Street Worldwide Hotels Group 20 2023 The Woodleigh Mall Upper Aljunied Road SPH and Kajima Development 150 455 Under construction Sengkang Grand Mall Compassvale Bow/ Sengkang Central CapitaLand and City  Developments Limited 109 One Holland Village Holland Road Far East Organization, Sinoland,  and Sekisui House  81 A&amp;A to Changi Airport  Terminal 2 Airport Boulevard Changi Airport Group (S) Pte Ltd 62 Dairy Farm Residences Dairy Farm Road United Engineers 30 Parc Komo/Komo Shoppes Upper Changi Road  North/Jalan Mariam CEL Real Estate Development  Pte Ltd 23 2024 Office/retail development Labrador Villa Road/ Pasir Panjang Road SP Group 26 26 PP: Sep-20 2025 Punggol Digital District Punggol Way JTC Corporation 173 173 WP: Oct-19 Total  854 SUPPLY OF RETAIL SPACES (2022-2025) (sq ft) The majority of the upcoming pipeline is the redevelopment of existing malls and ancillary retail,  mainly from mixed-use office buildings and the retail podium from residential developments. 0 50 100 150 200 250 300 350 400 450 500 2022 2023 2024 2025 Orchard/ Scotts Road Other City Areas Fringe/Suburban Areas '000 sq ft Source: URA, EDMUND TIE RETAIL - Brighter prospects with fresh easing of COVID measures KEY HIGHLIGHTS AVERAGE RETAIL RENTAL (SGD/sq ft) RETAIL OCCUPANCY RATES The average occupancy rate of  retail spaces in Singapore remained  unchanged in Q4 2021. Q4 2021 91.9% Q3 2021 91.9% Location Level Q4 2021 Q1 2022 Qoq change (%) Orchard/Scotts Road (OSR) First storey 37.38 37.56 0.5 Upper storey 15.95 15.98 0.2 Other city areas (OCA) First storey 19.26 19.32 0.3 Upper storey 9.68 9.69 0.1 Fringe/Suburban areas (FSA) First storey 30.97 31.37 1.3 Upper storey 17.23 17.34 0.6 Source: EDMUND TIE SUPPLY OF RETAIL SPACES (SQ M) There are nearly 0.9mn sq ft of new  retail space to be completed from  2022 to 2025. The majority (66.0%)  of the supply pipeline will emerge  from the Fringe/Suburban Areas. Q4 2021 0.9mn sq ft Q3 2021 1.2mn sq ft Source: URA, EDMUND TIE *Selected major developments in the pipeline 11 EDMUND TIE RESEARCH MARKET COMMENTARY MARKET OUTLOOK * Based on EDMUND TIE Research, islandwide net  absorption fell slightly from 355,000 sq ft in Q3 2021  to 269,000 sq ft in Q4 2021. The overall occupancy  rate remained constant at 91.9% in Q4 2021.  * The occupancy rate for the Fringe/Suburban Area  improved by 0.1% points to 93.9% in Q4 2021, the sixth quarter of consecutive increase since the start of  the COVID-19 pandemic. * In Q1 2022, rents for Fringe/Suburban continued to  outperform and rose by 1.3% qoq, compared to a  slower growth of 0.5% qoq in Orchard/Scotts Road  and marginal growth in rental rates of 0.3% in Other  City Areas.  * Retail openings in Q1 2022 included Japanese  furniture brand Nitori Retail's first Singapore store at  Courts Nojima at The Hereen, Uniqlo at Ang Mo Kio  Avenue 3, and Pepper Lunch GO! at 313@Somerset.  Retail closures included Dunkin' Donuts temporarily  closing all their outlets in Singapore, Isetan at Parkway  Parade, and Marks &amp; Spencer at 313@Somerset.  * The 3-month moving average of yoy change in retail  sales (excluding motor vehicles) has risen from 6.8% in  October 2021 to 9.6% in January 2022. Retail sales for  Petrol Service Stations, Wearing Apparel &amp; Footwear  and Watches &amp; Jewellery experienced the greatest  improvement yoy in Q4 2021. The majority of the  retail trade categories experienced a positive growth  except for Mini-marts &amp; Convenience Stores, Others  and Optical Goods &amp; Books, which were the only three  categories that experienced losses. * For the food and beverage services index for Q4 2021,  Restaurants was the sole component that reported a  decline of 5.3% yoy due to the dining restrictions. Food  Caterers recorded the greatest improvement, increasing  by 42.2% yoy in Q4 2021 followed by Cafes, Food Courts  &amp; Other Eating Places which rose by 4.2% yoy. * We expect the fresh easing of social, event and border  restrictions to improve retail sentiment and boost  consumer confidence, which will further improve  retail sales.  * In particular, the increased dining capacity to 10  fully vaccinated people is a welcome move for the F&amp;B sector, though the current requirement for safe  distancing of 1m between tables means that eating  outlets are still not be able to operate at full capacity.  * As a result of URA's recent imposition of restrictions  on strata subdivision to the commercial component  in properties located in certain designated areas,  including CBD and Orchard Road corridors, demand  and occupancy of prime retail assets may keep steady  or even improve amid the limited supply of existing  strata malls.  * The latest strata policy change may also improve  the tenant diversity of malls and allows for more  effective control of the mall's positioning under  single ownership, which may drive higher footfall and  spending. As a result, malls in the designated areas  may enjoy lower vacancy rates and command higher  rents over time.  * As Singapore further reopens its borders with the  lifting of most restrictions for fully vaccinated visitors,  the anticipated return of more tourists will inject  greater optimism for the recovery of the retail sector,  especially in the Central Area. 12 EDMUND TIE RESEARCH  -  1.0  2.0  3.0  4.0  5.0 0 20 40 60 80 100 120 Q1 2011 Q3 2011 Q1 2012 Q3 2012 Q1 2013 Q3 2013 Q1 2014 Q3 2014 Q1 2015 Q3 2015 Q1 2016 Q3 2016 Q1 2017 Q3 2017 Q1 2018 Q3 2018 Q1 2019 Q3 2019 Q1 2020 Q3 2020 Q1 2021 Q3 2021 Residential pipeline Total unsold Years to clear unsold based on 3-year moving average for new sales per annum (RHS) Years '000 units 0 20,000 40,000 60,000 80,000 100,000 120,000 201120122013201420152016201720182019202020212022 Q1 Q2 Q3 Q4 Units RESIDENTIAL - Price growth to soften in the wake of cooling  measures 80 100 120 140 160 180 200 220 Q1 2011 Q1 2012 Q1 2013 Q1 2014 Q1 2015 Q1 2016 Q1 2017 Q1 2018 Q1 2019 Q1 2020 Q1 2021 Q1 2022 All Residential Price Index Landed Non-landed 1Q 2009 = 100 0 2,000 4,000 6,000 8,000 10,000 12,000 Q1 2011 Q1 2012 Q1 2013 Q1 2014 Q1 2015 Q1 2016 Q1 2017 Q1 2018 Q1 2019 Q1 2020 Q1 2021 Primary sales Secondary sales Residential launches* Units KEY HIGHLIGHTS PROPERTY PRICE INDEX OF ALL PRIVATE  RESIDENTIAL PROPERTIES RESIDENTIAL PIPELINE SUPPLY PRIMARY AND SECONDARY SALES  TRANSACTION VOLUME PRIVATE HOME RENTAL TRANSACTIONS In Q1 2022, based on URA's flash  estimate, the overall Property Price  Index (PPI) for private residential  proper ties rose for the eight  consecutive quarter by 0.4% qoq, a  moderation from Q4 2021's 5.0%.  Landed property prices rose by 4.0%  qoq while non-landed property prices  corrected by 0.6% qoq. The pipeline supply for private  homes rose by 2.8% qoq in Q4 2021.  The total number of unsold units  rose slightly by 0.3% qoq and we  expect the units to be absorbed in  2.0 years.  Based on caveats lodged between  1 Jan 2022 and 31 Mar 2022, overall  sales transaction volumes for private  residential units decreased by 42%  qoq in Q1 2022 in the wake of the  cooling measures. The transaction  volumes for both the primary and  secondary markets declined qoq, by  43% and 42% respectively. The number of private rental  transactions grew significantly by  6.6% to a record high in 2021, driven  by completion delays within the  construction sector, which created  demand for rental units. Rental  transactions fell by 11.9% qoq in Q4  2021 and by 39% qoq in Q1 2022. Q1 2021 14,619 units  Q4 2021 23,915 units Q1 2022   (URA flash estimate) 174.3 Q4 2021 173.6 Q1 2022 4,568 units  Q4 2021 7,925 units Source: URA Source: URA Source: URA Source: URA * Residential launch data for Q1 2022 is based on new  launches in Jan 2022 and Feb 2022 only. Q4 2021 53,555 units,  21,612 total unsold Q3 2021 52,101 units,  21,551 total unsold 13 EDMUND TIE RESEARCH MARKET COMMENTARY MARKET OUTLOOK * According to URA's flash estimate for Q1 2022, the  Property Price Index (PPI) for private residential  properties rose for the eighth consecutive quarter  by 0.4% qoq, marking a noticeably slower growth  in the wake of the cooling measures. Prices for the  landed properties rose by 4.0%, while the non-landed  prices fell by 0.6%. Besides the impact of the cooling  measures, the softer non-landed prices were also  a result of the dearth of new launches during the  quarter. There were two new projects launched in Q1  2022, Royal Hallmark in the RCR and Ikigai in the CCR.  * Based on caveats lodged, new sales and secondary  transaction volumes dipped 44% and 49% qoq  respectively in Q1 2022. Within both the new sales  and secondary sales market, the decline in activity was  broad-based and similar across the market segments.  * The price movements across the market segments  reflect the expected immediate impact of the cooling  measures on investment demand. The CCR, which  has the highest foreign share of demand, fell by 0.5%  qoq. On the other hand, the suburban OCR segment  continued to see prices rising by 1.9% qoq, albeit at a  slower pace compared with 5.7% a quarter ago. Our  price analysis showed that median prices were more  resilient in the secondary market, rising by 0.4% qoq  in Q1 2022, while median prices in the primary market  declined by 1.7% qoq. * The pipeline supply for private residential homes  rose by 2.8% qoq as of Q4 2021. The total number of  unsold units rose slightly by 0.3% qoq to 21,612 units  and we expect the unsold units to be absorbed in 2  years, based on the average sales pace over the last  three years. The tight supply situation will continue to  lend pricing power to developers. * Private rental transactions grew significantly by 6.6%  to a record high in 2021, driven by the continual  ongoing uncertainties within the construction sector,  which created the demand for rental units. Rental  transactions fell by 11.9% qoq in Q4 2021 and 39%  qoq in Q1 2022. The marked decline in Q1 2022 was  broad-based across the three market segments and is  likely due to the low vacancies in the market. Some  expatriates may have taken the opportunity to return  to their home countries, expecting to return with ease  as the border restrictions are relaxed.  * We expect price growth to moderate with the  imposition of the latest cooling measures to promote  housing affordability and curb market exuberance.  However, we do not expect strong pressures on  developers to reduce prices, especially for projects  with limited unsold inventory.  * Looking ahead, the tightening of the Total Debt Servicing  Ratio (TDSR) could divert some demand towards  suburban homes, which are more affordable. We also  expect some rotation of demand from RCR to OCR in  2022, given the strong price increases in RCR in 2021.  * Demand will continue to be largely supported by  local first-time home buyers and HDB upgraders, who  are least impacted by the cooling measures. Stable  economic prospects and an improving job market in  2022 will further support the demand for private homes.  * However, we expect sales momentum to slow, on  the back of fewer units from new launches in 2022.  Developers will likely exercise more caution in bidding  for land parcels over the next few months. We expect  a recovery in launch and sales activity in H2 2022, if  the collective sales market stabilises.  * While the cooling measures will dampen sales  momentum, the overall market remains supported  by a robust labour market, ongoing economic growth,  and healthy demand-supply dynamics in the property  market. The nation is also better prepared to face new  Covid challenges, given the high vaccination rates and  booster programme. Our base projection is a slight  correction of the primary sales to about 11,000 -  12,000 units for 2022.  * With the VTL and resumption of air travel bringing  more expatriates, foreign workers, and students back  to Singapore, we foresee rental demand to strengthen  in 2022. However, as the shortage of manpower in the  construction sector is gradually resolved, demand for  short-term rentals could decline. The completion of  new projects could slow the rate of rental increases. Editor: Authors: Lam Chern Woon Senior Direct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Property Market Monitor  April 2022  Office  *  Occupiers in the technology, consumer and non-banking financial services  sectors led demand in 1Q22, although take up has broadened to  encompass a wider range of industries. This comes as more businesses  position themselves for growth.   *  Overall CBD investment grade quarterly office rental growth accelerated for  the third consecutive quarter to its steepest since turning around in 2Q21.   *  This supported a fourth consecutive quarter of capital value growth as new  investors continued to be drawn to Singapore office assets.   *  Singapore's office market is expected to continue to benefit from the back- to-office recovery momentum and the re-opening of international borders.  Tightening vacancies and limited new supply in 2022 should drive further  rental growth during the rest of the year and, in turn, lift capital values.      Residential  *  New home sales in the Prime districts dipped in 1Q22, as there were fewer  new projects launched compared to the previous quarter.   *  Similarly, demand for completed Prime properties softened and this  eased upward pressure on prices in 1Q22. Prime rents, however,  registered moderate growth in the quarter as new completions remain  limited due to construction delays, whilst leasing demand was firm.  *  There were no residential collective sales concluded in the Prime districts  during the quarter as developers remain cautious amidst market  uncertainty. However, they are still interested in replenishing land banks,  and are more likely to consider smaller sites which involve lower market  risks.  *  Prime rents are expected to remain on an uptrend for the next 12 months,  as the recent easing of border restrictions and improved hiring of foreigners  continue to feed leasing demand. Cooling measures are likely to continue  moderating demand and price increases.      Key Economic Indicators  GDP Real Growth  (1Q22, y-o-y, advance  estimates)  3.4%  Consumer Price Index  (Feb 2022, y-o-y)  4.3%  Total Trade (current prices)  (Feb 2022, y-o-y)  21.0%  Index of Industrial Production  (Feb 2022, y-o-y)  17.6%  Retail Sales excl. motor vehicles  (chained-volume terms)  (Feb 2022, y-o-y)  -2.4%  Unemployment Rate (S.A.)  (Feb 2022)  2.1%  Total Population Annual  Growth   (J un 2021)  -4.1%  Source: DOS    Major Property Transactions             |     1Q22  Office  Price  (SGD mil)  79 Robinson Road (100%  interest)  1,260.0  Twenty Anson  599.0  55 Market Street   287.0  Residential  Price  (SGD mil)  J alan Tembusu (GLS)  768.0  Lentor Hills Road (Parcel A)  (GLS)  586.6  Gloria Mansion (collective sale)  70.3  Retail  Price  (SGD mil)  J Cube  340.0  Wisteria Mall (100% interest)  208.0  82, 83, 84 Circular Road  30.7  Industrial  Price  (SGD mil)  UE Bizhub Central  55.0  Tee Hai Building  14.2  Wasco Centre  13.0    Source: J LL Research, April 2022              32.1  Current   stock          (sq ft million)  10.46  Gross   effective rent  (SGD psf pm NLA)  2.3%  Rental   growth   (q-o-q)  3,214  Capital   value  (SGD psf NLA)  2.2%  Capital   value growth   (q-o-q)  60,701  Current   prime stock  (units)  5.25  Gross   effective rent  (SGD psf pm NLA)  3.4%  Rental   growth   (q-o-q)  3,158  Capital   value   (SGD psf NLA)    0.6%  Capital   value growth   (q-o-q)  The capital value and rental value indicators are reflective of luxury residential properties   All data is reflective of CBD Investment Grade offices      Retail  *  Over the first two months of 1Q22, the retail sales index (excluding motor  vehicles) in chained-volume terms rose an encouraging 7.3% y-o-y,  reflecting healthy consumer spending during the Lunar New Year period,  despite COVID-19 restrictions and rising case numbers. The average  monthly retail sales in J anuary and February 2022 marginally surpassed  those of corresponding months in 2019.  *  Singapore's firm commitment in its endemic COVID-19 strategy, despite a  growing number of cases, boosted consumer and business confidence.  This supported the second consecutive quarter of rent recovery for prime  floor space across the three sub-markets in 1Q22.  *  Investment sales value rose q-o-q in 1Q22 largely due to the divestment of  J Cube by CapitaLand Integrated Commercial Trust to CapitaLand Group  for SGD 340 million and the sale of Wisteria Mall by Northernone  Development Pte Ltd to Schroders for SGD 208 million.  *  -19 measures and travel restrictions  (announced on 24 March 2022) will offer another confidence boost to  retailers and consumers. This will further drive retail sales and encourage  business expansion. Rents are expected to rise y-o-y in 2022, amidst a  falling vacancy rate outlook.            Warehouse  *  Logistics/warehouse facilities experienced healthy demand in 1Q22,  supported  largely  by  requirements  for  general  storage  and  cold/temperature-control purposes from third-party logistics service  providers (3PLs), life sciences and e-commerce companies.  *  Driven by tight space availability, especially for better quality warehouse  premises, the average island wide logistics/warehouse rent rose for the  fourth consecutive quarter in 1Q22 and this supported another quarter of  capital value growth.  *  Barring unforeseen shocks, we expect rents and capital values to stay on  an uptrend for the rest of 2022, underpinned by tight space availability for   continued buying interest for this asset class.    Authors  Tay Huey Ying  Head of Research &amp;  Consultancy  Singapore  Hueyying.tay@ap.jll.com    Sara Ong  Analyst,   Residential Research  Singapore  Sara.ong@ap.jll.com    Ng Theng Wei  Analyst,   Retail Research  Singapore  ThengWei.ng@ap.jll.com    Doreen Goh   Director,   Industrial Research  Singapore  Doreen.goh@ap.jll.com    Michelle Tee  Director,   Office Research  Singapore  Michelle.tee@ap.jll.com      J LL Singapore  88 Market Street  #35-01 CapitaSpring  Singapore 048948  jll.com.sg          jll.com.sg    CEA Licence No. L3007326E  (c) Copyright 2022 J LL. All rights reserved. This report has been prepared solely for information purposes and does not necessarily purport to be a complete analysis of the topics  discussed, which are inherently unpredictable. It has been based on sources we believe to be reliable, but we have not independently verified those sources and we do not guarantee  that the information in the report is accurate or complete. Any views expressed in the report reflect our judgment at this date and are subject to change without notice. Statements that  are forward-looking involve known and unknown risks and uncertainties that may cause future realities to be materially different from those implied by such forward-looking  statements. Advice we give to clients in particular situations may differ from the views expressed in this report. No investment or other business decisions should be made based solely  on the views expressed in this report.   All data is reflective of the islandwide market  122.5  Current           stock              (sq ft million)  1.43  Gross   effective rent  (SGD psf pm NLA)  1.4%  Rental   growth   (q-o-q)  200  Capital   value  (SGD psf NLA)  1.7%  Capital   value growth   (q-o-q)  5.1  Current   stock          (sq ft million)  35.32  Gross   effective rent     (SGD psf pm NLA)  0.1%  Rental   growth   (q-o-q)  8,415  Capital   value   (SGD psf NLA)  0.1%  Capital   value growth   (q-o-q)  All data is reflective of the Prime sub-market  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exhibit 1: Industrial Sales Performance Number of Transactions Average Price (S$ psf) Source: JTC J-Space, Knight Frank Research Note: The average unit price is based on a four-quarter moving average of strata transactions.  *Q1 2022 data is based on transactions downloaded as at 31 March 2022. $1,200 $1,000 $800 $600 $400 $200 $0 600 500 400 300 200 100 0 Q1      Q2      Q3      Q4 2017 Q1      Q2      Q3      Q4 2018 Q1      Q2      Q3      Q4 2019 Q1      Q2      Q3      Q4 2020 Q1      Q2      Q3      Q4 2021 Q1* 2022 Multiple-user Factory Single-user Factory Warehouse Number of Transactions (Bar), Average Price (Line) Singapore Research Industrial Q1 2022 " " Despite the uncertainties to manufacturing supply chains due to global headwinds, the industrial market in Singapore can look forward to sustainable gains throughout 2022. PROLONGED CHIP SHORTAGE MAY SLOW DOWN INDUSTRIAL ACTIVITY IN 2022 DA NIEL DING,  H EAD ,  C A P I T A L  M A R K E T S ( L AND  &amp;  B UILD ING,  I N T E R N A T I O N A L  R E A L  E S T A T E  &amp;  I NDUSTRIAL) MA R K ET  S NA P S H OT 2,140  LEASES     1.4% Q-O-Q |     4.9% Y-O-Y  NUMBER OF INDUSTRIAL TENANCIES S$431.2   MILLION      61.8% Q-O-Q |      71.9% Y-O-Y  TOTAL INDUSTRIAL SALES 50.8  MILLION SF GFA UPCOMING NEW SUPPLY (2022 TO    6) External headwinds may alter industrial momentum Stable sales and leasing activity in Q1 Continued on next page Singapore's economy grew 7.6% in 2021, as the Ministry of Trade and Industry (MTI) reported  that this was partially attributed to the growth in the manufacturing sector of about 13.2% y-o-y for the whole year, led by output expansions in all clusters.  Despite a net weighted balance of 8% of manufacturers foreseeing a favourable business  outlook in H1 2022, supported by the encouraging pace of growth in 2021, the escalation of  the Russia-Ukraine war since February this year might further aggravate already-con- strained global supply chains. The disrupted supply of rare metals and neon from the  warring nations that many semiconductor manufacturers rely on to produce chips are  rapidly being exhausted in existing inventories. The ripple effect of the conflict could draw  out the global chip shortage longer than expected, affecting growth.  In addition, COVID-19 lockdowns in China as well as rising inflation have been some of the  other critical factors dampening manufacturers' sentiments. In March 2022, the Singapore  Purchasing Managers' Index (PMI) registered a slower rate of expansion at 50.1, representing  declines of 0.7 points y-o-y and 0.1 point m-o-m.  1 The percentage changes for the total number of tenancies of all industrial space in January and February 2022 are based on a two-month comparison; q-o-q (against  October and November 2021) and y-o-y (against January and February 2021).  Land in excess of 100,000 sf remains  high in demand, stemming from  end-users in need of larger parcels and  buildings for expansion. Notwithstanding  this, the current supply of good quality  industrial buildings is limited, resulting  in the tapering of total sales to S$431.2  million in the first three months of the  year (Exhibit 1). In January and February 2022, leasing  activity in the industrial market  generally picked up 4.9% on a y-o-y  basis. Strata industrial space remained  particularly popular among businesses  due to the more palatable floor areas  and price quantums. While demand for such space remains  healthy, the pace of leasing movements  slowed.  The  multiple-user  factory  segment registered 1,557 tenancies in  the first two months of the year,  representing a marginal decline of  0.4% y-o-y, although the reduction was  in part due to the high-base last year  when the total number of leases hit new  heights of 1,564 (January and February  2021), not seen since 2012 (Exhibit 2).   Knight Frank Research Reports are available at knightfrank.com.sg/research Exhibit 2: Industrial Leasing Volume and Median Rents Number of Tenancies Median Rent (S$ psf pm) Source: JTC J-Space, Knight Frank Research Note: The median rent is based on a four-quarter moving average. *Q1 2022 is based on January and February 2022 data as at end-March. $4.50 $4.00 $3.50 $3.00 $2.50 $2.00 $1.50 $1.00 5,000 4,000 3,000 2,000 1,000 0 Q1      Q2      Q3      Q4 2017 Q1      Q2      Q3      Q4 2018 Q1      Q2      Q3      Q4 2019 Q1      Q2      Q3      Q4 2020 Q1      Q2      Q3      Q4 2021 Q1* 2022 Multiple-user Factory Single-user Factory Business Park Warehouse Number of Tenancies (Bar), Median Rents (Line) Daniel Ding Head Capital Markets (Land &amp; Building, International Real Estate &amp; Industrial) +65 6228 6833 daniel.ding@sg.knightfrank.com Leonard Tay Head Research +65 6228 6854 leonard.tay@sg.knightfrank.com For further information, please contact: Market outlook Unlocking opportunities through twinned bases  Nor Adila Rahim Senior Analyst Research +65 6228 6856  nor.adila@sg.knightfrank.com Recent Publications THE WEALTH REPORT 2022 SINGAPORE VIEW 24TH EDITION Leveraging on Singapore's reputation as a global business and innovation hub, the  launch of synergistic manufacturing bases will allow businesses to access and utilise  land that is optimal for expansion and output production, while also diversifying  their supply chains. Earlier in October 2021, twinned bases - Batamindo Industrial Park (BIP) and Bintan  Industrial Estate (BIE) - were established between Singapore and Indonesia. And  more recently in February 2022, another initiative was introduced in Singapore and  Vietnam known as the Sembcorp Development's Vietnam Singapore Industrial Parks  (VSIPs). These will help manufacturers who are looking to grow their businesses and  adapt strategies that could potentially increase their output production more  efficiently and effectively.  With external forces exacerbating the  global semiconductor supply crunch,  manufacturers  may  turn  cautious  when considering expansion activities.  However, as e-commerce has proven  sustainable, especially in this day and  age where economies are steadily  progressing towards being digital, the  demand for logistics and warehouse  space is expected to remain stable. Between 2022 and 2026, some 50.8  million sf of new industrial GFA will be  coming on stream to the sector. Of the  29.9 million sf set to be completed  sometime this year, single-user factory  is projected to account for the lion's  share of the upcoming supply, with  approximately 13.1 million sf of new  space (43.8%).  Notwithstanding the upcoming supply  in 2022, healthy demand and measured  expansion in the industrial market  continue to be underpinned by  encouraging levels of direct investment  from the biomedical, biotechnology and  electronics sectors. As such, industrial  price and rents are on track to improve  in a moderate manner by 3% to 5% for  the whole of 2022. About Knight Frank Singapore Knight Frank LLP is the leading independent global property consultancy. Headquartered in London, Knight  Frank has more than 16,000 people operating from 384 offices across 51 territories. The Group advises  clients ranging from individual owners and buyers to major developers, investors and corporate tenants.  Knight Frank has a strong presence in Singapore with a head office and two subsidiaries: Knight Frank  Property Asset Management and KF Property Network. For further information about the Company, please  visit www.knightfrank.com.sg. (c) Knight Frank 2022 This report is published for general information only. Although high standards have been used in the  preparation of the information, analysis, views and projections presented in this report, no legal responsibility  can be accepted by Knight Frank Research or Knight Frank for any loss or damage resultant from the contents  of this document. As a general report, this material does not necessarily represent the view of Knight Frank  in relation to particular properties or projects. Reproduction of this report in whole or in part is allowed with  proper reference to Knight Frank Research. SUBSCRIBE for updates and reports delivered to your inbox </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 savills.com.sg/insight-and-opinion/ MARKET IN MINUTES Savills Research Industrial Industrial rents continue trending upwards Savills plc Savills is a leading global real  estate service provider listed on  the London Stock Exchange. The  company established in 1855, has  a rich heritage with unrivalled  growth. It is a company that leads  rather than follows, and now has  over 600 offi   ces and associates  throughout the Americas, Europe,  Asia Pacifi  c, Africa and the Middle  East. This report is for general  informative purposes only. It may  not be published, reproduced or  quoted in part or in whole, nor may  it be used as a basis for any  contract, prospectus, agreement  or other document without prior  consent. Whilst every eff  ort has  been made to ensure its accuracy,  Savills accepts no liability  whatsoever for any direct or  consequential loss arising from its  use. The content is strictly  copyright and reproduction of the  whole or part of it in any form is  prohibited without written  permission from Savills Research. Simon Smith Regional Head of  Research &amp; Consultancy,  Asia Pacifi  c +852 2842 4573 ssmith@savills.com.hk Alan Cheong Executive Director  Singapore +65 6415 3641 alan.cheong@savills.com.sg RESEARCH Warehouse logistics remains one of the most resilient segments. "  The inability of industries to  fully pass on the cost from  supply chain disruptions to  customers is constraining  rental increases." ALAN CHEONG, SAVILLS RESEARCH *   Although leasing volume in Q1/2022 continued to increase,  the rate of change has slowed to 3.5% year-on-year (YoY). *   Savills' average monthly rent for prime multiple-user  factories increased by 3.6% quarter-on-quarter (QoQ) to  S$1.90 per sq ft with prime warehouse and logistics properties  falling marginally by 0.7% QoQ to S$1.45 per sq ft in Q1/2022. *   Strata industrial sales activity remained relatively stable  with 423 transactions in Q1/2022, compared to 460 in  Q1/2021. *   Savills' basket of industrial properties showed that prices for  freehold properties increased by 1.1% QoQ to S$729 per sq  ft while 60-year leaseholds rose by 0.9% QoQ to S$447 per  sq ft in Q1/2022. *   From Savills' basket of industrial properties, 30-year  leasehold industrial properties increased at a faster pace of  3.5% QoQ to S$305 per sq ft in Q4, ending six consecutive  years of price decline. *   Coupled with the scarcity and steady demand in Mapletree  Business City and one-north regions, Savills' prime  business park monthly rents rose by 0.6% QoQ to S$5.89 per sq ft. Meanwhile, Savills' standard business park  properties monthly rents slipped by 0.1% QoQ to S$4.00  per sq ft in Q1/2022. *   The average monthly rent for Savills' high-spec industrial  basket increased by 1.4% QoQ to S$3.61 per sq ft in Q1/2022. *   The inability of industries to fully pass on the cost of price  increases due to supply chain disruptions is capping rental  increases and we are forecasting rents for multiple-user  factory space to rise by up to 2% YoY while warehouse &amp;  logistics space may be limited to up to 5% YoY. Christopher J Marriott CEO, Southeast Asia  +65 6415 3888 cjmarriott@savills.asia SINGAPORE Please contact  us for further  information Savills team MCI (P) No. 062/02/2022 Company Reg No. 198703410D Sally Tan Head of Industrial +65 6836 6888 sally.tan@savills.com.sg Singapore - May 2022 2 savills.com.sg/insight-and-opinion/ MACROECONOMIC OVERVIEW According to the Ministry of Trade and  Industry (MTI), Singapore's economy  expanded by 3.7% year-on-year (YoY) in  Q1/2022, with uplift from the manufacturing,  fi  nance and insurance, and professional  services. While the services-producing  industries grew by 4.2% YoY in Q1, overall  economic growth was led by the 6.3% YoY  recovery in the goods-producing industries.  Alongside a robust expansion of 2.1% YoY for  the construction sector, manufacturing grew  signifi  cantly by 7.1% YoY. The manufacturing sector has ended the  fi  rst quarter with growth moderation, with  the Purchasing Managers' Index (PMI)  dipping from 50.7 in December to 50.1 in  March. The Russia-Ukraine confl  ict created a  fallout with rising energy costs, supply chain  disruptions and infl  ationary pressures on  many fronts, clouding market sentiments and  business planning. The growth in Singapore's  key exports also slowed down, with non-oil  domestic exports (NODX) rising 7.7% YoY in  March, compared to 18.4% in December. RENTAL MARKET The quarterly leasing volume1 continued  to increase, rising to 3,054 transactions  in Q1/2022. However, the pace of growth  slowed to 3.5% YoY. While single-user factory  segment remained the key demand driver of  the industrial rental market, the YoY growth  in tenancies signed moderated from 63.0% in  Q4/2021 to 39.7% in Q1/2022. The multiple- user factory and warehouse segments  continued to see steady take-up from digital  and creative fi  rms, as well as ecommerce and  third-party logistics (3PL) companies.  As most small and medium-sized  enterprises (SMEs) generally prefer prime  locations, the vacancy rate for multiple-user  factory spaces in the Central Region fell to  its lowest level (9.0%) of the last nine years.  Despite the increase in overall occupier  demand (+724,000 sq ft) in Q1/2022, the  island-wide vacancy for multiple-user factory  spaces of 11.2% has not been higher since  Q4/2020. This was largely due to the addition  of new supply from the partial completion  of JTC Defu Industrial City. Meanwhile,  the vacancy rate for single-user factories  and warehouses remained relatively fi  rm  in Q1/2022, inching up to 9.6% (+0.2% ppt  QoQ) and 9.7% (+0.3 ppt QoQ) respectively.  Compared with the previous quarter, rents  continued to increase across all industrial  segments in Q1/2022. The JTC's rental  index for factory hit a post-2017 record and  the Savills' average monthly rent for prime  multiple-user factories2 increased by 3.6%  QoQ to S$1.90 per sq ft in Q1/2022. Although  1   Based on JTC's rental data (excluding business park  spaces, only comprises single- and multiple-user factory as  well as warehouse spaces). 2   Based on Savills basket of private multiple-user factory  properties which ranges from 1,000 sq ft to 3,000 sq ft in  size, with an average monthly asking rent of at least S$1.50  per sq ft. the JTC's rental index for warehouses rose,  the Savills' average monthly rent for prime  warehouses and logistics properties3 recorded  a marginal decline of 0.7% QoQ to S$1.45 per  sq ft in Q1/2022. While landlords of modern  warehouse facilities are still holding up  their rental expectations, the overall rental decline was largely due to the decrease in  rents in some of the strata-titled warehouse  properties in our basket.  SALES MARKET Strata industrial sales activity4 fell 8%  from 460 transactions in Q1/2021 to 423  transactions in Q1/2022. Notwithstanding  the decline in sales, this is still well above the  historical fi  ve-year average sales (279 caveats).  The steady sales momentum was likely backed  by local SMEs which acquired multiple-user  factory and warehouse properties for their  own business operations, especially those in  the electronics, manufacturing, biomedical,  healthcare, ecommerce, and last mile  transportation services.   Savills' basket of industrial properties  showed that prices for freehold properties  increased by 1.1% QoQ to S$729 per sq ft  while that of 60-year leasehold units rose by  0.9% QoQ to S$447 per sq ft in Q1/2022. From  Savills' basket of industrial properties, 30- year leasehold industrial properties increased  by a faster pace at 3.5% QoQ to S$305 per  sq ft in Q4, ending six consecutive years of  year-on-year price declines. The overall price  growth could be backed by ample liquidity in  the market. BUSINESS PARK AND HIGH-SPEC  INDUSTRIAL The island-wide vacancy level for business  park space fell by 1.1 ppt QoQ to 14.4% in  Q1/2022, the lowest since Q4/2020. Owing  to the healthy take-up rate of prime business  park developments such as Mapletree  Business City and one-north, the vacancy  rate in the Central Planning Region eased  further by 2.3 ppts QoQ to a record low at  6.2% in Q1/2022. Coupled with the scarcity  and steady demand in Mapletree Business  City and one-north regions, Savills' prime  business park5 monthly rents rose by 0.6%  QoQ to S$5.89 per sq ft.  While the vacancy rate in the West  Planning Region fell by 1.8 ppt QoQ to  28.1% in Q1/2022, that in the East Planning  Region continued to worsen to 24.2% (+2.3  ppts QoQ) due to softer demand from ESR  Bizpark @ Chai Chee and Changi Business  Park. To attract tenants to fi  ll up the vacancy,  3   Based on Savills basket of private multiple-user warehouse  properties which ranges from 2,000 sq ft to 80,000 sq ft in  size, with an average monthly asking rent of at least S$1.30  per sq ft. 4   Based on JTC's sales caveat data, downloaded on 24 May  2022. 5   Based on business park-zoned spaces in the newer  clusters which range from 1,000 sq ft to 5,000 sq ft in size,  with an average monthly asking rent of at least S$5.50 per sq  ft. GRAPH 1: Factory and Warehouse Leasing Volumes,  2011 to Q1/2022 1,138  1,480  1,513  1,752  1,868  1,768  1,794  2,345  2,417  2,434  2,950  3,054  1,390  1,732  1,981  2,129  2,317  2,285  2,401  2,702  2,883  2,353  3,381  1,543  1,611  2,070  2,060  2,031  2,130  2,358  2,543  2,679  3,005  3,423  1,504  1,613  2,071  2,071  1,921  1,962  2,331  2,564  2,486  2,913  3,055  0 2,000 4,000 6,000 8,000 10,000 12,000 14,000 NO. OF TRANSACTIONS Q1 Q2 Q3 Q4 Source JTC, Savills Research &amp; Consultancy GRAPH 2: Prices of Upper-Storey Strata Factory and  Warehouse Units, Q1/2015 to Q1/2022 729 443 295 250 350 450 550 650 750 850 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 2015 2016 2017 2018 2019 2020 2021 22 S$ PER SQ FT Freehold 60-year leasehold 30-year leasehold Source JTC, Savills Research &amp; Consultancy GRAPH 3: Business Park Space Vacancy Rates, Q1/2016 to Q1/2022 0 5 10 15 20 25 30 35 40 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 2016 2017 2018 2019 2020 2021 22 % Islandwide Mapletree Business City &amp; Science Park one-north Changi Business Park Source JTC, Savills Research &amp; Consultancy Industrial 3 savills.com.sg/insight-and-opinion/ some landlords of non-prime business park  developments generally maintained their rental  expectations. Hence, Savills' standard business  park properties6 monthly rents slipped by 0.1%  QoQ to S$4.00 per sq ft in Q1/2022.  What was interesting was that some fi  rms  upgraded from fl  atted factories to more prime  and accessible high-spec industrial developments  and yet managed to achieve rental savings by  rightsizing and consolidating operations from  various locations. Particularly, new high- spec industrial projects such as UBIX and  other well-located developments continue to  experience good take-up rates. These market  movements could have helped generate rental  growth, resulting in an increase of 1.4% QoQ in  the average monthly rent for Savills' high-spec  industrial basket7 to S$3.61 per sq ft in Q1/2022.  OUTLOOK In the face of more economic challenges such as  high infl  ation and the worldwide energy crunch,  the Russia-Ukraine confl  ict has clouded the  early-2022 optimistic outlook for Singapore's post- COVID recovery. While the immediate impact  on the local economy has been manageable, the  longer-term impact of the confl  ict on Singapore's  economy will depend on how the situation unfolds. Notwithstanding the global headwinds,  industrial and logistics emerged as one of the most  6   Based on business park-zoned spaces in the older clusters which  range from 1,000 sq ft to 5,000 sq ft in size, with an average monthly  asking rent of at least S$3.50 per sq ft. 7   Based on offi   ce-like industrial space which ranges from 2,000 sq  ft to 4,000 sq ft in size, with an average monthly asking rent of at  least S$3 per sq ft. multiple-user factory rents are expected to see  some recovery this year, warehouse and logistics  real estate is expected to better weather the  increased downside risks and negative feedback  eff  ects arising from the Russia-Ukraine crisis.  As such, rents for prime warehouse properties is  forecast to grow by up to 5% this year, with the  demand for modern warehouse facilities coming  from new economy industries likely to stay fi  rm.  Taking the abovementioned factors into  account, rent for prime multiple-user factory and  warehouse &amp; logistics properties is forecast to  grow by up to 2% and 5% respectively in 2022.    PERIOD YoY % CHANGE IN MULTIPLE-USER  FACTORY RENTS YoY % CHANGE IN WAREHOUSE &amp;  LOGISTICS RENTS 2022F 1.0% to 2.0% 2.0% to 5.0% TABLE 1: Rental Forecast for Multiple-User Factory and Warehouse &amp; Logistics Segments Source Savills Research &amp; Consultancy resilient segments across the various real estate  industries. In particular, demand for modern  warehouse facilities and high-specifi  cation  industrial facilities is likely to sustain. Some of  the upcoming modern warehouse developments  saw healthy pre-commitment levels. For instance,  2 Pioneer Sector 1 (2PS1) is already more than  70% pre-committed from tenants in the Fast- Moving Consumer Goods (FMCG), e-commerce  and third-party logistics (3PL) industries. As the  supply of modern warehouse facilities with quality  specifi  cations is expected to remain limited in the  near term due to construction delays, demand for  such high-specifi  cation facilities is expected to  hold up overall rental growth. Nonetheless, industrialists may generally  be more cautious with their expansion plans  alongside the global semiconductor supply crunch  and heightened uncertainty. Considering rising  labour costs and elevated commodity prices,  higher business costs could curtail manufacturing  activity and any expansion of footprint. While  Industrial </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAR K E T B E AT  -  5  10  15 Multiple-User Factory Single-User Factory Warehouse Business Park Supply (msf) Q4 2021F 2022F 2023F 2024F Industrial Q4 2021 SINGAPORE $5.99 Business Park (City Fringe) $3.54 Business Park (Outlying Areas) $4.27 Science Park 2.5% Inflation Growth 5.9%* Real GDP Growth 2.6% Unemployment Source: Ministry of Trade &amp; Industry (MTI),  Moody's Analytics  *  Real GDP Growth in Q4 2021 is based on MTI's advance  estimates  SINGAPORE ECONOMIC INDICATORS  Q3 2021 12-Mo. Forecast 12-Mo. Forecast Sustained Economic Growth into 2022 According to advance estimates from the Ministry of Trade and Industry (MTI), Singapore's economy grew 7.2% for the whole of 2021. The economy witnessed a strong rebound last year after 2020's record 5.4% contraction. Full-year 2021 manufacturing growth reached 12.8%, extending the 7.3% expansion in the preceding year. Singapore's economic expansion is expected to slow to about 4% in 2022. Nonetheless, 2022 expected growth would still indicate a solid economic recovery as it remains above pre-Covid-19 trend levels of about 3.1% GDP growth. New Economy Assets Outperform Based on C&amp;W's basket of industrial properties, there were steady increases in rents during 2021 for various types of industrial properties, except for outlying business park and factory space. Prime logistics and high-tech properties were the star performers, enjoying highest rental growth of more than 2% for the whole of 2021, bolstered by digital transformation and e-commerce adoption and outperformance of high-value manufacturing sectors such as biomedical and electronics. Rents of factories remained stable last year on the back of relatively tight vacancy rates, in line with Singapore's economic recovery. While city fringe business park experienced stable growth, rents of outlying business parks were weighed down by lower rents at older projects during the year. Nonetheless, outlying business park rents appeared to be bottoming out, inching up marginally by 0.1% qoq in Q4 2021 after several quarters of declines. Broad-based Growth in 2022 Positive outlook is expected for industrial rents across different segments. Rents for business parks in the city fringe are expected to continue rising while rents of outlying business parks could start recovering this year amidst ongoing economic recovery and newer business park space expected to come into the market in 2022. Similarly, demand for high-tech, prime logistics and warehouse spaces are likely to stay healthy given continued expansion from companies in pharmaceuticals, life science, technological and logistics sectors, fueled by the exponential growth in e-commerce and business digitalization. However, performance will be differentiated depending on their specifications. Newer and higher spec developments that are able to better meet evolving end-user requirements would lead growth while older warehouse stock would likely see stagnant rents. As such, we could see a slew of redevelopments to meet the needs of quality and higher specifications' demand. Occupancy rates of factory space could come under pressure in 2022 due to substantial upcoming supply in the pipeline. While majority of factory stock coming onstream in 2022 are single-user factory, which are already pre-committed, multi-user factory new supply is set to increase substantially in 2022 as compared to that 2021, based on latest JTC data as of Q3 2021. Nonetheless, demand for factories would be supported by continued outperformance in the biomedical, electronics and related industries and ongoing improvements in the general manufacturing landscape as the economy continues to recover into 2022. As such, overall factory rents could rise in 2022. INDUSTRIAL SUPPLY PIPELINE Rents (S$PSF/MO) MAR K E T B E AT Industrial Q4 2021 SINGAPORE SEGMENT GROSS EFFECTIVE RENT 12-MONTH OUTLOOK S$/SF/MO US$/SF/MO EUR/SF/MO Business Park (City Fringe) S$5.99 US$4.42 EUR3.91 Business Park (Outlying Areas) S$3.54 US$2.61 EUR2.31 Science Park S$4.27 US$3.15 EUR2.79 High-Tech S$3.19 US$2.35 EUR2.08 Factory - Ground Floor S$1.78 US$1.31 EUR1.16 Factory - Upper Floor S$1.60 US$1.18 EUR1.05 Warehouse - Ground Floor S$1.56 US$1.15 EUR1.02 Warehouse - Upper Floor S$1.27 US$0.93 EUR0.83 Prime Logistics - Ground Floor S$1.42 US$1.05 EUR0.93 Prime Logistics - Upper Floor S$1.27 US$0.93 EUR0.83 US$/S$ = 1.354; EUR/S$ = 1.531, as of 29 December 2021 PROPERTY SUBMARKET SELLER / BUYER PRICE (S$ Million) 351 On Braddell Toa Payoh Hanwha Asset Management, Boustead Singapore / Boustead  Industrial Fund, Metro Holdings 121.0 TUV SUD PSB Building Science Park Ascendas Reit / JV between CapitaLand Development and  Ascendas Reit 103.2 MARKET STATISTICS PROJECT NAME SUBMARKET TENANT SF EXPECTED COMPLETION YEAR* Surbana Jurong Campus Jurong West Surbana Jurong 445,000 2022 Perennial Business City Jurong East - 1,100,000 2022 Kajima Campus Changi Kajima 140,000 2023 Biopolis Phase 6 - Elementum one-north - 378,000 2023 Development at Science Park Science Park - 310,000 2024 Punggol Digital District Punggol  - 2,440,000 2024 Development at Science Park Science Park  - 1,200,000 2025 * Note: Project timeline might change due to the impact of Covid-19's restrictions on construction progress cushmanwakefield.com KEY SALES TRANSACTIONS Q4 2021 SIGNIFICANT BUSINESS PARK PROJECTS - PLANNED &amp; UNDER CONSTRUCTION WONG XIAN YANG Head of Research Singapore +65 6232 0885 / xianyang.wong@cushwake.com BRENDA ONG Executive Director Head of Logistics &amp; Industrial Services Singapore +65 6232 0878 / brenda.ong@cushwake.com A CUSHMAN &amp; WAKEFIELD RESEARCH PUBLICATION About Cushman &amp; Wakefield Cushman &amp; Wakefield (NYSE: CWK) is a leading global real estate services firm that delivers exceptional value for real estate occupiers and owners. Cushman &amp; Wakefield is among the largest real estate services firms with approximately 50,000 employees in over 400 offices and 60 countries. In 2020, the firm had revenue of US$7.8 billion across core services of property, facilities and project management, leasing, capital markets, valuation and other services. To learn more, visit : www.cushmanwakefield.com or follow @CushWake on Twitter. (c)2022 Cushman &amp; Wakefield. All rights reserved. The information contained within this report is gathered from multiple sources believed to be reliable. The information may contain errors or omissions and is presented without any warranty or representations as to its accuracy. </t>
-  </si>
-  <si>
-    <t>SINGAPORE Q4 2021 Cautiously optimistic prospects for real estate in 2022 JANUARY 2022 REAL ESTATE  TIMES 2 EDMUND TIE RESEARCH 2.6 0 1 2 3 4 5 6 2000 2002 2004 2006 2008 2010 2012 2014 2016 2018 2020 % -2.0 -1.0 0.0 1.0 2.0 3.0 4.0 5.0 6.0 7.0 Q1 2000 Q1 2002 Q1 2004 Q1 2006 Q1 2008 Q1 2010 Q1 2012 Q1 2014 Q1 2016 Q1 2018 Q1 2020 MAS core inflation yoy% growth yoy% growth 1.1 0 2 4 6 8 10 12 14 16 18 2017 2018 2019 2020 2021 Q1 Q2 Q3 Q4 $bn KEY HIGHLIGHTS ECONOMY - Growth to moderate in 2022 GROSS DOMESTIC PRODUCT (GDP) UNEMPLOYMENT RATE FIXED ASSET INVESTMENTS (FAI) CONSUMER PRICE INDEX (CORE INFLATION) Q3 2021 $3.7bn Q4 2021 5.9% Q3 2021 2.6% Q3 2021 1.1 yoy% growth Q2 2021 $3.6bn Q3 2021 7.1% Q2 2021 2.7% Q2 2021 0.7 yoy% growth  Source: Monetary Authority of Singapore  Source: Economic Development Board Source: Ministry of Manpower  Sector Q3 2021 Q4 2021*  Overal GDP Growth 7.1 5.9 Manufacturing 7.9 14.0 Construction 66.3 2.0 Information &amp; Communications,   Finance &amp; Insurance and   Professional Services 8.0 6.0 Wholesale &amp; Retail Trade and   Transportation &amp; Storage 6.1 4.3 Accommodation &amp; Food Services,   Real Estate, Administrative &amp; Support  Services and Other Services 3.8 3.1 Performance of industry sectors (%)* Source: Based on MTI advance estimates Q4 2021* Unit: % 3 EDMUND TIE RESEARCH *  Singapore's economy grew by 5.9% yoy in Q4 2021, a  moderation from the 7.1% in Q3 2021. However, full yoy  growth stood at 7.2% in 2021, the highest since 2010. *  The manufacturing sector expanded by 14.0% yoy in  Q4 2021, accelerating from the 7.9% growth recorded  in the previous quarter. The services sector contracted  by 4.6% yoy in Q4 2021, compared to a growth of 6.2%  in Q3 2021. *  Singapore attracted $3.7bn in FAI in Q3 2021, an  increase from $3.6bn in Q2 2021 with the electronics  sector leading at around $3.4bn. *  MAS kept its inflation outlook unchanged on 25  October 2021. Singapore's core inflation for 2021 will  likely come near the upper end of its 0 - 1% forecast  and increase to 1 - 2% in 2022. Overall inflation is  forecast to come in around 2% in 2021 and average  1.5 - 2.5% in 2022.  *  The labour market continued to recover from the  impact of the COVID-19 pandemic. The unemployment  rate declined marginally to 2.6% in Q3 2021 from  2.7% in Q2 2021. In Q3 2021, total employment  contracted by 8,400, with construction (-6,600), food  and beverage services (-2,100) and other service  industries (-6,400) bearing the brunt. On the other  hand, the information and communications (+4,000),  and professional services (+2,500) and administrative  and support (+2,000) recorded employment growth. *  The road ahead is expected to remain uneven  for various sectors of the economy. In particular,  manufacturing and wholesale trade are expected to  remain resilient due to external demand, although  slowing Chinese growth does pose a key risk. The  recovery for the aviation and tourism industry is also  expected to slow due to the fresh Omicron threat. *  With the country's high vaccination rate and the  rapid rollout of booster shots for a wider age group,  industries in the service line such as hospitality and  food and beverage industry should benefit from an  uplift in sentiment and easing restrictions.  *  On 24th November 2021, MTI announced that  Singapore's GDP growth forecast for 2022 will be  within the range of "3.0% to 5.0%" as more industries  resume their activities progressively. As Singapore  reconnects increasingly with the world and with  the easing of borders, new areas of growth can be  expected in terms of ramping up digitalisation and  moving towards a greener economy. However, time is  required to meet the manpower shortages in various  industries, particularly the construction sector.   MARKET COMMENTARY MARKET OUTLOOK 4 EDMUND TIE RESEARCH INVESTMENT - More cautious approach navigating new measures 0 5 10 15 20 25 30 35 40 2011 2012 2013 2014 2015 2016 2017 2018 2019 2020 2021 Q1 Q2 Q3 Q4 $bn KEY HIGHLIGHTS INVESTMENT SALES ($ billion) VALUE OF TOP 5 PRIVATE INVESTMENT DEALS ($ billion) Total investment sales in Q4 2021  decreased by 6.8% as compared to    Q3 2021. The combined value of the top 5 private investment deals in Q4 2021 represented 52% of total  investment value in Q4 2021. Development Remaining  tenure, yrs Purchase price Purchaser Seller $ mn $ psf Residential Thiam Siew Avenue  land parcels Freehold 815.0 1,440 land area Hoi Hup Realty and Sunway  Developments JV Collective sale Watten Estate  Condominium Freehold 550.8  1,723 land area  UOL Group and SingLand JV Collective sale Office One George Street  81 1,281.5 21,272 NLA JPMorgan Global Alternatives  and Nuveen Real Estate JV CapitaLand Integrated   Commercial Trust and FWD Group Retail Peace Centre and  Peace Mansion  97 650.0 1,388 land area Chip Eng Seng, SingHaiyi  Crystal, and Ultra Infinity JV Collective sale Central Square 72 315.0 6,491 NLA City Developments Limited Far East Hospitality Trust and   OPH Riverside Pte Ltd Source: EDMUND TIE Research Source: EDMUND TIE Research Top 5 private investment deals in Q4 2021  Q4 2021 $6.90bn Q3 2021 $7.40bn Q4 2021 $3.61bn Q3 2021 $1.20bn 5 EDMUND TIE RESEARCH MARKET COMMENTARY MARKET OUTLOOK *  Total investment sales for Q4 2021 dipped slightly  from Q3 2021 to $6.9bn amid investors' cautious  sentiments.  *  Investment sales in the quarter were led by  residential, which contributed to $3.3bn (48%),  followed by office contributing to $2.8bn (41%).  *  For residential sales, nearly $0.5bn was from the sale  of two residential sites at Slim Barracks Rise under the  Government Land Sales (GLS) programme.  *  Office deals comprised 41% of the quarter's total  investment sales. In addition, the transactions for office  sales were predominantly strata-titled transactions. *  The collective sale market registered strong activity  with a consecutive string of sites launched for sale. A  total of six deals were sealed in the quarter, of which  three of them constituted part of the top five private  investment deals.  *  The largest deal in the year was the acquisition of  One George Street, a 23-storey office building, by a  joint venture between JPMorgan Global Alternatives  and Nuveen Real Estate for $1.3bn from CapitaLand  Integrated Commercial Trust and FWD Group. The  transaction was completed in December.  *  A joint venture between Hoi Hup Realty and Sunway  Developments was awarded two freehold land parcels  at Thiam Siew Avenue for $815mn via a public tender  exercise. It was the largest residential development  site sold since the previous round of property cooling  measures implemented in July 2018.  *  Peace Centre and Peace Mansion, a mixed-use  development, was sold via private treaty to a joint  venture between Chip Eng Seng, SingHaiyi Crystal,  and Ultra Infinity for $650mn. It was launched for  collective sale in September.  *  Located at Shelford Road, Watten Estate  Condominium was jointly sold to UOL Group and  Singapore Land Group for $550.8mil via collective sale  in its third attempt. *  RESIDENTIAL: The demand for Good Class Bungalows  (GCB) is expected to remain strong, though  transaction sale volume may ease due to limited  available listings. Given the fresh property cooling  measures, developers will be subjected to a higher  additional buyer's stamp duty (ABSD) rate of 35 per  cent (including 5 per cent non-remittable) and are  likely to adopt a more cautious approach towards  their land bids. However, amid the tight unsold  inventory of private housing units, developers may  continue to turn towards the collective sale market to  stock up on their land banks.  *  RETAIL: Amid the uncertainty brought about by the  emergence of the Omicron variant and current restrictive  safe management measures, investor sentiment in the  retail market remains cautious. Prime retail assets are  also tightly held, limiting transaction activity.  *  OFFICE: With the gradual resumption of the  workforce back to the office, starting with 50 per  cent from 1 January 2022, demand for high quality  and green spaces will rise to suit occupiers' evolving  requirements. The office market rental recovery has  supported investment activity, which is expected to  continue in 2022 amid tight supply and companies'  realignment of workplace space strategies.  *  INDUSTRIAL: Industrial assets are anticipated to remain  attractive to investors due to the sector's resilient  performance and its growing importance accentuated  by the pandemic. Amid rising environmental concerns,  more investors will place their environmental, social  and governance (ESG) agenda at the forefront of  investment decision-making efforts. 6 EDMUND TIE RESEARCH OFFICE - Quality office spaces fuel rental growth 0.0 0.4 0.8 1.2 1.6 2021 2022 2023 2024 Under Construction mn sq  KEY HIGHLIGHTS Average monthly gross rents (SGD/sq ft) SUPPLY - Singapore OFFICE SUPPLY (sq ft) OFFICE SUPPLY PIPELINE  ( Q4 2021-2024) (sq ft) At Q3 2021, nearly 3.9mn sq  ft of new office space will be  completed from Q4 2021 to 2024,  down from 4.6mn as of Q2 2021. Q3 2021 3.9mn sq ft  Q2 2021 4.6mn sq ft OCCUPANCY RATE OF PRIME CBD OFFICE SPACES The occupancy rate of prime CBD  office spaces had a slight quarter- on-quarter increase, fuelled by a  rise in leasing demand for Marina  Bay and Raffles Place office spaces. Q4 2021 93.0% Q3 2021 92.2% Source: EDMUND TIE Source: URA, EDMUND TIE Source: URA, EDMUND TIE *Selected major developments in the pipeline Location Subzone Grade Q3 2021  Q4 2021 Qoq change (%) CBD Marina Bay Premium 12.01 12.08 0.5 Raffles Place A 10.03 10.11 0.8 Shenton Way/Robinson Road/Tanjong Pagar Premium 10.87 10.8 0.1 A 8.65 8.65 0.0 B 6.95 6.95 0.0 Non-CBD Marina Centre A 9.62 9.63 0.1 City Hall/Bugis Premium 10.71 10.7 0.0 * 6.95 6.95 0.0 Orchard Road * 8.84 8.85 0.1 Decentralised areas Decentralised areas * 6.00 6.00 0.1 Development  Location Zone NLA '000 sq ft Total Status 2021 Surbana Jurong Campus Cleantech Loop  Decentralised Areas 200 200 Under construction 2022 Guoco Midtown Beach Road Bugis/City Hall 650 650 Under construction 2023 Central Boulevard Towers Central Boulevard  CBD 1,258 1,258 Under construction 2024 Office/retail development Labrador Villa Road/Pasir Panjang Road Decentralised Areas 641 641 PP: Sep-20   2,749 In the quarter, CapitaSpring has obtained TOP for the full office component, offering 29  floors of premium Grade A offices and 299 units of serviced apartment. 7 EDMUND TIE RESEARCH MARKET COMMENTARY MARKET OUTLOOK *  Based on EDMUND TIE Research statistics, overall  net absorption islandwide improved from a negative  43,200 sq ft in 3Q 2021 to 597,000 sq ft in 4Q 2021.  Prime office spaces in the central region experienced a  positive uptick in leasing demand in the fourth quarter  as companies prepared to work from the office in  the new year. The occupancy rate for office spaces  in the CBD rose by 0.7% to 93.0% in 4Q 2021. Amid  flight to quality,  Premium and Grade A CBD rents fell  marginally by 0.1% in 2021 although overall CBD rents  fell by 3.6%. CBD occupancy rate fell marginally by  0.1% last year; the market was weighed down in the  first half of the year before sentiment stabilised. *  With an improved business confidence in 2H 2021  technology companies and the financial sector,  in particular the wealth management sector and  family offices, continued to expand their office  footprint and drive leasing demand. Additionally, with  Singapore being a safe haven for global investors and  international firms, companies are setting up offices  locally in anticipation of a reopening of the workplace.  *  Another driver for prime office demand is derived  from displaced tenants of Grade B office buildings,  who are looking to upgrade to Grade A office  buildings. With anticipation for employees to return to  the office in 2022, employers are finding the right ways  to entice employees to work from the physical office  to enhance the company culture and drive innovation.  *  Some examples of leasing demand for the quarter are  Shopee who is expanding their office into Rochester  Commons, PGIM's relocation from One Raffles Place to  CapitaSpring, Gojek shifting from AXA Tower to Suntec  Tower 5 and Twitter's expansion into CapitaSpring  from their current office located at CapitaGreen. *  Moving into 2022, we expect flexibility to be the key  theme for the office sector. Flexibility for employees  working in the office and companies adopting a hybrid  work approach in the long haul, as well as flexibility for  tenants as they prefer more flexible lease options. Some  companies may gravitate towards incorporating co- working spaces for the employees as an added amenity. *  With office employment improving, companies are  also looking to rethink and redesign their office space  for current and future employees. Information and  communications sector employment has experienced  the most growth, followed by financial and insurance  services. As the labour market for office employment  gradually improves, the government has also been  pushing to upskill workers to meet the market demands.  *  With Singapore progressing along with its Covid-19  endemic road map, we expect leasing demand to  pick up further. In line with the changing preferences  of occupiers, traditional office spaces are evolving  to facilitate and encourage collaboration and  brainstorming of ideas. *  We expect a positive net absorption for 2022, with  rental growth of likely 3% to 5% for good quality office  buildings as demand continues to strengthen. We  expect companies to acknowledge the importance  of well-designed quality workspaces in facilitating  business networking, employee collaboration and  fostering company culture. With the redevelopment  of older office stock and a tight supply pipeline in the  year, vacancy is expected to fall, and office rents are  expected to rise, led by the prime segment. 8 EDMUND TIE RESEARCH INDUSTRIAL - Optimism for 2022 held back by Omicron  0.00 1.00 2.00 3.00 4.00 5.00 6.00 2015 2016 2017 2018 2019 2020 2021 First-storey multiple-user factory Upper-storey multiple-user factory $ psf 70 80 90 100 2015 2016 2017 2018 2019 2020 2021 Single-user factory Multiple-user factory Business park Warehouse % KEY HIGHLIGHTS RENTAL OF FIRST STOREY   MULTIPLE-USER FACTORY  OCCUPANCY RATE OF   MULTIPLE-USER FACTORY F i r m  p r o s p e c t s  f o r  t h e  manufacturing sector drove the  slight 0.5% qoq increase in rent.  The occupancy rate of the island- wide multiple-user factory  increased qoq with improved  business confidence amid an  upbeat outlook. Occupancy  rate for multiple-user factory  increased by 1.3 points between  Q4 2020 and Q3 2021.  Q3 2021 89.8% Q2 2021 89 .7% Developer/development  Location  NLA '000 sq ft Private multiple-user factory developments Solaris @ Tai Seng Tai Seng Avenue 929 Mapletree Industrial Trust Kallang Way 710 Private single-user factory developments Malkoha  Sunview Way 1,512 Google Asia Pacific  Lok Yang Way 1,060 Private warehouses developments Pandan Crescent  Pandan Crescent 1,108 Allied Sunview  Sunview Road 1,081 Private business park developments CapitaLand  Science Park Drive 993 Surbana Jurong Campus Cleantech Loop 365 Public industrial developments JTC Defu Industrial City Defu South Street 1 2,875 JTC Punggol Digital District  (Phase 1) Punggol Way 2,001 0 5 10 15 2021 2022 2023 2024 Data centre Extension, A&amp;A Warehouse Business park mn sq ft SUPPLY OF INDUSTRIAL SPACES (sq ft) INDUSTRIAL SUPPLY PIPELINE (2021-2024) (sq ft) Most supply pipeline is in  2021 and 2022.  Q3 2021 35.3mn sq ft NLA  Q2 2021 38.7mn sqft NLA Q4 2021 $1.87 psf Q3 2021 $1.86 psf Source: EDMUND TIE Research Source: EDMUND TIE Research Source: JTC Source: JTC * New supply of major industrial developments 9 EDMUND TIE RESEARCH MARKET COMMENTARY MARKET OUTLOOK *  The manufacturing PMI reading fell by 0.2 points  from 50.9 in August 2021 (last publication) to 50.7 in  December 2021. The overall manufacturing sector has  now recorded the 18th month of expansion, albeit  slowing growth amid concerns over the Omicron  variant of Covid-19 and disruptions to supply chains. *  On a 3-month moving average yoy basis, NODX    grew by 17.9% yoy in November 2021, following    a 10.5% rise in October 2021. Both electronics and  non-electronics grew.  *  Overall industrial net absorption decreased from  3.9mn sq ft in Q2 2021 to 2.4mn sq ft in Q3 2021.  possibly due to uncertainties surrounding global trade  markets and concerns about cost escalation from  fuel, transport, materials and labour amid disruptions  from Covid-19. The drivers were multiple-user factory  segment (1.1mn sq ft), warehouse segment (0.6mn sq  ft), business park segment (0.4mn sq ft) and single- user factory segment (0.3mn sq ft).  *  Island-wide, the occupancy rate for warehouse  increased 0.4% qoq to 90.1% in Q3 2021, whilst that of  the multiple-user factory increased 0.1% qoq to 89.8%  in Q3 2021. The rest of the occupancy rates for other  industrial segments decreased, with business parks  declining the most at 0.5% qoq to 84.3% in Q3 2021.  *  As of Q3 2021, approximately 27% of the supply  pipeline will be completed in 2021, followed by 33%  in 2022. Multiple-user factories accounted for the  bulk (35%) of the supply pipeline with approximately  12.2mn sq ft NLA. Single-user factory space made  up 29% of the supply pipeline, projected to be about  10.3mn sq ft NLA. *  Amid robust manufacturing activity in Q4 2021,  multiple-user factory rents rose by 0.2-0.5% qoq in  the quarter. Buoyant demand for spaces with modern  specifications pushed up rents by 0.5% qoq for hi-tech  spaces in Q4 2021. For the full year, rents of hi-tech  spaces rose by 2.7%, while multiple-user (ground  floor) factory rents rose by 1.9%. On the other hand,  upper storey factory rents fell by 0.3%. *  Looking ahead, while the prospects for the industrial  sector remain robust and intact, especially for  high-specification logistics and factory spaces,  the significant supply pipeline and other ongoing  economic and business risks will cap the strength of  the recovery. As major global economies prepare to  embark on policy normalization, coupled with slowing  China's growth and global supply chain bottlenecks,  trade momentum could slow in the coming months.  Businesses are thus expected to be cautious with their  space requirements. However, we see firm expansion  from firms in certain clusters such as pharmaceuticals,  electronics, precision engineering and logistics.  *  Supported by Industry 4.0 and the e-commerce  avalanche, new-economy assets such as logistics  warehouses, high-specs industrial properties and  business parks will continue to feature steady  investment activity and fuel potential price growth in  the near term. *  Rents of industrial space are likely to grow between  2-3% for multiple-user factory space in 2022, while  hi-tech factory and warehouse spaces will likely  see higher rental growth of 3-5%. Even as demand  prospects improve, the sizeable supply pipeline will  cap the upside of rental growth.  *  Even as global Covid-19 vaccination rates increase  and businesses continue to reopen, global growth is  expected to soften for 2022. Furthermore, the spread  of omicron infections may prove to be a wildcard  going forward. On balance, the positive outlook for the  industrial sector is tempered by some downside risks. 10 EDMUND TIE RESEARCH SUPPLY OF RETAIL SPACES (2021-2024) (sq ft) The i12 Katong mall has started to open progressively from Q4 2021, where six levels of retail  shops will consist of about 180 stores. A large portion of the new upcoming supply will be in  the form of refurbishing existing retail assets and creating new ancillary retail components. -50 50 150 250 350 450 2021 2022 2023 2024 Orchard/ Scotts Road Other City Areas '000 sq  Source: URA, EDMUND TIE RETAIL - Stabilising prospects for the retail market KEY HIGHLIGHTS AVERAGE RETAIL RENTAL (SGD/sq ft) RETAIL OCCUPANCY RATES The average occupancy rate of  retail spaces in Singapore improved  marginally in Q3 2021. Q3 2021 91.9% Q2 2021 91.5% Location Level Q3 2021 Q4 2021 Qoq change (%) Orchard/Scotts Road (OSR) First storey 37.27 37.38 0.3 Upper storey 15.93 15.95 0.1 Other city areas (OCA) First storey 19.26 19.26 0.0 Upper storey 9.70 9.68 -0.2 Fringe/Suburban areas (FSA) First storey 30.72 30.97 0.8 Upper storey 17.20 17.23 0.2 Source: EDMUND TIE SUPPLY OF RETAIL SPACES (SQ M) There are nearly 1.2mn sq ft of  new retail space to be completed  from Q4 2021 to 2024. The  majority (88.0%) of the supply  pipeline will emerge from the  Fringe/Suburban Areas. Q3 2021 1.2mn sq ft  Q2 2021 1.2mn sq ft Source: URA, EDMUND TIE *Selected major developments in the pipeline Development  Location Developer NLA '000 sq ft Total Status 2021 A&amp;A to existing i12 Katong East Coast Road Keppel Land Pte Ltd 189 189 Under construction 2022 A&amp;A to Grantral Mall   @ Macpherson Macpherson Road Wujie Times Square Pte Ltd 63 63 Under construction 2023 Sengkang Grand Mall Compassvale Bow/  Sengkang Central CapitaLand and   City Developments Limited 109 190 Under construction One Holland Village Holland Road Far East Organization, Sinoland  and Sekisui House 81 2024 Punggol Digital District Punggol Way JTC Corporation 173 323 WP: Oct-19 Wp: May-18 The Woodleigh Mall Upper Aljunied Road SPH and Kajima Development 150   765 11 EDMUND TIE RESEARCH MARKET COMMENTARY MARKET OUTLOOK *  Based on EDMUND TIE Research, islandwide net absorption has  improved from 151,000 sq ft in Q2 2021 to 355,000 sq ft in Q3  2021. The occupancy rate improved marginally by 0.4% to 91.9% in  Q3 2021. In 2021, the occupancy rate grew by 1.5% points, mainly  uplifted by the growth in the Fringe/Suburban Area. Rent for  Fringe/suburban rose by 2.6% for the year, compared to a marginal  growth of 0.1% in Orchard/Scotts Road and a fall in rental rates of  1.2% in Other City Areas.  *  The occupancy rate for the Fringe/ Suburban Area improved by  0.2% points to 93.8% in Q3 2021, the fifth quarter of consecutive  increase since the start of the COVID-19 pandemic. *  Retail openings in Q4 2021 include GoldHeart at Causeway Point,  Tsui Wah at The Heeren, Yakiniku Like at Sengkang Compass One  and Don Don Donki opening at Tampines Mall. Retail closures  include Omakase Burger closing all their outlets in Singapore, Food  Junction at Bugis Junction and Ben's cookies at Wisma Atria.  *  The 3-month moving average of yoy change in retail sales  (excluding motor vehicles) has fallen from 7.5% in August 2021 to  8.0% in November 2021. Retail sales for Petrol Service Stations,  Computer &amp; Telecommunications Equipment and Watches &amp;  Jewellery experienced the greatest improvement yoy in 3Q  2021. The majority of the retail trade categories experienced a  positive growth except for Optical Goods &amp; Books, Others and  Departmental stores which are the top three categories that  experienced losses. *  For the food and beverage services index for Q3 2021, Restaurants  reported the highest decline of 16.8% yoy, due to the dining  restrictions. Fast food outlets recorded the most improvement  increasing by 12.6% yoy in Q3 2021 followed by Cafes, Food Courts  &amp; Other Eating Places which rose by 5.7% yoy. *  Northshore Plaza I, located in the Punggol Northshore district,  has also opened. The new development features a supermarket,  eateries, shops, childcare centre and enrichment centres to cater  to the needs of residents in the area. *  We expect suburban malls to continue  their outperforming pace in 2022. With  their curated tenant mix over the years,  the malls are able to cater to the needs  of the residential catchment, catering to  the daily needs, which further encourage  them to patronise the malls. As Covid  gains acceptance as endemic within the  community, retail sentiment will improve  further and we expect stabilisation in  the retail sector in 2022. Suburban retail  rents will lead the recovery with around  5% to 10% of rental growth, while prime  rents in OCR and OCA are also poised for  a recovery in 2022. *  D e s p i t e  t h e  p a n d e m i c ,  s o m e  international brands are still looking for  opportunities to expand their presence  in the Singapore market, particularly  F&amp;B brands. Local brands, such as By  Invite Only, The Editors Market and Bynd  Artisan, have also expanded their retail  footprint despite the pandemic.  *  Digitalisation, adoption of an omni  channel approach and experimental  retail are key trends going into 2022 for  the retail sector. Retailers will continue  to reinvent themselves and build their  online presence, allowing their online  and physical storefronts to complement  each other. Malls will also continue to  adjust their tenant mix, including securing  unique and well-known international  brands to entice more customers and  increase footfall and spending in the malls. 12 EDMUND TIE RESEARCH  -  1.0  2.0  3.0  4.0  5.0 0 20 40 60 80 100 120 Q1 2011 Q3 2011 Q1 2012 Q3 2012 Q1 2013 Q3 2013 Q1 2014 Q3 2014 Q1 2015 Q3 2015 Q1 2016 Q3 2016 Q1 2017 Q3 2017 Q1 2018 Q3 2018 Q1 2019 Q3 2019 Q1 2020 Q3 2020 Q1 2021 Q3 2021 Residential pipeline Total unsold Years to clear unsold based on 3-year moving average for new sales per annum (RHS) Years '000 units 0 10,000 20,000 30,000 40,000 50,000 60,000 70,000 80,000 90,000 100,000 2011 2012 2013 2014 2015 2016 2017 2018 2019 2020 2021 Q1 Q2 Q3 Q4 Units RESIDENTIAL - Upward trajectory of demand and price attesting to  resilience of the private residential sector  80 100 120 140 160 180 200 220 Q1 2011 Q3 2011 Q1 2012 Q3 2012 Q1 2013 Q3 2013 Q1 2014 Q3 2014 Q1 2015 Q3 2015 Q1 2016 Q3 2016 Q1 2017 Q3 2017 Q1 2018 Q3 2018 Q1 2019 Q3 2019 Q1 2020 Q3 2020 Q1 2021 Q3 2021 All Residential Price Index Landed Non-landed 1Q 2009 = 100 0 2,000 4,000 6,000 8,000 10,000 12,000 Q1 2011 Q1 2012 Q1 2013 Q1 2014 Q1 2015 Q1 2016 Q1 2017 Q1 2018 Q1 2019 Q1 2020 Q1 2021 Primary sales Secondary sales Residential launches* Units KEY HIGHLIGHTS PROPERTY PRICE INDEX OF ALL PRIVATE  RESIDENTIAL PROPERTIES RESIDENTIAL PIPELINE SUPPLY PRIMARY AND SECONDARY SALES  TRANSACTION VOLUME PRIVATE HOME RENTAL TRANSACTIONS In Q4 2021, based on URA's flash  estimate, the overall Property Price  Index (PPI) for private residential  properties rose for the seventh  consecutive quarter by 5% qoq. This rise  can be attributed to a 5.4% qoq increase  in the PPI for non-landed private  properties and a 3.7% qoq increase for  the landed private properties. The pipeline supply for private  homes remained relatively  unchanged, with a marginal decline  of 0.6% qoq in Q3 2021. The total  number of unsold units contracted  by 11.6% qoq and we expect the  units to be absorbed in 1.7 years  (previously 2.0 years). Based on caveats lodged between  1 Oct 2021 and 31 Dec 2021, overall  sales transaction volumes for private  residential units decreased qoq by  9.3% in Q4 2021. The transaction  volumes for both the primary and  secondary markets declined qoq, by  15% and 4.7% respectively. The number of private rental  transactions grew significantly by  11.9% qoq in Q3 2021, driven by the  continual ongoing uncertainties within  the construction sector, which created  demand for rental units. On a yoy basis,  rental transactions remained relatively  similar with a total of 26,969 private  rental transactions in Q3 2020.  Q3 2021 26,759 units  Q2 2021 23,923 units Q4 2021   (URA flash estimate) 173.6 Q3 2021 165.3 Q4 2021 7,377 units  Q3 2021 8,973 units Source: URA Source: URA Source: URA Source: URA *  Residential launch data for Q4 2021 is based on new  launches in Oct 2021 and Nov 2021 only. Q3 2021 52,101 units,  17,165 total unsold Q2 2021 52,390 units,  19,409 total unsold 13 EDMUND TIE RESEARCH MARKET COMMENTARY MARKET OUTLOOK *  According to URA's flash estimate for Q4 2021, the  Property Price Index (PPI) for private residential  properties rose for the seventh consecutive quarter by  5% qoq to 173.6. Prices for the landed properties grew  by 3.7%, while the non-landed prices by 5.4%.  *  Based on caveats lodged, new sales and secondary  transaction volumes dipped 15% and 4.7% qoq  respectively in 4Q 2021. Across the market segments,  new sales volumes within the OCR witnessed decline  of 50% qoq due to a sharp decline in launched units,  while new sales volume in the CCR and RCR recorded  qoq growth of 35.0% and 37.0% respectively. On the  other hand, secondary sales volume recorded a more  uniform decline of about 16.0% - 20.0% qoq across all  segments in 4Q 2021. *  Despite the dropped in sale volume, prices continued  to climb. The price increase was observed across all  segments in Q4 2021, with RCR registering the highest  qoq price growth of 7.3%, while CCR and OCR saw  an increase of 2.5% and 5.4% respectively. The RCR  price growth was attributable to the robust sale of  CanningHill Piers at an average price of $2,937 psf.  *  There were 4 new non-landed project launches,  namely Cairnhill 16 (CCR), Perfect Ten (CCR),  CanningHill Piers (RCR) and The Commodore (OCR).  The robust take-up rate of 82.8% for CanningHill Piers  attested to demand for RCR properties while nearly  75% take-up rate for The Commodore indicated  the continual interest for homes in the suburbs. In  contrast, Perfect Ten sold only 12 out of 230 units, as  it was launched in the immediate aftermath of the 16  December cooling measures.  *  The pipeline supply for private residential homes as  of Q3 2021 fell by 0.6% qoq to 52,101 units. Likewise,  the total number of unsold units for Q3 2021 dropped  by 11.6% qoq to a record low of 17,165 units for the  period commencing from Q4 2017. Based on the last  four quarters' sales pace of new units, it would take  just 1.7 years to absorb the unsold supply, attesting to  the tight inventory situation. *  Non-landed rental transactions grew by 11.9% qoq to  26,759 transactions in Q3 2021. The growth in rental  volume was likely fuelled by delays in the completion  of the properties arising from the supply chain  disruption, coupled with the return of expatriates/  students via the vaccinated travel lanes (VTL). The  growth across all the market segments was broad-  based, roughly 11.2% to 12.4% qoq in Q3 2021. *  The strong sales momentum from Q3 2021 initially  continued into the first two months of Q4 2021  but slowed in December on the back of the cooling  measures and a limited number of new project launches.  *  With the imposition of the latest cooling measures  to promote housing affordability and curb market  exuberance, price growth is expected to moderate.  However, we do not expect strong pressures on  developers to reduce prices, especially for projects  with limited unsold inventory.  *  Looking ahead, the tightening of the Total Debt Servicing  Ratio (TDSR) could divert some demand towards  suburban homes which are more affordable. We also  expect some rotation of demand from RCR to OCR in  2022, given the strong price increases in RCR in 2021.  *  Demand will continue to be largely supported by  local first-time home buyers and HDB upgraders, who  are least impacted by the cooling measures. Stable  economic prospects and an improving job market in  2022 will further support the demand for private homes.  *  However, sales momentum is expected to slow on  the back of fewer units from new launches in 2022.  Developers will likely exercise more caution in bidding  for land parcels over the next few months. We expect  a recovery in launch and sales activity in 2H 2022 if  the collective sales market stabilises.  *  While the cooling measures will dampen sales  momentum, the overall market remains supported  by a robust labour market, ongoing economic growth,  and healthy demand-supply dynamics in the property  market. The nation is also better prepared to face new  Covid challenges, given the high vaccination rates and  booster programme. Our base projection is for a slight  correction of primary sales to about 11,000 - 12,000  units for 2022.  *  2022 will be a robust year for the rental market. With  the VTL and resumption of air travel bringing more  expatriates, foreign workers and students back to  Singapore, we foresee rental demand to strengthen  further in 2022. Editor: Authors: Lam Chern Woon Senior Director Research &amp; Consulting  +65 6393 2340  chernwoon.lam@etcsea.com For more information, please contact us at research.sg@etcsea.com. Amanda Goh Research Analyst   Research &amp; Consulting  +65 6393 2382 amanda.goh@etcsea.com Hailee Fong Research Analyst   Research &amp; Consulting  +65 6393 2548 hailee.fong@etcsea.com Discla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">python extraction could not extract out the whole text
-copy paste does not work either
-both extracted the same text
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exhibit 1: Leasing Volume and Median Rent of Multiple-User Factory  Space Number of Leasing Transactions Rent (S$ psf pm) Source: JTC J-Space, Knight Frank Research Note: The median rent is based on a four-quarter moving average. *Q4 2021 data based on October and November 2021 data as at end-December. $2.00 $1.90 $1.80 $1.70 $1.60 $1.50 3,000 2,500 2,000 1,500 1,000 500 0 Q1      Q2      Q3      Q4 2017 Q1      Q2      Q3      Q4 2018 Q1      Q2      Q3      Q4 2019 Q1      Q2      Q3      Q4 2020 Q1      Q2      Q3      Q4* 2021 Number of Tenancies Median Rent knightfrank.com.sg/research Singapore Research Industrial Q4 2021 " " The industrial real estate sector remains a steady bulwark of Singapore's growth as pandemic-era manufacturing investments continue to pour in. A STABLE INDUSTRIAL SECTOR SUPPORTED RECOVERY IN 2021 DAN I E L DI N G ,  H E A D , CAP I TAL  MARKE TS (L A N D  &amp; B U I L D I N G , I NTE RNATI ONAL  RE AL  E S TATE  &amp; I NDU STRIAL) MAR K ET  SNAPSH OT 2,170  LEASES 10%     Q-O-Q | 9.8%     Y-O-Y NUMBER OF INDUSTRIAL TENANCIES S$795.1  MILLION 0.9%     Q-O-Q | 16.7%     Y-O-Y TOTAL INDUSTRIAL SALES 49.6  MILLION SF GFA UPCOMING NEW SUPPLY (Q4 2021 TO 2025) Pandemic-hit manufacturing segments improving Gradual growth in rents Continued on next page In advanced estimates released by the Ministry of Trade and Industry (MTI), the  Republic's economy grew 7.2% in 2021. The manufacturing sector posted a growth of  12.8% y-o-y, led by output expansions in all clusters, particularly electronics and  precision engineering. The precision engineering cluster, being one of the critical industries that boost growth in  the domestic manufacturing industry, provides components to a variety of businesses  ranging from semiconductor to marine and offshore as well as medical technology.  The government launched a three-stage digital roadmap known as the Precision  Engineering Industry Digital Plan (IDP) to aid firms in the sector in identifying digital  solutions to be adopted at each stage of business growth in order to thrive in an  increasingly-digitalised world. In December, the Singapore Purchasing Managers' Index (PMI) registered a slight increase  of 0.1 point from November to record an expansion of 50.7, marking the 18th straight  month of expansion, albeit at a moderate pace as manufacturers remained wary of  production and logistics disruptions arising from the Omicron variant.  1 The percentage changes for the total number of tenancies of all industrial space in October and November 2021 are based on a two-month comparison; q-o-q (against  July and August 2021) and y-o-y (against October and November 2020).  In the fourth quarter, the island-wide  median rent of multiple-user factory  space increased by 1.6% q-o-q to  S$1.79 psf pm, posting a continued  q-o-q uptick in rental growth from Q3  (Exhibit 1). However, rental activity  declined slightly as the months of  October and November registered a  total of 1,628 tenancies, 10% lower than  the 1,809 rental transactions recorded  in July and August 2021. On a y-o-y  basis, this was nonetheless 4.2% higher  than the 1,562 tenancies signed in the  same period last year.  In light of the expanding small and  medium-sized enterprises (SME) in  Singapore, many have been on a  lookout for affordable industrial spaces  to locate their facilities. As such, this  steady demand contributed to the  increasing proportion of transactions  valued at less than S$10 million. In  Q4, out of the total 312 multiple-user  factory caveats lodged at an average price  of S$459 psf as at 31 December 2021,  about 99.4% of them were of smaller- sized deals that are characteristically  more palatable for this group.    Exhibit 2: Average Price of Multiple-User Factory Space by Balance  Tenure* &lt;= 30 Years 31 to 60 Years 61 to 99 Years Freehold &gt; 99 Years Average Unit Price (S$ psf) Source: JTC J-Space, Knight Frank Research Note: The average unit price is based on a four-quarter moving average of strata transactions.  * The balance tenure is based on the number of remaining years at the point of transaction. ** Q4 2021 data based on transactions downloaded as at 31 December 2021. $900 $800 $700 $600 $500 $400 $300 $200 $100 $0 Q1    Q2    Q3    Q4 2017 Q1    Q2    Q3    Q4 2018 Q1    Q2    Q3    Q4 2019 Q1    Q2    Q3    Q4 2020 Q1    Q2    Q3    Q4** 2021 Daniel Ding Head Capital Markets (Land &amp; Building, International Real Estate &amp; Industrial) +65 6228 6833 daniel.ding@sg.knightfrank.com Knight Frank Research Reports are available at knightfrank.com.sg/research Leonard Tay Head Research +65 6228 6854 leonard.tay@sg.knightfrank.com About Knight Frank Singapore Knight Frank LLP is the leading independent global property consultancy. Headquartered in London, Knight  Frank has more than 20,000 people operating from 488 offices across 57 territories. The Group advises  clients ranging from individual owners and buyers to major developers, investors and corporate tenants.  Knight Frank has a strong presence in Singapore with a head office and two subsidiaries: Knight Frank  Property Asset Management and KF Property Network. For further information about the Company, please  visit www.knightfrank.com.sg. (c) Knight Frank 2022 This report is published for general information only. Although high standards have been used in the  preparation of the information, analysis, views and projections presented in this report, no legal responsibility  can be accepted by Knight Frank Research or Knight Frank for any loss or damage resultant from the contents  of this document. As a general report, this material does not necessarily represent the view of Knight Frank  in relation to particular properties or projects. Reproduction of this report in whole or in part is allowed with  proper reference to Knight Frank Research. Contact us for insights, research and real estate opportunities. Market outlook Singapore remains a key location for post-pandemic manufacturing Nor Adila Rahim Senior Analyst Research +65 6228 6856  nor.adila@sg.knightfrank.com Recent Publications INDUSTRIAL Q3 2021  SINGAPORE VIEW 24TH EDITION The global pandemic has changed the nature of various human and economic  activities with a greater reliance on emerging technology coupled with an emphasis  on sustainability and the environment. As new products have been borne out of the  COVID-19 crisis stimulating the industrial sector, Singapore remains at the forefront  of this evolution with investment from multinational manufacturers. American life sciences company Labcorp launched a new bioanalytical lab facility as an  expansion of its central laboratory services in Jurong East, contributing to the capabilities of  Singapore's biomedical ecosystem. Besides Labcorp, Thermo Fisher Scientific, BioNTech,  Sanofi and GSK also announced investments in Singapore in the past two years. German multinational Siltronic broke ground on a new S$3 billion wafer manufacturing  facility at JTC's Tampines Wafer Fab Park. This is its biggest investment in its history  and its second 300mm fab in Singapore.  The manufacturing sector led Singapore's  economic recovery in 2021 as precision  engineering supported growth in multiple  downstream clusters such as biotechnology  and pharmaceuticals, together with the  electronics sector ramping up output due  to the global chip shortage. Should overall  recovery and health measures stay on the  current trajectory of transitioning into a  new norm, then barring any recurring  waves of infections or new variants, the  transport engineering sector might also  turn a corner in 2022 as more borders  open and travel volume improves. In the upcoming year, some 21.1 million  sf GFA of new space is projected to come  on stream across 2022, comprising 42.6%  of the total stock set to be completed from  Q4 2021 to 2025. As such, Knight Frank  envisages growth in the industrial sector  to continue in 2022, with investment  activity likely to be driven by end-users  looking for manufacturing facilities for their  own use as well as Grade A warehouses that  boast high-quality specifications which  facilitate growing supply chain demand.  The healthy demand and expanding  activity in the sector will support rent  and price increases of between 3% and  5% for the whole of 2022.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAR K E T B E AT -5.0 0.0 5.0 10.0 15.0 Multiple-User Factory Single-User Factory Warehouse Business Park Supply (msf) 2020 2021F 2022F 2023F 2024F Industrial Q3 2021 SINGAPORE $6.03 Business Park (City Fringe) $3.54 Business Park (Outlying Areas) $4.27 Science Park 2.3% Inflation Growth 14.7% Real GDP Growth 2.7% Unemployment Source: Ministry of Trade &amp; Industry (MTI),  Moody's Analytics  SINGAPORE ECONOMIC INDICATORS  Q2 2021 12-Mo. Forecast 12-Mo. Forecast A better-than-expected economic performance Singapore's economy grew by 14.7% yoy in Q2 2021, much faster than the 1.5% growth in the previous quarter. Growth was continuingly led by manufacturing sector that expanded by 17.7% yoy in Q2 2021. Overall unemployment rate has also improved, coming down from 3% for the whole of 2020 to 2.9% in Q1 2021 and 2.7% in Q2 2021. Amidst a strong global economic recovery and accelerated vaccination programmes in key advanced economies, the Ministry of Trade and Industry (MTI) on 11 August 2021 upgraded its GDP growth forecast range for 2021 to 6%- 7% from 4%-6% previously forecasted. Rents remained stable across most segments Based on C&amp;W's basket of industrial properties, rents of city fringe business park, prime logistics, warehouse and factory space remained stable in Q3 2021 as vacancy rates stayed tight alongside economic recovery. Science Park rents ($4.27 psf/mth) registered a rise of 0.5% qoq, extending the growth in the previous quarter. Similarly, high-tech rents continued to increase by 0.3% qoq in Q3 2021. COVID-19 could have accelerated the digital adoption by manufacturers and industrialists. This coupled with the government's push towards advanced manufacturing activities has supported demand for higher specification industrial developments. On the other hand, outlying business park rents ($3.54 psf/mth) fell by 0.9% qoq, weighed down by lower rents achieved by older developments. Nonetheless, the rates of rental decline have been moderated for the past two quarters of 2021 as compared to that in 2020, indicating that rents of outlying business park are likely to bottom out soon amid relatively limited supply of new business park space. Recovery is well underway Rental growth registered across different types of industrial properties in the first nine months of 2021 has reflected the expansion seen in the manufacturing sector - a key pillar of Singapore's economy. The ongoing global chip shortage could lead to semiconductor manufacturers being more confident in committing capital to increase production volumes, increasing demand for factory space. Increased flow of biotechnology investments into Singapore as well as possible expansion from technology and logistics firms, which have been riding well on the exponential growth in e-commerce and business digitalization, could drive up demand for high-tech and prime logistics space. In Q3 2021, healthy demand amid moderate supply of prime logistics space has further tightened their vacancy rates, which are anticipated to remain low in the upcoming quarters. On the other hand, despite expected robust demand, occupancy rates of factory space could come under pressure in the latter part of 2021 and 2022 given the influx of new multi-user factory stock coming onstream after the year-long construction delays. Nevertheless, sustained uptrend in factory rents is expected, albeit tempered, underpinned by strong manufacturing output growth and progressive re-opening of the economy. Similarly, city fringe business park and warehouse rents are projected to continue rising. E-commerce needs together with vaccine and food storage requirements remain as key demand drivers for warehouse and prime logistics space in the near future. INDUSTRIAL SUPPLY PIPELINE Rents (S$PSF/MO) MAR K E T B E AT Industrial Q3 2021 SINGAPORE SEGMENT GROSS EFFECTIVE RENT 12-MONTH OUTLOOK S$/SF/MO US$/SF/MO EUR/SF/MO Business Park (City Fringe) S$6.03 US$4.46 EUR3.81 Business Park (Outlying Areas) S$3.54 US$2.61 EUR2.23 Science Park S$4.27 US$3.15 EUR2.70 High-Tech S$3.14 US$2.32 EUR1.98 Factory - Ground Floor S$1.78 US$1.31 EUR1.12 Factory - Upper Floor S$1.60 US$1.18 EUR1.01 Warehouse - Ground Floor S$1.56 US$1.15 EUR0.98 Warehouse - Upper Floor S$1.27 US$0.93 EUR0.80 Prime Logistics - Ground Floor S$1.42 US$1.05 EUR0.90 Prime Logistics - Upper Floor S$1.27 US$0.93 EUR0.80 US$/S$ = 1.354; EUR/S$ = 1.583, as of 28 September 2021 PROPERTY SUBMARKET SELLER / BUYER PRICE (S$ Million) 28 Quality Road Boon Lay Pteris Global / LOGOS Property 49.7 LTH Building  Bukit Merah N.A. 40.1 MARKET STATISTICS PROJECT NAME SUBMARKET TENANT SF EXPECTED COMPLETION YEAR* CleanTech Three Jurong West - 665,000 2021 Surbana Jurong Campus Jurong West Surbana Jurong 445,000 2022 Perennial Business City Jurong East - 1,100,000 2022 Kajima Campus Changi Kajima 140,000 2023 Biopolis Phase 6 - Elementum one-north - 378,000 2023 Development at Science Park Science Park - 310,000 2024 Development at Science Park Science Park  - 1,200,000 2024 Punggol Digital District Punggol  - 2,440,000 2024 * Note: Project timeline might change due to the impact of COVID-19's restrictions on construction progress cushmanwakefield.com KEY SALES TRANSACTIONS Q3 2021 SIGNIFICANT BUSINESS PARK PROJECTS - PLANNED &amp; UNDER CONSTRUCTION WONG XIAN YANG Head of Research Singapore +65 6232 0885 / xianyang.wong@cushwake.com BRENDA ONG Executive Director Head of Logistics &amp; Industrial Services Singapore +65 6232 0878 / brenda.ong@cushwake.com A CUSHMAN &amp; WAKEFIELD RESEARCH PUBLICATION About Cushman &amp; Wakefield Cushman &amp; Wakefield (NYSE: CWK) is a leading global real estate services firm that delivers exceptional value for real estate occupiers and owners. Cushman &amp; Wakefield is among the largest real estate services firms with approximately 50,000 employees in over 400 offices and 60 countries. In 2020, the firm had revenue of US$7.8 billion across core services of property, facilities and project management, leasing, capital markets, valuation and other services. To learn more, visit : www.cushmanwakefield.com or follow @CushWake on Twitter. (c)2021 Cushman &amp; Wakefield. All rights reserved. The information contained within this report is gathered from multiple sources believed to be reliable. The information may contain errors or omissions and is presented without any warranty or representations as to its accuracy. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">knightfrank.com.sg/research Singapore Research Industrial Q3 2021 " " There are growing opportunities for expansion as industrial property owners restructure  and recycle capital, paving the way for the development of high-value-added facilities. STEADY INCREMENTAL IMPROVEMENT IN  THE INDUSTRIAL REAL ESTATE SECTOR DA N I E L  D I N G,  H E A D, CAP I TAL  MARKE TS (L A N D  &amp;  B U I LD I N G ,I N TE RNATI ONAL  RE AL  E STATE  &amp;  I N DU STRIA L) Based on the Ministry of Trade and Industry's (MTI) Q2 2021 economic survey, Singapore's  economy grew 14.7% year-on-year (y-o-y) in the second quarter of 2021. On a quarter-on- quarter (q-o-q) seasonally-adjusted basis, Singapore's economy actually contracted by  1.8% in Q2 2021, compared to the 3.3% q-o-q expansion recorded in the first quarter of  2021. Manufacturing continued to drive the recovery in Singapore, as semiconductor  manufacturers and sub-contractors supporting electronics firms reaped the benefits of  the global chip shortage. The precision engineering and electronics clusters recorded  24.3% and 18.3% y-o-y growth respectively. These numbers were overshadowed by the  impressive growths seen in the transport engineering and chemicals clusters, which  recorded 29.6% and 20.1% y-o-y growth respectively, although this was largely the result  of the low base effects in 2020. In September, the Singapore Purchasing Manager's Index (PMI) recorded an expansion  of 50.8 representing 15 consecutive months of expansion for the industrial sector, but a  slight decline from the two-year high of 51.0 recorded in July.  1 The percentage changes for the total number of tenancies of all industrial space in July and August 2021 are based on a two-month comparison; q-o-q (against April and May  2021) and y-o-y (against July and August 2020). MARK E T  SNAPSH OT 2 ,412  LEASES 4.2%     Q-O-Q | 19.6%     Y-O-Y NUMBER OF INDUSTRIAL TENANCIES1 S$59 2 .1  MILLION -35.8%     Q-O-Q | -35.5%     Y-O-Y TOTAL INDUSTRIAL SALES 53.0 MILLION SF GFA UPCOMING NEW SUPPLY (Q3 2021 TO 2025) Manufacturing sector going strong Median rents turned the corner in Q3 2021 In Q3 2021, the island-wide median rent of multiple-user factory space grew for the first  time in two-years, expanding by 1.6% q-o-q to reach S$1.80 per square foot per month  Continued on next page (psf pm) (Exhibit 1). Monthly rental  activity remained strong, recording  a total of 1,809 rental transactions  in July and August, representing an  increase of 14.7% y-o-y from the 1,577  rental transactions in the same period  last year, and a marginal increase of  0.4% from the 1,801 transactions in  April and May 2021. Transactional activity in the multiple- user factory segment hit a lull in Q3  2021, with transactions totalling some  S$309.5 million, led by the S$11 million  sale of a 10,000-sf freehold strata unit  in Ann Chuan Industrial Building.  Prices generally remained stable in Q3  2021, averaging about S$414 psf on the  back of sustained industrial activity  (Exhibit 2).  Although recent transactions have  generally comprised properties with  smaller quantums, more sizable deals  are in the works. According to the  Knight Frank Capital Markets team,  larger sellers are taking advantage  of  improving  industrial  market  sentiments to carry out previously  planned asset disposals, using the  opportunity to liquidate underutilised  industrial  properties.  Despite  the  uptick in interest, it might take  some time for such transactions to  be reflected as these typically take  around 10 to 12 months to complete. Exhibit 1: Leasing Volume and Median Rent of Multiple-User Factory  Space Number of Leasing Transactions Rent (S$ psf pm) Source: JTC J-Space, Knight Frank Research Note: The median rent is based on a four-quarter moving average. *Q3 2021 data based on July and August 2021 data as at end-September. $1.20 $1.30 $1.40 $1.50 $1.60 $1.70 $1.80 $1.90 $2.00 0 500 1,000 1,500 2,000 2,500 3,000 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4   Q1 Q2 Q3 Q4 Q1 Q2 2016 2017 2018 2019 2020 2021 Number of Tenancies Median Rent Q3* Daniel Ding Head Capital Markets (Land &amp; Building, International Real  Estate &amp; Industrial)  +65 6228 6833 daniel.ding@sg.knightfrank.com Leonard Tay Head Research +65 6228 6854 leonard.tay@sg.knightfrank.com Exhibit 2: Average Price of Multiple-User Factory Space by Balance  Tenure* $900 $800 $700 $600 $500 $400 $300 $200 $100 $0   &lt;= 30 Years 31 to 60 Years 61 to 99 Years Freehold &gt; 99 Years Q1 Q2 Q3 Q4 2016 Q1 Q2 Q3 Q4 2017 Q1 Q2 Q3 Q4 2018 Q1 Q2 Q3 Q4 2019 Q1 Q2 Q3 Q4 2020 Q1** 2021 Price (S$ psf) Source: JTC J-Space, Knight Frank Research Note: The average unit price is based on a four-quarter moving average of strata transactions.  *The balance tenure is based on the number of remaining years at the point of transaction. **Q3 2021 data based on transactions downloaded as at 1 October 2021. Knight Frank Research Reports are available at knightfrank.com.sg/research (c) Knight Frank 2021 This report is published for general information only. Although high standards have been used in the  preparation of the information, analysis, views and projections presented in this report, no legal responsibility  can be accepted by Knight Frank Research or Knight Frank for any loss or damage resultant from the contents  of this document. As a general report, this material does not necessarily represent the view of Knight Frank  in relation to particular properties or projects. Reproduction of this report in whole or in part is allowed with  proper reference to Knight Frank Research. About Knight Frank Singapore Knight Frank LLP is the leading independent global property consultancy. Headquartered in London, Knight  Frank has more than 20,000 people operating from 488 offices across 57 territories. The Group advises  clients ranging from individual owners and buyers to major developers, investors and corporate tenants.  Knight Frank has a strong presence in Singapore with a head office and two subsidiaries: Knight Frank  Property Asset Management and KF Property Network. For further information about the Company, please  visit www.knightfrank.com.sg. Contact us for insights, research and real estate opportunities. Market outlook In accordance with the government's bid to produce 30% of Singapore's nutritional  needs domestically, further investments were made in the domestic food and agri- tech industries. In September, top Japanese egg producer ISE Food Holdings signed  a memorandum of understanding with the Singapore Food Agency to invest S$100  million to build Singapore's fourth egg farm. Construction is expected to begin in  2022, with facilities progressively opening from 2024 onwards.  Alternative protein production also continued to gain traction in Singapore in Q3. Esco  Aster, a Singaporean contract development and manufacturing organisation, gained  approval and started production of cell-cultured chicken at their Ayer Rajah Crescent  facility in July. In the same vein, Chinese biotech firm Avant announced the development  of a pilot production facility for cultivated fish cells in September. The research laboratory  will be located in Biopolis and is expected to begin operations by 2022. Growing food in urban Singapore Sustained  demand  for  pandemic- era goods, such as bio-technology  components, healthcare and sanitary  goods,  as  well  as  electronics  components for the pandemic-induced  digital transformation, will continue to  draw high-value-added manufacturing  investment to Singapore.  While  the  amount  of  upcoming  industrial space has dropped to 53.0  million sf gross floor area (GFA) by end  2025, new supply remains substantial,  with 18.8 million sf GFA and 17.3 million  sf GFA expected to complete in 2021  and 2022 respectively. Nevertheless,  healthy sustained demand and strong  global  manufacturing  investment  interest should allow rents to increase  moderately between 1% and 3% for the  whole of 2021 as expected. As Singapore  stabilises from the fallout of the  pandemic, factory prices and rents could  potentially increase by 3% to 5% in 2022. $0 $100 $200 $300 $400 $500 $600 $700 $800 $900 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 2016 2017 2018 2019 2020 2021 Benedict Yeo Executive Research +65 6228 6837 benedict.yeo@sg.knightfrank.com Recent Publications INDUSTRIAL Q2 2021  SINGAPORE VIEW 24TH EDITION Q3** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 savills.com.sg/insight-and-opinion/ MARKET IN MINUTES Savills Research Industrial Rental growth across all segments Savills plc Savills is a leading global real  estate service provider listed on  the London Stock Exchange. The  company established in 1855, has  a rich heritage with unrivalled  growth. It is a company that leads  rather than follows, and now has  over 600 offi   ces and associates  throughout the Americas, Europe,  Asia Pacifi  c, Africa and the Middle  East. This report is for general  informative purposes only. It may  not be published, reproduced or  quoted in part or in whole, nor may  it be used as a basis for any  contract, prospectus, agreement  or other document without prior  consent. Whilst every eff  ort has  been made to ensure its accuracy,  Savills accepts no liability  whatsoever for any direct or  consequential loss arising from its  use. The content is strictly  copyright and reproduction of the  whole or part of it in any form is  prohibited without written  permission from Savills Research. Simon Smith Regional Head of  Research &amp; Consultancy,  Asia Pacifi  c +852 2842 4573 ssmith@savills.com.hk Alan Cheong Executive Director  Singapore +65 6415 3641 alan.cheong@savills.com.sg RESEARCH Gradual recovery expected in the industrial sector. "  The growth of emerging  industries together with  global supply chain  bottlenecks are buttressing  the sector." ALAN CHEONG, SAVILLS RESEARCH *   Leasing activity reached a peak in Q3/2021, with total  leasing volume rising 13.9% year-on-year (YoY) to 3,423. *   Savills' average monthly rent for prime multiple-user  factories registered a third consecutive quarterly increase  of 1.7% quarter-on-quarter (QoQ) to S$1.77 per sq ft.  Almost similar to what transpired in Q2/2021, Savills'  average monthly rent for prime warehouse and logistics  properties inched up by 0.3% QoQ to S$1.44 per sq ft. *   Sales volume increased by 3.7% QoQ to 472, bringing the  total number of caveats to 1,387 for the fi  rst three quarters.  This has already surpassed the annual average of 1,206 for  the last three years. *   Savills' basket of industrial properties showed that prices  for freehold properties increased at a faster rate of 0.6%  QoQ to S$710 per sq ft in Q3/2021. *   From Savills' basket of industrial properties, 60-year leasehold  prices rose by 1.0% QoQ to S$438 per sq ft. Compared with  Q2/2021, Savills' basket of leasehold industrial properties  showed that prices for 30-year leasehold properties remained  almost unchanged with a 0.1% rise to S$292 per sq ft in Q3. *   Rents in the older business park clusters showed signs  of bottoming out, with Savills' standard business park  properties monthly rents recovering by 0.5% QoQ to S$3.99  per sq ft in Q3. Savills' prime business park monthly rents  went up by 0.7% QoQ to S$5.80 per sq ft in Q3. *   The average monthly rent for Savills' high-spec industrial  basket rose by 0.8% QoQ to S$3.51 per sq ft. *   Strong growth in the biomedical and digital  transformation industries, together with global supply  chain bottlenecks are expected to increase rents, prices  and occupancy rates in industrial, logistics and prime  business park space in 2022. Christopher J Marriott CEO, Southeast Asia  +65 6415 3888 cjmarriott@savills.asia SINGAPORE Please contact  us for further  information Savills team MCI (P) No. 037/03/2021 Company Reg No. 198703410D Sharon Teo Managing Director Singapore +65 6415 3288 sharon.teo@savills.com.sg Singapore - November 2021 2 savills.com.sg/insight-and-opinion/ MACROECONOMIC OVERVIEW According to advanced estimates released  by the government, Singapore's economy  expanded 6.5% YoY in Q3/2021, moderating  from the strong rebound of 15.2% in Q2.  For the quarter in review, even though  all industries registered YoY growth,  momentum eased across the board. The  manufacturing sector grew by 7.5% YoY  in Q3, down from 18.0% YoY in Q2. The  electronics and precision engineering  clusters remained the main drivers,  supported by sustained global demand  for semiconductors and semiconductor  equipment. The growth in Singapore's manufacturing  activity also slowed slightly in August and  September, with the Purchasing Manager's  Index (PMI) falling from 51.0 in July to 50.8 in  September. Nonetheless, Singapore's factory  sector has remained in positive territory for  15 consecutive months, owing to the resilient  electronics sector. Singapore exports rose  for a 10th straight month in September, up by  12.3% from a year ago. The growth was led by  the petrochemicals, specialised machinery  and pharmaceutical segments. RENTAL MARKET The leasing market saw its highest level of  activity in Q3/2021, with total leasing volume1  rising 13.9% YoY to 3,423. The number  of leases increased across all segments,  especially for single-user factory (+77.8%  YoY) and warehouse spaces (+21.7% YoY).  Even though there was greater buying  interest for single-user factory facilities for  own use, leasing deals continued to climb in  Q3 as there is still some mismatch between  buyers and sellers' price expectations. The  warehouse segment also saw strong take- up from industries such as ecommerce,  electronics and third-party logistics. Despite  a slower growth (+8.1% YoY) compared  with other segments, the number of  tenancies for multiple-user factory units is  still on the high side. This was largely led  by digital and creative businesses which  are expanding their real estate footprint,  as well as small and medium-sized  enterprises in agricultural, plastic and metal  manufacturing businesses.  In terms of physical occupation, arising  from new completions in the West Planning  Region, the vacancy rate for single-user  factory space rose 0.2 of a percentage point  (ppt) QoQ to 9.3% in Q3. However, with a  relatively stable net take-up of 1.1 million sq  ft, vacancy for multiple-user factories slipped  by 0.1 of a ppt QoQ to 10.2%, the lowest  since Q3/2013. For the warehouse segment,  occupier demand in the West Planning  Region remained healthy, with larger fi  rms  taking up signifi  cant space in Tuas due to a  lack of ready-built ramp-up facilities in other  1   Based on JTC's rental data (excluding business park  spaces, only comprises single- and multiple-user factory as  well as warehouse spaces). parts of the island. Despite an addition of  111,000 sq ft of new warehouse stock in the  region, vacancy in the West Planning Region  managed to ease 0.3 of a ppt QoQ to 9.8% in  Q3. The vacancy rate in the East Planning  Region also fell 1.1 ppt QoQ to 7.8% in Q3,  the lowest since Q1/2016. This was attributed  to strong take-up from warehousing and  logistics needs arising from ecommerce and  consolidation of supply chains. Compared with Q2, industrial rents  continued to post positive growth in Q3/2021.  Savills' average monthly rent for prime  multiple-user factories2 registered a third  consecutive quarterly increase of 1.7% QoQ to  S$1.77 per sq ft. After witnessing no growth  in Q2, Savills' average monthly rent for prime  warehouse and logistics3 properties inched up  by 0.3% QoQ to S$1.44 per sq ft, reaching its  highest level since Q3/2014. SALES MARKET After some signs of slowing down in the  fi  rst half of this year, strata industrial sales  activity started to pick up momentum in Q3.  Sales volume4 increased by 3.7% QoQ to 472,  bringing the total number of caveats to 1,387  over the fi  rst three quarters. This has already  surpassed the annual average of 1,206 for the  last three years. The sales growth could be  backed by buyers who are keen to purchase  private properties as they do not have to go  through stringent application procedures  with JTC when buying public industrial  properties. Moreover, they are also looking  for capital appreciation potential from private  property acquisition as these properties  generally have longer lease tenures than JTC  properties, with some even being freehold.  Sales activity for multiple-user factory and  warehouse spaces continued to pick up in Q3,  rising by 4.6% and 35.7% QoQ respectively.  While demand in the Central and North  Planning Region stayed strong, there was  an uptick in sales demand for multiple-user  factory in the West Planning Region after  a decline in the previous quarter. For the  warehouse segment, most users within the  West Planning Region tend to lease as they  usually require large ramp-up facilities which  are limited in the sales market. As such, the  majority of the warehouse sales demand came  from the Central Planning Region where  smaller warehouse spaces are required for  last mile delivery services. Interested buyers  for single-user factories are still on the  lookout, but very few translated into actual sales because of the price gap between buyers  and sellers. As such, the sales volume for  single-user factory spaces continued to fall by  34.4% QoQ in Q3.  2   Based on Savills basket of private multiple-user factory  properties which ranges from 1,000 sq ft to 3,000 sq ft in  size, with an average monthly asking rent of at least S$1.50  per sq ft. 3   Based on Savills basket of private multiple-user warehouse  properties which ranges from 2,000 sq ft to 80,000 sq ft in  size, with an average monthly asking rent of at least S$1.40  per sq ft. 4   Based on JTC's sales caveat data, downloaded on 15  November 2021. GRAPH 1: Factory and Warehouse Leasing Volumes,  2011 to Q3/2021 1,138  1,480  1,513  1,752  1,868  1,768  1,794  2,345  2,417  2,434  2,950  1,390  1,732  1,981  2,129  2,317  2,285  2,401  2,702  2,883  2,353  3,381  1,543  1,611  2,070  2,060  2,031  2,130  2,358  2,543  2,679  3,005  3,423  1,504  1,613  2,071  2,071  1,921  1,962  2,331  2,564  2,486  2,913  0 2,000 4,000 6,000 8,000 10,000 12,000 NO. OF TRANSACTIONS Q1 Q2 Q3 Q4 Source JTC, Savills Research &amp; Consultancy GRAPH 2: Prices of Upper-Storey Strata Factory and  Warehouse Units, Q1/2015 to Q3/2021 250 300 350 400 450 500 550 600 650 700 750 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 2015 2016 2017 2018 2019 2020 2021 S$ PER SQ FT Freehold 60-year leasehold 30-year leasehold Source JTC, Savills Research &amp; Consultancy GRAPH 3: Business Park Space Vacancy Rates, 2016 to Q3/2021 0 10 20 30 40 50 60 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 2016 2017 2018 2019 2020 2021 % Islandwide Mapletree Business City &amp; Science Park one-north Cleantech Park Source JTC, Savills Research &amp; Consultancy Industrial 3 savills.com.sg/insight-and-opinion/ While most sellers of freehold properties  are holding fi  rm on asking prices, some  buyers are beginning to give in. As a result,  Savills' basket of leasehold industrial  properties showed that prices for freehold  properties increased at a faster rate of 0.6%  QoQ to S$710 per sq ft in Q3. From Savills'  basket of industrial properties, 60-year  leasehold prices rose by 1.0% QoQ to S$438  per sq ft. For the quarter in review, this was  because sellers are more willing to negotiate  prices before their leases deplete further,  and buyers are looking for good deals with  reasonable remaining leases. Compared with  Q2, Savills' basket of leasehold industrial  properties showed that prices for 30-year  leasehold properties remained stable with a  0.1% increase to S$292 per sq ft in Q3. BUSINESS PARK AND HIGH-SPEC  INDUSTRIAL Arising from the tight supply and steady  demand in the Mapletree Business City and  one-north regions, the vacancy level for  business park space in the Central Planning  Region eased by 0.7 of a ppt in Q2 to 10.2%  in Q3. As a result of improving occupancy  levels, prospective tenants are accepting  higher rents for these prime locations,  driving Savills' prime business park5 monthly  rents up by 0.7% QoQ to S$5.80 per sq ft in  Q3. After registering a record high vacancy  level of 18.7% in Q2 due to a dip in demand  in Changi Business Park, vacancy in the East  Planning Region remained almost unchanged  at 18.6% in Q3. On the other hand, vacancy  in the West Planning Region spiked from  25.1% in Q2 to 30.0% in Q3. Even though  vacancy for International Business Park only  saw a marginal increase of 0.2 of a ppt QoQ  to 25.5%, the addition of new stock from  the newly completed Cleantech Three put  pressure on the overall occupancy in the  West. Nonetheless, rents in the older business  park clusters are starting to show signs of  bottoming out, with Savills' standard business park properties6 monthly rents recovering by  0.5% QoQ to S$3.99 per sq ft in Q3.  Overall sentiment remained mixed in  the high-spec industrial leasing market. In  the face of the accelerated pace of digital  transformation, there is still demand from  technology fi  rms, as well as creative agencies  which support ecommerce activity. However,  as Grade B offi   ce rents have reached a level  where the rental gap between them and  prime high-spec industrial spaces have  narrowed considerably, more businesses that  need quality spaces with a central location  to maintain their corporate image are  considering moving to Grade B offi   ces. While  landlords of prime high-spec industrial  5   Based on business park-zoned spaces in the newer  clusters which range from 1,000 sq ft to 5,000 sq ft in size,  with an average monthly asking rent of at least S$5.50 per sq  ft. 6   Based on business park-zoned spaces in the older clusters  which range from 1,000 sq ft to 5,000 sq ft in size, with an  average monthly asking rent of at least S$3.50 per sq ft. spaces who have maintained their rental  expectations (high-S$4 psf per month) faced  slow take-up, owners of less prime or older  high-spec industrial spaces who are willing  to off  er more aff  ordable rents (around S$3  psf per month) continue to register good  take-up. Nevertheless, selected developments  have been attracting healthy demand and  driving overall rental growth. In the reviewed  quarter, the average monthly rent for Savills'  high-spec industrial basket7 went up by 0.8%  QoQ to S$3.51 per sq ft. Having inserted  the recently completed 351 on Braddell  development into Savills' high-spec industrial  basket, monthly rents increased by 1.7% QoQ  to S$3.54 per sq ft in Q3.  OUTLOOK The outlook of the industrial and logistics  market will be impacted by micro and  macro events. The former involves emerging  industries which are taking root here.  Notwithstanding the surge in supply in  2022, the overall occupancy rate is likely  to stay unchanged as the increase could  be matched by strong demand from these  industries. Especially with a greater  emphasis on healthcare, technology and  digital transformation, new economy sectors  such as biomedical sciences, digital and  technology, continue to expand in Singapore.  The vacancy level in areas like one-north are  likely to remain tight with demand coming  from companies engaged in technology  and biomedical research and development  (R&amp;D). This has not gone unnoticed amongst  landlords and 1 Science Park Drive is set  to be redeveloped into a life science and  innovation campus. Scheduled to complete by  Q2/2025, the new campus will comprise three  interconnected Grade 'A' buildings with over  1.2 million sq ft of new business park space.  Around 860,000 sq ft, accounting for 71% of  the total business park space, will be allocated  for wet labs to accommodate biomedical R&amp;D  activities. Going forward, rents for prime  business park space are likely to be lifted  upon completion of such rejuvenation of older business park developments.  On the macro front, while the disruptions  wrought by SARs-CoV-2 continue to affl   ict  the offi   ce, retail and hospitality sectors,  industrial and warehousing continue to  push against the tide of negativism. In fact,  the uncertainty levels across many of the  economic sectors are benefi  tting these  sectors. In the quarters ahead, the ramping  up of economic activity in major commodity  producing and manufacturing export  powerhouses will continue to be plagued by supply chains problems. The supply side  struggles to sate the demand for consumer  goods which are continuing to break records  as developed economies begin unlocking  themselves from a prolonged period of  7   Based on offi   ce-like industrial space which ranges from  2,000 sq ft to 4,000 sq ft in size, with an average monthly  asking rent of at least S$3 per sq ft. GRAPH 4: 40' Container Global Freight Rate in USD,  2019 to September 2021 0 2,000 4,000 6,000 8,000 10,000 12,000 Source Statista; Savills Research &amp; Consultancy GRAPH 5: A Sample of Prices of Major Industrial  Production Inputs, 2019 to 15 October 2021 0 50 100 150 200 250 300 350 HRC WTI Crude Philadelphia Semiconductor Source Daiwa Securities, Bloomberg, Savills Research &amp; Consultancy GRAPH 6: US Weekly M2 Money Supply, 2019 to 6  September 2021 10,000 12,000 14,000 16,000 18,000 20,000 22,000 US$ BILLIONS Source US Federal Reserve, Savills Research &amp; Consultancy Industrial 4 savills.com.sg/insight-and-opinion/ prohibition. During the period of pandemic  isolation, consumers got addicted to ecommerce,  spurring demand for consumption goods.  Within the supply chain industry, issues ranged  from crews of container ships suff  ering from  burn out syndrome having remained for months  onboard container carriers and prevented  from on-shore visits due to strict pandemic  measures; major ports becoming choke points  as they lacked the effi   ciencies of the Amazonian  order taking-distribution process during a time  when ecommerce is experiencing exponential  growth; modern container ships are now two or  three times bigger than they were 10 to 15 years  ago, creating a chokepoint during offl   oading; a  shortage of truck drivers and a bunching up of  containers in inland depots or stacking up at  cargo ports. This year's Black Friday (November 26) and the year-end festive season will  compound the COVID induced logjam further.  That is not the end of the story. The rollout of new  consumer products has driven up the demand for  semiconductors. Before the start of the pandemic,  the world was already in a tech boom. The strict  lockdown measures in 2020 and 2021 threw both  supply and demand badly off   kilter. Across the board, primary and secondary inputs to the manufacturing process are seeing sharp  increases in prices. Graphs 4 and 5 show that  from the shipping cost of a 40-foot container  to semiconductor prices, since 2019, all have  increased substantially. Even crude oil prices  are about 50% higher than they were at the start  of 2019. For gains like wheat and corn, although  global prices are not at record levels, they are  closing in on their respective seven to eight-year  highs. Today, both supply chain and semiconductor  industry experts appear to hold the view that chaos  in their respective markets will only be resolved by  early-2023. The upshot of this logjam is infl  ation  and how long this will last will have a direct  impact on our industrial and warehousing sectors.  Infl  ation is given a boost when in the US, money  supply growth is still at rates signifi  cantly higher  than pre-pandemic times (please refer to Graph  6). Also, consumer credit there has been rising  strongly on an annual basis with no signs of a let up  in demand because salaries in Q3/2021 increased  by 1.5% QoQ, the highest in 20 years. Nevertheless, it must be added that while  demand in developed economies is growing,  the constraints are building to a point where it  has begun to hinder expansion. This would cap  global GDP growth. However, even if economic  growth tapers, it may not impact the industrial  and logistics sector globally because the need  to stockpile has become paramount. The same  is true for Singapore but the reason has a slight  twist. The litany of problems confronting major  economies originated from the large production  and end-demand countries, for example US  consumer demand shot up due to pent up demand  as states started to loosen movement restrictions,  ports and semiconductor plants shut down during  the pandemic etc. Their impact on Singapore  is one where businesses supply to the domestic  market needs to take account of the uncertainties  surrounding supply and prices. The need to  smooth over supply hiccups and combat infl  ation  should therefore lead to greater demand for  warehouse space.  If infl  ation becomes endemic, besides hedging  against future price increases by stockpiling  merchandise, expect businesses to also attempt  PERIOD YoY % CHANGE IN MULTIPLE-USER  FACTORY RENTS YoY % CHANGE IN WAREHOUSE &amp;  LOGISTICS RENTS 2021F 2.5% to 4.5% 1.0% to 3.0% 2022F 1.0% to 2.0% 1.0% to 3.0% TABLE 1: Rental Forecast For Multiple-User Factory And Warehouse &amp; Logistics Segments Source Savills Research &amp; Consultancy to profi  teer by building in anticipatory price  increases. However, for the next one to two  quarters, the impact of infl  ation on rents is not  one-one because the ability of tenants to pay much  higher rents is still weak. It is weak because the  delays in meeting production or construction  deadlines plus rises in material prices cannot be  fully passed through to the customer because  many are caught in contracts signed during pre- COVID days which have limited scope to adjust  for cost variations. Beyond that, businesses which  made it through these tough times, will be those  which are stronger and have a better ability to pay  higher rents. On the capital markets side, sellers may  withdraw from the market as they may fi  nd  replacement premises coming at a higher price or  rent and this would move prices of industrial and  warehousing space up. In view of the dynamics  surrounding the rental and capital markets,  we are forecasting rents in 2022 to rise by 2.0%  to 3.0% with capital values rising between 3.0%  to 5.0%. Warehousing space would see rental  increases clustered around the higher end of the  range and buildings with longer land lease terms  remaining experiencing greater price appreciation. In summary, because both micro and macro  forces are looking down favourably on the  industrial and logistics sectors, the downside risk  in 2022 is reduced considerably. Table 1 shows the  forecast of rents for the market. Industrial </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source: Colliers. Note: USD1 to SGD1.3444 as of 30 June 2021. 1 sq m = 10.7639 sq ft. "pp" refers to percentage point. Demand and supply on a net lettable area basis. Rental values refer to warehouse-logistics rents. Yields refer to industrial properties with 30-year land leases. Total net absorption grew 58.4% HOH to 5.5 million  sq ft in H1 2021, driven by an increase in demand for  factories. We remain optimistic on the sector in 2021  as the manufacturing sector continues to recover.  Planned supply for 2021 remains high at 1.6x the 10- year historical average, 69% of which comes from  factories, although construction delays could  potentially avert an oversupply situation.  We forecast warehouse-logistics rent to grow 1.3% in  2021 on sustained demand from e-commerce growth.  Rents of other industrial segments should also  recover along with the economic recovery.  We expect overall industrial vacancy rates to rise in  2021 from higher planned factory supply. Vacancy  could improve from 2023 onwards as supply tapers  off. We expect overall capital values to remain stable,  possibly rising for selected prime data centres and  logistics properties, due to rising rents. Long term  average yields should remain stable at 6.0%. H1 2021 QOQ /  End H1 2021 Full Year 2021 YOY /  End 2021 2021-25  Annual Average Annual Average  Growth 2021-25  /End 2025 SGD1.22 SGD1.23 SGD1.28 -0.2% 1.3% 1.0% 5.5mn sq ft 11.1mn sq ft 10.6mn sq ft 5.4mn sq ft 21.3mn sq ft 12.3mn sq ft 9.9% 11.5% 10.4% -0.2pp 1.4pp -0.1pp 6.0% 6.0% 6.0% 0pp 0pp 0pp Singapore's industrial property  market continued its recovery into  H1 2021, with the JTC rental and price  indices increasing 1.1% HOH and  2.7% HOH respectively. Our outlook  for H2 2021 remains optimistic, as we  forecast Warehouse rents to  outperform, growing 1.3% YOY in  2021 on sustained demand driven by  e-commerce growth.  Investor demand for industrial assets  remains strong, particularly for Hi- specs space, Factories and  Warehouses. Notably, Single-user  factory transactions surged 214%  HOH by value.  Occupancy edged up 0.2 ppt to  90.1%, led by Multi-user factories  despite a surge in supply (8.5x HOH). We recommend landlords adopt  Industry 4.0 and remodel to higher  specifications while being more  flexible in lease negotiations. Insights &amp; Recommendations Vacancy Capital Values/ Yields  Rent Demand Supply Colliers Semi-Annual  |  Industrial  |  Singapore  | 18 August 2021 Singapore Industrial: Staying ahead Colliers Semi-Annual Industrial  |  Singapore  | 18 August 2021 21.3 14.7 5.3 7.8 12.3 0 10 20 30 2021F 2022F 2023F 2024F 2025F Estimated NLA  (mil sq feet) Multiple-user Factory Single-user Factory Business Park Warehouse 2 Continued resilience in the industrial market Based on advanced estimates from the Ministry of Trade and Industry (MTI),  Singapore's economy jumped 14.3% YOY in Q2 2021 owing to favourable base  effects due to the circuit breaker from 7 April to 1 June 2020. Manufacturing  continued to outperform in Q2 2021, expanding by 18.5% YOY, with growth  supported by output expansions in all clusters except for the biomedical  manufacturing cluster. Over the next 10 years, Singapore intends to grow its  manufacturing sector by 50%, maintaining its contribution at about a fifth of  economic output over the medium term. According to Colliers' research, average monthly industrial gross rents declined 0.4%  HOH in H1 2021, as supply jumped 8.5x HOH. Warehouse rents did well rising 0.7%  HOH to SGD1.22 (USD0.91) per sq ft, while Business Park rents weakened 1.2% HOH  after being the most resilient segment in 2020. Based on data from JTC, all- industrial occupancy improved marginally by 0.2ppts to 90.1% in H1 2021, led by  Multi-user factories which saw occupancy rise 1.2ppts HOH to 89.7%, while all other  segments saw a drop in occupancy as landlords prioritised rents over occupancy  amid a recovery.  As supply completions gain momentum, 2021 supply, 69% of  which is factory space, looks abundant at 21.3 million sq feet (2.0 million sq metres)  barring further construction delays. This is equivalent to 1.6x the 10-year historical  average as factory supply is scheduled to increase 5.1x YOY. As such, we expect all- industrial vacancy to rise 1.4 ppt to 11.5% by end of 2021. Recovery underway in 2021 In 2021, we expect the industrial sector to recover along with the overall economy,  with Oxford Economics forecasting GDP growth of 6.4% in 2021. We forecast  sustained warehouse demand to drive 1.3% YOY rental growth, the highest among  all segments, led by ramp-up logistics space. Business Park and Factory rents could  rise at a slower rate of 0.5% YOY and 0.7% YOY respectively given ample supply. We  expect rents of hi-specs space to grow 0.8%, supported by the technology sector.  All-industrial new supply, new demand &amp; vacancy rate Colliers average  monthly industrial  gross rents declined  0.4% HOH in H1 2021  due to higher supply,  but Warehouse rents  did well rising 0.7%  HOH.   In 2021, we expect a  recovery in the  industrial sector along  with the overall  economic rebound,  with Warehouse rents  growing the most at  1.3% YOY. Upcoming new supply by type Average monthly gross rents (SGD per sq ft) and HOH change (%) 0% 5% 10% 15% 0 5 10 15 20 25 2009 2010 2011 2012 2013 2014 2015 2016 2017 2018 2019 2020 2021F 2022F 2023F 2024F 2025F Vacancy Rate Net floor area (mil sq feet) Net New Supply Net New Demand Vacancy Rate (RHS) Source: Colliers, JTC.  Independent High-Spec refers  to top quality modern, multi- level, multi-tenanted space that  includes the latest or recent  generation of building services,  prestigious lobby finish and  good views, located outside of  science parks and business  parks. Warehouse rents refer  to average of ramp-up and  cargo lift warehouses rents. Business Park Independent  High-Spec Factory Warehouse  Logistics  4.31 4.26 2.91 2.91 1.64 1.65 1.22 1.22 (+0.7%) (-1.2%) (+0.5%) (-0.2%) H2 2020 H1 2021 Colliers Semi-Annual Industrial  |  Singapore  | 18 August 2021 3 Industrial assets remain in demand According to JTC, the overall industrial price index increased by 2.7% HOH in H1  2021, led by Single-user factories (+3.1% HOH). Notably, transactions of Single-user  factories, a laggard in H2 2020, jumped 214% HOH in value and 50% HOH in  number of caveats, reflecting some pent-up demand. Meanwhile, Multi-user  factory median prices declined 2.7% HOH in H1 2021 to SGD392 (USD292) per sq ft  while that of warehouses declined 2.2% YOY to SGD528 (USD393) per sq ft.  Interest for industrial assets from property funds and REITs continues, particularly  in Hi-specs space, Factories and Warehouses. There were a few major deals  transacted in H1 2021, including the establishment of Boustead Industrial Fund  and Ascendas REIT's purchase of a 75% stake in Galaxis. According to Colliers  Valuation and Advisory Services (CVAS) team, cap rates for Singapore industrial  properties remained unchanged in H1 2021, at 5.75-6.25%.  Source: Colliers International, JTC. Note: Business 1 (B1) zoning is intended for light and clean use. Business  2 (B2) zoning may be used for heavy industries that have a greater environmental impact. Price index of multiple-user factory by zoning and remaining tenure The price index for  Single-user factories  rose 3.1% HOH in H1  2021 on the back of a  strong surge in  transactions. Industrial assets such  as hi-specs space,  factories and  warehouses continue  to be in demand, while  net yields remained  stable at 5.75-6.25%.  85.3 82.8 97.6 93.3 78.2 70 80 90 100 110 2014 2015 2016 2017 2018 2019 2020 Q1 2021 Q2 2021 Price Index (Q4 2012 = 100) &lt;= 30 Years 31 - 60 Years &gt; 60 Years Business 1 Business 2 Stock and vacancy by planning regions as of June 2021, and selective recent completions and future supply Source: Colliers, JTC. Note: Figures on the map refer to existing stock and vacancy across all industrial property types in each region. TOP = Temporary Occupation Permit.  76.1 million sq ft 8.7% vacancy Legend Major developments completed in 2020-21 Major developments in the pipeline 37.0 mn sq ft 9.3% vacancy 79.0 mn sq ft 8.2% vacancy 258 million sq ft 10.2% vacancy 93.0 million sq ft 12.0% vacancy JTC Defu Industrial City Est. TOP 2021 | 3.51 mil sq ft GFA | Multi-user factory Defu South Street 1 | Developer: JTC JTC Bedok Food City TOP Q2 2020 | 1.1 mil sq ft GFA | 1550 Bedok North Avenue 4 | Developer: JTC Corporation Business park development Est. TOP 2024 | 2.27 mil sq ft GFA | Punggol Way | Developer: JTC Bulim Square Est. TOP 2024 | 1.72 mil sq ft GFA | Multi-user factory Bulim Lane 1/2 | Developer: JTC Single-user factory 477,700 sq ft TOP Q2 2021 | Total: 1.29 million sq ft GFA |   1 Lok Yang Way | Developer: Google Asia Pacific Pte Ltd Single-user factory development Est. TOP 2024 | 1.84 mil sq ft GFA | Sunview Way | Developer: Malkoha Pte Ltd JTC Logistics Hub @ Gul 928,800 sq ft TOP Q2 2021  | Total: 1.52 million sq ft GFA | Warehouse | 1 Gul Circle | Developer: JTC Logistics Hub About Colliers Colliers (NASDAQ, TSX: CIGI) is a leading diversified professional services and investment management company. With operations in 67 countries, our more than 15,000 enterprising professionals work collaboratively to provide expert advice to real estate occupiers, owners and investors. For more than 25 years, our experienced leadership with significant insider ownership has delivered compound annual investment returns of almost 20% for shareholders. With annualized revenues of $3.0 billion ($3.3 billion including affiliates) and $40 billion of assets under management, we maximize the potential of property and accelerate the success of our clients and our people. Learn more at corporate.colliers.com, Twitter @Colliers or LinkedIn. Legal Disclaimer This document has been prepared by Colliers for advertising and general information only. Colliers makes no guarantees, representations or warranties of any kind, expressed or implied, regarding the information including, but not limited to, warranties of content, accuracy and reliability. Any interested party should undertake their own inquiries as to the accuracy of the information. Colliers excludes unequivocally all inferred or implied terms, conditions and warranties arising out of this document and excludes all liability for loss and damages arising there from. This publication is the copyrighted property of Colliers and /or its licensor(s). (c) 2021. All rights reserved. This communication is not intended to cause or induce breach of an existing listing agreement. Primary Author: Shirley Wong Senior Associate Director | Research |  Singapore +65 6531 8567 shirley.wong@colliers.com For further information, please contact: Raphael Lee Associate Director| Industrial Services | Singapore  +65 6531 8583 raphael.lee@colliers.com Donald Goh Senior Director | Capital Markets and Investment Services |  Singapore +65 6531 8686 donald.goh@colliers.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA R K E TB E AT 0 5 10 15 Multiple-User Factory Single-User Factory Warehouse Business Park Supply (msf) 2020 2021F 2022F 2023F 2024F Industrial Q2 2021 SINGAPORE $6.03 Business Park (City Fringe) $3.57 Business Park (Outlying Areas) $4.25 Science Park 0.8% Inflation Growth 1.3% Real GDP Growth 2.9% Unemployment Source: Ministry of Trade &amp; Industry (MTI),  Moody's Analytics  SINGAPORE ECONOMIC INDICATORS  Q1 2021 12-Mo. Forecast 12-Mo. Forecast Singapore Economy Got Back on Track Singapore economy turned around by 1.3% yoy in Q1 2021, while the labour market has improved with unemployment rate falling to 2.6% in the same period. The outperforming manufacturing sector continued to be the main GDP driver, expanding by 10.7% yoy in Q1 2021. Based on data released by EDB, manufacturing growth between January and May 2021 has been led by output expansions in three key sub-sectors - Electronics that soared 22.9% yoy, Precision Engineering that rose 22.7% yoy and Chemicals that increased 10.3% yoy. The Purchasing Managers' Index (PMI) stayed in expansion territory at 50.8 points in June 2021, even as community infection cases resurged and pandemic measures tightened in the region. City Fringe Business Parks Leading the Pack in Growth Based on C&amp;W's basket of industrial properties, city fringe business park rents registered the highest growth of 2.3% qoq in Q2 2021, as vacancy rates continue to fall to 7.8% in Q2 2021 compared to 9.9% in the preceding quarter. Blue chip corporations across the thriving technology and pharmaceutical sectors have been drawn to city fringe business parks due to the robust infrastructure and favourable locality to reach talents and users. Coupled with firms in CBD decentralising more back-end functions such as R&amp;D, the city fringe business park segment is expected to achieve the highest growth rate in 2021. The segment's sanguine outlook is also backed by strong investment sales such as Ascendas Reit acquiring the remaining 75% stake in Galaxis for $534m. Science Park, high tech, prime logistics and warehousing spaces also outperformed in tandem with the K-shaped economic recovery, registering a qoq rental growth of 0.6%, 0.2%, 1.6% and 0.9% respectively. These segments that cater to the rapidly expanding advanced manufacturing and e-commerce sectors, will see higher rental growth potential amid increasing demand and limited supply. In contrast, outlying business park rents continued to be pulled down by older developments, dropping by 0.5% qoq in Q1 2021, while factory rents held steady due to limited new supply. Broad-based Growth Expected across Factory Spaces Towards the End of 2021 Amidst the recovering economy, widespread growth in the industrial market, including all segments of factory spaces, are expected towards the end of 2021 or early 2022. As output demand continues to grow, more manufacturing firms could seize the opportunity to expand, positioning for growth amidst roll-out of vaccines and reopening of global economies. Expansions of food establishments and cloud kitchens will continue to drive demand for food zone factories, while electronics occupiers will go on to pursue high-specification factory spaces amidst digital transformation. For instance, GlobalFoundries was reported to be investing over $4 billion to build a new fabrication plant in Singapore to meet the unprecedented global demand for chips. Although demand for conventional factory spaces has faltered, their rents will hold firm this year, as new supply may be further delayed due to labour constraints and tightened measures. This is also supported by the 6.2% yoy (January to May 2021 YTD) expansion of the general manufacturing sector in terms of manufacturing outputs. INDUSTRIAL SUPPLY PIPELINE Re nts (S$PSF/MO) MA R K E TB E AT Industrial Q2 2021 SINGAPORE SEGMENT GROSS EFFECTIVE RENT 12-MONTH OUTLOOK S$/SF/MO US$/SF/MO EUR/SF/MO Business Park (City Fringe) S$6.03 US$4.49 EUR3.82 Business Park (Outlying Areas) S$3.57 US$2.66 EUR2.26 Science Park S$4.25 US$3.16 EUR2.69 High-Tech S$3.13 US$2.33 EUR1.98 Factory - Ground Floor S$1.78 US$1.32 EUR1.13 Factory - Upper Floor S$1.60 US$1.19 EUR1.01 Warehouse - Ground Floor S$1.56 US$1.16 EUR0.99 Warehouse - Upper Floor S$1.27 US$0.94 EUR0.80 Prime Logistics - Ground Floor S$1.42 US$1.06 EUR0.90 Prime Logistics - Upper Floor S$1.27 US$0.94 EUR0.80 US$/S$ = 1.342; EUR/S$ = 1.602, as of 28 June 2021 PROPERTY SUBMARKET SELLER / BUYER PRICE (S$ Million) Warehouse in Tai Seng Drive Tai Seng G.W.T International / Nanofilm Technologies 30.4 Galaxis (75% stake) one-north CapitaLand / Ascendas Reit 543.8 MARKET STATISTICS PROJECT NAME SUBMARKET TENANT SF EXPECTED COMPLETION YEAR Grab HQ one-north Grab 396,000 2021 Surbana Jurong Campus Jurong West Surbana Jurong 445,000 2022 CleanTech Three Jurong West - 665,000 2021 Perennial Business City Jurong East - 1,100,000 2022 Biopolis Phase 6 one-north - 378,000 2023 Punggol Digital District Punggol  - 2,440,000 2024 cushmanwakefield.com KEY SALES TRANSACTIONS Q2 2021 SIGNIFICANT BUSINESS PARK PROJECTS - PLANNED &amp; UNDER CONSTRUCTION WONG XIAN YANG Head of Research  Singapore  +65 6232 0885 / xianyang.wong@cushwake.com BRENDA ONG Executive Director Head of Logistics &amp; Industrial Services Singapore +65 6232 0878 / brenda.ong@cushwake.com A CUSHMAN &amp; WAKEFIELD RESEARCH PUBLICATION About Cushman &amp; Wakefield Cushman &amp; Wakefield (NYSE: CWK) is a leading global real estate services  firm that delivers exceptional value for real estate occupiers and ow ners.  Cushman &amp; Wakefield is among the largest real estate services firms w ith  approximately 50,000 employees in over 400 offices and 60 countries. In  2020, the firm had revenue of US$7.8 billion across core services of  property, facilities and project management, leasing, capital markets,  valuation and other services. To learn more,  visit w ww.cushmanwakefield.comor follow @CushWake on Tw itter. (c)2021 Cushman &amp; Wakefield. All rights reserved. The information   contained within this report is gathered from multiple sources believed   to be reliable. The information may contain errors or omissions and is   presented without any warranty or representations as to its accuracy. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARKETVIEW Taking a raincheck Quick Stats Investment* Q2 21 q-o-q y-o-y Total volume $5.900 bn   Office Q2 21 q-o-q y-o-y Grade A rent $10.50   Capital value $2,850   Net yield** 3.7%   Business Park Q2 21 q-o-q y-o-y Rent (City Fringe) $5.80   Retail Q2 21 q-o-q y-o-y Prime rent (Orchard) $34.55   Capital value $7,200   Net yield 4.9%   Residential Q2 21 q-o-q y-o-y Prime rent $4.21   Capital value $1,719   Net yield 2.2%   Industrial*** Q2 21 q-o-q y-o-y Rent $1.43   Capital value $185   Net yield 6.9%   Source: CBRE Research, Q2 2021 All capital values and yields stated as prime. Rents are quoted on a $ psf per month basis and capital values on a $ psf basis. *Investment volumes are preliminary. All transactions above S$10 mil **Yield calculation methodology revised based on an average of rolling eight quarter rents. ***30-year prime logistics data provided. Note: Prime retail rents, capital values revised due to revision in rental baskets for Q1 2021. Singapore, Q2 2021 CAPITAL MARKETSDespite heightened restrictions from mid-May 2021, preliminary real estate investment volume in Singapore grew by 44.5% q-o-q, to $5.900 bn for Q2 2021. OFFICEThe office market performance in Q2 2021 was a tale of two halves. Net absorption was -0.36 mil sq. ft. in Q2 2021, which was contributed by the earlier relocation moves and downsizing efforts by occupiers.  BUSINESS PARKSOverall leasing interest was relatively subdued, with renewals as a key feature in leasing activity this quarter. Islandwidenet absorption was 0.13 mil sq. ft. in Q2 2021.  RETAILWith work-from-home remaining as the default and tourism borders still closed, the retail market continue to face pressures though the magnitude of rental decline has slowed.  RESIDENTIALDespite heightened restrictions from mid-May 2021, the strong performance in the residential market has further shored up homebuyers' confidence and take-up of new launches. INDUSTRIALSpace availability for the warehouse and prime logistics remained tight, hence rents for both segments began to materialise at a quicker pace, by 1.3% q-o-q and 2.9% q-o-qrespectively.  (c) CBRE Ltd. 2021 | 13M Interbank 0.4% MayRetail Sales Index** Y-o-Y 63.2% MayCPI Inflation Y-o-Y 2.4% MayPMI 50.8 JunGDP* Y-o-Y 14.3% Q2 21 Arrows indicate change from previous period *Advance estimates **excludes sale of motor vehicles. Q2 2021 CBRE Research MARKETVIEW COVID-19 Updates (c) CBRE Ltd. 2021 | 2 Additional Measures to Support the Construction Sector *From 7 May 2021 to 6 November 2021, new People's Republic of China Work Permit Holders can obtain their skills certification in Singapore without having to enrol in Overseas Testing Centres. *Adding to the earlier 122 days of EOT provided, eligible public sector construction contracts delayed due to loss of productivity from 7 August 2020 to 31 December 2020 will be granted up to a 49-day EOT. *The public sector will provide a base 0.1% of awarded contract sum per month of delay for qualifying costs of eligible contracts up to $100 mil.  Market-related Developments Q2 2021 CBRE Research 01 02 03 Extension of Temporary Relief Measures for Property Sector  *In light of the disruptions to labour supply, there was an extension of the Project Completion Period (PCP) by another six months for qualifying residential, commercial and industrial development projects. *A six-month extension in the commencement and completion timelines of residential development projects as to the remission of Additional Buyer's Stamp Duty (ABSD) for qualifying housing developers. *PCP for residential development projects under the Qualifying Certificate (QC) regime will be extended for six months. Enhanced Support Measures for Businesses &amp; Individuals *Rental relief to small &amp; medium enterprises and eligible non-profit organisations with an annual revenue not exceeding $100 mil and are tenant-occupiers of qualifying commercial properties.  *One month rental relief for qualifying tenants of Government-owned commercial properties. *The IRAS will disburse a 0.5-month rental relief cash pay-out directly to qualifying tenants of privately-owned commercial properties, for the period of 14 -29 May.   *The government enhanced the wage support under the Jobs Support Scheme for sectors that have been affected by the tightened measures. A Timeline of Events Q1 2021 Jan Feb Mar 16 Budget 2021 The Budget, named  Emerging Stronger  Together, was unveiled 27 Pilot vaccinations Month-long pilot for the  elderly in two housing estates 17 Retail "Code  of Conduct" Key leasing principles  for key tenancy  terms announced (wef 1 Jun 2021) 22 Next phase of  vaccinations For seniors islandwide Q2 2021 Apr May Jun 5 Safe management  measure Up to 75% of employees  allowed at the workplace 26 Additional extension  of time (EOT) Additional 49-day EOT to  eligible construction  contracts for delays due to  COVID-19 16 Phase 2  (Heightened Alert) Measures to be  implemented from 16 May - 13 Jun. Cessation of dine-in  at F&amp;B outlets, and work- from-home back as the  default  28 Support and relief  Measures  For property developers and $800 mil Support Package for individuals and businesses 21 Further re- opening: Phase 3  (Heightened Alert) Easing of measures such as  resumption of dining-in at  F&amp;B outlets and certain  mask-off activities Jul 29 Vaccination program  accelerated  Vaccination dose interval  shortened 12 Safe management  measures update Further easing of measures  with dine-in restrictions  relaxed to groups of up to five  14 Two-step opening:  Phase 3 (Heightened  Alert) Increase in social gathering  group size, event size and  capacity limits MARKETVIEWDespite heightened restrictions from mid-May 2021, preliminary real estate investment volume in Singapore increased by 44.5% q-o-q, to $5.900 bn for Q2 2021, marking a fourth consecutive quarter of increase since the trough of the pandemic in Q2 2020. Investment volume for Q2 2021 was boosted by residential and industrial transactions. For the residential sector, investment sales increased by 92.6% quarter-on-quarter to $3.098 bn, mainly due to the sale of three Government Land Sales (GLS) sites (Northumberland Road, Ang Mo Kio Ave 1, and Tengah Garden Walk (EC)). Excluding these GLS sites, residential sales volume still stood at $1.871 bn, attributed to healthy activity in the luxury market for good class bungalows and luxury apartments. This reflects the confidence both private buyers and developers have in the long-term future and potential of Singapore real estate market. Industrial transactions kept its pace at $992.06 mil this quarter.  This reflects just a slight 7.9% drop q-o-q from the large transactions and Boustead portfolio deal recorded last quarter. AREIT acquired the remaining 75% interest in Galaxisfor $534 mil, while ESR REIT acquired Global Trade Logistics Centre, a prime logistics facility for $119.6 mil. In addition to these two major transactions, another eight factories and five warehouses were transacted.The active real estate investment sales scene in Singapore indicates that there is abundant liquidity waiting to be deployed, with investors undeterred by travel restrictions and the recent heightened measures. Undeniably, technology had a big part to play with facilitating deals through virtual viewings and presentations.For the remaining quarters of 2021, in addition to some attractive and relatively large GLS sites which have their tenders closing, there are also a handful of large-quantum quality commercial assets coming onto the market. These should provide a further boost to investment volumes. Consequently, CBRE Research believes that investment sales volume for 2021 is likely to see a strong rebound from the previous year, led by residential, office, and industrial sales. Q2 2021 CBRE Research (c) CBRE Ltd. 2021  | SINGAPORE CAPITAL MARKETS 70 80 90 100 110 120 Q2 16 Q4 16 Q2 17 Q4 17 Q2 18 Q4 18 Q2 19 Q4 19 Q2 20 Q4 20 Q2 21 Q4 2014 = 100 Grade A Office Prime Retail Prime Logistics Leasehold Prime Residential Chart 1: Total Transaction Value Chart 2: Capital Values Index Source: CBRE Research, Q2 2021 Source: CBRE Research, Q2 2021 Source: CBRE Research, Q2 2021 Note: Investment property transactions are property deals priced above S$10 million and include sales of building and development sites as well as ownership  changes of assets. The 4-quarter Rolling Total (4QRT ) generally smoothens out short-term quarterly fluctuations and highlights longer-term trends or cycles. Table 1: Major Private Investment Transactions Sector Property Price ($) Buyer  Industrial Galaxis (75% stake) 534.40 mil AREIT Retail JEM (28% stake) 337.30 mil LREIT Office 9 Penang Road (30% stake) 295.50 mil Haiyi Holdings 3 $0 $5 $10 $15 $20 $25 $30 $0 $2 $4 $6 $8 $10 Q2 19 Q3 19 Q4 19 Q1 20 Q2 20 Q3 20 Q4 20 Q1 21 Q2 21 S$ bn S$ bn Private Public 4-quarter Rolling Total (RHS) MARKETVIEWThe office market performance in Q2 2021 was a tale of two halves. Initially, leasing momentum gathered pace as business sentiment improved and more staff were allowed to return to the office. However, the emergence of COVID-19 clusters led to the tightening of measures in May. Under Phase 2 (Heightened Alert), restrictions were imposed to curb the transmission of the virus. Once again, work from home became the default working arrangement and these restrictions impacted leasing enquiry levels.Net absorption was -0.36 mil sq. ft. in Q2 2021, which was contributed by the earlier relocation moves and downsizing efforts by occupiers. Coupled with the injection of the uncommitted supply in Afro-Asia, islandwidevacancy rate rose from 5.9% in Q1 2021 to 6.8% in Q2 2021. With limited new and expansionary demand, most of the leasing transactions comprised renewals and relocations. Key demand drivers were confined to the technology and financial services sectors, and to a lesser degree, transport &amp; storage, and energy &amp; commodities firms. As a result of earlier relocation moves, Grade A vacancy rates rose from 3.3% in Q1 2021 to 4.4% in Q2 2021. Nevertheless, this remained well below the 10-year historical average vacancy rate of 5.9%. Encouraged by the fairly tight vacancy rate in the Grade A market, some landlords of better performing buildings have begun to push for higher rents as they benefit from the prevailing tightness. In Q2 2021, Grade A Core CBD rents rose 1.0% q-o-q to $10.50 psf/month, the first rental growth since Q4 2019. Conversely, the Grade B market struggled to backfill the existing vacant stock, and this placed further pressure on Grade B Core CBD rents.Looking forward, there are still potential risks on the demand side, but the tapering supply pipeline bodes well for the market. It remains a two-tiered market; the medium-term outlook for the Grade A market looks positive, but the recovery in the Grade B market is likely to lag the Grade A market as landlords grapple with rising vacancy rates.  (c) CBRE Ltd. 2021  | 4 Chart 3: Office Supply-Demand Dynamics 0% 2% 4% 6% 8% -0.5 0.0 0.5 1.0 1.5 Q2 16 Q4 16 Q2 17 Q4 17 Q2 18 Q4 18 Q2 19 Q4 19 Q2 20 Q4 20 Q2 21 mil sq. ft. Net Supply Net Absorption Vacancy rate (RHA) Source:  CBRE Research, Q2 2021 Table 2: Office Vacancy Rates Source:  CBRE Research, Q2 2021 Chart 4: Office Rental Index 100 120 140 160 180 200 220 Q2 16 Q4 16 Q2 17 Q4 17 Q2 18 Q4 18 Q2 19 Q4 19 Q2 20 Q4 20 Q2 21 Q4 2005 = 100 Singapore (Grade A Core CBD) Asia Pacific Source:  CBRE Research, Q2 2021 Table 3: Singapore Office Rents Q2 21 Q-o-q Y-o-y Islandwide 6.8% 85 bps 119 bps Core CBD 7.9% 182 bps 229 bps Fringe CBD 6.1% 10 bps 42 bps Decentralised 5.0% -44 bps -33 bps Grade A (Core CBD) 4.4% 109 bps 151 bps Q2 21 Q-o-q Y-o-y Grade A CBD Core $10.50 1.0% -5.8% Grade B CBD Core $7.75 -0.6% -8.3% Grade B Islandwide $7.15 -0.7% -8.9% Source:  CBRE Research, Q2 2021 SINGAPORE OFFICE Q2 2021 CBRE Research MARKETVIEWOverall leasing interest was relatively subdued, with renewals as a key feature in leasing activity this quarter. Islandwidenet absorption was 0.13 mil sq. ft. in Q2 2021. The two business parks that obtained TOP in Q2 2021 were located in one-north: Razer's SEA headquarters along one-north Crescent and Wilmar's headquarters along BiopolisRoad. This resulted in 0.16 mil sq. ft. of net supply. With net absorption trailing behind net supply, islandwidevacancy rate rose marginally from 12.9% in Q1 2021 to 13.0% in Q2 2021. The only firms that exhibited expansionary appetite within the business park sector were those in the technology and media industries. While most of the leasing demand was concentrated within the new builds of higher specifications within the City Fringe submarket, some positive take-up was also noted in the Rest of Island submarket in this quarter. Given the high vacancy rates in the Rest of Island submarket, landlords maintained some flexibility in rental negotiations, and this helped to shore up occupancy levels. In Q2 2021, rents in the Rest of Island submarket kept stable at $3.65 psf/month. On the other hand, the City Fringe submarket continued to be underpinned by tight availability of space for lease. With strong demand for space in this submarket, City Fringe rents expanded by 0.9% q-o-q to $5.80 psf/month in Q2 2021. Over the next three and a half years, a total of 5.04 mil sq. ft. of new supply is expected to come onstream. With only 13.2% of upcoming supply located within the City Fringe submarket, any rental growth is likely to stem from the one-north precinct as this submarket is underpinned by tight availability of space and high demand. However the same level of optimism is not reflected in the other submarkets; with 86.8% of upcoming supply located within the Rest of island submarket, there is likely to be further downward pressure on rents in the Rest of Island submarket. Nonetheless, overall demand for the business park market remains resilient. Q2 2021 CBRE Research (c) CBRE Ltd. 2021  | 5 SINGAPORE BUSINESS PARKS Chart 6: Business Park Vacancy by Submarkets Source: CBRE Research, Q2 2021 Table 4: Business Park Rents Source: CBRE Research, Q2 2021 Table 5: Known Business Park Future Pipeline (sq. ft.) Source: CBRE Research, Q2 2021 Q2 21 Q-o-q Y-o-y City Fringe $5.80 0.9% -0.9% Rest of Island $3.65 0.0% -2.7% Chart 5: Business Park Supply-Demand Dynamics Source: CBRE Research, Q2 2021 11% 12% 13% 14% 15% 16% -0.2 0.0 0.2 0.4 0.6 0.8 1.0 1.2 Q2 16 Q4 16 Q2 17 Q4 17 Q2 18 Q4 18 Q2 19 Q4 19 Q2 20 Q4 20 Q2 21 Net Supply Net Absorption Vacancy Rate (RHA) NLA (mil sq. ft.) Q2 16 Q4 16 Q2 17 Q4 17 Q2 18 Q4 18 Q2 19 Q4 19 Q2 20 Q4 20 Q2 21 0% 5% 10% 15% 20% Rest of Island City Fringe Vacancy City Fringe Rest of Island Total 2H 2021 0.36 mil 1.00 mil 1.37 mil 2022 0.00 mil 1.10 mil 1.10 mil 2023 0.30 mil 0.32 mil 0.63 mil 2024 0.00 mil 1.95 mil 1.95 mil Total 0.67 mil 4.38 mil 5.04 mil Note: Total figures may not add up due to rounding. MARKETVIEWThe retail market encountered another setback with stricter measures during Phase 2 (Heightened Alert) from 16 May till 13 June 2021. Retail sales (excluding motor vehicles), posted a decline of 6.3% m-o-m in May 2021, with department stores, wearing apparel &amp; footwear and watches &amp; jewellery the most affected. It was observed that F&amp;B operators were more adjusted to delivery and takeaway with the dine-in ban, as compared to last year's "circuit breaker" period. Amongst the physical constraints that COVID-19 posed this year, the Great Singapore Sales took an omnichannel format, with e-commerce platforms being actively involved.Despite the uncertainty, new openings and expansions were observed in the F&amp;B, sporting goods and fashion segment. That said, for certain segments, the number of closures outweighed openings, with fashion, F&amp;B and entertainment segments having the highest number of casualties. For instance, Karaoke Manekinekoclosed all its outlets; Marche Movenpick and Food Republic closed its Raffles City and Capitol Piazza outlet respectively, while TEMT and Abercrombie &amp; Fitch exited the Singapore market. With work-from-home remaining as the default and tourism borders still closed, the retail market continue to face pressures though the magnitude of rental decline has slowed.  Islandwide prime retail rents fell by 0.4% q-o-q this quarter, as compared to -1.2% q-o-q in Q1 2021. This was mainly propped up by the suburban market, where prime spaces registered healthy reversionary rents. As such, the rental gap between Orchard and suburban markets narrowed further.Even though the retail market is poised to benefit from an improvement in economic activity and consumer sentiment on the back of the vaccination rollout, the retail sector has yet to reach full recovery. Secondary outbreaks could continue to disrupt economic activity and tightening of border controls will be a continued setback to the market recovery for the rest of 2021.  Q2 2021  CBRE Research 6 SINGAPORE RETAIL Chart 7: Retail Economic Indicators Source: STB, MTI Economic Survey of Singapore, CBRE Research, Q2 2021 Table 6: Estimated Gross New Supply* Source: CBRE Research, Q2 2021 *excludes projects with a NLA of less than 20,000 sq. ft. Table 7: Prime Retail Rents* Source: CBRE Research, Q2 2021 *Rental revisions due to revised rental baskets Chart 8: Retail Rental Index 70 90 110 130 150 170 190 Q2 12 Q2 13 Q2 14 Q2 15 Q2 16 Q2 17 Q2 18 Q2 19 Q2 20 Q2 21 Q1 2005 = 100 Asia Pacific Prime Orchard Road Prime Suburban Source: CBRE Research, Q2 2021 Q2 2021 Asia Pacific Retail Rental Index is a preliminary estimate (c) CBRE Ltd. 2021  | Year Estimated NLA (sq. ft.) H2 2021 0.38 mil sf  2022 0.27 mil sf  2023 0.41 mil sf  2024 0.68 mil sf  Q2 21 Q-o-Q Y-o-y Orchard Road $34.55 -1.0% -8.7% Suburban $29.80 1.0% 1.0% 0.0 1.0 2.0 3.0 4.0 5.0 6.0 Q3 16 Q1 17 Q3 17 Q1 18 Q3 18 Q1 19 Q3 19 Q1 20 Q3 20 Q1 21 -40.0% -30.0% -20.0% -10.0% 0.0% Millions Visitor Arrivals (RHA) Change in Retail Sales Index at Constant Price (excludes car sales) y-o-y change (2017=100) mil MARKETVIEW Chart 9: New Private Residential Units Take-UpDespite heightened restrictions from mid-May 2021, the strong performance in new home sales has further shored up homebuyers' confidence and take-up of new launches. Preliminary estimates for new home sales year to date came to 5,652 units, which is already 56.6% of the volume achieved last year. This was bolstered by the year to date sales of Irwell Hill Residences (332 units), Provence Residence (245 units) and Normanton Park (191 units). With safe distancing measures at show galleries relaxed, this momentum is likely to continue as developers are encouraged to proceed with their launches, with more mass market launches in the pipeline.According to URA's flash estimates, private residential property prices rose 0.9% in Q2 2021, a slowdown compared to Q1 2021's 3.3% increase. Within the non-landed segment, the stronger price increase in the OCR (1.8% q-o-q) was weighed down by the CCR (0.6% q-o-q) and RCR (0.3% q-o-q). The slower growth could be attributed to a slower pace of launches due to restrictions in the first half of May, pushing buyers to the resale market. Further, the trend for larger homes may have resulted in lower psfprices for some projects. There was also healthy take-up from earlier launches in the suburban market, which signifies resilient demand from upgraders.Private property prices have increased by 4.3% year to date. The moderation in price growth might have lowered the risks of cooling measures being implemented. While the government is expecting a GDP growth forecast of 4-6%, the launch of some upcoming projects at higher psf pricing might continue to push the price index higher to exceed this forecast.New launches have been predominantly located in the CCR and RCR locations year-to-date. However, the next few major launches will mostly be mass-market projects in the OCR. Barring any unforeseen circumstances, CBRE Research expects new home sales to fall within the region of 10,000 to 11,000 units for 2021. In the longer term, the potential reopening of borders will also bring about the return of foreign investors and buying interest to the luxury segment.  Q2 2021 CBRE Research (c) CBRE Ltd. 2021  | 7 SINGAPORE RESIDENTIAL Source: URA, CBRE Research, Q2 2021 Note: Prelim figures exclude executive condominiums (ECs) Preliminary newly launched figures for Q2 2021 refer to Apr &amp; May only.  Table 8: Selected Projects with New Units Launched in Q2 2021 Chart 10: URA Residential Price Index Development Tenure Median  Price  ($psf) No of  units  launched Units  sold Irwell Hill  Residences 99y $2,666  340 330 One Bernam 99y $2,471 100 83 One-North Eden 99y $1,950 165 149 163.7 120 140 160 180 Q3 16 Q1 17 Q3 17 Q1 18 Q3 18 Q1 19 Q3 19 Q2 20 Q4 20 Q2 21 Q1 2009 = 100 Source: CBRE Research, Q2 2021 Note: Q2 2021 URA Residential Price Index is a flash estimate Source: CBRE Research, Q2 2021 Note: Based on May new home sales numbers 0 500 1,000 1,500 2,000 2,500 3,000 3,500 4,000 Q2 2020 Q3 2020 Q4 2020 Q1 2021 Q2 2021 Units TOTAL Newly Launched TOTAL New Sales MARKETVIEW Q2 2021 CBRE Research (c) CBRE Ltd. 2021  | 8 SINGAPORE INDUSTRIAL Chart 11: Manufacturing Indices Table 9: Significant Future Developments for 2021 Source: CBRE Research, Q2 2021 Table 10: Industrial Rents Source: CBRE Research, Q2 2021 Source: CBRE Research, Q2 2021 Note: APAC rental index is based on preliminary statistics. -30% -20% -10% 0% 10% 20% 30% 40% 44 46 48 50 52 54 56 May-19 Jul-19 Sep-19 Nov-19 Jan-20 Mar-20 May-20 Jul-20 Sep-20 Nov-20 Jan-21 Mar-21 May-21 PMI-Contract PMI-Expand Mfg Output NODX Source:  Singstat, SIPMM, CBRE Research, Q2 2021 Development Region Est. GFA  (Mil sf) JTC Defu Industrial City North East 3.51 TimMac @ Kranji North 1.54 Kranji Green North 1.43 LOGOS Penjuru Logistics Centre  West 0.36 Q2 21 Q-o-q Y-o-y Factory (Grd Flr) $1.51 0.7% 0.7% Factory (Upp Flr) $1.18 0.0% 0.0% Warehouse (Grd Flr) $1.60 1.3% 2.6% Warehouse (Upp Flr) $1.21 0.8% 1.7% Prime Logistics $1.43 2.9% 5.1% Chart 12: Industrial Rental Index 80 100 120 140 160 180 Q2 16 Q4 16 Q2 17 Q4 17 Q2 18 Q4 18 Q2 19 Q4 19 Q2 20 Q4 20 Q2 21 Q4 2005=100 Singapore Factory Singapore Warehouse APAC Mfg/NODX PMIDemand indicators continued to exhibit signs of sustained growth in Q2 2021. Manufacturing output rose by 30.0% y-o-y in May, its fastest pace in a decade due to the low base effect in part to "circuit breaker" measures last year. Highest increases were observed in biomedical manufacturing and precision engineering clusters, due to higher production of semiconductor equipment. NODX increased 8.8% y-o-y in May 2021, the sixth consecutive month of exports growth, while SIPMM's PMI sustained its expansion for the eleventh consecutive month in June 2021.Leasing activity continued to remain stable in Q2 2021, consisting of new set ups and relocations. Warehouse leasing volume increased the fastest, with third-party logistics and marine &amp; offshore being the main demand drivers. Furthermore, recent commitments byBioNTechand Sanofi to build their vaccine production facility in Singapore shows the endorsements of the biopharmaceutical segment, which bodes well for Singapore's advanced manufacturing scene in the mid to long term. On the back of healthy demand, factory rents tracked by CBRE Research registered its first quarter of increase by 0.7% q-o-q in Q2 2021.  Space availability for the warehouse and prime logistics remained tight, hence rents for both segments began to materialise at a quicker pace, by 1.3% q-o-q and 2.9% q-o-q respectively. Moving forward, the positive outlooks for Singapore's manufacturing and e-commerce sectors will underpin demand for quality factory and warehouse space. Warehouse rents are expected to grow at a faster pace as vacancies among prime logistics remain extremely low, in addition to a more manageable warehouse pipeline. Take-up for JTC Logistics Hub @ Gul and LOGOS Tuas Logistics Hub have been healthy, driven by e-commerce, food stockpiling and third-party logistics storage for pharmaceutical and oil &amp; gas. On the other hand, the rental performance for the factory submarket could be weighed down by older stock, as the submarket remains two-tier.  MARKETVIEW Disclaimer: Information contained herein, including projections, has been obtained from sources believed to be reliable. While we do not doubt its accuracy,  we have not verified it and make no guarantee, warranty or representation about it. It is your responsibility to confirm independently its accuracy and completeness. This information is presented exclusively for use by CBRE clients and professionals and all rights to the material are reserved and cannot be  reproduced without prior written permission of CBRE. DEFINITIONS Grade A Rents  Average value derived from a basket of Grade A  properties located in the Central Business District (CBD).  Prime Capital Values Valuation based average value derived from a basket of  prime properties. For residential and retail, the basket is  only of freehold properties while industrial basket is  related to 60-year leasehold properties. All values are  quoted on a per square foot net floor area and strata  basis, except for office values, which are on an en-bloc  basis. Prime industrial space and thereafter rents and  capital values are considered on upper floors. Net Absorption The change in occupied stock (in sq. ft.) over the  recorded period for all existing properties. Vacancy Rate Vacant space as a percentage of the base inventory or  building net lettable area.  Net Yield Net property income (gross income net service charges  and taxes) as a percentage of the asset's capital value. The following  locations are considered for Grade A or  Prime property baskets: Office Raffles Place, Shenton Corridor, Marina Bay and Marina  Centre Retail Orchard Road  (units on levels with heaviest footfall) Industrial Islandwide mature industrial locations such as Ubi, Kaki  Bukit, Tuas, and Woodlands Residential  Core Central Region (CCR) - districts 9, 10,11,  Downtown &amp; Sentosa Cove   (covering apartments and condominiums) CONTACTSSingapore CBRE ResearchCBRE Pte. Ltd.2 Tanjong KatongRoad #06-01PayaLebar QuarterSingapore 437161+65 6224 8181www.cbre.com.sgCo. Reg. No. 197701161RAgency License No. L3002163ITricia SongSEA Research+65 6328 7499Tricia.song@cbre.comCatherine HeCapital Markets &amp; Residential Research+65 6326 1232Catherine.he@cbre.comGoh Jia LingIndustrial &amp; Retail Research+65 6328 7304Jialing.goh@cbre.comYuki SuzukiOffice &amp; Business Parks Research+65 6326 1669Yuki.suzuki@cbre.com.sgGerald TanEconomics Research+65 6328 7502Gerald.tan@cbre.comTo learn more about CBRE Research, or to access additional research reports,  please visit the Global Research Gateway at www.cbre.com/researchgateway SINGAPORE </t>
-  </si>
-  <si>
-    <t>SINGAPORE Q2 2021 Further property stabilisation as Singapore prepares to  live with an endemic COVID-19 JULY 2021 REAL ESTATE  TIMES 2 EDMUND TIE RESEARCH 0 1 2 3 4 5 6 2000 2002 2004 2006 2008 2010 2012 2014 2016 2018 2020 % 0.2 -2.0 -1.0 0.0 1.0 2.0 3.0 4.0 5.0 6.0 7.0 1Q 2000 1Q 2002 1Q 2004 1Q 2006 1Q 2008 1Q 2010 1Q 2012 1Q 2014 1Q 2016 1Q 2018 1Q 2020 yoy% growth -10 -5 0 5 10 15 20 1960 1970 1980 1990 2000 2010 2020 % 0 2 4 6 8 10 12 14 16 18 2017 2018 2019 2020 2021 1Q 2Q 3Q 4Q $bn KEY HIGHLIGHTS ECONOMY - Recovery remains intact GROSS DOMESTIC PRODUCT (GDP) UNEMPLOYMENT RATE FIXED ASSET INVESTMENTS (FAI) CONSUMER PRICE INDEX (CORE INFLATION) 1Q 2021 $2.8bn 1Q 2021 1.3% 1Q 2021 2.9% 1Q 2021 0.2 yoy% growth 4Q 2020 $3.0bn 4Q 2020 -2.4% 4Q 2020 3.3% 4Q 2020 -0.2 yoy% growth  Source: Monetary Authority of Singapore  Source: Singapore Department of Statistics  Source: Ministry of Manpower  Source: Singapore Department of Statistics  3 EDMUND TIE RESEARCH *  1Q 2021's GDP yoy growth rate of 1.3% was the  highest growth rate in Singapore since 4Q 2019  and improvement from official advance estimates  of a 0.2% expansion. It came on the back of the  manufacturing sector's 10.7% yoy growth, faster than  the 10.3% growth recorded in 4Q 2020.  *  The two worst performing sectors in 4Q 2020,  namely construction and the transportation and  storage sector, saw expansion during this quarter.  The construction sector contracted by 22.7% yoy in  1Q 2021 (compared with -27.4% in 4Q 2020) and the  transportation and storage sector shrank by 16.5%  (compared with -27.4% in 4Q 2020).  *  Singapore attracted $2.8bn in FAI in 1Q 2021, a slight  decrease from $3.0bn in 4Q 2020 with the services  sector leading at $1.6bn. The info-communications and  media cluster within the service sector drew $1.1bn  of FAI. Investors from the United States contributed  the most to the total FAI in 1Q 2021. Singapore's  efforts to keep borders open, stay connected, and  ensure business continuity have given global firms the  confidence to invest in projects in the Republic. *  The labour market continued to recover from the  impact of the pandemic. The unemployment rate  declined to 2.9% in 1Q 2021 from 3.3% in 4Q 2020.  Employment grew in 1Q 2021 by 14,000 workers  after four quarters of decline. In 1Q 2021, the bulk  of the employment increases were in services. The  unemployment rate for May declined to 2.8%.  *  Inflation may pick up due to low base effects from  last year but is unlikely to step up excessively in the  second half of 2021. External inflation expected to rise  in the near term amid the recovery in global oil prices  and the rebound of the world's two largest economies  i.e. the US and China. As for Singapore, price pressures  are likely to gradually pick up as the labour market and  private consumption nudged up. *  The external economic environment has improved  since February 2021 mainly due to upgrades in the  growth outlook for advanced economies like the  United States. *  While the tightening of domestic restrictions and  border controls in May 2021 represented a setback  to segments of the Singapore economy, this was  partially relaxed partially in June 2021 and the broader  economy should still see a recovery this year in  tandem with the global economic rebound and further  progress in the domestic vaccination programme. *  On 25 May 2021, MTI forecasted Singapore's  economic growth in the range of 4% to 6% in 2021.  While a survey conducted by MAS of private- sector economists on 14 June 2021 showed that  Singapore's GDP tipped to grow 6.5% in 2021, led by  manufacturing and exports.  *  Singapore is reopening in a calibrated manner and will  have more confidence to ease up further when two- thirds of the population is fully vaccinated by National  Day (9 August), as targeted. MARKET COMMENTARY MARKET OUTLOOK 4 EDMUND TIE RESEARCH INVESTMENT - Improving sentiment but proceeding cautiously  0 5 10 15 20 25 30 35 40 2011 2012 2013 2014 2015 2016 2017 2018 2019 2020 2021 Investment sales by quarters Q1 Q2 Q3 Q4 $bn KEY HIGHLIGHTS INVESTMENT SALES ($ billion) VALUE OF TOP 5 PRIVATE INVESTMENT DEALS ($ billion) Total investment sales in 2Q 2021  increased by 15.4% as compared to  1Q 2021. The combined value of the top 5 private investment deals in 2Q 2021 represented 28% of total  investment value in 2Q 2021. Development Remaining  tenure, yrs Purchase price Purchaser Seller $ mn $ psf Office Maxwell House 47 276.8 1,925 NLA SingHaiyi, Chip Eng Seng and  Chuan Investments Unknown 9 Penang Road (30% stake) 94 295.5 2,468 NLA Haiyi Holdings Suntec Reit Industrial Galaxis (75% stake) 51 534.4 815 NLA Ascendas Reit CapitaLand Global Trade Logistics Centre 30 + 14 112.0  214 GFA  ESR-Reit Montview Investments Retail Jem  88 337.3 363 NLA LREIT Lendlease Source: EDMUND TIE Research Source: EDMUND TIE Research Top 5 private investment deals in 2Q 2021  2Q 2021 $5.48bn 1Q 2021 $4.75bn 2Q 2021 $1.56bn 1Q 2021 $1.44bn 5 EDMUND TIE RESEARCH MARKET COMMENTARY MARKET OUTLOOK *  The notable increase in total investment sales for 2Q 2021 as  compared to 1Q 2021 highlighted the return of investor confidence  as economic recovery continues to take hold and the nation's  vaccination programme is deployed. *  Investment sales in this quarter were led by residential, which  contributed to $3bn (56%), followed by industrial to $0.9bn (17%).  *  Despite the pandemic, Singapore's strong economic performance  as well as the government's steady progress with its ongoing  vaccination drive efforts have further boosted investor sentiments,  as outlined by a q-o-q growth of 15.4% in total investment sales.  *  For residential sales, $1.2bn was from Government Land Sales  (GLS) programme. As there was no activity in GLS in 1Q 2021, the  government sold three residential sites in this quarter. The tenders  drew intense competition from 7 to 15 bidders per site, who ran  out of land amid healthy home sales.  *  Commercial sales in 2Q 2021 comprised 15% office, 8% retail and 4%  shop house deals. In addition, the transactions for office and retail  sales were predominantly strata-titled transactions or acquisitions  of the remaining stakes of investors' existing properties.  *  Ascendas Reit acquired the remaining 75% interest in Galaxis. It  now has full ownership of the property. Galaxis is a business park  located in One-North which houses key growth sectors such as  biomedical sciences, information and communications technologies  and media, science and research institutes as well as start-ups.  *  Subsidiaries from SingHaiyi, Chip Eng Seng and Hong Kong-listed  Chuan Holdings won the collective sale tender for Maxwell  House, a 13-storey commercial building, which has potential for  redevelopment into a mixed-use development. *  Lendlease Global Commercial Reit proposed to increase its  effective interest to 31.8% in Jem, which is a 108,170sqm mixed- use development comprising of retail (major use) and office. Key  tenants include Singapore's Ministry of National Development,  Swedish furniture chain IKEA, hypermarket FairPrice Xtra and  fashion retailers H&amp;M and Uniqlo. *  RESIDENTIAL: The government is  releasing more private housing sites  for sale in 2H 2021 by almost 25%,  under the Confirmed List of the GLS  programme, due to the dwindling unsold  inventory of the private housing units.  Amidst robust housing demand and  riding on the positive market outlook,  more developers are actively seeking to  replenish their residential land banks,  which may result in stiffer competition to  secure a site.  *  RETAIL: This sector expected to take  longer to recover given the lack of  tourists, the return of tighter measures  due to the recent surge in Covid-19 cases,  and the impact of remote working. These  may add pressure on occupancy and  investment activities. *  OFFICE: There are uncertainties over the  longer-term impact of remote working on  office demand. Healthy buildings are the  new minimum and there is an increasing  need for space that can flexibly adapt  to the requirements of a post-Covid  world, where the role of the office shifts  towards collaboration and innovation.  *  INDUS TRIAL: We obser ve that  investments in data centres, logistics  and warehouse facilities, as well as  cloud kitchens are on the rise. Covid-19  has brought many opportunities for  new businesses. With the industrial  upswing speeding ahead, it may be apt to  innovate and invest in business expansion  towards research &amp; development and  advanced manufacturing. Additionally,  under the Industrial GLS programme,  more industrial land totalling 5.14ha will  be available for sale in 2H 2021, increased  from 3.86ha in 1H 2021. 6 EDMUND TIE RESEARCH OFFICE - Occupiers value flexibility  0.0 0.4 0.8 1.2 1.6 2021 2022 2023 2024 Under Construction Planned mn sq ft KEY HIGHLIGHTS Average monthly gross rents (SGD/sq ft) SUPPLY - Singapore OFFICE SUPPLY (sq ft) OFFICE SUPPLY PIPELINE  (2021-2024) (sq ft) As of 2Q 2021, nearly 4.6mn sq  ft of new office space will be  completed from 2021 to 2024,  down from 4.9mn as of 1Q 2021. The largest development in the pipeline is Central Boulevard Towers (TOP in 2023), featuring 1.26  mn sq ft of Grade A office spaces, 30,000 sq ft of retail establishments and an urban sky park.  2Q 2021 4.6mn sq ft  1Q 2021 4.9mn sq ft 95.8% Decentralised 94.3% Non-CBD 92.0% CBD 0.7 2.1 0.5 OCCUPANCY RATE OF PRIME CBD OFFICE SPACES The occupancy rate of prime CBD  office spaces had a slight quarter- on-quarter decrease as majority  of the companies continue to  work remotely. Q2 2021 92.0% Q1 2021 92.7% Source: EDMUND TIE Source: URA, EDMUND TIE Source: URA, EDMUND TIE *Selected major developments in the pipeline Location Subzone Grade 1Q 2021  2Q 2021 Qoq change (%) CBD Marina Bay Premium 12.03 11.99 -0.3% Raffles Place A 10.06 10.01 -0.5% Shenton Way/Robinson Road/Tanjong Pagar Premium 10.86 10.86 0.0% A 8.67 8.65 -0.2% B 7.04 6.98 -0.8% Non-CBD Marina Centre A 9.60 9.60 0.0% City Hall/Bugis Premium 10.72 10.69 -0.3% * 6.98 6.95 -0.3% Orchard Road * 8.84 8.84 0.0% Decentralised areas Decentralised areas * 6.03 6.01 -0.3% Development  Location Zone NLA '000 sq ft Total Status 2021 CapitaSpring Chulia Street/Church Street/Market Street CBD 635 835 Under construction Surbana Jurong Campus Cleantech Loop  Decentralised Areas 200 Under construction 2022 Guoco Midtown Beach Road Bugis/City Hall 650 650 Under construction 2023 Central Boulevard Towers Central Boulevard  CBD 1,258 1,258 Under construction 2024 Office/retail development Labrador Villa Road/Pasir Panjang Road Decentralised Areas 641 641 PP: Sep-20   3,384 7 EDMUND TIE RESEARCH MARKET COMMENTARY MARKET OUTLOOK *  Based on EDMUND TIE Research statistics, overall  net absorption islandwide improved further from  185,000 sq ft in 1Q 2021 to 649,000 sq ft in 2Q  2021. The improvement fuelled by the decentralised  regions, which experienced the highest positive  net absorption, a testament to the trend of  decentralisation, as more companies opt for offices  located outside the CBD. *  Occupancy rate for CBD has fallen by 0.7% pts in  2Q 2021 from 92.7% in 4Q 2020. As companies  re-evaluate their business operations needs due  to Covid-19, they are rethinking their real estate  footprint, with some preferring the "asset light"  approach. This approach enables them to have some  cost savings from office rents, flexibility and also allow  them to transit their office spaces into an avenue for  collaboration and socialisation.  *  The recent Phase 3 (Heightened Alert) curbs have  resulted in working-from-home still being the default  arrangement in Singapore, resulting in thinner crowds  at hot office spots. However, with Singapore hastening  its roll out of vaccination and controlling the spread  of the virus, we expect more office goers to return to  their offices to work, albeit on a more flexible basis.  *  As companies revaluate their office spaces and the  economy gradually recovers, the trend of flexible  workspaces expected to continue, as seen from the  expansion plans of the co-working operator, JustCo. In  March 2021, JustCo announced its plans to open an  office in Tampines located at Asia Green and further  announced in June 2021 that they will manage and  occupy two floors at The Metropolis in Buona Vista,  the only Grade-A office located in One-North precinct.  *  Tenants continues to shift towards better quality  buildings, as better property management by  developers provide a higher ventilation system in  buildings which prevents the spread of Covid-19. A  safe work environment translates to better employee  well-being and productivity. *  Office demand is bolstered by Information and  communications, finance, and insurance sectors.  Employment in these sectors has improved and  fuelled by government support, job schemes and  overseas foreign investment. The MAS is projecting  6,500 jobs in the finance sector this year, while  retaining existing employees. The demand and  expansion of the technology workforce by companies  have contributed significantly to employment.  *  Monthly rents in the various subzones of the office  sector held steady or declined slightly in 2Q 2021. Within  the CBD and Non-CBD subzones, there is a continued  emphasis on a flight to quality office spaces while taking  advantage of the current climate to negotiate better  rates for office rentals. Overall, we expect a bottom in  the office market by the end of the year. 8 EDMUND TIE RESEARCH INDUSTRIAL - Expected to ride on global trade growth  0.00 1.00 2.00 3.00 4.00 5.00 6.00 2010 2011 2012 2013 2014 2015 2016 2017 2018 2019 2020 2021 First-storey multiple-user factory Upper-storey multiple-user factory $ psf 70 80 90 100 2015 2016 2017 2018 2019 2020 1Q 2021 Single-user factory Multiple-user factory Business park Warehouse % KEY HIGHLIGHTS RENTAL OF FIRST STOREY   MULTIPLE-USER FACTORY  OCCUPANCY RATE OF   MULTIPLE-USER FACTORY Buoyant prospects for the  manufacturing sector drove the  slight 1.0% qoq increase in rent. The occupancy rate of the island- wide multiple-user factory  increased slightly qoq with  improved business confidence  amid an upbeat outlook.  2Q 2021 $1.86 psf 1Q 2021 $1.84 psf Developer/development  Location  NLA '000 sq ft Private multiple-user factory developments Solaris @ Tai Seng Tai Seng Avenue 929 Mapletree Industrial Trust Kallang Way 710 Private single-user factory developments Malkoha  Sunview Way 1,512 Google Asia Pacific  Lok Yang Way 1,060 Private warehouses developments Pandan Crescent  Pandan Crescent 1,108 Allied Sunview  Sunview Road 1,081 Private business park developments CapitaLand  Science Park Drive 993 Surbana Jurong Campus Cleantech Loop 365 Public industrial developments JTC Defu Industrial City Defu South Street 1 2,875 JTC Punggol Digital  District (Phase 1) Punggol Way 2,001 0 5 10 15 20 2021 2022 2023 2024 Data centre Extension, A&amp;A Warehouse Business park Single-user factory Multiple-user factory mn sq ft SUPPLY OF INDUSTRIAL SPACES (sq ft) INDUSTRIAL SUPPLY PIPELINE (2021-2024) (sq ft) Most supply pipeline is in  2021 and 2022.  1Q 2021 41.7mn sq ft NLA  4Q 2020 41.7mn sqft NLA 2Q 2021 $1.86 psf 1Q 2021 $1.84 psf Source: EDMUND TIE Research Source: EDMUND TIE Research Source: JTC Source: JTC * New supply of major industrial developments 9 EDMUND TIE RESEARCH MARKET COMMENTARY MARKET OUTLOOK *  Singapore's manufacturing sector remained in  expansionary territory. The purchasing managers'  index (PMI) recorded a marginal increase in June  2021, with a reading of 50.8, marking the 12th straight  month expansion (i.e., with a reading above 50) from  50.7 in May. The increase was attributed to faster  expansion rates in the key indices of new orders, new  exports, factory output, inventory and employment. *  Non-oil exports (NODX) rose 9.7% yoy in 1Q 2021  reversing the dip of 0.5% in 4Q 2021. The expansion  was driven by electronic products such as integrated  circuits, personal computers, telecom gear and  non-electronic products like specialised machinery,  petrochemicals, primary chemicals.  *  Overall industrial net absorption decreased from  2.3mn sq ft in 4Q 2020 to 1.5mn sq ft in 1Q 2021.  Demand was contributed by the multiple-user factory  segment (1.0mn sq ft) and warehouse segment (0.6mn  sq ft), while the negative business park segment  showed negative net absorption of 0.1mn sq ft.  *  Island-wide, only the multiple-user factory occupancy  rate increased in 1Q 2021 (0.6% qoq). The rest of  the occupancy rates for other industrial segments  decreased with business park declining the most at  0.8% qoq.  *  Approximately 46% of the supply pipeline will be  completed in 2021, followed by 33% in 2022. Multiple- user factories accounted for the bulk (33%) of the  supply pipeline with approximately 13.7mn sq ft NLA.  Single-user factory space made up 22% of the supply  pipeline, projected to be about 9.0mn sq ft NLA. *  The full-year trajectory for manufacturing remains  sound which saw little impact from stricter Covid-19  measures during Phase 2 (Heightened Alert). *  Barring a worsening of the Covid-19 situation, the  manufacturing sector is expected to be one of the key  pillars of growth, as export-oriented industries ride on  global trade growth. *  Prices and rentals of industrial space are likely to  remain stable for 2021 with higher-than-average  supply pipeline balancing off with improving demand.  *  We see substantial investments in new economy  assets like data centres. For instance, in May 2021,  Mapletree Industrial Trust proposed a US$1.32b  acquisition of 29 data centres in the United States.  Likewise, in June 2021, Singapore-based Princeton  Digital revealed that it is investing US$1b to build a  data centre campus in Japan. In March 2021, Ascendas  Reit announced its US$0.67b acquisition of 11 data  centres in Europe.    In 2019, the Singapore government imposed a  moratorium (temporary pause) on new data centres  built locally due to concerns over the industry's  carbon footprint. The local authorities are expected to  provide an update on the moratorium situation at the  end of the year.  *  The shift of food &amp; beverage (F&amp;B) sales online,  triggered by Covid-19, drove the growth of cloud  kitchens. We see cloud kitchen as an emerging niche  market segment with significant growth opportunities.  For instance, Singapore-based Select Group,  announced in March 2021 their plans to invest S$10  million to open 20 cloud kitchens locally over the next  five years. 10 EDMUND TIE RESEARCH Orchard/Scotts  Road 88.4% Fringe/Suburban  Areas 93.3% Other City  Areas 88.6% SUPPLY OF RETAIL SPACES (2021-2024) (sq ft) The largest development in the immediate term is the A&amp;A to i12 Katong, featuring new retail  tenants such as PS Cafe and Climb Asia. The retail component of Punggol Digital District aimed  to be a bustling lifestyle destination, caters to the residents located around the precinct. 0 50 100 150 200 250 300 350 400 450 2021 2022 2023 2024 Orchard/ Scotts Road Other City Areas Fringe/Suburban Areas '000 sq ft Source: URA, EDMUND TIE Development  Location Developer NLA '000 sq ft Total Status 2021 A&amp;A to existing i12 Katong East Coast Road Keppel Land Pte Ltd 189 189 Under construction 2022 A&amp;A to Grantral Mall   @ Macpherson Macpherson Road Wujie Times Square Pte Ltd 63 63 Under construction 2023 Sengkang Grand Mall Compassvale Bow/  Sengkang Central CapitaLand and   City Developments Limited 109 190 Under construction One Holland Village Holland Road Far East Organization, Sinoland  and Sekisui House 81 2024 The Woodleigh Mall Upper Aljunied Road SPH and Kajima Development 150 323 Under construction Punggol Digital District Punggol Way JTC Corporation 173   765 RETAIL - Suburban malls present opportunities  KEY HIGHLIGHTS AVERAGE RETAIL RENTAL (SGD/sq ft) RETAIL OCCUPANCY RATES The average occupancy rate of retail  spaces in Singapore increased by 0.3%  per cent in 1Q 2021.  Q1 2021 91.5% Q4 2020 91.2% Location Level 1Q 2021 2Q 2021 Qoq change (%) Orchard/Scotts Road (OSR) First storey 37.27 37.72 0.0% Upper storey 16.00 15.96 -0.2% Other city areas (OCA) First storey 19.45 19.35 -0.5% Upper storey 9.83 9.78 -0.5% Fringe/Suburban areas (FSA) First storey 30.27 30.57 1.0% Upper storey 17.11 17.20 0.5% Source: EDMUND TIE SUPPLY OF RETAIL SPACES (SQ M) There are nearly 1.3mn sq ft of new  retail space to be completed from  2021 to 2024. The majority (88.0%)  of the supply pipeline will emerge  from the Fringe/Suburban Areas. Q1 2021 1.3mn sq ft  Q4 2020 1.2mn sq ft Source: URA, EDMUND TIE *Selected major developments in the pipeline 11 EDMUND TIE RESEARCH MARKET COMMENTARY MARKET OUTLOOK *  Based on EDMUND TIE Research, islandwide net  absorption improved to 301,000 sq ft in 1Q 2021  from 258,000 sq ft in 4Q 2020. The occupancy rate  increased by 0.3% pts qoq to 91.5% in 1Q 2021 from  91.2% in 4Q 2020.  *  The occupancy rate for the Fringe/ Suburban area  improved by 0.8% pts to 93.3% in 1Q 2021. More  retailers prefer to open their shops located at the  Fringe/Suburban subzone due to the sustained  footfall and the continuation of the work-from-home  arrangements for some companies, especially for the  food and beverage sectors located at suburban malls.  *  The 3-month moving average of yoy change in retail  sales (excluding motor vehicles) improved from -5.7%  in December 2020 to 35.2% in May 2021. Retail sales  grew for the third consecutive month yoy, implying an  improvement in retail sales as Singapore continues to  gradually open its economy. *  Retail sales for furniture &amp; household equipment,  recreational goods, watches &amp; jewellery and computer  &amp; telecommunications continued to grow yoy in 1Q  2021. Consumers were still cautious in their spending  of discretionary items. For 1Q 2021, watches &amp;  jewellery reported the highest growth in sales of  22.6% yoy. However, food &amp; alcohol declined the most  by 26.2% yoy. *  For the food and beverage services index for 1Q  2021, food caterers reported the greatest decline of  60.4% yoy, due to the continued restriction of large  gatherings, resulting in the low demand for event  catering. Restaurants sales registered a moderated  improvement of -33.1% yoy in 4Q 2020 to a -6.3% in  1Q 2021. *  As more retailers jump onto the bandwagon of setting  up online stores to drive sales, Robinsons has recently  announced that it will partner with Grab and return  as an online department store. Additionally, with the  Great Singapore Sale (GSS) taking an omni-channel  approach this year, we expect more retailers to  reinvent and adopt this new approach to drive sales.  By partnering with Lazada, retailers can leverage  the ease of accessibility of applications and online  platforms. *  As retail tenants face a challenging business climate  amid tightening social distancing restrictions and  capacity limits, landlords should continue managing  their expectations in terms of retail rents. Support  extended to assist retailers, in terms of rental incentives,  more flexible operating hours and digital marketing of  products to reach broader consumers.  *  We expect potential upside for retail rents in the  Fringe/Suburban Areas, given the continued strong  retail performance and the tight supply pipeline. With  the lack of tourism and office crowd due to the work- from-home arrangement, landlords of retail malls at  Orchard/Scotts Road and Other City Areas are more  flexible their commercial terms, to optimize their  trade mix. 12 EDMUND TIE RESEARCH 0 0.5 1 1.5 2 2.5 3 3.5 4 4.5 5 0 20,000 40,000 60,000 80,000 100,000 120,000 1Q 2011 1Q 2012 1Q 2013 1Q 2014 1Q 2015 1Q 2016 1Q 2017 1Q 2018 1Q 2019 1Q 2020 1Q 2021 Residential pipeline Total unsold Years to clear unsold based on 3-year moving average new sales per annum (RHS) Units Years 0 10,000 20,000 30,000 40,000 50,000 60,000 70,000 80,000 90,000 100,000 2011 2012 2013 2014 2015 2016 2017 2018 2019 2020 2021 1Q 2Q 3Q 4Q Units RESIDENTIAL - Sustained interest in the private residential sector  as economy charts its path of recovery  80 100 120 140 160 180 200 1Q 2011 3Q 2011 1Q 2012 3Q 2012 1Q 2013 3Q 2013 1Q 2014 3Q 2014 1Q 2015 3Q 2015 1Q 2016 3Q 2016 1Q 2017 3Q 2017 1Q 2018 3Q 2018 1Q 2019 3Q 2019 1Q 2020 3Q 2020 1Q 2021 All Residential Price Index Landed Non-landed 1Q 2009 = 100 0 2,000 4,000 6,000 8,000 10,000 12,000 1Q 2011 1Q 2012 1Q 2013 1Q 2014 1Q 2015 1Q 2016 1Q 2017 1Q 2018 1Q 2019 1Q 2020 1Q 2021 Primary sales Secondary sales Residential launches* Unit KEY HIGHLIGHTS PROPERTY PRICE INDEX OF ALL PRIVATE  RESIDENTIAL PROPERTIES RESIDENTIAL PIPELINE SUPPLY PRIMARY AND SECONDARY SALES  TRANSACTION VOLUME PRIVATE HOME RENTAL TRANSACTIONS In 2Q 2021, based on URA's flash  estimate, the Property Price Index  (PPI) for all private residential  properties, including Executive  Condominiums, rose for the fifth  consecutive quarter by 0.9% qoq to  163.7. This rise attributed to a 0.8%  qoq increase in the PPI for landed  private properties to 186.9, and a 0.9%  qoq increase in the PPI for non-landed  private properties to 158.5 in 2Q 2021. The residential supply pipeline  decreased qoq in 1Q 2021. The total  number of unsold units dropped  11.1% qoq. Correspondingly, the time  needed to clear the unsold units have  shrunk to 2.6 years from 2.9 years in  4Q 2020, based on a 3-year moving  average of 9,563 units per annum for  take-up of new units. Based on caveats lodged between  1 Apr and 27 Jun this year, overall  sales transaction volumes for private  residential units decreased qoq by  10.3% in 2Q 2021. The transaction  volumes for both the primary and  secondary markets declined qoq, by  18.5% and 4.1% respectively. The volume of private home rental  transactions decreased marginally qoq  by 1.0% in 1Q 2021. Conversely, on a  yoy basis, there was a growth of 9.0%,  suggesting a relatively stable and  robust private homes rental market  despite the ongoing pandemic. 1Q 2021 23,622 units  4Q 2020 23,854 units 2Q 2021   (URA flash estimate) 163.7 1Q 2021 162.2 2Q 2021   (caveats between 1  Apr 21 and 27 Jun 21) 7,267 units 1Q 2021 8,100 units Source: URA Source: URA Source: URA *  Residential launch data for 2Q 2021 are based on   new launches in Apr 21 and May 21 only. 1Q 2021 50,906 units,  24,401 total unsold 4Q 2020 52,403 units,  27,437 total unsold 13 EDMUND TIE RESEARCH MARKET COMMENTARY MARKET OUTLOOK *  Based on URA's flash estimate for 2Q 2021, the PPI  for all private residential properties rose for the  fifth consecutive quarter, albeit at a slower rate of  0.9% qoq versus 3.3% qoq in 1Q 2021. The PPI for  non-landed private residential properties rose at a  marginally faster rate than landed private residential  properties. Across the various market segments for the  non-landed properties, the price increase was most  pronounced in the Outside Central Region (OCR), at  1.8% qoq as compared to 0.6% and 0.3% for the Core  Central Region (CCR) and Rest of Central Region (RCR)  respectively. This trend suggested strong demand for  units in the OCR against the backdrop of prevailing  decentralisation and work-from-home trends. *  Based on caveats lodged between 1 Apr 21 and 27  Jun 21, new sales and secondary transaction volumes  dipped qoq in 2Q 2021. New sales volume recorded  a more significant decline of 18.5% qoq. Across the  market segments, new sales volumes within the RCR  and OCR witnessed qoq declines of 40.9% and 2.3%  respectively. On the other hand, new sales volume in  the CCR witnessed a qoq growth of 16.6%. *  The growth in new sales volume in the CCR correlated  with the location of the new residential launches of  this year. There were nine significant launches of non- landed projects between the start of the year and  end-May 2021, out of which five (Midtown Modern,  The Atelier, Irwell Hill Residences, Peak Residence, and  Grange 1866) were located in the CCR.  *  The residential pipeline supply and the total number  of unsold units for 1Q 2021 have declined, respectively  for the third and ninth consecutive quarters. Based on  the current 3-year moving average of new units take- up per annum, it would take an estimated 2.6 years  to clear up the unsold supply. The government is  cognisant of the tightening of the residential pipeline,  and has decided to moderately increase the supply  of private housing through the 2H 2021 Government  Land Sales (GLS) programme. *  In the private residential leasing market, total rental  volume declined marginally by 0.97% qoq to 23,622  transactions in 1Q 2021. However, there was a 9.0%  yoy growth from 1Q 2020, suggesting a relatively  stable rental market for private homes. *  As the economy gradually recovers against the  backdrop of local and global vaccination programmes,  the demand for private homes will likely hold steady  amidst a low interest rate environment with ample  liquidity and optimistic market sentiments. *  Barring possible imposition of policy measures to  cool the market, the private homes market is likely  to remain on sound footing with transaction activity  staying robust. *  A further boost could be due to the increasing number  of prospective HDB upgraders coming off a buoyant  HDB resale market. *  On the supply side, developers could continue to  price new units at a premium to account for increases  in construction costs resultant from a tight foreign  labour market and delayed timelines due to COVID-19. *  We expect developers to continue striving for  products incorporating new home and lifestyle  concepts that support the new normal of work, live,  and play. *  We expect the mass rental market to see sustained  demand from expatriates relocating from prime  properties and foreign workers seeking temporary  accommodation due to the ongoing border restrictions. Editor: Authors: Lam Chern Woon Senior Director Research &amp; Consulting  +65 6393 2340  chernwoon.lam@etcsea.com For more information, please contact us at research.sg@etcsea.com. Amanda Goh Research Analyst   Research &amp; Consulting  +65 6393 2382 amanda.goh@etcsea.com Hailee Fong Research Analyst   Research &amp; Consulting  +65 6393 2548 hailee.fong@etcsea.com Disclaimer: The information contained in this document and all accompanying presentations (the "Materials") are approximates only, is subject to change  without prior notice, and is provided solely for general information purposes only. While all reasonable skill and care has been taken in the production of the  Materials, EDMUND TIE (the "Company") make no representations or warranties, express or implied, regarding the completeness, accuracy, correctness,  reliability, suitability, or availability of the Materials, and the Company is under no obligation to subsequently correct it. You should not rely on the Materials  as a basis for making any legal, business, or any other decisions. Where you rely on the Materials, you do so at your own risk and shall hold the Company,    its employees, subsidiaries, related corporations, associates, and affiliates harmless to you to and any third parties to the fullest extent permitted by law for any losses,  damages, or harm arising directly or indirectly from your reliance on the Materials, including any liability arising out of or in connection with any fault or negligence. Any  disclosure, use, copying, dissemination, or circulation of the Materials is strictly prohibited, unless you have obtained prior consent from the Company, and have credited the  Company for the Materials.  (c) EDMUND TIE 2021  Saleha Yusoff Executive Director Regional Head of   Research &amp; Consulting  +603 2161 7228 ext 302  saleha.yusoff@etcsea.com Edmund Tie &amp; Company (SEA) Pte Ltd 5 Shenton Way, #13-05 UIC Building, Singapore 068808. T. +65 6293 3228 | F. +65 6298 9328 | mail.sg@etcsea.com | Please visit www.etcsea.com and follow us on CONTACTS PROFESSIONAL SERVICES AGENCY SERVICES Valuation Advisory Poh Kwee Eng Executive Director  Regional Head of   Valuation Advisory  +65 6393 2312 kweeeng.poh@etcsea.com Nicholas Cheng Executive Director  +65 6393 2317 nicholas.cheng@etcsea.com Property Tax Advisory &amp;  Statutory Valuation Ng Poh Chue Executive Director  +65 6393 2515 pohchue.ng@etcsea.com Property Management Kwok Sai Kuai Executive Director  Regional Head of   Property Management  +65 6417 9229   saikuai.kwok@etcsea.com Paul Wong Senior Director  +65 6417 9225 paul.wong@etcsea.com Hospitality Kwok Sai Kuai Executive Director  +65 6417 9229   saikuai.kwok@etcsea.com Tay Hock Soon Senior Director  +65 6887 0088  tayhs@treetops.com.sg Research &amp; Consulting Lam Chern Woon Senior Director +65 6393 2340  chernwoon.lam@etcsea.com Business S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* The overall CBD rentsturned around in 2Q21 after recording five quarters of contraction.  * The recovery wasled by better quality, newer and greener office assetson the back of the growing emphasis on sustainable workplaces and employees' wellness and health.The temporary derailment in the economy's re-opening due to new COVID-19 flare-ups did not rattle occupier sentiment. * Capital values of en bloc officesclimbed at the fastest pace in eight quartersamid renewed investor confidence alongside the bottoming-out of rents. * Strengthening demand on the back of the global economic recovery and Singapore's business-friendly offerings, coupled with tightening supply amid limited new completionsand possible supply withdrawalsdue to the redevelopment of ageing office assets should see rentsand capital valuescontinuing to firm up in 2H21.Residential * Prime home sales volume rose significantlyin 2Q21 on the back of more new launches and a healthy resale market. However, most sales were achieved before the heightened alert measures kicked in on 16 May 2021.  * No collective-sale dealswereconcluded in the Prime districts in 2Q21 despite developers remaining keen to replenish their landbanks. Collective saleshave been affected by a mismatch in pricing expectations between en bloc sellers and buyers.  * Prices of completed Prime private residential properties continued rising in 2Q21 supported byhealthy sales volumes. Rentsfor Prime properties also posted their first increase in more than a year during 2Q21, following signs of improvement in the labour market.    * Prime rents are expected torecover this year given the low completed supply and improvementsin leasing demand resulting from the labour market recovery. Prime home prices are likely to continue trending upwards amid positive market sentiment.  Key Economic IndicatorsGDP Real Growth(2Q21, y-o-y, advance estimates)14.3%Consumer Price Index(May2021, y-o-y)2.4%Total Trade (current prices)(May 2021, y-o-y)30.9%Index of Industrial Production(May 2021, y-o-y)30.0%Retail Sales excl. motor vehicles(chained-volume terms)(May 2021, y-o-y)63.3%Unemployment Rate (S.A.)(May2021)2.8%Total PopulationAnnual Growth (June2020)-0.3%Source: DOSMajor Property Transactions           |    2Q21OfficePrice(SGD mil)9 Penang Road (30% interest) 295.5Westgate Tower (40% interest)*244.0Suntec City Tower One (3 units) &amp; Suntec City Tower Two (7 units) 197.0ResidentialPrice(SGD mil)Northumberland Road (GLS)445.9Tengah Garden Walk EC (GLS)400.3Ang Mo Kio Avenue 1 (GLS)381.4RetailPrice(SGD mil)Paya Lebar Square (45% interest)**162.0Le Quest Mall (100% interest)139.4277, 279 New Bridge Road28.0IndustrialPrice(SGD mil)Galaxis (75% interest)540.0Global Trade Logistics Centre112.0TBC Building74.0*40% interest in each of Westgate Tower Pte Ltd and Westgate Commercial Pte Ltd**45% interest from Paya Lebar Square Pte Ltdwhich owns 159 retail units and oneoffice unitSource: JLL Research, July 2021 32.2Current stock              (sq ft million) 9.90Gross effective rent (SGD psf pm NLA) 1.2%Rental growth (q-o-q) 3,015Capital value(SGD psf NLA) 1.3%Capital value growth (q-o-q) 60,396 Current prime stock (units) 4.78Gross effective rent (SGD psf pm NLA) 2.8% Rental growth (q-o-q) 2,954Capital value (SGD psf NLA) 1.6%Capital value growth (q-o-q)All data are reflective of the CBD Investment Grade submarketThe capital value and rental value indicators are reflective of luxury residential properties  * Over the first two months of 2Q21, the retail sales index (excluding motor vehicles) in chained-volume terms surged 51.5% y-o-y due to the low bases set in April and May 2020 when the circuit breaker measures due to COVID-19 closedphysical stores for mostof April 2020 and the whole of May 2020. Nonetheless, retail sales in April and May 2021 remained below pre-COVID levels.  * Landlords compromised further on rents to support occupancy given the weak retail sales following a tightening of COVID-19 measures and uncertain business prospects after aresurgence inCOVID cases. Hence, rents of prime floor space fell q-o-q across the three sub-markets in 2Q21 but the pace of decline moderated.  * Investment sales rose q-o-q, lifted by Sun Venture Realty's sale of a 45% interest in Paya Lebar Square for SGD 162.0 million and the sale of a 100% interest in Le Quest by Qingjian Realty and minority shareholders for SGD 139.4 million.  * Achieving a high vaccination rate in 2H21, combined with the effective containment of the COVID-19 pandemic will support the further lifting of safe-distancing measures and the gradual easing of travel restrictions. This will lift retailer and consumer sentiment and, in turn, drive retail sales and business expansion. Thus, vacancy rates could fall in the short-term and rent declinesshould ease further. Warehouse * Demand for logistics/warehouse space remained healthy in 2Q21, underpinned by requirements from third-party logistics players and e-commerce firms. There were also enquiries for cold-room or temperature-controlled facilities. * The islandwide average logistics/warehouse rent rose in 2Q21 after holding steady for the past four quarters, driven by relatively tight supply, especially for better quality logistics assets. * Strong competition for logistics/warehouse assets drove up the average logistics/warehouse capital value for the first time in more than three years, and compressed yields in 2Q21. * Given the weight of capital chasing logistics/warehouse assets amid an earlier-than-expected rent recovery, we expect capital values to continue heading north, while yields are foreseen to compress further.AuthorsTay Huey YingHead of Research &amp; ConsultancySingaporeHueyying.tay@ap.jll.com  Ong Teck HuiSenior Director, ResidentialResearchSingaporeTeckhui.ong@ap.jll.comAngelia PhuaDirector, RetailResearchSingaporeAngelia.phua@ap.jll.comDoreen Goh Director, IndustrialResearchSingaporeDoreen.goh@ap.jll.comMichelle TeeDirector, OfficeResearchSingaporeMichelle.tee@ap.jll.comJLL Singapore9 Raffles Place#39-00 Republic PlazaSingapore 048619tel +65 6220 3888fax +65 6438 3361jll.com.sg 121.7Current          stock                  (sq ft million) 1.37Gross effective rent (SGD psf pm NLA) 1.5%Rental growth (q-o-q) 190Capital value(SGD psf NLA) 6.2%Capital value growth (q-o-q)BanditsAll data are reflective of the islandwide market 5.1Current stock            (sq ft million) 35.24Gross effective rent    (SGD psf pm NLA) -3.3%Rental growth (q-o-q) 8,343Capital value (SGD psf NLA) -0.5%Capital value growth (q-o-q)All data are reflective of the Prime sub-submarketjll.com.sgCEA Licence No. L3007326E(c) Copyright 2021JLL. All rights reserved. This report has been prepared solely for information purposes and does not necessarily purport to be a complete analysis of the topics discussed, which are inherently unpredictable. It has been based on sources we believe to be reliable, but we have not independently verified those sources and we do not guarantee that the information in the report is accurate or complete. Any views expressed in the report reflect our judgment at this date and are subject to change without notice. Statements that are forward-looking involve known and unknown risks and uncertainties that may cause future realities to be materially different from those implied by such forward-looking statements. Advice we give to clients in particular situations may differ from the views expressed in this report. No investment or other business decisions should be made based solely on the views expressed in this report.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">knightfrank.com.sg/research Singapore Research Industrial Q2 2021 " " With the global chip shortage, semiconductor and electronics-related industries  continue to drive industrial demand. MANUFACTURING, LED BY  SEMICONDUCTORS, POWERING  SINGAPORE'S RECOVERY DA N I E L  D I N G,  H E A D, CAP I TAL  MARKE TS (L A N D  &amp;  B U I LD I N G ,I N TE RNATI ONAL  RE AL  E STATE  &amp;  I N DU STRIA L) According to the Ministry of Trade and Industry (MTI), Singapore's economy grew 1.3%  year-on-year (y-o-y) in Q1 2021, a surprising turnaround from the negative 2.4% y-o-y  contraction recorded in the last quarter of 2020. Manufacturing continued to drive  Singapore's recovery, with output expansions in electronics, precision engineering and  chemical clusters outweighing output declines in the transport engineering, general  manufacturing, and biomedical manufacturing clusters. In  particular,  semiconductor  manufacturers  and  sub-contractors  supporting  electronics firms were observed to be exploring expansion space to ramp up production  in Q2 2021, especially so with the global chip shortage and overall increasing reliance  on devices in the pandemic era. In May 2021, the Singapore Purchasing Manager's Index (PMI) recorded an expansion  of 50.7, representing the 11th consecutive month of expansion for the industrial sector.  This was a dip of 0.2 from the previous two-year high of 50.9 reported in April 2021,  and slight fall from the 50.8 reported at the end of Q1 2021. Nevertheless, the persistent  expansion in the PMI serves as a reassuring indicator that the industrial sector will be  in a state of continued growth throughout 2021. 1The percentage changes for the total number of tenancies of all industrial space in April and May 2021 are based on a two-month comparison; q-o-q (against January and  February 2021) and y-o-y (against April and May 2020). MARK E T  SNAPSH OT 2 ,3 15  LEASES 13.4%     Q-O-Q | 38.4%     Y-O-Y NUMBER OF INDUSTRIAL TENANCIES1 S$809.1  BILLION 48.6%     Q-O-Q | 149.1%     Y-O-Y TOTAL INDUSTRIAL SALES 56.1  MILLION SF GFA UPCOMING NEW SUPPLY (Q2 2021 TO 2024) Electronics cluster driving manufacturing sector Median rents showed tenuous recovery Q2 2021 Exhibit 1: Leasing Volume and Median Rent of Multiple-User Factory  Space Number of Tenancies Median Rent Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 2016 Q1 Q2 Q3 Q4 2017 Q1 Q2 Q3 Q4 2018 Q1 Q2 Q3 Q4 2019 Q1  Q2*  2020 2021 $1.20 $1.40 $1.30 $1.50 $1.60 $1.80 $1.90 $1.70 2,500 1,500 2,000 1,000 500 0 Number of Leasing Transactions Rent (S$ psf pm) Source: JTC J-Space, Knight Frank Research Note: The median rent is based on a four-quarter moving average. *Q2 2021 data based on April and May 2021 data as at end-June. In Q2 2021, the island-wide median rent of multiple-user factory space remained  unchanged from the previous quarter at S$1.73 per square foot per month (psf pm)  (Exhibit 1). Despite that, the monthly data suggested an improvement in both rents  and rental activity, mirroring the trends seen in the manufacturing sector at large.  Continued on next page With  the  COVID-19  pandemic  highlighting the importance domestic  vaccine  production,  Singapore  managed  to  attract  two  vaccine  manufacturers  to  open  vaccine  production centres in the country.  In  May,  BioNTech,  the  German  biotechnology company responsible  Vaccine giants set up shop in  Singapore As a result, there was a total of 1,801  rental  transactions  in  April  and  May, representing an increase of  43.7% y-o-y from the 1,253 rental  transactions in the same period last  year, and an increase of 15.2% from  1,564 transactions in January and  February 2021. With  an  increasing  urgency  to  fulfil  orders  from  all  over  the  world, producers of technological  components were active in seeking  expansion space in order to grow  output. The multiple-user factory segment  showed  some  brisk  transactional  activity  totalling  some  S$370.0  million, led by the S$35.3 million sale  of Lam Soon Industrial Building in  May 2021. Prices generally picked up  across tenures, averaging about S$415  psf as general business sentiments  improved on the back of the steady  global vaccine rollout (Exhibit 2). Daniel Ding Head Capital Markets (Land &amp; Building, International Real  Estate &amp; Industrial)  +65 6228 6833 daniel.ding@sg.knightfrank.com Benedict Yeo Executive Research +65 6228 6837 benedict.yeo@sg.knightfrank.com Leonard Tay Head Research +65 6228 6854 leonard.tay@sg.knightfrank.com Exhibit 2: Average Price of Multiple-User Factory Space by Balance  Tenure* $900 $800 $700 $600 $500 $400 $300 $200 $100 $0   &lt;= 30 Years 31 to 60 Years 61 to 99 Years Freehold &gt; 99 Years Q1 Q2 Q3 Q4 2016 Q1 Q2 Q3 Q4 2017 Q1 Q2 Q3 Q4 2018 Q1 Q2 Q3 Q4 2019 Q1 Q2 Q3 Q4 2020 Q1 Q2 2021 Price (S$ psf) Source: JTC J-Space, Knight Frank Research Note: The average unit price is based on a four-quarter moving average of strata transactions. *The balance tenure is based on the number of remaining years at the point of transaction. **Q2 2021 data based on transactions downloaded as at 30 June 2021. Knight Frank Research  Reports are available at knightfrank.com.sg/research (c) Knight Frank 2021 This report is published for general information only. Although high standards have been used in the  preparation of the information, analysis, views and projections presented in this report, no legal responsibility  can be accepted by Knight Frank Research or Knight Frank for any loss or damage resultant from the contents  of this document. As a general report, this material does not necessarily represent the view of Knight Frank  in relation to particular properties or projects. Reproduction of this report in whole or in part is allowed with  proper reference to Knight Frank Research. About Knight Frank Singapore Knight Frank LLP is the leading independent global property consultancy. Headquartered in London, Knight  Frank has more than 20,000 people operating from 488 offices across 57 territories. The Group advises  clients ranging from individual owners and buyers to major developers, investors and corporate tenants.  Knight Frank has a strong presence in Singapore with a head office and two subsidiaries: Knight Frank  Property Asset Management and KF Property Network. For further information about the Company, please  visit www.knightfrank.com.sg. Contact us for insights, research and real estate opportunities. for the Pfizer vaccine, announced  its intention to open its South-east  Asian  headquarters  in  Singapore  this year, with further plans for  the development of a mRNA-based  vaccine production facility set to be  operational from 2023. Pharmaceutical giant Sanofi Pasteur  announced in April plans to expand  its footprint in Singapore with the  development of a S$638 million vaccine  production centre. Construction is  expected to begin in the third quarter  of 2021, with full operations beginning  in 2026. The new facilities are in  line with the government's plan to  position Singapore as a regional hub  for the healthcare and biotechnology  industries. While the resurgence in COVID-19 cases at home and abroad has put a dampener on the  recovery in the transport engineering cluster, the manufacturing sector continued to  lead the recovery in 2021 as expected. According to the Economic Development Board  (EDB), recent business sentiments in the manufacturing sector were positive, with  manufacturing firms anticipating a favourable business situation for the second and  third quarters of 2021. And as new reports indicate that the global chip shortage may  be more protracted than previously anticipated, semiconductor manufacturers may be  more sanguine in committing capital to expand production volumes, driving demand  for industrial space. However, the considerable supply of new industrial space in the pipeline would likely  keep industrial rent growth in check. About 56.1 million sf gross floor area (GFA) of new  industrial space is expected to come online between Q2 2021 to end 2024, with 45.7%  of the new supply projected to be completed in the rest of 2021. Although a significant  proportion of the new supply consists of factory space, construction delays due to  COVID-19 induced labour shortages and healthy pre-commitment levels for upcoming  factory space may alleviate the impact on factory rentals, allowing rents to increase  moderately between 1% and 3% for the whole of 2021. Market outlook Recent Publications INDUSTRIAL Q1 2021 SINGAPORE VIEW 23RD EDITION </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 savills.com.sg/insight-and-opinion/ MARKET IN MINUTES Savills Research Industrial Leasing momentum remains strong Savills plc Savills is a leading global real  estate service provider listed on  the London Stock Exchange. The  company established in 1855, has  a rich heritage with unrivalled  growth. It is a company that leads  rather than follows, and now has  over 600 offi   ces and associates  throughout the Americas, Europe,  Asia Pacifi  c, Africa and the Middle  East. This report is for general  informative purposes only. It may  not be published, reproduced or  quoted in part or in whole, nor may  it be used as a basis for any  contract, prospectus, agreement  or other document without prior  consent. Whilst every eff  ort has  been made to ensure its accuracy,  Savills accepts no liability  whatsoever for any direct or  consequential loss arising from its  use. The content is strictly  copyright and reproduction of the  whole or part of it in any form is  prohibited without written  permission from Savills Research. Simon Smith Regional Head of  Research &amp; Consultancy,  Asia Pacifi  c +852 2842 4573 ssmith@savills.com.hk Alan Cheong Executive Director  Singapore +65 6415 3641 alan.cheong@savills.com.sg RESEARCH Rental growth for business park and high-spec industrial was limited by  subdued demand in older clusters and price-sensitive prospects. "  The sector has tracked a  consistent storyline since the  pandemic begun, making it  easier to extrapolate trends." ALAN CHEONG, SAVILLS RESEARCH *   Owing to the strong leasing interest for factory and  warehouse spaces, the industrial leasing scene was more  active in Q2/2021. Leasing volume almost doubled from a  year ago to 3,381 transactions. *   Savills' average monthly rent for prime multiple-user  factories increased by 1.4% quarter-on-quarter (QoQ) to  S$1.74 per sq ft in Q2, while that for prime warehouse and  logistics properties remained fl  at at S$1.44 per sq ft. *   Even though total sales volume of 419 in Q2/2020 was  signifi  cantly more than 149 deals transacted in Q2/2020,  the volatility in numbers is reducing as the manufacturing  economy slowly regains functionality. *   Average prices for Savills' basket of freehold properties  increased 0.6% QoQ to S$705 per sq ft in Q2/2021. *   Savills' basket of leasehold industrial properties showed that  prices for 60-year leasehold properties continued trending  up with a 0.5% QoQ growth to S$434 per sq ft, while that  for 30-year leasehold properties ended a six-quarter decline  with a 0.1% QoQ rise to S$292 per sq ft. *   The average monthly rent of Savills' basket of prime business  park properties remained unchanged at S$5.76 per sq ft  while that of standard business park properties inched up by  0.1% QoQ to S$3.97 per sq ft in Q2/2021. *   The average monthly rent for Savills' high-spec industrial  basket stabilised with a -0.1% QoQ growth to S$3.48 per sq ft  in Q2/2021. *   In view of the recovery in the multiple-user factory market,  we have revised our rental forecast from -3% to 0% to 2.5%.  For warehouse and logistics space, we maintain our 1% to 3%  forecast range. Christopher J Marriott CEO, Southeast Asia  +65 6415 3888 cjmarriott@savills.asia SINGAPORE Please contact  us for further  information Savills team MCI (P) No. 037/03/2021 Company Reg No. 198703410D Sharon Teo Managing Director Singapore +65 6415 3288 sharon.teo@savills.com.sg Singapore - August 2021 2 savills.com.sg/insight-and-opinion/ MACROECONOMIC OVERVIEW Singapore's economy rebounded strongly  by 14.7% year-on-year (YoY) in Q2/2021.  This was largely attributed to the low base  in Q2/2020 when large parts of the economy  were shut to curb the spread of the pandemic.  Compared with the preceding quarter, the  economy contracted by 1.8% in Q2/2021,  ending three consecutive quarters of growth  since Q3/2020. The similar trend was also  observed in the manufacturing sector.  Although the sector extended its three- quarter expansion with a 17.7% YoY growth in  Q2/2021, it nevertheless contracted by 2.5%  from the previous quarter. This marked a  signifi  cant pullback from its 11.5% quarterly  growth in Q1/2021. Nonetheless, Singapore's overall  manufacturing sentiment remained buoyant  in Q2/2021, with June's Purchasing Manager's  Index (PMI) staying in expansionary  territory for the 12th straight month (PMI:  50.8). Despite a slower rate of growth in  May due to the impact of tighter COVID-19  measures on the sector, momentum in  factory activity remained strong in Q2. In the  same quarter, Singapore exports continued  its growth trend from March. Coupled with  the improving global economic backdrop and  global demand for semiconductor-related  products, Singapore's non-oil domestic  exports (NODX) rose at a faster pace of 15.9%  in June.  RENTAL MARKET Owing to the strong leasing interest for  factory and warehouse spaces, the industrial  leasing scene was more active in Q2/2021.  Leasing volume1 was up 43.7% YoY to 3,381,  far surpassing the quarterly average of  around 2,400 transactions for the last fi  ve  years. From our focal group discussions with  industrial market specialists, for factory  space, it appears that more companies  still prefer leasing to owning, especially  the multinational corporations (MNCs).  On the other hand, for warehousing space  users, there is a mixed preference amongst  users with sales and leasing demand evenly  balanced. In Q2/2021, leases for multiple-user  and single-user factories increased by 46.6%  YoY and 43.0% YoY respectively, while that  for warehouses went up by 30.3% YoY.  Arising from strong leasing demand,  vacancy rate of multiple-user factory fell 0.7  of a percentage point (ppt) QoQ to 10.3% in  Q2/2021, the lowest since Q3/2013. Despite  an improvement in net demand, vacancy  for single-user factory and warehouse  segments remained relatively fl  at from the  previous quarter as new supply outpaced  net demand. As the construction industry  slowly overcome the delays caused by the  1   Based on JTC's rental data (excluding business park  spaces, only comprises single- and multiple-user factory as  well as warehouse spaces). pandemic, more new completions come to  the fore with some major projects such as  Cogent Jurong Island Logistics Hub and  Digital Loyang II data centre being completed  in Q2. Consequently, this led to downward  pressures on the overall occupancy level for  the two segments. Industrial rents trended along with  the demand across respective segments.  While rents for multiple-user factories  were recovering after a year of decline from  Q4/2019, that for warehouses were starting to  stabilise after rising for the last few quarters.  In Q2/2021, JTC's rental index for multiple- user factories rose at a faster pace at 1.0%  QoQ. Similarly, Savills' average monthly  rent for prime multiple-user factories2  increased by 1.4% QoQ to S$1.74 per sq ft in  Q2, compared to the 1.1% QoQ increase in Q1.  On the other hand, warehouse rental growth  continued to slow in Q2, with JTC's rental  indices inching up 0.2% QoQ. From Savills'  basket of industrial properties, the average  monthly rent for prime warehouse and  logistics3 properties remained fl  at at S$1.44  per sq ft. SALES MARKET Singapore's strata industrial market started  to quieten down since early this year. Even  though the total sales volume of 419 in  Q2/2020 was signifi  cantly more than 149  deals transacted in Q2/2020, the pace of sales  growth slowed down in 1H/2021. Notably,  number of sales caveats lodged for multiple- user factories declined from the peak in  Q4/2020. Many industrialists, particularly  the Small and Medium-Sized Enterprises  (SMEs), are looking to acquire multiple-user  factory spaces at a favourable price. Although  some sellers are now more realistic with  their price expectations, most buyers expect  greater price reduction amid pandemic-led  disruptions. As a result of a mismatch in price  expectations, sellers rather keep the property  for stable revenue income than to dispose at a  huge price discount.  For the warehouse segment, sales volume  had remained stable since Q3/2020, the  quarter when the number of deals surged  after the economy unlocked a notch. There  is still strong buying interest from both  end-users and investors who are looking  for industrial assets including logistics  warehouse and cold storage facilities.  Coupled with limited supply available in the  market, investors see warehouse logistics  as one of the attractive asset classes, which  have a strong potential in the long run and  appeal to users from various industries.  2   Based on Savills basket of private multiple-user factory  properties which ranges from 1,000 sq ft to 3,000 sq ft in  size, with an average monthly asking rent of at least S$1.50  per sq ft. 3   Based on Savills basket of private multiple-user warehouse  properties which ranges from 2,000 sq ft to 80,000 sq ft in  size, with an average monthly asking rent of at least S$1.40  per sq ft. GRAPH 1: Factory And Warehouse Leasing Volumes,  2011 to Q2/2021 1,138  1,480  1,513  1,752  1,868  1,768  1,794  2,345  2,417  2,434  2,950  1,390  1,732  1,981  2,129  2,317  2,285  2,401  2,702  2,883  2,353  3,381  1,543  1,611  2,070  2,060  2,031  2,130  2,358  2,543  2,679  3,005  1,504  1,613  2,071  2,071  1,921  1,962  2,331  2,564  2,486  2,913  0 2,000 4,000 6,000 8,000 10,000 12,000 NO. OF TRANSACTIONS Q1 Q2 Q3 Q4 Source JTC, Savills Research &amp; Consultancy GRAPH 2: Prices Of Upper-Storey Strata Factory And  Warehouse Units, Q1/2015 to Q2/2021 250 300 350 400 450 500 550 600 650 700 750 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 2015 2016 2017 2018 2019 2020 2021 S$ PER SQ FT Freehold 60-year leasehold 30-year leasehold Source JTC, Savills Research &amp; Consultancy GRAPH 3: Business Park Space Vacancy Rates, 2016 to Q2/2021 0 5 10 15 20 25 30 35 40 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 2016 2017 2018 2019 2020 2021 % Islandwide Mapletree Business City &amp; Science Park International Business Park Changi Business Park Source JTC, Savills Research &amp; Consultancy Industrial 3 savills.com.sg/insight-and-opinion/ For the quarter in review, we observed that some  end-users who operate their business in large  warehouse facilities are looking for suitable  warehouse properties in the outskirts as part of  their decentralisation plan, instead of incurring  high long-term rental costs.  Industrial prices in Q2/2021 continued to  increase on the back of healthy sales level. From  Savills' basket of industrial properties4, prices for  freehold properties increased at a faster rate at  0.6% QoQ to S$705 per sq ft in Q2/2021. Savills'  basket of leasehold industrial properties showed  that prices for 60-year leasehold properties  continued trending up with a 0.5% QoQ uptick to  S$434 per sq ft, while that for 30-year leasehold  properties ended a six-quarter decline with a 0.1%  QoQ growth to S$292 per sq ft. BUSINESS PARK AND HIGH-SPEC  INDUSTRIAL The take-up for business park space was uneven  across locations in Q2/2021. Notably, occupier  demand in older clusters such as Changi Business  Park remained weak, driving the vacancy level in  East Planning Region up by 1.0 ppt QoQ to a record  high of 18.7%. Even though the net take-up in  prime areas remained at healthy levels, the vacancy  level in the Central Planning Region (where the  more sought-after Business Parks are located)  inched up by 0.2 of a ppt QoQ to 10.9%, the highest  since Q4/2018. This was attributed to the recent  completions in one-north, including Razer SEA  HQ and Wilmar International, which are likely not  fully physically occupied yet. As the overall rental  growth for business parks were limited by the  subdued demand in the older clusters, JTC's rental  index for business park stayed fl  at in Q2/2021. This  was in line with the direction for average monthly  rent in Savills' basket of prime business park  properties5 and standard business park properties6.  4   Only include upper-storey strata-titled factory (single- and  multiple-user factory) and warehouse units, excluding all ground  fl  oor units. 5   Based on business park-zoned spaces in the newer clusters which  range from 1,000 sq ft to 5,000 sq ft in size, with an average monthly  asking rent of at least S$5.50 per sq ft. 6   Based on business park-zoned spaces in the older clusters which  range from 1,000 sq ft to 5,000 sq ft in size, with an average monthly  asking rent of at least S$3.50 per sq ft. They remained unchanged at S$5.76 per sq ft  and inched up by 0.1% QoQ to S$3.97 per sq ft  respectively.  In Q2/2021, the occupier demand for high-spec  industrial segment showed some signs of picking  up and this could be one of the factors supporting  the occupancy level of multiple-user factories  (high-spec industrial buildings are a subset of  multiple-user factories). Landlords of high-spec  industrial space continued to see leasing interest  from fi  ntech fi  rms, new IT start-up companies and  creative agencies. However, as prospective tenants  are still quite cost conscious, well-maintained  older developments are competitors to these  buildings. Consequently, landlords have been  unable to raise their rents too much as prospective  tenants are price sensitive and substitute spaces  are available. As such, the average monthly rent  for Savills' high-spec industrial basket7 remained  rather fl  at with a -0.1% QoQ growth to S$3.48 per  sq ft in Q2/2021.   OUTLOOK Unlike the other sectors of the property market,  the industrial and warehousing sectors have been  performing in synch with exigencies that came  about due to the pandemic. While the landscape for  the other sectors of the market have been evolving  7   Based on offi   ce-like industrial space which ranges from 2,000 sq  ft to 4,000 sq ft in size, with an average monthly asking rent of at  least S$3 per sq ft. since the start of the pandemic, the industrial  and warehousing market has in fact maintained a  consistent storyline, one that is intuitive in nature  and thus extrapolatable. After almost eighteen  months since the inception of measures to contain  the pandemic, the common themes that have  been dominating the industrial and warehousing  market have been supply chain disruptions and  new economy demand. We have supply chain  disruptions and the increased demand for  healthcare related equipment driving the demand  for logistics space. We also have new economy  companies spearheading demand for business park  and high-spec industrial space together with such  companies that serve the online consumer market  on the lookout for logistics space. These have been  described in our Q1/2021 briefi  ng and its currency  still holds. The additional observation for the  second quarter is that buyers have actively been  looking for deals but sellers, especially those on 30- year land leases, though having lowered their price  expectations are not willing to go down further  to consummate a sale. In view of the recovery in  the multiple-user factory market, we have revised  our rental forecast from -3% to 0% to 2.5%. For  warehouse and logistics space, we maintain our 1%  to 3% forecast range. PERIOD YoY % CHANGE IN MULTIPLE-USER  FACTORY RENTS YoY % CHANGE IN WAREHOUSE &amp;  LOGISTICS RENTS 2021F 2.5% +1.0% to 3.0% TABLE 1: Rental Forecast For Multiple-User Factory And Warehouse &amp; Logistics Segments Source Savills Research &amp; Consultancy Industrial </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA R K E TB E AT Industrial Q1 2021 SINGAPORE $5.90 Business Park (City Fringe) $3.59 Business Park (Outlying Areas) $4.23 Science Park -0.1% Inflation Growth -2.4% Real GDP Growth 3.2% Unemployment Source: Ministry of Trade &amp; Industry (MTI),  Moody's Analytics  SINGAPORE ECONOMIC INDICATORS  Q4 2020 12-Mo. Forecast 12-Mo. Forecast Manufacturing to Steer the Recovery Course Despite Singapore's record full-year GDP contraction of 5.4% in 2020, the manufacturing sector grew by 7.3% yoy, driven by the outperformance of biomedical manufacturing, electronics and precision engineering clusters. The purchasing Managers' Index (PMI), a barometer for the manufacturing economy, maintains its affirmative market indication of 50.5 points as of February 2021. Amidst thriving demand for semiconductor and digital processing solutions, manufacturing, along with information &amp; communications and finance &amp; insurance sectors, are poised to drive growth. According to the Ministry of Trade and Industry, Singapore's economy is expected to grow by 4% to 6% in 2021. Sectorial Performance Continue to Diverge But Rents Show Signs of Stability City-fringe business parks rents recorded a marginal growth of 0.2% qoq, reaching $5.90 psf/mth in Q1 2021, amidst tight supply and demand from technology and biomedical companies who favour high-spec and well-located developments. On the other hand, outlying business park rents ($3.59 psf/mth) fell by 1.3% qoq, driven by lower rents at business parks at the west. Science Park rents ($4.23 psf/mth) registered a fall of 0.9% qoq. High-tech and conventional factory (ground floor) rents remained stable in Q1 2021, at $3.12 and $1.78 psf/mth respectively. Additionally, conventional warehouses (ground floor) and prime logistics rents remained flat in Q1 2021, at $1.54 psf/mth and $1.39 psf/mth respectively. The prevalence of retail, food and healthcare e-commerce will continue to drive demand for logistics spaces, while the accelerated digital transformation has sustained demand for well-located business park and high-tech spaces. Growing demand will be sustained by occupiers across technology, life science and logistics industries have largely thrived since the pandemic. For example, the warehouse capacity of GKE Corp was reported to be full at present and the company is on the lookout for additional storage space. Shopee also cited that it will need to build up its fulfilment capability, in areas such as warehousing and distribution centres. As such, prime logistics, city-fringe business parks, Science Park and high-tech factory spaces are expected to register growth in 2021 amidst prevailing megatrends. Influx of Supply Not Expected to Derail Broad Recovery Due to construction delays in 2020, there will be an influx of upcoming supply of 28.8 million sf (msf) in 2021. This compares to 2020's net supply of only 3.8 msf. However, majority of incoming supply in 2021 are single-user factory space (12.3 msf) and business park space (1.3 msf) which have been mostly pre-committed. Warehouse supply is expected to increase by 4.8 msf in 2021, higher than the 5-year average annual net demand of 3.9 msf. New warehouse supply should see relatively good take-up rates, amidst current strong demand in 2021. Nonetheless, conventional warehouse rents are expected to remain flat in 2021. Notably, there would be around 9.5 msf of multi-user factory space coming online in 2021. This could weigh on conventional factory rents, which are expected to decline by 1.5% in 2021. INDUSTRIAL SUPPLY PIPELINE Re nts (S$PSF/MO) -2 3 8 13 Multiple-User Factory Single-User Factory Warehouse Business Park Supply (msf) 2019 2020 2021F 2022F 2023F 2024F MA R K E TB E AT Industrial Q1 2021 SINGAPORE SEGMENT GROSS EFFECTIVE RENT 12-MONTH OUTLOOK S$/SF/MO US$/SF/MO EUR/SF/MO Business Park (City Fringe) S$5.90 US$4.39 EUR3.74 Business Park (Outlying Areas) S$3.59 US$2.67 EUR2.27 Science Park S$4.23 US$3.15 EUR2.68 High-Tech S$3.12 US$2.32 EUR1.98 Factory - Ground Floor S$1.78 US$1.32 EUR1.13 Factory - Upper Floor S$1.60 US$1.19 EUR1.01 Warehouse - Ground Floor S$1.54 US$1.15 EUR0.98 Warehouse - Upper Floor S$1.26 US$0.94 EUR0.80 Prime Logistics - Ground Floor S$1.39 US$1.03 EUR0.88 Prime Logistics - Upper Floor S$1.25 US$0.93 EUR0.79 US$/S$ = 1.344; EUR/S$ = 1.579, as of 31 March 2021 PROPERTY SUBMARKET SELLER / BUYER PRICE (S$ Million) Admirax Woodlands BlackRock / AEW $142 The Sandcrawler one-north Lucas Real Estate / Blackstone $176 Sime Darby Business Centre Alexandra Sime Darby Property / AIMS APAC REIT $102 MARKET STATISTICS PROJECT NAME SUBMARKET TENANT SF EXPECTED COMPLETION YEAR Grab HQ one-north Grab 396,000 2021 Razer SEA HQ one-north Razer 177,000 2021 Wilmar International BTS one-north Wilmar 152,000 2021 Surbana Jurong Campus Jurong West Surbana Jurong 445,000 2021 CleanTech Three Jurong West - 664,000 2021 Perennial Business City Jurong East - 1,100,000 2021 - 2022 Biopolis Phase 6 one-north - 378,000 2023 cushmanwakefield.com KEY SALES TRANSACTIONS Q1 2021 SIGNIFICANT BUSINESS PARK PROJECTS - PLANNED &amp; UNDER CONSTRUCTION WONG XIAN YANG Head of Research  Singapore  +65 6232 0885 / xianyang.wong@cushwake.com BRENDA ONG Executive Director Head of Logistics &amp; Industrial Services Singapore +65 6232 0878 / brenda.ong@cushwake.com A CUSHMAN &amp; WAKEFIELD RESEARCH PUBLICATION About Cushman &amp; Wakefield Cushman &amp; Wakefield (NYSE: CWK) is a leading global real estate services  firm that delivers exceptional value for real estate occupiers and ow ners.  Cushman &amp; Wakefield is among the largest real estate services firms w ith  approximately 50,000 employees in over 400 offices and 60 countries. In  2020, the firm had revenue of US$7.8 billion across core services of  property, facilities and project management, leasing, capital markets,  valuation and other services. To learn more,  visit w ww.cushmanwakefield.comor follow @CushWake on Tw itter. (c)2021 Cushman &amp; Wakefield. All rights reserved. The information   contained within this report is gathered from multiple sources believed   to be reliable. The information may contain errors or omissions and is   presented without any warranty or representations as to its accuracy. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARKETVIEW Road to recovery Quick Stats Investment* Q1 21 q-o-q y-o-y Total volume $3.523 bn   Office Q1 21 q-o-q y-o-y Grade A rent $10.40   Capital value $2,850   Net yield** 3.7%   Business Park Q1 21 q-o-q y-o-y Rent (City Fringe) $5.75   Retail Q1 21 q-o-q y-o-y Prime rent (Orchard) $34.90   Capital value $7,400   Net yield 4.9%   Residential Q1 21 q-o-q y-o-y Prime rent $4.11   Capital value $1,719   Net yield 2.2%   Industrial*** Q1 21 q-o-q y-o-y Rent $1.39   Capital value $181   Net yield 6.8%   Source: CBRE Research, Q1 2021 All capital values and yields stated as prime. Rents are quoted on a $ psf per month basis and capital values on a $ psf basis. *Investment volumes are preliminary. All transactions above S$10 mil **Yield calculation methodology revised based on an average of rolling eight quarter rents. ***30-year prime logistics data provided. Note: Prime retail rents, capital values revised due to revision in rental baskets for Q1 2021. Singapore, Q1 2021 CAPITAL MARKETSWith economic recovery gaining traction, preliminary real estate investment volume in Singapore increased by 11.5% q-o-q, to $3.523 bn for Q1 2021. OFFICESupported by the tight vacancy, the rental decline in the Grade A (Core CBD) market was arrested after four quarters of correction. Conversely, the Grade B market continued to grapple with higher vacancy rates and rents registered a further decline. BUSINESS PARKSThe performance of the business park market softened slightly in Q1 2021. Negative net absorption was noted, contributed by the City Fringe submarket. RETAILThere has been a slowdown in rental declines of prime retail spaces. Landlords continue to maintain a flexible stance towards rental expectations. RESIDENTIALThe strong performance in the residential market has further shored up homebuyers' confidence and take-up of new launches. INDUSTRIALLeasing activity was stable in Q1 2021, albeit slowing down from the strong performance of the previous sector. Transactions consisted mainly of renewals and relocations, along with a handful of new set ups and expansions. (c) CBRE Ltd. 2021 | 13M Interbank 0.4% MarRetail Sales Index* Y-o-Y 3.5% FebCPI Inflation Y-o-Y 0.7% FebPMI 50.8 MarGDP Y-o-Y -2.4% Q4 20 Arrows indicate change from previous period *excludes sale of motor vehicles. Q1 2021 CBRE Research MARKETVIEW COVID-19 Updates (c) CBRE Ltd. 2021 | 2 Further Extension of Relief Periods to the Built Environment Sector *The relief period for construction contracts or supply contracts, or any performance bond granted thereto, will be extended for an additional six months, up to 30 Sep 2021.  *The relief period for Options to Purchase, and Sale and Purchase Agreements with developers, will be extended for an additional three months, up to 30 Jun 2021. *The relief period for co-sharing of additional non-manpower-related qualifying costs between contracting parties due to delays caused by COVID-19 is also extended for an additional six months up to Sept 30. Cost-sharing relief will also now apply to qualifying costs that arise due to delays caused by COVID-19 during the period from 7 Apr 2020 to 30 Sep 2021. Market-related Developments A Timeline of Events Q1 2021 CBRE Research 01 02 03 Code of Conduct (CoC) for Leasing of Retail Premises *The CoCseeks to serve as a guide to landlords and tenants and to provide a framework to provide an accessible dispute resolution framework. It will be effective from 1 Jun 2021.  *Some of the leasing principles for key tenancy terms include the exclusion of exclusivity clauses, transparency in costs to prepare lease agreement and third party costs, exclusion of sales performance clauses and for rental formula to be based on a single rental computation throughout the lease term etc.  *Any exception must be mutually agreed by the landlord and tenant. H2 2020 27 4th stimulus $33b Fortitude Budget 2 Phase 1 Safe reopening with  resumption of 1/3 of workforce 12 Easing of "circuit  breaker" Certain businesses  allowed to open 19 Phase 2 More businesses and  social activities to  resume May Jun 17 Additional support  measures $8.0b Budget Aug 3 Amendment No. 3 Extension of support  measures for COVID-19  (Temporary Measures) Act Nov 28 Phase 3 Further easing of restrictions 21 First batch of  vaccines Singapore received its  first shipment of Pfizer- BioNTech COVID-19  vaccines Dec H1 2021 Updated Safe Management Measures at Workplaces and Crowd Control *75% of employees allowed to be at the workplace at any one time, up from 50% currently, with split teams no longer mandatory but flexible work arrangements still encouraged from 5 April.  *Larger events of up to 750 people, up from 250 people, will also be allowed from 24 April for business and sporting events, and live performances, subject to pre-event testing and placing attendees in zones of up to 50 people each.  16 Budget 2021 The Budget, named  Emerging Stronger  Together, was unveiled 27 Pilot vaccinations Month-long pilot for the  elderly in two housing estates Jan Feb 17 Retail "Code  of Conduct" Key leasing principles  for key tenancy  terms announced (wef 1 Jun 2021) Mar 22 Next phase of  vaccinations For seniors islandwide Apr 5 Safe management  measures  Updated measures allow  up to 75% of employees to  be at the workplace MARKETVIEWWith economic recovery gaining traction, preliminary real estate investment volume in Singapore increased by 11.5% q-o-q, to $3.523 bn for Q1 2021, marking a third consecutive quarter of increase since the trough of the pandemic in Q2 2020. This is a respectable volume considering there were no public sites transacted in the quarter.The residential sector was the outperformer, coming in at 37.8% of investment sales, with the sale of private sites and strong luxury sales. In an enbloc sale, three sites at Institution Hill were sold to a local consortium for $33.60 mil. In two other collective sales, 6, 6A, 6B Mount Emily Road was sold for $18.00 mil while Surrey Point was sold for $47.80 mil. For luxury sales, 18 good class bungalows were sold, and another 31 apartments above $10.00 mil were transacted, 20 units of which were from Eden by Swire properties and sold collectively for $293.00 mil. Coming in a close second at $967.46 mil was industrial sales, boosted by a portfolio transaction of assets injected into the Boustead Industrial Fund by Boustead Projects Limited. Other sizeable transactions came from the office sector; this includes the sale of a 50% stake in OUE Bayfront for $633.75 mil, and the $150.00 mil sale of CertisCisco Centre to a trust set up by Certisand Lendlease for redevelopment. Despite travel restrictions still in place, foreign interest in Singapore assets remain strong with funds still actively seeking out investments. Investment volume is likely to improvewith the rollout of vaccination programs globally, border restrictions easing, and business confidence returning.Although investors are likely to remain discerning and cautious, spurred by the low interest rate environment and ample liquidity, they will still be in search of investments that provide them with higher returns, coupled with stability and value at the top of their minds. Due to their limited stock, Grade A offices and shophouses will still be in high demand. CBRE Research believes that investment volume in 2021 is likely to rebound on the back of a recovering economy, led by residential, office, and industrial sales.  Q1 2021 CBRE Research (c) CBRE Ltd. 2021  | SINGAPORE CAPITAL MARKETS 70 80 90 100 110 120 Q1 16 Q3 16 Q1 17 Q3 17 Q1 18 Q3 18 Q1 19 Q3 19 Q1 20 Q3 20 Q1 21 Q4 2014 = 100 Grade A Office Prime Retail Prime Logistics Leasehold Prime Residential Chart 1: Total Transaction Value Chart 2: Capital Values Index Source: CBRE Research, Q1 2021 Source: CBRE Research, Q1 2021 Source: CBRE Research, Q1 2021 Note: Investment property transactions are property deals priced above S$10 million and include sales of building and development sites as well as ownership  changes of assets. The 4-quarter Rolling Total (4QRT) generally smoothens out short-term quarterly fluctuations and highlights longer-term trends or cycles. Table 1: Major Private Investment Transactions Sector Property Price ($) Buyer  Office OUE Bayfront (50% stake) 633.75 mil Allianz Real Estate Residential Eden (20 units) 293.00 mil Tsai family Retail Yew Tee Point 220.00 mil Arch Capital 3 $0 $10 $20 $30 $40 $50 $0 $2 $4 $6 $8 $10 $12 Q1 16 Q3 16 Q1 17 Q3 17 Q1 18 Q3 18 Q1 19 Q3 19 Q1 20 Q3 20 Q1 21 S$ bn S$ bn Private Public 4-quarter Rolling Total (RHS) MARKETVIEWAfter three quarters of negative net absorption, the office market registered a positive net absorption of 0.13 mil sq. ft. in Q1 2021. This stemmed mainly from Dyson Limited's lease commitment atSt James Power Station which was added into total office stock for Q1 2021. In the past six months, CBRE Research has noted an uptick in leasing momentum. In particular, the Grade A (Core CBD) market also registered positive net absorption, as occupiers capitalised on the declining rents and moved to prime office buildings. Demand came from firms in the technology and financial services industries such as asset management firms, and to a smaller extent, family offices. In addition, the displacement of tenants from buildings scheduled for redevelopment such as AXA Tower and Fuji Xerox Towers have contributed to increased occupier activity over the past few months. With more flight to quality movement, the difference in the Grade A and Grade B markets became more stark. Supported by the tight vacancy in the Grade A (Core CBD) market, the rental decline was arrested after four quarters of correction. In Q1 2021, Grade A (Core CBD) rents remained stable q-o-q at $10.40 psf/month. Conversely, the Grade B market continued to grapple with higher vacancy rates and the Grade B (Core CBD) rents saw a further rental decline of 1.3% q-o-q to $7.80 psf/month. Although there remain concerns around the existing pool of secondary space, healthy take-up of secondary space within the Core CBD has indicated that interest for such fitted out space remains strong. Going forward, demand is expected to be supported by employment gains, a gradual recovery of the economy and a tight supply pipeline. However, it will not be a uniform recovery; the Grade A market is expected to be the main beneficiary as large corporates leverage on the pull-back in rents for an upgrade in location and quality.  (c) CBRE Ltd. 2021  | 4 Chart 3: Office Supply-Demand Dynamics 0% 2% 4% 6% 8% -0.5 0.0 0.5 1.0 1.5 Q1 16 Q3 16 Q1 17 Q3 17 Q1 18 Q3 18 Q1 19 Q3 19 Q1 20 Q3 20 Q1 21 mil sq. ft. Net Supply Net Absorption Vacancy rate (RHA) Source:  CBRE Research, Q1 2021 Table 2: Office Vacancy Rates Source:  CBRE Research, Q1 2021 Chart 4: Office Rental Index 100 120 140 160 180 200 220 Q1 16 Q3 16 Q1 17 Q3 17 Q1 18 Q3 18 Q1 19 Q3 19 Q1 20 Q3 20 Q1 21 Q4 2005 = 100 Singapore (Grade A Core CBD) Asia Pacific Source:  CBRE Research, Q1 2021 Table 3: Singapore Office Rents Q1 21 Q-o-q Y-o-y Islandwide 5.9% -4 bps 95 bps Core CBD 6.1% -16 bps 145 bps Fringe CBD 6.0% 15 bps 30 bps Decentralised 5.5% 2 bps 65 bps Grade A (Core CBD) 3.3% -57 bps 93 bps Q1 21 Q-o-q Y-o-y Grade A CBD Core $10.40 0.0% -9.6% Grade B CBD Core $7.80 -1.3% -9.8% Grade B Islandwide $7.20 -2.0% -10.0% Source:  CBRE Research, Q1 2021 SINGAPORE OFFICE Q1 2021 CBRE Research MARKETVIEWThe performance of the business park market softened slightly in Q1 2021. A negative net absorption of -35,817 sq. ft. was noted, contributed by the City Fringe submarket. Consequently, islandwidevacancy saw a marginal increase of 0.1 percentage points q-o-q to 12.9%.Leasing activity was relatively subdued in Q1 2021, with renewals and relocations continuing to feature. While leasing demand was led by the technology sector, expansions from other sectors have eased, as firms become more conservative in their take-up. Further, more downsizing by companies with portions of employees working from home could be expected as they recalibrate their space requirements.Some landlords are becoming more flexible in rental negotiations as they seek to maintain occupancy levels. CBRE Research noted a fall in rents for both the City Fringe and Rest of Island submarkets; the former saw a 0.9% q-o-q drop to $5.75 psf/month whereas the latter declined by 1.4% q-o-q to $3.65 psf/month.Amid construction delays, the pipeline for 2021 now totals 1.40 mil sq. ft. This may place some pressure on rents, in particular for the Rest of Island submarket with some projects in CleanTechPark slated to complete this year. In addition, the total future pipeline will further increase with the inclusion of Perennial Business City, which has yet to be added as it is still pending rezoning approval from URA.Looking ahead, the updated safe management measures at workplaces, which took effect from 5 Apr, is likely to lend support to renewals and gradually aid in the overall recovery of the business parks market. However, with many occupiers expected to adopt hybrid models for the time being, the return to workplaces may be phased out as companies relook at their workplace strategies and flexible working arrangements. Meanwhile, quality will continue to be a priority for occupiers looking to relocate or expand. Buildings with higher specifications are therefore expected to see greater demand.  Q1 2021 CBRE Research (c) CBRE Ltd. 2021  | 5 SINGAPORE BUSINESS PARKS Chart 6: Business Park Vacancy by Submarkets Source: CBRE Research, Q1 2021 Table 4: Business Park Rents Source: CBRE Research, Q1 2021 Table 5: Known Business Park Future Pipeline (in sq. ft.) Source: CBRE Research, Q1 2021 Q1 21 Q-o-q Y-o-y City Fringe $5.75 -0.9% -1.7% Rest of Island $3.65 -1.4% -2.7% Chart 5: Business Park Supply-Demand Dynamics Source: CBRE Research, Q1 2021 11% 12% 13% 14% 15% 16% -0.2 0.0 0.2 0.4 0.6 0.8 1.0 1.2 Q1 16 Q3 16 Q1 17 Q3 17 Q1 18 Q3 18 Q1 19 Q3 19 Q1 20 Q3 20 Q1 21 Net Supply Net Absorption Vacancy Rate (RHA) NLA (mil sq. ft.) Q1 16 Q3 16 Q1 17 Q3 17 Q1 18 Q3 18 Q1 19 Q3 19 Q1 20 Q3 20 Q1 21 0% 5% 10% 15% 20% Rest of Island City Fringe Vacancy City Fringe Rest of Island Total 2021 0.75 mil 0.64 mil 1.40 mil 2022 0.00 mil 0.36 mil 0.36 mil 2023 0.30 mil 0.32 mil 0.63 mil 2024 0.00 mil 1.95 mil 1.95 mil Total 1.05 mil 3.28 mil 4.33 mil Note: Total figures may not add up due to rounding. MARKETVIEWRetail indicators have continued to show signs of recovery. Unemployment has declined, while with the return of shopper traffic, business expectations have improved. With the protracted closure of tourism borders, local spending has increased. Retail sales (excluding motor vehicles), posted a y-o-y change of -1.3% and 3.5% in Jan and Feb 2021 respectively, a marked improvement as compared to the pre-pandemic period. For Q1 2021, retailers from the F&amp;B, convenience stores and supermarkets sector were seen to be increasing their footprint. At the same time, they have reinvented concepts, creating new and innovative brands to gain market share. Leasing enquiries from boutique gyms, beauty, health and wellness related sectors remain relatively active, although their decision making process are taking longer.It was observed that there has been a slowdown in rental declines of prime retail spaces, from -3.6% q-o-q in Q4 2020 to -1.2% q-o-q this quarter. Notably, landlords continue to maintain a flexible stance towards rental expectations and leasing strategies to support tenants' requirements, favouring tenant retention over occupancy.Even though demand indicators are improving, the retail sector has yet to reach full recovery; it will be highly dependent on the global vaccine roll-out and how soon Singapore can reopen its borders. With these considerations, the retail sector is expected to bottom out in late 2021. As such, the recovery of the retail sector is likely to be a gradual one, potentially from 2022 onward, given that the retail sector is still highly challenged by e-commerce competition and labour woes.  The introduction of the Code of Conduct (effective 1 Jun 2021) is a much welcome change and tilts the scale to achieve a more equitable balance in the leasing dynamics.  It seeks to increase the competitiveness of Singapore's retail sector, which will be timely as the economy recovers from the pandemic. Q1 2021  CBRE Research 6 SINGAPORE RETAIL Chart 7: Retail Economic Indicators Source: STB, MTI Economic Survey of Singapore, CBRE Research, Q1 2021 Table 6: Estimated Gross New Supply* Source: CBRE Research, Q1 2021 *excludes projects with a NLA of less than 20,000 sq. ft. Table 7: Prime Retail Rents Source: CBRE Research, Q1 2021 Note: Rental revisions due to revision in rental baskets Chart 8: Retail Rental Index Source: CBRE Research, Q1 2021 Note: Q1 2021 Asia Pacific Retail Rental Index is a preliminary estimate (c) CBRE Ltd. 2021  | Year Estimated NLA (sq. ft.) 2021 0.34 mil sf  2022 0.37 mil sf  2023 0.17 mil sf  2024 0.39 mil sf  Q1 21 Q-o-Q Y-o-y Orchard Road $34.90 -2.0% -9.5% Suburban $29.50 0.0% -0.5% 0.0 1.0 2.0 3.0 4.0 5.0 6.0 Q4 16 Q2 17 Q4 17 Q2 18 Q4 18 Q2 19 Q4 19 Q2 20 Q4 20 -40.0% -30.0% -20.0% -10.0% 0.0% Millions Visitor Arrivals (RHA) Change in Retail Sales Index at Constant Price (excludes car sales) y-o-y change (2017=100) mil 70 90 110 130 150 170 190 Q1 16 Q1 17 Q1 18 Q1 19 Q1 20 Q1 21 Q1 2005 = 100 Asia Pacific Prime Orchard Road Prime Suburban MARKETVIEW Chart 9: New Private Residential Units Take-UpThe strong performance in the residential market has further shored up homebuyers' confidence and take-up of new launches. Preliminary estimates for new home sales volume for Q1 2021 came to 3,376 units, which was 57.1% higher than the same period last year. This was bolstered by the sales of Normanton Park (728 units), Midtown Modern (362 units) and The Reef at King's Dock (343 units), which were all newly launched this quarter. Q1 2021's performance also indicated strong demand for high-end homes among local homebuyers.According to URA's flash estimates, private residential property prices rose in Q1 2021 for the fourth consecutive quarter, driven by increasing buyers' confidence, pent-up demand and the low interest rate environment. It grew by another 2.9% q-o-q in Q1 2021, after a 2.1% q-o-q increase in the previous quarter. This was mainly attributed to the RCR, which rose by 6.1% q-o-q in Q1 2021, a bigger q-o-q increase than the 4.4% registered in Q4 2020. Transactions at The Reef at King's Dock (median unit price of $2,257 psf) were likely to have contributed to the higher psf prices registered in the RCR. In addition, there was healthy take-up from earlier launches in the suburban market, which signifies resilient demand from upgraders.To date, private property prices have increased by 6.2% since Q1 2020. This also raises the possibility that more cooling measures could be rolled out. At this pace, it is likely to exceed the government's GDP growth forecast of 4-6%, while the launch of some upcoming projects at higher psf pricing might continue to push the price index higher.Although these projects are predominantly located in the CCR and RCR locations, smaller sized units which tend to have an affordable price quantum will still be attractive and palatable investments. Barring any unforeseen circumstances, CBRE Research expects new home sales to fall within the region of 9,000 to 10,000 units for 2021. In the longer term, the potential reopening of borders will also bring about the return of foreign investors to the residential market.  Q1 2021 CBRE Research (c) CBRE Ltd. 2021  | 7 SINGAPORE RESIDENTIAL Source: URA, CBRE Research, Q1 2021 Note: Prelim figures exclude executive condominiums (ECs) Preliminary newly launched figures for Q1 2021 refer to Jan &amp; Feb only.  Table 8: Selected Projects with New Units Launched in Q1 2021 Chart 10: URA Residential Price Index Development Tenure Median  Price  ($psf) No of  units in  project Units  sold Normanton Park 99y $1,766  1,862 728 Midtown Modern 99y $2,725 558 362 The Reef at King's  Dock 99y $2,261 429 343 Source: CBRE Research, Q1 2021 Note: Q1 2021 URA Residential Price Index is a flash estimate Source: CBRE Research, Q1 2021 Note: Based on no. of caveats lodged 0 500 1,000 1,500 2,000 2,500 3,000 3,500 4,000 Q2 20 Q3 20 Q4 20 Q1 21 Units TOTAL Newly Launched TOTAL New Sales 120 140 160 180 Q1 16 Q1 17 Q1 18 Q1 19 Q1 20 Q1 21 Q1 2009 = 100 MARKETVIEW Q1 2021 CBRE Research (c) CBRE Ltd. 2021  | 8 SINGAPORE INDUSTRIAL Chart 11: Manufacturing Indices Table 9: Significant Future Developments for 2021 Source: CBRE Research, Q1 2021 Table 10: Industrial Rents Source: CBRE Research, Q1 2021 Source: CBRE Research, Q1 2021 Note: APAC rental index is based on preliminary statistics. -30% -20% -10% 0% 10% 20% 30% 44 46 48 50 52 54 56 Jan-19 Mar-19 May-19 Jul-19 Sep-19 Nov-19 Jan-20 Mar-20 May-20 Jul-20 Sep-20 Nov-20 Jan-21 Mar-21 PMI-Contract PMI-Expand Mfg Output NODX Source:  Singstat, SIPMM, CBRE Research, Q1 2021 Development Region Est. GFA  (Mil sf) JTC Defu Industrial City North East 3.51 TimMac @ Kranji North 1.54 JTC Logistics Hub @ Gul West 1.51 Kranji Green North 1.43 Q1 21 Q-o-q Y-o-y Factory (Grd Flr) $1.50 0.0% -1.3% Factory (Upp Flr) $1.18 0.0% -0.8% Warehouse (Grd Flr) $1.58 0.0% 1.9% Warehouse (Upp Flr) $1.20 0.0% 1.7% Prime Logistics $1.39 0.7% 6.1% Chart 12: Industrial Rental Index 80 100 120 140 160 180 Q1 16 Q3 16 Q1 17 Q3 17 Q1 18 Q3 18 Q1 19 Q3 19 Q1 20 Q3 20 Q1 21 Q4 2005=100 Singapore Factory Singapore Warehouse APAC Mfg/NODX PMISingapore's manufacturing sector exhibited signs of sustained growth in Q1 2021. Manufacturing output rose by 16.4% y-o-y in Feb, following its 9.2% y-o-y expansion in Jan, supported primarily by the electronics, biomedical manufacturing and precision engineering clusters; while NODX similarly increased 4.2% y-o-y in Feb, extending its growth from the previous two quarters. SIPMM's PMI maintained its strong performance, posting its ninth consecutive month of expansion in Mar at 50.8.Leasing activity was stable in Q1 2021, albeit slowing down from the strong performance of the previous sector. Transactions consisted mainly of renewals and relocations, along with a handful of new set ups and expansions. In particular, the warehouse submarket continued to be driven from the third-party logistics, e-commerce and food logistics segments. Meanwhile, some leasing activity was also observed for hi-tech factory buildings, primarily from the semiconductor, precision engineering and technology segments.Both factory and warehouse rents tracked by CBRE Research remained resilient this quarter, staying flat q-o-q for both the ground and upper floors. On the other hand, as vacancy remained low and demand continued to be robust, prime logistics rents grew 0.7% q-o-q to $1.39 psf/month in Q1 2021.Moving forward, while the saturated factory pipeline may place pressure on rents, high-specsbuildings will continue to be in demand along with the recovery of the manufacturing sector. Nonetheless, the factory submarket remains two-tier, and older buildings may continue to weigh on overall rental performance. Meanwhile, warehouse leasing demand is likely to remain stable, with upcoming supply expected to be absorbed gradually by the market. However, external pressures remain; with the ongoing global pandemic, as well as the Suez Canal blockage which may have knock-on effects on global trade. MARKETVIEW Disclaimer: Information contained herein, including projections, has been obtained from sources believed to be reliable. While we do not doubt its accuracy,  we have not verified it and make no guarantee, warranty or representation about it. It is your responsibility to confirm independently its accuracy and completeness. This information is presented exclusively for use by CBRE clients and professionals and all rights to the material are reserved and cannot be  reproduced without prior written permission of CBRE. DEFINITIONS Grade A Rents  Average value derived from a basket of Grade A  properties located in the Central Business District (CBD).  Prime Capital Values Valuation based average value derived from a basket of  prime properties. For residential and retail, the basket is  only of freehold properties while industrial basket is  related to 60-year leasehold properties. All values are  quoted on a per square foot net floor area and strata  basis, except for office values, which are on an en-bloc  basis. Prime industrial space and thereafter rents and  capital values are considered on upper floors. Net Absorption The change in occupied stock (in sq. ft.) over the  recorded period for all existing properties. Vacancy Rate Vacant space as a percentage of the base inventory or  building net lettable area.  Net Yield Net property income (gross income net service charges  and taxes) as a percentage of the asset's capital value. The following  locations are considered for Grade A or  Prime property baskets: Office Raffles Place, Shenton Corridor, Marina Bay and Marina  Centre Retail Orchard Road  (units on levels with heaviest footfall) Industrial Islandwide mature industrial locations such as Ubi, Kaki  Bukit, Tuas, and Woodlands Residential  Core Central Region (CCR) - districts 9, 10,11,  Downtown &amp; Sentosa Cove   (covering apartments and condominiums) CONTACTSSingapore CBRE ResearchCBRE Pte. Ltd.2 Tanjong KatongRoad #06-01PayaLebar QuarterSingapore 437161+65 6224 8181www.cbre.com.sgCo. Reg. No. 197701161RAgency License No. L3002163ICatherine HeCapital Markets Research+65 6326 1232Catherine.he@cbre.comGoh Jia LingResidential &amp; Retail Research+65 6328 7304Jialing.goh@cbre.comYuki SuzukiOffice Research+65 6326 1669Yuki.suzuki@cbre.com.sgElizabeth LowIndustrial &amp; Business Parks Research+65 6328 7397Elizabeth.low@cbre.comTo learn more about CBRE Research, or to access additional research reports,  please visit the Global Research Gateway at www.cbre.com/researchgateway SINGAPORE </t>
-  </si>
-  <si>
-    <t>SINGAPORE 1Q 2021 Uneven recovery across property sectors despite  improving economy REAL ESTATE  TIMES APRIL 2021 1 EDMUND TIE RESEARCH ECONOMY  Market commentary Key economic indicators *  Based on estimates released by the  Ministry of Trade and Industry (MTI)  on 14 April 2021, Singapore's economy  expanded by 0.2% yoy in 1Q 2021,  following a -2.4% decline in 4Q 2020 (Table  1). This is the first positive turnaround  after three consecutive quarters of  decline. The economy expanded by 2.0%  qoq in 1Q 2021, compared to an expansion  by 3.8% qoq in 4Q 2020. *  Economic activities were ramped up at the  start of the year as the economy entered  Phase 3 of recovery from 28th December  2021. After posting a strong 10.3%  yoy growth, the manufacturing sector  expanded by 7.5% yoy in 1Q 2021. Clusters  such as electronics, precision engineering,  chemicals and biomanufacturing  performed better than the transport  engineering and general manufacturing  clusters, which experienced output  declines. As the construction sector  gradually picked up due to public and  private sector demand, the contraction  moderated to a decline of 20.2% yoy in  1Q 2021, an improvement from the 27.4%  contraction in 4Q 2020.  *  The services sector fell by 1.2% yoy in  1Q 2021, an improvement from the drop  of 4.7% in 4Q 2020. Among the services  sectors, wholesale, retail trade and  transportation &amp; storage fell by 4.1%  yoy in 1Q 2021, a slight improvement  from the decline of 6.4% yoy in 4Q 2020.  Accommodation &amp; food services, real  estate, administrative &amp; support services  and other services dropped by -3.9%  yoy in 1Q 2021 from -9.9% in 4Q 2021.  The bright spot was the information and  communications, finance and insurance  and professional services sector which  grew 3.7% yoy in 1Q 2021 yoy from 1.4%  in 4Q 2021.  Table 1: Singapore's Gross Domestic Product (GDP) Selected indicators Yoy change (%) 1Q  2020 2Q  2020 3Q  2020 4Q  2020 1Q  2021 Overall GDP -0.3 -13.3 -5.8 -2.4 0.2 Manufacturing 7.9 -0.8 11.0 10.3 7.5 Construction -1.2 -59.9 -52.4 -27.4 -20.2 Services producing  industries -2.3 -13.6 -8.4 -4.7 -1.2 Source: MTI, advanced estimated released on 14 April 2021 Table 2: Inflation, unemployment rate and fixed asset investments Selected indicators 1Q  2020 2Q  2020 3Q  2020 4Q  2020 Consumer Price Index   (Core inflation) yoy % change 0.0 -0.2 -0.3 -0.2 Consumer Price Index   (All items inflation) S.A.   yoy % change 0.4 -0.7 -0.3 -0.1 Unemployment rate, S.A. (%) 2.4 2.9 3.6 3.2 Fixed asset investments (S$bn) 12.4 1.9 2.1 3.0 Source: Singapore Department of Statistics *  MAS core inflation rose to 0.7% in February from 0.2% in January  2021, driven by the rise in food inflation and service costs. The labour  market conditions improved slightly in February 2021, as Singapore's  overall unemployment rates fell to 3% from 3.2% in January,  signifying a renewed confidence by firms to add to headcount. The  labour market has turned the corner for now due to the various job  support/conversion schemes initiated by the government. *  The International Monetary Fund (IMF) has upgraded in April this  year its 2021 growth outlook for Asia to 7.6% in 2021, up from the  6.9% forecasted as of October 2020. Global economic prospects  have also brightened although the rising interest rates in the US  could translate into higher borrowing costs.  *  Business and consumer confidence are rising due to the easing of  border restrictions and the gradual rollout of the COVID-19 vaccines.  Apart from travel dependent industries, we expect most sectors to  experience stronger growth in 2021. MAS estimates Singapore's GDP  growth in 2021 to fall within the upper range of their official forecasted  growth of 4 to 6%. Cognizant of ongoing global and regional risks, MAS  has maintained an accommodative monetary policy, keeping the rate  of exchange rate appreciation at 0% per annum. 2 EDMUND TIE RESEARCH Market commentary Investment sales Total investment sales nearly doubled from $2.5bn in  Q4 2020 to $4.8bn in Q1 2021 (Figure 1). This was likely  due to the improved business sentiments arising from  Singapore's Phase 3 reopening on 28 December last year  and the commencement of the Ministry of Health's (MOH)  national vaccination programme that was piloted on 27  January this year. The recovery in investment sales is also  reflective of the gradual pick-up of the construction sector,  which posted a more moderate contraction of 20.2% yoy  in Q1 2021, compared to the 27.4% contraction in Q4 2020. The public investment sales market recorded no activity in  this quarter, given that there were no sites awarded under  the public land sales programmes. This was in part due  to the government's cautious approach towards releasing  sites for tender given the COVID-19 pandemic and the  prevailing macroeconomic situation at the end of last year.  Furthermore, land parcels released under the 2H2020 GLS  programme were granted longer tender periods by URA  due to the COVID-19 situation and would only be awarded  from Q2 2021 onward. On the other hand, the private investment sales market  witnessed brisk activities and recorded 156% qoq growth,  from $1.9bn in Q4 2020 to $4.8bn in Q1 2021. This was  led by strong performances in the residential and office  sectors, which posted total transaction amounts of $1.8bn  and $1.6bn respectively, or 39% and 34% of Q1 2021's total  investment sales (Figure 2). For the remaining sectors,  industrial transactions made up 19% of total investment  sales, followed by retail and shophouse transactions,  which represented 5% and 3% of total investment sales  respectively. There were no investment sales in the  hospitality sector. INVESTMENT 0 5 10 15 20 25 30 35 40 2011 2012 2013 2014 2015 2016 2017 2018 2019 2020 2021 $bn Q1 Q2 Q3 Q4 Source: Various sources, EDMUND TIE Research Figure 1: Yearly investment sales by quarter Figure 2: Total investment sales by asset type 65% 4% 15% 6% 10% Q4 2020 Residentia Office Industrial Retail Shophouse Q1 2021 Q4 2020 39% 34% 19% 5% 3% Q1 2021 Residential Office Industrial Retail Shophouse 39% 34% 19% 5% 3% Q1 2021 Residentia Office Industrial Retail Shophouse 39% 34% 19% 5% 3% Q1 2021 Residential Office Industrial Retail Shophouse Source: EDMUND TIE Research 3 EDMUND TIE RESEARCH 2018 $ mn 2019 $ mn 2020 $ mn Q2 2020 $ mn Q3 2020 $ mn Q4 2020 $ mn Q1 2021 $ mn qoq chg % Total Investment Sales  32,469 30,350 12,763 1,867 4,788 2,476 4,750 92 Residential 20,423 7,573 4,478 271 976 1,616 1,840 14 Office 5,078 8,506 3,038 1,324 846 84 1,626 1,848 Industrial 3,018 4,924 2,122 178 433 375 897 139 Retail 1,818 3,578 2,677 43 2,457 155 241 55 Hospitality 985 5,038 0 0 0 0 0 n.m. Shophouse 1,148 730 379 50 60 246 145 -41 Others 0 0 70 0 16 0 0 n.m. Private Sales 25,348 25,024 10,913 1,863 4,780 1,853 4,750 156 Residential 13,892 3,023 2,865 271 976 993 1,840 85 Office 4,713 8,506 3,038 1,324 846 84 1,626 1,848 Industrial 2,855 4,711 1,884 174 425 375 897 139 Retail 1,818 3,578 2,677 43 2,457 155 241 55 Hospitality 923 4,475 0 0 0 0 0 n.m. Shophouse 1,148 730 379 50 60 246 145 -44 Others 0 0 70 0 16 0 0 n.m. Government sales 7,121 5,326 1,851 4 8 622 0 n.m. Residential 6,531 4,550 1,612 0 0 622 0 n.m. Office 365 0 0 0 0 0 0 n.m. Industrial 163 213 238 4 8 0 0 n.m. Retail 0 0 0 0 0 0 0 n.m. Hospitality 62 562 0 0 0 0 0 n.m. Shophouse 0 0 0 0 0 0 0 n.m. Others 0 0 0 0 0 0 0 n.m. Table 3: Investment sales summary Source: Various sources, EDMUND TIE Research 4 EDMUND TIE RESEARCH Sector trends and outlook * There were three significant office transactions in Q1  2021, with the highest amount posted by the divestment  of 50% of OUE Bayfront by OUE Commercial REIT to  Allianz Real Estate for $633.8mn (Table 4). The other  significant transactions were the sale of Certis Cisco  Centre at 20 Jalan Afifi for $150mn, and 108 Robinson  Road for $142.8mn. These key transactions marked a  contrast to Q4 2020, where there were no significant  office transactions, and point to a possible return of  interest for the office sector given that with effect from  5th April 2021, 75% of staff can return to their workplace  at any one time and working from home is no longer the  default arrangement. * Industrial investment sales amounted to $897.4mn in  Q1 2021, more than doubling the $375.4mn recorded  in Q4 2020. There were three significant industrial  transactions, namely the sale of 20 - 23 Rochester Park  at $144.8mn, followed by BreadTalk Group's divestment  of BreadTalk IHQ at 30 Tai Seng Street for $118mn, and  AIMS APAC REIT's $102mn acquisition of Sime Darby  Business Centre at 315 Alexandra Road. * For retail investment sales, the sole significant  transaction in Q1 2021 was FCT's divestment of YewTee  Point for $220mn to unrelated parties. The shopping  mall has around 70 tenants spread over 74,000 sq ft  of NLA. This transaction marked FCT's third retail mall  divestment over three consecutive quarters, adding to  the REIT's divestment of Bedok Point and Anchorpoint  Shopping Centre in Q3 2020 and Q4 2020 respectively. * There were two significant residential transactions in  Q1 2021. The first was the $293mn sale of all 20 units  of Eden, a freehold luxury condominium by Swire  Properties at 2 Draycott Park, to the members of the Tsai  family of Want Want China Holdings. The second was the  sale of a Good Class Bungalow (GCB) at 30 Nassim Road  to a private investor for $128.8mn. Apart from these, the  residential sector was abuzz with 10 other transactions  greater than $30mn each in Q1 2021, of which 7 were  recorded by GCBs. The stark pick-up in transaction activities in Q1 2021  relative to the previous quarter is indicative of the  improving appetite amongst investors. As MOH's ongoing  vaccination drive helps the nation achieve herd immunity  against COVID-19 and consequently normalcy in the  economy, investment activity could be bolstered for the  rest of 2021. Development Remaining tenure, yrs Purchase price Purchaser Seller $ mn $ psf Residential  Eden Freehold 293.0 4,827 NLA Want Want China Holdings Swire Properties 30 Nassim Road Freehold 128.8 4,005   land area Jin Xiao Qun   (wife of the founder of Nanofilm  Technologies International) Sukmawati Widjaja   (Vice chairperson of Sinar  Mas Group) Office OUE Bayfront (50% stake) 86 633.8 3,170 NLA Allianz Real Estate OUE Commercial Real Estate  Investment Trust Certis Cisco Centre 23 150.0 1,152 land area Certis &amp; Lendlease Property Trust Certis Cisco Security Pte Ltd 108 Robinson Road Freehold 142.8 2,604 NLA PGIM Real Estate Sin Capital Group Industrial 20 - 23 Rochester Park 25 144.8 1,046 land  area Unknown Unknown BreadTalk IHQ 19 + 30 118.0 474 GFA Lian Beng Group, Apricot Capital,  &amp; 32RE Investments BreadTalk Group Pte Ltd Sime Darby Business Centre 34 102.0 569 GFA AIMS APAC REIT Aster (Alexandra) Pte Ltd Retail YewTee Point 84 220.0 2,986 NLA Unknown Frasers Centrepoint Trust Table 4: Key* private investment sale transactions in 1Q 2021 Source: Various sources  *Refers to any property transactions with value above S$100mn. 5 EDMUND TIE RESEARCH OFFICE  Figure 3: Office occupancy rates* and qoq % point change (in arrows) in  1Q 2021 0.0 0.4 0.8 1.2 1.6 2021 2022 2023 2024 Under Construction Planned mn sq ft Source: EDMUND TIE Research Figure 4: Office development pipeline Rents Monthly rents in the various subzones of the office sector held steady  or declined slightly in 1Q 2021 (Table 5). Within the CBD and Non-CBD,  there was a flight to quality by corporates. Due to the tight vacancies,  premium grade office rents held steady in the quarter. In addition, with  the impending redevelopment of AXA Tower and Fuji Xerox Towers,  there is some leasing demand from the displaced tenants seeking to  lease alternative office premises. The steepest declines were recorded  in Raffles Place Grade A and Shenton Way/Robinson Road/Tanjong  Pagar Grade B as vacancies rose. In the Orchard Road and decentralised  areas, leasing activity was limited but rents were broadly unchanged. Office demand and occupancy rates *  With effect from 5th April 2021, 75% of  staff can return to their workplace at any  one time and working from home is no  longer the default arrangement. Even as  more workers gradually return to their  office premises, some employees have  indicated a preference for work-from-home  arrangements, citing productivity gains  and reduced commute times. As a result,  businesses remain cautious about expanding  traditional office spaces as they deliberated  on the ideal hybrid working model.  *  Major banks are reviewing their  operations and shrinking their physical  offices. It was reported that DBS plans to  shed 75,000 sq ft at Marina Bay Financial  (MBFC) Tower Three, while Standard  Chartered is also considering giving up its  space in MBFC Tower One. ANZ Singapore  is also considering terminating one floor  of its current existing space in Ocean  Financial Centre in 2021.  *  Co-working operator Just-Co had recently  announced in March 2021 that it will be  opening another office in Tampines located  at Asia Green, after an announcement  for an expansion located in One-North  (30,000 sq ft). Bridge+ by CapitaLand also  opened another co-working office at 79  Robinson Road in January 2021, three  years after the debut of its Bridge+ flagship  co-working office in Ascent building at  Singapore Science Park 1. *  Based on EDMUND TIE Research statistics,  overall net absorption islandwide declined  from a robust 390,000 sq ft in 4Q 2020 to  74,000 sq ft in 1Q 2021. The islandwide  occupancy rate remained stabilised  remaining at 93.3% in 1Q 2021 (Figure 3). The  occupancy rate in CBD fell by 0.4% pts qoq to  92.7% in 1Q 2021 from 93.1% in 4Q 2020. 6 EDMUND TIE RESEARCH Location Subzone Grade 4Q 2020  1Q 2021 Qoq change (%) CBD Marina Bay Premium 12.03 12.03 0.0 Raffles Place A 10.26 10.06 -1.0 Shenton Way/ Robinson Road/ Tanjong Pagar Premium 10.86 10.86 0.0 A 8.72 8.67 -0.5 B 7.11 7.04 -1.0 Non-CBD Marina Centre A 9.65 9.60 -0.5 City Hall/Bugis Premium 10.72 10.72 0.0 * 7.01 6.98 -0.5 Orchard Road * 8.84 8.84 0.0 Decentralised areas Decentralised areas * 6.03 6.03 0.0 Table 5: Average monthly gross office rents (S$ per sq ft) Source: EDMUND TIE Research *Ungraded office space Outlook On the whole, we expect office rents to bottom out by the end of  this year as the employment outlook improves. Even as major banks  continue to downsize their office spaces, demand for office spaces  continues to be fuelled by technology, fintech and finance companies.  Singapore has been a regional base for Western companies and is now  becoming a hub for Chinese technology companies. This is supported by  the office expansion of Tencent, Alibaba and ByteDance, as they ramp up  the hiring process to recruit more talents in Singapore, especially talents  who are trained in the technology sector. The recent announcement of  Google co-founder Sergey Brin opening a family office in Singapore will  buoy investor confidence in Singapore as a financial hub. We expect more businesses to sign on leases with co-working operators  due to the flexibility and shorter-term commitments. As companies  endeavour to accommodate their employees' preferences to work  with some form of flexibility, the trend of co-working spaces might  be preferred by companies looking for a change from traditional  workspaces. Even for traditional offices, we are seeing a gradual  transition to integrate more communal spaces for people to connect  and engage in meaningful collaborations. Supply pipeline Based on EDMUND TIE Research, there are  nearly 4.5mn sq ft of new office space that  will be completed from 2021 to 2024 (Figure  4). Most of the office developments will be  completed in 2021 (28.03% or 1.36mn sq  ft) and 2024 (28.05% or 1.4mn sq ft). Close  to half (47.2%) of the supply pipeline from  2021 (28% or 1.4mn sq ft) to 2024 will be in  the CBD, followed by 32.2% in Decentralised  Areas. The larger developments include  Central Boulevard towers (1.26mn sq ft)  which is slated to be completed in 2023 and  an office/ retail development by SP Group  (640,000 sq ft) located at Pasir Panjang Road  and scheduled to be completed in 2024. 7 EDMUND TIE RESEARCH INDUSTRIAL Market commentary Key indicators The manufacturing sector expanded for the  ninth consecutive months in March 2021 and  the PMI reading is the highest since March  2019. The PMI reading expanded by 0.3  points from February 2021 to 50.8 in March  2021 (Table 6). NODX increased 9.7% yoy in  1Q 2021, after a -0.5% fall in 4Q 2020. Demand and occupancy *  Based on JTC's statistics, overall industrial  net absorption increased from 1.2mn sq ft  in 3Q 2020 to 2.3mn sq ft in 4Q 2020. The  full-year absorption declined from 7.9mn  sq ft in 2019 to 7.5mn sq ft in 2020 (-4.0%).  In 4Q 2020, occupancy rates of single-user  factory space, multiuser factory space,  and business park and warehouse space  increased (Figure 5). The two industrial  segments, which saw the greatest increase  are multi-user factory occupancy, which  improved by 0.8% qoq and business park  occupancy, which improved by 0.5% qoq  in 4Q 2020. Rents *  Based on EDMUND TIE Research's  industrial property basket, monthly rents  were broadly flat for most industrial  segments in 1Q 2021 (Table 7). Although  upper-storey factory rents fell by -0.5%  qoq in 1Q 2021, it was a smaller decline  compared to 4Q 2020 (-1.0%).  *  We expect hi-tech industrial properties to  perform better than the other industrial  stock due to the government's push for  Key  economic  indicators 4Q  2020 1Q  2021 Key trends NODX  (Yoy) -0.5% 9.7% *  NODX growth was led by the electronics  sector (14.8%) in 1Q 2021 while non- electronic NODX posted growth of 8.4%  in 1Q 2021. The largest contributor was  China, which contributed 15.3% to exports.  This is followed by United States, which  contributed to 12.8% in exports.  PMI* 50.5 (Dec  2020) 50.8 (March  2021) *  The higher reading is supported by a  higher growth in new orders, exports and  employment. The electronics subindex fell  by 0.2 points from February 2021 to 50.6  in March 2021. This is the eighth month of  expansion for the electronics sector. Table 6: Singapore's NODX and PMI  Source: SIPMM * Reading above 50 indicates an expansion, while below 50 indicates  a contraction. 70 80 90 100 2015 2016 2017 2018 2019 2020 Single-user factory Multiple-user factory Business park Warehouse % Source: JTC Figure 5: Occupancy rates of industrial space by type Industrial type* Subcategory 4Q  2020  1Q  2021  Qoq change  (%) Multiple-user factory First-storey 1.84 1.84 0.0 Upper-storey 1.31 1.30 -0.5 Warehouse/logistics Overall 1.59 1.59 0.0 High-tech industrial Overall 2.92 2.94 0.5 Business park Central Region 5.00 5.00 0.0 Suburban  3.66 3.66 0.0 Table 7: Average monthly gross rents (islandwide) (S$ per sq ft)  Source: EDMUND TIE Research  * In-house estimates of key selected private  industrial premises. 8 EDMUND TIE RESEARCH 0 5 10 15 20 25 2021 2022 2023 2024 Data centres Extensions, additions and alterations to industrial properties Warehouse Multiple-user industrial developments Single-user industrial developments Business parks mn sq ft Source: JTC, EDMUND TIE Research Figure 6: Industrial development pipeline (with planning approvals and  GLS sites which are pending approvals) Outlook The industrial sector outlook remains relatively bright, as the  government continues to ensure that Singapore remains a competitive  manufacturing hub, especially for the pharmaceutical sector. Various  major multinational firms have raised interest in developing facilities  to develop and manufacture vaccines. Thermo Fisher Scientific will be  investing $174 million, and their facility will be operational in 2022,  the plant will manufacture a wide range of vaccines and therapeutics.  Another global biopharmaceutical company Sanofi will be investing  $639 million over five years for their new vaccine site, their first vaccine  production centre in Asia, where construction is expected to start in  Q3 2021.  There has also been increasing focus on the environmental impact of  industrial properties in Singapore, especially for data centres. Digital  Realty recently opened its third and largest data centre in Singapore,  which received the Building and Construction Authority's highest  Green Mark Platinum certification. Moving forward, we can expect  a shift towards more environmentally sustainable infrastructures, as  companies increasingly adopt an ESG agenda.  We expect industrial rents to bottom out this year, led by the high-tech  and warehouse segment as the drive towards e-commerce and hi-tech  manufacturing continues. However, the looming supply pipeline in 2021  will moderate such an increase. advanced manufacturing as Singapore  prepares for Industry 4.0. In 1Q 2021, hi- tech industrial rents rose by 0.5% qoq.  There has been a preference for modern  specifications due to a rise in e-commerce,  food logistics, and medical manufacturing.  Older industrial buildings will likely see a  decline in demand, resulting in a two- tiered industrial market. Supply pipeline *  As of 4Q 2020, the supply pipeline from  2021 to 2024 is projected to be around  41.7mn sq ft (NLA). Approximately 53%  of the pipeline will be completed in 2021,  followed by 30.7% in 2022 (12.8mn sq ft).  The hike in potential completions in 2021  was due to the delay in the completion of  projects and new supply being rolled over  from 2020. Multi-user factories accounted  for the bulk (33%) of the supply pipeline  (Figure 6). The larger multi-user factory  developments in the pipeline are Solaris  @ Tai Seng (929,000 sq ft) and Mapletree  Industrial Trust located at Kallang Way  (710,000 sq ft). With the excess supply  of industrial projects in 2021, we will also  expect to see more subdued rents for  industrial spaces.  9 EDMUND TIE RESEARCH RETAIL  Market commentary Key indicators *  With the pandemic situation relatively  well contained in Singapore, coupled  with a stabilisation in the labour market,  businesses and consumers have gradually  regained a sense of normalcy.  *  Starting from 5th April 2021, the number of  employees allowed to go back to work has  been raised from 50 per cent to 75 per cent.  This could potentially drive more footfall  in the central area, as retail operators  are largely dependent on the lunchtime  working crowds for their business.  *  Traditional brick and mortar stores located  in Chinatown ramped up digitalisation with  a committee formed by IMDA, ESG and STB.  Chope and Qoo10 have been appointed to  assist the tenants to drive more sales and  footfall into the area, by providing guidance  and training on digital marketing.  *  Although the growth of e-commerce is set in  motion, there is still a role for physical retail  and placemaking activities, as consumers  still need avenues for socialisation.  *  A set of guidelines termed the Fair  Tenancy Framework Code of Conduct  for Leasing of Retail Premises has been  developed recently, which is set to come  into effect from 1 June 2021. It is a set of  guidelines to assist landlords and tenants  of qualifying premises (which include,  but is not limited to retail, F&amp;B, clinics,  and schools) to reach a fair and balanced  position in lease negotiations.  *  The 3-month moving average retail  sales growth (excluding motor vehicles)  improved to -1.6% yoy in February 2021  from -5.1% in January 2021 (Figure 7).  The Retail Sales Index improved 7.9% in  February 2021, which marked the first  month of growth since January 2020. This  was driven by an improvement in consumer  sentiment and greater shopping footfall. -40 -30 -20 -10 0 10 20 2000 2005 2010 2015 2020 Retail sales Index  % Source: Department of Statistics Singapore Figure 7: Retail sales growth (Three-year moving average) (excluding  motor vehicles)  -60% -40% -20% 0% 20% 40% Department Stores Supermarkets &amp; Hypermarkets Mini-marts &amp; Convenience Stores Food &amp; Alcohol Motor Vehicles Petrol Service Stations Cosmetics, Toiletries &amp; Medical Goods Wearing Apparel &amp; Footwear Furniture &amp; Household Equipment Recreational Goods Watches &amp; Jewellery Computer &amp; Telecommunications Equipment Optical Goods &amp; Books Others Retail sales excl motor vehicles Source: Department of Statistics Singapore Figure 8: Retail sales index (Feb 2021), yoy change *  In February 2021, Watches &amp; Jewellery saw the greatest  improvement of 37% on a yoy basis, followed by Computer &amp;  Telecommunications Equipment which grew by 20% yoy (Figure 8).  However, Food &amp; Alcohol was the worst- performing sector, which  declined by 25% yoy in February 2021.  10 EDMUND TIE RESEARCH *  For the food and beverage services  index for February 2021, food caterers  reported the greatest decline of 58.9%  yoy despite it being the month of the  Chinese New Year celebrations. However,  due to the restrictions of large gatherings,  this has resulted in lower demand for  event catering. Restaurants expanded  6.1% yoy and performed relatively well  as consumers took to dining out more  frequently (Figure 9). Demand and occupancy  *  Based on EDMUND TIE Research,  islandwide net absorption improved to  258,000 sq ft in 4Q 2020 from -538,000  sq ft in 3Q 2020. The occupancy rate  increased by 0.8% pts qoq to 91.2% in 4Q  2020 from 90.4% in 3Q 2020.  -60% -40% -20% 0% 20% 40% Total Restaurants Fast Food Outlets Food Caterers Cafes, Food Courts &amp; Other Eating Places Source: Department of Statistics Singapore Figure 9: Food and Beverage index (Feb 2021), yoy change Orchard/Scotts Road (OSR) Other city areas1 (OCA) Fringe/Suburban areas2 (FSA) Net  absorption *  Retail net absorption in  Orchard/Scotts Road declined  from 32,000 sq ft in 3Q 2020 to  -194,000 sq ft in 4Q 2020. *  Net absorption in Other City Areas  reversed from negative territory in the 3Q  2020 to a positive value of 118,000 sq ft in  4Q 2020. *  Net absorption rebounded to  334,000 sq ft in 4Q 2020 after three  quarters of contraction in 2020 Occupancy *  The occupancy rate declined  from 90.9% in 3Q 2020 to  88.4% in 4Q 2020. (Figure 10). *  The occupancy rate increased by 1.7% pts  from 3Q 2020 to 89.3% in 4Q 2020. *  The occupancy rate rose by 0.9%  pts qoq to 92.5% in 4Q 2020. Openings  (1Q 2021) *  Carre d' artistes at Paragon  Shopping Centre *  Uniqlo at Tampines Mall *  Genki Sushi at NEX *  Din Tai Fung at Compass One *  Yakiniku at Seletar Mall *  Green Common at VivoCity  *  Tokyo Shokudo at Westgate Closures  (1Q 2021) *  Robinsons at Raffles City Shopping Centre *  Uniqlo at Tampines 1 1  Other City Areas refer to Downtown Core and Rest of Central Area 2  Fringe/Suburban Areas refer to Fringe Areas and Suburban Areas (Outside Central Region) Source: EDMUND TIE Research *  More retailers have a preference to open their shops located at the  Fringe/Suburban subzone due to the rise in footfall and the continuation  of the work-from-home arrangements for some companies. 11 EDMUND TIE RESEARCH Location Level 4Q 2020 1Q 2021 Qoq change (%) Orchard/Scotts Road  (OSR) First storey 37.27 37.27 0.0 Upper storey 16.00 16.00 0.0 Other city areas   (OCA) First storey 19.45 19.45 0.0 Upper storey 9.83 9.83 0.0 Fringe/Suburban areas  (FSA) First storey 29.97 30.27 1.0 Upper storey 17.03 17.11 0.5 Table 8: Average monthly gross rents (S$ per sq ft)  Source: EDMUND TIE Research  Orchard/Scotts  Road 88.4% Fringe/Suburban  Areas 92.5% Other City  Areas 89.3% Source: EDMUND TIE Research Figure 10: Retail occupancy rates (4Q 2020) Rents Based on EDMUND TIE Research's definition  of retail spaces, retail rents were stable in  Orchard/Scotts Road and Other City Areas  in 1Q 2021 (Table 8). Given the strong retail  performance in Fringe/Suburban Areas, as  a result of the catchment population and  extensive work-from-home arrangements,  rents have ticked up accordingly. Supply pipeline Based on EDMUND TIE Research, around  1mn sq ft of NLA is expected to be completed  islandwide from 2021 to 2024. The bulk of the  supply pipeline is expected to be completed  in 2021 (39.0%) and 2023 (39.0%) (Figure 11).  The majority (87.0%) of the supply pipeline  will emerge from the Fringe/Suburban Areas. Outlook Following a series of closures by international  brands, Abercrombie &amp; Fitch is the latest  international brand that is to exit from  Singapore, as it closed its last physical retail  outlet in Singapore and shifts to an exclusively  online store. Retailers have to adapt to this new  reality and the increasing shift towards online  marketing platforms for the sale of products.  0 50 100 150 200 250 300 350 400 450 2021 2022 2023 2024 Orchard/ Scotts Road Other City Areas Fringe/Suburban Areas '000 sq ft Source: EDMUND TIE Research Figure 11: Retail development pipeline 12 EDMUND TIE RESEARCH RESIDENTIAL Market commentary Key indicators *  Urban Redevelopment Authority (URA) private residential property  price index rose for the fourth consecutive quarter in Q1 2021, rising  by 3.3% qoq, after an increase of 2.1% in Q4 2020. Compared to a  year ago, prices are 6.6% higher (Table 9). *  Private non-landed property prices rose by 2.5% qoq in Q1 2021.  All market segments registered growth with prices of non-landed  properties in the CCR, RCR and OCR increasing by 0.5%, 6.1% and  1.1% qoq respectively.  *  The landed property price index soared 6.7% qoq in Q1 2021,  reversing the 1.6% decrease in Q4 2020.  *  Housing loans value rose for the sixth consecutive quarter by 17.5%  yoy in 4Q 2020. However, on a qoq basis, housing loans fell by 2.7%  in 4Q 2020, compared to 15.1% growth in 3Q 2020 (Figure 12).  4Q 2020 1Q 2021 qoq % chg All Residential property 157 162.2 3.3 Non-Landed 153.3 157.1 2.5 Core Central Region (CCR) 133.6 134.3 0.5 Rest of Central Region (RCR) 160.6 170.4 6.1 Outside Central Region (OCR) 183.6 185.6 1.1 Landed property 173.8 185.4 6.7 Table 9: URA Private Residential Price Index Source: URA 0 2,000 4,000 6,000 8,000 10,000 12,000 14,000 1Q 2015 1Q 2016 1Q 2017 1Q 2018 1Q 2019 1Q 2020 $ mn Source: Monetary Authority of Singapore Figure 12: New housing loans limits granted With the introduction of the new  Fair Tenancy Framework Code of  Conduct for Leasing of Retail Premises  (the "Code"), we are seeing greater  protection being accorded to retail  tenants as the Code aims to allow  landlords and tenants to reach a more  balanced and fair position in leasing  negotiations as parties will now have  to abide by the leasing principles for  key tenancy terms as provided under  the Code. We expect rents in the Orchard/ Scotts Road and Other city areas to  trade sideways for the rest of this year  amid continued border restrictions  and flexible work arrangements. A  bright spot would be suburban retail,  which caters directly to the needs  of residents in their catchment.  Suburban rents will post an increase  for the year, tempered slightly by the  new forthcoming supply. 13 EDMUND TIE RESEARCH Source: URA Figure 13: Private homes sales volume (excluding ECs) and URA All  Residential Price Index *  Total private home sales volume in 1Q  2021 amounted to 8,100 units, 16.9%  higher than the sales volume of 6,929  units in 4Q 2020 (Figure 13). We believe  that demand was driven by low interest  rates, strong liquidity, improving buyer  sentiment and the wealth effect of the  rising financial markets.  *  New sales volumes increased from 2,603  units in 4Q 2020 to 3,493 units in 1Q 2021.  New sales in 1Q 2021 were 62.5% higher  than that a year ago and 34.2% higher on  the quarter (Figure 13). The share of primary  sales to total transaction volume rose from  37.6% in 4Q 2020 to 43.1% in 1Q 2021. *  Secondary sales volumes increased  slightly from 4,326 units in 4Q 2020 to  4,607 units in 1Q 2021.  *  In 1Q 2021, there were five new launches  (Table 10), excluding ECs. 2,743 units were  launched in 1Q 2021 compared with 2,422  units in 4Q 2020.  *  The Reef at King's Dock, launched in  January 2021, is in the Keppel Bay precinct  near Habourfront MRT station. It had the highest take-up rate of 86%  for its launched units (343 out of 400 units) at the end of March 2021.  Transacted prices ranged from $2,077 to $2,831 per square feet. *  Another new launch was Midtown Modern, which is part of a mixed  residential and commercial development located near Bugis MRT  station. It had the second-highest take-up rate of 82% (368 out of  447 units) as of the end of March 2021. Transacted prices ranged  from $ 2,299 to $ 4,213 per square feet. Table 10: Non-landed private residential launches (excluding ECs) in 1Q 2021 Source: URA  Development Developer Proper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Improving economy and the rollout of COVID-19 vaccination arebolstering market confidence and slowing occupiers' downsizing and attrition plans. While demand is firming, it is patchy with the newer and better-managed spaces garnering stronger occupier interest. * Overall CBD rent decline eased for the second consecutive quarter in 1Q21,alongside improving market sentiment and firming demand. * Capital values of en bloc offices remained relatively stable in 1Q21,as investors regard Singapore as a safe haven and stay confident about the long-term prospect of Singapore'soffice property market. * Singapore's economic rebound, as well as the government's lifting of its default work-from-home policy and workplace capacity limits from April 5 could reignite office demand and pave the way for rent stabilisation in 2H21.But with the pandemic far from over, the continued safe management measures and the tapering of the government's COVID-19 support measures could put a cap to the recovery.Residential * Prime home sales volume rosemoderately in 1Q21, despitethe lack of major new launches and the Lunar New Year seasonal slowdown.  * Two collective sale deals were concluded inthe Prime districts in1Q21, including the sale of a trio of three-storey residential buildings at 2, 4 and 6Mount Emily Road for SGD 18 million and Surrey Point, a freehold 10-storey apartment block at a purchase price of SGD 47.8 million. Activity seems to have picked up in the islandwide collective sale market as developers are keento replenish their land bank. * Prices of completed Prime private residential properties posted their first increase in a year in 1Q21,as market sentiments improved alongside expected economic recovery.Rentals forPrime properties continued to soften, albeit at a marginal pace as completions of new projects remained low in 1Q21.   * Increasing completed supply isexpected to continue weighing down Prime rents. On the other hand, Prime home prices are likely to recover in 2021,as a recovering economy would further lift sentiment.  Key Economic IndicatorsGDP Real Growth(1Q21, y-o-y, advance estimates)0.2%Consumer Price Index(February 2021, y-o-y)0.7%Total Trade (current prices)(February 2021, y-o-y)-3.3%Index of Industrial Production(February 2021, y-o-y)16.4%Retail Sales excl. motor vehicles(chained-volume terms)(February 2021, y-o-y)8.2%Unemployment Rate (S.A.)(February 2021)3.0%Total PopulationAnnual Growth (June2020)-0.3%Source: DOSMajor Property Transactions           |   1Q21OfficePrice(SGD mil)OUE Bayfront, OUE Tower and OUE Link (50% interest) 633.8Certis CISCOCentre (redevelopment)150.0108 Robinson Road142.8ResidentialPrice(SGD mil)Eden (all 20 units)293.030 Nassim Road (GCB)128.85 Swettenham Close (GCB)48.0RetailPrice(SGD mil)YewTee Point220.01 Teck Lim Road22.322, 22A, 22B, 23 Mosque Street21.5IndustrialPrice(SGD mil)GSK Asia House and 3 conservation bungalows144.8BreadTalk IHQ118.0Sime Darby Business Centre102.0Source: JLL Research, April2021 32.1Current stock              (sq ft million) 9.78Gross effective rent (SGD psf pm NLA) -0.3%Rental growth (q-o-q) 2,975Capital value(SGD psf NLA) -0.2%Capital value growth (q-o-q) 59,910 Current prime stock (units) 4.65Gross effective rent (SGD psf pm NLA) -0.1% Rental growth (q-o-q) 2,908Capital value (SGD psf NLA) 2.4%Capital value growth (q-o-q)All data are reflective of the CBD Investment Grade submarketThe capital value and rental value indicators are reflective of Luxury residential properties  * The decline in retail sales abated further. Over the first two months of 1Q21, the retail sales index (excluding motor vehicles) in chained-volume terms fell 1.4% y-o-y, compared to a 6.4% y-o-y drop over the corresponding period in 4Q20. The Lunar New Year spending in February 2021 cushioned the soft retail sales,which were limited by operational-capacity constraints and low visitor arrivals.  * Amid cautious retailer sentiment, landlords continued to compromise on rents to support occupancygiven the rising or relatively high vacancy rates. Hence,rents of prime floor space fell q-o-q across the three sub-marketsin 1Q21. * Investment salesin 1Q21racked up close to the 4Q20 level, underpinned by Frasers Centrepoint Trust's sale of YewTeePoint for SGD 220.0 million. The majority of the concluded deals in 1Q21 were shophouse transactions.  * The effective containment of the COVID-19 pandemic with mass vaccinations, the easing of work-from-home mandate, combined with the further lifting of safe-distancing measures and the expected gradual easing of borderrestrictions will lift retailer and consumer sentiment and, in turn, drive retail sales and business expansion. Hence, vacancy rates could fall y-o-y by end-2021, and the rental decline should moderate on the back of falling vacancy rates. Warehouse * Warehouse demand was underpinned by requirements from firms in e-commerce, medical-related and food storage/logistics businesses in 1Q21. * New warehouse openingsannouncedduring the quarterincluded SUTL's40,000-sq ft expansion at CWT Commodity Huband Bertling Logistics Singapore's new five-storey ramp-up warehouse in Penjuruthat includes a covered storage space of about 150,000 sq ft. * Newer logistics/warehouses with better specifications outperformed their older conventional counterparts in rents. However, logistics/warehouse occupiers remained generally cost conscious. Hence, overall, the islandwide average gross rent stayed stable in 1Q21.Backed by steady rents, capital values remained firm in 1Q21. * As new supply is expected to surge in2021, the islandwide average rentis foreseen toberelativelysteadyin the near-term, whilecapital values could riseat a faster paceon sustained investor interestand low interest rates.AuthorsTay Huey YingHead of Research &amp; ConsultancySingaporeHueyying.tay@ap.jll.com  Angelia PhuaDirector, RetailResearchSingaporeAngelia.phua@ap.jll.comDoreen GohDirector, IndustrialResearchSingaporeDoreen.goh@ap.jll.comMichelle TeeDirector, OfficeResearchSingaporeMichelle.tee@ap.jll.comKim HuynhAssistant Manager, ResidentialResearchSingaporeKimngan.huynh@ap.jll.comJLL Singapore9 Raffles Place#39-00 Republic PlazaSingapore 048619tel +65 6220 3888fax +65 6438 3361jll.com.sg 119.2Current          stock                  (sq ft million) 1.35Gross effective rent (SGD psf pm NLA) 0.0%Rental growth (q-o-q) 179Capital value(SGD psf NLA) 0.0%Capital value growth (q-o-q)BanditsAll data are reflective of the islandwide market 5.1Current stock            (sq ft million) 36.43Gross effective rent    (SGD psf pm NLA) -6.2%Rental growth (q-o-q) 8,383Capital value (SGD psf NLA) -2.6%Capital value growth (q-o-q)All data are reflective of the Prime sub-submarketjll.com.sgCEA Licence No. L3007326E(c) Copyright 2021JLL. All rights reserved. This report has been prepared solely for information purposes and does not necessarily purport to be a complete analysis of the topics discussed, which are inherently unpredictable. It has been based on sources we believe to be reliable, but we have not independently verified those sources and we do not guarantee that the information in the report is accurate or complete. Any views expressed in the report reflect our judgment at this date and are subject to change without notice. Statements that are forward-looking involve known and unknown risks and uncertainties that may cause future realities to be materially different from those implied by such forward-looking statements. Advice we give to clients in particular situations may differ from the views expressed in this report. No investment or other business decisions should be made based solely on the views expressed in this report.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">knightfrank.com.sg/research Singapore Research Industrial Q1 2021 " " Singapore's manufacturing sector looks to expand as a result of the global chip  shortage, driving industrial expansions. MANUFACTURING DRIVES  INDUSTRIAL SECTOR REBOUND DA N I E L  D I N G,  H E A D, CAP I TAL  MARKE TS (L A N D  &amp;  B U I LD I N G ,I N TE RNATI ONAL  RE AL  E STATE  &amp;  I N DU STRIA L) According to the Ministry of Trade and Industry (MTI), Singapore's economy  contracted by 2.4% year-on-year (y-o-y) in Q4 2020, bringing the total change in the  overall economic growth in 2020 to a negative 5.4%. In a COVID-19 year, the resilient  manufacturing sector played a huge role in cushioning the fallout on the economy,  with substantial output expansions in the electronics, biomedical manufacturing and  precision engineering clusters. Demand for electronics remains high due to the current global chip shortage. And with  Singapore as a major manufacturer of semiconductors, chipmakers in the industrial  sector may be compelled to expand existing facilities in order to increase output  production.  In March 2021, the Singapore Purchasing Manager's Index (PMI) reported an expansion  of 50.8, the highest since March 2019. The optimism among manufacturers prevailed in  January and February where the PMI expanded by 50.7 and 50.5 respectively, indicating  that the industrial sector is likely to see continued growth in 2021. 1The percentage changes for the total number of tenancies of all industrial space in January and February 2021 are based on a two-month comparison; q-o-q (against October  and November 2020) and y-o-y (against January and February 2020).  MARK E T  SNAPSH OT 2 ,04 1  LEASES 3.3%     Q-O-Q | 23.5%     Y-O-Y NUMBER OF INDUSTRIAL TENANCIES1 S$1.3  BILLION 40.2%     Q-O-Q | 197.7%     Y-O-Y TOTAL INDUSTRIAL SALES 56.1  MILLION SF GFA UPCOMING NEW SUPPLY (Q1 2021 TO 2024) Manufacturing sector driving economic recovery Median rents held steady in Q1 2021 Exhibit 1: Leasing Volume and Median Rent of Multiple-User Factory  Space Number of Tenancies Median Rent Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 2016 Q1 Q2 Q3 Q4 2017 Q1 Q2 Q3 Q4 2018 Q1 Q2 Q3 Q4 2019 Q1*  2020 2021 $1.00 $1.20 $1.40 $1.60 $2.00 $1.80 3,000 2,500 1,500 2,000 1,000 500 0 Number of Leasing Transactions Rent (S$ psf pm) Source: JTC J-Space, Knight Frank Research Note: The median rent is based on a four-quarter moving average. *Q1 2021 data based on January and February 2021 data as at end-March.  In the first quarter of the year, the island-wide median rent of multiple-user factory  space remained unchanged from the previous quarter at S$1.73 per square foot per  month (psf pm) (Exhibit 1). Despite the slight contractions in Q2 and Q3 2020, the  island-wide median rent has since stabilised with the pick up in activity and improved  Continued on next page In line with Singapore's goal to  be a self-sufficient city by 2030  through the strengthening of the  local food system, aquaculture has  risen as a sustainable approach for  fish-farming systems in industrial  facilities.  With  the  Government's  30x30 Express grant together with the  new S$60 million Agri-Food Cluster  Transformation (ACT) Fund set aside  in the recent Budget 2021, these will  help local farms to ramp up their  productivity and facilities. Apollo  Aquaculture Group, a homegrown  fish farming company, is set to have  one of the largest vertical fish farms  in Singapore. Envisaged to be fully- operational by 2023, the first phase of  Urban aquaculture on the rise sentiment. Accordingly, there was a  total of 1,564 rental transactions in  January and February, indicating an  uptick of 27.9% from 1,223 transactions  in the same period last year, and a  slight increase of 0.1% from 1,562 in  October and November 2020.  The multiple-user factory segment  reported  a  healthy  stream  of  transactions totalling some S$324.6  million, led by the sale of the Sime  Darby Business Centre for S$102.0  million in January 2021. As such,  prices  remained  stable,  averaging  about S$402 psf as the existing supply  of investment grade multiple-user  factory space is limited (Exhibit 2). Daniel Ding Head Capital Markets (Land &amp; Building, International Real  Estate &amp; Industrial)  +65 6228 6833 daniel.ding@sg.knightfrank.com Recent Publications INDUSTRIAL Q4 2020 Nor Adila Rahim Analyst Research +65 6228 6856 nor.adila@sg.knightfrank.com Leonard Tay Head Research +65 6228 6854 leonard.tay@sg.knightfrank.com Exhibit 2: Average Price of Multiple-User Factory Space by Balance  Tenure* $900 $800 $700 $600 $500 $400 $300 $200 $100 $0   &lt;= 30 Years 31 to 60 Years 61 to 99 Years Freehold &gt; 99 Years Q1 Q2 Q3 Q4 2016 Q1 Q2 Q3 Q4 2017 Q1 Q2 Q3 Q4 2018 Q1 Q2 Q3 Q4 2019 Q1 Q2 Q3 Q4 2020 Q1** 2021 Price (S$ psf) Source: JTC J-Space, Knight Frank Research Note: The average unit price is based on a four-quarter moving average of strata transactions.  *The balance tenure is based on the number of remaining years at the point of transaction. **Q1 2021 data based on transactions downloaded as at 29 March 2021. Knight Frank Research  Reports are available at knightfrank.com.sg/research SINGAPORE VIEW 23RD EDITION (c) Knight Frank 2021 This report is published for general information only. Although high standards have been used in the  preparation of the information, analysis, views and projections presented in this report, no legal responsibility  can be accepted by Knight Frank Research or Knight Frank for any loss or damage resultant from the contents  of this document. As a general report, this material does not necessarily represent the view of Knight Frank  in relation to particular properties or projects. Reproduction of this report in whole or in part is allowed with  proper reference to Knight Frank Research. About Knight Frank Singapore Knight Frank LLP is the leading independent global property consultancy. Headquartered in London, Knight  Frank has more than 20,000 people operating from 488 offices across 57 territories. The Group advises  clients ranging from individual owners and buyers to major developers, investors and corporate tenants.  Knight Frank has a strong presence in Singapore with a head office and two subsidiaries: Knight Frank  Property Asset Management and KF Property Network. For further information about the Company, please  visit www.knightfrank.com.sg. Contact us for insights, research and real estate opportunities. operations started in February 2021  on the first three floors of the eight- storey development in Lim Chu Kang.  This is expected to churn out up to  1,000 tonnes of fish a year. By 2023,  the total output capacity would be  2,700 tonnes a year.  Emerging as the main driver of national growth in a pandemic-stricken year, the  manufacturing sector is in pole position to lead the expected economic recovery in  2021. This will be supported by the electronics cluster given the heightened demand  for 5G technologies as well as the production of electronic goods that has been affected  by the global chip shortage. Additionally, the transport engineering cluster might turn  a corner with controlled travel envisaged to rise with the implementation of bilateral  travel corridors with low to moderate infection rate countries, most likely in the second  half of 2021.  Moving forward, about 56.1 million sq ft gross floor area (GFA) of new industrial space  is forecasted to be completed between 2021 to 2024. Of these, about 51.3% of the new  supply is projected to be completed in 2021, with single-user and multiple-user factory  space forming a significant proportion. While this might put pressure on the rents of  factory space, more firms may expand their headcounts and the size of their facilities  to cater for increased output production in light of anticipated economic recovery.  Factory space rents might increase marginally in 2021, between 1% and 3%. Market outlook </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 savills.com.sg/insight-and-opinion/ MARKET IN MINUTES Savills Research Industrial Continual improvement brings positivity  Savills plc Savills is a leading global real  estate service provider listed on  the London Stock Exchange. The  company established in 1855, has  a rich heritage with unrivalled  growth. It is a company that leads  rather than follows, and now has  over 600 offi   ces and associates  throughout the Americas, Europe,  Asia Pacifi  c, Africa and the Middle  East. This report is for general  informative purposes only. It may  not be published, reproduced or  quoted in part or in whole, nor may  it be used as a basis for any  contract, prospectus, agreement  or other document without prior  consent. Whilst every eff  ort has  been made to ensure its accuracy,  Savills accepts no liability  whatsoever for any direct or  consequential loss arising from its  use. The content is strictly  copyright and reproduction of the  whole or part of it in any form is  prohibited without written  permission from Savills Research. Simon Smith Regional Head of  Research &amp; Consultancy,  Asia Pacifi  c +852 2842 4573 ssmith@savills.com.hk Alan Cheong Executive Director  Singapore +65 6415 3641 alan.cheong@savills.com.sg RESEARCH Increasing demand from an improving manufacturing sector alongside  delayed completions has brought about a decline in vacancy rates. "  The pandemic has separated  the goats from the sheep  with sunset industries  winding down faster while  new economy fi  rms expand  rapidly." ALAN CHEONG, SAVILLS RESEARCH *   As a result of the pandemic, there have been more tenant  relocations as well as downsizing as businesses implemented  cost-cutting measures and this resulted a higher leasing  transaction volume, which rose by 21.2% year-on-year (YoY)  to 2,950 deals in Q1/2021. *   In conjunction with JTC's rental indices which rose across all  property types in the quarter, the average monthly rent for  Savills' basket of multiple-user factories also recorded a  quarter-on-quarter (QoQ) increase of 1.1% to S$1.72 per sq  ft due to limited new supply and the improving performance  of the manufacturing sector. This turnaround occurred after  fi  ve consecutive quarters of decline. *   Given the scarcity of such assets, prices of freehold properties  remained resilient, inching up slightly by 0.2% to S$701 per sq ft. *   Similarly, average prices across Savills basket of 60-year  leasehold properties rose by 1.9% QoQ to S$432 sq ft.  However, 30-year leasehold property values declined for a  sixth straight quarter, falling by 2.5% QoQ to S$292 per sq ft. *   With business parks facing challenges, evident from  increases in vacancy, the average monthly rent in Savills  basket of prime and standard business park properties  contracted on a QoQ basis, by 0.9% and 1.2% to S$5.76 and  S$3.96 per sq ft respectively. *   While some of business park occupiers moved to less costly  high-spec industrial space, the average monthly rent for  Savills high-spec industrial basket also fell by 0.5% QoQ to  S$3.48 per sq ft, after a 0.9% QoQ increase in Q4/2020. *   With some industries are performing better than others,  our rental forecast for multiple-user factory and warehouse  space is maintained at -3.0% to 0% (multiple-user factory)  and +1.0% to 3.0% (warehouse). Christopher J Marriott CEO, Southeast Asia  +65 6415 3888 cjmarriott@savills.asia SINGAPORE Please contact  us for further  information Savills team MCI (P) No. 037/03/2021 Company Reg No. 198703410D Sharon Teo Managing Director Singapore +65 6415 3288 sharon.teo@savills.com.sg Singapore - May 2021 2 savills.com.sg/insight-and-opinion/ MACROECONOMIC OVERVIEW After three quarters of YoY declines amid  the COVID-19 pandemic, Singapore's gross  domestic product (GDP) registered its  fi  rst year-on-year (YoY) growth of 0.2% in  Q1/2021 due to increased business activities  that came with Phase 3 of the opening up  of the economy. This came as a surprise  as economists had previously forecast a  contraction in GDP. The growth in GDP was  largely attributed to continual expansion in  the manufacturing sector of 7.5% YoY in the  fi  rst quarter, after growing 10.3% in Q4/2020,  along with moderated contractions in the  construction and services sectors. Output  expansions in the electronics, precision  engineering, chemicals and biomedical  manufacturing clusters outweighed output  contractions in the transport, engineering  and general manufacturing clusters.  Manufacturing sentiment continued to  improve with the overall Purchasing Manager's  Index (PMI) in expansionary mode for nine  consecutive months. In March 2021, the PMI  recorded a faster rate of growth by 0.3 points  from February to 50.8, the highest since March  2019 when the PMI was also 50.8. Similarly, the  electronics sector PMI also registered its eighth  straight month of expansion, albeit a dip of 0.2  points from February to 50.6 in March. Despite  a global chip shortage which may aff  ect  consumer electronics, the electronics sector  is still expected to grow on the back of higher  demand for semiconductors. Moreover,  external trade was also largely healthy, with  non-oil domestic exports (NODX) recording  a YoY growth for Q1/2021. In March 2021,  NODX expanded by 12.1% YoY, stronger than  February's 4.2%. Electronics NODX rose  24.4% in March 2021 from a low base a year  ago, which was led by an increase in exports  of integrated circuits amid strong global  semiconductor demand and chip shortages.  Non-electronic NODX growth accelerated  to 9.4% in March 2021 after registering 3.2%  in the previous month. This was largely  attributable to petrochemicals, specialised  machinery and pharmaceuticals. RENTAL MARKET The leasing market remained active in  Q1/2021, with leasing volume1 increasing for  a third consecutive quarter by 1.3% QoQ and  21.2% YoY to 2,950 transactions. Among the  property types, leases of multiple-user factories  increased the most, rising by 23.9% YoY to  2,320 transactions. This may be due to tenant  relocations and renewal of leases with some  downsizing due to cost-cutting measures. Apart from multiple-user factories, rental  transactions of other property types also rose  on a YoY basis. The leasing volume of single- user factory units increased by 14.3% YoY to  184 transactions while for warehouses volumes  1   Based on JTC's rental data (excluding business park  spaces, only comprises single- and multiple-user factories as  well as warehouse space). grew by 11.5% from 400 in Q1/2020 to 414 in  Q1/2021. Rental demand for warehouse space  continued to be supported by logistics and  e-commerce players as they looked to expand  their operations, sourcing larger units to  house their operations in a single location. The overall industrial vacancy rate eased for  a fourth consecutive quarter in Q1/2021, albeit  a slower pace of 0.1 of a percentage point (ppt)  QoQ to 10.0%, the lowest since Q1/2016, when  vacancy rates were below 10.0%, at 9.9%. This  was due to increasing demand as conditions  in the manufacturing sector start to improve,  as well as delayed completions. The QoQ  decline of 0.5 of a ppt for multiple-user  factory space outweighed the QoQ increases  of 0.1 of a ppt in vacancy rate for single-user  factory and warehouse space respectively. As the economic recovery broadens across  various fronts, JTC's rental indices refl  ected  this with increases across all property types.  The rental index of all industrial property grew  by 0.6% QoQ in Q1/2021. Similarly, for Savills  basket of industrial properties, the average  monthly rent for prime multiple-user factories2  rebounded, increasing by 1.1% QoQ to S$1.72  per sq ft. This turnaround came after fi  ve  consecutive quarters of decline and was led by  the strong growth in the manufacturing sector.  In the same light, the average monthly rent for  prime warehouse and logistics3 properties  continued to inch up further, albeit at a slower  pace, rising by 0.5% QoQ to S$1.44 per sq ft.  This was supported by strong demand for  warehouse space from e-commerce, logistics,  stockpiling and shifts in supply chains. SALES MARKET In the strata sales market, after two consecutive  quarters of increase, sales volumes declined  21.6% QoQ to 366 in Q1/2021. However, on a  YoY basis, the transaction volume in Q1/2021  almost doubled from the 196 recorded in the  same period last year. Demand came from  local fi  rms such as those in the disposable  Tupperware and frozen food processing  business. Local companies which had in the  past leased space are now willing to purchase as  they see attractive pricing in the market. Many  of the local companies buying have benefi  ted  from the fallout from the pandemic. The improvement in the industrial market  was observed with the JTC price index of all  industrial property registering a 0.9% QoQ  growth for a second consecutive quarter.  However, on a YoY basis, the price index  recorded a decline of 1.3%. The 0.9% increase  was largely led by a 1.1% QoQ growth in the  price index of single-user factories, while  multiple-user factories rose by 0.9% QoQ. From  2   Based on Savills basket of private multiple-user factory  properties which ranges from 1,000 sq ft to 3,000 sq ft in  size, with an average monthly asking rent of at least S$1.50  per sq ft. 3   Based on Savills basket of private multiple-user warehouse  properties which ranges from 2,000 sq ft to 80,000 sq ft in  size, with an average monthly asking rent of at least S$1.40  per sq ft. GRAPH 1: Factory And Warehouse Leasing Volumes,  2011 to Q1/2021 1,138  1,480  1,513  1,752  1,868  1,768  1,794  2,345  2,417  2,434  2,950  1,390  1,732  1,981  2,129  2,317  2,285  2,401  2,702  2,883  2,353  1,543  1,611  2,070  2,060  2,031  2,130  2,358  2,543  2,679  3,005  1,504  1,613  2,071  2,071  1,921  1,962  2,331  2,564  2,486  2,913  0 2,000 4,000 6,000 8,000 10,000 12,000 NO. OF TRANSACTIONS Q1 Q2 Q3 Q4 Source JTC, Savills Research &amp; Consultancy GRAPH 2: Prices Of Upper-Storey Strata Factory And  Warehouse Units, Q1/2015 to Q1/2021 250 300 350 400 450 500 550 600 650 700 750 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 2015 2016 2017 2018 2019 2020 2021 S$ PER SQ FT Freehold 60-year leasehold 30-year leasehold Source JTC, Savills Research &amp; Consultancy GRAPH 3: Business Park Space Vacancy Rates, 2016 to Q1/2021 0 5 10 15 20 25 30 35 40 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 2016 2017 2018 2019 2020 2021 % Islandwide Mapletree Business City &amp; Science Park International Business Park Changi Business Park Source JTC, Savills Research &amp; Consultancy Industrial 3 savills.com.sg/insight-and-opinion/ Savills basket of leasehold industrial properties4, price  movements were mixed during the quarter under  review. After four consecutive quarters of decline,  prices for 60-year leasehold properties rebounded  by 1.9% QoQ to S$432 per sq ft in Q1/2021. On the  other hand, prices of 30-year leasehold properties  fell for a sixth straight quarter, declining 2.5% QoQ  from S$299 per sq ft in Q4/2020 to S$292 per sq  ft in Q1/2021. More properties with shorter leases  have been for sale in the market. Sellers of such  properties do not see the need to hold on to their  assets, particularly due to uncertainties arising  from the pandemic. Separately, prices of freehold  properties remained resilient, with a marginal  QoQ increase of 0.2% to S$701 per sq ft. BUSINESS PARK AND HIGH-SPECS  INDUSTRIAL After registering positive net demand for the  past two quarters, net demand fell back into  negative territory of -75,300 sq ft in Q1/2021.  This was largely led by a decline in take-up of  161,500 sq ft in the Central Region. As a result,  the islandwide vacancy rate rose by 0.7 of a ppt  from 14.2% in Q4/2020 to 14.9% in Q1/2021, the  highest since vacancy rates reached the 15.1%  registered in Q4/2018. The increase was mainly  due to fi  rms moving out of business parks. While  occupancy rates of new business parks increased  in the quarter, older parks continued to face  greater challenges in attracting or retaining  tenants. Nevertheless, demand for business park  space continued to emanate from technology  and fi  ntech fi  rms which have thrived during the  pandemic. However, for some fi  ntech companies,  they may still prefer to take up conventional  offi   ce space which imparts a more professional  image compared with business parks or high  spec industrial space. Although the JTC rental  index for business parks recorded a marginal  QoQ increase of 0.1% for a second consecutive  quarter, the average monthly rent in Savills basket  of prime business park properties5 registered its  fi  rst decline since Q2/2020 of -0.9% QoQ to S$5.76  per sq ft. Similarly, the average monthly rent of  Savills basket of standard business park properties6  declined for a fourth consecutive quarter by a  larger 1.2% QoQ to S$3.96 per sq ft as this type of  space needs to provide greater fl  exibility in rental  negotiations to maintain occupancy rates. As companies adopt cost-cutting measures amid  uncertainties from how the pandemic will pan  out, some of the demand for high-spec industrial  space came from fi  rms moving out of business  parks to high-spec industrial units, which are less  costly (for older buildings) but still able to provide  a respectable corporate look. Nevertheless, as with  business parks, the average monthly rent for Savills  4   Only include upper-storey strata-titled factory (single- and  multiple-user factory) and warehouse units, excluding all ground  fl  oor units. 5   Based on business park-zoned spaces in the newer clusters which  range from 1,000 sq ft to 5,000 sq ft in size, with an average monthly  asking rent of at least S$5.50 per sq ft. 6   Based on business park-zoned spaces in the older clusters which  range from 1,000 sq ft to 5,000 sq ft in size, with an average monthly  asking rent of at least S$3.50 per sq ft. high-spec industrial basket7 declined by 0.5% QoQ to  S$3.48 per sq ft in Q1/2021 after a QoQ increase  of 0.9% in Q4/2020. With fi  rms remaining  budget conscious, older high-spec buildings  may be better received by tenants. Demand for  such space is expected to be stable in the long  term, emanating from the technology, media  and telecommunications and electronics sectors,  which continue to perform well. OUTLOOK One year into the pandemic, driven by the need to  buff  er against supply chain disruptions, demand  for biomedical devices and a global shortage of  semiconductors, the industrial market continues  to perform better than most other real estate  sectors. The heavy demand for the products from  the latter two industries have spurred on the  chemical industry as well. Broadly speaking, the  manufacturing and logistics sectors have two  driving forces. One is knowledge intensive while  the other is basically supply chain in nature.  Between these two lie pockets of demand from  the food industry and those who try to save rental  overheads by moving to lower cost premises. How  these two tracks will fare in the coming year will  determine the outlook for the factory, warehouse  and business park markets. Notwithstanding the broad vaccination program  underway here, the pandemic has reared its head  again with community cases spiking in late-March  to the time of this writing. Overseas, the pandemic  in some countries has been counted in multiple  waves. So long as the threat of a resurgence in  infections lingers, the demand for industrial space  should remain fi  rm. Remote working and the  drive to achieve ESG (Environment Social and  Governance) targets will spur demand for new  technologies and materials. All these are likely  to result in greater manufacturing activity in the  semiconductor and chemical sectors here as most  of the global companies have set up operations. The knowledge intensive industries are likely to  continue to operate and even expand at the various  locations earmarked for specifi  c clusters. Local  Small and Medium Enterprises (SME) are often  not in such industries and their performance will  be patchy. However, at a micro-locational level,  they are likely to continue to look to set up in more  central locations. The pandemic has decimated the industrial  market in various ways. While the traditional users  from industries such as oil &amp; gas and ship building  are still weighed down by problems which affl   icted  them prior to the viral outbreak, others who were  doing well prior to 2020 are now starting to settle  down to a lower level of activity. However, there are  those who have not been faring well over the past  few years, who have started to see their fortunes  brighten. The following points highlight some of the  observations that we have noticed of late. 7   Based on offi   ce-like industrial space which ranges from 2,000 sq  ft to 4,000 sq ft in size, with an average monthly asking rent of at  least S$3 per sq ft. *   Local Small and Medium Enterprises (SME)  have been active in the quarter in review  and are expected to remain interested in  acquiring industrial properties for their own  use. Examples of such companies are those in  the manufacturing of Tupperware (mainly for  export), processing of frozen food (the latter  often needing 5,000 built in to 40,000-50,000  sq ft of land). These local enterprises are taking  this opportunity where prices softened to  acquire properties where the lease is often less  than 30 years. The shorter-term lease means  they can rein in non-production related capital  expenditure. Food zoned industrial buildings  and central kitchens located in the Central and  Eastern parts of the island are still highly sought  after. *   Warehouse - rental demand from e-commerce  (200,000 sq ft leasing demand). Companies in  the e-commerce and last mile transportation  industries have been actively looking for  logistics space. A year ago, the pandemic was  viewed with uncertainty and short-term leases  for stock piling were popular. However, with the  realization that COVID is not likely to go away  anytime soon, these short leases have extended  from half a year to a year or more. E-commerce  fi  rms have been sourcing in the Central and  Eastern regions for space, often &lt;100,000 sq  ft. These are often around Kallang, Bendemeer  and Tampines where easy access to expressways  makes them more conducive for last mile  delivery. They would have liked to lease larger  areas but for the fact that most of the warehouse  space in the abovementioned regions is smaller  than in the West. For the Western region, as  these areas have more warehouse space which  off  ers larger fl  oor plates and higher ceiling  heights, they are popular amongst tenants who  require general storage facilities e.g. fashion  companies, where there is less of a delivery time  requirement. *   Self-storage - Investor demand and rental  demand have remained elevated. As they are the  equivalent to co-working operators providing  short term fl  exi leases, they have become  popular amongst tenants who have downsized  from larger premises where lease terms are more  rigid. *   Light and high-spec industrial space - Tenants  signing up for &lt;20,000 sq ft in the quarter  have been those from the IT, procurement and  technology companies. For the rents charged,  the look and feel of the buildings present it as  value for money. *   Business Parks - First generation parks are  generally facing challenges. Counterintuitively,  for some of the newer and well-located ones,  there has been some resistance by tenants to  Industrial 4 savills.com.sg/insight-and-opinion/ expand or locate there. Some technology  fi  rms with smaller spatial needs are fi  nding  Grade B offi   ce space in the CBD to be an  attractive proposition because rents for  such buildings have fallen signifi  cantly  since the start of the pandemic and now  overlap some of those charged in better  located business parks. Although the performance of the  industrial market is still mixed, we see that  the worst is behind us. It is not that it is  about to expand sharply across locations  and types of buildings, but there will be  PERIOD YoY % CHANGE IN  MULTIPLE-USER  FACTORY RENTS YoY % CHANGE IN  WAREHOUSE &amp;  LOGISTICS RENTS 2021F -3.0% to 0.0% +1.0% to 3.0% TABLE 1: Rental Forecast For Multiple-User Factory  And Warehouse &amp; Logistics Segments Source Savills Research &amp; Consultancy some that are growing whilst some still  languish due to COVID-related reasons. If  we leave out the left tail of performance,  those industries performing well clearly  stand out from the others. In fact, COVID has  distinctly separated the goats from the sheep  with sunset industries winding down faster  while new economy fi  rms expand rapidly.  We maintain our rental forecast for multiple- user factory and warehouse space (refer to  Table 1). For Business Parks, average rents are  expected to be fl  at. Industrial </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAR K E T B E AT Industrial Q4 2020 SINGAPORE $5.94 Business Park  (City Fringe) $3.63 Business Park  (Outlying Areas) $4.27 Science Park -0.3% Inflation Growth -5.8% GDP Growth 3.6% Unemployment Source: Ministry of Trade &amp; Industry SINGAPORE ECONOMIC INDICATORS   Q3 2020 12-Mo. Forecast 12-Mo. Forecast Manufacturing Sector Leading Economic Growth Singapore's economic performance improved, with a contraction of only 5.8% yoy in Q3 2020 as compared to 13.2% yoy in Q2 2020.  Economic growth was driven by the phased resumption of activities, following the Circuit Breaker in Q2 2020. The manufacturing sector  was the star outperformer and expanded by 10.0% yoy in Q3 2020. Manufacturing expansion was largely attributed to output growth in  the biomedical manufacturing, electronics and precision engineering clusters on the back of a global boom in the semiconductor industry.  Also, the Singapore's Purchasing Managers' Index (PMI), a key barometer for manufacturing sentiments, remains in positive territory at  50.5 points for six consecutive months since July 2020. This bodes well for the industrial market as the manufacturing economy is  showing signs of recovery. Demand for Good Quality Business Parks Decentralised and high-quality business park space will be in demand, as firms explore new ways of working. The adoption of flexible  working arrangements are expected to increase, supporting a flight-to-value trend. The rationale for a central office location due talent   retention should weaken as the adoption of flexible working arrangement increases. Good quality decentralised business park spaces  offer a credible alternative for eligible companies seeking to reduce costs. Given the rising demand for such spaces, investors are on the  look out for redevelopment or asset enhancement opportunities. For example, Perennial Real Estate Holdings recently acquired Big Box  in Jurong East and obtained permission to rezone the site to business park. The redeveloped development will be renamed as Perennial  Business City and will offer around 1.1 million square foot (NLA) of business park space in Jurong. A Mixed Bag of Performance The outlook for industrial market is mixed depending on the segment. City Fringe business parks rents have risen by 1.6% for the whole  of 2020 and is expected to continue to rise in 2021, on the back of a flight-to-value trend for quality business parks. Outlying business  parks rents have fallen by 5.3% in 2020, but this was mainly due to older stock in the submarket. Science park rents registered mild  growth in 2020, growing 0.3% yoy. Prime logistics rents which have risen by 1.7% yoy in 2020, will continue to outperform on the back of  an e-commerce boom and preference for ramp-up logistics facilities. Also, conventional warehouses rents have largely remained resilient  and grew 0.3% in 2020. Overall high-tech and conventional factory rents have declined in tandem with weak economic conditions. For  2021, high-tech factory rents should stabilise, bolstered by bio-medical, electronics demand. On the other hand, conventional factory  rents are expected to remain weak amidst an uncertain economic recovery and a continued slowdown in construction activities.  INDUSTRIAL SUPPLY PIPELINE Rents (S$PSF/MO) -1.0 0.0 1.0 2.0 3.0 Multi-User Factory Single-User Factory Business Park Warehouse Supply (msf) 2018 2019 2020F 2021F  2022F 2023F MAR K E T B E AT Industrial Q4 2020 SINGAPORE SEGMENT GROSS EFFECTIVE RENT 12-MONTH OUTLOOK S$/SF/MO US$/SF/MO EUR/SF/MO Business Park (City Fringe) S$5.94 US$4.47 EUR3.65 Business Park (Outlying Areas) S$3.63 US$2.73 EUR2.23 Science Park S$4.27 US$3.22 EUR2.62 High-Tech S$3.12 US$2.35 EUR1.92 Factory - Ground Floor S$1.78 US$1.34 EUR1.09 Factory - Upper Floor S$1.60 US$1.20 EUR0.98 Warehouse - Ground Floor S$1.54 US$1.16 EUR0.95 Warehouse - Upper Floor S$1.26 US$0.95 EUR0.77 Prime Logistics - Ground Floor^ S$1.39 US$1.05 EUR0.85 Prime Logistics - Upper Floor^ S$1.25 US$0.94 EUR0.77 US$/S$ = 1.328; EUR/S$ =1.628 as of 20 December 2020 ^With effect from Q3 2020, the logistics segment has been divided into conventional warehouses and prime logistics which comprise of ramp-up facilities PROPERTY SUBMARKET SELLER / BUYER PRICE 26% Stake in a Portfolio of  14 Industrial and  Logistics Properties Islandwide Boustead Industrial Fund / Metro Holdings $76.6M Big Box Jurong Big Box Pte Ltd / Perennial Real Estate Holdings $118.0M MARKET STATISTICS PROPERTY SUBMARKET TENANT SF COMPLETION DATE CleanTech Loop CleanTech Park - 572,000 2021 PBA Innovation Centre CleanTech Park PBA Group 242,000 2021 13 International Business Park International Business Park TUV SUD 162,000 2021 Wilmar International BTS one-north Wilmar International 152,000 2021 Razer HQ one-north Razer 177,000 2021 Grab HQ one-north Grab 387,000 2021 Surbana Jurong Campus CleanTech Park Surbana Jurong 631,000 2021 Perennial Business City Jurong East - 1,100,000 2021 cushmanwakefield.com KEY SALES TRANSACTIONS Q4 2020 SIGNIFICANT BUSINESS PARK PROJECTS - PLANNED  &amp; UNDER CONSTRUCTION WONG XIAN YANG Associate Director, Research  Singapore &amp; Southeast Asia +65 6232 0885 / xianyang.wong@cushwake.com BRENDA ONG Executive Director Logistics &amp; Industrial Singapore +65 62320878 / brenda.ong@cushwake.com A CUSHMAN &amp; WAKEFIELD RESEARCH PUBLICATION About Cushman &amp; Wakefield Cushman &amp; Wakefield (NYSE: CWK) is a leading global real estate  services firm that delivers exceptional value for real estate occupiers  and owners. Cushman &amp; Wakefield is among the largest real estate  services firms with approximately 53,000 employees in 400 offices and  60 countries. In 2019, the firm had revenue of $8.8 billion across core  services of property, facilities and project management, leasing,  capital markets, valuation and other services. To learn more, visit  www.cushmanwakefield.com or follow @CushWake on Twitter. (c)2020 Cushman &amp; Wakefield. All rights reserved. The information   contained within this report is gathered from multiple sources believed   to be reliable. The information may contain errors or omissions and is   presented without any warranty or representations as to its accuracy. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARKETVIEW 20/20 in hindsight Quick Stats Investment* Q4 20 q-o-q y-o-y Total volume $3.248 bn   Office Q4 20 q-o-q y-o-y Grade A rent $10.40   Capital value $2,850   Net yield** 3.7%   Business Park Q4 20 q-o-q y-o-y Rent (City Fringe) $5.80   Retail Q4 20 q-o-q y-o-y Prime rent (Orchard) $29.20   Capital value $6,100   Net yield 4.9%   Residential Q4 20 q-o-q y-o-y Prime rent $4.07   Capital value $1,748   Net yield 2.2%   Industrial*** Q4 20 q-o-q y-o-y Rent $1.18   Capital value $249   Net yield 3.8%   Source: CBRE Research, Q4 2020 All capital values and yields stated as prime. Rents are quoted on a $  psf per month basis and capital values on a $ psf basis. *Investment volumes are preliminary. All transactions above S$10  mil **Yield calculation methodology revised based on an average of  rolling eight quarter rents. ***Upper floor and 60-year leasehold factory data provided.  Singapore, Q4 2020 CAPITAL MARKETSAlong with improving economic indicators, preliminary real estate investment volume in Singapore increased by 15.7% q-o-q, to $3.248 bn for Q4 2020, a second consecutive quarter of increase. OFFICEDespite the ongoing downsizing exercises, preliminary estimates for Q4 2020 indicators seemed to suggest that the reduction in occupied space has slowed.  BUSINESS PARKSThe business park market continued to deliver a resilient performance towards the end of 2020 and registered its second consecutive quarter of positive net absorption.  RETAILThere was greater positivity in the retail market with shopper traffic recovering to about 60% to 80% of pre-COVID-19 levels.  RESIDENTIALSales momentum and price growth carried through to the final quarter of the year. Market sentiment and buyer's confidence remained strong, undeterred by the woes surrounding the pandemic. INDUSTRIALLeasing activity in Q4 2020 saw an uptick from the preceding quarter, on the back of improved global demand for pharmaceuticals and electronics. (c) CBRE Ltd. 2021 | 13M Interbank 0.4% DecRetail Sales Index** Y-o-Y -2.5% NovCPI Inflation Y-o-Y -0.1% NovPMI 50.5 DecGDP* Y-o-Y -3.8% Q4 20 Arrows indicate change from previous period *Advance estimates **excludes sale of motor vehicles. Q4 2020 CBRE Research MARKETVIEW COVID-19 Updates (c) CBRE Ltd. 2021 | 2 Relief to the Construction Industry *The COVID-19 (Temporary Measures) (Amendment No. 3) Act provides an additional four months to construction contracts to address the delays that occurred between 7 Apr -6 Aug 2020. *It allows for co-sharing of additional costs incurred from delays to the projects caused by COVID-19 (between 7 Apr 2020 -31 Mar 2021) amongst contractors, sub-contractors and suppliers, with total claimable amount capped at 1.8% of the contract sum. Additional Support Measures A Timeline of Events in 2020 Q4 2020 CBRE Research 18 1st stimulus $6.4b Unity Budget 11 Pandemic announced WHO announced the outbreak  a pandemic 7 DOSCORN Orange Level raised by MOH 13 Tighter restrictions Stricter border restrictions and safe distancing measures implemented Feb Mar  22 Ban short-term visitors into Singapore 26 2nd stimulus $48.4b Resilience Budget 6 3rd stimulus $5.1b Solidarity Budget 3 "Circuit breaker" (CB) CB measures to be implemented  for a month from 7 Apr to 4 May Apr 7 Temporary Measures Act The COVID-19 (Temporary Measures) Act was passed 21 "Circuit breaker"  extended CB extended to 1st June, with  additional $3.8b stimulus 27 4th stimulus $33b Fortitude Budget 2 Phase 1 Safe reopening with  resumption of 1/3 of workforce 12 Easing of "circuit  breaker" Certain businesses  allowed to open 19 Phase 2 More businesses and  social activities to  resume May Jun 17 Additional support  measures $8.0b Budget Aug 3 Amendment No. 3 Extension of support  measures for COVID-19  (Temporary Measures) Act Nov 28 Phase 3 Further easing of restrictions 21 First batch of  vaccines Singapore received its  first shipment of Pfizer- BioNTech COVID-19  vaccines Dec 01 02 03 Re-Align Framework and Simplified Insolvency Programme *The Re-Align Framework allows eligible small and micro businesses (SMEs) to renegotiate certain contracts with their counterparties.  *This is subject to certain criteria (FY2019 annual revenue does not exceed $30 mil, experienced &gt;=70% y-o-y fall in monthly average gross income over Jul -Dec 2020). The Notice of Negotiation must be served between 15 Jan 2021 -26 Feb 2021.  *The Simplified Insolvency Programme was introduced to assist SMEs in winding up or debt restructuring. Extension to the Date of Delivery of Possession *In line with the extension of time for construction projects, developers may serve a notice for an extension of another four months for the date of delivery of possession to purchasers. *Co-sharing of costs incurred from the delay in delivery of units, between developers and buyers. *Purchasers of private residential units may claim reimbursement from the developer for these actual costs, up to a maximum of 70% of the liquidated damages. MARKETVIEWAlong with improving economic indicators, preliminary real estate investment volume in Singapore increased by 15.7% q-o-q, to $3.248 bn for Q4 2020, a second consecutive quarter of increase. This amounts to $11.142 bn of investment volume for 2020, which is a 52.4% drop from the previous year, and also marks the lowest volume since the financial crisis in 2009 ($7.700 bn).The residential sector was the outperformer, coming in at 58.5% of investment sales this quarter, due to the sale of two public sites, as well as a selection of private residential sites. The office sector also came in strongly at 23.4% of sales with the sale of Keppel Bay Tower to Keppel REIT for $657.20 mil. Retail sector sales came in at $187.80 mil, or a decline of 72.1% q-o-q, with the sale of Anchorpointfor $110.00 mil. On the other hand, industrial volume came in at $181.98 mil, a drop of 56.1% q-o-q, with the sale of Big Box, for $118.00 mil. The project will be converted into a business park, Perennial Business City. Investment market activity is likely to continue to be dominated by local players, with foreign investment volume easing by 86.6% q-o-q. Existing travel restrictions are attributed as a large deterrent factor.Nevertheless, real estate investment sales in Singapore is likely to get a shot in the arm as vaccination programs are rolled out, with business sentiments picking up and border restrictions gradually eased. Although investors are likely to remain discerning and cautious, spurred by the low interest rate environment and ample liquidity, they will still be in search of investments that provide them with higher returns, coupled with stability and value at the top of their minds. As an investment destination, Singapore fits this bill with its proven ability to handle the pandemic, macroeconomic stability and political-neutrality. CBRE Research believes that investment volume in 2021 is likely to rebound, led by residential, office, and industrial sales. There could also be renewed interest in acquiring retail and hospitality at more opportunistic levels.  Q4 2020 CBRE Research (c) CBRE Ltd. 2021  | SINGAPORE CAPITAL MARKETS 70 80 90 100 110 120 Q4 15 Q2 16 Q4 16 Q2 17 Q4 17 Q2 18 Q4 18 Q2 19 Q4 19 Q2 20 Q4 20 Q4 2014 = 100 Grade A Office Prime Retail Prime Logistics Leasehold Prime Residential Chart 1: Total Transaction Value Chart 2: Capital Values Index Source: CBRE Research, Q4 2020 Source: CBRE Research, Q4 2020 Source: CBRE Research, Q4 2020 Note: Investment property transactions are property deals priced above S$10 million and include sales of building and development sites as well as ownership  changes of assets. The 4-quarter Rolling Total (4QRT ) generally smoothens out short-term quarterly fluctuations and highlights longer-term trends or cycles. Table 1: Major Private Investment Transactions Sector Property Price ($) Buyer  Office Keppel Bay Tower 657.20 mil Keppel REIT Residential Mediacorp Andrew Rd site 280.90 mil PRE 10 (Perennial) Industrial Big Box  118.00 mil Perennial/HPRY Holdings 3 $0 $10 $20 $30 $40 $0 $2 $4 $6 $8 $10 Q4 18 Q1 19 Q2 19 Q3 19 Q4 19 Q1 20 Q2 20 Q3 20 Q4 20 S$ bn S$ bn Private Public 4-quarter Rolling Total (RHS) MARKETVIEWTowards the end of 2020, a pick-up in leasing activity was observed from the technology and financial services sectors. Despite the ongoing downsizing exercises, preliminary estimates for Q4 2020 indicators seemed to suggest that the reduction in occupied space has slowed. In the absence of no new completions, the office market registered a net absorption of -14,800 sq. ft. Cumulatively, net absorption for the whole of 2020 amounted to -0.56 mil sq. ft. This trailed behind its annual net supply of 0.32 mil sq. ft. Coupled with lower occupancy of the new-builds upon completion, as well as the impact of the COVID-19 outbreak, vacancy rate rose from 4.5% in Q4 2019 to 6.0% in Q4 2020.The impending vacancy rise in the market has led to continued downward pressure on office rents. In Q4 2020, Grade A (Core CBD) office rents declined for its fourth consecutive quarter to $10.40 psf/month. This represented a full year decline of 10.0% in Grade A (Core CBD) office rents, which reversed the rental growth of 6.9% in 2019.Some cutback in large occupiers' footprint has resulted in an increase in secondary space, however this also presented more quality, fitted-out options for incoming potential tenants. It was observed that such tenants were open to taking over fitted premises as it reduced the need for capital expenditure.In the wake of the pandemic, demand is likely to remain subdued in 1H 2021. Nonetheless, there are some bright spots for demand. Chinese technology companies and non-bank financial services firms continue to display expansionary appetite. Also, the displacement of tenants from buildings slated for redevelopment will contribute to overall occupier activity. Should economic activity and business sentiment improve on the back of the vaccine rollout, the office market is poised to benefit from employment gains. Coupled with the improved leasing activity and limited Grade A supply in 2021, there are prospects for rents to turn upwards by 2H 2021. (c) CBRE Ltd. 2021  | 4 Chart 3: Office Supply-Demand Dynamics 0% 2% 4% 6% 8% -0.5 0.0 0.5 1.0 1.5 Q4 15 Q2 16 Q4 16 Q2 17 Q4 17 Q2 18 Q4 18 Q2 19 Q4 19 Q2 20 Q4 20 mil sq. ft. Net Supply Net Absorption Vacancy rate (RHA) Source:  CBRE Research, Q4 2020 Table 2: Office Vacancy Rates Source:  CBRE Research, Q4 2020 Chart 4: Office Rental Index 100 120 140 160 180 200 220 Q4 15 Q2 16 Q4 16 Q2 17 Q4 17 Q2 18 Q4 18 Q2 19 Q4 19 Q2 20 Q4 20 Q4 2005 = 100 Singapore (Grade A Core CBD) Asia Pacific Source:  CBRE Research, Q4 2020 Table 3: Singapore Office Rents Q4 20 Q-o-q Y-o-y Islandwide 6.0% 2 bps 141 bps Core CBD 6.2% 11 bps 200 bps Fringe CBD 5.8% 4 bps 117 bps Decentralised 5.5% -19 bps 38 bps Grade A (Core CBD) 3.9% 63 bps -9 bps Q4 20 Q-o-q Y-o-y Grade A CBD Core $10.40 -2.8% -10.0% Grade B CBD Core $7.90 -3.1% -9.2% Grade B Islandwide $7.35 -3.3% -8.7% Source:  CBRE Research, Q4 2020 SINGAPORE OFFICE Q4 2020 CBRE Research MARKETVIEWThe business park market continued to deliver a resilient performance towards the end of 2020. Islandwidenet absorption was 50,488 sq. ft. in Q4 2020, its second consecutive quarter of positive net absorption. This was primarily contributed by a pick-up in demand within the Rest of island submarket. This led to islandwidevacancy rate dipping from 13.0% in Q3 2020 to 12.8% in Q4 2020. Renewals continued to feature prominently in leasing activity. For 2020 as a whole, the technology sector continued to be a demand driver for the business park market, especially in the City Fringe submarket. At the same time, JustCois opening a 30,000 sq. ft. centre within the upcoming South-east Asian headquarters of Razer Inc. This co-working facility is scheduled to open in Q2 2021. Given the tight vacancy in the City Fringe submarket, more cost conscious occupiers are seeking space within the Rest of island submarket. This is further spurred by the wide rental delta between the two tiers of the business park market. With the performance of the business park market displaying some resilience in this quarter, rents in the City Fringe and Rest of Island submarkets kept steady at $5.80 psf/month and $3.70 psf/month respectively. In December, it was announced that the former Big Box was acquired by a consortium led by Perennial Real Estate Holdings Pte Ltd. Renamed Perennial Business City, it was reported that Perennial has obtained JTC's confirmation to rezone this site from Business-1 (White) to Business Park. This will introduce approximately 1.10 mil sq. ft. of business park space into the market as the redevelopment project completes progressively from Q4 2021. Given the strong emphasis of high-tech industries, demand for business park market will continue to remain steady. However, with limited opportunities within the City Fringe submarket, this may result in more transactions within the outlying decentralised areas. Q4 2020 CBRE Research (c) CBRE Ltd. 2021  | 5 SINGAPORE BUSINESS PARKS Chart 6: Business Park Vacancy by Submarkets Source:  CBRE Research, Q4 2020 Table 4: Business Park Rents Source:  CBRE Research, Q4 2020 Table 5: Known Business Park Future Pipeline (in sq.ft.) Source:  CBRE Research, Q4 2020 Q4 20 Q-o-q Y-o-y City Fringe $5.80 0.0% -0.9% Rest of Island $3.70 0.0% -1.3% Chart 5: Business Park Supply-Demand Dynamics Source:  CBRE Research, Q4 2020 0% 5% 10% 15% 20% -0.2 0.0 0.2 0.4 0.6 0.8 1.0 1.2 Q4 15 Q2 16 Q4 16 Q2 17 Q4 17 Q2 18 Q4 18 Q2 19 Q4 19 Q2 20 Q4 20 Net Supply Net Absorption Vacancy Rate (RHA) NLA (mil sq. ft.) Q4 15 Q2 16 Q4 16 Q2 17 Q4 17 Q2 18 Q4 18 Q2 19 Q4 19 Q2 20 Q4 20 0% 5% 10% 15% 20% Rest of Island City Fringe Vacancy City Fringe Rest of Island Total 2021 0.75 mil 1.00 mil 1.75 mil 2022 0.00 mil 0.00 mil 0.00 mil 2023 0.00 mil 0.32 mil 0.32 mil Total 0.75 mil 1.52 mil 2.27 mil MARKETVIEWThe retail sector remained challenged with continued social distancing measures and closure of tourism borders. Nonetheless, compared to the previous quarter, there was greater positivity in the retail market with shopper traffic recovering to about 60% to 80% of pre-COVID-19 levels. The slight pickup in economic activities, travel restrictions and mega sales events have also led to a higher consumption of goods and services domestically. Retail sales (excluding motor vehicles) declined by 2.5% y-o-y in Nov 2020, as compared to a decline of 12.4% y-o-y in the previous month. Leasing activity for expansions and new openings accelerated slightly, but this was mainly confined to the F&amp;B and supermarket segments. On the other hand, prominent closures were recorded in the weaker performing segments. Robinsonsannounced the closure of its last two department stores, Marks &amp; Spencerconsolidated by closing its Raffles City outlet, while AW Lab, multi-brand sportswear retailer exited Singapore after their debut in 2017.Rental performance of suburban malls remained resilient but further q-o-q declines were registered in all other submarkets due to their higher reliance on tourist and office footfall.  This led average prime islandwide retail rents to fall by a further 3.4% q-o-q in Q4 2020. Notably, landlords prioritised maintaining occupancy and rental expectations have become more realistic, particularly for spaces in secondary locations and floors. To date, average prime islandwide retail rents declined by 8.6% for 2020. While the economy is stabilising and Phase 3 of reopening will lend some positivity to the sector in 2021, hiring sentiments are still cautious and there are still uncertainties on the vaccine efficacy and how the global pandemic is going to pan out. The sector will continue to remain under pressure. However, landlords and tenants who are quick enough to readapt and seize opportunities could establish a head start in an environment where market recovery could be a long and uneven one. Q4 2020  CBRE Research 6 SINGAPORE RETAIL Chart 7: Retail Economic Indicators Source: STB, MTI Economic Survey of Singapore, CBRE Research, Q4 2020 Table 6: Estimated Gross New Supply* Source: CBRE Research, Q4 2020 *excludes projects with a NLA of less than 20,000 sq. ft. Table 7: Prime Retail Rents Source: CBRE Research, Q4 2020 Chart 8: Retail Rental Index 70 90 110 130 150 170 190 Q4 11 Q4 12 Q4 13 Q4 14 Q4 15 Q4 16 Q4 17 Q4 18 Q4 19 Q4 20 Q1 2005 = 100 Asia Pacific Prime Orchard Road Prime Suburban Source: CBRE Research, Q4 2020 (c) CBRE Ltd. 2021  | Year Estimated NLA (sq. ft.) 2021 0.38 mil sf  2022 0.35 mil sf  2023 0.17 mil sf  2024 0.40 mil sf  Q4 20 Q-o-Q Y-o-y Orchard Road $29.20 -2.7% -7.9% Suburban $29.00 0.0% -0.5% 0.0 1.0 2.0 3.0 4.0 5.0 6.0 Q3 16 Q1 17 Q3 17 Q1 18 Q3 18 Q1 19 Q3 19 Q1 20 Q3 20 -40.0% -30.0% -20.0% -10.0% 0.0% Millions Visitor Arrivals (RHA) Change in Retail Sales Index at Constant Price (excludes car sales) y-o-y change (2017=100) mil MARKETVIEW Chart 9: New Private Residential Units Take-UpSales momentum and price growth carried through to the final quarter of the year. Market sentiment and buyer's confidence remained strong, undeterred by the woes surrounding the pandemic.Preliminary estimates for new home sales volume for Q4 2020 amounted to 2,510 units, which was 2.7% higher than the same period last year. Sales in the resale market also helped to prop up the new home sales market. At 3,540 units, this was equivalent to an increase of 51.2% y-o-y.  According to URA flash estimates, the private residential property price index rose for the third consecutive quarter, as it increased by a further 2.1% in Q4 2020. The pace of private home prices was also the fastest since Q2 2018, supported mainly by benchmark prices set by new project launches in Q4 2020, though it was mainly driven by transactions in the RCR (4.8% q-o-q) and CCR (3.3% q-o-q).Developers are observed to be beginning to be more aggressive to replenish their land inventory. This came on the back of unsold inventory declining to 26,483 units in Q3 2020 since its last peak in 2018, coupled with the limited injection of land though government land sales. Hence, collective sales and private land sales gained traction this quarter. In addition, the tenders at Tanah Merah KechilLink and Yishun Ave 9 GLS sites, which closed in Oct 2020, were also highly contested.According to preliminary estimates, take-up for new home sales for 2020 reached 9,889 units while the overall private home prices increased by 2.2% for the full year. Moving forward, market performance is likely to be positive, driven by optimism surrounding the nationwide vaccine rollout, stabilisation of the economy and most  importantly, low interest rates. Project launches which were previously delayed are also expected to come onstream in the first half of 2021, which may help to provide a boost to overall prices and volume. Q4 2020 CBRE Research (c) CBRE Ltd. 2021  | 7 SINGAPORE RESIDENTIAL Source: URA, CBRE Research, Q4 2020 Note: Prelim figures exclude executive condominiums (ECs) Prelim newly launch figures for Q4 2020 refer to Oct &amp; Nov only.  Table 8: Selected Projects with New Units Launched in Q4 2020 Chart 10: URA Residential Price Index Development Tenure Median  Price No of  units in  project Units  sold The Landmark 99y $2,137 396 108 The Linq @Beauty  World FH $2,171 120 119 Ki Residences 999y $1,766 660 171 Clavon 99y $1,637 640 472 157.0 100 120 140 160 180 Q4 14 Q4 15 Q4 16 Q4 17 Q4 18 Q4 19 Q4 20 Q1 2009 = 100 Source: CBRE Research, Q4 2020 Note: Q4 20 URA Residential Price Index is a flash estimate Source: CBRE Research, Q4 2020 Note: Based on no. of caveats lodged 0 500 1,000 1,500 2,000 2,500 3,000 3,500 4,000 Q4 2019 Q1 2020 Q2 2020 Q3 2020 Q4 2020 Units TOTAL Newly Launched TOTAL New Sales MARKETVIEW Q4 2020 CBRE Research (c) CBRE Ltd. 2021  | 8 SINGAPORE INDUSTRIAL Chart 11: Manufacturing Indices Table 9: Significant Future Developments for 2021 Source: CBRE Research, Q4 2020 Table 10: Industrial Rents Source: CBRE Research, Q4 2020 Source: CBRE Research, Q4 2020 Note: APAC rental index is based on preliminary statistics. -30% -20% -10% 0% 10% 20% 30% 44 46 48 50 52 54 56 Oct-18 Dec-18 Feb-19 Apr-19 Jun-19 Aug-19 Oct-19 Dec-19 Feb-20 Apr-20 Jun-20 Aug-20 Oct-20 Dec-20 PMI-Contract PMI-Expand Mfg Output NODX Source:  Singstat, SIPMM, CBRE Research, Q4 2020 Development Region Est. GFA  (Mil sf) JTC Defu Industrial City North East 3.51 TimMac @ Kranji North 1.54 Kranji Green North 1.43 Cogent Jurong Island Logistics  Hub West 0.94 Tee Yih Jia Food Hub North 0.86 Q4 20 Q-o-q Y-o-y Factory (Grd Flr) $1.50 0.0% -4.2% Factory (Upp Flr) $1.18 0.0% -4.2% Warehouse (Grd Flr) $1.58 0.6% 0.0% Warehouse (Upp Flr) $1.20 0.8% 0.0% Chart 12: Industrial Rental Index 80 100 120 140 160 180 Q4 15 Q2 16 Q4 16 Q2 17 Q4 17 Q2 18 Q4 18 Q2 19 Q4 19 Q2 20 Q4 20 Q4 2005=100 Singapore Factory Singapore Warehouse APAC Mfg/NODX PMISingapore's economy remained in contraction territory in Q4 2020, shrinking 3.8% y-o-y according to MTI's advance estimates. The performance of key industrial indicators was a mixed bag -manufacturing output rose by 17.9% y-o-y in Nov, reversing its surprise fall of 0.8% y-o-y in Oct; whereas NODX sustained its decline from the previous month in Nov by 4.9% y-o-y. Meanwhile, PMI posted its sixth consecutive month of expansion in Dec at 50.5.Leasing activity in Q4 2020 saw an uptick from the preceding quarter, on the back of improved global demand for pharmaceuticals and electronics. Majority of transactions conducted this quarter comprised renewals and relocations, with only a handful of new set ups and expansions. In particular, warehouse leasing demand was propped up by third-party logistics and e-commerce players. While prime logistics vacancy remained compressed in Q4 2020, it is likely to begin increasing around mid-2021 with some pockets of space slated to be released.The healthy warehouse leasing demand contributed to an increase in rents in Q4 2020, bringing them back to pre-COVID-19 levels on a y-o-y basis. On the other hand, the factory market remains two-tiered, with older stock counterbalancing the demand for high-specs factory spaces. As such, factory rents stayed flat q-o-q, with full-year contraction coming in at 4.2%. Looking ahead, with construction delays pushing back the completion dateline for a significant portion of 2020's pipeline, CBRE Research expects some of the supply to begin materialising towards mid-2021, barring any unforeseen circumstances. On the demand side, the government has been spearheading efforts to have sufficient vaccines for the entire population by Q3 2021 as well as aiming to be the vaccine distribution hub for the region. As such, specialised cold chain is poised to drive logistics demand in the coming year to handle the incoming vaccine shipments. MARKETVIEW Disclaimer: Information contained herein, including projections, has been obtained from sources believed to be reliable. While we do not doubt its accuracy,  we have not verified it and make no guarantee, warranty or representation about it. It is your responsibility to confirm independently its accuracy and completeness. This information is presented exclusively for use by CBRE clients and professionals and all rights to the material are reserved and cannot be  reproduced without prior written permission of CBRE. DEFINITIONS Grade A Rents  Average value derived from a basket of Grade A  properties located in the Central Business District (CBD).  Prime Capital Values Valuation based average value derived from a basket of  prime properties. For residential and retail, the basket is  only of freehold properties while industrial basket is  related to 60-year leasehold properties. All values are  quoted on a per square foot net floor area and strata  basis, except for office values, which are on an en-bloc  basis. Prime industrial space and thereafter rents and  capital values are considered on upper floors. Net Absorption The change in occupied stock (in sq. ft.) over the  recorded period for all existing properties. Vacancy Rate Vacant space as a percentage of the base inventory or  building net lettable area.  Net Yield Net property income (gross income net service charges  and taxes) as a percentage of the asset's capital value. The following  locations are considered for Grade A or  Prime property baskets: Office Raffles Place, Shenton Corridor, Marina Bay and Marina  Centre Retail Orchard Road  (units on levels with heaviest footfall) Industrial Islandwide mature industrial locations such as Ubi, Kaki  Bukit, Tuas, and Woodlands Residential  Core Central Region (CCR) - districts 9, 10,11,  Downtown &amp; Sentosa Cove   (covering apartments and condominiums) CONTACTSSingapore CBRE ResearchCBRE Pte. Ltd.2 Tanjong KatongRoad #06-01Paya Lebar QuarterSingapore 437161+65 6224 8181www.cbre.com.sgCo. Reg. No. 197701161RAgency License No. L3002163IDesmond SimHead of Research, Singapore and SEA+65 6326 1638Desmond.sim@cbre.com.sgCatherine HeCapital Markets Research+65 6326 1232Catherine.he@cbre.comGoh Jia LingResidential &amp; Retail Research+65 6328 7304Jialing.goh@cbre.comYuki SuzukiOffice &amp; Business Parks Research+65 6326 1669Yuki.suzuki@cbre.com.sgElizabeth LowIndustrial Research+65 6328 7397Elizabeth.low@cbre.comTo learn more about CBRE Research, or to access additional research reports,  please visit the Global Research Gateway at www.cbre.com/researchgateway SINGAPORE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS Singapore's industrial property  market was relatively resilient in  2020 with the JTC rental and  price index declining 1.5% YOY  and 2.7% YOY, respectively. Q4  2020 witnessed a recovery, which  could continue into 2021, as the  economy rebounds. We forecast  warehouse rents to rise 1.3%  YOY, while factory rents could  stay flat on ample supply.  Demand for business park and hi- spec spaces should be supported  by the thriving technology sector  and biomedical manufacturing.  Overall occupancy improved 0.7  ppt in 2020 to 89.9%, driven by  warehouses on increased  stockpiling and ecommerce  activities.  We recommend landlords adopt  Industry 4.0 and remodel to  higher specifications while being  more flexible in lease  negotiations. Insights &amp; Recommendations COLLIERS SEMI-ANNUAL INDUSTRIAL  |  SINGAPORE  |  RESEARCH  |  H2 2020 |  25 FEBRUARY 2021 Source: Colliers International. Note: USD1 to SGD1.3221 at the end of H1 2020. 1 sq m = 10.7639 sq ft. "pp" refers to percentage point. *On a net lettable area basis. #Rental values refer to warehouse-logistics rents. **Yields refer to industrial properties with 30-year land leases. &gt; 2020 saw new total industrial demand of 7.2  million sq ft, -7.5% YOY. In 2021, we expect  increased demand for warehouse space due  to rising ecommerce. Long term demand  should match the 10-year historical average.  &gt; We expect supply in 2021 to jump multi-fold  YOY (1.8x 10-year historical average) due to  construction delays in 2020. Annual new  supply in 2021-2025 of 11.9 million sq ft is  10% below the 10-year historical average. &gt; We forecast warehouse-logistics rent to  grow 1.3% YOY in 2021 on sustained demand.  Business parks and high-spec spaces should  also recover in 2021, though factory rents  could stay flat on higher new supply.  &gt; We expect overall industrial vacancy rates to  rise in 2021 due to a short-term factory  space oversupply. Vacancy could improve  from 2022 onwards as supply tapers off. &gt; We expect overall industrial capital values to  remain stable, possibly rising for prime data  centres and logistics properties, due to rising  demand and rents. Yields to remain stable at  6.0% for 30-year leasehold properties. SGD1.22# SGD1.23# -0.6% 1.3% 10.1% 11.8% -0.6pp 1.7pp Full Year 2021 YOY /  End 2021 12.4mn sq ft * 24.5mn sq ft * 6.0% 0pp SGD1.28 # 1.0% 9.6% -0.1pp 2021-25 Annual Average Annual Average  Growth 2021-25 / End 2025 11.2mn sq ft * 11.9mn sq ft * 6.0% 0pp H2 2020 HOH /  End H2 3.4mn sq ft * 0.6mn sq ft * 6.0% 0pp Demand Supply Rent (psf pm) Vacancy Capital  Values/ Yields ** A BRIGHTER OUTLOOK IN 2021 Logistics warehouses and hi-specs space to be bright spots Shirley Wong  Senior Associate Director | Research |  Singapore +65 6531 8567 shirley.wong@colliers.com Tricia Song Director and Head | Research |  Singapore +65 6531 8536 tricia.song@colliers.com 2 COLLIERS SEMI-ANNUAL INDUSTRIAL  |  SINGAPORE  |  RESEARCH  |  H2 2020 |  25 FEBRUARY 2020 0% 5% 10% 15% 0 5 10 15 20 25 30 Vacancy Rate Net floor area (mil sq feet) Net New Supply Net New Demand Vacancy Rate (RHS) Singapore's industrial market showed resilience According to the Ministry of Trade and Industry (MTI), Singapore's economy  contracted 5.4% YOY in 2020, a reversal from the 1.3% growth in 2019.  Manufacturing had been the most resilient sector in 2020, growing 7.3%  YOY despite the pandemic, while construction and services contracted  35.9% YOY and 6.9% YOY respectively. In Q4 2020, GDP growth contracted  2.4% YOY but grew a seasonally adjusted 3.8% QOQ, once again driven by  the manufacturing sector, which expanded 10.3% YOY. Going forward,  manufacturing could be supported by robust semiconductor demand from  the 5G and automotive markets. The IT services sector could benefit from  firms' continued demand for IT and digital solutions.  According to Colliers' research, average monthly industrial gross rents fell by  0.6% HOH in Q4 2020 as Covid-19 continued to dampen business sentiment  and leasing activities. For the full year, factory rents declined the most at  1.9% YOY, while business parks and high-spec buildings have been the most  resilient (-1.0% YOY and -0.9% YOY respectively). Rents of warehouse- logistics space were down 0.6% HOH and 1.2% YOY in Q4 2020 to SGD1.22  (USD0.92) per sq foot, despite higher take-up as landlords prioritised occupancy over rents.   Based on data from JTC, all-industrial occupancy increased by 0.7ppt to  89.9% in 2020 (+0.5 ppt HOH in H2 2020), as warehouse occupancy rose  1.9ppt to 89.9%. Barring further construction disruptions, supply in 2021  looks abundant at 24.5 million sq feet (2.3 million sq metres), 76% of which  is factory space. This is equivalent to 1.8x the 10-year historical average as  factory supply is scheduled to increase 6.4x YOY. As such, we expect all- industrial vacancy to rise 1.7 ppt to 11.8% by end of 2021, while rents for  factories remain flat.  Recovery expected in 2021  In 2021, we expect a recovery in most industrial segments along with the  overall economic rebound, with Oxford Economics forecasting a GDP growth  of 5.6% in 2021. We forecast continued and growing demand for warehouse  space to drive a 1.3% YOY rental growth, the highest among all segments,  led by ramp-up logistics space. Factory rents, on the contrary, should stay  flat in 2021, before recovering in 2022, as ample supply suppresses rental  growth. We expect rents of business parks and hi-specs space to grow 1%,  supported by the thriving technology sector.  All-industrial new supply, new demand &amp; vacancy rate Source: Colliers  International, JTC (as of  31 December 2020).  *Independent High-Spec  refers to top quality  modern, multi-level,  multi-tenanted space  that includes the latest  or recent generation of  building services,  prestigious lobby finish  and good views, located  outside of science parks  and business parks.  **Warehouse-Logistics  rents refer to average of  ramp-up and cargo lift  warehouses rents. Average monthly gross rents by type (SGD per sq foot, H1 2020 and  H2 2020, HOH change) 24.5 14.17 3.9 5.16 0.00 0 10 20 30 2021F 2022F 2023F 2024F 2025F Estimated net floor  area (mil sq feet) Multiple-user Factory Single-user Factory Business Park Warehouse Upcoming new supply by type Business Park Independent  High-Spec* Factory Warehouse  Logistics**  4.35 4.33 2.93 2.91 1.65 1.64 1.22 1.22 (-0.6%) (-0.7%) (-0.5%) (-0.7%) 3 COLLIERS SEMI-ANNUAL INDUSTRIAL  |  SINGAPORE  |  RESEARCH  |  H2 2020 |  25 FEBRUARY 2020 WEST NORTH CENTRAL EAST NORTH-EAST 82.8 80.5 95.7 90.9 76.2 75 85 95 105 115 2014 2015 2016 2017 2018 2019 2020 Price Index (Q4 2012 = 100) &lt;= 30 Years 31 - 60 Years &gt; 60 Years Business 1 Business 2 Source: Colliers International, JTC (as of 30 December 2020) Note: Figures on the map refer to existing stock and vacancy rate across all industrial property types in each region.  TOP = temporary occupation permit. All information is available in the public domain. Stock and vacancy by planning regions, Dec 2020, along with select recent completions and future supply JTC Defu Industrial City Est. TOP 2021 | 3.51 mil sq ft GFA | Defu South Street 1 | Developer: JTC Price index of multiple-user factory by zoning and remaining tenure Source: Colliers International, JTC (as of 31 Dec 2020). Note: Business 1 (B1) zoning is intended for light and  clean use. Business 2 (B2) zoning may be used for heavy industries that have a greater environmental impact. Legend  Major developments completed in H1 2020 Major developments in the pipeline JTC Bedok Food City TOP Q2 2020 | 1.1 mil sq ft GFA | 1550 Bedok North Avenue 4 | Developer: JTC Corporation Single-user factory development Est. TOP 2022 | 1.84 mil sq ft GFA | Sunview Way | Developer:  Malkoha Pte Ltd Bulim Square Est. TOP 2022 | 1.72 mil sq ft GFA | Bulim Lane 1/2 | Developer: JTC Industrial transaction volumes recovered in H2 2020 According to JTC, the overall industrial price index declined by 1.1% HOH in H2  2020 . This brings the full year price decline to 2.7% YOY, dragged by multi- user factories, reflecting the weaker factory rents. Notably, the number of  transactions recovered to normalised levels in H2 2020 from abysmal levels in  H1 2020 due to lock-downs. In H2 2020, the number of transactions for factory  units increased 1.4x HOH to 792 (2015-2019 5-year semi-annual average 553),  while that of warehouse units jumped 3.2x HOH to 54 (5-year semi-annual  average 34), reflecting some pent-up demand. The total number of industrial  transactions fell only 2.2% YOY in 2020. Multi-user factory median prices rose  1.3% YOY in 2020 to SGD394 (USD298) per sq ft while warehouses declined  8.2% YOY to SGD540 (USD408) per sq ft. Anecdotally, we are seeing more  interest from property funds and REITs for industrial assets, in particular,  logistics warehouses and hi-specs space such as data centres. According to  Colliers' valuation team, net yields for Singapore industrial/logistics properties  remained stable in H2 2020, at 5.75-6.25%.  Business park development Est. TOP 2024 | 2.41 mil sq ft GFA | Punggol Way | Developer: JTC Single-user industrial development TOP Q1 2020 | Total: 539,920 sq ft GFA|  65% factory/ 35% warehouse |  5 Tuas Avenue 5 | Developer: Hup Hin Property (S) Pte Ltd 255 million sq ft 10.1% vacancy 37.0 million sq ft 9.6% vacancy 78.1 million sq ft 8.4% vacancy 92.4 million sq ft 11.8% vacancy 75.5 million sq ft 9.6% vacancy About Colliers International Colliers International (NASDAQ, TSX: CIGI) is a leading real estate professional services and investment management company. With operations in 68 countries, our more than 15,000 enterprising professionals work collaboratively to provide expert advice and services to maximize the value of property for real estate occupiers, owners and investors. For more than 25 years, our experienced leadership, owning approximately 40% of our equity, has delivered compound annual investment returns of almost 20% for shareholders. In 2019, corporate revenues were more than $3.0 billion ($3.5 billion including affiliates), with $33 billion of assets under management in our investment management segment. Learn more about how we accelerate success at corporate.colliers.com, Twitter or LinkedIn Copyright (c) 2020 Colliers International The information contained herein has been obtained from sources deemed reliable. While every reasonable effort has been made to ensure its accuracy, we cannot guarantee it. No responsibility is assumed for any inaccuracies. Readers are encouraged to consult their professional advisors prior to acting on any of the material contained in this report. Primary Author: Shirley Wong Senior Associate Director | Research | Singapore +65 6531 8567 shirley.wong@colliers.com Tricia Song Director and Head | Research | Singapore +65 6531 8536 tricia.song@colliers.com For further information, please contact: June Chua Executive Director and Head | Tenant Representation | Singapore +65 6531 8653 June.chua@colliers.com Bastiaan van Beijsterveldt Executive Director and Head | Occupier Services | Singapore +65 6531 8630 dominic.peters@colliers.com Steven Tan Senior Director | Investment Services | Singapore +65 6531 8584 Steven.tan@colliers.com Keng Chiam Tan  Executive Director &amp; Head | Valuation &amp; Advisory Services | Singapore +65 6531 8570 kengchiam.tan@colliers.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SINGAPORE 4Q 2020 Commercial activity picking up with economic recovery REAL ESTATE  TIMES APRIL 2021 1 EDMUND TIE RESEARCH ECONOMY  Market commentary Key economic indicators * Based on estimates released by the  Ministry of Trade and Industry (MTI) on 15  February 2021, the Singapore's economy  contracted by 2.4% yoy in 4Q 2020,  moderating from the 5.8% decline in 3Q  2020 (Table 1). The economy expanded  by 3.8% qoq in 4Q 2020, compared to an  expansion by 9.2% qoq in 3Q 2020.  * As Singapore moved into Phase 3 of its  recovery from 28 December 2020, up  to 8 persons for social gatherings and  household visitors are allowed at any  point in time. The majority of industries,  except for the entertainment sector, had  restarted operations. The manufacturing  sector expanded by 10.3 % yoy in  4Q 2020, a slight slowdown from the  11.0% pace recorded in 3Q 2020. The  construction sector declined by 27.4 %  yoy in 4Q 2020, an improvement from the  52.4% contraction in 3Q 2020. * As more economic activities resumed,  inflationary pressures picked up slightly  in 4Q 2020, while the labour market  improved slightly too. Inflation eased from  -0.3% in 3Q 2020 to -0.1% in 4Q 2020. The  unemployment rate declined to 3.2% in  4Q 2020, from 3.6% in 3Q 2020 (Table 2).  Table 1: Singapore's Gross Domestic Product (GDP) Selected  indicators Yoy change (%) 4Q  2019 1Q  2020 2Q  2020 3Q  2020 4Q  2020 Overall GDP 1.0 -0.3 -13.3 -5.8 -2.4 Manufacturing -2.3 7.9 -0.8 11.0 10.3 Construction 4.3 -1.2 -59.9 -52.4 -27.4 Services producing  industries 0.8 1.5 -2.3 -13.6 -8.0 Source: MTI Table 2: Inflation, unemployment rate and fixed asset investments Selected indicators 1Q  2020 2Q  2020 3Q  2020 4Q  2020 Consumer Price Index   (Core inflation)  Y-o-y % change 0.0 -0.2 -0.3 -0.2 Consumer Price Index   (All items inflation) S.A.   Y-o-y % change 0.4 -0.7 -0.3 -0.1 Unemployment rate, S.A.  (%) 2.4 2.9 3.6 3.2 Fixed asset investments  (S$bn) 12.4 1.9 2.1 3.0 Source: Singapore Department of Statistics * Singapore attracted $3.0bn in FAI in 4Q 2020, an increase from  the $2.1bn in 3Q 2020. The service cluster saw continued decline  in 4Q 2020 while the manufacturing sector reported a significant  increase of 131% qoq in 4Q 2020 to $2.2 bn. The electronics cluster  saw a 19% contraction in FAI in 4Q 2020, other clusters such as  chemicals, biomedical manufacturing, precision engineering and  transport engineering saw a significant pickup after a low base of  nil or minimal activity in 3Q 2020. The services sector declined by  34% qoq to $727.2mn in 4Q 2020. 2 EDMUND TIE RESEARCH Market commentary Investment sales On a quarterly basis, total investment sales nearly halved  from $4.8bn in 3Q 2020 to $2.5bn in 4Q 2020 (Figure 1).  The near-halving of total investment sales in 2020 was  a likely by-product of the COVID-19 situation, which  resulted in reduced activities in the construction sector  as well as the Government Land Sales (GLS) programme. The public investment sales market saw the award of a  single site at $0.62bn for a Residential with Commercial at  1st Storey development in 4Q 2020. By sector, residential  investment sales took the lead in 4Q 2020, 64.3% of total  sales The second largest sector was industrial investment  sales at 14.6% , followed by shophouse (9.8%), retail  (8.0%), and lastly office (3.3%) (Table 3). INVESTMENT 0 5 10 15 20 25 30 35 40 2010 2011 2012 2013 2014 2015 2016 2017 2018 2019 2020 1Q 2Q 3Q 4Q $ bn Source: Various sources, EDMUND TIE Research Figure 1: Total investment sales (S$bn) 2018 $ mn 2019 $ mn 2020 $ mn 1Q 2020 $ mn 2Q 2020 $ mn 3Q 2020 $ mn 4Q 2020 $ mn qoq chg % Total Investment Sales  31,692 29,711 13,105 3,985 1,853 4,780 2,466 -48 Residential 20,387 7,554 4,851 1,978 261 976 1,616 65 Office 5,000 8,386 3,038 784 1,324 846 84 -90 Industrial 2,777 4,717 2,098 1,133 174 425 366 -14 Retail 1,757 3,548 2,677 22 43 2,457 155 -94 Hospitality 985 5,038 0 0 0 0 0 n.m. Shophouse 786 469 372 15 50 60 246 311 Others 0 0 70 53 0 16 0 n.m. Private Sales 24,579 24,392 10,897 2,399 1,853 4,780 1,844 -61 Residential 13,856 3,003 2,865 615 261 976 993 2 Office 4,635 8,386 3,038 784 1,324 846 84 -90 Industrial 2,623 4,511 1,875 910 174 425 366 -14 Retail 1,757 3,548 2,677 22 43 2,457 155 -94 Hospitality 923 4,475 0 0 0 0 0 n.m. Shophouse 786 469 372 15 50 60 246 -44 Others 0 0 70 53 0 16 0 n.m. Government sales 7,113 5,319 2,208 1,586 0 0 622 n.m. Residential 6,531 4,550 1,985 1,363 0 0 622 n.m. Office 365 0 0 0 0 0 0 n.m. Industrial 154 206 223 223 0 0 0 n.m. Retail 0 0 0 0 0 0 0 n.m. Hospitality 62 562 0 0 0 0 0 n.m. Shophouse 0 0 0 0 0 0 0 n.m. Others 0 0 0 0 0 0 0 n.m. Table 3: Investment sales summary* Source: Various sources, EDMUND TIE Research * Refers to any property transactions with value above S$10mn. 3 EDMUND TIE RESEARCH Sector trends and outlook * There were no significant office transactions in 4Q 2020.  Five transactions of $30mn each took place in various office  developments sited within the CBD in 4Q 2020. *  Industrial investment sales were at $0.37bn in 4Q 2020. First, the  sale of Lucas Real Estate Singapore's iconic facility, the Sandcrawler,  to US private equity giant Blackstone Group, with the occupancy  rate to be at the high-90 percent range was transacted at $175.8mn.  Second was the acquisition of Big Box, a shopping mall in Jurong  East, by Perennial Real Estate Holdings for $118.0mn. Perennial  will be redeveloping the site into a business park named Perennial  Business City. The majority stake of the new development will be  held by Perennial with the remaining stake shared by other investors  such as HPRY Holding, which is the investment vehicle of Perennial. * For retail investment sales, there was just one significant transaction  for 4Q 2020: FCT's divestment of Anchorpoint shopping centre for  $110mn to unrelated parties. The shopping centre has around 50  tenants spread over close to 7,000sqm of NLA. * For residential investment sales, the sole significant transaction of  4Q 2020 came from Mediacorp's sale of the site occupied by the  former Caldecott Broadcast Centre for $280.9mn (Figure 2). It will  explore redevelopment options for the site that was previously  granted an Outline Approval to be redeveloped into a cluster of  2-storey bungalows with a minimum land area of 800sqm per house.  Apart from the Caldecott site, there were 13 other landed residential  transactions greater than $20mn each in 4Q 2020. The decline in transaction activity in 4Q 2020 showed the uncertainties  given the ongoing weakness in the economy. However, according to  the Singapore Commercial Credit Bureau's Business Optimism Index,  business optimism improved for the second consecutive quarter to  -1.03 percentage points in 1Q 2021 from -4.97  percentage points in 4Q 2020. As the economy  resumes greater normalcy, the financial,  manufacturing and service sectors anticipated  a slightly better outlook in 1Q 2021. Development Remaining tenure, yrs Purchase price Purchaser Seller $ mn $ psf Residential  Former Caldecott Broadcast Centre 73 280.9 760 NLA Perennial Real Estate Holdings  and Kuok Khoon Hong Mediacorp Industrial Sandcrawler 50 175.8 2,395 land Blackstone Group Lucas Real Estate Singapore Big Box 17 118 118 NFA Perennial Real Estate Holdings Big Box Pte Ltd Retail Anchorpoint Shopping Centre Freehold 110.0 1,545 NLA Unknown Frasers Centrepoint Trust Table 4: Key private investment sale transactions in 4Q 2020  Source: Various sources  Figure 2: Total investment sales by asset type 29% 31% 16% 1% 22% 1% Office Residential Industrial Shophouse Retail Others 29% 31% 16% 1% 22% 1% Office Residential Industrial Shophouse Retail Others 4Q 2020 3Q 2020 8% 64% 3% 15% 10% Retail Residential Office Industrial Shophouse 8% 64% 3% 15% 10% Retail Residential Office Industrial Shophouse Source: EDMUND TIE Research 4 EDMUND TIE RESEARCH OFFICE  Office demand and occupancy rates * Based on EDMUND TIE Research statistics,  overall net absorption also improved from  -374,000 sq ft in 3Q 2020 to 369,000 sq  ft in 4Q 2020. The islandwide occupancy  rate inched up slightly by 0.2% pts qoq to  88.2% in 4Q 2020 (Figure 3). The demand  in office spaces can be attributed to the  technology sector due to the conducive  business environment in Singapore. The  occupancy rate in CBD rebounded by 1.1%  pts qoq to 93.1% in 4Q 2020. * The technology and financial sectors  were some of the sectors that supported  demand in 4Q 2020 (Table 5). Rents * Monthly rents in the various subzones of the office sector showed qoq declines in 4Q 2020 (Table 6). Within the CBD,  premium grade buildings in Shenton Way/Robinson Road/Tanjong Pagar ungraded rents at Shenton Way/Robinson  Road/ Tanjong Pagar faced the greatest pressures and decline by 1.5% qoq. In Decentralised Areas, office rents in the  various subzones remained stable qoq in 4Q 2020. Figure 3: Office occupancy rates* and qoq % point change (in arrows) in  4Q 2020 93.1% Decentralised 93.8% Non-CBD 93.1% CBD 1.7 0.6 1.1 Building Location Tenant Sector Remarks 79 Robinson Road Shenton Way (CBD) Equinix Digital Infrastructure Relocation Boston Consulting Group Consulting Relocation First State Investment  Finance Relocation 5One Central Bras Basah (Non-CBD) Lazada E-commerce Relocation 30 Raffles Place Raffles Place (CBD) CIMB Bank Finance  Relocation Table 5: Key tenant movements in 4Q 2020 Source: Various sources Location Subzone Grade 3Q 2020  4Q 2020 Qoq change (%) CBD Marina Bay Premium 12.03 12.03 0.0 Raffles Place A 10.26 10.26 -1.0 Shenton Way/Robinson Road/Tanjong Pagar Premium 10.97 10.86 -1.0 A 8.80 8.72 -1.0 B 7.22 7.11 -1.5 Non-CBD Marina Centre A 9.75 9.60 -1.0 City Hall/Bugis Premium 10.72 10.72 0.0 * 7.05 7.01 -0.5 Orchard Road * 8.84 8.84 0.0 Decentralised areas Decentralised areas * 6.03 6.03 0.0  * 6.03 6.03 0.0  Table 6: Average monthly gross office rents (S$ per sq ft) Source: EDMUND TIE Research * Ungraded office space 5 EDMUND TIE RESEARCH Supply pipeline Based on EDMUND TIE Research, there is  nearly 4.5mn sq ft of new office space that  will be completed from 2021 to 2024 (Figure  4). Most of the office developments will be  completed in 2021 (28.03% or 1.36mn sq  ft) and 2024 (28.05% or 1.4mn sq ft). Close  to half (47.2%) of the supply pipeline from  2021 (28% or 1.4mn sq ft) to 2024 will be in  the CBD, followed by 32.2% in Decentralised  Areas. In the CBD, Afro-Asia I-Mark is  estimated to complete by end 2021 and  currently has a 70% pre-commitment rate,  with Delivery Hero, The Great Room and  Foodpanda leasing space.  Outlook The office market outlook should gradually  improve with the rollout of the Covid-19  vaccines. Trends which are underway such  as the proliferation of working from home  arrangements that started since the Circuit  Breaker period may also further encourage  the decentralisation trend. With the recent  announcement of Google co-founder Sergey  Brin opening a family office in Singapore,  this signals investors' continuous confidence  of Singapore as a financial hub. We expect  that co-working space will continue to be  favoured, even amid the pandemic, as it  provides companies with the flexibility to  amend their workspace needs and not be  tied down to long-term leases. 0.0 0.4 0.8 1.2 1.6 2021 2022 2023 2024 Under Construction Planned mn sq ft Source: EDMUND TIE Research Figure 4: Office development pipeline 6 EDMUND TIE RESEARCH INDUSTRIAL Market commentary Key indicators The manufacturing PMI reading increased by 0.2 points from December 2020 to 50.7 in January 2021 (Table 7). This  was the third month of expansion for the overall manufacturing sector, signalling the possibility of a recovery. NODX  dropped by -0.5% yoy in 4Q 2020. The decline was mainly driven by the non-electronics sectors such as non-monetary  gold, pharmaceuticals, and petrochemicals. Demand and occupancy * Based on JTC's statistics, overall industrial  net absorption increased from 1.2mn sq ft  in 3Q 2020 to 2.3mn sq ft in 4Q 2020. The  full year absorption declined from 7.9mn  sq ft in 2019 to 7.5mn sq ft in 2020 (-4.0%).  In 4Q 2020, occupancy rates of single-user  factory space, multiuser factory space,  and business park and warehouse space  increased (Figure 5). * Demand for warehouses is projected to  be supported by the rise of e-commerce  amid the Covid-19 pandemic, as more  logistics facilities and fulfilment centres  are required to meet the demand for  faster deliveries, higher efficiency and  lower costs. Key economic indicators 3Q 2020 4Q 2020 Key trends NODX (Yoy) 6.5% -0.5% * NODX dropped by -0.5% yoy in 4Q 2020. The decline was mainly driven by the  non-electronics sectors.  PMI* 50.3 (Sep 2020) 50.5 (Dec 2020) * The PMI increased by 0.2 points from 50.5 in December 2020 to 50.7 in January  2021. This is due to more new orders and faster rates of growth in exports. * The electronics subindex decreased by -0.2 points from December 2020 to 51  in January 2021. Table 7: Singapore's NODX and PMI  Source: SIPMM * Reading above 50 indicates an expansion, while below 50 indicates a contraction. 70 80 90 100 2015 2016 2017 2018 2019 2020 Single-user factory Multiple-user factory Business park Warehouse % Source: JTC Figure 5: Occupancy rates of private industrial space by type 7 EDMUND TIE RESEARCH Rents * Based on EDMUND TIE Research's  industrial property basket, monthly rents  were broadly flat for most industrial  segments in 4Q 2020 (Table 8). Supply pipeline * As at 4Q 2020, the supply pipeline from  2021 to 2024 is projected to be around  41.7mn sq ft (NLA). Approximately 53%  of the pipeline will be completed in 2021,  followed by 30.7% in 2022 (12.8mn sq  ft). Multi-user factories accounted for  the bulk (33%) of the supply pipeline  (Figure 6). The larger multi-user factory  developments in the pipeline are Solaris  @ Tai Seng (929,000 sq ft) and Mapletree  Industrial Trust located at Kallang Way  (710,000 sq ft). Outlook Compared to other sectors in the economy,  the manufacturing sector has a brighter  outlook fuelled by the growth from high- value manufacturing such as precision  engineering, biomedical, medical technology  and  telecommunications.  Despite  the  ongoing  economic  uncertainties,  the  Industrial type* Subcategory 3Q 2020  4Q 2020  Qoq change (%) Multiple-user factory First-storey 1.84 1.84 0.0 Upper-storey 1.32 1.31 -2.0 Warehouse/logistics Overall 1.59 1.59 0.5 High-tech industrial Overall 2.92 2.92 -1.0 Business park Central Region 5.00 5.00 2.5 Suburban  3.68 3.66 0.0 Table 8: Average monthly gross rents (islandwide) (S$ per sq ft)  Source: EDMUND TIE Research  * In-house estimates of key selected private industrial premises. * However, as demand for multiple-user factory space is largely  location specific, industrial developments that are older or located  far away from transportation nodes faced greater pressure to lower  their rents in 4Q 2020.  0 5 10 15 20 25 2021 2022 2023 2024 Data centres Extensions, additions and alterations to industrial properties Warehouse Multiple-user industrial developments Single-user industrial developments Business parks mn sq ft Source: JTC, EDMUND TIE Research Figure 6: Industrial development pipeline (with planning approvals and  GLS sites which are pending approvals) government is set to continue the push for advanced manufacturing,  as Singapore is set to prepare for Industry 4.0. Compared to factory  space, business parks, hi-tech and warehouse spaces, which has  limited supply and strong demand, rental growth is expected to be  notably better. 8 EDMUND TIE RESEARCH RETAIL  Market commentary Key indicators *  As Phase 3 of Singapore's reopening begun  on 28 December 2021 dine-in activities of  up to 8 persons for social gatherings were  allowed. The capacity limit had increased  from 10 sqm per person to 8 sqm per  person. However, overall retail sales are  not back to pre-Covid-19 levels yet.  * With the rise in e-commerce, brick and  mortal retailers are jumping on to the  bandwagon of online shops. CapitaLand  and Shopee will debut Singapore's first  virtual shopping centre, IMM mall,  featuring popular retailers and discounts  for shoppers to enjoy. Additionally,  retailers who participate in the campaign  will receive subsidies and marketing  channels for their products. * Retailers are finding new ways to attract  consumers. Example, Zall Bookstore from  Hubei, China opened its first outlet here  located at Wheelock place. The 2-storey  space features a cafe and an art gallery. * The 3-month moving average of yoy  change in retail sales (excluding motor  vehicles) improved slightly to -5.7% in  December 2020 from -9.5% in September  2020 (Figure 7). While retail sales  continued to fall, the decline has been  more moderated, implying a stabilisation  in retail sales since the reopening of  Singapore's economy.  * For 2020, supermarkets &amp; hypermarkets  reported the greatest growth in sales of  31.0% (Figure 8). However, department  stores sales declined the most by  41.0%. Apart from cautious spending by  consumers, the large decrease can also  be attributed to more people purchasing  goods online instead. The second largest  drop in retail sales index is Apparel and  Footwear, decreasing by 37.0%. -40 -30 -20 -10 0 10 20 2000 2005 2010 2015 2020 % Source: Department of Statistics Singapore Figure 7: Retail sales growth (Three-year moving average) (excluding  motor vehicles)  -60 -40 -20 0 20 40 Supermarkets &amp; Hypermarkets Mini-marts &amp; Convenience Stores Computer &amp; Telecommunications Equipment Furniture &amp; Household Equipment Retail sales excluding motor vehicles Recreational Goods Petrol Service Stations Cosmetics, Toiletries &amp; Medical Goods Others Optical Goods &amp; Books Food &amp; Alcohol Watches &amp; Jewellery Wearing Apparel &amp; Footwear Department Stores % Source: Department of Statistics Singapore Figure 8: Retail sales index (2020), yoy change 9 EDMUND TIE RESEARCH *  For the food and beverage services index for  2020, food caterers reported the greatest  decline of 54.1%, due to the restriction  of large gatherings, resulting in the low  demand for event catering (Figure 9). Demand and occupancy  * Based on EDMUND TIE Research,  islandwide net absorption contracted  further to 258,000 sq ft in 4Q 2020 from  -538,000 sq ft in 3Q 2020. The occupancy  rate increased by 0.8% pts qoq to 91.2%  in 4Q 2020 from 90.4% in 3Q 2020.  * In 2020, notable brands such as  Robinsons, Topshop, Esprit, Sportslink,  KidZania, STA Travel and Bakerzin have all  officially closed in Singapore. -60 -40 -20 0 20 40 Total Restaurants Fast Food Outlets Food Caterers Cafes, Food Courts &amp; Other Eating Places % Source: Department of Statistics Singapore Figure 9: Food and Beverage index (2020), yoy change Orchard/Scotts Road (OSR) Other city areas1 (OCA) Fringe/Suburban areas2 (FSA) Net  absorption * Retail net absorption in Orchard/ Scotts Road declined from 32,000  sq ft in 3Q 2020 to -194,000 sq ft in  4Q 2020. * Net absorption in Other City Areas  reversed from negative territory in  the 3Q 2020 to a positive value of  118,000 sq ft in 4Q 2020. *  Net absorption rebounded to  334,000 sq ft in 4Q 2020 after  three quarters of contraction in  2020 Occupancy * The occupancy rate declined from  90.9% in 3Q 2020 to 88.4% in 4Q  2020. (Figure 10). * The occupancy rate increased by  1.7% pts from 3Q 2020 to 89.3% in 4Q  2020. * The occupancy rate rose by 0.9%  pts qoq to 92.5% in 4Q 2020. Openings  (4Q 2020) * Courts at The Heeren  * BHG at Raffles City Shopping Centre * Shake Shack at VivoCity Closures  (4Q 2020) * Robinsons at The Heeren * Bakerzin (all outlets) * SuperPark at Suntec City Mall * Marks &amp; Spencer at Raffles City  Shopping Centre 1 Other City Areas refer to Downtown Core and Rest of Central Area 2 Fringe/Suburban Areas refer to Fringe Areas and Suburban Areas (Outside Central Region) Source: EDMUND TIE Research 10 EDMUND TIE RESEARCH Location Level 3Q 2020  4Q 2020  Qoq change (%) Orchard/Scotts Road  (OSR) First storey 37.27 37.27 0.0 Upper storey 16.00 16.00 0.0 Other city areas   (OCA) First storey 19.45 19.45 0.0 Upper storey 9.83 9.83 0.0 Fringe/Suburban areas  (FSA) First storey 29.97 29.97 0.0 Upper storey 17.03 17.03 0.0 Table 9: Average monthly gross rents (S$ per sq ft)  Source: EDMUND TIE Research  Orchard/Scotts  Road 88.4% Fringe/Suburban  Areas 92.5% Other City  Areas 89.3% Source: EDMUND TIE Research Figure 10: Retail occupancy rates (4Q 2020) Rents Based on EDMUND TIE Research's definition  of retail spaces, retail rents were stable  across all subzones in 4Q 2020 (Table 9). Supply pipeline Based on EDMUND TIE Research, around  1mn sq ft of NLA is expected to be completed  islandwide from 2021 to 2024. The bulk of the  supply pipeline is expected to be completed  in 2021 (39.0%) and 2023 (39.0%) (Figure 11).  The majority (87.0%) of the supply pipeline  will emerge from the Fringe/Suburban Areas. Outlook With the COVID-19 pandemic, many retailers  were forced to shutter their outlets in  2020, reflecting the challenges in the retail  industry. Traditional brick and mortar  retailers are moving towards online sales  with more consumers opting for delivery  services rather than patronising retailer  stores. Moving forward into 2021, retailers  could face better prospects when consumers  are more confident in terms of their income  and in the recovery of Singapore economy.  The trend of experiential retail is being  accelerated, as retailers find ways to attract  consumers to continue patronising their stores.  Additionally, businesses can also reassess  their digital strategies and adopt sound multi- channel strategies to connect their physical  stores and e-commerce presence. 0 50 100 150 200 250 300 350 400 450 2021 2022 2023 2024 Orchard/ Scotts Road Other City Areas Fringe/Suburban Areas '000 sq ft Source: EDMUND TIE Research Figure 11: Retail development pipeline 11 EDMUND TIE RESEARCH RESIDENTIAL Market commentary Key indicators * According to the URA All Residential  Property Price Index (PPI), overall private  home prices rose for the third consecutive  quarter in 4Q 2020, rising by 2.1% qoq.  Compared to a year ago, prices at the end  of 2020 are 2.2% higher (Table 10). * In 4Q 2020, landed home prices fell by  1.6% qoq while non-landed prices rose  by 3.0% qoq. On a full-year basis in 2020,  landed homes prices rose by 1.2% while  non-landed prices rose by 2.5%. Within  the non-landed segment, prices in the  CCR fell by 0.4% in 2020, while those in  RCR and OCR rose by 4.7% and 3.2%  respectively. * Housing loans value rose for the sixth  consecutive quarter by 17.5% yoy in 4Q  2020 (Figure 12). However, on a qoq basis,  housing loans fell by 2.7% in 4Q 2020,  compared to 15.1% growth in 3Q 2020.  * New sales declined slightly to 2,603 units  in 4Q 2020. This can be attributed to the  URA announcement in September 2020 of  a clampdown on the re-issuance of OTPs  by developers to the same buyers for the  same unit within 12 months of the expiry  of the earlier OTP. * New sales in 4Q 2020 were 6.5% higher  than that a year ago. Full-year sales of  9,982 units in 2020 were similar to that of  2019 (9,912 units). 3Q 2020 4Q 2020 qoq % chg All Residential property 153.8 157 2.08 Non-Landed 148.8 153.3 3.02 Core Central Region (CCR) 129.5 133.6 3.17 Rest of Central Region (RCR) 153.8 160.6 4.42 Outside Central Region (OCR) 180.4 183.6 1.77 Landed property 176.6 173.8 -1.59 Table 10: URA Private Residential Price Index Source: URA 0 2,000 4,000 6,000 8,000 10,000 12,000 14,000 1Q 2015 1Q 2016 1Q 2017 1Q 2018 1Q 2019 1Q 2020 $ mn Source: Monetary Authority of Singapore Figure 12: New housing loans limits granted 12 EDMUND TIE RESEARCH *  New home sales volumes declined slightly from 3,517  units in 3Q 2020 to 2,603 units in 4Q 2020. This can  be attributed to the URA announcement in September  2020 of a clampdown on the re-issuance of OTPs by  developers to the same buyers for the same unit within  12 months of the expiry of the earlier OTP. New sales  by developers increased to 774 units in November and  1,217 units in December 2020. New sales in 4Q 2020  were 6.5% higher than that a year ago.  * In 4Q 2020, there eight six new launches (Table 11).  The Landmark had a very high take-up rate for its  launched units; 109 units of the 120 units launched  were sold (91.0%). It is located close to Chinatown and  the Outram MRT.  * Another new launch was Clavon (District 5) which was  launched in December 2020. It had the second highest  take up of 73.9% (473 of 640 units sold). The project  is strategically located close to Clementi Mall and  supported by ample facilities and amenities. Table 11: Private residential launches (excluding ECs) in 4Q 2020 Source: URA  Development Developer Property type Tenure Total  Units Launched Sold Launched  &amp; Unsold Prices   $ psf CCR Hyll On Holland Far East Non-landed Freehold 319 60 6 54 2,515-2,904 RCR The Landmark MCC Land and  ZACD Group Non-landed 99 yrs 396 120 109 11 1,905-2,591 OCR Clavon UOL Group Non-landed 99 yrs 640 500 473 27 1,487-1,858 Dairy Farm  Residences United Engineers  Limited Non-landed 99 yrs 460 420 17 403 1,404-1,683 KI Residences  At Brookvale Hoi Hup Sunway Non-landed Freehold 660 660 172 488 1,612-1,950 Parc Clematis Sing-Haiyi Non-landed 99 yrs 1468 468 111 357 1,339-1,761 Phoenix  Residences OKP Holdings Non-landed 99 yrs 74 74 5 69 1,496-1,536 The Linq @  Beauty World BBR Holdings Non-landed Freehold 120 120 120 0 1,998-2,439 3422 2242 898 1344 Total 4,137 2,422 1,013 1,409 13 EDMUND TIE RESEARCH *  Resale volumes increased from 3,530  units in 3Q 2020 to 4,326 units in 4Q 2020.  This was attributed to home viewings  being allowed once again.  * After a robust 3Q 2020, transaction  volumes dropped slightly in 4Q 2020, to  6,929 units in 4Q 2020 from 7,048 units  in the previous quarter. On a yoy basis,  transaction volumes was 42.0% higher.  (Figure 13). * Foreign purchases remained broadly  unchanged at 200 units in 4Q 2020 from  222 units in 3Q 2020. This is a slight fall  of 10% from 3Q 2020, however, this is a  growth from 116 residential properties in  2Q 2020.  * In the private residential leasing market,  total rental volumes declined by 11.6%  qoq to 23,854 transactions in 4Q 2020  (Figure 14). Amid pressures on the  expatriate employment market, rents are  anticipated to stay soft moving into 2021. 0 20 40 60 80 100 2011 2012 2013 2014 2015 2016 2017 2018 2019 2020 1Q 2Q 3Q 4Q '000 units Source: URA Figure 14: Private home rental transactions (excluding ECs)  157.0 125 130 135 140 145 150 155 160 0 2,000 4,000 6,000 8,000 10,000 12,000 1Q 2011 1Q 2012 1Q 2013 1Q 2014 1Q 2015 1Q 2016 1Q 2017 1Q 2018 1Q 2019 1Q 2020 Secondary Sales (LHS) New Sales (LHS) Property Price Index of All Residential Properties (RHS) No. of units 1Q09=100 Source: URA Note: 3Q 2020 property price index is based on URA flash estimates. Figure 13: Private homes sales volume (excluding ECs) and URA All  Residential Price Index 14 EDMUND TIE RESEARCH 0 2 4 6 8 10 12 14 16 2021 2022 2023 2024 2025 &gt;2025 Under Construction PP/WP Others '000 units Source: URA Figure 15: Number of private homes in the pipeline (excluding ECs)  *  As at 4Q 2020, the residential supply  pipeline stood at 52,403 units. Most  completions are expected to occur in  2023 and 2024 (Figure 15). The annual  projected completions from 2022 to 2024  are estimated to be higher than the 3-year  (2018 to 2020) annual average net supply  of 3,915 units. Around 47.7% of the supply  pipeline (25,011 units) have been sold, while  the remaining 27,392 units are still unsold. Outlook * Despite the plunge in property demand  in 1H 2020, housing demand picked  up in 2H 2020 with healthy sales for  both landed and non-landed segments.  Notwithstanding  the  new  policy  relating to OTP re-issuance by the URA,  homebuyers will adapt to the new policy  and manage their finances. Homebuyers  who are in a better financial position will  be driving the demand *  The number of flats reaching five-year MOP  is expected to rise. Coupled with the low  interest rate environment, this is expected  to support residential demand. Market  sentiment will continue to be optimistic for  both domestic and international investors  with the nation accelerating the rollout of  the Covid-19 vaccine.  Editor: Authors: Lam Chern Woon Senior Director Research &amp; Consulting  +65 6393 2340  chernwoon.lam@etcsea.com For more information, please contact us at research.sg@etcsea.com. Amanda Goh Research Analyst   Research +65 6393 2382 amanda.goh@etcsea.com Disclaimer: The information contained in this document and all accompanying presentations (the "Materials") are approximates only, is subject to change  without prior notice, and is provided solely for general information purposes only. While all reasonable skill and care has been taken in the production of the  Materials, EDMUND TIE (the "Company") make no representations or warranties, express or implied, regarding the completeness, accuracy, correctness,  reliability, suitability, or availability of the Materials, and the Company is under no obligation to subsequently correct it. You should not rely on the Materials  as a basis for making any legal, business, or any other decisions. Where you rely on the Materials, you do so at your own risk and shall hold the Company,    its employees, subsidiaries, related corporations, associates, and affiliates harmless to you to and any third parties to the fullest extent permitted by law for any losses,  damages, or harm arising directly or indirectly from your reliance on the Materials, including any liability arising out of or in connection with any fault or negligence. Any  disclosure, use, copying, dissemination, or circulation of the Materials is strictly prohibited, unless you have obtained prior consent from the Company, and have credited  the Company for the Materials.  (c) EDMUND TIE 2020 Saleha Yusoff Executive Director Regional Head of   Research &amp; Consulting  +603 2161 7228 ext 302  saleha.yusoff@etcsea.com Edmund Tie &amp; Company (SEA) Pte Ltd 5 Shenton Way, #13-05 UIC Building, Singapore 068808. T. +65 6293 3228 | F. +65 6298 9328 | mail.sg@etcsea.com | Please visit www.etcsea.com and follow us on We are now on Scan the QR code  with  WeChat  app  to visit our WeChat  account. CONTACTS Ong Choon Fah  Chief Executive Officer +65 6393 2318  choonfah.ong@etcsea.com PROFESSIONAL SERVICES AGENCY SERVICES Valuation Advisory Poh Kwee Eng Executive Director  Regional Head of   Valuation Advisory  +65 6393 2312 kweeeng.poh@etcsea.com Nicholas Cheng Executive Director  +65 6393 2317 nicholas.cheng@etcsea.com Property Tax Advisory &amp;  Statutory Valuation Ng Poh Chue Executive Director  +65 6393 2515 pohchue.ng@etcsea.com Property Management Kwok Sai Kuai Executive Director  Regional Head of   Property Management  +65 6417 9229   saikuai.kwok@etcsea.com Paul Wong Senior Director  +65 6417 9225 paul.wong@etcsea.com Hospitality Kwok Sai Kuai Executive Director  +65 6417 9229   saikuai.kwok@etcsea.com Tay Hock Soon Senior Director  +65 6887 0088  tayhs@treetops.com.sg Research &amp; Consulting Ong Choon Fah  Chief Executive Officer +65 6393 2318 choonfah.ong@etcsea.com Lam Chern Woon Senior Director +65 6393 2340  chernwoon.lam@etcsea.com Business Space &amp; Retail Chua Wei Lin Executive Director  Regional Head of   Business Space  +65 6393 2326 weilin.chua@etcsea.com China Desk Tan Chun Ming Executive Director  +65 6393 2360 chunming.tan@etcsea.com Investment Advisory Poh Kwee Eng Executive Director  +65 6393 2312 kweeeng.poh@etcsea.com Swee Shou Fern Executive Director +65 6393 2523  shoufern.swee@etcsea.com Auction &amp; Sales Chua Wei Lin Executive Director  +65 6393 2326 weilin.chua@etcsea.com Joy Tan Senior Director +65 6393 2505 joy.tan@etcsea.com Residential Margaret Thean  Executive Director  Regional Head of Residential  +65 6393 2383 margaret.thean@etcsea.com Karen Ong Executive Director +65 6393 2366 karen.ong@etcsea.com Thailand Christopher Ng Chief Operating Officer  EDMUND TIE Group  +65 6393 2376 christopher.ng@etcsea.com Tan Chun Ming Executive Director  +65 6393 2360 chunming.tan@etcsea.com Punnee Sritanyalucksana Chief Operating Officer EDMUND TIE Thailand  +66 2257 0499 ext 101  punnee.s@etcthailand.co.th REGIONAL OFFICES Malaysia Eddy Wong  Managing Director  +603 2024 6380 eddy.wong@ntl.my Tan Chun Ming Executive Director Cross-border Investment Advisory  +65 6393 2360 chunming.tan@etcsea.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">* CBD net absorption turned positive in 4Q20 after three consecutive quarters of contraction, propped up by tenants moving into recently completed office buildings, such as 30 Raffles Place and 79 Robinson Road. * The fall of office rent in the CBD eased in 4Q20 as most landlords resisted further deep rent cuts given signs of improvement in the economy.  * Capital values of en bloc offices werefirm in 4Q20 on the back of interest from funds and ultra-high-net-worth individuals looking for investment opportunities in safe havens like Singapore. * With the COVID-19 pandemic ragingon, businesses are likelyto staycautious withspace requirements, thus keeping demand measured. Office rents couldremain under pressure in most of 2021,though the progress in vaccine development and the further reopening of Singapore's economy could ease rent fall and pave the way for rent stabilisation by end-2021. Residential * New home sales in the Prime districtswerelower in 4Q20 given the absence of major new launches during the quarter,coupled with the government's recent curb on the reissuanceof Option to Purchase. * In 2020's first Prime residential collective sale, two adjoining collective sale sites in District 9;namely,Fairhavenand Sophia Ville, weresold to alocal developer for SGD 62 million in December.  * While an expected economic recovery and the vaccination roll-out are positive news, the Prime market is still weighed down by an oversupply of units for sale. Hence, prices of completed Prime private residential properties continued to decline, but at a lower paceas compared to the previous quarter. Likewise, rentals for Prime properties continued their gradual declinesamid rising vacancy rates in 4Q20.  * Prime rents are expected to soften further in the next 12 months due to increasing supply pressure together with relatively weak leasing demand. On the other hand, Prime prices could embark on a recovery journey in 2021 given anticipated pick-up in the sales market alongside economic recovery.Key Economic IndicatorsGDP Real Growth(4Q20, y-o-y, advance estimates)-3.8%Consumer Price Index(November2020, y-o-y)-0.1%Total Trade (current prices)(November2020, y-o-y)-8.7%Index of Industrial Production(November2020, y-o-y)17.9%Retail Sales excl. motor vehicles(Chainedvolume terms)(November2020, y-o-y)-2.4%Unemployment Rate (S.A.)(November 2020)3.3%Total PopulationAnnual Growth (June2020)-0.3%Source: DOSMajor Property Transactions       |         4Q20OfficePrice(SGD mil)KeppelBay Tower (100% interest)654.0Springleaf Tower (Strata) 26.0Springleaf Tower (Strata)23.5ResidentialPrice(SGD mil)Yishun Avenue 9 (GLS)373.5Former Caldecott Broadcast Centre(Redevelopment site)280.9Tanah Merah Kechil Link (GLS)249.0RetailPrice(SGD mil)AnchorpointShopping Centre110.0VIIO @ Balestier(Strata)32.877 Amoy Street29.8IndustrialPrice(SGD mil)Sandcrawler175.8Former Big Box118.07 Harvey Road27.0Source: JLL Research, January2021 32.1Current stock              (sq ft million) 9.81Gross effective rent (SGD psf pm NLA) -2.7%Rental growth (q-o-q) 2,982Capital value(SGD psf NLA) 0.0%Capital value growth (q-o-q) 59,910 Current prime stock (units) 4.65Gross effective rent (SGD psf pm NLA) -1.1% Rental growth (q-o-q) 2,840Capital value (SGD psf NLA) -1.1%Capital value growth (q-o-q)All data are reflective of the CBD Investment Grade submarketThe capital value and rental value indicators arereflective of Luxury residential properties  * The fall in retail sales continued to abate in 4Q20. The retail sales index (excluding motor vehicle) on a chain-by-volume basis fell 6.6% y-o-y over the first two months of 4Q20, compared to an 8.7% y-o-y drop over the corresponding period in 3Q20. The soft sales were due to cautious consumer spending and operational capacity constraints. Further reopening of the economy could lift retail sales.  * Despite the economy transiting to Phase 3 of the reopening and the year-end festive season, retailer sentiment remained cautious as border restrictions, safe-distancing policies and cautious consumer spending limited tourism and domestic retail sales. While new retail openings were observed, unsustainable businesses continued to cease operations. * Investment value declined despite an increase in 4Q20 transaction volume due to the conclusion of larger deals sealed in the previous quarter. The majority of concluded deals were from shophouse transactions.   * The Phase 3 reopening of the Singapore economy, the successful containment of the COVID-19 pandemic and the mass availability of the vaccine will lift retailer and consumer sentiment and, in turn, drive retail sales and business expansion. Hence, vacancy rates in 2021 could decline y-o-y, and the rental decline should moderate on the back of easing vacancy rates.Warehouse * Demand for logistics/warehouse space stayed firm in 4Q20, underpinned mainly by e-commerce and storage requirements. * During the quarter, it was announced that Zuellig Pharma Singapore hasleased the entirewarehouse facility at 10 Changi North Way for theexpansion of its existing office and warehouse space.Likewise,Shopee Express Pte Ltd, a unit of e-commerce platform Shopee,reportedlytook up significant logistics/warehouse space at 12 Changi North Way. * On the back ofsteady demand, logistics/warehouse rents remainedflat for the third straight quarter. Rentresilience continued to providesupport forcapital values to hold firmin 4Q20. * Going forward, rents are predictedto be stablein the near-term, underpinned by steady demand, whilecapital values growth could gather momentum,withyields compressing amid low interest ratesin 2021.AuthorsTay Huey YingHead of Research &amp; ConsultancySingaporeHueyying.tay@ap.jll.com  Angelia PhuaDirector, RetailResearchSingaporeAngelia.phua@ap.jll.comDoreen GohDirector, IndustrialResearchSingaporeDoreen.goh@ap.jll.comMichelle TeeDirector, OfficeResearchSingaporeMichelle.tee@ap.jll.comKim HuynhAssistant Manager, ResidentialResearchSingaporeKimngan.huynh@ap.jll.comJLL Singapore9 Raffles Place#39-00 Republic PlazaSingapore 048619tel +65 6220 3888fax +65 6438 3361jll.com.sg 119.1Current          stock                  (sq ft million) 1.35Gross effective rent (SGD psf pm NLA) 0.0%Rental growth (q-o-q) 179Capital value(SGD psf NLA) 0.0%Capital value growth (q-o-q)BanditsAll data are reflective of the islandwide market 5.1Current stock            (sq ft million) 38.82Gross effective rent    (SGD psf pm NLA) -6.2%Rental growth (q-o-q) 8,609Capital value (SGD psf NLA) -4.9%Capital value growth (q-o-q)All data are reflective of the Prime sub-submarketjll.com.sgCEA LicenceNo. L3007326E(c) Copyright 2021JLL. All rights reserved. This report has been prepared solely for information purposes and does not necessarily purport to be a complete analysis of the topics discussed, which are inherently unpredictable. It has been based on sources we believe to be reliable, but we have not independently verified those sources and we do not guarantee that the information in the report is accurate or complete. Any views expressed in the report reflect our judgment at this date and are subject to change without notice. Statements that are forward-looking involve known and unknown risks and uncertainties that may cause future realities to be materially different from those implied by such forward-looking statements. Advice we give to clientsin particular situations may differ from the views expressed in this report. No investment or other business decisions shouldbe made based solely on the views expressed in this report.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">knightfrank.com.sg/research Singapore Research Industrial Q4 2020 " " With about 18.5 million sq ft of completions expected in 2021, factory prices and rents  are expected to decrease moderately next year. THE INDUSTRIAL MARKET  PULLED THROUGH A COVID-19 YEAR RELATIVELY UNSCATHED TAN B O O N LEONG,  E X E C U T I V E  D I R E CTO R ,  I N D U ST R I A L , CAPITAL MARKETS Based on advance estimates by the Ministry of Trade and Industry (MTI), the Singapore  economy contracted by a lesser 3.8% year-on-year (y-o-y) in the fourth quarter when  compared to Q2 and Q3 2020. This brings the total decline in the overall gross domestic  product (GDP) for the year 2020 to 5.8%. The improved performance in Q4 2020 was  led by the manufacturing sector which grew by 9.5% y-o-y, primarily driven by output  expansions in the electronics, biomedical manufacturing and precision engineering  clusters, offsetting declines in the transport engineering and general manufacturing  clusters. The Singapore Purchasing Managers' Index (PMI) reported continued expansions in Q4  2020, with the latest month of December tracking an expansion of 50.5. Simultaneously,  the Electronics Sector PMI for the same month registered a reading of 51.2, the highest  since September 2018. The continued adoption of the 5G network as well as other high- end electronic parts and components are expected to fuel the demand for electronics.  Together with the news of COVID-19 vaccine distribution and improved sentiment,  economic recovery remains on track in 2021. In light of global food supply uncertainties brought about by the pandemic, there were  more initiatives to support the agri-food industry in Singapore in order to create some level  of self-sufficiency. The Singapore Food Agency (SFA) introduced the "30x30 Express"  From Q4 2020 to 2024, some 53.8 million  sq ft gross floor area (GFA) of industrial  space is slated to be completed. Of  these, about 43.2% of the upcoming  supply is expected to be completed  in 2021, with a significant proportion  being multiple-user and single-user  factory  spaces.  Coupled  with  the  phased  withdrawal  of  government  fiscal support for businesses, multiple- user factory prices and rents are likely  to come under pressure, falling by not  more than 5% in 2021 while single-user  factories could fare slightly better.  However, with the anticipated distribu- tion of viable COVID-19 vaccines, the  city-state's strategic location and devel- oped IT infrastructure would position  1The percentage changes for the total number of tenancies of multiple-user factory space in October and November 2020 are based on a two-month comparison q-o-q (against  July and August 2020) and y-o-y (against October and November 2019). The median rent for multiple-user factory spaces island-wide in the fourth quarter  stood at S$1.73 per-square-foot per month (psf pm), declining 3.1% quarter-on- quarter (q-o-q) and by a more marginal 0.9% y-o-y (Exhibit 1). The leasing volume of  1,562 transactions (S$6.2 million) for such industrial space in October and November  represented an increase of 16.8% from 1,337 transactions in the same period last year, as  activity returned to this market segment despite the current external headwinds.  Prices of multiple-user factory space were fairly steady in the fourth quarter, averaging  about S$357 psf, representing a decrease of 3.8% y-o-y. Units with 61 to 99 years left  in the lease registered the largest growth of 19.0% y-o-y to average S$379 psf in Q4  2020, with demand for these spaces fuelled by the comparatively lower availability of  multiple-user factory units with longer tenures (Exhibit 2). MA R K E T  S NA P S H OT 1,5 6 2  LEASES 1.0%     Q-O-Q | 16.8%     Y-O-Y NUMBER OF TENANCIES 1 S $ 5 5 9.1  MILLION 35.7%     Q-O-Q | 5.7%     Y-O-Y TOTAL INDUSTRIAL SALES 5 3.8  MILLION SQ FT GFA UPCOMING NEW SUPPLY (Q4 2020 TO 2024) Industrial growth maintained in Q4 2020 The trend of vertical farming in industrial properties Market outlook Median rents contracted marginally in Q4 2020 grant earlier in April 2020 to boost  local food production in hopes that by  2030, 30% of the city-state's nutritional  needs would be produced domestically.  This move to encourage more indoor  farming requiring less space to grow  crops as well as to ensure food security  would generate additional demand for  suitable industrial properties that can  provide the facilities to support high- rise vertical farming and high-density  agricultural production through new  technologies. Tan Boon Leong Executive Director Industrial Capital Markets +65 6228 6894 boonleong.tan@sg.knightfrank.com  Recent Publications INDUSTRIAL Q3 2020 Nor Adila Rahim Analyst Research +65 6228 7376   nor.adila@sg.knightfrank.com Leonard Tay Head Research +65 6228 6854 leonard.tay@sg.knightfrank.com Exhibit 2: Average Price of Multiple-User Factory Space by Balance  Tenure* $1,000 $900 $800 $700 $600 $500 $400 $300 $200 $100 $0   &lt;= 30 Years 31 to 60 Years 61 to 99 Years Freehold &gt; 99 Years Q1 Q2 Q3 Q4 2015 Q1 Q2 Q3 Q4 2016 Q1 Q2 Q3 Q4 2017 Q1 Q2 Q3 Q4 2018 Q1 Q2 Q3 Q4 2019 Q1 Q2 Q3 Q4** 2020 Price (S$ psf) Source: JTC J-Space, Knight Frank Research Note: The average unit price is based on a four-quarter moving average of strata transactions.  *The balance tenure is based on the number of remaining years at the point of transaction. **Q4 2020 data based on transactions downloaded as at 29 December 2020 Knight Frank Research  Reports are available at knightfrank.com.sg/research Exhibit 1: Leasing Volume and Median Rent of Multiple-User Factory  Space 3,000 2,500 1,500 2,000 1,000 500 0 $1.70 $1.75 $1.80 $1.85 $1.90 $1.95 $2.00   Number of Tenancies Median Rent Q1 Q2 Q3 Q4 2015 Q1 Q2 Q3 Q4 2016 Q1 Q2 Q3 Q4 2017 Q1 Q2 Q3 Q4 2018 Q1 Q2 Q3 Q4 2019 Q1 Q2 Q3 Q4*  2020 Number of Leasing Transactions Rent (S$ psf pm) Source: JTC J-Space, Knight Frank Research Note: The median rent is based on a four-quarter moving average. *Q4 2020 data based on October and November 2020 data as at end-December. SINGAPORE VIEW 22ND EDITION Singapore as a key warehousing and  storage hub, and logistics properties  are expected to benefit with price and  rent increases ranging from 1% to 3%  in 2021. Especially so, for cold-storage  facilities that cater to the requirements  of housing the temperature-controlled  vaccine.  While  business  sentiment  has  improved with the release of the  vaccine, cautious optimism remains  and Singapore needs to be prepared  for  possible  recurring  infections.  Therefore, the production of hygiene-  or health-related products such as  hand sanitisers, masks as well as gloves  remains necessary, maintaining the  demand for industrial spaces geared  towards the production and stockpiling  of these essentials. (c) Knight Frank 2021 This report is published for general information only. Although high standards have been used in the  preparation of the information, analysis, views and projections presented in this report, no legal responsibility  can be accepted by Knight Frank Research or Knight Frank for any loss or damage resultant from the contents  of this document. As a general report, this material does not necessarily represent the view of Knight Frank  in relation to particular properties or projects. Reproduction of this report in whole or in part is allowed with  proper reference to Knight Frank Research. About Knight Frank Singapore Knight Frank LLP is the leading independent global property consultancy. Headquartered in London, Knight  Frank has more than 20,000 people operating from 488 offices across 57 territories. The Group advises  clients ranging from individual owners and buyers to major developers, investors and corporate tenants.  Knight Frank has a strong presence in Singapore with a head office and two subsidiaries: Knight Frank  Property Asset Management and KF Property Network. For further information about the Company, please  visit www.knightfrank.com.sg. Contact us for insights, research and real estate opportunities. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 savills.com.sg/insight-and-opinion/ MARKET IN MINUTES Savills Research Industrial Industrial market sees recovery  Savills plc Savills is a leading global real  estate service provider listed on  the London Stock Exchange. The  company established in 1855, has  a rich heritage with unrivalled  growth. It is a company that leads  rather than follows, and now has  over 600 offi   ces and associates  throughout the Americas, Europe,  Asia Pacifi  c, Africa and the Middle  East. This report is for general  informative purposes only. It may  not be published, reproduced or  quoted in part or in whole, nor may  it be used as a basis for any  contract, prospectus, agreement  or other document without prior  consent. Whilst every eff  ort has  been made to ensure its accuracy,  Savills accepts no liability  whatsoever for any direct or  consequential loss arising from its  use. The content is strictly  copyright and reproduction of the  whole or part of it in any form is  prohibited without written  permission from Savills Research. Simon Smith Senior Director Asia Pacifi  c +852 2842 4573 ssmith@savills.com.hk Alan Cheong Executive Director  Singapore +65 6415 3641 alan.cheong@savills.com.sg RESEARCH Industrial activity was observed to be relatively robust as strata sales and  vacancy rates improve gradually but uncertainties remain. "  The pandemic accelerated  e-commerce and stockpiling  activities, turning around  the fortunes of the logistics  sector." ALAN CHEONG, SAVILLS RESEARCH *   Leasing volumes continued to grow in Q4/2020, increasing  17.2% year-on-year (YoY). *   The average monthly rent for Savills' basket of multiple- user factories fell for a fi  fth consecutive quarter by 0.9%  quarter-on-quarter (QoQ) to S$1.70 per sq ft, while that for  warehouses and logistics continued to grow, rising by 1.1%  QoQ to S$1.43 per sq ft. *   After a spike of strata sales in Q3/2020, total strata sales volume  in the fourth quarter inched up marginally to 369 transactions. *   Due to the limited supply of freehold industrial properties,  prices of such properties rose for a fi  fth consecutive quarter  by 0.8% QoQ to S$700 per sq ft. *   Average prices for Savills' basket of 60-year and 30-year  leasehold properties declined further in Q4, albeit at a  slower pace, by 0.2 and 0.6% QoQ to S$424 per sq ft and  S$299 per sq ft respectively. *   The average monthly rent in Savills' basket of prime business  park properties remained unchanged at S$5.81 per sq ft.  However, that of standard business parks fell for a third  consecutive quarter by 1% to S$4.01 per sq ft as landlords are  required to be more realistic with their rental expectations  to maintain occupancy. *   After two quarters of decline, the average monthly rent for  Savills' high-spec industrial basket rose by 0.9% QoQ to  S$3.50 per sq ft in Q4. *   In 2021, the rental forecast for multiple-user factories  is expected to be between -3% and 0% while that for  warehouses is projected to increase by between 1% and 3%.  Multiple-user factories are faced with a surge in the pipeline  supply in the near term as the backlog from 2020 (due to  construction delays) gets completed. On the other hand, the  growth in warehouse rents continues to be supported by the  logistics sector. Christopher J Marriott CEO, Southeast Asia  +65 6415 3888 cjmarriott@savills.asia SINGAPORE Please contact  us for further  information Savills team MCI (P) No. 037/03/2021 Company Reg No. 198703410D Sharon Teo Managing Director Singapore +65 6415 3288 sharon.teo@savills.com.sg Singapore - March 2021 2 savills.com.sg/insight-and-opinion/ MACROECONOMIC OVERVIEW In Q4/2020, the economy contracted by 2.4%  YoY, moderating from the 5.8% contraction  in Q3/2020. This was largely attributed to the  10.3% YoY expansion in the manufacturing  sector, extending the 11% growth in Q3.  The growth was led by output expansion in  the electronics, biomedical manufacturing,  precision engineering and chemicals cluster.  Nevertheless, the COVID-19 pandemic  still took a toll with Singapore's economy  contracting by 5.4% in 2020, a reversal from  the 1.3% expansion in 2019. However, the  manufacturing sector posted growth of 7.3%,  in contrast to the 1.5% contraction in 2019.  This was supported by expansion in the  biomedical manufacturing, electronics and  precision engineering clusters, arising from  strong demand for pharmaceutical products,  semiconductors and semiconductor  manufacturing equipment respectively. With the pickup in manufacturing  demand following the reopening of the  economy, the manufacturing sector ended  on a positive note in 2020. In December, the  overall Purchasing Manager's Index (PMI)  remained in expansionary mode for a sixth  straight month. Similarly, manufacturing  output grew by 14.3% YoY in December,  bringing overall growth to 7.3% in 2020.  The expansion in December was supported  by the electronics, chemicals and precision  engineering. On the other hand, after  an increase of 6.5% in Q3/2020, non-oil  domestic exports (NODX) recorded a 0.5%  YoY decline in Q4/2020. Nevertheless,  NODX expanded by 4.3% in 2020, a reversal  from the 9.2% drop in 2019. Despite global  economic uncertainties, the overall growth  in 2020 was led by increased shipments of  electronics and non-electronics products. RENTAL MARKET Following the spike in industrial leasing  activity in Q3/2020, the momentum  continued into Q4/2020, with leasing volume1  increasing by 17.2% YoY to 2,913 transactions.  For the whole of 2020, despite the pandemic,  leasing transactions expanded by 2.3% to  10,705 transactions. While leasing volume in  warehouses fell by 1.4%, it was outweighed  by increases in leasing transactions of both  single-user and multiple-user factories. For  multiple-user factories, the higher rental  volume may be attributed to higher supply  of such properties. Nevertheless, in general,  leasing demand largely emanated from  e-commerce (including e-sports), central  kitchens and precision manufacturing, which  have been the trending sectors since the  pandemic begun. The overall industrial vacancy rate  eased further in Q4, decreasing by 0.3 of  a percentage point (ppt) QoQ and 0.7 of a  ppt YoY to 10.1%. This is the lowest level  1   Based on JTC's rental data (excluding business park  spaces, only comprises single- and multiple-user factory as  well as warehouse spaces). recorded since Q1/2016 when the vacancy  rate was 9.9%. The decrease in vacancy rate  can be attributed to resilient demand for  industrial space amid limited new supply  arising from construction delays due to the  pandemic. Among the property types, the  largest YoY drop in vacancy rate was most  evident in warehouse (-1.9 ppts), followed by  multiple-user factory (-1.0 ppt). The stable  occupancy rate for both property types  can be attributed to the proliferation of  e-commerce companies, remote working and  rising demand for semiconductors due to the  roll-out of 5G.  JTC's rental indices inched up marginally  by 0.1% QoQ in Q4/2020, but on a YoY basis,  it fell 1.5%. For Savills' basket of industrial  properties, the average monthly rent for  prime multiple-user factories2 declined  for the fi  fth consecutive quarter by 0.9%  to S$1.70 per sq ft. On the other hand, the  average monthly rent for prime warehouse  and logistics3 properties continued growing,  rising by 1.1% QoQ to S$1.43 per sq ft in Q4  after a 0.9% increase in Q3. This was due  to sustained demand for last-mile delivery  facilities which corresponded with the boom  in e-commerce and also stockpiling needs as  companies build buff  er against disruptions.  Additionally, as more COVID-19 vaccines  arrive in Singapore, they add an additional  source of demand for storage space. Cold  store logistics warehouses are therefore  expected to be sought after, supporting  rental growth. SALES MARKET In the strata sales market, following a spike  in strata sales volume in Q3/2020, strata  sales inched up marginally by 0.8% QoQ to  369 in the fi  nal quarter of 2020. Despite the  increase in sales volume for 2H/2020, it was  insuffi   cient to outweigh the decline in sales  volume for 1H, leading to a 2.2% YoY fall in  2020. This was the fi  rst decrease after two  consecutive years of growth. While strata  sales volume of multiple-user factories and  warehouses contracted, strata sales of single- user factories grew on a YoY basis. The resilient demand for industrial space  in Q4/2020 was refl  ected in the JTC price  index which showed that overall industrial  prices rose by 1.0% QoQ. This was a  turnaround after four consecutive quarters  of decline. However, on a YoY basis, prices are  still down by 2.7% in 2020, a larger drop than  the 0.3% fall in 2019. From the Savills' basket  of leasehold industrial properties4, prices  continued to decrease in Q4, albeit a slower  pace. Prices for 60-year and 30-year leasehold  2   Based on Savills basket of private multiple-user factory  properties which ranges from 1,000 sq ft to 3,000 sq ft in  size, with an average monthly asking rent of at least S$1.50  per sq ft. 3   Based on Savills basket of private multiple-user warehouse  properties which ranges from 2,000 sq ft to 80,000 sq ft in  size, with an average monthly asking rent of at least S$1.40  per sq ft. 4   Only include upper-storey strata-titled factory  (single- and multiple-user factory) and warehouse units,  excluding all ground fl  oor units. GRAPH 1: Factory And Warehouse Leasing Volumes,  2010 to 2020 831  1,138  1,480  1,513  1,752  1,868  1,768  1,794  2,345  2,417  2,434  1,149  1,390  1,732  1,981  2,129  2,317  2,285  2,401  2,702  2,883  2,353  1,065  1,543  1,611  2,070  2,060  2,031  2,130  2,358  2,543  2,679  3,005  1,104  1,504  1,613  2,071  2,071  1,921  1,962  2,331  2,564  2,486  2,913  0 2,000 4,000 6,000 8,000 10,000 12,000 NO. OF TRANSACTIONS Q1 Q2 Q3 Q4 Source JTC, Savills Research &amp; Consultancy GRAPH 2: Prices Of Upper-Storey Strata Factory And  Warehouse Units, Q1/2014 to Q4/2020 700 424 299 250 300 350 400 450 500 550 600 650 700 750 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 2014 2015 2016 2017 2018 2019 2020 S$ PER SQ FT Freehold 60-year leasehold 30-year leasehold Source JTC, Savills Research &amp; Consultancy GRAPH 3: Business Park Space Vacancy Rates, 2016 to 2020 0 5 10 15 20 25 30 35 40 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 2016 2017 2018 2019 2020 % Islandwide Mapletree Business City &amp; Science Park International Business Park Changi Business Park Source JTC, Savills Research &amp; Consultancy Industrial 3 savills.com.sg/insight-and-opinion/ properties fell by 0.2% and 0.6% QoQ to S$424 per  sq ft and S$299 per sq ft respectively. On the other  hand, due to limited supply, prices of freehold  industrial properties remained strong, rising for  a fi  fth consecutive quarter with an increase of  0.8% QoQ in Q4/2020 to S$700 per sq ft. The  lower supply also resulted in reduced transaction  volumes. BUSINESS PARK AND HIGH-SPEC  INDUSTRIAL SPACE Net demand improved in Q4/2020 with a rise in  demand in the Central Region outweighing the  drop in the East Region. This led to the islandwide  vacancy declining 0.4 of a ppt QoQ to 14.2% in  Q4/2020. However, this was still higher than the  13.8% recorded in Q4/2019. Out of the regions,  the vacancy rate in both the Central and West  Regions posted QoQ declines of 0.7 of a ppt and  0.2 of a ppt respectively while the East Region  grew by 0.4 of a ppt QoQ. The improvement  in both the Central and West Regions was  seen in the newer business park clusters such  as Mapletree Business City, one-north and  Cleantech Park, which registered increases in  occupancy rates. However, business parks such as  International Business Park and Changi Business  Park have been aff  ected due to their location and  age. The business park sector was resilient with  limited new supply and demand emanating from  the technology, media and telecommunications  sector. While the JTC rental index for business  parks inched up slightly by 0.1% QoQ in Q4 after  two consecutive quarters of decline, the average  monthly rent in Savills' basket of prime business  park properties5 remained unchanged at S$5.81  per sq ft. On the other hand, the average monthly  rent of Savills' basket of standard business park  properties6 declined for a third consecutive quarter  by 1% QoQ to S$4.01 per sq ft as landlords have  been more realistic with their rental expectations  in order to maintain occupancy. 5   Based on business park-zoned spaces in the newer clusters which  range from 1,000 sq ft to 5,000 sq ft in size, with an average monthly  asking rent of at least S$5.50 per sq ft. 6   Based on business park-zoned spaces in the older clusters which  range from 1,000 sq ft to 5,000 sq ft in size, with an average monthly  asking rent of at least S$3.50 per sq ft. For high-spec industrial properties, demand  remains strong and is expected to stay healthy in  line with the thriving technology, biomedical and  electronics sectors. After two consecutive quarters  of decline, the average monthly rent for Savills'  high-spec industrial basket7 grew by 0.9% QoQ to  S$3.50 per sq ft in Q4/2020. Demand from these  segments remains high as Singapore progresses  to higher-value manufacturing. Also, with limited  new supply, rents are expected to remain strong.  Amongst the range of high-spec buildings, the  newer and better-located ones are performing well.  To meet the needs of occupiers from emerging and  trending industries, landlords are undertaking  asset enhancement works. As an example, AEI  works are scheduled for 61 and 63 Alexandra  Terrace to become a high-spec industrial building,  providing a lifestyle and wellness-oriented business  environment for users. OUTLOOK At the end of 2020, the International Monetary  Fund (IMF) revised its 2021 forecast of global  economic growth upwards by 0.3 of a ppt from its  previous forecast to 5.5% in 2021. In 2022, the global  economy is projected to grow by 4.2%. Similarly,  with Singapore's COVID-19 situation largely under  control and the vaccination programme currently  underway, the Monetary Authority of Singapore  (MAS) expects a gradual recovery over the course  of 2021, with GDP growth forecast at 4.0% to 6.0%.  The manufacturing sector is forecast to grow at an  7   Based on offi   ce-like industrial space which ranges from 2,000 sq  ft to 4,000 sq ft in size, with an average monthly asking rent of at  least S$3 per sq ft. PERIOD YoY % CHANGE IN MULTIPLE-USER  FACTORY RENTS YoY % CHANGE IN WAREHOUSE &amp;  LOGISTICS RENTS 2021F -3.0% to 0.0% +1.0% to 3.0% TABLE 1: Rental Forecast For Multiple-User Factory And Warehouse &amp; Logistics Segments Source Savills Research &amp; Consultancy even faster rate than previous projections due to  strong semiconductor demand from the 5G and  automotive markets. The importance of the manufacturing sector  to Singapore's economy is also evident with the  introduction of a new 10-year plan which aims to  expand the sector by 50% and maintain its share of  around 20% of GDP. As such, instead of lowering  production or labour costs, the manufacturing  sector must hone its competitiveness through  innovation and the production of higher-value  products, hence the need to focus on sub-sectors  such as advanced manufacturing.  As construction work resumes, there will likely  be a surge in pipeline supply in the near term as  the backlog from 2020 gradually gets completed.  While demand drivers such as e-commerce and  logistics are expected to continue trending, it is  yet to be seen whether demand for space from  these sectors will be suffi   cient to absorb upcoming  completions. Despite some positive economic  sentiment alongside hopes of containing the  pandemic, uncertainties persist and industrialists  are expected to remain cautious with their  spatial needs as Singapore is very dependent  on international trade. Hence, rental growth is  expected to remain depressed, particularly for  factories. For warehouses, apart from increasing  demand from e-commerce and stockpiling needs,  cold chain logistics may become another demand  driver as Singapore aims to become a COVID-19  vaccine distribution hub for the region. Industrial </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAR K E T B E AT Industrial Q3 2020 SINGAPORE $5.91 Business Park  (City Fringe) $3.64 Business Park  (Outlying Areas) $4.27 Science Park -0.7% CPI Growth -13.2% GDP Growth 2.9% Unemployment Source: Ministry of Trade &amp; Industry, Oxford Economics SINGAPORE ECONOMIC INDICATORS   Q2 2020 12-Mo. Forecast 12-Mo. Forecast Singapore Economy Contracts Due To Circuit Breaker Singapore's GDP contracted at -13.2% yoy in Q2 2020 as the circuit breaker period affected the economy severely. However, the decline was  mostly due to the transportation &amp; storage and accommodation &amp; food services sectors which fell by -39.2% yoy and -41.4% yoy respectively. The  manufacturing sector was resilient, with a marginal decline of -0.7% yoy. The overall PMI dipped by 0.1 to 50.1 to remain in marginal expansion  territory in August. On a positive note, the electronics PMI rose by 1.4 to 50.6 in the same month, the highest reading since September 2018. Business Park and Logistics Segments Doing Well Business park space is still in demand by firms seeking cost-effective space for their workforce. Kajima Corporation started construction of its first  overseas innovation centre at Changi Business Park. Kajima will be investing $100 million in the property, which will span around 141,000 sf of  business park space and R&amp;D lab space. Upon its completion in 2023, Kajima Global Hub will serve as the firm's regional headquarters and  conduct research and development into advanced building technologies for the construction industry.  The logistics sector continues to see expansion. German logistics firm DB Schenker recently opened its 550,000 sf warehouse at Airport Logistics  Park. The firm invested $163 million in the property, which increased its number of warehouses in Singapore to 13 and its total warehouse  footprint to 2.8 million sf. Automation technologies used in the facility will result in a 40% speed increase in the handling of air freight imports and  exports, which will enable DB Schenker to handle high order volumes. In addition, the facility will have sustainable features such as photo-voltaic  solar panels which will reduce energy use by around 35%. Mixed Outlook for Industrial Rents The outlook for industrial rents is mixed depending on the segment. Rents for business parks in the city fringe are projected to do well as demand  remains sustained by firms seeking to cut their real estate costs by relocating to business park spaces in the city fringe which have similar  specifications to Grade A office space. Science Park rents are also expected to increase slightly due to the growth of the pharmaceutical and  biomedical sector. However, rents for business parks in the outlying areas will decline due to the older stock in these areas.  Factory rents are likely to moderate as global demand has yet to recover, while high-tech rents may remain stable due to the growth of the  electronics sector. Rents of the prime logistics segment are expected to increase due to the strong preference for ramp-up facilities, while those of  conventional warehouses could remain flat. INDUSTRIAL SUPPLY PIPELINE 0 2 4 6 8 10 Single-User Factory Multiple-User Factory Warehouse Business Park Supply (msf) 2018 2019 2020 2021 2022 Rents (S$PSF/MO) MAR K E T B E AT Industrial Q3 2020 SINGAPORE SEGMENT GROSS EFFECTIVE RENT 12-MONTH OUTLOOK S$/SF/MO US$/SF/MO EUR/SF/MO Business Park (City Fringe) S$5.91 US$4.35 EUR3.67 Business Park (Outlying Areas) S$3.64 US$2.68 EUR2.26 Science Park S$4.27 US$3.14 EUR2.65 High-Tech S$3.12 US$2.30 EUR1.94 Factory - Ground Floor S$1.78 US$1.31 EUR1.11 Factory - Upper Floor S$1.60 US$1.18 EUR0.99 Warehouse - Ground Floor S$1.54 US$1.13 EUR0.96 Warehouse - Upper Floor S$1.26 US$0.93 EUR0.78 Prime Logistics - Ground Floor^ S$1.39 US$1.02 EUR0.86 Prime Logistics - Upper Floor^ S$1.25 US$0.92 EUR0.78 US$/S$ = 1.359; EUR/S$ =1.610 as of 20 September 2020 ^With effect from Q3 2020, the logistics segment has been divided into conventional warehouses and prime logistics which comprise of ramp-up facilities PROPERTY SUBMARKET SELLER / BUYER PRICE 7 Bulim Street Jurong Titan (Wenya) / AIMS Apac REIT $129.6M 26A Ayer Rajah Crescent  one-north Mapletree Industrial Trust / Equinix REIT $125.0M A CUSHMAN &amp; WAKEFIELD RESEARCH PUBLICATION (c)2020 Cushman &amp; Wakefield. All rights reserved. The information  contained within  this report is gathered from multiple sources believed  to be reliable. The information  may contain errors or omissions and is  presented without any warranty or  representations as to itsaccuracy. MARKET STATISTICS PROPERTY SUBMARKET TENANT SF COMPLETION DATE CleanTech Loop CleanTech Park - 572,000 2020 PBA Innovation Centre CleanTech Park PBA Group 242,000 2020 13 International Business Park International Business Park TUV SUD 162,000 2020 Wilmar International BTS one-north Wilmar International 152,000 2020 Razer HQ one-north Razer 177,000 2020 Grab HQ one-north Grab 387,000 2020 Surbana Jurong Campus CleanTech Park Surbana Jurong 631,000 2021 cushmanwakefield.com KEY SALES TRANSACTIONS Q3 2020 SIGNIFICANT BUSINESS PARK PROJECTS - PLANNED  &amp; UNDER CONSTRUCTION CHRISTINE LI Head of Research Business Development Services Singapore &amp; Southeast Asia +65 6232 0815 /christineli.mw@cushwake.com BRENDA ONG Executive Director Logistics &amp; Industrial Singapore +65 62320878 / brenda.ong@cushwake.com Cushman &amp; Wakefield (NYSE: CWK) is a leading global real estate services firm that  delivers exceptional value for real estate occupiers and owners. Cushman &amp;  Wakefield is among the largest real estate services firms with approximately 53,000  employees in 400 offices and 60 countries. In 2019, the firm had revenue of $8.8  billion across core services of property, facilities and project management, leasing,  capital markets, valuation and other services. To learn more, visit  www.cushmanwakefield.com or follow @CushWake on Twitter. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARKETVIEW Trudging along Quick Stats Investment* Q3 20 q-o-q y-o-y Total volume $2.789 bn   Office Q3 20 q-o-q y-o-y Grade A rent $10.70   Capital value $2,900   Net yield** 3.7%   Business Park Q3 20 q-o-q y-o-y Rent (City Fringe) $5.80   Retail Q3 20 q-o-q y-o-y Prime rent (Orchard) $30.00   Capital value $6,300   Net yield 4.9%   Residential Q3 20 q-o-q y-o-y Prime rent $4.03   Capital value $1,693   Net yield 2.2%   Industrial*** Q3 20 q-o-q y-o-y Rent $1.18   Capital value $251   Net yield 3.8%   Source: CBRE Research, Q3 2020 All capital values and yields stated as prime. Rents are quoted on a $  psf per month basis and capital values on a $ psf basis. *Investment volumes are preliminary. All transactions above S$10  mil **Yield calculation methodology revised based on an average of  rolling eight quarter rents. ***Upper floor and 60-year leasehold factory data provided.  Singapore, Q3 2020 CAPITAL MARKETSReal estate investment volume in Singapore for Q3 2020 came to $2.789 bn, a 23.2% increase from the previous quarter. This marks the first increase after three consecutive quarters of decline in investment volume. OFFICEThe COVID-19 pandemic continued to pile pressure on the economic performance of Singapore. Coupled with the bleak employment outlook, office demand continued to dampen. BUSINESS PARKSOverall demand in the business park market was relatively subdued in Q3 2020 as illustrated by the islandwidenet absorption of a mere 15,960 sq. ft. in Q3 2020.  RETAILRental correction accelerated, as rental rebates passed down from the government have mostly expired by the end of Q3 2020.  RESIDENTIALThe residential market continued to surprise on the upside despite the economy undergoing a recession from the ongoing COVID-19 pandemic.  INDUSTRIALLeasing activity in the quarter consisted mainly of renewals and relocations. While government stockpiling eased off, leasing demand was stable for warehouse and prime logistics spaces. (c) CBRE Ltd. 2020 | 13M Interbank 0.4% SepRetail Sales Index* Y-o-Y -9.3% AugCPI Inflation Y-o-Y -0.4% AugPMI 50.3 SepGDP Y-o-Y -13.2% Q2 20 Arrows indicate change from previous period *excludes sale of motor vehicles. Q3 2020 CBRE Research MARKETVIEW COVID-19 Updates (c) CBRE Ltd. 2020 | 2 Extension of  mortgage relief Additional temporary  relief measures *Individual borrowers to make reduced instalment payments at 60% of their monthly instalment for a period of up to nine months but not exceeding 31 December 2021. *Eligibility is subject to proof of income decline of at least 25% or loss of employment after 1 Feb 2020. In addition, borrowers should not have mortgage repayments that are more than 90 days past due at the point of application. *The scope of borrowers and loans include residential, commercial, industrial property loans and mortgage equity withdrawal loans. *This includes partial deferment of 80% of principal repayments on secured SME loans and loans under Enterprise Singapore for an additional 3-6 months, until March or June 2021.  *Depending on the trade sectors of SMEs, longer extensions will be granted to more impacted sectors such as tourism, hospitality and qualifying retail outlets.  *Borrowers are to pay instalments comprising the remaining principal of 20% and the interest on the loan. *Extension of the Project Completion Period (PCP) by another six months for residential, commercial and industrial developments. *The commencement and completion of residential developments was extended by another six months for property developers to obtain the remission of the Additional Buyer's Stamp Duty.  *Extension of the PCP by up to another six months for residential developments under the Qualifying Certificate regime for foreign property developers. Additional Support Measures Extended support  measures for SMEs A Timeline of Events in 2020 Q3 2020 CBRE Research MARKETVIEWAlong with the lifting of some COVID-19 restrictions, real estate investment volume in Singapore for Q3 2020 came to $2.789 bn, a 23.2% increase from the previous quarter. This marks the first increase after three consecutive quarters of decline in investment volume.The residential sector was the outperformer, coming in at 33.5% of investment sales, due to strong sales of good class bungalows and detached houses. The office sector also came in strongly with two major deals propping up volume: the sale of Robinson Point for $500.00 mil and ABI Plaza for $200.00 mil.Retail sales also came in higher at $672.00 mil, or 1.85 times q-o-q, due to the sale of the south wing of Northpoint City for $550.00 million. Despite the absence of public land sales, industrial volume remained robust coming in at $396.60 mil, an increase of 26.2% q-o-q, with several sales to end-users and a data centredeal.Prices have declined slightly due to the poorer rental and occupancy outlook. However, prices remain supported by the limited supply of prime assets and holding power of asset owners.Buyers have been very selective with the market in a stalemate; several tenders have closed without bids. Nevertheless, investors are still looking out for office assets, while watching closely for signs of distress in the retail and hospitality sectors. Foreign investment volume dropped by 26.4% q-o-q due to travel restrictions. Going forward, market activity is likely to be dominated by local players.The shrinking universe of investible assets in Singapore may lead to fewer transactions crossing the billion-dollar mark, but this will also continue to drive interest in niche asset classes such as shophouses and value-add opportunities. Nonetheless, the retail sector is getting a respite from the resurgence of food &amp; beverage, residential sales are supported by pent-up demand, while industrial assets are riding on the e-commerce wave. For the office sector, news of  Chinese tech firms coming to Singapore have provided a silver lining. As such, the current situation could present opportunities for investors with a longer-term view. Q3 2020 CBRE Research (c) CBRE Ltd. 2020  | SINGAPORE CAPITAL MARKETS 70 80 90 100 110 120 Q3 15 Q1 16 Q3 16 Q1 17 Q3 17 Q1 18 Q3 18 Q1 19 Q3 19 Q1 20 Q3 20 Q4 2014 = 100 Grade A Office Prime Retail Factory Leasehold Prime Residential Chart 1: Total Transaction Value Chart 2: Capital Values Index Source: CBRE Research, Q3 2020 Source: CBRE Research, Q3 2020 Source: CBRE Research, Q3 2020 Note: Investment property transactions are property deals priced above S$10 million and include sales of building and development sites as well as ownership  changes of assets. The 4-quarter Rolling Total (4QRT ) generally smoothens out short-term quarterly fluctuations and highlights longer-term trends or cycles. Table 1: Major Private Investment Transactions Sector Property Price ($) Buyer  Retail Northpoint City(South Wing) 550.00 mil TCC Group Office Robinson Point 500.00 mil Undisclosed Industrial 7 Bulim Street 129.60 mil AIMS APAC Reit 3 $0 $10 $20 $30 $40 $50 $0 $2 $4 $6 $8 $10 Q3 18 Q4 18 Q1 19 Q2 19 Q3 19 Q4 19 Q1 20 Q2 20 Q3 20 S$ bn S$ bn Private Public 4-quarter Rolling Total (RHS) MARKETVIEWThe COVID-19 pandemic continued to pile pressure on the economic performance of Singapore. Coupled with the bleak employment outlook, office demand continued to dampen. Islandwidenet absorption registered -445,491 sq. ft., which was the second consecutive quarter of negative net absorption.Cost efficiency continued to be the main driver for leasing enquiries. In Q3 2020, the sectors that contributed to occupier activity were the insurance and technology sectors. However, challenges in most sectors have reduced the volume of occupied space by firms. This resulted in an emerging volume of secondary space which will raise the spectre of competition for tenants. Nonetheless, the quality, fitted-out secondary space in prime locations are poised to attract tenants seeking to relocate.In Q3 2020, Shaw Towers was removed from stock as it commenced construction works. With no new supply over the past three months, the negative net absorption resulted in a marginal increase in the islandwidevacancy rate from 5.6% in Q2 2020 to 5.9% in Q3 2020. With vacancy rates expected to rise, landlords are realigning rental expectations, and thus narrowing the rental expectations gap between tenants and landlords. However, the rate of rental decline was cushioned by the stimulus packages and rental relief schemes. In Q3 2020, Grade A (Core CBD) office rents declined for its third consecutive quarter at 4.0% q-o-q to $10.70 psf/month. In the short term, occupier movement is likely to stem from the displacement of tenants from upcoming redevelopment projects. Furthermore, Chinese technology firms and family offices are establishing offices here, which reinforces Singapore's status as a financial and technology hub. On the supply side, concerns around the next wave in 2022 have dissipated as the expected completion of upcoming developments are delayed by at least three months. This will allow supply and demand dynamics to recalibrate.  (c) CBRE Ltd. 2020  | 4 Chart 3: Office Supply-Demand Dynamics 0% 2% 4% 6% 8% -0.5 0.0 0.5 1.0 1.5 Q3 15 Q1 16 Q3 16 Q1 17 Q3 17 Q1 18 Q3 18 Q1 19 Q3 19 Q1 20 Q3 20 mil sq. ft. Net Supply Net Absorption Vacancy rate (RHA) Source:  CBRE Research, Q3 2020 Table 2: Office Vacancy Rates Source:  CBRE Research, Q3 2020 Chart 4: Office Rental Index 100 120 140 160 180 200 220 Q3 15 Q1 16 Q3 16 Q1 17 Q3 17 Q1 18 Q3 18 Q1 19 Q3 19 Q1 20 Q3 20 Q4 2005 = 100 Singapore (Grade A Core CBD) Asia Pacific Source:  CBRE Research, Q3 2020 Table 3: Singapore Office Rents Q3 20 Q-o-q Y-o-y Islandwide 5.9% 36 bps 139 bps Core CBD 6.1% 51 bps 214 bps Fringe CBD 5.8% 13 bps 126 bps Decentralised 5.6% 27 bps -8 bps Grade A (Core CBD) 3.2% 37 bps -24 bps Q3 20 Q-o-q Y-o-y Grade A CBD Core $10.70 -4.0% -6.6% Grade B CBD Core $8.15 -3.6% -6.3% Grade B Islandwide $7.60 -3.2% -5.0% Source:  CBRE Research, Q3 2020 SINGAPORE OFFICE Q3 2020 CBRE Research MARKETVIEWThe bleak labour market and economic uncertainties presented challenges to firms. Overall demand in the business park market was relatively subdued in Q3 2020 as illustrated by the islandwidenet absorption of a mere 15,960 sq. ft. in Q3 2020. Occupier activity was relatively muted, with some leasing demand from the technology sector. Renewals were a prominent feature and some large occupiers were cutting back on requirements. At the same time, the stringent qualifying requirements for business park space served as a high barrier to entry for tenants. With no new supply over the past three months, islandwidevacancy eased slightly from 13.1% in Q2 2020 to 13.0% in Q3 2020. The rental disparity between both submarkets has led cost conscious occupiers to consider the Rest of Island submarket. At the same time, with limited availability of large contiguous space in the newer buildings within the City Fringe submarket, occupancy is unlikely to dip significantly.On the back of lacklustre demand and rising vacancy in the older buildings, some landlords are adjusting their rental expectations. The rents in the City Fringe submarket eased 0.9% q-o-q to $5.80 psf/month, and the Rest of Island submarket declined 1.3% q-o-q to $3.70 psf/month. The disruptions in the construction industry resulted in construction delays of ongoing business park projects. This has pushed back the expected completion of projects by at least three months. From Q4 2020 to 2023, 4.41 mil of future supply is expected to come on stream, with an estimated 31.5% of this upcoming supply pre-committed by end-users.Looking ahead, more downsizing could be seen in the horizon as tenants recalibrate their footprint. Nonetheless, business parks still feature prominently in the long-term plan for firms. The City Fringe business parks continue to attract interest despite its tight supply and rental premium over Rest of Island business parks. Q3 2020 CBRE Research (c) CBRE Ltd. 2020  | 5 SINGAPORE BUSINESS PARKS Chart 6: Business Park Vacancy by Submarkets Source:  CBRE Research, Q3 2020 Table 4: Business Park Rents Source:  CBRE Research, Q3 2020 Table 5: Known Business Park Future Pipeline (in sq.ft.) Source:  CBRE Research, Q3 2020 Q3 20 Q-o-q Y-o-y City Fringe $5.80 -0.9% 0.0% Rest of Island $3.70 -1.3% -2.6% Chart 5: Business Park Supply-Demand Dynamics Source:  CBRE Research, Q3 2020 0% 5% 10% 15% 20% -0.2 0.0 0.2 0.4 0.6 0.8 1.0 1.2 Q3 15 Q1 16 Q3 16 Q1 17 Q3 17 Q1 18 Q3 18 Q1 19 Q3 19 Q1 20 Q3 20 Net Supply Net Absorption Vacancy Rate (RHA) NLA (mil sq. ft.) Q3 15 Q1 16 Q3 16 Q1 17 Q3 17 Q1 18 Q3 18 Q1 19 Q3 19 Q1 20 Q3 20 0% 5% 10% 15% 20% Rest of Island City Fringe Vacancy City Fringe Rest of Island Total Q4 2020 0.00 mil 0.30 mil 0.30 mil 2021 0.75 mil 1.12 mil 1.87 mil 2022 0.00 mil 0.00 mil 0.00 mil 2023 0.00 mil 2.24 mil 2.24 mil Total 0.75 mil 3.66 mil 4.41 mil MARKETVIEWWith the end of the "circuit breaker" period, majority of tenants have resumed operations, resulting in a gradual recovery in retail sales and shopper traffic. While sentiments have improved, the retail market continues to be affected by the absence of international tourists and work from home measures. Consolidation activity increased from poorer performing stores as businesses are unable to sustain current rental and labour costs in this challenging climate. For example, retailers such as Naiiseand Charles &amp; Keith have downsized their store footprint to enhance business efficiency while Topshopand Hotwindexited the Singapore market entirely.Landlords have become more realistic in their rental expectations as they attempt to strike a balance between rental and occupancy. In addition, some landlords are undertaking more flexible leasing terms given the fluidity of the COVID-19 pandemic. These include shorter lease terms, longer rent-free periods and changing of rental structure. Rental correction accelerated, as rental rebates passed down from the government have mostly expired by the end of Q3 2020. Average prime islandwide retail rents reported a steeper decline of 3.1% q-o-q in Q3 2020, after -1.8% q-o-q in Q2 2020. Submarkets which have a higher reliance on tourist and office footfall suffered higher degrees of stress. This is with the exception of the suburban market, where shopper traffic has recovered strongly. Given the resilient nature of the suburban market, the premium between prime suburban and Orchard Road has decreased to an all time low of 3.5%.To date, rental correction has not been as severe due to tenant support and government measures which have cushioned the negative impact. Although shopper traffic has improved, the sector is still plagued by uncertainty over the recovery of the tourism industry, lifting of safety management measures and prolonged disruptions from the global pandemic. Occupancy and rents are expected to remain under pressure, although the extent will be mitigated by the limited new retail supply. 6 SINGAPORE RETAIL Chart 7: Retail Economic Indicators Source: STB, MTI Economic Survey of Singapore, CBRE Research, Q3 2020 Table 6: Estimated Gross New Supply* Source: CBRE Research, Q3 2020 *excludes projects with a NLA of less than 20,000 sq. ft. Table 7: Prime Retail Rents Source: CBRE Research, Q3 2020 Chart 8: Retail Rental Index 70 90 110 130 150 170 190 Q3 11 Q3 12 Q3 13 Q3 14 Q3 15 Q3 16 Q3 17 Q3 18 Q3 19 Q3 20 Q1 2005 = 100 Asia Pacific Prime Orchard Road Prime Suburban Source: CBRE Research, Q3 2020 (c) CBRE Ltd. 2020  | Year Estimated NLA (sq. ft.) Q4 2020 0.00 mil sf  2021 0.34 mil sf  2022 0.43 mil sf  2023 0.25 mil sf  Q3 20 Q-o-Q Y-o-y Orchard Road $30.00 -3.4% -5.4% Suburban $29.00 0.0% -0.5% 0.0 1.0 2.0 3.0 4.0 5.0 6.0 Q2 16 Q4 16 Q2 17 Q4 17 Q2 18 Q4 18 Q2 19 Q4 19 Q2 20 -40.0% -30.0% -20.0% -10.0% 0.0% Millions Visitor Arrivals (RHA) Change in Retail Sales Index at Constant Price (excludes car sales) y-o-y change (2017=100) mil Q3 2020 CBRE Research MARKETVIEW Chart 9: New Private Residential Units Take-UpThe residential market continued to surprise on the upside despite the economy undergoing a recession from the ongoing COVID-19 pandemic. A total of 3,564 caveats were lodged for new private residential homes in Q3 2020, a 4.8% y-o-y increase, attributed to healthy take-up from new launches. Prices exhibited a similar trend as flash estimates of Q3 2020 private residential property price index increased 0.8% q-o-q, following the pick-up of 0.3% q-o-q in Q2 2020. Buyers for new homes were in favour of larger units, considering that the median unit sizes increased from 721 sq. ft. in Q2 2020 to 753 sq. ft. in Q3 2020.New sales volume (non-landed) in the RCR accounted for 52.6% of all new sale transactions in Q3 2020, supported by new launches such as Forettat Bukit Timahand Penrose. These projects secured take-up rates of 39% and 64% which are considered healthy given today's challenging macro-environment. Key contributing factors included pent-up demand, low interest rates, as well as the holding power of buyers strengthened by the economic support measures which has helped cushioned the recessionary impact and job losses. Given the robust market activity, unsold inventory is expected to decline further, from 27,977 units in Q2 2020.Year to date, take-up for new home for 2020 reached 7,426 units while the overall private home prices increased by 0.1%. CBRE Research has revised its forecast for new home sales in 2020 to about 9,000 units, given the possibility of sales momentum from a healthy project pipeline scheduled for Q4 2020.  On the other hand, there could be a minor correction towards the end of the year, especially if developers adopt a more flexible pricing strategy to move units.That said, the URA recently unveiled new guidelines stating that developers can no longer re-issue the option to purchase (OTP) to the same buyer multiple times. This may cause a slight dampener to future sales numbers, particularly for uncertain buyers who are unable to commit during this period.  (c) CBRE Ltd. 2020  | 7 SINGAPORE RESIDENTIAL Source: URA, CBRE Research, Q3 2020 Note: Prelim figures exclude executive condominiums (ECs) Prelim newly launch figures for Q3 2020 refer to Jul &amp; Aug only.  Table 8: Selected Projects with New Units Launched in Q3 2020 Chart 10: URA Residential Price Index Development Tenure Median  Price No of  units in  project Units  sold Forett at Bukit  Timah FH $1,932 633 246 Verdale 99y $1,699 258 44 Penrose 99y $1,539 566 362 NoMa FH $1,637 50 36 153.8 100 120 140 160 180 Q3 14 Q3 15 Q3 16 Q3 17 Q3 18 Q3 19 Q3 20 Q1 2009 = 100 Source: CBRE Research, Q3 2020 Note: Q3 20 URA Residential Price Index is a flash estimate Source: CBRE Research, Q3 2020 Note: Based on no. of caveats lodged 0 1,000 2,000 3,000 4,000 Q3 2019 Q4 2019 Q1 2020 Q2 2020 Q3 2020 Units Newly Launched Newly Sold Q3 2020  Sold: 3,564 Q3 2020 CBRE Research MARKETVIEW (c) CBRE Ltd. 2020  | 8 SINGAPORE INDUSTRIAL Chart 11: Manufacturing Indices Table 9: Significant Future Developments for 2020 Source: CBRE Research, Q3 2020 Table 10: Industrial Rents Source: CBRE Research, Q3 2020 Source: CBRE Research, Q3 2020 Note: APAC rental index is based on preliminary statistics. -25% -20% -15% -10% -5% 0% 5% 10% 15% 20% 25% 44 45 46 47 48 49 50 51 52 53 54 Jan-18 Mar-18 May-18 Jul-18 Sep-18 Nov-18 Jan-19 Mar-19 May-19 Jul-19 Sep-19 Nov-19 Jan-20 Mar-20 May-20 Jul-20 Sep-20 PMI-Contract PMI-Expand Mfg Output NODX Source:  Singstat, SIPMM, CBRE Research, Q3 2020 Development Region Est. GFA  (Mil sf) JTC Defu Industrial City North  East 3.51 JTC Logistics Hub @ Gul West 1.51 Cogent Jurong Island Logistics Hub West 0.94 AirTrunk SGP1 East 0.40 Single-user industrial development  (Shimano Singapore Pte Ltd) West 0.38 Q3 20 Q-o-q Y-o-y Factory (Grd Flr) $1.50 0.0% -4.2% Factory (Upp Flr) $1.18 0.0% -4.2% Warehouse (Grd Flr) $1.57 0.5% -0.7% Warehouse (Upp Flr) $1.19 0.5% -0.7% Chart 12: Industrial Rental Index 80 100 120 140 160 180 Q3 15 Q1 16 Q3 16 Q1 17 Q3 17 Q1 18 Q3 18 Q1 19 Q3 19 Q1 20 Q3 20 Q4 2005=100 Singapore Factory Singapore Warehouse APAC Mfg/NODX PMISingapore's manufacturing sector remained under pressure in Q3 2020 as the COVID-19 outbreak continued to run its course. Nonetheless, positive blips were observed across industrial indicators -manufacturing output rose by 13.7% y-o-y in August following three consecutive months of contraction, while NODX expanded for the third consecutive month in the same month by 7.7% y-o-y. Sentiments similarly improved, as PMI recorded its first expansion since January at 50.2 in July and sustained its expansion in August and September at 50.1 and 50.3 respectively.  Leasing activity in the quarter consisted mainly of renewals and relocations. While government stockpiling eased off, leasing demand was stable for warehouse and prime logistics spaces, supported by e-commerce, food logistics and third-party logistics players. Prime logistics vacancy remained compressed, with most buildings nearing full occupancy. In addition, there were some leasing enquiries for factory spaces with higher specifications. Meanwhile, some non-renewals by master lessees were reported by landlords, including SabanaREIT and A-REIT, for both factory and warehouse properties.The resilient leasing demand for logistics spaces lent support to rents, with both ground and upper floor warehouse rents increasing by 0.5% q-o-q in Q3 2020. On the other hand, the demand for factory buildings with higher specifications was balanced out by the lack thereof for older non-high-specs stock. As such, both ground and upper floor factory rents stayed flat in the same quarter. Notably, there was a decrease in the supply pipeline for the rest of the year, due to construction delays vis-a-vis the pandemic. Consequently, most factory and warehouse completions have been pushed back by three to six months, and further delays could be expected moving forward. Q3 2020 CBRE Research MARKETVIEW Disclaimer: Information contained herein, including projections, has been obtained from sources believed to be reliable. While we do not doubt its accuracy,  we have not verified it and make no guarantee, warranty or representation about it. It is your responsibility to confirm independently its accuracy and completeness. This information is presented exclusively for use by CBRE clients and professionals and all rights to the material are reserved and cannot be  reproduced without prior written permission of CBRE. DEFINITIONS Grade A Rents  Average value derived from a basket of Grade A  properties located in the Central Business District (CBD).  Prime Capital Values Valuation based average value derived from a basket of  prime properties. For residential and retail, the basket is  only of freehold properties while industrial basket is  related to 60-year leasehold properties. All values are  quoted on a per square foot net floor area and strata  basis, except for office values, which are on an en-bloc  basis. Prime industrial space and thereafter rents and  capital values are considered on upper floors. Net Absorption The change in occupied stock (in sq. ft.) over the  recorded period for all existing properties. Vacancy Rate Vacant space as a percentage of the base inventory or  building net lettable area.  Net Yield Net property income (gross income net service charges  and taxes) as a percentage of the asset's capital value. The following  locations are considered for Grade A or  Prime property baskets: Office Raffles Place, Shenton Corridor, Marina Bay and Marina  Centre Retail Orchard Road  (units on levels with heaviest footfall) Industrial Islandwide mature industrial locations such as Ubi, Kaki  Bukit, Tuas, and Woodlands Residential  Core Central Region (CCR) - districts 9, 10,11,  Downtown &amp; Sentosa Cove   (covering apartments and condominiums) CONTACTSSingapore CBRE ResearchCBRE Pte. Ltd.2 Tanjong KatongRoad #06-01Paya Lebar QuarterSingapore 437161+65 6224 8181www.cbre.com.sgCo. Reg. No. 197701161RAgency License No. L3002163IDesmond SimHead of Research, Singapore and SEA+65 6326 1638Desmond.sim@cbre.com.sgCatherine HeCapital Markets Research+65 6326 1232Catherine.he@cbre.comGoh Jia LingResidential &amp; Retail Research+65 6328 7304Jialing.goh@cbre.comYuki SuzukiOffice &amp; Business Parks Research+65 6326 1669Yuki.suzuki@cbre.com.sgElizabeth LowIndustrial Research+65 6328 7397Elizabeth.low@cbre.comTo learn more about CBRE Research, or to access additional research reports,  please visit the Global Research Gateway at www.cbre.com/researchgateway SINGAPORE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SINGAPORE 3Q 2020 Brisk residential activity with   economic reopening and recovery REAL ESTATE  TIMES OCTOBER 2020 1 EDMUND TIE RESEARCH ECONOMY  Market commentary Key economic indicators * Based on advanced estimates released  by the Ministry of Trade and Industry  (MTI) on 14 Oct 2020, the Singapore  economy contracted by 7.0% year-on- year (yoy) in 3Q 2020 following the 13.3%  yoy decline in 2Q 2020. The two quarters  marked the steepest declines in the post  Global Financial Crisis period (Table 1).  On a quarter-on-quarter (qoq) basis, the  Singapore economy expanded by 7.9%  in 3Q 2020, an improvement from the  decline of 13.2% in 2Q 2020. * As Singapore moved into Phase 2 of its  recovery from 19 June 2020, the majority  of industries, except for the entertainment  sector, had restarted operations. The  manufacturing industry recorded a 2.0%  yoy growth in 3Q 2020, a rebound as  compared to -0.8% yoy in 2Q 2020. The  construction and services producing  industries also moderated to -44.7%  and -8.0% yoy in 3Q 2020 respectively as  compared to that in 2Q 2020. * Given the earlier economic contraction,  inflationary  pressures  have  eased  while labour market pressures rose.  Inflation declined by 0.5% in 2Q 2020,  extending from the -0.1% in 1Q 2020.  The unemployment rate also increased to  2.9% in 2Q 2020, from 2.4% in 1Q 2020  (Table 2).  Table 1: Singapore's Gross Domestic Product (GDP) Table 2: Inflation, unemployment rate and fixed asset investments Selected  indicators Yoy change (%) 3Q  2019 4Q  2019 1Q  2020 2Q  2020 3Q  2020* Overall GDP 0.7 1.0 -0.3 -13.3 -7.0 Manufacturing -0.7 -2.3 7.9 -0.8 2.0 Construction 3.1 4.3 -1.2 -59.9 -44.7 Services producing  industries 0.8 1.5 -2.3 -13.6 -8.0 * Based on advanced estimates released by  MTI on 14 Oct 2020 Source: MTI * Singapore attracted $1.9bn in fixed asset investments (FAI) in 2Q  2020, a sharp decline from the $12.4bn reported in 1Q 2020. Both  the manufacturing and services cluster saw great declines. The  manufacturing cluster reported a sharp decline of 86.5% qoq in 2Q  2020. Within the manufacturing cluster, the chemicals, electronics  and transport engineering components contracted by 90.2%, 94.4%  and 77.0% on a qoq basis in 2Q 2020 respectively. The services  cluster also trended downwards by 73.5% qoq in 2Q 2020. Selected indicators 3Q  2019 4Q  2019 1Q  2020 2Q  2020 Consumer Price Index   (Core inflation)  Y-o-y % change 0.6 0.5 0.2 -0.2 Consumer Price Index   (All items inflation) S.A.   Y-o-y % change 0.5 0.8 -0.1 -0.5 Unemployment rate, S.A.  (%) 2.3 2.3 2.4 2.9 Fixed asset investments  (S$bn) 0.2 6.9 12.4 1.9 Source: Singapore Department of Statistics 2 EDMUND TIE RESEARCH INVESTMENT Market commentary Investment sales Investor confidence improved with the  stabilisation of the local Covid-19 situation  and the reopening of the economy, leading to  increased market activity in the investment  sales market. As a result, investment sales  grew by 33.8% qoq to nearly $2.5bn in 3Q  2020 after three consecutive quarters of  decline (Figure 1). There were no significant GLS sites being  awarded in 3Q 2020, resulting in no public  investment sales for the second consecutive  quarter. Apart from more transaction  activity, there were also more transactions  of higher price quantums. In 3Q 2020, six  transactions surpassed the $100mn mark  compared to only three deals in 2Q 2020.  While the significant deals in 2Q 2020 were  0 5 10 15 20 25 30 35 40 2010 2011 2012 2013 2014 2015 2016 2017 2018 2019 2020 1Q 2Q 3Q 4Q $ bn Source: Various sources, EDMUND TIE Research Figure 1: Total investment sales (S$bn) 2018 $ mn 2019 $ mn 1Q 2020 $ mn 2Q 2020 $ mn 3Q 2020 $ mn qoq chg % Total Investment Sales  31,692 29,711 3,986 1,853 2,480 34 Residential 20,387 7,554 1,978 261 778 198 Office 5,000 8,386 784 1,324 711 -46 Industrial 2,777 4,717 1,134 174 397 128 Retail 1,757 3,548 22 43 550 1,179 Hospitality 985 5,038 0 0 0 n.m. Shophouse 786 469 15 50 28 -44 Others 0 0 53 0 16 n.m. Private Sales 24,579 24,392 2,399 1,853 2,480 34 Residential 13,856 3,003 615 261 778 198 Office 4,635 8,386 784 1,324 711 -46 Industrial 2,623 4,511 910 174 397 128 Retail 1,757 3,548 22 43 550 1,179 Hospitality 923 4,475 0 0 0 n.m. Shophouse 786 469 15 50 28 -44 Others 0 0 53 0 16 n.m. Government sales 7,113 5,319 1,587 0 0 n.m. Residential 6,531 4,550 1,363 0 0 n.m. Office 365 0 0 0 0 n.m. Industrial 154 206 224 0 0 n.m. Hospitality 62 562 0 0 0 n.m. Others 0 0 0 0 0 n.m. Table 3: Investment sales summary* Source: Various sources, EDMUND TIE Research all from the office sector, the major transactions in 3Q 2020 were from  various property sectors, with three from the industrial sector (Table  3). The buoyant demand for industrial and logistics assets arose from  rising warehousing needs during the ongoing Covid-19 pandemic. * Refers to any property transactions with value above S$10mn. 3 EDMUND TIE RESEARCH Sector trends and outlook * After two consecutive quarters of increase, office  investment sales declined by 46.3% qoq to $711mn  in 3Q 2020 due to lower investment activity in the  sector. Two office buildings and one strata office unit  were sold in the quarter. The largest deal in 3Q 2020  was the sale of Robinson Point for $500mn ($3,721  psf NLA) from Tuan Sing Holdings to a British Virgin  Islands-incorporated investment holding company  (Table 4). The office building was previously acquired  by Tuan Sing in 2013 for $348.9mn and has undergone  asset enhancement works to the main lobby, carpark  lobby and loading bays. In 3Q 2020, ABI Plaza was also  sold to a private fund managed by CapitaLand Fund  Management for $200mn ($2,162 psf NLA) after it  was put on the market by MYP since June 2020 at a  guide price of above $280mn. The ABI Plaza site will  benefit from the grant of bonus GFA under URA's CBD  Incentive Scheme upon redevelopment into a mixed- use project. * On the other hand, industrial investment sales more  than doubled to $397mn in 3Q 2020 despite lower  transaction volume as the price quantums of the  transactions were significantly larger. Three of the four  investment sales in 3Q 2020 were more than $100mn,  with the largest being a ramp-up logistics warehouse  at 7 Bulim Street for $129.6mn ($353 psf land area)  purchased by AIMS Apac Reit. With an existing master  lease, a net property income yield of nearly 7% is  expected to be obtained, which is deemed to be  rather attractive. The sale of 26A Ayer Rajah Crescent  followed closely behind; the property was sold to  Equinix by Mapletree Industrial Trust for $125mn. A  seven-storey build-to-suit data centre for Equinix is  situated at the site. Another significant transaction  was the acquisition of the freehold Thye Hong Centre  at 2 Leng Kee Road for $112.5mn by SLB Development.  The industrial sector has been proven to be resilient  amid the Covid-19 pandemic, particularly with data  centres and warehouses being sought after. *  Retail investment sales increased the most among the  property sectors in 3Q 2020, recording $550mn from  $43mn in 2Q 2020. There was only one (related party)  transaction in 3Q 2020, which was the sale of a 50%  stake in Northpoint City (South Wing) based on the  property valuation of $1.1bn. Frasers Property sold  50% of its stake in the shopping mall to a division of  TCC Group, whose controlling shareholders are that of  Frasers Property. Development Remaining tenure, yrs Purchase price Purchaser Seller $ mn $ psf Office  Robinson Point Freehold 500.0 3,721 NLA Unknown Tuan Sing Holdings ABI Plaza Freehold 200.0 2,162 NLA CapitaLand fund entity MYP Industrial 7 Bulim Street 22 years 129.6 353 land area AIMS Apac Reit Titan (Wenya) 26A Ayer Rajah Crescent 23 years 125.0 325 GFA Equnix Mapletree  Industrial Trust Thye Hong Centre Freehold 112.5 1,756 land area SLB Development Thye Hong Properties Retail Northpoint City (South Wing) (50% stake) 94 years 550.0 3,786 NLA TCC Group Frasers Property (related party deal) Table 4: Key private investment sale transactions in 3Q 2020  Source: Various sources  4 EDMUND TIE RESEARCH *  Residential investment sales constituted the bulk (31.4%) of total  investment sales in 3Q 2020, a considerable increase from the  14.1% share in 2Q 2020 (Figure 2). Investment sales almost tripled  qoq to $778mn after three consecutive quarters of decline. This  was supported by the resumption of home viewings from 19 June  2020. While there were only two Good Class Bungalows (GCBs) sold  in 2Q 2020, eight GCBs were sold in 3Q 2020. The largest GCB deal  was a GCB on 101,550 sq ft of freehold land in Garlick Avenue for  around $93mn ($916 psf land area). The site, which is reported to be  purchased by Mr Goh Cheng Liang, founder of Wuthelam Holdings, is  large enough to be subdivided for redevelopment into 5/6 bungalows.  Apart from an active GCB market, the collective sales market also  saw modest activity. After the en bloc sale of Casa Sophia in 1Q 2020,  3Q 2020 saw the second en bloc sale in 2020 with the sale of Yuen  Sing Mansion for $15.2mn, lower than the reserve price of $17mn.  This followed its last unsuccessful tender in 2018. Separately, a  four-storey residential mixed use building at 320 Balestier Road was  sold in 3Q 2020 for $18.1mn to LHN Limited, which had intentions  to operate the property as a co-living space. LHN had previously  developed Hmlet at Cantonment jointly with Hmlet. Source: EDMUND TIE Research Figure 2: Total investment sales by asset type 72% 14% 9% 3%2% Office Residential Industrial Shophouse Retail The improved transaction activity in 3Q  2020 offered some glimpse of hope for the  investment sales market, but there are still  uncertainties given ongoing weakness in  the economy. Business sentiment among  local firms remain pessimistic for 4Q 2020  despite an improvement from 3Q 2020,  according to the Singapore Commercial  Credit Bureau's Business Optimism Index.  However, some sectors such as the  professional and IT services, as well as the  manufacturing and financial services sectors  anticipated a slightly better outlook in 4Q  2020. As Singapore prepares for the next  phase of reopening the economy, as well as  more green lanes being implemented, this  may provide further confidence for foreign  investors whose footprints in the market  have been on the rise in recent quarters. 3Q 2020 2Q 2020 5 EDMUND TIE RESEARCH OFFICE  Office demand and occupancy rates * Based  on  EDMUND  TIE  research,  net  absorption  remained  in  the  contractionary zone of -374,000 sq ft in  3Q 2020. The islandwide office occupancy  rate contracted by 0.3% points qoq to  92.5% in 3Q 2020 (Figure 3). The decline  was largely due to the contraction of  office space demand in the CBD, where  the occupancy rate declined by 1.1%  points to 92.0% in 3Q 2020. The majority  of employees continued to work from  home as a default in 3Q 2020.  * The technology and financial sectors  were some of the sectors that supported  demand in 3Q 2020 (Table 5). Sun Life  has set up a new office in Singapore  in One Raffles Quay North Tower. It  was also reported that technology and  e-commerce giant Amazon had leased  around 90,000 sq ft on three levels at  Asia Square Tower 1. Figure 3: Office occupancy rates* and qoq % point change (in arrows) in  3Q 2020 Building Location Tenant Sector Remarks Asia Square Tower 1 Marina Bay (CBD) Interactive Brokers Group Brokerage New office in Singapore  One Raffles Quay North Tower Sun Life Finance  One Marina Boulevard Raffles Place (CBD) Ontario Teachers' Pension  Plan Board Finance Guoco Tower Shenton Way/Robinson  Road/Tanjong Pagar (CBD) QBE Insurance (Singapore) Insurance Relocation Toyota Motor Asia Pacific Motor Vehicles Table 5: Key tenant movements in 3Q 2020 Source: Various sources 6 EDMUND TIE RESEARCH Location Subzone Grade 2Q 2020  3Q 2020 Qoq change (%) CBD Marina Bay Premium 12.27 12.03 -2.0 Raffles Place A 10.47 10.26 -2.0 Shenton Way/Robinson Road/Tanjong Pagar Premium 11.14 10.97 -1.5 A 8.98 8.80 -2.0 B 7.37 7.22 -2.0 Marina Centre A 9.95 9.75 -2.0 City Hall/Bugis Premium 10.77 10.72 -0.5 Orchard Road * 7.05 7.05 0.0 Decentralised areas Decentralised areas * 8.94 8.84 -1.2 * 6.03 6.03 0.0  Table 6: Average monthly gross office rents (S$ per sq ft) Source: Various sources * Ungraded office space Rents Monthly rents in the various subzones of  the office sector showed qoq declines in 3Q  2020 (Table 6). Within the CBD, premium  grade buildings in Shenton Way/Robinson  Road/Tanjong Pagar were generally more  resilient as compared to other subzones,  recording a 1.5% qoq contraction in 3Q 2020  as the buildings there were newer and had  more efficient floor plates. Monthly rents of  office buildings in the Decentralised areas  held steady in general as rents were already  relatively competitive. Supply pipeline Based on EDMUND TIE Research, there is  approximately 3.8mn sq ft of new office  space estimated to be completed from 3Q  2020 to 2024 (Figure 4). Most of the office  developments will be completed in 2022  (49.7% or 1.9mn sq ft). Additionally, more  than half of the supply pipeline will be in CBD,  followed by 26.9% in CBD fringe. In the CBD,  Afro-Asia I-Mark is estimated to complete  by end of the 2020 and currently has a 62%  pre-commitment rate, with Delivery Hero  and The Great Room leasing space. Besides  Afro-Asia I-Mark, the additions/alterations  to existing HSBC building will complete in  2021, with WeWork taking up the entire  office space. 0.0 0.4 0.8 1.2 1.6 2.0 2.4 3Q-4Q 2020 2021 2022 2023 2024 Under Construction Planned mn sq ft Source: EDMUND TIE Research Figure 4: Office development pipeline Outlook Looking ahead, we expect a decline in overall office rents for the  rest of 2020 and continued weakness in early 2021. Companies are  considering a variety of work arrangements in view of the Covid-19  pandemic. Demand for office space is still broadly intact though  tenants are generally asking for shorter leases. Landlords are likely to  be more flexible on lease terms and other fit-out incentives. The growth of technology companies will continue, as businesses are  increasingly adopting greater telecommunications tools and improving  their processes. In the co-working market, we may see more mergers or  consolidation in co-working firms as the market becomes increasingly  saturated, especially in the CBD. 7 EDMUND TIE RESEARCH INDUSTRIAL  Market commentary Key indicators According  to  the  PMI  reading,  the  manufacturing sector recorded its second  month of expansion in August 2020 (Table 7).  This was driven by a faster rate of expansion  in factory output and an improvement in the  new orders index in the PMI index in August  2020. However, the pace of manufacturing  expansion was slightly slower in August 2020.  Besides the PMI, the NODX performance in  August 2020 was driven mainly by the non- electronics sector. Both the PMI and NODX  showed an improvement in manufacturing  performance, though it has slowed. * There  are  continued  risks  arising  from geopolitical tensions and anti- globalisation  sentiments,  such  as  increased protectionism, which could  result in further disruptions to global  supply chains. Such risks could adversely  impact the overall recovery of the market. * Based on JTC's statistics, overall industrial  net absorption expanded from 1.5mn sq  ft in 1Q 2020 to 2.2mn sq ft in 2Q 2020.  While the occupancy rates of multiple- user factory and business park space  contracted qoq in 2Q 2020, the occupancy  rates of single-user factory space and  warehouse space increased (Figure 5). Key economic indicators 2Q 2020 3Q 2020 Key trends NODX 16.1% 7.7% (Aug 2020) * NODX grew by 7.7% in August 2020, after the 5.9% increase in July 2020.  Growth was mainly in non-electronics sectors. PMI* 48.0 50.1 (Aug 2020) * The PMI declined by 0.1 points from 50.2 in July 2020 to 50.1 in August 2020.  There were slower expansion rates in the indexes of both new exports and  inventory. * The electronics sector PMI increased by 1.4 points to 50.6 in August 2020. Table 7: Singapore's NODX and PMI  Source: SIPMM * Reading above 50 indicates an expansion, while below 50 indicates a contraction. 70 80 90 100 2015 2016 2017 2018 2019 2020 Single-user Factory Multiple-user Factory Business Park Warehouse % Source: JTC Figure 5: Occupancy rates of private industrial space by type * There was significant leasing demand coming from food factories.  All 28 strata units at SLB's MacTaggart Foodlink were reportedly  taken up recently. During the Circuit Breaker, F&amp;B operators could  only do food delivery or takeout. As a result, some of the big  restaurant chains took up industrial space to house a central kitchen  or consolidate their outlets. Besides food factories, there was also  demand coming from the logistics and warehousing sectors due to  the growth in e-commerce. * Notable leases secured in 3Q 2020 included:    - Pacific Integrated Logistics, a global logistics provider, which  relocated to 8 Tuas South Lane   - Royal's Engineering &amp; Trading, a construction industry specialising  in plumbing and electrical works, which also relocated to 8 Tuas  South Lane 8 EDMUND TIE RESEARCH Industrial type* Subcategory 2Q 2020  3Q 2020  Qoq change (%) Multiple-user factory First-storey 1.84 1.84 0.0 Upper-storey 1.35 1.32 -2.0 Warehouse/logistics Overall 1.58 1.59 0.5 High-tech industrial Overall 2.95 2.92 -1.0 Business park Central Region 4.87 5.00 2.5 Suburban  3.68 3.68 0.0 Table 8: Average monthly gross rents (islandwide) (S$ per sq ft)  Source: EDMUND TIE Research  * In-house estimates of key selected private industrial premises. Rents * According to EDMUND TIE research,  while the monthly average rental rates  for upper-storey multiple-user factory  and hi-tech industrial properties declined  qoq in 3Q 2020, the monthly rents of  warehouse/logistics as well as business  park (central region) improved (Table 8).  * For example, the average monthly rents  for warehouse/logistics improved by  0.5% qoq to $1.59 psf in 3Q 2020, on  the back of robust demand coming from  e-commerce services and stockpiling  activities done by supermarkets. Supply pipeline * As at 2Q 2020, the supply pipeline from  3Q 2020 to 2023 is around 40.8mn sq ft   or an average of 11.7mn sq ft per annum,  which is comparable to the 3-year annual  average of 12.0mn. Around 33.8% of the  pipeline will be completed between 3Q to  4Q 2020, followed by 27.5% in 2021 (11.2m  sq ft). Multiple-user factories accounted  for the bulk (34.9%) of the supply pipeline  (Figure 6). Solaris @ Tai Seng by SB  (Ipark) Investment Pte. Ltd. is the largest  multiple-user  factory  development  at 929,000 sq ft. This development is  suitable for companies operating in the  light and clean manufacturing industries. 0 2 4 6 8 10 12 14 16 3Q-4Q 2020 2021 2022 2023 Data centres Extensions, additions and alterations to industrial properties Warehouse Multiple-user industrial developments Single-user industrial developments Business parks mn sq ft Source: EDMUND TIE Research Figure 6: Industrial development pipeline (with planning approvals and  GLS sites which are pending approvals) Outlook The outlook of the industrial sector is expected to brighten gradually  as the global manufacturing outlook improves. However, recovery  is expected to be different across the various industrial sectors. For  instance, rising online and groceries sales will incentivise retailers  to stockpile and expand their warehouse facilities to cater to the  increasing demand. As demand for industrial properties is also largely  dependent on their location and efficiency of their floor plates,  industrial developments that are located close to transportation  nodes and have efficient floor plates will have greater advantage in  attracting tenants. Landlords of older developments could make use  of this downtime to upgrade their facilities, so that they can meet with  the demand when the market recovers. 9 EDMUND TIE RESEARCH -80% -40% 0% 40% Supermarkets &amp; Hypermarkets Computer &amp; Telecommunications Equipment Furniture &amp; Household Equipment Mini-marts &amp; Convenience Stores Recreational Goods Total (Excluding Motor Vehicles) Others Watches &amp; Jewellery Optical Goods &amp; Books Petrol Service Stations Wearing Apparel &amp; Footwear Cosmetics, Toiletries &amp; Medical Goods Department Stores Food &amp; Alcohol RETAIL  Market commentary Key indicators *  As Phase 2 of Singapore's reopening begun  on 19 June 2020, retail shops started  to operate and dine-in activities were  allowed. However, overall retail sales are  not back to pre-Covid-19 levels yet.  * Many retailers have been introducing  various promotions to woo shoppers back  to malls as it is a challenging period. For  instance, the Orchard shopping belt was  packed during the National Day weekend,  with long queues outside popular stores  like Tangs which was offering promotions.  * Besides retailers, shopping malls have  also begun adopting an online presence.  Marina Square collaborated with Lazada  as the platform's first shopping mall,  working with its tenants to create a  virtual mall on the app. Frasers Property  Retail is also launching an e-commerce  marketplace, Frasers eStore, offering a  'store-to-door experience' for tenants  and consumers. * Landlords are also offering spaces to  less conventional tenants. For instance,  co-working operator JustCo, has taken  up space in Cross Street Exchange and  Marina Square. In 4Q 2020, JustCo will  also be opening another outlet at The  Centrepoint. To retain its members,  JustCo offered rental rebates of between  15% and 30% for the month of May 2020. * The three-year moving average of retail  sales (excluding motor vehicles) growth  moderated to -25.4% in July 2020 from  the -34.1% in June 2020. (Figure 7). The  various promotions introduced by malls  and retailers in Phase 2 of Singapore's  reopening helped boost retail sales.  * In July 2020, the worst performing sectors were food and alcohol  as well as departmental stores (Figure 8). On the other hand,  supermarkets, computer and telecommunications and the furniture  and household equipment sector reported yoy increases in retail  sales. Overall, total retail sales (excluding motor vehicles) declined  by 7.2% yoy in July 2020. -40 -30 -20 -10 0 10 20 2000 2002 2004 2006 2008 2010 2012 2014 2016 2018 2020 % Source: Department of Statistics Singapore Source: Department of Statistics Singapore Figure 7: Retail sales growth (Three-year moving average) (excluding  motor vehicles)  Figure 8: Retail sales index (Jul 2020), yoy change 10 EDMUND TIE RESEARCH * The food and beverage index trended  downwards by 25.7% yoy in July 2020,  and food caterers were the hardest hit,  contracting by 45.1% yoy (Figure 9). Private demand and occupancy  * Based  on  EDMUND  TIE  Research,  islandwide net absorption contracted  further to -798,000 sq ft in 2Q 2020 from  -561,000 sq ft in 1Q 2020. The occupancy  rate declined by 1.9% pts qoq to 88.9% in  2Q 2020.  -60% -40% -20% 0% Fast Food Outlets Cafes, Food Courts &amp; Other Eating Places Total Restaurants Food Caterers Source: Department of Statistics Singapore Figure 9: Food and Beverage index (Jul 2020), yoy change Orchard/Scotts Road (OSR) Other city areas1 (OCA) Fringe/Suburban areas2 (FSA) Net  absorption * Retail net absorption in Orchard/ Scotts Road reversed to -99,000 sq  ft in 2Q 2020, from 5,000 sq ft in 1Q  2020.  * Net absorption in Other City Areas  stayed in negative territory for  the second consecutive quarter,  registering -243,000 sq ft in 2Q 2020. *  Net absorption in Fringe/Suburban  Areas contracted further to  -456,000 sq ft in 2Q 2020 from  -202,000 sq ft in 1Q 2020.  Occupancy * The occupancy rate contracted by  1.2% pts qoq to 90.8% in 2Q 2020  (Figure 10). * Occupancy trended downwards by  1.9% pts q-o-q to 88.3% in 2Q 2020. * Occupancy rates declined by 2.1%  pts q-o-q to 88.8% in 2Q 2020. Openings  (3Q 2020) * Luke Lobster at Shaw House * Lemak Boys at Shaw Centre * Decathlon at The Centrepoint * Joy Luck Teahouse at ION Orchard  * Apple at Marina Bay Sands * Butter Bean at Funan * Shake Shack at Suntec City Mall  * ChaTraMue at Paya Lebar  Quarter * Koung's Wanton Mee at Jem Closures  (3Q 2020) * Esprit (all outlets) * Antoinette at Millenia Walk * The Pelican at One Fullerton * Topshop and Topman at VivoCity * Naiise at Paya Lebar Quarter * Tokyu Hands at Westgate * Robinson at Jem 1 Other City Areas refer to Downtown Core and Rest of Central Area 2 Fringe/Suburban Areas refer to Fringe Areas and Suburban Areas (Outside Central Region) Source: EDMUND TIE Research 11 EDMUND TIE RESEARCH Source: EDMUND TIE Research Figure 10: Private retail occupancy rates (2Q 2020) Rents Among the various subzones in the retail  sector, monthly first-storey retail rents in  the Fringe/Suburban areas contracted the  least by 1.0% qoq in 3Q 2020. Monthly rents  of first-storey retail in the Fringe/Suburban  areas were supported by the proximity of  residential estates in these areas, as people  continued to work from home as their  default. Additionally, first-storey retail is  more well-located and visible as compared  to upper-storey retail. All other subzones  reported a decline of 2.0% qoq in 3Q 2020  (Table 9). Location Level 2Q 2020  3Q 2020  Qoq change (%) Orchard/Scotts Road  (OSR) First storey 38.03 37.27 -2.0 Upper storey 16.32 16.00 -2.0 Other city areas   (OCA) First storey 19.85 19.45 -2.0 Upper storey 10.03 9.83 -2.0 Fringe/Suburban areas  (FSA) First storey 30.27 29.97 -1.0 Upper storey 17.38 17.03 -2.0 Table 9: Average monthly gross rents (S$ per sq ft)  Source: EDMUND TIE Research  12 EDMUND TIE RESEARCH 0.0 0.1 0.2 0.3 0.4 3Q-4Q 2020 2021 2022 2023 Orchard/Scotts Road Other City Areas Fringe/Suburban Areas mn sq ft Source: EDMUND TIE Research Figure 11: Retail development pipeline Supply pipeline Based on EDMUND TIE Research, around  708,000 sq ft of NLA (or 202,000 sq ft   per annum) is expected to be completed  islandwide from 3Q 2020 to 2023. This is  much lower than the three-year annual  average supply of 1.0mn sq ft. Most of  the supply pipeline (43.0%) is expected to  complete by end-2021 (Figure 11). One of  the developments that will be completed in  2021 is i12 Katong mall.  Outlook Moving forward, we expect the retail  market to remain subdued and demand for  retail space will continue to slow. The retail  market may still be weak in Orchard/Scotts  Road due to the dearth of tourist arrivals.  Similarly, in the Other City Areas, the retail  market is impacted adversely as employees  are still working from home as a default. As  employees gradually return to their offices,  we expect retail sales in the CBD area to pick  up. However, retail in the Orchard/Scotts  Road subzone will remain weighed down due  to the restrictions on foreign visitors into the  country.  The Covid-19 pandemic will accelerate  transformation in the retail scene. With  the presence of more firms offering an  omnichannel approach, retailers will need  to ensure complementary online and offline  offerings. In addition, we also see greater  use of retail spaces being converted to office  use due to the slowing demand. 13 EDMUND TIE RESEARCH RESIDENTIAL Market commentary Key indicators * Based on 3Q 2020 Urban Redevelopment  Authority (URA) flash estimates, private  home prices continued to increase by  0.8% qoq, after 0.3% in 2Q 2020 (Table  10). This was driven by the landed  segment, which surged by 3.8% qoq after  staying constant in 2Q 2020. * Private non-landed property prices held  firm qoq in 3Q 2020 after a qoq growth  of 0.4% in 2Q 2020, with prices in the RCR  and OCR expanding by 3.3% and 1.7% qoq  respectively. On the other hand, prices in  the CCR declined by 4.9% qoq, a reversal  from the 2.7% growth in 2Q 2020.  * Housing loans value rose for the fourth  consecutive quarter by 9.7% yoy in 2Q  2020 (Figure 12). However, on a qoq  basis, housing loans fell by 5.0% amid the  economic gloom, job uncertainties and  prohibition of home viewings. * On 28 September 2020, URA prohibited  developers from re-issuing options to  purchase (OTP) to the same buyer of  the same unit within 12 months after  the expiry of the earlier OTP. Upfront  agreements to buyers to re-issue OTPs  were also prohibited. The move aimed to  improve the reliability of developer sales  figures and encourage financial prudence  in home purchases amid the current  economic uncertainties. Type/Market segment 2Q 2020 3Q 2020* qoq % chg All Residential property 152.6 153.8 0.8 Non-Landed property 148.7 148.7 0 CCR 134.6 128 -4.9 RCR 150 155 3.3 OCR 177.4 180.4 1.7 Landed property 170.3 176.8 3.8 Table 10: URA Private Residential Price Index Source: URA * 3Q 2020 private residential price index are based on URA flash estimates. 0 2,000 4,000 6,000 8,000 10,000 12,000 14,000 1Q 2015 1Q 2016 1Q 2017 1Q 2018 1Q 2019 1Q 2020 $ mn Source: Monetary Authority of Singapore Figure 12: New housing loans limits granted 14 EDMUND TIE RESEARCH * However, in the event that the purchasers may require  additional time to finalise the necessary arrangements  before exercising the OTP, either the purchaser or  developer can apply for the extension of the validity  period of the OTP up to 12 weeks from the OTP date,  provided that both parties are agreeable. *  New home sales volumes comprised the bulk of the  private residential market in 3Q 2020 following the  reopening of showflats and increase in new launches,  amounting to a total of 3,670 units. New sales  continued to increase for the fifth consecutive month in  September 2020, reaching 1,329 units, which was 5.6%  and 4.6% higher on a m-o-m and yoy basis respectively.  This could be driven by buyers seeking stable assets in  a low-interest rate environment amid volatile equity  markets and economic uncertainties, as well as having  more choices from the increased launches. * In 3Q 2020, there were six new launches (Table 11).  Two of the projects recorded take-up rates of above  60%, aided by their competitive pricing. The 50-unit  freehold project NoMa at District 14 saw 36 units sold,  with a take-up rate of 72%. Its one-bedroom units  were fully sold during the early bird preview sales  and 66% of the total units were sold. Prices at NoMa  ranged from $1,480 to $1,808 psf. Table 11: Private residential launches (excluding ECs) in 3Q 2020 Source: URA  Development Property type Developer Tenure Total units  in project No. of  units  launched No. of  units  sold Prices   $ psf CCR Mooi Residences Non-landed Wenul HL Freehold 24 24 3 2,535 - 2,669 RCR Forett at Bukit Timah Non-landed Qingjian Realty Freehold 633 300 236 1,647 - 2,120 Penrose Non-landed Hong Leong Holdings and CDL 99 yrs 566 566 341 1,396 - 1,856 Verdale Non-landed COLI Singapore and CSC Land 99 yrs 258 78 34 1,607 - 1,855 Myra Non-landed Selangor Dredging Berhad Freehold 85 85 15 2,016 - 2,273 NoMa Non-landed Macly Group Freehold 50 50 36 1,480 - 1,808 OCR Landed housing  development Landed Global Dragon Freehold 9 9 1 2,261  15 EDMUND TIE RESEARCH 0 20 40 60 80 100 2011 2012 2013 2014 2015 2016 2017 2018 2019 2020 1Q 2Q 3Q 4Q '000 units Source: URA Figure 14: Private home rental transactions (excluding ECs)  * Another new launch that saw a strong  reception was Penrose (District 14).  About 341 units of the total 566 units  (60.3%) were reportedly sold on its  launch weekend, a remarkable reception  given the current climate. As at end 3Q  2020, 389 units have been sold. One-and  two-bedroom units priced below $1mn  attracted many homebuyers. *  Resale volume more than tripled from  951 units in 2Q 2020 to 3,149 units in  3Q 2020. This was attributed to home  viewings being allowed once again.  Covid-related construction delays also  may have led homebuyers to consider the  resale market. * Despite the Hungry Ghost Festival, total  private homes sales volume in 3Q 2020  amounted to 6,819 units, a significant  growth from the 2,664 units in 2Q 2020,  and 18.3% higher than the 5,763 units a  year ago (Figure 13). * Despite the border closures, demand  from foreigners have improved. In 3Q  2020, foreigners purchased 225 private  residential properties, which was 89%  more than that in 2Q 2020 and even  exceeded the 216 units in 1Q 2020. * In the private residential leasing market,  total rental volumes rebounded to 26,462  transactions in 3Q 2020 after a qoq decline  in 2Q 2020 (Figure 14). Nevertheless, the  rental volumes were still 2.1% lower than  3Q 2019, amid pressures on the expatriate  employment market. With softening  leasing demand, rents are anticipated to  decline in 3Q 2020. 153.8 125 130 135 140 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Property Market Monitor    October 2020    Office    To manage cost pressures during the pandemic, more occupiers took the  opportunity to right size by releasing part or all of their space when their  leases expired in 3Q20.     This led to rising vacancies, which put downward pressure on rents in 3Q20,  for the third consecutive quarter.    Capital values, however, held steady in 3Q20 as Singapore's office market  continued to record interest from funds, developers and ultra-high net  worth individuals looking for investment opportunities in safe havens like  Singapore.     The protracted nature of the COVID-19 pandemic is expected to continue to  weigh on business sentiment and rents for the rest of 2020 and 2021.  Nonetheless, pockets of strength remain, such as Chinese technology  companies looking to expand and/or set up bases in Singapore. Delays in  project completions due to COVID-19 related disruptions to construction  work should also help to cushion rent corrections.   Residential    Prime home sales volume rebounded in 3Q20, supported by pent-up  demand from buyers who had been constrained from purchasing during  the circuit breaker period and phase 1 of the economy reopening.     The collective sales market remained at a standstill, with no collective sales  deal concluded in the Prime sub-market in 3Q20 for the third consecutive  quarter.      Despite significant pickup in market activities during the quarter, prices of  completed prime private residential properties continued to decline at a  faster pace due to cautious buying sentiment and more realistic pricing  from sellers amid the negative macroeconomic outlook. Likewise, there  was a greater correction in rentals in 3Q20 compared to 2Q20 as leasing  demand continued to be dampened by the recession and weak labour  market.     Rents are expected to continue facing downward pressure in the next 12  months due to weaker leasing demand, resulting from the worsening  business conditions affecting wages and employment of expatriates.      Key Economic Indicators  GDP Real Growth  (3Q20, y-o-y, advance estimates)  -7.0%  Consumer Price Index  (August 2020, y-o-y)  -0.4%  Total Trade (current prices)  (August 2020, y-o-y)  -6.9%  Index of Industrial Production  (August 2020, y-o-y)  13.7%  Retail Sales excl. motor vehicles  (Chain volume terms)  (August 2020, y-o-y)  -9.0%  Unemployment Rate (S.A.)  (August 2020)  3.4%  Total Population  Annual Growth   (June 2020)  -0.3%  Source: DOS    Major Property Transactions       |         3Q20  Office  Price  (SGD mil)  Robinson Point (100% interest)  500.0  ABI Plaza   200.0  Central Plaza (63.11% interest)*  135.7  Residential  Price  (SGD mil)  Bedok Point (redevelopment)**  108.0  Garlick Avenue GCB  93.0  17A Leedon Park GCB  73.0  Retail  Price  (SGD mil)  Tiong Bahru Plaza, White Sands,  Hougang Mall, Century Square  and Tampines 1   (63.11% interest)*  1,798.6  Northpoint City (South Wing)  (50% interest)  550.0  44/45/46 Amoy Street  21.3  Industrial  Price  (SGD mil)  7 Bulim Street  129.6  26A Ayer Rajah Crescent  125.0  Thye Hong Centre  112.5    *Through the sale of a 63.11% interest in AsiaRetail Fund.  **Price is based on assumption that the potential  redevelopment into a "Residential with Commercial on 1st  storey" development will be approved.    Source: JLL Research, October 2020          60,071  Current   prime stock  (units)    4.70  Gross   effective rent  (SGD psf pm NLA)    -1.3%  Rental   growth   (q-o-q)    2,872  Capital   value   (SGD psf NLA)    -1.8%  Capital   value growth   (q-o-q)    The capital value and rental value indicators are reflective of luxury residential properties     32.1  Current   stock               (sq ft million)    10.08  Gross   effective rent  (SGD psf pm NLA)    -3.8%  Rental   growth   (q-o-q)    2,982  Capital   value  (SGD psf NLA)    0.0%  Capital   value growth   (q-o-q)    All data are reflective of the CBD Investment Grade  submarket    Retail    In August 2020, the retail sales index (excluding motor vehicles) on a chain- by-volume basis fell 9.0% y-o-y, abating from the sharp double-digit  declines during the circuit breaker period. Tourist arrivals stayed dismal  due to strict travel restrictions.    Despite the economy reopening, retailer sentiment remained weak as  border restrictions, safe-distancing measures and cautious consumer  spending weighed on retail sales. Vacancy rates continue to rise as  unsustainable businesses cease operations. Consequently, rents for prime  floor space fell on a q-o-q basis across the three sub-markets in 3Q20.    Investment activity picked up in 3Q20, with shophouses contributing the  bulk of the transactions.    Retailer sentiment will remain subdued as tourism demand is not expected  to recover in the short-term, and continued safe-distancing measures will  reduce operational capacity. With government relief measures coming to  an end, some retailers are expected to succumb to the pressure of cash  flow constraints, pushing up vacancy rates in the short term. Rents are  expected to fall amid rising vacancy rates over the next 12 months.              Warehouse    Demand stayed healthy in 3Q20, supported by both short-term users (some  of whom have extended their leases) and end-users with expansion and  relocation requirements.    Against this demand backdrop, logistics/warehouse rents held firm in 3Q20,  for the second straight quarter. This, in turn, supported capital values,  which remained steady during the quarter.    A major warehouse transaction in 3Q20 was the sale 7 Bulim Street by Titan  (Wenya) Pte Ltd to AIMS APAC REIT for about SGD 129.6 million. The four- storey ramp-up logistics facility with a 30-year lease commencing from 1  September 2012 is entirely occupied by master tenant KWE - Kintetsu  World Express (S) Pte Ltd.    Rents are likely to hold relatively steady over the next 12 months,  underpinned by anticipated healthy demand, while yields could compress  in a low interest rate environment.        Authors  Tay Huey Ying  Head of Research &amp;  Consultancy  Singapore  Hueyying.tay@ap.jll.com    Doreen Goh  Director,   Industrial Research  Singapore  Doreen.goh@ap.jll.com    Michelle Tee  Director,   Office Research  Singapore  Michelle.tee@ap.jll.com    Kim Huynh  Assistant Manager,   Residential Research  Singapore  Kimngan.huynh@ap.jll.com    Edwin Yeo  Senior Analyst,   Retail Research  Singapore  Edwinyy.yeo@ap.jll.com      JLL Singapore  9 Raffles Place  #39-00 Republic Plaza  Singapore 048619  tel +65 6220 3888  fax +65 6438 3361  jll.com.sg          119.1  Current            stock                   (sq ft million)    1.35  Gross   effective rent  (SGD psf pm NLA)    0.0%  Rental   growth   (q-o-q)    jll.com.sg    CEA Licence No. L3007326E  (c) Copyright 2020 JLL. All rights reserved. This report has been prepared solely for inform ation purposes and does not necessa rily purport to be a complete analysis of the topics  discussed, which are inherently unpredictable. It has been based on sources we believe to be reliable, but we have not independently verified those sources and we do not guarantee   that the information in the report is accurate or complete. Any views expressed in the report reflect our judgment at this da te and are subject to change without notice. Statements  that are forward-looking involve known and unknown risks and uncertainties that may cause  future realities to be materially different from tho se implied by such forward-looking  statements. Advice we give to clients in particular situations m ay differ from the views expressed in this report. No investment or other business decisions should be  made based  solely on the views expressed in this report.   179  Capital   value  (SGD psf NLA)  0.0%  Capital   value growth   (q-o-q)  Bandits  5.1  Current   stock             (sq ft million)    41.37  Gross   effective rent     (SGD psf pm NLA)    -4.8%  Rental   growth   (q-o-q)    9,055  Capital   value   (SGD psf NLA)  -4.8%  Capital   value growth   (q-o-q)    All data are reflective of the Prime sub-submarket  All data are reflective of the islandwide market    # During Singapore's circuit breaker period, lasting from 7 April to 1 June 2020, all workplaces, except those offering essenti al services, had to be shut. The economy embarked on a three- phase re-opening from 2 June 2020.  Singapore is currently in Phase 2.  For most of 3Q20, telecommuting remained the default mode of work where feasible. The government further relaxed  its regulations from 28 September 2020 to allow more employees to return to their workplaces, although safe management measures must be in place and employers are encouraged to  implement measures such as flexible working hours and staggered reporting times. Employers must also ensure that such employees continue to work from home for at least half their  working time, and no more than half of such employees are at the workplace at any point in time. Work-related events of up to 50 people, depending on venue capacity, also resumed from  28 September 2020. Tourism-related businesses and activities resumed operations in stages from 1 July 2020.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">knightfrank.com.sg/research Singapore Research Industrial Q3 2020 " " With sustainable solutions and digital platforms becoming increasingly important and  critical for businesses to adopt, demand for industrial spaces that cater to such uses is  projected to expand in the short to medium term. INDUSTRIAL GROWTH IN  THE THIRD QUARTER LED  BY SPIKE IN ELECTRONICS TA N  B O O N  LE O N G ,  E XE CUTI VE  DI RE CTOR, I N DUSTRI AL , CAPITAL M ARKETS According to the Ministry of Trade and Industry's (MTI) Economic Survey of  Singapore, the economy shrunk by 13.2% year-on-year (y-o-y) in Q2 2020, a clear  deepening of the recession from the 0.3% decline in the previous quarter. The  contraction came as a result of the continued effects of the pandemic reverberating  across all industries, as nations temporarily shut their economies and borders, resulting  in weak external demand for goods. However in Q3, the industrial sector returned to growth led by the electronics  cluster. The Singapore Purchasing Managers' Index (PMI) reported expansions since  July, with September the most recent at 50.3. Optimism was lifted by the growth in the  electronics non-oil domestic exports (NODX) in Q3, and as such the Electronics Sector  PMI in September registered an expansion of 50.9. The recent expansions in Electronics  PMI in August and September follow six months of contraction from February to July.  The spike in demand for digital products and semiconductors largely attributed to  this growth. The anticipated growing requirements of the 5G network are expected to  continue to support the demand for chips worldwide.  Despite the looming uncertainties,  foreign companies are still looking  to  expand  their  operations  in  Singapore. The third quarter saw the  entry of several global firms, with Zoom  Video Communications opening a new  data centre in August and Hyundai  Motors announcing plans to occupy the  industrial space previously left vacant  by Dyson at Bulim Avenue. Given the nation's stability and  resilience in the face of external  headwinds, Singapore will continue  to be a favourable destination as  a hub for companies worldwide.  With sustainable solutions and digital  platforms  becoming  increasingly  important and critical for businesses  to adopt, demand for industrial spaces  that cater to such uses is projected to  expand in the short to medium term. Additionally, as more office users  restrategise their space requirements  with the rising trend of working from  home, business parks stand as one  of the alternative options for cost- conscious qualifying occupiers.  The median rent of multiple-user factory spaces island-wide decreased slightly  by 1.4% quarter-on-quarter (q-o-q) and 2.2% on a y-o-y basis to S$1.75 per-square- foot per month (psf pm) in the third quarter (Exhibit 1). Leasing volume for such  industrial space totalled 1,577 transactions in July and August, amounting to S$5.7  million, representing a decline of 34.4% y-o-y as the strong challenges faced during  the circuit breaker and economic uncertainties continued to subdue substantial  movements in the leasing market. Additionally, the greater availability of space options  in the multiple-user factory space segment is characterised by competition among  landlords for tenants where rents tend to be more volatile during times of recession. The average price of multiple-user factory space remained largely stable across  most tenure categories in Q3 2020. Prices of units within developments with less than  99 years left in the lease remained relatively flat as manufacturers were hesitant to  relocate or expand into newer factories at higher prices (Exhibit 2).  MARK E T  SNAPSH OT 2 ,016 TRANSACTIONS 17.0%     Q-O-Q | 27.0%     Y-O-Y NUMBER OF TENANCIES S $53 1.8 MILLION 67.0%     Q-O-Q | 23.5%     Y-O-Y TOTAL SALES VOLUME 53.7 MILLION SQ FT GFA UPCOMING NEW SUPPLY (Q3 2020 TO 2024) Visible growth seen in the industrial sector in Q3 Singapore remains an  attractive destination for  investors Market Outlook Median rents declined slightly in Q3 2020 Tan Boon Leong Executive Director Industrial Capital Markets +65 6228 6894 boonleong.tan@sg.knightfrank.com  We like questions, if you've got one about our research, or would like some property advice, we  would love to hear from you. Recent Publications INDUSTRIAL Q2 2020 Nor Adila Rahim Analyst Research +65 6228 7376   nor.adila@sg.knightfrank.com Leonard Tay Head Research +65 6228 6854 leonard.tay@sg.knightfrank.com Exhibit 2: Average Price of Multiple-User Factory Space by Balance  Tenure* $1,000 $900 $800 $700 $600 $500 $400 $300 $200 $100 $0   &lt;= 30 Years and below 31 to 60 Years 61 to 99 Years Freehold Above 99 Years Q1 Q2 Q3 Q4 2015 Q1 Q2 Q3 Q4 2016 Q1 Q2 Q3 Q4 2017 Q1 Q2 Q3 Q4 2018 Q1 Q2 Q3 Q4 2019 Q1 Q2 Q3** 2020 Price (S$ psf) Source: JTC J-Space, Knight Frank Research Note: The average unit price is based on a four-quarter moving average *The balance tenure is based on the number of remaining years at the point of transaction. **Q3 2020 data based on transactions downloaded as at 22 Sep 2020. (c) Knight Frank 2020 This report is published for general information only. Although high standards have been used in the  preparation of the information, analysis, views and projections presented in this report, no legal responsibility  can be accepted by Knight Frank Research or Knight Frank for any loss or damage resultant from the contents  of this document. As a general report, this material does not necessarily represent the view of Knight Frank  in relation to particular properties or projects. Reproduction of this report in whole or in part is allowed with  proper reference to Knight Frank Research. About Knight Frank Singapore Knight Frank LLP is the leading independent global property consultancy. Headquartered in London, Knight Frank has more than 19,000 people operating from 512 offices across 60 markets. The Group advises  clients ranging from individual owners and buyers to major developers, investors and corporate tenants. Knight Frank has a strong presence in Singapore with a head office and two subsidiaries: Knight Frank Property Asset Management and KF Property Network. For further information about the  Company, please visit www.knightfrank.com.sg. Knight Frank Research  Reports are available at knightfrank.com.sg/research Exhibit 1: Leasing Volume and Median Rent of Multiple-User Factory  Space 3,000 2,500 1,500 2,000 1,000 500 0 $1.70 $1.75 $1.80 $1.85 $1.90 $1.95 $2.00   Number of Tenancies Median Rent Q1 Q2 Q3 Q4 2015 Q1 Q2 Q3 Q4 2016 Q1 Q2 Q3 Q4 2017 Q1 Q2 Q3 Q4 2018 Q1 Q2 Q3 Q4 2019 Q1 Q2 Q3* 2020 Number of Leasing Transactions Rent (S$ psf pm) Source: JTC J-Space, Knight Frank Research Note: The median rent is based on a four-quarter moving average. *Q3 2020 data based on July and August 2020 data as at end-September. SINGAPORE VIEW 22ND EDITION As at end-June 2020, some 53.7  million sq ft gross floor area (GFA)  of industrial space is slated to come  on stream from Q3 2020 to 2024. Of  these, about 26.7% of the upcoming  developments are projected to be  completed in the remaining half of  2020, with the majority comprising  factory space. While  certain  segments  of  the  industrial sector have shown signs of  recovery in the third quarter, there  is still much prevailing uncertainty  that continues to threaten segments  such as the transport engineering  cluster. However, this will be mitigated  by the manufacturing segments such  as the electronics cluster as well as  companies that produce hygiene or  health-related products, which have  proven  resilient  in  propping  the  industrial sector. Overall, industrial  rents and prices are not expected to  moderate downwards by more than  5% for the whole of 2020 despite the  current recessionary environment.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 savills.com.sg/insight-and-opinion/ MARKET IN MINUTES Savills Research Industrial Industrial market to see uneven recovery  Savills plc Savills is a leading global real  estate service provider listed on  the London Stock Exchange. The  company established in 1855, has  a rich heritage with unrivalled  growth. It is a company that leads  rather than follows, and now has  over 600 offi   ces and associates  throughout the Americas, Europe,  Asia Pacifi  c, Africa and the Middle  East. This report is for general  informative purposes only. It may  not be published, reproduced or  quoted in part or in whole, nor may  it be used as a basis for any  contract, prospectus, agreement  or other document without prior  consent. Whilst every eff  ort has  been made to ensure its accuracy,  Savills accepts no liability  whatsoever for any direct or  consequential loss arising from its  use. The content is strictly  copyright and reproduction of the  whole or part of it in any form is  prohibited without written  permission from Savills Research. Simon Smith Senior Director Asia Pacifi  c +852 2842 4573 ssmith@savills.com.hk Alan Cheong Executive Director  Singapore +65 6415 3641 alan.cheong@savills.com.sg RESEARCH Industrial prices and rents remain under pressure as occupancy edges up  slightly in Q3. "  The plight of the ubiquitous  Small &amp; Medium Sized  Enterprises continues to drag  down the overall industrial  market." ALAN CHEONG, SAVILLS RESEARCH *   The leasing volume saw a substantial jump of 27.7% year-on- year (YoY) in Q3 as Singapore began Phase 2 of reopening its  economy. *   Savills average monthly rent for a multiple-user factory slipped  by 0.8% quarter-on-quarter (QoQ) to S$1.71 per sq ft, while  rents for warehouse &amp; logistics space reversed a short-lived  decline posting a 0.9% QoQ increase to S$1.42 per sq ft. *   Total strata sales volume more than doubled from Q2 to 372  deals in Q3, a reversal from the four-quarter decline seen since  Q3/2019. *   Owing to the scarcity of freehold industrial stock, especially in  prime locations, prices of freehold industrial prices edged up by  0.2% QoQ to S$694 per sq ft. *   Savills' basket of industrial properties showed that the  average price for a 60-year leasehold industrial unit fell  by 0.9% QoQ to S$425 per sq ft, while prices for 30-year  leasehold properties fell by 2.2% QoQ to S$301 per sq ft over  concerns about depleting lease terms. *   As most landlords of the prime business parks are holding their  asking rents at S$6 per sq ft up, the average monthly rent in  Savills basket of prime business park properties managed to  stay fl  at from the previous quarter at S$5.81 per sq ft. *   Savills basket of standard business park properties showed that  the average monthly rent weakened again for a second quarter,  albeit at a slower rate of 0.4% QoQ to S$4.05 per sq ft. *   Average monthly rent for Savills high-spec industrial basket  inched down marginally by 0.2% QoQ to S$3.47 per sq ft in  Q3. *   We forecast rents for multiple-user factories to fall 1% to  3% while warehouses will remain fl  at in 2020. For 2021, the  former may see rents move in a range of 0% to -3% YoY, but  the latter, due to strong demand to buff  er against potential  supply chain disruptions, could rise by 1% to 3% YoY. Christopher J Marriott CEO, Southeast Asia  +65 6415 3888 cjmarriott@savills.asia SINGAPORE Please contact  us for further  information Savills team MCI (P) No. 051/03/2020 Company Reg No. 198703410D Sharon Teo Managing Director Singapore +65 6415 3288 sharon.teo@savills.com.sg Singapore - November 2020 2 savills.com.sg/insight-and-opinion/ MACROECONOMIC OVERVIEW Following the phased reopening of the  economy in late-June, Singapore's economy  rebounded in Q3/2020 from the sharp  contraction in the previous quarter.  According to advance estimates from the  Ministry of Trade and Industry (MTI), the  economy expanded by 7.9% QoQ in Q3,  compared with a 13.2% QoQ contraction  during the lockdown in Q2. On a yearly basis,  the economic performance also improved to  -7.0% in Q3, easing from -13.3% in Q2. This  came on the back of a 2.0% YoY recovery  in the manufacturing sector, reversing  from the -0.8% YoY growth in Q2. This was  fuelled by the pick-up in global demand  for semiconductors and semiconductor  manufacturing equipment, which drove  the output of electronics and precision  engineering clusters. Following the sluggish performance of  the manufacturing sector in Q2, sentiment  turned positive in Q3. After fi  ve months  of negative readings since February, the  overall Purchasing Manager's Index (PMI)  is back in expansionary mode for three  consecutive months, suggesting a more  upbeat economic backdrop amid a gradual  reopening of the economy. This was coupled  with positive momentum in Singapore's  non-oil domestic exports (NODX), which  continued to expand through Q3, albeit at a  slower pace in September. RENTAL MARKET As Singapore began Phase 2 in its reopening  of the economy in June, leasing activity in  the industrial market picked up. There was  a sharp increase of 27.7% YoY in leasing  volume1 to 3,005 transactions in Q3, a record  since the data was constituted in 2000.  (Graph 1) This was largely lifted by a spike  in leases for multiple-user factory spaces  (+16.6% YoY), which hit a new all-time high  of 2,405 transactions in Q3. We believe  that this could be due to tenant relocation  amid enhancement works of their previous  premises, as well as downsizing plans as part  of cost-cutting measures. Also, some of the  leasing demand could have come from the  smaller ecommerce players, who needed  more space to manage the surge in last mile  delivery services.  Compared with the same quarter last  year, leasing demand for single-user  factory spaces continued to rise by 1.2%  in Q3, albeit at a slower pace than the  preceding quarter (+14.5% YoY). While  rental demand remained stable from last  year, more single-user factory tenants and  owners, who operate in multiple facilities,  started to consolidate their operations and  1   Based on JTC's rental data (excluding business park  spaces, only comprises single- and multiple-user factory as  well as warehouse spaces). put up vacant facilities for lease or sale.  Meanwhile, the warehouse segment saw a  4.0% QoQ dip in tenancies signed in Q3.  Even though stockpiling pushed demand for  warehouse space, warehouse leasing demand  began to moderate as some companies  in the performing industries, such as the  pharmaceutical and healthcare sectors, are  combining their operations into a single  build-to-suit (BTS) facility for greater  operational effi   ciency. Coupled with the  increase in volume of single-user factories  up for sale combined with softer price levels,  some companies are considering acquisition  of a single-user facility to house their  operations under one roof.  The overall industrial vacancy level eased  for two straight quarters in Q3, coming off    by 0.2 of a percentage point (ppt) QoQ to  10.4%. Besides limited new completions due  to delays in construction work during the  lockdown period, the occupancy level was  largely supported by the spike in storage  needs, particularly in North-East and North  Planning Region where warehouse vacancy  fell to the lowest levels since 2018 and 2016  respectively.  JTC's rental indices continued to weaken  across all segments in Q3 as pandemic-led  recession exerted downward pressure on  rental levels. According to Savills basket  of properties, the average monthly rent for  prime multiple-user factories2 slipped by  0.8% QoQ to S$1.71 per sq ft. On a positive  note, the warehouse and logistics3  segment  performed better in Q3, with Savills average  monthly rents for prime warehouse and  logistics properties reversing a short-lived  decline to register a 0.9% QoQ increase  to S$1.42 per sq ft. Even though JTC's  warehouse rental index continued to fall in  Q3, prime and modern warehouse facilities  helped to support the overall rental growth  in light of strong demand for storage and  logistics space.  SALES MARKET Total strata sales volume more than doubled  from Q2 to 372 in Q3, a reversal from a four- quarter decline which begun in Q3/2019. It  was mainly lifted by an uptick in strata sales  for multiple-user factory and warehouse  properties, such as Mega@Woodlands and  Oxley Bizhub. The demand could have come  from fi  rms, particularly in printing as well as  event organising, who are downsizing their  real estate footprint. Furthermore, some  companies in healthcare and the aquaculture  industry (i.e. frozen seafood) are also looking  2   Based on Savills basket of private multiple-user factory  properties which ranges from 1,000 sq ft to 3,000 sq ft in  size, with an average monthly asking rent of at least S$1.50  per sq ft. 3   Based on Savills basket of private multiple-user warehouse  properties which ranges from 2,000 sq ft to 80,000 sq ft in  size, with an average monthly asking rent of at least S$1.40  per sq ft. GRAPH 1: Factory And Warehouse Leasing Volumes,  2010 to Q3/2020 831  1,138  1,480  1,513  1,752  1,868  1,768  1,794  2,345  2,417  2,434  1,149  1,390  1,732  1,981  2,129  2,317  2,285  2,401  2,702  2,883  2,353  1,065  1,543  1,611  2,070  2,060  2,031  2,130  2,358  2,543  2,679  3,005  1,104  1,504  1,613  2,071  2,071  1,921  1,962  2,331  2,564  2,486  0 2,000 4,000 6,000 8,000 10,000 12,000 NO. OF TRANSACTIONS Q1 Q2 Q3 Q4 Source JTC, Savills Research &amp; Consultancy GRAPH 2: Prices Of Upper-Storey Strata Factory And  Warehouse Units, Q1/2014 to Q3/2020 694 425 301 250 300 350 400 450 500 550 600 650 700 750 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 2014 2015 2016 2017 2018 2019 2020 S$ PER SQ FT Freehold 60-year leasehold 30-year leasehold Source JTC, Savills Research &amp; Consultancy GRAPH 3: Business Park Space Vacancy Rates, Q1/2014 to Q3/2020 0 5 10 15 20 25 30 35 40 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 2014 2015 2016 2017 2018 2019 2020 % Islandwide Mapletree Business City &amp; Science Park International Business Park Changi Business Park Source JTC, Savills Research &amp; Consultancy Industrial 3 savills.com.sg/insight-and-opinion/ to acquire larger facilities to support their  business expansion as the pandemic has  benefi  tted them. Although there is a growing  buying interest among automotive players,  especially when there are more single-user  factories up for sale, most of them did not  translate to actual sales as the prospects are  still waiting for better off  ers before the lease  expiry of their current premises. While some owners maintained their  price expectations, particularly for freehold  assets, data from JTC showed that overall  industrial prices fell by 2.2% QoQ in Q3,  making it the largest decline in the last four  consecutive quarters. Similarly, Savills'  basket of leasehold industrial properties4 also continued to register declining prices in  Q3. Prices for 60-year leasehold properties  fell at a moderate pace of 0.9% QoQ to  S$425 per sq ft, while that for 30-year  leasehold properties fell by 2.2% QoQ to  S$301 per sq ft due to depleting lease terms.  As there is a scarcity of freehold industrial  stock available currently, especially in prime  locations, freehold industrial prices held  fi  rm, recording a marginal rise of 0.2% QoQ  to S$694 per sq ft. BUSINESS PARKS AND HIGH-SPEC  INDUSTRIAL Having stayed in the negative for the fi  rst two  quarters, the business park segment regained  strength in Q3, with net demand improving  across all regions. As a result, islandwide  vacancy eased by 0.2 of a ppt QoQ to 14.6%  in the reviewed quarter. (Graph 3) This could  have arisen from fi  nancial institutions taking  up new business park space for their back-end  operations while reducing their offi   ce space  in the Central Business District. Nonetheless,  landlords' pricing power was lower with the  JTC rental index for business park dropping  yet again by 1.0% QoQ in Q3. This is likely  to be weighed down by the older business  parks which saw a further softening of rents.  Concurrently, Savills basket of standard  business park properties5 showed that the  average monthly rent weakened again for a  second quarter, albeit at a slower rate of 0.4%  QoQ to S$4.05 per sq ft. As most landlords of  prime business park space maintained their  monthly rental expectations of at least S$6  per sq ft, the average monthly rent in Savills  basket of prime business park properties6 remained fl  at from the previous quarter at  S$5.81 per sq ft. Although the on-going relocation plans  by some existing offi   ce users could lend  some support to the high-spec industrial  4   Only include upper-storey strata-titled factory  (single- and multiple-user factory) and warehouse units,  excluding all ground fl  oor units. 5   Based on business park-zoned spaces in the older clusters  which range from 1,000 sq ft to 5,000 sq ft in size, with an  average monthly asking rent of at least S$3.50 per sq ft. 6   Based on business park-zoned spaces in the newer clusters  which range from 1,000 sq ft to 5,000 sq ft in size, with an  average monthly asking rent of at least S$5.50 per sq ft. market, rents continued to face pressure  as prospects are only enticed if the rental  savings are signifi  cant after factoring  in relocation costs. Meanwhile, it is also  challenging for landlords to increase rents  for renewals as some existing high-spec  industrial users are considering relocating  to other light industrial space if capable of  projecting a good corporate image, with  offi   ce-like specifi  cations and in areas with  good connectivity such as Paya Lebar. As  such, the average monthly rent for Savills  high-spec industrial basket7 inched down  marginally by 0.2% QoQ to S$3.47 per sq ft  in Q3. OUTLOOK Come spring 2021, as economic and social  activity gradually resumes in advanced  economies after the winter lockdown  measures, overall economic conditions  should begin to improve. For 2020, the  International Monetary Fund (IMF)  expected a less severe global economic  downturn (-4.4%) this year in its latest  report than the previous forecast in June.  Nonetheless, the slower than expected  reopening and the reinstatement of another  shutdown amid a resurgence in virus in some  countries could motivate the IMF to lower  their growth expectations this year. The  Monetary Authority of Singapore (MAS)  also expected a modest pace of economic  recovery in Singapore for the coming  quarters in the face of a potential resurgence  in worldwide infections which will drag on  external demand. While MAS forecast a more  modest pace of economic momentum in  the last quarter of the year, the government  maintained its economic forecast for between  -7.0% and -5.0% YoY for this year. The  consensus amongst private sector economists  has GDP contracting by 6.0% YoY in 2020.  Local economists are now veering towards  a U-shaped recovery scenario for Singapore  with 2021 GDP growth coming in at 5.4%  YoY. This is reasonable as the lockdown in  Q2/2020 followed by a phased opening of the  economy thereafter has stymied domestic  economic activity greatly. Therefore, as the  economy opens further, GDP growth should  signifi  cantly increase in 2021 given the low  base this year. The sharp contraction in the  Construction and Services sector (part of  the Services sector which constituted 65%  of 2019's GDP) is very likely to reverse with  similarly sharp increases albeit we may not  see a return to pre-COVID levels in 2021.  (Graph 4) Drilling down to the manufacturing  sector, it has been performing surprisingly  well with Q3/2020 GDP Manufacturing  7   Based on offi   ce-like industrial space which ranges from  2,000 sq ft to 4,000 sq ft in size, with an average monthly  asking rent of at least S$3 per sq ft. GRAPH 4: Singapore GDP Historic And Forecast, 2011 to 2025F 6.3 4.5 4.8 3.9 3.0 3.2 4.3 3.4 0.7 -6.0 5.4 3.1 2.8 2.7 2.5 -8.0 -6.0 -4.0 -2.0 0.0 2.0 4.0 6.0 8.0 % Source FocusEconomics GRAPH 5: Overall And Manufacturing GDP YoY  Growth, 2015 to 2025F -8.0 -6.0 -4.0 -2.0 0.0 2.0 4.0 6.0 8.0 10.0 12.0 Economic Growth (GDP, ann. var. %) Manufacturing (ann. var. %) % Source Singstat, UOB, FocusEconomics Manufacturing's  surprising performance Industrial 4 savills.com.sg/insight-and-opinion/ posting a 2.0% YoY growth. Notwithstanding  negative GDP growth, which came mainly from  the Construction and Business &amp; Services sector,  the Manufacturing sector did surprisingly well  with a 5.7% YoY growth for the fi  rst three quarters  of 2020. For the full year, manufacturing growth  could come in at 5.6% YoY. The sub-sectors which  contributed to the sharp increase were from  biomedical, pharmaceutical, semiconductor and  the electronics manufacturing. (Graph 5) The stellar performance of some sub-sectors  within the manufacturing sector has dampened  the pricing and rental downside. In fact, on the  logistics front, most warehouses here are fi  lled  to capacity and some spillover demand has  been seen in traditional light industrial space.  Consequently, activity levels in this real estate  market have held up well. Looking ahead, despite growing interest in  the industrial sales market from businesses  in booming industries such as healthcare and  aquaculture, the conversion rate to actual sales is  likely to remain subdued because of the gap which  exists between buyer and seller expectations.  On the rental front, although the leasing market  is expected to stay active in the coming months,  it is coming from more businesses seeking to  consolidate and reduce space as part of their  PERIOD YoY % CHANGE IN MULTIPLE-USER  FACTORY RENTS YoY % CHANGE IN WAREHOUSE &amp;  LOGISTICS RENTS 2020F -3.0% to -1.0% 0.0% 2021F -3.0% to 0.0% +1.0% to 3.0% TABLE 1: Rental Forecast For Multiple-User Factory And Warehouse &amp; Logistics Segments Source Savills Research &amp; Consultancy cost-saving plans. Even though further delays  in projected completions are expected, overall  occupancy levels are likely to remain depressed  in the near term. Industrial prices and rents will  continue to be negatively impacted by Small &amp;  Medium Sized Enterprises as the pandemic has  hit them hardest. Although there is increasing  consensus that the economic recovery could be  U-shaped, the economy is unlikely to return to  pre-COVID levels soon. While the more resilient  segments, including business parks, high-spec  industrial and logistics space, could possibly fi  nd  some support to occupancy and rental levels, the  recovery has not been even across all segments.  For tenants in such premises, most will rather pay  a premium for better-maintained properties in  prime locations with better connectivity, hence  sustaining the positive take-up and rents of prime  properties. On the other hand, older properties  in the outskirts are expected to continue to see  softer demand and weaker rents. In the coming  quarters, the exception to the general industrial  and business space market is logistics where we  are beginning to see warehousing rents starting to  stabilise and even rise marginally in some cases.  Table 1 is a summary of our view on rents for  multiple-user factory and warehouse space for  2020 and 2021. Industrial </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore's industrial property  market was relatively resilient in  H1 2020 amid the global  COVID-19 pandemic. Factory  rents decreased 1.4% while  warehouse rents were flat. Overall occupancy since Dec 2019  improved 0.2 pps to 89.4%, as  more warehouse space was  leased with companies stockpiling  and increased ecommerce  activities in H1. Rising demand for  web-enabled services during  lockdowns has also driven  demand for data centres. We expect general factory space  to remain weak with the  recession but demand for  business park and high-spec  spaces should be supported by  the thriving technology sector. We recommend landlords  remodel to higher  specifications while being more  flexible in lease negotiations. Insights &amp; Recommendations Tricia Song Director and Head | Research |  Singapore +65 6531 8536 tricia.song@colliers.com COLLIERS SEMI-ANNUAL INDUSTRIAL  |  SINGAPORE  |  RESEARCH  |  H1 2020 |  20 AUGUST 2020 Source: Colliers International. Note: USD1 to SGD1.3932 at the end of H1 2020. 1 sq m = 10.7639 sq ft. "pp" refers to percentage point. *On a net lettable area basis. #Rental values refer to warehouse-logistics rents. **Yields refer to industrial properties with 30-year land leases. &gt; In 2020, we expect decreasing factory space  demand but growing demand for warehouse  space. We forecast annual industrial space  absorption in 2020-2024 to be 10.1 mil sq ft,  11% below the 10-year historical average. &gt; We estimate half of the 15.4 million sq ft of  new supply expected in 2020 could be  deferred due to construction delays. Annual  new supply in 2020-2024 of 9.8 million sq ft  is 29% below the 10-year historical average. &gt; We forecast warehouse-logistics rent to  stabilise in 2020 before recovering from  2021 on sustained demand. General factory,  business parks and high-spec spaces should  soften in 2020 before a recovery from 2021. &gt; We expect overall industrial vacancy rates to  edge up in 2020 as demand lags net supply.  Vacancy could improve from 2022 onwards  as supply tapers off. &gt; We expect overall industrial capital values to  remain stable, possibly rising for prime data  centres and logistics properties, due to rising  demand. Yields should remain stable at 6.0%  for 30-year leasehold properties. SGD1.23 # SGD1.23 # 0% 0% 10.6% 12.2% -0.2pp +0.2pp Full Year 2020 YOY /  End 2020 8.6mn sq ft * 15.4mn sq ft * 6.0% 0pp SGD1.28 # +0.8% 9.6% -0.2pp 2020-24 Annual Average Annual Average  Growth 2020-24 / End 2024 10.1mn sq ft * 9.8mn sq ft * 6.0% 0pp H1 2020 HOH /  End H1 3.8mn sq ft * 3.2mn sq ft * 6.0% 0pp Demand Supply Rent (psf pm) Vacancy Capital  Values/ Yields ** NEW ECONOMY SECTORS GAINING GROUND  Logistics warehouses, data centres and business parks are bright spots 2 COLLIERS SEMI-ANNUAL INDUSTRIAL  |  SINGAPORE  |  RESEARCH  |  H1 2020 |  20 AUGUST 2020 0% 5% 10% 15% 0 5 10 15 20 25200920102011201220132014201520162017201820192020F2021F2022F2023F2024F Vacancy Rate Net floor area (mil sq feet) Net New Supply Net New Demand Vacancy Rate (RHS) Singapore's industrial market showed resilience... According to Ministry of Trade and Industry (MTI) in Q2 2020 Singapore's  economy shrank by 13.2% YOY and 42.9% QOQ (seasonally adjusted  annualized), the worst quarter on record. The manufacturing and  Information &amp; Communications (Infocomm) sectors were among the most  resilient, having contracted only 0.7% and 0.5% YOY respectively.  Manufacturing has been and will likely continue to be supported by the  biomedical, electronics and precision engineering clusters,  while the  Infocomm sector will benefit from firms' continued demand for IT and  digital solutions. Based on Colliers' data, as of June 2020, average monthly factory gross rent  fell by 1.4% HOH to SGD1.65 (USD1.18) per sq foot. Business park rents  decreased by 0.4% HOH to SGD4.35 (USD3.13) per sq foot while  independent high-spec industrial buildings saw monthly rents also falling  0.3% HOH to SGD2.93 (USD2.10) per sq foot, as COVID-19 dampened  business sentiment and leasing activities. With increased demand soaking  up excess vacant space, warehouse-logistics' average monthly gross rent flat  stayed flat HOH at SGD1.23 (USD0.88) per sq foot.  Based on data from JTC, all-industrial occupancy increased by 0.2 ppt HOH  to 89.4% as of June 2020, as more warehouse space was leased for  stockpiling and ecommerce activities during the pandemic. While we  estimate half of the 15.4 million sq ft expected completions in 2020 could be  delayed (due to COVID-19 lockdowns) and thus alleviate fears of a supply  glut, the supply pipeline remains ample at about 14 million sq feet (1.3  million sq meters) per annum 2020-2022, before tapering off in 2023. We  estimate 84% of the H2 2020-2024 supply is factory space, while the  remaining 16% is warehouse space. ...but will still be under pressure While warehouses have benefited from increased ecommerce and  stockpiling during COVID-19, we note that there is still ample available stock.  As vacancy continues to improve below its current 11.7% level, we expect  warehouse rents to stabillise in 2020 and pick up from 2021 onwards, led by  ramp-up logistics space. We expect general factory rents could fall 3% in  2020, while business parks and hi-specs space could edge down 1% in 2020,  as industrialists pause expansion plans and recalibrate or pivot their space  requirements in view of the weak trade and economic conditions. All-industrial new supply, new demand &amp; vacancy rate Source: Colliers  International, JTC (as of  30 June 2020).  *Independent High-Spec  refer to top quality  modern multi-level,  multi-tenanted space  that includes the latest  or recent generation of  building services,  prestigious lobby finish  and good views, located  outside of science parks  and business parks. **  Warehouse-Logistics  rents refer to average of  ramp-up and cargo lift  warehouses rents. Average monthly gross rents by type (SGD per sq foot, H2 2019 and  H1 2020, HOH change) 15.4 14.10 12.3 4.90 2.16 0 10 20 2020F 2021F 2022F 2023F 2024F Estimated net floor  area (mil sq feet) Multiple-user Factory Single-user Factory Business Park Warehouse Upcoming new supply by type Business Park Independent  High-Spec* Factory Warehouse  Logistics**  4.37 4.35 2.94 2.93 1.67 1.65 1.23 1.23 (0%) (-0.4%) (-1.4%) (-0.3%) 3 COLLIERS SEMI-ANNUAL INDUSTRIAL  |  SINGAPORE  |  RESEARCH  |  H1 2020 |  20 AUGUST 2020 WEST NORTH CENTRAL EAST NORTH-EAST 84.6 80.3 98.8 92.2 76.7 75 80 85 90 95 100 105 110 2014 2015 2016 2017 2018 2019 Price Index (Q4 2012 = 100) &lt;= 30 Years 31 - 60 Years &gt; 60 Years Business 1 Business 2 Source: Colliers International, JTC (as of 30 June 2020) Note: Figures on the map refer to existing stock and vacancy rate across all industrial property types in each region.  TOP = temporary occupation permit. All information is available in the public domain. Stock and vacancy by planning regions, Jun 2020, along with select recent completions and future supply JTC Defu Industrial City Est. TOP 2020 | 3.51 mil sq ft GFA | Defu South Street 1 | Developer: JTC Price index of multiple-user factory by zoning and remaining tenure Source: Colliers International, JTC (as of 30 June 2020). Note: Business 1 (B1) zoning is intended for light and  clean use. Business 2 (B2) zoning may be used for heavy industries that have a greater environmental impact. Legend  Major developments completed in H1 2020 Major developments in the pipeline JTC Bedok Food City TOP Q2 2020 | 1.1 mil sq ft GFA | 1550 Bedok North Avenue 4 | Developer: JTC Corporation Single-user factory development Est. TOP 2021 | 1.84 mil sq ft GFA | Sunview Way | Developer:  Malkoha Pte Ltd Bulim Square Est. TOP 2022 | 1.72 mil sq ft GFA | Bulim Lane 1/2 | Developer: JTC Capital values declined 1.6% in H1 2020 According to JTC, the price index of overall industrial space in H1 2020  decreased by 1.6% HOH and 1.7% YOY, reflecting mainly the weaker factory  rents. In H1 2020, the number of strata-titled factory units transacted fell  41% HOH and 48% YOY to 316, while that for warehouse units fell 58% HOH  and 71% YOY to 11. Median prices per sq foot were SGD347 (USD249) for  factories, -8.4% HOH and -16.2% YOY, and SGD568 (USD408) for  warehouses, +0.2% HOH and 10.1% YOY, reflecting a relatively stronger  outlook for warehouses.  Anecdotally, we are seeing more interest from property funds and REITs for  industrial assets, in particular, logistics warehouses and hi-specs space such  as data centres. According to Colliers International's Asia Cap Rate Report,  net yields for Singapore industrial/logistics properties remained stable in H1  2020, at 5.75-6.25%.  Business park development Est. TOP 2023 | 2.39 mil sq ft GFA | Punggol Way | Developer: JTC Single-user industrial development TOP Q1 2020 | Total: 539,920 sq ft GFA|  65% factory/ 35% warehouse |  5 Tuas Avenue 5 | Developer: Hup Hin Property (S) Pte Ltd 255 million sq ft 11.1% vacancy 36.8 million sq ft 10.4% vacancy 77.6 million sq ft 8.7% vacancy 92.2 million sq ft 11.6% vacancy 75.4 million sq ft 9.8% vacancy About Colliers International Colliers International (NASDAQ, TSX: CIGI) is a leading real estate professional services and investment management company. With operations in 68 countries, our more than 15,000 enterprising professionals work collaboratively to provide expert advice and services to maximize the value of property for real estate occupiers, owners and investors. For more than 25 years, our experienced leadership, owning approximately 40% of our equity, has delivered compound annual investment returns of almost 20% for shareholders. In 2019, corporate revenues were more than $3.0 billion ($3.5 billion including affiliates), with $33 billion of assets under management in our investment management segment. Learn more about how we accelerate success at corporate.colliers.com, Twitter or LinkedIn Copyright (c) 2020 Colliers International The information contained herein has been obtained from sources deemed reliable. While every reasonable effort has been made to ensure its accuracy, we cannot guarantee it. No responsibility is assumed for any inaccuracies. Readers are encouraged to consult their professional advisors prior to acting on any of the material contained in this report. Primary Author: Tricia Song Director and Head | Research | Singapore +65 6531 8536 tricia.song@colliers.com For further information, please contact: Rick Thomas Executive Director and Head | Occupier Services | Singapore +65 6531 8592  rick.thomas@colliers.com Dominic Peters Senior Director and Head | Industrial Services | Singapore +65 6531 8642 dominic.peters@colliers.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARKETVIEW Unprecedented  Times Quick Stats Investment* Q2 20 q-o-q y-o-y Total volume $2.129 bn   Office Q2 20 q-o-q y-o-y Grade A rent $11.15   Capital value $2,950   Net yield** 3.6%   Business Park Q2 20 q-o-q y-o-y Rent (City Fringe) $5.85   Retail Q2 20 q-o-q y-o-y Prime rent (Orchard) $31.05   Capital value $6,400   Net yield 5.0%   Residential Q2 20 q-o-q y-o-y Prime rent $4.24   Capital value $1,667   Net yield 2.4%   Industrial*** Q2 20 q-o-q y-o-y Rent $1.17   Capital value $256   Net yield 3.5%   Source: CBRE Research, Q2 2020 All capital values and yields stated as prime. Rents are quoted on a $  psf per month basis and capital values on a $ psf basis. *Investment volumes are preliminary. All transactions above S$10  mil **Yield calculation methodology revised based on an average of  rolling eight quarter rents. ***Upper floor and 60-year leasehold factory data provided.  Singapore, Q2 2020 CAPITAL MARKETSOn the back of the COVID-19 fallout, real estate investment volume in Singapore for Q2 2020 came to S$2.129 bn, a 23.2% drop from the previous quarter.  OFFICEThe impact of COVID-19 weighed heavily on Singapore's economy. Across an array of industries, businesses are tightening their belts and cost containment continued to be a key focus.  BUSINESS PARKSAmid the ongoing economic uncertainties, the business park market displayed signs of resilience. The value proposition of business parks for occupiers still remains.  RETAILLeasing volume slowed down significantly in Q2 2020, negatively impacting new to market and  expansion activities. The number of closures escalated in Q2 2020, mainly confined to the F&amp;B and entertainment sectors. RESIDENTIALQ2 2020 saw the months of April and May undergone a "circuit breaker" period where no showflats were allowed to open, contributing to a lower showing for the quarter. INDUSTRIALLeasing activity picked up towards the end of the quarter especially for prime logistics, which lent support to overall warehouse rents. Meanwhile, the factory market remains two-tier, with market conditions continuing to weigh on rents. Q2 2020  CBRE Research (c) CBRE Ltd. 2020 | 13M Interbank 0.6% JunRetail Sales Index** Y-o-Y -46.9% MayCPI Inflation Y-o-Y -0.8% MayPMI 48.0 JunGDP* Y-o-Y -12.6% Q2 20 Arrows indicate change from previous period *Advance estimates  **excludes sale of motor vehicles. MARKETVIEW COVID-19 Updates Q2 2020 CBRE Research (c) CBRE Ltd. 2020 | 2 Rental support for  eligible SMEs More lifelines and  extended timelines *The government will give about one to two months' relief of the rental costs of SME tenants -approx. two months of rent for qualifying commercial properties and approx. one month of rent for industrial and office properties. *Eligible SMEs will receive an additional two months' waiver of base rental for qualifying commercial properties. Industrial and office properties will receive an additional month's waiver of base rental.  *Tenants can serve a notification of relief on the landlord if they are unable to vacate business premises due to COVID-19. *Cap on late payment interest of charges for specific contracts. *Landlords are permitted to defer both principal and interest loan payments on current commercial and industrial property loans. *More flexibility extended to S-REITs to help further extend their timelines to distribute their taxable income. *Loan covenant breaches will not be automatically enforced and large corporates and S-REIT landlords can request payment deferrals. *Project completion period for residential, commercial and industrial projects have been extended. *Up to 500 projects could benefit from a six months extension for completion and sale of housing units. *Banks and finance companies to allow deferments for principal repayments or both principal and interest payments of qualifying mortgages. *Homebuyers get six months to review new purchases instead of the usual eight weeks for the completion of a sale. COVID-19 (Temporary Measures) (Amendment) Act 2020 Loan and  cashflow support A Timeline of Events in 2020 MARKETVIEWOn the back of the COVID-19 fallout, real estate investment volume in Singapore for Q2 2020 came to S$2.129 bn, a 23.2% drop from the previous quarter. This marks the third consecutive quarter of decline in investment volume.The office sector was the outperformer, coming in at 61.9% of investment sales. Two major deals propped up office volume: the sale of a 30% stake in 111 Somerset and a 50% stake of AXA Tower.On the other hand, residential sales dropped 80.4% q-o-q, due to viewing restrictions and the absence of government land sales activity. Retail investment sales have also been affected, with deals initiated before the outbreak.Despite the absence of public land sales, industrial volume remained robust with several sales to end-users, a sale and leaseback deal, as well as a warehouse purchase by DWS.Prices have declined slightly due to the poor outlook in rents and occupancy. However, there is still no distress selling due to the limited supply of prime assets and holding power of landlords/asset owners. With gaps in buyer-seller price expectations widening, some deals have fallen through. Nevertheless, there is a general acceptance that distress sales are unlikely, especially in the office sector where prime stock remains limited. Foreign investment volume increased from the last quarter due to the two mentioned office transactions. However, market activity this quarter was muted attributed mostly to the movement and travel restrictions put in place.Nonetheless, the lifting of these restrictions is likely to unleash some pent-up demand: deal volume is expected to pick up with foreign high net-worth individuals and family offices looking at strata offices. In addition, there are also a handful of commercial assets with redevelopment potential on sale offered at palatable prices that may be concluded.Shophouses, together with the hospitality and retail sectors will remain the hardest hit, with banks increasingly reluctant to finance these assets. The gradual relaxation of travel restrictions and pace of tourism market recovery will be key as investors become more selective. Q2 2020 CBRE Research (c) CBRE Ltd. 2020  | SINGAPORE CAPITAL MARKETS $0 $5 $10 $15 $20 $25 $30 $35 $40 $45 $0 $2 $4 $6 $8 $10 $12 Q2 18 Q3 18 Q4 18 Q1 19 Q2 19 Q3 19 Q4 19 Q1 20 Q2 20 S$ bn S$ bn Private Public 4-quarter Rolling Total (RHS) 70 75 80 85 90 95 100 105 110 115 Q2 15 Q4 15 Q2 16 Q4 16 Q2 17 Q4 17 Q2 18 Q4 18 Q2 19 Q4 19 Q2 20 Q4 2014 = 100 Grade A Office Prime Retail Islandwide Factory Leasehold Prime Residential Chart 1: Total Transaction Value Chart 2: Capital Values Index Source: CBRE Research, Q2 2020 Source: CBRE Research, Q2 2020 Source: CBRE Research, Q2 2020 Note: Investment property transactions are property deals priced above S$10 million and include sales of building and development sites as well as ownership changes of assets. The 4-quarter Rolling Total (4QRT ) generally  smoothens out short-term quarterly fluctuations and highlights longer-term trends or cycles. Table 1: Major Private Investment Transactions Sector Property Price ($) Buyer  Office AXA Tower (50%) 840.00 mil Alibaba Group Retail/Office 30 Raffles Place (Strata Units) 315.00 mil Olayan Group Industrial 2 Tanjong Penjuru Crescent 108.00 mil Heap Seng Group 3 MARKETVIEWThe impact of COVID-19 weighed heavily on Singapore's economy; Q2 2020 GDP contracted by 12.6% y-o-y based on MTI's advance estimates, company cessations rose 7.3% y-o-y in Q2 2020, while total employment fell by 25,600 in Q1 2020. Across an array of industries, businesses are tightening their belts and cost containment continued to be a key focus. As a result, more firms are pushing to downsize their current footprint, either through renewals or relocations. Notwithstanding, there were some signs of leasing activity from the insurance and technology sectors. In Q2 2020, islandwidenet absorption was  -293,040 sq. ft., which was adjusted to account for the removal of Keppel Towersand Keppel Towers 2. At the same time, two buildings obtained TOP in Q2 2020, which were 79 Robinson Roadand a strata-titled building, CentriumSquare. After the completion of these buildings, new office supply will be limited for the rest of 2020, with only Afro-Asia i-Mark and St James Power Station in the pipeline.Vacancy rates in the Core CBD and Decentralised submarkets increased q-o-q. This led to an increase in islandwidevacancy from 5.0% in Q1 2020 to 5.6% in Q2 2020. It should be noted that the increase in Core CBD vacancy stemmed from the transitional vacancy in 21 Collyer Quaywhich is undergoing asset enhancement initiative works, and the available space resulting from the completion of 79 Robinson Road. In Q2 2020, office rents corrected for the second consecutive quarter. Grade A (Core CBD) office rents fell 3.0% q-o-q to $11.15 psf/month. Grade B (Core CBD) office rents declined by 2.3% q-o-q to $8.45 psf/month which suggests some resilience in this submarket. Looking forward, vacancy levels are likely to rise; there is a growing volume of secondary space that resulted from the relocations of major occupiers. Coupled with subdued demand,  further downward pressure on rents is expected in the second half of 2020.  (c) CBRE Ltd. 2020  | 4 Chart 3: Office Supply-Demand Dynamics 0% 2% 4% 6% 8% -0.5 0.0 0.5 1.0 1.5 Q2 15 Q4 15 Q2 16 Q4 16 Q2 17 Q4 17 Q2 18 Q4 18 Q2 19 Q4 19 Q2 20 mil sq. ft. Net Supply Net Absorption Vacancy rate (RHA) Source:  CBRE Research, Q2 2020 Table 2: Office Vacancy Rates Source:  CBRE Research, Q2 2020 Chart 4: Office Rental Index 100 120 140 160 180 200 220 Q2 15 Q4 15 Q2 16 Q4 16 Q2 17 Q4 17 Q2 18 Q4 18 Q2 19 Q4 19 Q2 20 Q4 2005 = 100 Singapore (Grade A Core CBD) Asia Pacific Source:  CBRE Research, Q2 2020 Table 3: Singapore Office Rents Q2 20 Q-o-q Y-o-y Islandwide 5.6% 61 bps 80 bps Core CBD 5.6% 98 bps 139 bps Fringe CBD 5.6% -3 bps 83 bps Decentralised 5.4% 54 bps -49 bps Grade A (Core CBD) 2.9% 51 bps -103 bps Q2 20 Q-o-q Y-o-y Grade A CBD Core $11.15 -3.0% -1.3% Grade B CBD Core $8.45 -2.3% -1.7% Grade B Islandwide $7.85 -1.9% -1.3% Source:  CBRE Research, Q2 2020 SINGAPORE OFFICE Q2 2020 CBRE Research MARKETVIEWIn the absence of business park completions, islandwidebusiness park stock stayed at 19.36 mil sq. ft. in Q2 2020. At the same time, occupier activity was rather limited, mainly stemming from technology firms absorbing space in the City Fringe submarket. This resulted in a furthering tightening of vacancy in the City Fringe submarket which offset the increase in vacancy in the Rest of Island submarket. Consequently, business park vacancy remained at 13.1% in Q2 2020. Amid the ongoing economic uncertainties, the business park market displayed signs of resilience. The value proposition of business parks for occupiers still remains, with their efficient floorplates and cost competitive alternative to offices. Rents for City Fringe and Rest of Island business parks maintained at $5.85psf/month and $3.75psf/month respectively this quarter.CBRE Research's analysis indicates that there is currently 2.37 mil sf of business park space in the pipeline; 55.0% is pre-committed. Evidently business park products in the Rest of Island submarket are evolving, with most of the upcoming space available for lease located in Jurong Innovation District. Furthermore, the repositioning plans of International Business Park will contribute to this transformation, supported by new MRT infrastructure which will boost accessibility to this location. Business park rents are expected to display some form of resilience. The tight supply is expected to lend support to rents in the City Fringe submarket. This is due to the appeal of the business park sector as a lower cost alternative and the resilience of its pool of qualifying tenants. Despite occupiers exhibiting stronger preferences for newer business parks in the City Fringe submarket, the tight vacancy in this submarket may prompt occupiers to turn to the Rest of Island business parks. In particular, cost-conscious occupiers looking to trim costs and seek a decentralised location.  Q2 2020 CBRE Research (c) CBRE Ltd. 2020  | 5 SINGAPORE BUSINESS PARKS Chart 6: Business Park Vacancy by Submarkets Source:  CBRE Research, Q2 2020 Table 4: Business Park Rents Source:  CBRE Research, Q2 2020 Table 5: Known Business Park Future Pipeline (in sq.ft.) Source:  CBRE Research, Q2 2020 Q2 20 Q-o-q Y-o-y City Fringe $5.85 0.0% 0.9% Rest of Island $3.75 0.0% -1.3% Chart 5: Business Park Supply-Demand Dynamics Source:  CBRE Research, Q2 2020 0% 5% 10% 15% 20% -0.2 0.0 0.2 0.4 0.6 0.8 1.0 1.2 Q2 15 Q4 15 Q2 16 Q4 16 Q2 17 Q4 17 Q2 18 Q4 18 Q2 19 Q4 19 Q2 20 Net Supply Net Absorption Vacancy Rate (RHA) NLA (mil sq. ft.) Q2 15 Q4 15 Q2 16 Q4 16 Q2 17 Q4 17 Q2 18 Q4 18 Q2 19 Q4 19 Q2 20 0% 5% 10% 15% 20% Rest of Island City Fringe Vacancy City Fringe Rest of Island Total 2H 2020 0.17 mil 1.07 mil 1.24 mil 2021 0.36 mil 0.36 mil 0.72 mil 2022 0.20 mil 0.21 mil 0.41 mil Total 0.73 mil 1.64 mil 2.37 mil MARKETVIEWLeasing volume slowed down significantly in Q2 2020, negatively impacting new to market and  expansion activities. Although enquiries from international retailers are coming through, many are putting their plans on hold amidst business uncertainties arising from the COVID-19 pandemic. Tenant retention has been challenging. The number of closures escalated in Q2 2020, although this has been mainly confined to the F&amp;B and entertainment sectors. KidzaniaSingapore announced that they will be closing permanently and will not be reopening upon the lifting of "circuit breaker" measures. International retailers who may be experiencing cashflow difficulties are also considering downsizing their store footprint, placing a higher priority on their better performing stores in higher footfall locations. Landlords have begun lowering their rental expectations as they place priority on maintaining occupancy. This is particularly so for malls in areas that have poorer footfall in the Fringe and CBD locations. Average prime islandwide retail rents this quarter experienced a larger decline of 1.8% q-o-q, as compared to         -0.6% in Q1 2020. That said, rental correction has been more severe for secondary locations and floors, with some even experiencing double digit q-o-q declines.To date, rental corrections for prime malls has been relatively muted, partially offset by rental rebates granted to tenants via government reliefs. Some proactive landlords have also offered marketing assistance to provide additional relief to tenants. Islandwide vacancy rate reached 10.6% in Q1 2020. It should be noted that landlords are currently statutorily not allowed to terminate or evict tenants affected by the pandemic. In addition, retailers who are considering pre-terminating are finding it difficult to source for a replacement tenant. It will be imperative for landlords and tenants to work closely together during this challenging retail environment, particularly when the government support expires. Q2 2020  CBRE Research 6 SINGAPORE RETAIL Chart 7: Retail Economic Indicators Source: STB, MTI Economic Survey of Singapore, CBRE Research, Q2 2020 Table 6: Estimated Gross New Supply* Source: CBRE Research, Q2 2020 *excludes projects with a NLA of less than 20,000 sq. ft. Table 7: Prime Retail Rents Source: CBRE Research, Q2 2020 Chart 8: Retail Rental Index 70 90 110 130 150 170 190 Q2 12 Q2 13 Q2 14 Q2 15 Q2 16 Q2 17 Q2 18 Q2 19 Q2 20 Q1 2005 = 100 Asia Pacific Prime Orchard Road Prime Suburban Source: CBRE Research, Q2 2020 (c) CBRE Ltd. 2020  | Year Estimated NLA (sq. ft.) H2 2020 0.09 mil sf  2021 0.32 mil sf  2022 0.41 mil sf  2023 0.24 mil sf  Q2 20 Q-o-Q Y-o-y Orchard Road $31.05 -1.9% -2.1% Suburban $29.00 -0.5% -0.5% 0.0 1.0 2.0 3.0 4.0 5.0 6.0 Q1 16 Q3 16 Q1 17 Q3 17 Q1 18 Q3 18 Q1 19 Q3 19 Q1 20 -5.0% -3.0% -1.0% 1.0% 3.0% Millions Visitor Arrivals (RHA) Change in Retail Sales Index at Constant Price (excludes car sales) y-o-y change (2017=100) mil MARKETVIEW Chart 9: New Private Residential Units Take-UpQ2 2020 saw the months of April and May undergone a "circuit breaker" period where no showflats were allowed to open. Despite that, new home sales volume continued to clock in at 277 and 486 units in April and May 2020 respectively. Following the reopening of project sales galleries on 19 June 2020, new sales volume continued with 883 caveats lodged in June 2020, to total the quarter at 1,646 units. Majority of units sold came from balance units from prior launches such as KOPAR at Newton, The Florence Residences and Treasure at Tampines. Nonetheless, it represented a lower showing for Q2 2020, which could be attributed to an absence of major project launches, as developers chose to defer their launch dates.Though transactions were mainly for units of lower quantum below $1.5 mil, there were also buyers looking for opportunities in the luxury market. The low interest rate environment and volatilities in the equity market may have motivated some buyers back into residential investments, which have long been regarded as a relatively more stable option. Sales have also been motivated by some developers that has been observed offering discounts and incentives.The URA flash estimate price index of private residential property for Q2 2020 decreased 1.1% q-o-q, which marked its second consecutive quarter of decline. RCR registered the largest drop of 1.9%, following a slight compression of psf prices as developers attempt to clear remaining inventory. Moving forward, we expect developers to be more competitive in their pricing, due to a slew of projects that are expected to launch in Q3 2020 as well as from unsold inventory of developments that are slipping closer to their ABSD deadlines. CBRE Research believes that H2 2020 could see a larger price correction amidst slower economic growth and prices could correct by 5% to 8% for the whole of 2020. While property sales volume may not match up to previous years, there will still be an underlying demand to help soak up balance units, and new home sales volume may hit 5,000 to 6,000 units in 2020. Q2 2020 CBRE Research (c) CBRE Ltd. 2020  | 7 SINGAPORE RESIDENTIAL Source: URA, CBRE Research, Q2 2020 Note: Prelim figures exclude executive condominiums (ECs) Table 8: Selected Projects with New Units Launched in Q2 2020 Chart 10: URA Residential Price Index Development Tenure Median  Price No of  units  launched Units  sold KOPAR at  Newton 99y $2,241 370 116 Treasure at  Tampines 99y $1,372 200 169 Jadescape 99y $1,733 200 73 Parc Clematis 99y $1,599 335 151 150.4 100 120 140 160 180 Q2 14 Q2 15 Q2 16 Q2 17 Q2 18 Q2 19 Q2 20 Q1 2009 = 100 Source: CBRE Research, Q2 2020 Note: Q2 20 URA Residential Price Index is a flash estimate Source: CBRE Research, Q2 2020 Note: No. of units launched and sold in Q2 2020 0 1,000 2,000 3,000 4,000 5,000 Q1 2019 Q2 2019 Q3 2019 Q4 2019 Q1 2020 Q2 2020 Units Newly Launched Newly Sold 2019 Launched: 11,345 Sold: 9,912 H1 2020 Sold: 3,795 MARKETVIEW Q2 2020 CBRE Research (c) CBRE Ltd. 2020  | 8 SINGAPORE INDUSTRIAL Chart 12: Manufacturing Indices Table 9: Significant Future Developments for 2020 Source: CBRE Research, Q2 2020 Table 10: Industrial Rents Source: CBRE Research, Q2 2020 Source: CBRE Research, Q2 2020 Note: APAC rental index is based on preliminary statistics. -25% -20% -15% -10% -5% 0% 5% 10% 15% 20% 25% 44 45 46 47 48 49 50 51 52 53 54 Jan-18 Mar-18 May-18 Jul-18 Sep-18 Nov-18 Jan-19 Mar-19 May-19 Jul-19 Sep-19 Nov-19 Jan-20 Mar-20 May-20 PMI-Contract PMI-Expand Mfg Output NODX Source:  Singstat, SIPMM, CBRE Research, Q2 2020 Development Region Est. GFA  (Mil sf) JTC Defu Industrial City North East 3.52 TimMac @ Kranji North 1.54 JTC Logistics Hub @ Gul West 1.50 Google Asia Pacific's Data Centre West 1.29 JTC Bedok Food City East 1.13 Cogent Jurong Island Logistics  Hub West 0.93 Q2 20 Q-o-q Y-o-y Factory (Grd Flr) $1.49 -2.0% -5.1% Factory (Upp Flr) $1.17 -2.0% -5.2% Warehouse (Grd Flr) $1.56 0.8% -1.2% Warehouse (Upp Flr) $1.19 0.8% -1.2% Chart 13: Industrial Rental Index 80 100 120 140 160 180 Q2 15 Q4 15 Q2 16 Q4 16 Q2 17 Q4 17 Q2 18 Q4 18 Q2 19 Q4 19 Q2 20 Q4 2005=100 Singapore Factory Singapore Warehouse APAC Mfg/NODX PMIThe overall economic outlook remained negative in Q2 2020 amid the COVID-19 pandemic, with GDP shrinking by 12.6% y-o-y in Q2 2020 according to MTI's advance estimates. However, the manufacturing sector showed some form of resilience with an advance estimated growth of 2.5% y-o-y in Q2 2020, supported by a surge in biomedical output. Nonetheless, manufacturing output fell by 7.4% y-o-y in May following two consecutive months of increase, and NODX declined by 4.5% y-o-y in the same month after three consecutive months of increase. Meanwhile, PMI demonstrated improvements since recording its historical low in April and rose to 48.0 in June; however sentiments remain in contraction territory. Leasing activity picked up towards the end of the quarter especially for prime logistics, on the back of government stockpiling and heightened demand during the "circuit breaker" period from e-commerce, food logistics and third-party logistics players. Anecdotal evidence has shown players involved in last-mile delivery setting up short-term fulfilment centres to meet the rise in e-commerce demand. This has eventually compressed overall prime logistics vacancy.The spike in demand for prime logistics has spilled over to traditional warehouse spaces, thereby boosting overall warehouse rents. Preliminary estimates showed that both ground and upper floor warehouse rents rose by 0.8% q-o-q in Q2 2020. On the flipside, the factory market remains two-tier -while there has been demand for buildings with higher specifications, market conditions appear to be weighing down on older non-high-specs buildings, which form a larger proportion of overall factory stock. Consequently, both ground and upper floor factory rents declined by 2.0% q-o-q in Q2 2020. As demand for prime logistics spaces continues to demonstrate strong growth, CBRE Research expects warehouse rents to improve steadily in the latter half of the year, while factory rents may prove to be less resilient against an unfavourable economic climate. MARKETVIEW Disclaimer: Information contained herein, including projections, has been obtained from sources believed to be reliable. While we do not doubt its accuracy,  we have not verified it and make no guarantee, warranty or representation about it. It is your responsibility to confirm independently its accuracy and completeness. This information is presented exclusively for use by CBRE clients and professionals and all rights to the material are reserved and cannot be  reproduced without prior written permission of CBRE. DEFINITIONS Grade A Rents  Average value derived from a basket of Grade A  properties located in the Central Business District (CBD).  Prime Capital Values Valuation based average value derived from a basket of  prime properties. For residential and retail, the basket is  only of freehold properties while industrial basket is  related to 60-year leasehold properties. All values are  quoted on a per square foot net floor area and strata  basis, except for office values, which are on an en-bloc  basis. Prime industrial space and thereafter rents and  capital values are considered on upper floors. Net Absorption The change in occupied stock (in sq. ft.) over the  recorded period for all existing properties. Vacancy Rate Vacant space as a percentage of the base inventory or  building net lettable area.  Net Yield Net property income (gross income net service charges  and taxes) as a percentage of the asset's capital value. The following  locations are considered for Grade A or  Prime property baskets: Office Raffles Place, Shenton Corridor, Marina Bay and Marina  Centre Retail Orchard Road  (units on levels with heaviest footfall) Industrial Islandwide mature industrial locations such as Ubi, Kaki  Bukit, Tuas, and Woodlands Residential  Core Central Region (CCR) - districts 9, 10,11,  Downtown &amp; Sentosa Cove   (covering apartments and condominiums) CONTACTSSingapore CBRE ResearchCBRE Pte. Ltd.2 Tanjong KatongRoad #06-01Paya Lebar QuarterSingapore 437161+65 6224 8181www.cbre.com.sgCo. Reg. No. 197701161RAgency License No. L3002163IDesmond SimHead of Research, Singapore and SEA+65 6326 1638Desmond.sim@cbre.com.sgCatherine HeCapital Markets Research+65 6326 1232Catherine.he@cbre.comGoh Jia LingResidential &amp; Retail Research+65 6328 7304Jialing.goh@cbre.comYuki SuzukiOffice &amp; Business Parks Research+65 6326 1669Yuki.suzuki@cbre.com.sgElizabeth LowIndustrial Research+65 6328 7397Elizabeth.low@cbre.comTo learn more about CBRE Research, or to access additional research reports,  please visit the Global Research Gateway at www.cbre.com/researchgateway SINGAPORE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAR K E T B E AT Industrial Q2 2020 SINGAPORE $5.90 Business Park  (City Fringe) $3.66 Business Park  (Outlying Areas) $4.31 Science Park 0.4% CPI Growth -0.7% GDP Growth 2.4% Unemployment Source: Ministry of Trade &amp; Industry, Oxford Economics SINGAPORE ECONOMIC INDICATORS   Q1 2020 12-Mo. Forecast 12-Mo. Forecast Singapore Economy to Enter Services-Led Recession Singapore's overall economic growth turned negative at -0.7% yoy in Q1 2020. However, the downturn was attributed to the services sector, as  the manufacturing sector posted positive growth of 6.6% yoy. The government expects the country to enter into its deepest recession ever, with  full-year overall economic growth in the range of -7.0 to -4.0%. While both the overall PMI and electronics PMI remained in contractionary  territory, the easing of the circuit breaker and the lifting of lockdown restrictions across the globe led to an improvement in sentiment. This  resulted in the overall PMI recording a slight increase of 1.2 to 48.0, while the electronics PMI saw a larger increase of 1.4 to 47.6 in June. Non-Essential Manufacturers Hit By Circuit Breaker Manufacturers for non-essential items were heavily impacted by the circuit breaker as they were required to halt operations. As a result,  manufacturing output was reduced during this period. The biomedical sector is the brightest spot in manufacturing with strong growth as demand  soared for key medical supplies such as COVID-19 test kits, ventilators, and a multitude of active pharmaceutical ingredients. There are also  hopes that the electronics sector could remain stable due to the increased need for IT equipment to support the shift to remote working. Business Parks in City Fringe and Warehouses Remain Resilient Business parks in the city fringe are doing well due to their central location. Firms sought out these business park spaces to relocate and lower  their real estate costs, or for use as a secondary location to supplement their main office in the CBD. In particular, Mapletree Business City I &amp; II  have enjoyed high occupancy rates and the rents for these properties have risen. The warehouse segment is also resilient, as demand for storage space increased significantly due to the government-led stockpiling of essential  medical supplies and basic foodstuffs to guard against future supply disruptions. The increased stocking of dry groceries and frozen foods has  also led to higher demand for cold store facilities. As such, landlords are starting to raise the asking rents of ramp-up properties in high demand. The growing interest in warehouses has spurred an increase in development activities. For instance. Australian logistics firm LOGOS is partnering  with CSC Holdings Limited to develop a site at Tanjong Penjuru Crescent into a six-storey ramp-up warehouse with 46,000 square metres of  space at a development cost of $108 million. The logistics facility will be built-to-suit with high specifications for CSC Holdings Limited, which has  committed to a long-term lease upon completion of the property. INDUSTRIAL SUPPLY PIPELINE 0 2 4 6 8 10 Single-User Factory Multiple-User Factory Warehouse Business Park Supply (msf) 2018 2019 2020 2021 2022 MAR K E T B E AT Industrial Q2 2020 SINGAPORE SEGMENT GROSS EFFECTIVE RENT 12-MONTH OUTLOOK S$/SF/MO US$/SF/MO EUR/SF/MO Business Park (City Fringe) S$5.90 US$4.22 EUR3.78 Business Park (Outlying Areas) S$3.66 US$2.62 EUR2.34 Science Park S$4.31 US$3.08 EUR2.76 High-Tech S$3.13 US$2.24 EUR2.00 Factory - Ground Floor S$1.78 US$1.27 EUR1.14 Factory - Upper Floor S$1.60 US$1.14 EUR1.02 Warehouse - Ground Floor S$1.47 US$1.05 EUR0.94 Warehouse - Upper Floor S$1.26 US$0.90 EUR0.81 US$/S$ = 1.398; EUR/S$ =1.562 as of 20 June 2020 PROPERTY SUBMARKET SELLER / BUYER PRICE Alexandra Technopark Harbourfront / Alexandra Frasers Commercial Trust / Frasers Logistics Trust $606.0M A CUSHMAN &amp; WAKEFIELD RESEARCH PUBLICATION (c)2020 Cushman &amp; Wakefield. All rights reserved. The information   contained within this report is gathered from multiple sources  believed  to be reliable. The information may contain errors or  omissions and is  presented without any warranty or representations  as to its accuracy. MARKET STATISTICS PROPERTY SUBMARKET TENANT SF COMPLETION DATE CleanTech Loop CleanTech Park - 572,000 2020 PBA Innovation Centre CleanTech Park PBA Group 242,000 2020 13 International Business Park International Business Park TUV SUD 162,000 2020 Wilmar International BTS one-north Wilmar International 152,000 2020 Razer HQ one-north Razer 177,000 2020 Grab HQ one-north Grab 387,000 2020 Surbana Jurong Campus CleanTech Park Surbana Jurong 631,000 2021 cushmanwakefield.com KEY SALES TRANSACTIONS Q2 2020 SIGNIFICANT BUSINESS PARK PROJECTS - PLANNED  &amp; UNDER CONSTRUCTION CHRISTINE LI Head of Research Business Development Services Singapore &amp; Southeast Asia +65 6232 0815 /christineli.mw@cushwake.com BRENDA ONG Executive Director Logistics &amp; Industrial Singapore +65 62320878 / brenda.ong@cushwake.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SINGAPORE Q2 2020 Liquidity amid low-interest environment   continues to support transactions even as   overall market remains subdued REAL ESTATE  TIMES JULY 2020 1 EDMUND TIE RESEARCH ECONOMY  Market commentary Key economic indicators * The International Monetary Fund (IMF)  has forecasted in June 2020 that the global  economy is expected to contract sharply  by 4.9 per cent in 2020 due to the impact  of the Covid-19 pandemic (previously -3.0  per cent). If the pandemic stabilises in H2  2020, the global economy is projected to  grow by 5.4 per cent in 2021 as economic  activity normalises amid policy support.  However, as the pandemic situation is  still evolving, the global growth forecast  is still very much uncertain. For the  Asean-5 countries (Indonesia, Malaysia,  Philippines, Singapore and Thailand), the  IMF has revised down the growth rate to  minus 2.0 per cent in 2020 (previously  -1.3 per cent). In particular, Singapore's  economic contraction is projected to be  3.5 per cent in 2020, with a recovery to 3  per cent growth in 2021. Table 1: Singapore's Gross Domestic Product (GDP) Selected  indicators Year-on-year (y-o-y) change (%) Q2  2019 Q3  2019 Q4  2019 Q1  2020 Q2  2020* Overall GDP 0.2 0.7 1.0 -0.3 -12.6 Manufacturing -2.7 -0.7 -2.3 8.2 2.5 Construction 2.3 3.1 4.3 -1.1 -54.7 Services producing  industries 1.1 0.8 1.5 -2.4 -13.6 * Based on advanced estimates released by  MTI on 14 July 2020 Source: MTI, EDMUND TIE Research * Based on advanced estimates released by the Ministry of Trade and  Industry (MTI) on 14 July 2020, the Singapore economy contracted  by 12.6 per cent year-on-year (y-o-y) in Q2 2020, extending from  the 0.3 per cent y-o-y decline in Q1 2020 (Table 1). The greater  plunge in GDP in Q2 2020 was due to the Circuit Breaker measures  that were implemented from 7 April to 1 June 2020 to control the  spread of the Covid-19 pandemic, as well as subdued external  demand amidst a global economic downturn. The construction  sector trended downwards by 54.7 per cent y-o-y in Q2 2020  due to a cessation of most construction activities and manpower  disruptions. For the full year of 2020, MTI has forecasted that there  will be a 4 to 7 per cent contraction in GDP. 2 EDMUND TIE RESEARCH Table 2: Inflation, unemployment rate and fixed asset investments Selected indicators Q2  2019 Q3  2019 Q4  2019 Q1  2020 Consumer Price Index   (Core inflation)  Y-o-y % change 1.3 0.6 0.5 0.2 Consumer Price Index   (All items inflation) S.A.   Y-o-y % change 0.5 0.5 0.8 -0.1 Unemployment rate, S.A.  (per cent) 2.2 2.3 2.3 2.4 Fixed asset investments  (S$bn) 4.3 0.2 6.9 12.4 Source: Singapore Department of Statistics, MAS, MTI, EDMUND TIE Research * As a result of market contraction compounded by cautious  sentiments, inflation (both core and all-items) has decelerated and  unemployment rate increased. However, fixed-asset investment  commitments of some S$12.4bn was recorded in Q1 2020,  compared to 2019's S$15.2 billion over the entire year (Table 2).  These was largely contributed by the manufacturing, chemicals and  electronics clusters in Q1 2020. The Singapore Government is dedicating S$93bn, or nearly 20 per  cent of GDP, comprising the Unity, Resilience, Solidarity and Fortitude  Budgets to support Singaporeans in this battle against the Covid-19  pandemic. The first Unity Budget announced on February 18 saw  S$6.4bn set aside. On March 26, Deputy Prime Minister Heng added  S$48.4bn to the effort in a supplementary Resilience Budget. On  April 6, he announced a further S$5.1bn in support measures under  the Solidarity Budget. On May 26, a S$33bn Fortitude Budget was  announced aimed primarily at helping workers and businesses.  Many businesses have been facing difficulties  due to the overall weakened global business  climate. As such, the government has  introduced the Jobs Support Scheme to  cover employee wages till August 2020. The  foreign worker levy has also been waived  in April 2020. This waiver extended to  June and July 2020 as well, for businesses  that are not allowed to resume operations  after the circuit breaker. The government  has also introduced rental waivers and  property tax rebates to non-residential  tenants (summarised in Appendices 1 and  2). However, global weakness, technology  disruption and ongoing business uncertainty  will likely cause further job losses. The retail sector was one of the hardest-hit  sectors, and the rental waivers will go some  way in helping retailers' tide through this  period. However, besides rents and taxes,  retailers will still need to grapple with other  costs, such as overheads and advertising  costs that are beyond near-term relief. For the residential sector, the deferment of  mortgage payments till the end of the year  will help homebuyers that are struggling with  their finances. Additionally, the extension of  the project completion period and extension  of the sale of housing units relating to the  Additional Buyer's Stamp Duty (ABSD)  remission will also assist developers who  were affected by manpower constraints. 3 EDMUND TIE RESEARCH INVESTMENT Market commentary Investment sales With the continual threat of the Covid-19  pandemic, market sentiments have been  greatly dampened. As the global economic  outlook remains uncertain, investors adopted  a wait-and-see approach towards investment  decisions. Additionally, transactions in Q2  2020 were generally of lower price quantum  as investors were wary about their spending.  Hence, investment sales declined for the  third consecutive quarter, by a steep 53.5 per  cent quarter-on-quarter (q-o-q) to S$1.9bn  in Q2 2020 (Figure 1). With no significant GLS sites being awarded,  there were no public investment sales in  Q2 2020, in contrast to the S$1.6bn public  investment sales in Q1 2020 (Table 3).  In the private investment sales market,  three transactions exceeded S$100m in  Q2 2020, of which one was above S$500m.  0 5 10 15 20 25 30 35 40 2011 2012 2013 2014 2015 2016 2017 2018 2019 2020 Q1 Q2 Q3 Q4 Past 3-year annual average: $31.8bn Past 5-year annual average: $26.7bn Source: Various sources, EDMUND TIE Research Figure 1: Total investment sales (S$bn) Key investment sale type Q1 2020  Q2 2020  Q-o-q change (%) Private  2,399 (60.2%) 1,853 (100%) -22.8 Residential/Residential mixed-use 615 (15.4%) 261 (14.1%) -57.6 Office/Office mixed-use 784 (19.7%) 1,324 (71.5%) 68.9 Industrial/Industrial mixed-use 910 (22.8%) 174 (9.4%) -80.9 Retail/retail mixed-use 22 (0.6%) 43 (2.3%) 95.5 Hospitality/Hospitality mixed-use - - - Shophouses 15 (0.4%) 50 (2.7%) 228.9 Others 53 (1.3%) - - Public (GLS) 1,587 (39.8%) - - Residential/Residential mixed-use 1,363 (34.2%) - - Office/Office mixed-use - - - Industrial/Industrial mixed-use 224 (5.6%) - - Hospitality/Hospitality mixed-use - - - Total 3,986 (100%) 1,853 (100%) -53.5 Table 3: Investment sales summary* (S$m) Source: Various sources, EDMUND TIE Research In comparison, three deals in the private investment sales market  exceeded S$100m in Q1 2020, and two of the transactions were above  S$500m. The larger deals in Q2 2020 were from the office sector,  indicating sustained investor confidence in Singapore's economy and  office market in the long term. * Refers to the sale of land, building and multiple units with value above S$10m. 4 EDMUND TIE RESEARCH Residential 14.1% Office 0.8% Office  Mixed Use 70.7% Industrial 9.4% Retail 2.3% Shophouse 5.0% Residential 49.6% Office 3.4% Office  Mixed Use 16.3% Industrial 5.0% Industrial  Mixed Use 23.4% Retail 0.6% Shophouse 0.4% Others 1.3% Sector trends and outlook *  Office (and office mixed-use) investment  sales made up the bulk, or 71.5 per cent, of  total investment sales in Q2 2020 (Figure  2), with investment sales increasing by  68.9 per cent q-o-q to S$1.3bn. This was  mainly contributed by the sale of 30 and  50 per cent stakes of TripleOne Somerset  and AXA Tower respectively, as well as  sale of retail and office units at 30 Raffles  Place (Table 4). With the sale of the 30  per cent stake in TripleOne Somerset  for S$155.1m (S$2,250 psf strata area),  the purchaser, Shun Tak Holdings, will  own 100 per cent of the building, having  previously acquired 70 per cent stake in  January 2017 from a consortium led by  Perennial Holdings. The purchase came  after an asset enhancement initiative of  the development in 2019. The largest  transaction in Q1 2020 was the sale of 50  per cent stake of AXA Tower for S$840m  to Alibaba Group, an anchor tenant of the  building, from a Perennial-led consortium  which included Singapore Press Holdings,  HPRY Holdings and Piermont Holdings.  Once the deal is completed, AXA Tower  will commence its redevelopment. At 30  Raffles Place, formerly known as Chevron  House, Saudi Arabia-based Olayan Group  was reported to purchase the retail  podium and the three lowest office floors  for S$315.0m ($2,596 psf strata area). Source: URA, EDMUND TIE Research Figure 2: Total investment sales by asset type  Q2 2020 Q1 2020 Development  name/location Tenure/  (remaining tenure) Purchase  price (S$) Purchaser/ investor type Office/Office mixed-use AXA Tower   (50% stake) 99 years (61 years) 840.0m (S$1,600   psf GFA) Alibaba Group (Listed company) Retail podium  and office units  at 30 Raffles  Place 99 years (32 years) 315.0m ($2,596 psf  strata area) Olayan Group (Listed company) TripleOne  Somerset   (30% stake) 99 years (54 years) 155.1m (S$2,250 psf  strata area) Shun Tak Holdings (Listed company) Industrial/Industrial mixed-use Luxasia Building 30+30 years (44 years) 66.1m (S$772 psf  land area) Unknown Retail/Retail mixed-use Retail unit at  St Martin's  Apartment Freehold 43.0m (S$4,586 psf  strata area) D'League Pte Ltd (Private company) Table 4: Key private investment sale transactions in Q2 2020 Source: Various sources, EDMUND TIE Research 5 EDMUND TIE RESEARCH * Similarly, retail investment sales almost doubled from S$22.2m  in Q1 2020 to S$43.0m in Q2 2020. Nevertheless, activity in the  retail investment market was still lacklustre, as there was only  one transaction in the quarter. In Q2 2020, a freehold retail unit  at St Martin's Apartment was reportedly sold to D'League Pte  Ltd, which holds the Asia distributorship for Richard Mille, and is  likely to become another watch showroom for the watch brand.  The site is rare, with a large carpark space at the frontage. As the  commercial unit constitutes around 42 per cent share value in the  development, the purchaser will be pivotal to any en bloc sale of  the development. * On the other hand, industrial investment sales declined by 80.9 per  cent q-o-q to S$174.3m in Q2 2020. This was largely contributed by  two transactions: Luxasia Building (S$66.1m, or S$772 psf land area)  and 65 Tech Park Crescent (S$25m, or S$291 psf land area). However,  this sum excluded the acquisition of a four-storey warehouse at 11  Sunview Way by Deutsche Bank for an undisclosed sum, which is  understood to be within the range of S$75m to S$100m. With the  inclusion of this transaction, the decline in industrial sales would  have been lesser. Demand for warehouse space remains strong,  particularly due to disruption to supply chains during the Covid-19  pandemic, resulting in tenants requiring additional space for  stockpiling as, well as increased demand for e-commerce. *  Residential investment sales were muted due to the lack of awarded  GLS sites in Q2 2020 and dampened market sentiments amid the  economic uncertainties. Moreover, in contrast to four Good Class  Bungalows (GCBs) being transacted in Q1 2020, there were two  GCBs sold in Q2 2020, which was 53 Windsor Park Road at S$21.7m  (S$1,028 psf land area) during the Circuit Breaker period and 76  Windsor Park Road at $21.3m ($1,063 psf land area). The residential  collective sales market remained subdued as well with no collective  sales concluded in Q2 2020. However, some activity was observed,  as Wing Fong Mansions and Wing Fong Court were put up for  tender for the second time in 2020 in June, with the tenders closing  in August 2020. Residential investment sales plunged to S$261.3m  in Q2 2020 from nearly S$2.0bn in Q1 2020, with the Circuit Breaker  period limiting viewing opportunities in Q2. While there was a slight improvement in the  business sentiment outlook among local firms  for Q3 2020 from the record-low sentiments  in Q2 2020, forecasts for the overall business  environment  remained  in  contraction  territory,  according  to  the  Singapore  Commercial  Credit  Bureau's  Business  Optimism Index in June 2020. Despite some  optimism from the gradual reopening of  Singapore's economy, uncertainties still  remain, given the threat of a second wave  of Covid-19 infections, continued global  social unrest and trade tensions between US  and mainland China. Nevertheless, foreign  companies and investors are still seen as  confident of Singapore's economy in the long  term. In the first four months of 2020, a total  of S$13bn in investment commitments was  secured, which was higher than the annual  average amount from 2013 to 2018, as well  as the initial forecast of S$8bn to S$10bn for  2020. This can be attributed to the openness  and connectivity of Singapore's economy,  absence of export restrictions and its robust  network of free trade agreements. With  Singapore topping the ranks as the world's  most competitive economy, investors remain  keen to acquire investment assets for long- term stable returns, with net yields ranging  from 3.0 to 6.0 per cent. 6 EDMUND TIE RESEARCH OFFICE  Office demand and occupancy rates * In Q2 2020, office demand softened due  to the uncertain business climate and  the economic contraction. In particular,  travel-based  and  hospitality-related  industries were impacted greatly.  *  Many employees worked from home  and adopted various teleconferencing  tools to communicate. Even though the  Circuit Breaker measures were lifted in  June 2020, the economy did not return to  the pre-Covid-19 state. There were three  stages to the re-opening of Singapore.  Phase 1 comprised the safe re-opening  of Singapore from 2 to 18 June 2020  and employees were still encouraged  to work from home unless required to  operate machinery/software or complete  a contract/transaction that is legally  required to be done in person. It was  announced on 15 June 2020 that working  from home should continue to be a default  option even as Phase 2 of Singapore's  economy began on 19 June 2020.  * Besides the government and landlords  supporting office tenants by waiving  their rents through the various budgets,  landlords were also more flexible on  tenants' rent-free periods in this climate.  Figure 3: Office occupancy rates* and q-o-q percentage point change (in  arrows) in Q2 2020 * Based on EDMUND TIE Research estimates, occupancy rates of  office developments* islandwide contracted by 0.8 percentage  points q-o-q to 92.8 per cent in Q2 2020 (Figure 3). The decline  in occupancy rates was largely due to the contraction of demand  for office space in the CBD and CBD Fringe subzones with net  absorption reporting negative figures of 463,000 sq ft and 12,000  sq ft respectively. 7 EDMUND TIE RESEARCH Building Location Tenant Sector Remarks Marina Bay Financial  Centre Tower 2 Marina Bay (CBD) HSBC Finance and banking Relocation Marina Bay Financial  Centre Tower 3 CapGemini Business Services Here Solutions Technology One Raffles Quay North  Tower ByteDance/Tik Tok Technology One George Street Raffles Place (CBD) AJ Capital Finance Relocation City House Shenton Way/  Robinson Road/  Tanjong Pagar (CBD) Verifone Electronic Payments Relocation  79 Anson Road Inchcape Shipping Shipping Centennial Tower CBD Fringe Envysion Wealth  Management Pte. Ltd. Finance New office in Singapore Suntec Tower 2 MCTC Maritime catering and  training  New office in Singapore Table 5: Key tenant movements in Q2 2020 Source: Various sources, EDMUND TIE Research * Despite the current cautious and soft market, there  were still several new companies who established  their offices in Singapore in Q2 2020, most of which  were from the technology and financial sectors (Table  5). Technology firms are faring well in this business  climate as companies push for more teleconferencing  tools and digitalisation of work processes. * On the other hand, travel-based and hospitality  companies have been hardest-hit from the Covid-19  pandemic due to travel restrictions and lockdowns  imposed by many countries. One example is Uber,  a multinational ride-hailing company, which will be  closing its Asia-Pacific HQ in Frasers Tower in the next  12 months. 8 EDMUND TIE RESEARCH Rental rates All the various subzones in the office sector  showed q-o-q declines in monthly average  rental rates in Q2 2020 (Table 6). Most  companies were affected by the preventive  measures  taken  to  contain  Covid-19  outbreak. Within the CBD, Grade B offices at  Shenton Way/Robinson Road/Tanjong Pagar  showed the greatest rental contraction of 2.0  per cent q-o-q. Older office developments  in this subzone did not hold up so well as  tenants relocated to more efficient and  better quality buildings. Supply pipeline Total supply pipeline from Q2 2020 to 2024 is  estimated to be approximately 4.3m sq ft (or  905,000 sq ft per annum), with most of the  supply completing in 2022 (Figure 4). In 2021,  pre-committed rates for most buildings in the  CBD are healthy. For instance, CapitaSpring  currently has a pre-committed rate of around  35 per cent (comprising tenants such as The  Work Project and J.P. Morgan). However, the  market will have to grapple with the huge  supply coming on board in 2022 such as  Central Boulevard Towers (NLA: 1.3m sq ft)  and Guoco Midtown (NLA: 650,000 sq ft). Outlook The office leasing market in Singapore is  facing downward pressure. Companies are  currently working hard to shore up their  cash flows as business sentiment weakens  substantially. As enterprises currently plan  Safe Management practices mandated by  the Ministry of Manpower, they are still  weighing their options on lease renewal and  expansion plans in the longer term. In our  view, risks are on the downside for take-up  and rents for the rest of 2020.  Location Grade Q1 2020  Q2 2020 Q-o-q  change  (%) CBD Marina Bay A+ 11.30 - 13.35 11.20 - 13.25 -0.9 Raffles Place A 9.60 - 11.70 9.50 - 11.50 -1.5 Shenton Way/ Robinson Road/ Tanjong Pagar A+ 10.20 - 12.30 10.10 - 12.15 -1.0 A 8.05 - 10.05 8.00 - 9.95 -1.0 B 6.80 - 8.90 6.65 - 8.65 -2.0 CBD fringe Marina Centre A 8.95 - 10.95 8.90 - 10.90 -0.5 Beach Road/ North Bridge  Road A 9.80 - 11.80 9.75 - 11.75 -0.6 B 6.55 - 8.00 6.50 - 8. 00 -0.4 Orchard Road * 8.50 - 10.50 8.40 - 10.40 -0.9  Decentralised  areas** Decentralised  areas * 5.10 - 7.80 5.10 - 7.65 -0.9    Source: EDMUND TIE Research * Ungraded office space ** Key purpose-built offices outside of CBD and CBD fringe Table 6: Average monthly gross office rents (S$ per sq ft) 0.0 0.4 0.8 1.2 1.6 2.0 2.4 Q2-Q4 2020 2021 2022 2023 2024 Marina Bay Raffles Place Shenton Way/Robinson Rd/Tanjong Pagar CBD Fringe Decentralised areas Past 5-year annual net supply: 1.4m sq ft Past 3-year annual net supply: 1.6m sq ft Figure 4: Office development pipeline, million (m) sq ft Source: URA, EDMUND TIE Research The current debate is the role of the office, as Work-from-Home (WFH)  and flexible work arrangements become more widely accepted. The  new normal of work and the role of office space will only get clearer  over the next few months as enterprises monitor the impact on public  health, productivity, and corporate culture of their workforce between  WFH and work-in-office options. 9 EDMUND TIE RESEARCH INDUSTRIAL Market commentary Key indicators According  to  the  PMI  reading,  the  manufacturing sector contracted for the  fourth straight month in May 2020 (Table 7).  This was also reflected in the sharply weaker  NODX performance. The implementation of  the Circuit Breaker in Singapore from 7 April  to 1 June 2020, together with the disruption  of global production and supply chains  worsened the already weak industrial market.  Private demand,   occupancy and supply  *  Based on JTC's estimates, islandwide net  absorption expanded from 1.3m sq ft in  Q1 2020 to 1.6m sq ft in Q2 2020. However,  net supply reversed from 2.1m sq ft in Q1  2020 to -301,000 sq ft in Q2 2020.  * The occupancy for warehouse space  increased by 0.8 percentage points q-o-q  to 88.3 per cent in Q2 2020 (Figure 5). * This was largely due to the increase in  overall e-commerce sales and stockpiling  by supermarkets.  * Notable leases secured in Q2 2020  included:    - Techcross, a ballast water management  system manufacturer, which relocated  to Tradehub 21   - Smart  WFM,  a  HR  workforce  management  consultancy,  which  opened its first Singapore office at  Mega@Woodlands Key  economic  indicators Q1  2020 Q2   2020 Key trends NODX 17.6% -4.5% (May  2020) * NODX declined by 4.5 per cent y-o-y  in May 2020, from the 9.7 per cent  y-o-y growth in April 2020 due to the  contraction in the global economy  and  trade.  While  the  electronics  segment  grew, the non-electronics  sectors contracted mainly due to the  petrochemicals cluster. PMI* 45.4 46.8 (May  2020) * The PMI increased by 2.1 points from  45.4 in April 2020 to 46.8 in May 2020.  May's PMI reading was attributed to  slower contractions in the key indexes of  new orders, new exports, factory output  and employment. * The electronics sector PMI also remained  in the contractionary territory at 46.2 in  May 2020. Source: MTI, Enterprise Singapore,  SIPMM, EDMUND TIE Research * Reading above 50 indicates an expansion,  while below 50 indicates a contraction. Table 7: Singapore's NODX and PMI 70% 75% 80% 85% 90% 95% 100% Q2 2011 Q2 2012 Q2 2013 Q2 2014 Q2 2015 Q2 2016 Q2 2017 Q2 2018 Q2 2019 Q2 2020 Multiple-user factory space Single-user factory space Business park space Warehouse space Source: JTC, EDMUND TIE Research Figure 5: Occupancy rates of private industrial space by type 10 EDMUND TIE RESEARCH 1 2 3 4 5 6 Q2 2011 Q2 2012 Q2 2013 Q2 2014 Q2 2015 Q2 2016 Q2 2017 Q2 2018 Q2 2019 Q2 2020 First-storey multiple-user factory Upper-storey multiple-user factory Hi-tech industrial space Business park (Central Region) Source: EDMUND TIE Research Figure 6: Private monthly industrial gross rents (S$ psf) by type  0 2 4 6 8 10 12 14 16 Q2-Q4 2020 2021 2022 2023 Extensions, additions and alterations to industrial properties Warehouse developments Multiple-user industrial developments Single-user industrial developments Business park developments Past 5-year annual average supply: 12.4m sq ft Past 3-year annual average supply: 8.2m sq ft Source: EDMUND TIE Research Figure 7: Private industrial development pipeline (with planning approvals  and GLS sites which are pending approvals), million(m) sq ft Rental rates * According to EDMUND TIE research,  the monthly average rental rates for  most market segments declined q-o-q  in Q2 2020 due to weak manufacturing  performance (Table 8, Figure 6). The  location of the developments is a key  factor in determining the extent of  decline of rents. For instance, the average  monthly rents for business parks in the  Central Region held up, while those in  the suburban areas contracted by 0.2 per  cent q-o-q in Q2 2020.  Supply pipeline * The supply pipeline from Q2 2020 to 2023  is around 27.9 m sq ft (NLA) or an average  of 7.4m sq ft per annum, staying below  the 3- and 5-year annual average of 8.2m  and 12.4m sq ft respectively (Figure 7).  * The majority of the supply pipeline will  be completed between Q2 and Q4 2020  (41.8 per cent), followed by 2022 with  8.5m sq ft (30.4 per cent). The bulk of  the pipeline supply will be single-user  factories between Q2 and Q4 2020. Outlook The outlook of the industrial sector is  envisaged to remain markedly uncertain  in  2020,  considering  the  fluid  and  unpredictable nature of the pandemic, a  possibly steep global economic slowdown  and resultant ramifications on Singapore's  open manufacturing sector.  The high number of Covid-19 infections in  many worker dormitories has contributed to  disruptions in production and construction  capacities, as well as to a certain extent,  logistics  efficiency  and  workflow.  As  companies review their demand needs  and expansion plans in the wake of the  weakened economic outlook, we expect the  impact on the industrial property market  to be felt in the next few quarters. Overall  rents of factories are likely to post an overall  decline for 2020. Rents in the business park  and hi-tech sectors could also ease further  in the near term owing to the pandemic.  Nonetheless, the bright spot for the industrial  sector is the warehouse sector, as rising  online sales and the increase in groceries  sales incentivise retailers to stockpile and  expand their warehouse facilities to cater to  the surge in demand.   Industrial  type* Subcategory Q1 2020  Q2 2020  Q-o-q  change (%) Multiple- user factory  First-storey 1.70 - 2.00 1.75 - 2.00 0.2 Upper-storey 1.35 - 1.55 1.30 - 1.50 -0.2 Warehouse/ logistics Overall 1.55 - 1.70 1.50 - 1.65 -0.1 High-tech  industrial  Overall 2.90 - 3.10 2.85 - 3.05 -0.4 Business  park  Central Region 4.40 - 4.95 4.40 - 4.95 0.0 Suburban  3.55 - 3.85 3.50 - 3.80 -0.2   Table 8: Average monthly gross rents (islandwide) (S$ per sq ft)  Source: EDMUND TIE Research * In-house estimates of key selected   private industrial premises. 11 EDMUND TIE RESEARCH -10% -5% 0% 5% 10% 15% 2003 1Q 2004 1Q 2005 1Q 2006 1Q 2007 1Q 2008 1Q 2009 1Q 2010 1Q 2011 1Q 2012 1Q 2013 1Q 2014 1Q 2015 1Q 2016 1Q 2017 1Q 2018 1Q 2019 1Q 2020 1Q -25% -20% -15% -10% -5% 0% 5% 10% 15% 20% 25% 2003 1Q 2004 1Q 2005 1Q 2006 1Q 2007 1Q 2008 1Q 2009 1Q 2010 1Q 2011 1Q 2012 1Q 2013 1Q 2014 1Q 2015 1Q 2016 1Q 2017 1Q 2018 1Q 2019 1Q 2020 1Q Source: Department of Statistics Singapore Source: Department of Statistics Singapore Figure 8: Y-o-y change in retail sales index (excluding motor vehicles)  Figure 9: Y-o-y change in food and beverage services index RETAIL  Market commentary Key indicators * The retail sector is facing one of its greatest  challenges as the pandemic necessitated  the temporary closure of many retail  outlets with the exception of essential  services, such as F&amp;B, supermarkets,  clinics and approved healthcare-related  trades during the Circuit Breaker period    (7 April to 1 June 2020) as well as in Phase 1  of Singapore's reopening (2 to 18 June 2020). *  Due to travel restrictions, visitor arrivals  plunged to around 2.7m visitors in Q1 2020,  the lowest since Q4 2009. It was reported  by the Singapore Tourism Board (STB)  in February 2020 that Singapore lost an  average of 18,000 to 20,000 international  visitor arrivals daily and this loss is  expected to increase further. In April 2020,  there were only 748 visitors to Singapore. * As international visitor arrivals fell and  residents were forced to stay home except  when going out for essential services,  retailers faced increasing pressures to  sustain their businesses while coping  with fixed overhead costs. The Covid-19  (Temporary Measures) Act was passed  to ensure a pass-through of property tax  rebate from property owners to tenants.  A new Bill on rental rebates, involving  landlords and the government, was also  dished out to help retailers. This will add  cashflow strains on landlords, especially  for smaller landlords.  * Retail sales index (excluding motor  vehicles) fell for the sixth consecutive  quarter by 6.2 per cent y-o-y in Q1 2020  (Figure 8). The F&amp;B services index also  contracted by 10.5 per cent y-o-y in Q1  2020, after seven consecutive quarters of  increases (Figure 9). 12 EDMUND TIE RESEARCH *  In April 2020, the worst performing sectors  were watches and jewellery and wearing  apparel and footwear (Figure 10) as  people shopped for essential goods rather  than luxury items in view of the sober  economic climate. Overall, the total retail  sales (excluding motor vehicles) declined  by 33.4 per cent y-o-y in April 2020. 77.4% 10.7% -1.3% -33.4% -37.9% -46.2% -53.5% -58.9% -63.3% -64.4% -84.5% -85.3% -87.8% -100%-80% -60% -40% -20% 0% 20% 40% 60% 80% 100% Supermarkets &amp; Hypermarkets Mini-marts &amp; Convenience Stores Computer &amp; Telecommunications Equipment Total (Excluding Motor Vehicles) Furniture &amp; Household Equipment Cosmetics, Toiletries &amp; Medical Goods Food &amp; Alcohol Others Recreational Goods Optical Goods &amp; Books Department Stores Wearing Apparel &amp; Footwear Watches &amp; Jewellery Total (Excluding Motor Vehicles) -27.7% -45.5% -53.2% -59.8% -66.9% -80% -70% -60% -50% -40% -30% -20% -10% 0% Fast Food Outlets Cafes, Food Courts &amp; Other Eating Places Total Food Caterers Restaurants Total Source: Retail Sales Index at Current Prices (SSIC 2015 Version 2018)  from Department of Statistics Singapore Source: Food &amp; Beverage Services Index at Current Prices    (SSIC 2015 Version 2018) from Department of Statistics Singapore Figure 10: Retail sales index (Apr 2020), y-o-y change Figure 11: Food and Beverage index (Apr 2020), y-o-y change * The food and beverage index trended  downwards by 53.2 per cent y-o-y in  April 2020, and restaurants (which were  largely relying on takeaway sales) were  the hardest hit, contracting by 66.9 per  cent y-o-y (Figure 11). 13 EDMUND TIE RESEARCH 0 2 4 6 8 10 12 14 16 18 20 0 500 1,000 1,500 2,000 2,500 3,000 3,500 4,000 4,500 5,000 2018 Jan 2018 Feb 2018 Mar 2018 Apr 2018 May 2018 Jun 2018 Jul 2018 Aug 2018 Sep 2018 Oct 2018 Nov 2018 Dec 2019 Jan 2019 Feb 2019 Mar 2019 Apr 2019 May 2019 Jun 2019 Jul 2019 Aug 2019 Sep 2019 Oct 2019 Nov 2019 Dec 2020 Jan 2020 Feb 2020 Mar 2020 Apr Retail Sales Value - Estimated (S$ millions) (LHS) Online Retail Sales Proportion (%) (RHS) Source: Department of Statistics Singapore, EDMUND TIE Research Figure 12: Retail sales value (S$ millions) and proportion of online retail  sales (%) * As people started to shop online due  to the temporary closure of many retail  outlets, the online retail sales proportion  increased to 17.8 per cent in April 2020  (Figure 12). Private demand and occupancy * Based on URA statistics, islandwide net absorption declined further to -798,000 sq ft in Q2 2020 from -561,000 sq ft  in Q1 2020. The food &amp; beverage sector was one of the more badly affected sectors due to the preventive measures  implemented to contain the Covid-19 pandemic. Orchard/Scotts Road (OSR) Other city areas1 (OCA) Fringe/Suburban areas2 (FSA) Net  absorption * The net absorption was reversed  from 5,000 sq ft in Q1 2020 to  -99,000 sq ft in Q2 2020 *  The lack of tourist arrivals in Q2 2020  contributed to the decline in demand * Net absorption contracted by  -243,000 sq ft in Q2 2020  * As people started to carry out remote  working and avoided going out, retail  outlets in the OCA were impacted  greatly by the decline in sales * Net absorption declined further  to -456,000 sq ft in Q2 2020,  from -202,000 sq ft in Q1 2020 * Retailers in FSA were affected  greatly due to the lack of sales as  people avoided going to malls Occupancy * Occupancy contracted by 1.2  percentage points q-o-q to 90.8 per  cent in Q2 2020 (Figure 13)  * Occupancy trended downwards by 1.9  percentage points q-o-q to 88.3 per  cent in Q2 2020 * Occupancy rates declined by 2.1  percentage points q-o-q to 88.8  per cent in Q2 2020 Closures  (Q2 2020) * Modesto's @ Orchard (F&amp;B) at  Orchard Rendezvous Hotel  * Salt Grill &amp; Sky Bar (F&amp;B) at   ION Orchard * Imperial Treasure Nan Bei  Restaurant (F&amp;B) at Ngee Ann City * China Club (F&amp;B) at Capital Tower * Rookery (F&amp;B) at Capital Tower * Tao Seafood (F&amp;B) at Asia Square  Tower 2 * Muji (household and consumer goods)  at Marina Square * Esprit (fashion and apparel)  closing all outlets * The Chophouse (F&amp;B) at Vivocity 1 Other City Areas refer to Downtown Core and Rest of Central Area 2 Fringe/Suburban Areas refer to Fringe Areas and Suburban Areas (Outside Central Region) Source: URA, EDMUND TIE Research 14 EDMUND TIE RESEARCH Source: URA, EDMUND TIE Research Figure 13: Retail occupancy rates (Q2 2020) Rental rates Monthly retail rents contracted further in  Q2 2020 amidst the preventive measures  taken to contain the Covid-19 pandemic.  First, the number of short-term visitors to  Singapore plummeted to a historic low of  748 in April 2020, after the ban on short- term visitors was put in place on 23 March  2020 (entry allowed only under extenuating  circumstances). Second, the implementation  of the Circuit Breaker from 7 April to 1 June  2020 also dampened the already weak  retail market, as only essential retailers </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 79 Robinson Road was completed in April 2020,with take-up rate at end-2Q20estimated atabout 75%. Committed tenants include Allianz, EFG Bank, Howden Insurance and William Grant &amp; Sons.  Office leasing activity came to a near halt in 2Q20,due tothe circuit breaker#measuresto contain the spread of COVID-19. Amidthe challenging business and leasing environment,landlordsstepped up incentives to entice tenants to renew or commit to new leases.Consequently, rents corrected for a second-straight quarter, and at a steeper rate in 2Q20.  Capital values werefirm, underpinned by investors looking to reweigh their investment portfolio with defensive assets insafe havens,like Singapore,amid the current uncertain economic and geopolitical environment.  The expected deep economic contraction in 2020, the protracted safe-distancing requirements constrictingbusinessoperating capacity,and the risks of repeated lockdowns arising from potential new waves of COVID-19could keep occupiers cautiousandrentssoftover the next 12 months.Residential  Prime home sales volume plunged to a four-and-a-half-year low in 2Q20 as sales gallery operations and property viewings were suspended from 7 April to 18 June 2020 due to the circuit breaker measures.   Amid the expected deep recession this year, developers focused on clearing inventories rather than acquiring more sites. Consequently, there continued to be no collective sales deal concluded in the prime sub-marketin 2Q20.   Pricecorrections of completed prime private residential properties accelerated in 2Q20as market activities slowed significantly. However, underpinned by tight vacancy, prime rents eased by only 0.1% q-o-q, although economic and business conditions have worsened with more news on retrenchments and pay cuts.  Rents are expected to soften moderately over the next 12 months, as leasing demand is likely to weaken given the ongoing economic slowdown, notwithstanding low vacancies. Key Economic IndicatorsGDP Real Growth(2Q20, y-o-y, advance estimates)-12.6%Consumer Price Index(May2020, y-o-y)-0.8%Total Trade (Current prices)(May2020, y-o-y)-25.0%Index of Industrial Production(May2020, y-o-y)-7.4%Retail Sales excl. motor vehicles(Chain volume terms)(May2020, y-o-y)-46.3%Unemployment Rate (S.A.)(Mar 2020)2.4%Total PopulationAnnual Growth (Jun 2019)1.2%Source: DOSMajor Property Transactions | 2Q20OfficePrice(SGD mil)TripleOne Somerset (30% stake)342.0Oxley @ Raffles(strata units)122.3Suntec City (strataunit)13.9ResidentialPrice(SGD mil)Ardmore Park (strata unit)27.723 Pearl Island25.053 Windsor Park Road21.7RetailPrice(SGD mil)Change Alley Mall192.71 Saint Martin's Drive(strata unit)43.019/19A, 37/37A ETC Teck Chye Terrace39.0IndustrialPrice(SGD mil)Luxasia Building*66.182 Genting Lane (60% stake)30.065 Tech Park Crescent25.0*Caveat was previously lodged in Dec-19 but updated in May-20with revised price.Source: JLL Research, July2020 60,107 Current prime stock (units) 4.76Gross effective rent (SGD psf pm NLA) -0.1% Rental growth (q-o-q) 2,924Capital value (SGD psf NLA) -0.8%Capital value growth (q-o-q)The capital value and rental value indicators are reflective of luxury residential properties 32.1Current stock              (sq ft million) 10.48Gross effective rent (SGD psf pm NLA) -3.0%Rental growth (q-o-q) 2,982Capital value(SGD psf NLA) 0.4%Capital value growth (q-o-q)All data are reflective of the CBD Investment Grade submarket  No new supply was recorded in 2Q20. The expected opening of Change Alley Mall (previously Chevron House) in the Secondary sub-market in 2Q20 has been delayed to 3Q20 due to the circuitbreaker measures.  Sharp declines in consumer demand and retail sales, as well asthe drop of visitor arrivalsinApril and May 2020 due to the circuit breaker measures and travel bans,led to a new wave of business consolidation and attrition, causing vacancy ratesto spike.Consequently, rents of prime floor space fell on aq-o-q basis across the three sub-markets in 2Q20.  Investment activity continued to slow down in 2Q20, as landlords focused on tackling operational challenges and travel restrictions hindered due diligence. Investment interest in retail assets was selective and cautious.  Retailer sentiment will remain subdued as tourism demand is not expectedto recover in the short-term and continued safe-distancing measures will reduce operational capacity. Despite relief measures provided by the government and landlords, more retail closures are expected as some retailers succumb to the pressure of cash flow constraints, pushing up vacancy rates in the short-term. Rents are expected to fall amid rising vacancy ratesover the next 12 months.Warehouse  Demand was healthy in 2Q20, driven by renewals and short-term leasing requirements to accommodate medical supplies, food and consumer items (for example, from e-retailers), as safety concerns and movement controls fuelled a spike in e-commerce activities and increased stockpiling requirements.  Underpinned by the healthy demand, logistics/warehouse rents held steady in 2Q20, after easing in 1Q20.This, in turn,supported capital values, which held firm during the quarter.  There was one known warehouse transaction involving the purchase of 11 Sunview Way by DWS for an undisclosed price.The property is entirely occupied by XPO Logistics.  Amidthe heightened macroeconomic uncertaintiesand geopolitical risk, we expect occupiers to remainrent sensitive. This will provide little impetus for rent growthover the next 12 months, whileyields could compress in a lowinterest rate environment.AuthorsTay Huey YingHead of Research &amp; ConsultancySingapore+65 6494 3761Hueyying.tay@ap.jll.com  Doreen GohDirector, Industrial ResearchSingapore+65 6494 3720Doreen.goh@ap.jll.comMichelle TeeDirector, Office ResearchSingapore+65 6418 8634Michelle.tee@ap.jll.comKim HuynhAssistant Manager, ResidentialResearchSingapore+65 6494 3722Kimngan.huynh@ap.jll.comEdwin YeoSenior Analyst, Retail ResearchSingapore+65 6494 7006Edwinyy.yeo@ap.jll.comJLL Singapore9 Raffles Place#39-00 Republic PlazaSingapore 048619tel +65 6220 3888fax +65 6438 3361jll.com.sg 118.9Current          stock                  (sq ft million) 1.35Gross effective rent (SGD psf pm NLA) 0.0%Rental growth (q-o-q)jll.com.sgCEA Licence No. L3007326E(c) Copyright 2020 JLL. All rights reserved. This report has been prepared solely for information purposes and does not necessarily purport to be a complete analysis of the topics discussed, which are inherently unpredictable. It has been based on sources we believe to be reliable, but we have not independently verified those sources and we do not guarantee that the information in the report is accurate or complete. Any views expressed in the report reflect our judgment at this date and are subject to change without notice. Statements that are forward-looking involve known and unknown risks and uncertainties that may cause future realities to be materially different from those implied by such forward-looking statements. Advice we give to clients in particular situations may differ from the views expressed in this report. No investment or other business decisions should be made based solely on the views expressed in this report.  179Capital value(SGD psf NLA) 0.0%Capital value growth (q-o-q)Bandits 5.1Current stock            (sq ft million) 43.47Gross effective rent    (SGD psf pm NLA) -5.7%Rental growth (q-o-q) 9,507Capital value (SGD psf NLA) -6.5%Capital value growth (q-o-q)All data are reflective of the Prime sub-submarketAll data are reflective of the islandwide market#During Singapore's circuit breaker period,lasting from 7 April to 1June 2020, all workplaces,except those offering essential services,had to be shut. The economy embarked on a three-phase re-opening from 2June 2020 and by the end of 2Q20, most workplaces were able toresumeoperationswith the implementation of safe-distancing measures, but telecommuting remained the default where feasible. Tourism-related businesses and activities resumed in stages from July 2020.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">knightfrank.com.sg/research Singapore Research Median rents stable in Q2 2020. Industrial Q2 2020 " " Not all segments of the manufacturing sector were affected negatively by the impact of  the COVID-19 outbreak. We anticipate production in the sector to rise cautiously as  manufacturers prepare for higher demand with the restart of economic activity both  locally and across the globe. CERTAIN SEGMENTS OF  THE MANUFACTURING  SECTOR REMAINED  RESILIENT IN A TIME OF  COVID-19, PROPPING UP  THE INDUSTRIAL MARKET TA N  B O O N  LE O N G ,  E XE CUTI VE  DI RE CTOR, I N DUSTRI AL , CAPITAL M ARKETS According to the Ministry of Trade and Industry's (MTI) Economic Survey of  Singapore, the nation's economy declined by 0.7% year-on-year (y-o-y) in Q1 2020,  a smaller contraction when compared to the earlier flash estimate of a 2.2% y-o-y  decline. This was a result of the manufacturing sector recording a better than expected  performance, with the biomedical manufacturing, precision engineering and transport  engineering clusters registering output expansions that outweighed the declines in the  electronics, general manufacturing and chemical clusters. The Singapore Purchasing Managers' Index (PMI) hit a trough in April 2020, but  the index witnessed a slower contraction at 46.8 in May, as global demand for  biomedical goods and pharmaceutical ingredients increased due to exigencies caused  by the COVID-19 crisis.  The median rent of multiple-user factory spaces island-wide maintained at  S$1.78 psf pm in Q2 2020, unchanged from the previous quarter and from a year  ago (Exhibit 1). However, leasing volume declined substantially by 43.5% y-o-y, with  the number of tenancies from April to May 2020 falling to 1,253. This represented a  total rental volume of S$2.5 million. The circuit breaker in Q2 2020, the reduction in  manpower as well as manufacturers putting off any expansion or relocation plans due  to existing headwinds contributed to the lack of leasing activities.  Similarly, the median prices of multiple-user factory spaces generally recorded  slight declines or remained flat in Q2 2020 (Exhibit 2). While prices were generally  stable in the second quarter, transaction volume fell from S$168.6 million to S$62.0  million between Q1 2020 and Q2 2020, due to the restriction of activities and a rise of  economic uncertainties during the circuit breaker. MAR K E T  SNAPSH OT 1, 253 TRANSACTIONS 33.1%     Q-O-Q | 45.9%     Y-O-Y NUMBER OF TENANCIES S $143.8 MILLION 65.9%     Q-O-Q | 68.0%     Y-O-Y TOTAL SALES VOLUME 54.1 MILLION SQ FT GFA UPCOMING NEW SUPPLY (Q2 2020 - 2024) Despite the global flow of goods and supply chains being affect- ed by a pandemic-led economic downturn, some bright spots  emerged in the manufacturing sector. Segments involved in  the production of essential commodities such as medical and  hygiene-related products and the delivery of goods, together  with warehouses and logistic spaces, that keep Singapore   amply supplied, have mitigated the impact of the crisis in the  industrial market.  Government Policies With the announcement of Phase  One post-circuit breaker on 2 June  2020,  the  resumption  of  most  manufacturing  and  production  facilities  was  allowed  as  these  work environments posed lower  transmission risks. These included  the semiconductor, pharmaceutical,  medical  technology,  precision  engineering, and energy and chemical  sectors.  Market Outlook As Singapore transits into Phase  Two  of  the  Re-opening,  Knight  Frank envisages production in the  manufacturing sector to increase  cautiously  as  manufacturers  prepare for higher demand with the  restart of economic activity both  locally and across the globe. Not  all segments of the manufacturing  sector were affected negatively by the  impact of the COVID-19 outbreak. As  such, the biomedical manufacturing  clusters should continue to expand  due to the present increased global  demand for medical-related equipment  and  products,  thereby  offsetting  the reduction in industrial output  from sub-sectors adversely affected  Tan Boon Leong Executive Director Industrial Capital Markets +65 6228 6894 boonleong.tan@sg.knightfrank.com  We like questions, if you've got one about our research, or would like some property advice, we  would love to hear from you. Recent Publications INDUSTRIAL Q1 2020 Nor Adila Rahim Analyst Research +65 6228 7376   nor.adila@sg.knightfrank.com Leonard Tay Head Research +65 6228 6854 Leonard.Tay@sg.knightfrank.com Exhibit 2: Average Prices of Multiple-User Factory Space by Balance  Tenure* 1,000 900 800 700 600 500 400 300 200 100 0   &lt;= 30 Years 31 - 60 Years 61 - 99 Years Freehold Above 99 Years Q1 Q2 Q3 Q4 2015 Q1 Q2 Q3 Q4 2016 Q1 Q2 Q3 Q4 2017 Q1 Q2 Q3 Q4 2018 Q1 Q2 Q3 Q4 2019 Q1 Q2 2020 Price (S$ psf) Source: JTC, Knight Frank Research Note: The average unit price is based on a four-quarter moving average. *The balance tenure is based on the number of remaining years at the point of transaction. (c) Knight Frank 2020 This report is published for general information only. Although high standards have been used in the  preparation of the information, analysis, views and projections presented in this report, no legal responsibility  can be accepted by Knight Frank Research or Knight Frank for any loss or damage resultant from the contents  of this document. As a general report, this material does not necessarily represent the view of Knight Frank  in relation to particular properties or projects. Reproduction of this report in whole or in part is allowed with  proper reference to Knight Frank Research. About Knight Frank Singapore Knight Frank LLP is the leading independent global property consultancy. Headquartered in London, Knight Frank has more than 19,000 people operating from 512 offices across 60 markets. The Group advises  clients ranging from individual owners and buyers to major developers, investors and corporate tenants. Knight Frank has a strong presence in Singapore with a head office and two subsidiaries: Knight Frank Property Asset Management and KF Property Network. For further information about the  Company, please visit www.knightfrank.com.sg. Knight Frank Research  Reports are available at knightfrank.com.sg/research Exhibit 1: Leasing Volume and Median Rent of Multiple-User Factory  Space 2,500 2,000 1,500 1,000 500 0 1.95 1.90 1.85 1.80 17 .5 17 .0   No. of Leasing Transactions Median Rent Q1 Q2 Q3 Q4 2015 Q1 Q2 Q3 Q4 2016 Q1 Q2 Q3 Q4 2017 Q1 Q2 Q3 Q4 2018 Q1 Q2 Q3 Q4 2019 Q1 Q2* 2020 No. of Leasing Transactions Rent (S$ psf pm) Source: JTC, Knight Frank Research Note: The median rent is based on a four-quarter moving average. *Q2 2020 data based on April and May 2020 data as at mid-June. by the pandemic. Pent-up demand  for consumer goods after lockdown  periods in many countries might also  contribute to some increased activity  in other manufacturing clusters. As at Q1 2020, some 54.1 million sq ft  gross floor area (GFA) of industrial  space is slated to come on stream  from Q2 2020 to 2024. Of these, about  41.7% of the upcoming developments  are projected to be completed in 2020,  with the majority comprising factory  space.  The road to recovery will not be  immediate  and  industrial  space  users will be cautious in expanding  their physical space requirements  until such time when economic  improvement  is  more  certain.  Therefore, industrial rents and prices  in general are expected to be under  some pressure and could moderate  downwards by about 5% in 2020, given  the upcoming supply in 2020, as well  as the poor economic outlook both  domestically and globally. The Wealth Report 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 savills.com.sg/research MARKET IN MINUTES Savills Research Industrial Industrial rents face pandemic pressure Savills plc Savills is a leading global real  estate service provider listed on  the London Stock Exchange. The  company established in 1855, has  a rich heritage with unrivalled  growth. It is a company that leads  rather than follows, and now has  over 600 offi   ces and associates  throughout the Americas, Europe,  Asia Pacifi  c, Africa and the Middle  East. This report is for general  informative purposes only. It may  not be published, reproduced or  quoted in part or in whole, nor may  it be used as a basis for any  contract, prospectus, agreement  or other document without prior  consent. Whilst every eff  ort has  been made to ensure its accuracy,  Savills accepts no liability  whatsoever for any direct or  consequential loss arising from its  use. The content is strictly  copyright and reproduction of the  whole or part of it in any form is  prohibited without written  permission from Savills Research. Simon Smith Senior Director Asia Pacifi  c +852 2842 4573 ssmith@savills.com.hk Alan Cheong Executive Director  Singapore +65 6415 3641 alan.cheong@savills.com.sg RESEARCH Pandemic-driven weakness blunts demand for business park and high-spec  industrial space. "  Heightened levels of  uncertainty have increased  interest in short-term leases." ALAN CHEONG, SAVILLS RESEARCH *   As a result of the ban on in-person property viewings during  the lockdown, leasing volumes fell by 18.4% from a year ago  to 2,353 transactions in Q2/2020. *   Savills average monthly rent for multiple-user factories slipped  by -1.0% quarter-on-quarter (QoQ) to S$1.73 per sq ft and for  warehouse &amp; logistics, it fell 0.7% QoQ to S$1.47 per sq ft. *   The strata industrial market saw a further slowdown in  sales activity, with another decline of over 30% QoQ to 114  transactions. *   Owing to their scarcity and the large pool of interested  buyers, the average price in Savills' basket of freehold  industrial properties rose by 1.0% QoQ to S$693 per sq ft in  Q2/2020. *   Savills' basket of industrial properties showed that the  average price for 60-year leasehold industrial units trended  downwards by 1.2% QoQ to S$429 per sq ft in Q2/2020,  while for 30-year leasehold industrial properties prices fell  by 2.2% QoQ to S$308 per sq ft. *   The average monthly rent in Savills basket of prime business  park properties edged down by 0.4% QoQ to S$5.81 per sq  ft as some landlords lowered their asking rents amid weaker  sentiment. The older business parks bore the brunt of the  downturn, with the average monthly rent in Savills basket of  standard business park properties slipping by 0.7% QoQ to  S$4.07 per sq ft. *   Based on Savills basket of properties, the average monthly  rent for high-spec industrial space was down by 0.3% QoQ to  S$3.48 per sq ft, marking its fi  rst decline in three years. *   With the end of the pandemic nowhere in sight, uncertainty  levels remain high with more tenants interested in signing  short term leases. Christopher J Marriott CEO, Southeast Asia  +65 6415 3888 cjmarriott@savills.asia SINGAPORE Please contact  us for further  information Savills team MCI (P) No. 046/03/2019 Company Reg No. 198703410D Sharon Teo Managing Director Singapore +65 6415 3288 sharon.teo@savills.com.sg Singapore - August 2020 2 savills.com.sg/research MACROECONOMIC OVERVIEW Based on the Ministry of Trade and  Industry's (MTI) latest report, Singapore's  economy slipped into a recession in Q2/2020  as the gross domestic product (GDP)  plummeted 42.9% from the previous quarter.  The economy shrank 13.2% from the same  period last year in Q2/2020, extending the  0.3% decline in Q1/2020. The construction  sector and services-producing industries  contracted in the second quarter on the  back of lower construction output as  well as weaker demand in food and retail  businesses during the lockdown period  when non-essential businesses halted.  The manufacturing sector also shrank by  0.7% year-on-year (YoY) in Q2/2020, a  reversal from the expansion of 7.9% YoY in  the preceding quarter. While output of the  biomedical manufacturing, electronics and  precision engineering clusters surged in  Q2/2020, weak global demand and workplace  disruptions during the lockdown period  weighed on other sectors. As fi  rms struggled with order cancellations  due to global virus containment measures, the  manufacturing sentiments in April slumped  to its lowest since late-2008 during the Global  Financial Crisis (GFC). The supply chain  disruptions resulted from the extension of  Circuit Breaker (CB) also aff  ected the local  production capacity and effi   ciency. Even  though there was some improvement in the  overall and electronics Purchasing Manager's  Index (PMI) for May and June, the PMI  reading remained in negative territory for fi  ve  consecutive months. The slow recovery was  attributed to subdued global demand and re- escalation of trade disputes between the major  economies. Nonetheless, the surge in non- monetary gold exports and pharmaceutical  shipments is proving to be the silver lining  this year, expanding non-oil domestic exports  (NODX) by 16.1% YoY in June after a dip in  May. RENTAL MARKET Compared with the fi  rst three months, the  slowdown of leasing activity in Q2/2020  better refl  ected the impact of COVID-19 on  businesses. In conjunction with the ban on  in-person property viewings during the CB  period, leasing volume1 decreased 18.4% from  a year ago to 2,353 transactions in Q2/2020.  (Graph 1) While the number of new leases  signed for multiple-user factory dropped  by 21.9% YoY amid fi  rms holding back on  major relocation or expansion plans, that for  single-user factory went up by 14.5% from  the same period last year. The former could  be due to the possibility that tenants in  multiple-user factory have weaker fi  nances  than the larger companies occupying single- 1   Based on JTC's rental data (excluding business park  spaces, only comprises single- and multiple-user factory as  well as warehouse spaces). user premises. The impact of the lockdown  may have motivated the weaker companies  to throw in the towel and wait for bluer skies.  The single-user factory tenants may have  used this opportunity to renew their lease  at more attractive rents. Although leasing  demand for warehouse also weakened by  10.0% YoY, the softness was not homogenous.  Some areas like Kallang, still saw reasonable  demand from industries that are active in  this pandemic environment. New demand  there came from those in manufacturing of  essential products such as masks, gloves and  micro fabric material.  The overall industrial vacancy level fell  0.2 of a percentage point (ppt) QoQ to 10.6%  in Q2/2020. This stemmed from improved  occupancy in single-user factory and  warehouse space due to pre-commitments  as well as logistics and storage uses, which  mainly concentrated in West and East  Planning Region. On the other hand, multiple- user factory vacancy level rose 0.4 of a ppt  QoQ to 12.5% on the back of subdued take-up  rate at the newly completed Bedok Food  City. Notably, some existing tenants have  also downsized or vacated their premises  in Central Planning Region, pushing up the  vacancy level within the area. As the leasing activity slowed with the  restrictions and disruptions in place, landlords  were generally more fl  exible on rents. While  rents remained depressed with JTC's rental  index falling across the board in Q2/2020,  Savills average monthly rent for multiple-user  factory2 slipped by -1.0% QoQ to S$1.73 per sq  ft and that for warehouse &amp; logistics3 fell 0.7%  QoQ to S$1.47 per sq ft.  SALES MARKET In the second quarter, there was a higher level  of interest from some industrialists, such as  frozen food manufacturers, who are looking  to acquire suitable assets for their operations  in the long run. This is likely to have arisen  from the pandemic-led shift to frozen  food consumption during the lockdown  period, resulting in more stockpiling among  manufacturers and suppliers to provide a  buff  er amid disruptions to the supply chain.  Nevertheless, despite the rising buying  interest in the market, a majority of them  did not convert into actual sales because of  a mismatch in price expectations between  sellers and buyers. The total sales volume fell  for four consecutive quarters to a new record  low with only 130 deals in Q2/2020. The strata  industrial market saw further slowdown in  sales activity, with another decline of over  30% QoQ to 114 transactions. The decline  2   Based on Savills basket of private multiple-user factory  properties which ranges from 1,000 sq ft to 3,000 sq ft in  size, with an average monthly asking rent of at least S$1.50  per sq ft. 3   Based on Savills basket of private multiple-user warehouse  properties which ranges from 2,000 sq ft to 20,000 sq ft in  size, with an average monthly asking rent of at least S$1.40  per sq ft. GRAPH 1: Factory And Warehouse Leasing Volumes,  2010 to Q2/2020 831  1,138  1,480  1,513  1,752  1,868  1,768  1,794  2,345  2,417  2,434  1,149  1,390  1,732  1,981  2,129  2,317  2,285  2,401  2,702  2,883  2,353  1,065  1,543  1,611  2,070  2,060  2,031  2,130  2,358  2,543  2,679  1,104  1,504  1,613  2,071  2,071  1,921  1,962  2,331  2,564  2,486  0 2,000 4,000 6,000 8,000 10,000 12,000 NO. OF TRANSACTIONS Q1 Q2 Q3 Q4 Source JTC, Savills Research &amp; Consultancy GRAPH 2: Prices Of Upper-Storey Strata Factory And  Warehouse Units, Q1/2014 to Q2/2020 693 429 308 250 300 350 400 450 500 550 600 650 700 750 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 2014 2015 2016 2017 2018 2019 2020 S$ PER SQ FT Freehold 60-year leasehold 30-year leasehold Source JTC, Savills Research &amp; Consultancy GRAPH 3: Business Park Space Vacancy Rates, Q1/2014 to Q2/2020 0 5 10 15 20 25 30 35 40 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 2014 2015 2016 2017 2018 2019 2020 % Islandwide Mapletree Business City  &amp; Science Park Viva Business Park Changi Business Park Source JTC, Savills Research &amp; Consultancy Industrial 3 savills.com.sg/research most of them prefer downsizing instead of  incurring fi  t-out costs when relocating to new  premises. While rents for prime high-specs  industrial spaces with good accessibility and  amenities have been holding up well, overall rents  of high-specs industrial segment started to show  signs of weakness in Q2/2020. Based on Savills  basket of properties7, the average monthly rent for  high-specs industrial space was down by 0.3% QoQ  to S$3.48 per sq ft, marking its fi  rst decline in the  last three years.  OUTLOOK The pandemic has led to a major economic  slowdown globally, leaving many countries in the  deepest recession in decades. The virus outbreak  and the attendant containment measures have  had a more adverse impact on the global economy  than expected, with a global economic contraction  projected at -4.9% this year. Along with the  deteriorating external economic environment  and protracted drag on outward-oriented sectors,  Singapore's economic outlook weakened further  with MTI narrowing its GDP growth forecast  for 2020 to a range between -7.0% and -5.0%  YoY. According to a survey from the Economic  Development Board, 60% of manufacturers  expect business conditions to worsen in the next  six months compared to the fi  rst quarter due  to weaker external demand and supply chain  disruptions. Apart from the impact of heightened  regional trade tensions aff  ecting our trade-reliant  economy, the volatile biomedical manufacturing  segment, lower oil prices, as well as the protracted  supply chain disruption and negative demand  shocks are adding further downside risks for the  manufacturing sector. More companies are embarking on cost  containment and restructuring measures. As  such, tenants, especially those in non-ecommerce  industries and with large spaces, may consider  downsizing or giving up their premises as they  consolidate their business while reducing their  workforce. Even though there are expected delays  in completion for some projects, helping to ease the  potential supply glut in the near term, occupancy  and rental levels are still likely to come under more  pressure, particularly for the factory segment.  Meanwhile, some segments have a better  potential to recover later this year. The warehouse  segment may fi  nd some support from a spike in  logistics and storage needs, while the business park  7   Based on offi   ce-like industrial space which ranges from 2,000 sq  ft to 4,000 sq ft in size, with an average monthly asking rent of at  least S$3 per sq ft. and high-spec industrial segments are expected  to see a gradual pick-up as business sentiment  improves.  Whether by industry, location, leasing period  or by land tenure, the lockdown and disruption in  supply chains are reforming the way players react.  Locations, such as those in Jurong (the western  part of Singapore) have suddenly seen a spike  in interest from both buyers and tenants. Many  warehouses in the west are almost full. However,  tenants are taking on short term, typically six to  nine-month, leases. The fl  oods in China are also  creating supply chain issues and in turn causing  cost push pressures on items from agricultural  to manufactured goods. The fear of supply chain  disruptions arising from natural events is forcing  domestic suppliers here to build buff  ers. However,  because they do not know how long lasting such  disruptions are, they prefer to sign short-term  leases which come with marginally higher rents.  Also, the drive towards the 30 by 30 goal is creating  demand for industrial buildings fi  t for urban  farming (the 30 by 30 vision is to grow enough food  in Singapore to meet 30% of its nutritional needs  by 2030). Industrial buildings with short land  leases have seen slightly greater interest as buyers  seek to arbitrage on the lease tenure, for example, by  selling their existing premises which have a longer  land tenure and downgrading to one with a shorter  tenure.  Although the overall mood in the manufacturing  sector is still dour, there is activity in the industrial  and warehousing markets, especially the latter.  As a result of the pandemic, and now the fl  oods in  China, the market has been thoroughly disrupted,  breaking traditional relationships. It may take a  while before players settle down to a level where one  can anticipate their moves with a higher degree of  confi  dence. This means that the root word amongst  renters is "short-term".  PERIOD YoY % CHANGE IN MULTIPLE- USER FACTORY RENTS YoY % CHANGE IN WAREHOUSE &amp;  LOGISTICS RENTS 2020F -10.0% to -5.0% -5.0% TABLE 1: Rental Forecast For General Industrial Factory And Warehouse Space Source Savills Research &amp; Consultancy in transactions corresponded with a 44.1% QoQ  decrease in value to around S$97.9 million, the  lowest since the GFC period in Q1/2009.  While most industrialists adopted a wait-and-see  approach in anticipation of softer prices, industrial  property owners are at present, still not desperate  to sell their properties, especially the freehold assets  which are classifi  ed as a more stable asset class and  rare. Owing to their scarcity and the large pool of  interested buyers, the average price in Savills' basket  of freehold industrial properties4 went up by 1.0%  QoQ to S$693 per sq ft in Q2/2020.  In the current market, prices of industrial  leasehold properties continued to edge downwards.  Compared with properties with depleting leases,  prices of properties with reasonably long lease  balance of at least 30 years saw a smaller decline  as buyers are largely end-users who purchase the  property for their business operations in a long  run. Savills' basket of industrial properties showed  that the average prices for 60-year leasehold  industrial units trended downwards by 1.2% QoQ  to S$429 per sq ft in Q2/2020. Meanwhile, sellers  of leasehold properties with shorter remaining  leases were more willing to adjust their price  expectations down by up to 15% below valuation,  especially if the properties have a higher quantum  value. In line with those sentiments, the average  price in Savills' basket of 30-year leasehold  industrial properties was down for the third  straight quarters, albeit at a slower pace of 2.2%  QoQ, to S$308 per sq ft in Q2/2020.   BUSINESS PARK AND HIGH-SPECS  INDUSTRIAL The impact of the pandemic dampened business  sentiments and aff  ected the demand for business  park space, with net take-up contracting for the  second quarter. The islandwide vacancy rate for  business park space rose by 0.8 of a ppt QoQ to  14.8% in Q2/2020. Despite the tightening of supply  in Central Planning Region where Mapletree  Business City and Science Park are located, weaker  occupier demand around the area raised the  vacancy level by 1.0 ppt QoQ to 9.6%. (Graph 3)  Regarding rents, JTC's business park rental index  fell for the fi  rst time since Q4/2018 while Savills  business park rents also fell, the fi  rst in three years.  The average monthly rent in Savills basket of prime  business park properties5 edged down by 0.4% QoQ  to S$5.81 per sq ft as some landlords lowered their  asking rents amid weaker sentiments. The older  business parks bore the brunt of the downturn,  with the average monthly rent in Savills basket of  standard business park properties6 slipping by 0.7%  QoQ to S$4.07 per sq ft. Even though some businesses may consider  relocating from offi   ce to high-specs industrial  space as part of their cost restructuring measures,  4   Only include upper-storey strata-titled factory (single- and  multiple-user factory) and warehouse units, excluding all ground  fl  oor units. 5   Based on business park-zoned spaces in the newer clusters which  range from 1,000 sq ft to 5,000 sq ft in size, with an average monthly  asking rent of at least S$5.50 per sq ft. 6   Based on business park-zoned spaces in the older clusters which  range from 1,000 sq ft to 5,000 sq ft in size, with an average monthly  asking rent of at least S$3.50 per sq ft. Industrial </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 savills.com.sg/insight-and-opinion/ MARKET IN MINUTES Savills Research Industrial Industrial prices and rents in recovery mode Savills plc Savills is a leading global real  estate service provider listed on  the London Stock Exchange. The  company established in 1855, has  a rich heritage with unrivalled  growth. It is a company that leads  rather than follows, and now has  over 600 offi   ces and associates  throughout the Americas, Europe,  Asia Pacifi  c, Africa and the Middle  East. This report is for general  informative purposes only. It may  not be published, reproduced or  quoted in part or in whole, nor may  it be used as a basis for any  contract, prospectus, agreement  or other document without prior  consent. Whilst every eff  ort has  been made to ensure its accuracy,  Savills accepts no liability  whatsoever for any direct or  consequential loss arising from its  use. The content is strictly  copyright and reproduction of the  whole or part of it in any form is  prohibited without written  permission from Savills Research. Simon Smith Regional Head of  Research &amp; Consultancy,  Asia Pacifi  c +852 2842 4573 ssmith@savills.com.hk Alan Cheong Executive Director  Singapore +65 6415 3641 alan.cheong@savills.com.sg RESEARCH Industrial supply expected to remain limited due to construction delays. "  Pandemic and now confl  ict  induced disruptions may  create the conditions where  economic performance suff  ers  but rents and prices rise." ALAN CHEONG, SAVILLS RESEARCH *   Leasing volume increased by 4.9% year-on-year (YoY)  to 3,055 transactions in Q4. This brings the total annual  leasing volume to a record level at 13,081, 18.8% higher than  that in 2020. *   The Savills' average monthly rent for prime multiple-user  factories increased by 3.7% quarter-on-quarter (QoQ) to  S$1.84 per sq ft in Q4, which is 8.1% higher than a year ago.  Savills' average monthly rent for prime warehouse and  logistics properties rose at a faster pace of 1.2% QoQ to  S$1.46 per sq ft in Q4. *   On a QoQ basis, strata industrial sales activity remained  relatively stable at 501 transactions in Q4, bringing the  total number of caveats to 1,922 for the whole of 2021  (+52.1% YoY). *   Savills' basket of industrial properties showed that prices for  freehold properties increased at a faster pace at 1.5% QoQ  to S$721 per sq ft in Q4. *   From Savills' basket of industrial properties, 60-year  leasehold prices rose by 1.1% QoQ to S$443 per sq ft.  Similarly, Savills' basket of 30-year leasehold industrial  properties also showed a more signifi  cant price increase in  Q4, which rose by 0.8% QoQ to S$295 per sq ft. *   In Q4, Savills' prime and standard business park monthly  rents rose by 0.9% QoQ to S$5.86 per sq ft and 0.4% QoQ  to S$4.01 per sq ft respectively. *   The average monthly rent for Savills' high-spec industrial  basket increased again by 0.7% QoQ to S$3.56 per sq ft in Q4,  albeit at a moderated pace compared with 1.7% QoQ in Q3. *   Given heightened infl  ationary pressures arising from  supply chain disruptions, rents for prime multiple-user  factory and warehouse &amp; logistics properties are forecast  to rise by up to 2% and 3% respectively in 2022. Christopher J Marriott CEO, Southeast Asia  +65 6415 3888 cjmarriott@savills.asia SINGAPORE Please contact  us for further  information Savills team MCI (P) No. 062/02/2022 Company Reg No. 198703410D Sharon Teo Managing Director Singapore +65 6415 3288 sharon.teo@savills.com.sg Singapore - March 2022 2 savills.com.sg/insight-and-opinion/ MACROECONOMIC OVERVIEW According to the Ministry of Trade and  Industry (MTI), Singapore's economy  expanded by 6.1% in Q4/2021, moderating  from the previous quarter's 7.5%. This led to  a 7.6% YoY economic growth for the whole  of 2021, showing a strong rebound from the  4.1% contraction in 2020. While the services  producing industries grew by 5.6% YoY in  2021, the overall economic growth was led  by the recovery (13.4% YoY) in the goods  producing industries. The construction  industry saw a robust expansion of 20.1% YoY  while the manufacturing grew signifi  cantly  by 13.2% YoY. Singapore manufacturing sentiment ended  2021 on a positive note amid improving  global economic conditions. Manufacturing  activity grew for the 18th straight month in  December, with the Purchasing Managers'  Index (PMI) inching up 0.1 point to 50.7.  Singapore's key exports also continued  growing for the 13th straight month in  December, albeit at a slower rate than the  previous month. Non-oil domestic exports  (NODX) rose 18.4% YoY on the back of  healthy demand for electronic products and  pharmaceuticals. RENTAL MARKET The quarterly leasing volume1 continued  to increase, rising by 4.9% YoY to 3,055  transactions in Q4. This brings total annual  leasing volume to record level at 13,081,  18.8% higher than that in 2020. It was  mainly lifted by strong leasing demand  for single-user factory space which almost  doubled from a year ago (+49.3%). This was  largely driven by Small Medium Enterprises  (SMEs) in the electronics, manufacturing,  and pharmaceutical industries, which  require larger facilities for their business  operations. The multiple-user factory and  warehouse segments also saw healthy take- up from digital and creative businesses, as  well as ecommerce and third-party logistics  (3PL) companies.  Compared with 2020 when leasing  demand was largely driven by shorter leases  to accommodate the surge in stockpiling,  demand was more stable in 2021 as more  industrialists committed to longer leases  amid improving business sentiment. The  vacancy rate for single-user factory and  warehouse remained relatively stable in Q4,  inching up by 0.1 of a percentage point (ppt)  QoQ to 9.4% and 10.0% respectively. With  removal of 178,900 sq ft of stock, the vacancy  rate for multiple-user factory eased by 0.4 of  a ppt QoQ to 9.8% in Q4.  Rents continued to trend up across all  industrial segments in Q4, with JTC's rental  index for factory and warehouse hitting  a record since 2017. The Savills' average  monthly rent for prime multiple-user  1   Based on JTC's rental data (excluding business park  spaces, only comprises single- and multiple-user factory as  well as warehouse spaces). factories2 increased by 3.7% QoQ to S$1.84  per sq ft in Q4, which is 8.1% higher than a  year ago. Savills' average monthly rent for  prime warehouse and logistics properties3  also rose at a faster pace by 1.2% QoQ to  S$1.46 per sq ft in Q4. SALES MARKET Strata industrial sales activity4 remained  relatively stable at 501 transactions in Q4,  compared to 506 in Q3. This brings the total  number of caveats to 1,922 for the whole of  2021, 52.1% higher than the previous year.  This marked the the highest volume recorded  since 2013. While most Multinational  Corporations (MNCs) adopt an asset-light  business model, many local SMEs were  looking to acquire properties for their own  operations. This helped to boost the demand  for multiple-user factory and warehouses,  especially from companies in the electronics,  manufacturing, pharmaceutical distribution,  ecommerce, and last mile transportation  services. Although there was a gap between  buyers and sellers' price expectations,  buyers who need new facility with required  specifi  cations for their business operations  were more motivated to commit to higher asking prices. Although there was some new project  launches in Q4/2021, such as In Space and  Citrine Foodland, industrial property prices  continued to rise. In particular, the Savills'  basket of industrial properties showed that  prices for freehold properties increased at  a faster pace at 1.5% QoQ to S$721 per sq  ft in Q4. From Savills' basket of industrial  properties, the price of 60-year leasehold  units rose by 1.1% QoQ to S$443 per sq ft.  Savills' basket of 30-year leasehold industrial  properties also showed a more signifi  cant  price increase in Q4, rising 0.8% QoQ to  S$295 per sq ft. However, 30-year leasehold  industrial prices are still 1.6% lower than a  year ago.  BUSINESS PARK AND HIGH-SPEC  INDUSTRIAL The vacancy level for business park space  in the East Planning Region increased by  2.9 ppts QoQ in Q4/2021 to 21.5% largely  due to reduced occupational pressures  in ESR Bizpark @ Chai Chee and Changi  Business Park. Despite the completion of  asset enhancement work for some buildings,  it is nevertheless still challenging fi  nding  tenants. This was partly because some main  target clients of business park space, such as  technology and software fi  rms which did well  in the digital transformation age, moved to  Grade B offi   ce spaces to acquire and retain  2   Based on Savills basket of private multiple-user factory  properties which ranges from 1,000 sq ft to 3,000 sq ft in  size, with an average monthly asking rent of at least S$1.50  per sq ft. 3   Based on Savills basket of private multiple-user warehouse  properties which ranges from 2,000 sq ft to 80,000 sq ft in  size, with an average monthly asking rent of at least S$1.30  per sq ft. 4   Based on JTC's sales caveat data, downloaded on 15  November 2021. GRAPH 1: Factory and Warehouse Leasing Volumes,  2011 to 2021 1,138  1,480  1,513  1,752  1,868  1,768  1,794  2,345  2,417  2,434  2,950  1,390  1,732  1,981  2,129  2,317  2,285  2,401  2,702  2,883  2,353  3,381  1,543  1,611  2,070  2,060  2,031  2,130  2,358  2,543  2,679  3,005  3,423  1,504  1,613  2,071  2,071  1,921  1,962  2,331  2,564  2,486  2,913  3,055  0 2,000 4,000 6,000 8,000 10,000 12,000 14,000 NO. OF TRANSACTIONS Q1 Q2 Q3 Q4 Source JTC, Savills Research &amp; Consultancy GRAPH 2: Prices of Upper-Storey Strata Factory and  Warehouse Units, Q1/2015 to Q4/2021 250 300 350 400 450 500 550 600 650 700 750 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 2015 2016 2017 2018 2019 2020 2021 S$ PER SQ FT Freehold 60-year leasehold 30-year leasehold Source JTC, Savills Research &amp; Consultancy GRAPH 3: Business Park Space Vacancy Rates, Q1/2016 to Q4/2021 0 5 10 15 20 25 30 35 40 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 Q1 Q2 Q3 Q4 2016 2017 2018 2019 2020 2021 % Islandwide Mapletree Business City &amp; Science Park one-north Changi Business Park Source JTC, Savills Research &amp; Consultancy Industrial 3 savills.com.sg/insight-and-opinion/ talents. Nonetheless, vacancy level in the Central  Region eased by 1.7% ppt QoQ to record low at  8.5% due to stock removal for redevelopment of  1 Science Park Drive, bringing the islandwide  vacancy level down 0.2 of a ppt QoQ to 15.5% in  Q4. The limited availability of space and constant  demand in Mapletree Business City and one- north regions continued to support rental growth,  driving Savills' prime business park5 monthly  rents up by 0.9% QoQ to S$5.86 per sq ft in Q4,  0.8% above that a year ago. Savills' standard  business park properties' monthly rents remained  in recovery mode, rising by 0.4% QoQ to S$4.01  per sq ft in Q4, the same rental level as a year ago.  However, the rental growth could be attributed  to the REIT-owned properties which held their  rents up while off  ering other incentives such as  Capital Expenditure (CapEx) allowance or rent- free period. While there was some spill-over of demand from  high-spec industrial spaces to Grade B offi   ces,  some new high-spec industrial developments such  as UBIX saw healthy commitment rate. Coupled  with the strong demand in some prime high-spec  industrial developments, the average monthly  rent for Savills' high-spec industrial basket   increased by 0.7% QoQ to S$3.56 per sq ft in Q4,  albeit at a moderated pace compared with the 1.7%  QoQ rate achieved in Q3.  OUTLOOK Singapore was set for an economic recovery in  the beginning of the year, largely driven by the  manufacturing sector. However, elevated oil and  energy prices caused by Russia's attack on Ukraine  are expected to have an impact on the electricity  5   Based on business park-zoned spaces in the newer clusters which  range from 1,000 sq ft to 5,000 sq ft in size, with an average monthly  asking rent of at least S$5.50 per sq ft. temperature-controlled facilities. This is fuelled  by manufacturers gearing up for a post-pandemic  future where supply chains will have to be  increasingly nimble.  Notably, due to the pivot to Industry 4.0,  landlords of older developments are likely to take  the opportunity to embark on asset enhancement  initiatives and redevelopment works to remain  relevant. Nonetheless, the supply of modern  industrial facilities with quality specifi  cations  is expected to remain limited in the near term  because of construction delays.  If infl  ation, which was already high, catalysed  by supply chain disruptions caused by the  pandemic, gets further boosted by the Ukrainian  confl  ict, it may spur companies to purchase their  own properties or sign long term leases. Although  the prospect of stagfl  ation may set in, the  situation we have now could create the conditions  for industrial/warehousing rents and prices to rise  despite the economy not performing well.  Taking the abovementioned factors into  account, rent for prime multiple-user factory and  warehouse &amp; logistics properties is forecast to  grow by up to 2% and 3% respectively in 2022.  PERIOD YoY % CHANGE IN MULTIPLE-USER  FACTORY RENTS YoY % CHANGE IN WAREHOUSE &amp;  LOGISTICS RENTS 2022F 1.0% to 2.0% 1.0% to 3.0% TABLE 1: Rental Forecast for Multiple-User Factory and Warehouse &amp; Logistics Segments Source Savills Research &amp; Consultancy and transportation costs for industrialists and  manufacturers. The Russia-Ukraine confl  ict  will further strain global manufacturing and  supply chains as Russia and Ukraine are major  exporters of commodities such as wheat, nickel  and palladium. This could in turn lead to another  wave of disruption and stockpiling. A protracted  confl  ict will aff  ect business confi  dence and weigh  on global economies and impact their recovery  from the pandemic.  Despite the global headwinds, industrial and  logistics are likely to remain as a favoured real  estate sector. In light of operational constraints  amid the pandemic, many businesses intensifi  ed  their eff  orts to embrace advanced manufacturing,  adopt new technology and upskill their workforce.  Some initiatives to address the accelerated  structural shifts resulting from COVID-19 include  the digitalisation of warehousing operations  and automation of production lines to cope with  fl  uctuations in demand. Owing to a faster pace of  Industry 4.0. transformation, there is a greater  shift of demand from traditional factories and  warehouses to high-specifi  cation industrial  facilities, last mile delivery/urban logistics and  Industrial </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1150,20 +943,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1172,40 +960,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1238,59 +996,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1602,19 +1321,19 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3278,369 +2997,148 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B769D7-DD90-B84D-8AEE-05073F570C83}">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A065458A-2255-4649-AA68-EA95BF0F8336}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E14" sqref="A9:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="D2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="D3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="D4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="D5">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="D6">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="D7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="C8" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="D8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C9" t="s">
-        <v>251</v>
-      </c>
-      <c r="D9">
-        <v>2020</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>252</v>
-      </c>
-      <c r="B10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C10" t="s">
-        <v>254</v>
-      </c>
-      <c r="D10">
-        <v>2020</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>255</v>
-      </c>
-      <c r="B11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C11" t="s">
-        <v>257</v>
-      </c>
-      <c r="D11">
-        <v>2020</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>258</v>
-      </c>
-      <c r="B12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C12" t="s">
-        <v>260</v>
-      </c>
-      <c r="D12">
-        <v>2020</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>261</v>
-      </c>
-      <c r="B13" t="s">
-        <v>262</v>
-      </c>
-      <c r="C13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D13">
-        <v>2020</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>264</v>
-      </c>
-      <c r="B14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C14" t="s">
-        <v>266</v>
-      </c>
-      <c r="D14">
-        <v>2020</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" t="s">
-        <v>268</v>
-      </c>
-      <c r="C15" t="s">
-        <v>269</v>
-      </c>
-      <c r="D15">
-        <v>2020</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>270</v>
-      </c>
-      <c r="B16" t="s">
-        <v>271</v>
-      </c>
-      <c r="C16" t="s">
-        <v>272</v>
-      </c>
-      <c r="D16">
-        <v>2020</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>273</v>
-      </c>
-      <c r="B17" t="s">
-        <v>274</v>
-      </c>
-      <c r="C17" t="s">
-        <v>275</v>
-      </c>
-      <c r="D17">
-        <v>2020</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>276</v>
-      </c>
-      <c r="B18" t="s">
-        <v>277</v>
-      </c>
-      <c r="C18" t="s">
-        <v>278</v>
-      </c>
-      <c r="D18">
-        <v>2020</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>279</v>
-      </c>
-      <c r="B19" t="s">
-        <v>280</v>
-      </c>
-      <c r="C19" t="s">
-        <v>281</v>
-      </c>
-      <c r="D19">
-        <v>2020</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>282</v>
-      </c>
-      <c r="B20" t="s">
-        <v>283</v>
-      </c>
-      <c r="C20" t="s">
-        <v>284</v>
-      </c>
-      <c r="D20">
-        <v>2020</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>285</v>
-      </c>
-      <c r="B21" t="s">
-        <v>286</v>
-      </c>
-      <c r="C21" t="s">
-        <v>287</v>
-      </c>
-      <c r="D21">
-        <v>2020</v>
-      </c>
-      <c r="E21">
         <v>2</v>
       </c>
     </row>
@@ -3650,31 +3148,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:E98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A636C49-6050-6C43-BD87-65AEA6BCF2A6}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="A2:E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="4" hidden="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="13" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -3684,1568 +3174,510 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6">
-        <v>2024</v>
-      </c>
-      <c r="E2" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2024</v>
-      </c>
-      <c r="E3" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2024</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2024</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2024</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2024</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="6">
-        <v>2024</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="9">
-        <v>2023</v>
-      </c>
-      <c r="E9" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E10" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E11" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E12" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E13" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E14" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E15" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E16" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E17" s="6">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2">
+        <v>2021</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3">
+        <v>2021</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4">
+        <v>2021</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5">
+        <v>2021</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6">
+        <v>2021</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7">
+        <v>2021</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B769D7-DD90-B84D-8AEE-05073F570C83}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="A2:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2">
+        <v>2020</v>
+      </c>
+      <c r="E2">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E19" s="6">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3">
+        <v>2020</v>
+      </c>
+      <c r="E3">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E20" s="6">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4">
+        <v>2020</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E21" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E22" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E23" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E24" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E25" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="4" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E29" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="6">
-        <v>2023</v>
-      </c>
-      <c r="E30" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E31" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" ht="304" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E32" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E33" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E34" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="9">
-        <v>2022</v>
-      </c>
-      <c r="E35" s="9">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5">
+        <v>2020</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6">
+        <v>2020</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7">
+        <v>2020</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8">
+        <v>2020</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9">
+        <v>2020</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10">
+        <v>2020</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D11">
+        <v>2020</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF37E28-DC66-DE49-A47D-11B0A8F93A42}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E36" s="6">
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2">
+        <v>2020</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3">
+        <v>2020</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4">
+        <v>2020</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5">
+        <v>2020</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6">
+        <v>2020</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7">
+        <v>2020</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8">
+        <v>2020</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9">
+        <v>2020</v>
+      </c>
+      <c r="E9">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="4" customFormat="1" ht="335" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E37" s="6">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10">
+        <v>2020</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E38" s="6">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11">
+        <v>2020</v>
+      </c>
+      <c r="E11">
         <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E39" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="4" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E40" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D41" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E41" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="9">
-        <v>2022</v>
-      </c>
-      <c r="E42" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="4" customFormat="1" ht="335" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="10">
-        <v>2022</v>
-      </c>
-      <c r="E43" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D44" s="10">
-        <v>2022</v>
-      </c>
-      <c r="E44" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" s="10">
-        <v>2022</v>
-      </c>
-      <c r="E45" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" s="10">
-        <v>2022</v>
-      </c>
-      <c r="E46" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D47" s="10">
-        <v>2022</v>
-      </c>
-      <c r="E47" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D48" s="9">
-        <v>2022</v>
-      </c>
-      <c r="E48" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E49" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="4" customFormat="1" ht="335" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E50" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D51" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E51" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D52" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E52" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="4" customFormat="1" ht="365" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D53" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E53" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="4" customFormat="1" ht="395" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D54" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E54" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D55" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E55" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D56" s="6">
-        <v>2022</v>
-      </c>
-      <c r="E56" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D57" s="6">
-        <v>2021</v>
-      </c>
-      <c r="E57" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="4" customFormat="1" ht="335" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D58" s="6">
-        <v>2021</v>
-      </c>
-      <c r="E58" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D59" s="6">
-        <v>2021</v>
-      </c>
-      <c r="E59" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="4" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D60" s="6">
-        <v>2021</v>
-      </c>
-      <c r="E60" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D61" s="6">
-        <v>2021</v>
-      </c>
-      <c r="E61" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="4" customFormat="1" ht="335" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D62" s="6">
-        <v>2021</v>
-      </c>
-      <c r="E62" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D63" s="6">
-        <v>2021</v>
-      </c>
-      <c r="E63" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D64" s="6">
-        <v>2021</v>
-      </c>
-      <c r="E64" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D65" s="6">
-        <v>2021</v>
-      </c>
-      <c r="E65" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="4" customFormat="1" ht="320" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D66" s="6">
-        <v>2021</v>
-      </c>
-      <c r="E66" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D67" s="6">
-        <v>2021</v>
-      </c>
-      <c r="E67" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D68" s="6">
-        <v>2021</v>
-      </c>
-      <c r="E68" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="4" customFormat="1" ht="380" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D69" s="6">
-        <v>2021</v>
-      </c>
-      <c r="E69" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D70" s="6">
-        <v>2021</v>
-      </c>
-      <c r="E70" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D71" s="6">
-        <v>2021</v>
-      </c>
-      <c r="E71" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="4" customFormat="1" ht="320" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D72" s="6">
-        <v>2021</v>
-      </c>
-      <c r="E72" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D73" s="6">
-        <v>2021</v>
-      </c>
-      <c r="E73" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D74" s="6">
-        <v>2021</v>
-      </c>
-      <c r="E74" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="4" customFormat="1" ht="380" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D75" s="6">
-        <v>2021</v>
-      </c>
-      <c r="E75" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="4" customFormat="1" ht="395" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D76" s="6">
-        <v>2021</v>
-      </c>
-      <c r="E76" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D77" s="6">
-        <v>2021</v>
-      </c>
-      <c r="E77" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="4" customFormat="1" ht="320" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D78" s="6">
-        <v>2020</v>
-      </c>
-      <c r="E78" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D79" s="6">
-        <v>2020</v>
-      </c>
-      <c r="E79" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D80" s="6">
-        <v>2020</v>
-      </c>
-      <c r="E80" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D81" s="6">
-        <v>2020</v>
-      </c>
-      <c r="E81" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" s="4" customFormat="1" ht="380" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D82" s="6">
-        <v>2020</v>
-      </c>
-      <c r="E82" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" s="4" customFormat="1" ht="395" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D83" s="6">
-        <v>2020</v>
-      </c>
-      <c r="E83" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D84" s="6">
-        <v>2020</v>
-      </c>
-      <c r="E84" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" s="4" customFormat="1" ht="304" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D85" s="6">
-        <v>2020</v>
-      </c>
-      <c r="E85" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D86" s="6">
-        <v>2020</v>
-      </c>
-      <c r="E86" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D87" s="6">
-        <v>2020</v>
-      </c>
-      <c r="E87" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D88" s="6">
-        <v>2020</v>
-      </c>
-      <c r="E88" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" s="4" customFormat="1" ht="395" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D89" s="6">
-        <v>2020</v>
-      </c>
-      <c r="E89" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="D90" s="6">
-        <v>2020</v>
-      </c>
-      <c r="E90" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D91" s="6">
-        <v>2020</v>
-      </c>
-      <c r="E91" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D92" s="6">
-        <v>2020</v>
-      </c>
-      <c r="E92" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" s="4" customFormat="1" ht="256" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D93" s="6">
-        <v>2020</v>
-      </c>
-      <c r="E93" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D94" s="6">
-        <v>2020</v>
-      </c>
-      <c r="E94" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" s="4" customFormat="1" ht="395" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D95" s="6">
-        <v>2020</v>
-      </c>
-      <c r="E95" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" s="4" customFormat="1" ht="380" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D96" s="6">
-        <v>2020</v>
-      </c>
-      <c r="E96" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D97" s="6">
-        <v>2020</v>
-      </c>
-      <c r="E97" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D98" s="12"/>
-      <c r="E98" s="6">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5264,138 +3696,138 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="4">
         <v>2024</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="4">
         <v>2024</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="4">
         <v>2024</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="4">
         <v>2024</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="4">
         <v>2024</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="4">
         <v>2024</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="4">
         <v>2024</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="4">
         <v>1</v>
       </c>
     </row>
@@ -5415,19 +3847,19 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5634,19 +4066,19 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5836,19 +4268,19 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6021,19 +4453,19 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6165,26 +4597,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F631FDC2-4D75-C847-A504-F60AE542103D}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6306,19 +4738,19 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6414,28 +4846,28 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F212F090-15FF-0C4A-AE2F-600B3A9177ED}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6590,227 +5022,6 @@
       </c>
       <c r="E10">
         <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" t="s">
-        <v>191</v>
-      </c>
-      <c r="D11">
-        <v>2021</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D12">
-        <v>2021</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13">
-        <v>2021</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D14">
-        <v>2021</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>201</v>
-      </c>
-      <c r="B15" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15">
-        <v>2021</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>204</v>
-      </c>
-      <c r="B16" t="s">
-        <v>205</v>
-      </c>
-      <c r="C16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D16">
-        <v>2021</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>207</v>
-      </c>
-      <c r="B17" t="s">
-        <v>208</v>
-      </c>
-      <c r="C17" t="s">
-        <v>209</v>
-      </c>
-      <c r="D17">
-        <v>2021</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>210</v>
-      </c>
-      <c r="B18" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18" t="s">
-        <v>212</v>
-      </c>
-      <c r="D18">
-        <v>2021</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>213</v>
-      </c>
-      <c r="B19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C19" t="s">
-        <v>215</v>
-      </c>
-      <c r="D19">
-        <v>2021</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>216</v>
-      </c>
-      <c r="B20" t="s">
-        <v>217</v>
-      </c>
-      <c r="C20" t="s">
-        <v>218</v>
-      </c>
-      <c r="D20">
-        <v>2021</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>219</v>
-      </c>
-      <c r="B21" t="s">
-        <v>220</v>
-      </c>
-      <c r="C21" t="s">
-        <v>221</v>
-      </c>
-      <c r="D21">
-        <v>2021</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B22" t="s">
-        <v>223</v>
-      </c>
-      <c r="C22" t="s">
-        <v>224</v>
-      </c>
-      <c r="D22">
-        <v>2021</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>225</v>
-      </c>
-      <c r="B23" t="s">
-        <v>226</v>
-      </c>
-      <c r="C23" t="s">
-        <v>227</v>
-      </c>
-      <c r="D23">
-        <v>2021</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/consultancy_reports_texts.xlsx
+++ b/consultancy_reports_texts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loowenwen/Desktop/Visual Code Studio/jtc-market-sentiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CAFA05-C39E-354E-9A92-3CEF61A3282A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED31E2CB-C2AF-9646-B8B3-6729F4AC2450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,10 @@
     <sheet name="2022_4" sheetId="11" r:id="rId8"/>
     <sheet name="2021_1" sheetId="6" r:id="rId9"/>
     <sheet name="2021_2" sheetId="12" r:id="rId10"/>
-    <sheet name="2021_3" sheetId="13" r:id="rId11"/>
-    <sheet name="2020_1" sheetId="7" r:id="rId12"/>
-    <sheet name="2020_2" sheetId="14" r:id="rId13"/>
+    <sheet name="2021_3" sheetId="15" r:id="rId11"/>
+    <sheet name="2021_4" sheetId="13" r:id="rId12"/>
+    <sheet name="2020_1" sheetId="7" r:id="rId13"/>
+    <sheet name="2020_2" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">master!$A$1:$E$98</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="291">
   <si>
     <t>File Name</t>
   </si>
@@ -1314,7 +1315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A79" sqref="A79:E98"/>
     </sheetView>
   </sheetViews>
@@ -2998,9 +2999,262 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A065458A-2255-4649-AA68-EA95BF0F8336}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2">
+        <v>2021</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3">
+        <v>2021</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4">
+        <v>2021</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>2021</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6">
+        <v>2021</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7">
+        <v>2021</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8">
+        <v>2021</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9">
+        <v>2021</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10">
+        <v>2021</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11">
+        <v>2021</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12">
+        <v>2021</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13">
+        <v>2021</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14">
+        <v>2021</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6644B3-B671-2548-9EA9-16790637FCB2}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="A9:E14"/>
     </sheetView>
   </sheetViews>
@@ -3147,12 +3401,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A636C49-6050-6C43-BD87-65AEA6BCF2A6}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="A2:E8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3281,7 +3535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B769D7-DD90-B84D-8AEE-05073F570C83}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -3483,11 +3737,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF37E28-DC66-DE49-A47D-11B0A8F93A42}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:E21"/>
     </sheetView>
   </sheetViews>
